--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X293"/>
+  <dimension ref="A1:X294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9419,7 +9425,7 @@
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
@@ -9452,7 +9458,11 @@
       <c r="S158" s="2" t="inlineStr"/>
       <c r="T158" s="2" t="inlineStr"/>
       <c r="U158" s="2" t="inlineStr"/>
-      <c r="V158" s="2" t="inlineStr"/>
+      <c r="V158" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W158" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16179,223 +16189,219 @@
       <c r="X276" s="2" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="inlineStr">
+      <c r="A277" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:050441</t>
+        </is>
+      </c>
+      <c r="B277" s="5" t="inlineStr">
+        <is>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="C277" s="5" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D277" s="5" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that relates to the social environment.</t>
+        </is>
+      </c>
+      <c r="E277" s="5" t="inlineStr"/>
+      <c r="F277" s="5" t="inlineStr"/>
+      <c r="G277" s="5" t="inlineStr"/>
+      <c r="H277" s="5" t="inlineStr"/>
+      <c r="I277" s="5" t="inlineStr"/>
+      <c r="J277" s="5" t="inlineStr"/>
+      <c r="K277" s="5" t="inlineStr"/>
+      <c r="L277" s="5" t="inlineStr"/>
+      <c r="M277" s="5" t="inlineStr"/>
+      <c r="N277" s="5" t="inlineStr"/>
+      <c r="O277" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="P277" s="5" t="inlineStr"/>
+      <c r="Q277" s="5" t="inlineStr"/>
+      <c r="R277" s="5" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="S277" s="5" t="inlineStr"/>
+      <c r="T277" s="5" t="inlineStr"/>
+      <c r="U277" s="5" t="inlineStr"/>
+      <c r="V277" s="5" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W277" s="5" t="inlineStr"/>
+      <c r="X277" s="5" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr">
         <is>
           <t>BCIO:006072</t>
         </is>
       </c>
-      <c r="B277" s="2" t="inlineStr">
+      <c r="B278" s="2" t="inlineStr">
         <is>
           <t>stereotype</t>
         </is>
       </c>
-      <c r="C277" s="2" t="inlineStr">
+      <c r="C278" s="2" t="inlineStr">
         <is>
           <t>cognitive schema</t>
         </is>
       </c>
-      <c r="D277" s="2" t="inlineStr">
+      <c r="D278" s="2" t="inlineStr">
         <is>
           <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
         </is>
       </c>
-      <c r="E277" s="2" t="inlineStr"/>
-      <c r="F277" s="2" t="inlineStr"/>
-      <c r="G277" s="2" t="inlineStr"/>
-      <c r="H277" s="2" t="inlineStr"/>
-      <c r="I277" s="2" t="inlineStr">
+      <c r="E278" s="2" t="inlineStr"/>
+      <c r="F278" s="2" t="inlineStr"/>
+      <c r="G278" s="2" t="inlineStr"/>
+      <c r="H278" s="2" t="inlineStr"/>
+      <c r="I278" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
         </is>
       </c>
-      <c r="J277" s="2" t="inlineStr"/>
-      <c r="K277" s="2" t="inlineStr"/>
-      <c r="L277" s="2" t="inlineStr"/>
-      <c r="M277" s="2" t="inlineStr"/>
-      <c r="N277" s="2" t="inlineStr"/>
-      <c r="O277" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P277" s="2" t="inlineStr"/>
-      <c r="Q277" s="2" t="inlineStr"/>
-      <c r="R277" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S277" s="2" t="inlineStr"/>
-      <c r="T277" s="2" t="inlineStr"/>
-      <c r="U277" s="2" t="inlineStr"/>
-      <c r="V277" s="2" t="inlineStr"/>
-      <c r="W277" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X277" s="2" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
+      <c r="J278" s="2" t="inlineStr"/>
+      <c r="K278" s="2" t="inlineStr"/>
+      <c r="L278" s="2" t="inlineStr"/>
+      <c r="M278" s="2" t="inlineStr"/>
+      <c r="N278" s="2" t="inlineStr"/>
+      <c r="O278" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P278" s="2" t="inlineStr"/>
+      <c r="Q278" s="2" t="inlineStr"/>
+      <c r="R278" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S278" s="2" t="inlineStr"/>
+      <c r="T278" s="2" t="inlineStr"/>
+      <c r="U278" s="2" t="inlineStr"/>
+      <c r="V278" s="2" t="inlineStr"/>
+      <c r="W278" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X278" s="2" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
+      <c r="D279" t="inlineStr">
         <is>
           <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr">
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
         <is>
           <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>Feeling calm; hunger; pain</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr">
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr">
         <is>
           <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
 Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
 As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="inlineStr"/>
-      <c r="N278" t="inlineStr"/>
-      <c r="O278" t="inlineStr">
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P278" t="inlineStr"/>
-      <c r="Q278" t="inlineStr"/>
-      <c r="R278" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S278" t="inlineStr"/>
-      <c r="T278" t="inlineStr"/>
-      <c r="U278" t="inlineStr"/>
-      <c r="V278" t="inlineStr"/>
-      <c r="W278" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050323</t>
-        </is>
-      </c>
-      <c r="B279" s="2" t="inlineStr">
-        <is>
-          <t>subjective feeling</t>
-        </is>
-      </c>
-      <c r="C279" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D279" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that involves the experience of internal or external sensory stimuli.</t>
-        </is>
-      </c>
-      <c r="E279" s="2" t="inlineStr"/>
-      <c r="F279" s="2" t="inlineStr"/>
-      <c r="G279" s="2" t="inlineStr"/>
-      <c r="H279" s="2" t="inlineStr">
-        <is>
-          <t>Feeling ticklish, feeling tingling</t>
-        </is>
-      </c>
-      <c r="I279" s="2" t="inlineStr">
-        <is>
-          <t>If a subjective feeling is valenced (i.e., an affective process), the more granular class “subjective affective feeling” can be used to capture this feeling.</t>
-        </is>
-      </c>
-      <c r="J279" s="2" t="inlineStr"/>
-      <c r="K279" s="2" t="inlineStr"/>
-      <c r="L279" s="2" t="inlineStr"/>
-      <c r="M279" s="2" t="inlineStr"/>
-      <c r="N279" s="2" t="inlineStr"/>
-      <c r="O279" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P279" s="2" t="inlineStr"/>
-      <c r="Q279" s="2" t="inlineStr"/>
-      <c r="R279" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S279" s="2" t="inlineStr"/>
-      <c r="T279" s="2" t="inlineStr"/>
-      <c r="U279" s="2" t="inlineStr"/>
-      <c r="V279" s="2" t="inlineStr"/>
-      <c r="W279" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X279" s="2" t="inlineStr"/>
+      <c r="P279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr"/>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr"/>
+      <c r="T279" t="inlineStr"/>
+      <c r="U279" t="inlineStr"/>
+      <c r="V279" t="inlineStr"/>
+      <c r="W279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050316</t>
+          <t>BCIO:050323</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>subjective need</t>
+          <t>subjective feeling</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D280" s="2" t="inlineStr">
         <is>
-          <t>A subjective affective feeling that is an attraction to an imagined scenario involving anticipated relief from or avoidance of mental or physical discomfort.</t>
+          <t>A mental process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
       <c r="E280" s="2" t="inlineStr"/>
-      <c r="F280" s="2" t="inlineStr">
-        <is>
-          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
-        </is>
-      </c>
+      <c r="F280" s="2" t="inlineStr"/>
       <c r="G280" s="2" t="inlineStr"/>
-      <c r="H280" s="2" t="inlineStr"/>
-      <c r="I280" s="2" t="inlineStr"/>
+      <c r="H280" s="2" t="inlineStr">
+        <is>
+          <t>Feeling ticklish, feeling tingling</t>
+        </is>
+      </c>
+      <c r="I280" s="2" t="inlineStr">
+        <is>
+          <t>If a subjective feeling is valenced (i.e., an affective process), the more granular class “subjective affective feeling” can be used to capture this feeling.</t>
+        </is>
+      </c>
       <c r="J280" s="2" t="inlineStr"/>
       <c r="K280" s="2" t="inlineStr"/>
       <c r="L280" s="2" t="inlineStr"/>
@@ -16427,12 +16433,12 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050317</t>
+          <t>BCIO:050316</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>subjective want</t>
+          <t>subjective need</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -16442,11 +16448,15 @@
       </c>
       <c r="D281" s="2" t="inlineStr">
         <is>
-          <t>A subjective affective feeling that is an attraction to an imagined scenario involving anticipated pleasure or satisfaction.</t>
+          <t>A subjective affective feeling that is an attraction to an imagined scenario involving anticipated relief from or avoidance of mental or physical discomfort.</t>
         </is>
       </c>
       <c r="E281" s="2" t="inlineStr"/>
-      <c r="F281" s="2" t="inlineStr"/>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
+        </is>
+      </c>
       <c r="G281" s="2" t="inlineStr"/>
       <c r="H281" s="2" t="inlineStr"/>
       <c r="I281" s="2" t="inlineStr"/>
@@ -16479,89 +16489,85 @@
       <c r="X281" s="2" t="inlineStr"/>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="inlineStr"/>
-      <c r="N282" t="inlineStr"/>
-      <c r="O282" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P282" t="inlineStr"/>
-      <c r="Q282" t="inlineStr"/>
-      <c r="R282" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S282" t="inlineStr"/>
-      <c r="T282" t="inlineStr"/>
-      <c r="U282" t="inlineStr"/>
-      <c r="V282" t="inlineStr"/>
-      <c r="W282" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X282" t="inlineStr"/>
+      <c r="A282" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050317</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="inlineStr">
+        <is>
+          <t>subjective want</t>
+        </is>
+      </c>
+      <c r="C282" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that is an attraction to an imagined scenario involving anticipated pleasure or satisfaction.</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="inlineStr"/>
+      <c r="F282" s="2" t="inlineStr"/>
+      <c r="G282" s="2" t="inlineStr"/>
+      <c r="H282" s="2" t="inlineStr"/>
+      <c r="I282" s="2" t="inlineStr"/>
+      <c r="J282" s="2" t="inlineStr"/>
+      <c r="K282" s="2" t="inlineStr"/>
+      <c r="L282" s="2" t="inlineStr"/>
+      <c r="M282" s="2" t="inlineStr"/>
+      <c r="N282" s="2" t="inlineStr"/>
+      <c r="O282" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P282" s="2" t="inlineStr"/>
+      <c r="Q282" s="2" t="inlineStr"/>
+      <c r="R282" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S282" s="2" t="inlineStr"/>
+      <c r="T282" s="2" t="inlineStr"/>
+      <c r="U282" s="2" t="inlineStr"/>
+      <c r="V282" s="2" t="inlineStr"/>
+      <c r="W282" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X282" s="2" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ADDICTO:0001140</t>
+          <t xml:space="preserve">MF:0000088 </t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>substance dependence</t>
+          <t>subliminal process</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
-        </is>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
@@ -16593,29 +16599,33 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>MFOEM:000032</t>
+          <t>ADDICTO:0001140</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>substance dependence</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr"/>
-      <c r="I284" t="inlineStr"/>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
@@ -16647,22 +16657,22 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>RO:0002577</t>
+          <t>MFOEM:000032</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -16699,91 +16709,87 @@
       <c r="X285" t="inlineStr"/>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006163</t>
-        </is>
-      </c>
-      <c r="B286" s="2" t="inlineStr">
-        <is>
-          <t>targeted mental distancing</t>
-        </is>
-      </c>
-      <c r="C286" s="2" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="D286" s="2" t="inlineStr">
-        <is>
-          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
-        </is>
-      </c>
-      <c r="E286" s="2" t="inlineStr"/>
-      <c r="F286" s="2" t="inlineStr"/>
-      <c r="G286" s="2" t="inlineStr">
-        <is>
-          <t>targeted decentring</t>
-        </is>
-      </c>
-      <c r="H286" s="2" t="inlineStr"/>
-      <c r="I286" s="2" t="inlineStr"/>
-      <c r="J286" s="2" t="inlineStr"/>
-      <c r="K286" s="2" t="inlineStr"/>
-      <c r="L286" s="2" t="inlineStr"/>
-      <c r="M286" s="2" t="inlineStr"/>
-      <c r="N286" s="2" t="inlineStr"/>
-      <c r="O286" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P286" s="2" t="inlineStr"/>
-      <c r="Q286" s="2" t="inlineStr"/>
-      <c r="R286" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S286" s="2" t="inlineStr"/>
-      <c r="T286" s="2" t="inlineStr"/>
-      <c r="U286" s="2" t="inlineStr"/>
-      <c r="V286" s="2" t="inlineStr"/>
-      <c r="W286" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X286" s="2" t="inlineStr"/>
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>RO:0002577</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="inlineStr"/>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr"/>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr"/>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="inlineStr"/>
+      <c r="V286" t="inlineStr"/>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006091</t>
+          <t>BCIO:006163</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>temporal behavioural opportunity</t>
+          <t>targeted mental distancing</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="D287" s="2" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
       <c r="E287" s="2" t="inlineStr"/>
-      <c r="F287" s="2" t="inlineStr">
-        <is>
-          <t>Characteristics of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="G287" s="2" t="inlineStr"/>
+      <c r="F287" s="2" t="inlineStr"/>
+      <c r="G287" s="2" t="inlineStr">
+        <is>
+          <t>targeted decentring</t>
+        </is>
+      </c>
       <c r="H287" s="2" t="inlineStr"/>
       <c r="I287" s="2" t="inlineStr"/>
       <c r="J287" s="2" t="inlineStr"/>
@@ -16817,26 +16823,30 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050230</t>
+          <t>BCIO:006091</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the future</t>
+          <t>temporal behavioural opportunity</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="D288" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to focus more on future than present outcomes.</t>
+          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
         </is>
       </c>
       <c r="E288" s="2" t="inlineStr"/>
-      <c r="F288" s="2" t="inlineStr"/>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>Characteristics of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
       <c r="G288" s="2" t="inlineStr"/>
       <c r="H288" s="2" t="inlineStr"/>
       <c r="I288" s="2" t="inlineStr"/>
@@ -16871,12 +16881,12 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050231</t>
+          <t>BCIO:050230</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the present</t>
+          <t>temporal orientation to the future</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
@@ -16886,7 +16896,7 @@
       </c>
       <c r="D289" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to focus more on present than future outcomes.</t>
+          <t>A mental disposition to focus more on future than present outcomes.</t>
         </is>
       </c>
       <c r="E289" s="2" t="inlineStr"/>
@@ -16923,224 +16933,278 @@
       <c r="X289" s="2" t="inlineStr"/>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
+      <c r="A290" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050231</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation to the present</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present than future outcomes.</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="inlineStr"/>
+      <c r="F290" s="2" t="inlineStr"/>
+      <c r="G290" s="2" t="inlineStr"/>
+      <c r="H290" s="2" t="inlineStr"/>
+      <c r="I290" s="2" t="inlineStr"/>
+      <c r="J290" s="2" t="inlineStr"/>
+      <c r="K290" s="2" t="inlineStr"/>
+      <c r="L290" s="2" t="inlineStr"/>
+      <c r="M290" s="2" t="inlineStr"/>
+      <c r="N290" s="2" t="inlineStr"/>
+      <c r="O290" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P290" s="2" t="inlineStr"/>
+      <c r="Q290" s="2" t="inlineStr"/>
+      <c r="R290" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S290" s="2" t="inlineStr"/>
+      <c r="T290" s="2" t="inlineStr"/>
+      <c r="U290" s="2" t="inlineStr"/>
+      <c r="V290" s="2" t="inlineStr"/>
+      <c r="W290" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X290" s="2" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
+      <c r="C291" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr">
+      <c r="D291" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="inlineStr"/>
-      <c r="N290" t="inlineStr"/>
-      <c r="O290" t="inlineStr">
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="inlineStr"/>
+      <c r="O291" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P290" t="inlineStr"/>
-      <c r="Q290" t="inlineStr"/>
-      <c r="R290" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S290" t="inlineStr"/>
-      <c r="T290" t="inlineStr"/>
-      <c r="U290" t="inlineStr"/>
-      <c r="V290" t="inlineStr"/>
-      <c r="W290" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="2" t="inlineStr">
+      <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr"/>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr"/>
+      <c r="T291" t="inlineStr"/>
+      <c r="U291" t="inlineStr"/>
+      <c r="V291" t="inlineStr"/>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="inlineStr">
         <is>
           <t>BCIO:006107</t>
         </is>
       </c>
-      <c r="B291" s="2" t="inlineStr">
+      <c r="B292" s="2" t="inlineStr">
         <is>
           <t>value-congruent self-regulation</t>
         </is>
       </c>
-      <c r="C291" s="2" t="inlineStr">
+      <c r="C292" s="2" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D291" s="2" t="inlineStr">
+      <c r="D292" s="2" t="inlineStr">
         <is>
           <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
-      <c r="E291" s="2" t="inlineStr"/>
-      <c r="F291" s="2" t="inlineStr"/>
-      <c r="G291" s="2" t="inlineStr"/>
-      <c r="H291" s="2" t="inlineStr"/>
-      <c r="I291" s="2" t="inlineStr"/>
-      <c r="J291" s="2" t="inlineStr"/>
-      <c r="K291" s="2" t="inlineStr"/>
-      <c r="L291" s="2" t="inlineStr"/>
-      <c r="M291" s="2" t="inlineStr"/>
-      <c r="N291" s="2" t="inlineStr"/>
-      <c r="O291" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P291" s="2" t="inlineStr"/>
-      <c r="Q291" s="2" t="inlineStr"/>
-      <c r="R291" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S291" s="2" t="inlineStr"/>
-      <c r="T291" s="2" t="inlineStr"/>
-      <c r="U291" s="2" t="inlineStr"/>
-      <c r="V291" s="2" t="inlineStr"/>
-      <c r="W291" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X291" s="2" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
+      <c r="E292" s="2" t="inlineStr"/>
+      <c r="F292" s="2" t="inlineStr"/>
+      <c r="G292" s="2" t="inlineStr"/>
+      <c r="H292" s="2" t="inlineStr"/>
+      <c r="I292" s="2" t="inlineStr"/>
+      <c r="J292" s="2" t="inlineStr"/>
+      <c r="K292" s="2" t="inlineStr"/>
+      <c r="L292" s="2" t="inlineStr"/>
+      <c r="M292" s="2" t="inlineStr"/>
+      <c r="N292" s="2" t="inlineStr"/>
+      <c r="O292" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P292" s="2" t="inlineStr"/>
+      <c r="Q292" s="2" t="inlineStr"/>
+      <c r="R292" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S292" s="2" t="inlineStr"/>
+      <c r="T292" s="2" t="inlineStr"/>
+      <c r="U292" s="2" t="inlineStr"/>
+      <c r="V292" s="2" t="inlineStr"/>
+      <c r="W292" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X292" s="2" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
         <is>
           <t>MF:0000045</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B293" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="C293" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr">
+      <c r="D293" t="inlineStr">
         <is>
           <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-      <c r="H292" t="inlineStr"/>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="inlineStr"/>
-      <c r="N292" t="inlineStr"/>
-      <c r="O292" t="inlineStr">
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="inlineStr"/>
+      <c r="O293" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P292" t="inlineStr"/>
-      <c r="Q292" t="inlineStr"/>
-      <c r="R292" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S292" t="inlineStr"/>
-      <c r="T292" t="inlineStr"/>
-      <c r="U292" t="inlineStr"/>
-      <c r="V292" t="inlineStr"/>
-      <c r="W292" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="2" t="inlineStr">
+      <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr"/>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr"/>
+      <c r="T293" t="inlineStr"/>
+      <c r="U293" t="inlineStr"/>
+      <c r="V293" t="inlineStr"/>
+      <c r="W293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="inlineStr">
         <is>
           <t>BCIO:006059</t>
         </is>
       </c>
-      <c r="B293" s="2" t="inlineStr">
+      <c r="B294" s="2" t="inlineStr">
         <is>
           <t>willingness to comply</t>
         </is>
       </c>
-      <c r="C293" s="2" t="inlineStr">
+      <c r="C294" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D293" s="2" t="inlineStr">
+      <c r="D294" s="2" t="inlineStr">
         <is>
           <t>A mental disposition to act in accordance with the likely approval of others.</t>
         </is>
       </c>
-      <c r="E293" s="2" t="inlineStr"/>
-      <c r="F293" s="2" t="inlineStr"/>
-      <c r="G293" s="2" t="inlineStr">
+      <c r="E294" s="2" t="inlineStr"/>
+      <c r="F294" s="2" t="inlineStr"/>
+      <c r="G294" s="2" t="inlineStr">
         <is>
           <t>motivation to comply</t>
         </is>
       </c>
-      <c r="H293" s="2" t="inlineStr"/>
-      <c r="I293" s="2" t="inlineStr"/>
-      <c r="J293" s="2" t="inlineStr"/>
-      <c r="K293" s="2" t="inlineStr"/>
-      <c r="L293" s="2" t="inlineStr"/>
-      <c r="M293" s="2" t="inlineStr"/>
-      <c r="N293" s="2" t="inlineStr"/>
-      <c r="O293" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P293" s="2" t="inlineStr"/>
-      <c r="Q293" s="2" t="inlineStr"/>
-      <c r="R293" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S293" s="2" t="inlineStr"/>
-      <c r="T293" s="2" t="inlineStr"/>
-      <c r="U293" s="2" t="inlineStr"/>
-      <c r="V293" s="2" t="inlineStr"/>
-      <c r="W293" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X293" s="2" t="inlineStr"/>
+      <c r="H294" s="2" t="inlineStr"/>
+      <c r="I294" s="2" t="inlineStr"/>
+      <c r="J294" s="2" t="inlineStr"/>
+      <c r="K294" s="2" t="inlineStr"/>
+      <c r="L294" s="2" t="inlineStr"/>
+      <c r="M294" s="2" t="inlineStr"/>
+      <c r="N294" s="2" t="inlineStr"/>
+      <c r="O294" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P294" s="2" t="inlineStr"/>
+      <c r="Q294" s="2" t="inlineStr"/>
+      <c r="R294" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S294" s="2" t="inlineStr"/>
+      <c r="T294" s="2" t="inlineStr"/>
+      <c r="U294" s="2" t="inlineStr"/>
+      <c r="V294" s="2" t="inlineStr"/>
+      <c r="W294" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X294" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,11 +52,6 @@
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -16189,58 +16183,58 @@
       <c r="X276" s="2" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" s="5" t="inlineStr">
+      <c r="A277" s="4" t="inlineStr">
         <is>
           <t>BCIO:050441</t>
         </is>
       </c>
-      <c r="B277" s="5" t="inlineStr">
+      <c r="B277" s="4" t="inlineStr">
         <is>
           <t>socially-related behaviour</t>
         </is>
       </c>
-      <c r="C277" s="5" t="inlineStr">
+      <c r="C277" s="4" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D277" s="5" t="inlineStr">
+      <c r="D277" s="4" t="inlineStr">
         <is>
           <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
-      <c r="E277" s="5" t="inlineStr"/>
-      <c r="F277" s="5" t="inlineStr"/>
-      <c r="G277" s="5" t="inlineStr"/>
-      <c r="H277" s="5" t="inlineStr"/>
-      <c r="I277" s="5" t="inlineStr"/>
-      <c r="J277" s="5" t="inlineStr"/>
-      <c r="K277" s="5" t="inlineStr"/>
-      <c r="L277" s="5" t="inlineStr"/>
-      <c r="M277" s="5" t="inlineStr"/>
-      <c r="N277" s="5" t="inlineStr"/>
-      <c r="O277" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="P277" s="5" t="inlineStr"/>
-      <c r="Q277" s="5" t="inlineStr"/>
-      <c r="R277" s="5" t="inlineStr">
+      <c r="E277" s="4" t="inlineStr"/>
+      <c r="F277" s="4" t="inlineStr"/>
+      <c r="G277" s="4" t="inlineStr"/>
+      <c r="H277" s="4" t="inlineStr"/>
+      <c r="I277" s="4" t="inlineStr"/>
+      <c r="J277" s="4" t="inlineStr"/>
+      <c r="K277" s="4" t="inlineStr"/>
+      <c r="L277" s="4" t="inlineStr"/>
+      <c r="M277" s="4" t="inlineStr"/>
+      <c r="N277" s="4" t="inlineStr"/>
+      <c r="O277" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P277" s="4" t="inlineStr"/>
+      <c r="Q277" s="4" t="inlineStr"/>
+      <c r="R277" s="4" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="S277" s="5" t="inlineStr"/>
-      <c r="T277" s="5" t="inlineStr"/>
-      <c r="U277" s="5" t="inlineStr"/>
-      <c r="V277" s="5" t="inlineStr">
+      <c r="S277" s="4" t="inlineStr"/>
+      <c r="T277" s="4" t="inlineStr"/>
+      <c r="U277" s="4" t="inlineStr"/>
+      <c r="V277" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="W277" s="5" t="inlineStr"/>
-      <c r="X277" s="5" t="inlineStr"/>
+      <c r="W277" s="4" t="inlineStr"/>
+      <c r="X277" s="4" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -16183,58 +16183,58 @@
       <c r="X276" s="2" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" s="4" t="inlineStr">
+      <c r="A277" s="2" t="inlineStr">
         <is>
           <t>BCIO:050441</t>
         </is>
       </c>
-      <c r="B277" s="4" t="inlineStr">
+      <c r="B277" s="2" t="inlineStr">
         <is>
           <t>socially-related behaviour</t>
         </is>
       </c>
-      <c r="C277" s="4" t="inlineStr">
+      <c r="C277" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D277" s="4" t="inlineStr">
+      <c r="D277" s="2" t="inlineStr">
         <is>
           <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
-      <c r="E277" s="4" t="inlineStr"/>
-      <c r="F277" s="4" t="inlineStr"/>
-      <c r="G277" s="4" t="inlineStr"/>
-      <c r="H277" s="4" t="inlineStr"/>
-      <c r="I277" s="4" t="inlineStr"/>
-      <c r="J277" s="4" t="inlineStr"/>
-      <c r="K277" s="4" t="inlineStr"/>
-      <c r="L277" s="4" t="inlineStr"/>
-      <c r="M277" s="4" t="inlineStr"/>
-      <c r="N277" s="4" t="inlineStr"/>
-      <c r="O277" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P277" s="4" t="inlineStr"/>
-      <c r="Q277" s="4" t="inlineStr"/>
-      <c r="R277" s="4" t="inlineStr">
+      <c r="E277" s="2" t="inlineStr"/>
+      <c r="F277" s="2" t="inlineStr"/>
+      <c r="G277" s="2" t="inlineStr"/>
+      <c r="H277" s="2" t="inlineStr"/>
+      <c r="I277" s="2" t="inlineStr"/>
+      <c r="J277" s="2" t="inlineStr"/>
+      <c r="K277" s="2" t="inlineStr"/>
+      <c r="L277" s="2" t="inlineStr"/>
+      <c r="M277" s="2" t="inlineStr"/>
+      <c r="N277" s="2" t="inlineStr"/>
+      <c r="O277" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P277" s="2" t="inlineStr"/>
+      <c r="Q277" s="2" t="inlineStr"/>
+      <c r="R277" s="2" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
-      <c r="S277" s="4" t="inlineStr"/>
-      <c r="T277" s="4" t="inlineStr"/>
-      <c r="U277" s="4" t="inlineStr"/>
-      <c r="V277" s="4" t="inlineStr">
+      <c r="S277" s="2" t="inlineStr"/>
+      <c r="T277" s="2" t="inlineStr"/>
+      <c r="U277" s="2" t="inlineStr"/>
+      <c r="V277" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="W277" s="4" t="inlineStr"/>
-      <c r="X277" s="4" t="inlineStr"/>
+      <c r="W277" s="2" t="inlineStr"/>
+      <c r="X277" s="2" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -14920,7 +14920,11 @@
       </c>
       <c r="E254" s="2" t="inlineStr"/>
       <c r="F254" s="2" t="inlineStr"/>
-      <c r="G254" s="2" t="inlineStr"/>
+      <c r="G254" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy</t>
+        </is>
+      </c>
       <c r="H254" s="2" t="inlineStr"/>
       <c r="I254" s="2" t="inlineStr">
         <is>
@@ -14952,7 +14956,11 @@
       <c r="S254" s="2" t="inlineStr"/>
       <c r="T254" s="2" t="inlineStr"/>
       <c r="U254" s="2" t="inlineStr"/>
-      <c r="V254" s="2" t="inlineStr"/>
+      <c r="V254" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="W254" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16233,7 +16241,9 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W277" s="2" t="inlineStr"/>
+      <c r="W277" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="X277" s="2" t="inlineStr"/>
     </row>
     <row r="278">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -8361,7 +8361,7 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A goal interaction in which the goals a facilitatory.</t>
+          <t>A goal interaction in which the goals facilitate each other.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
@@ -8389,7 +8389,11 @@
       <c r="S139" s="2" t="inlineStr"/>
       <c r="T139" s="2" t="inlineStr"/>
       <c r="U139" s="2" t="inlineStr"/>
-      <c r="V139" s="2" t="inlineStr"/>
+      <c r="V139" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="W139" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16241,8 +16245,10 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W277" s="2" t="n">
-        <v>0</v>
+      <c r="W277" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X277" s="2" t="inlineStr"/>
     </row>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -7308,7 +7308,7 @@
       <c r="Q120" s="4" t="inlineStr"/>
       <c r="R120" s="4" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Mechanisms of action</t>
         </is>
       </c>
       <c r="S120" s="4" t="inlineStr"/>
@@ -7319,7 +7319,9 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W120" s="4" t="inlineStr"/>
+      <c r="W120" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="X120" s="4" t="inlineStr"/>
     </row>
     <row r="121">
@@ -9118,7 +9120,7 @@
       <c r="Q152" s="2" t="inlineStr"/>
       <c r="R152" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Mechanisms of action</t>
         </is>
       </c>
       <c r="S152" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -7319,8 +7319,10 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W120" s="4" t="n">
-        <v>0</v>
+      <c r="W120" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X120" s="4" t="inlineStr"/>
     </row>
@@ -14563,58 +14565,62 @@
       <c r="X247" s="2" t="inlineStr"/>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="A248" s="3" t="inlineStr">
         <is>
           <t>MF:0000030</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="3" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="3" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
+      <c r="D248" s="3" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
-      <c r="N248" t="inlineStr"/>
-      <c r="O248" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S248" t="inlineStr"/>
-      <c r="T248" t="inlineStr"/>
-      <c r="U248" t="inlineStr"/>
-      <c r="V248" t="inlineStr"/>
-      <c r="W248" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X248" t="inlineStr"/>
+      <c r="E248" s="3" t="inlineStr"/>
+      <c r="F248" s="3" t="inlineStr"/>
+      <c r="G248" s="3" t="inlineStr"/>
+      <c r="H248" s="3" t="inlineStr"/>
+      <c r="I248" s="3" t="inlineStr"/>
+      <c r="J248" s="3" t="inlineStr"/>
+      <c r="K248" s="3" t="inlineStr"/>
+      <c r="L248" s="3" t="inlineStr"/>
+      <c r="M248" s="3" t="inlineStr"/>
+      <c r="N248" s="3" t="inlineStr"/>
+      <c r="O248" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="P248" s="3" t="inlineStr"/>
+      <c r="Q248" s="3" t="inlineStr"/>
+      <c r="R248" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S248" s="3" t="inlineStr"/>
+      <c r="T248" s="3" t="inlineStr"/>
+      <c r="U248" s="3" t="inlineStr"/>
+      <c r="V248" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W248" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X248" s="3" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
+          <t>A &lt;mental disposition&gt; towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -678,7 +678,11 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>0</t>
@@ -704,7 +708,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a subjective affective feeling about something.</t>
+          <t>A &lt;mental disposition&gt; to experience a subjective affective feeling about something.</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
@@ -771,7 +775,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Affective attitude in which the entity that is the attitude object is a behaviour.</t>
+          <t>An &lt;affective attitude&gt; in which the entity that is the attitude object is a behaviour.</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
@@ -799,7 +803,11 @@
       <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr"/>
       <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -883,7 +891,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A material anatomical entity that is a single connected structure with inherent 3D shape generated by coordinated expression of the organism's own genome.</t>
+          <t>A &lt;material anatomical entity&gt; that is a single connected structure with inherent 3D shape generated by coordinated expression of the organism's own genome.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -924,7 +932,11 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>0</t>
@@ -2117,7 +2129,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>A self-regulation capability to modulate one’s attention toward internal or external stimuli.</t>
+          <t>A &lt;self-regulation capability&gt; to modulate one’s attention toward internal or external stimuli.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -2145,7 +2157,11 @@
       <c r="S29" s="2" t="inlineStr"/>
       <c r="T29" s="2" t="inlineStr"/>
       <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2171,7 +2187,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition that is an affective attitude or an evaluative belief about something.</t>
+          <t>A &lt;mental disposition&gt; that is an affective attitude or an evaluative belief about something.</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -2237,7 +2253,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>An attitude in which the entity that is the attitude object is a behaviour.</t>
+          <t>An &lt;attitude&gt; in which the entity that is the attitude object is a behaviour.</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2465,7 +2481,7 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition that is realized by attending to events, objects or sensory patterns in experience.</t>
+          <t>A &lt;mental disposition&gt; that is realized by attending to events, objects or sensory patterns in experience.</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
@@ -2497,7 +2513,11 @@
       <c r="S35" s="2" t="inlineStr"/>
       <c r="T35" s="2" t="inlineStr"/>
       <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2523,7 +2543,7 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>A personal capability that includes behaviours in its realisation.</t>
+          <t>A &lt;personal capability&gt; that includes behaviours in its realisation.</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr"/>
@@ -2555,7 +2575,11 @@
       <c r="S36" s="2" t="inlineStr"/>
       <c r="T36" s="2" t="inlineStr"/>
       <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2693,7 +2717,7 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to commit to enact or not enact a behaviour.</t>
+          <t>A &lt;mental disposition&gt; to commit to enact or not enact a behaviour.</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
@@ -2725,7 +2749,11 @@
       <c r="S39" s="2" t="inlineStr"/>
       <c r="T39" s="2" t="inlineStr"/>
       <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2873,7 +2901,7 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A self-regulation capability to modulate one's behaviour. </t>
+          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's behaviour. </t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
@@ -2905,7 +2933,11 @@
       <c r="S42" s="2" t="inlineStr"/>
       <c r="T42" s="2" t="inlineStr"/>
       <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2993,7 +3025,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A mental disposition to represent a proposition to be true.</t>
+          <t>A &lt;mental disposition&gt; to represent a proposition to be true.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -3025,7 +3057,11 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr">
         <is>
           <t>0</t>
@@ -3051,7 +3087,7 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>A belief about the potential emotions experienced as result of an event.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the potential emotions experienced as result of an event.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
@@ -3083,7 +3119,11 @@
       <c r="S45" s="2" t="inlineStr"/>
       <c r="T45" s="2" t="inlineStr"/>
       <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W45" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3109,7 +3149,7 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>A belief about the potential regret experienced as a result of an event.</t>
+          <t>A &lt;belief about anticipated emotion&gt; in terms of the potential regret experienced as a result of an event.</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
@@ -3137,7 +3177,11 @@
       <c r="S46" s="2" t="inlineStr"/>
       <c r="T46" s="2" t="inlineStr"/>
       <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3163,7 +3207,7 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>A belief about a factor that could restrict or impede a person from engaging in a behaviour.</t>
+          <t>A &lt;belief&gt; about a factor that could restrict or impede a person from engaging in a behaviour.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
@@ -3191,7 +3235,11 @@
       <c r="S47" s="2" t="inlineStr"/>
       <c r="T47" s="2" t="inlineStr"/>
       <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3275,7 +3323,7 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>A belief about the extent to which one's own behaviour is similar to that of referent others.</t>
+          <t>A &lt;belief&gt; about the extent to which one's own behaviour is similar to that of referent others.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
@@ -3303,7 +3351,11 @@
       <c r="S49" s="2" t="inlineStr"/>
       <c r="T49" s="2" t="inlineStr"/>
       <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3329,7 +3381,7 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>A belief about the outcomes resulting from an occurrence.</t>
+          <t>A &lt;belief&gt; about the outcomes resulting from an occurrence.</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
@@ -3361,7 +3413,11 @@
       <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr"/>
       <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3387,7 +3443,7 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>A belief about what results from or follows the performance of a behaviour.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of what results from or follows the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
@@ -3423,7 +3479,11 @@
       <c r="S51" s="2" t="inlineStr"/>
       <c r="T51" s="2" t="inlineStr"/>
       <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W51" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3449,7 +3509,7 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>A belief about the outcomes resulting from achieving a goal.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the outcomes resulting from achieving a goal.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
@@ -3482,7 +3542,11 @@
       <c r="S52" s="2" t="inlineStr"/>
       <c r="T52" s="2" t="inlineStr"/>
       <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W52" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3566,7 +3630,7 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>A belief about the extent to which one can direct what happens in one's future.</t>
+          <t>A &lt;belief&gt; about the extent to which one can direct what happens in one's future.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
@@ -3594,7 +3658,11 @@
       <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr"/>
       <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W54" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3620,7 +3688,7 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>A belief about consequences of behaviour in terms of emotions.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of resulting emotions.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
@@ -3648,7 +3716,11 @@
       <c r="S55" s="2" t="inlineStr"/>
       <c r="T55" s="2" t="inlineStr"/>
       <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W55" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3674,7 +3746,7 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>A belief about the existence of an increase from an initial reference point.</t>
+          <t>A &lt;belief&gt; about the existence of an increase from an initial reference point.</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -3711,7 +3783,11 @@
       <c r="S56" s="2" t="inlineStr"/>
       <c r="T56" s="2" t="inlineStr"/>
       <c r="U56" s="2" t="inlineStr"/>
-      <c r="V56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W56" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3737,7 +3813,7 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>A belief about consequences of behaviour in terms of health and wellbeing.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of health and wellbeing.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
@@ -3765,7 +3841,11 @@
       <c r="S57" s="2" t="inlineStr"/>
       <c r="T57" s="2" t="inlineStr"/>
       <c r="U57" s="2" t="inlineStr"/>
-      <c r="V57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W57" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3791,7 +3871,7 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's environment in terms of how easy it is for a person to approach and use a healthcare service.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
@@ -3819,7 +3899,11 @@
       <c r="S58" s="2" t="inlineStr"/>
       <c r="T58" s="2" t="inlineStr"/>
       <c r="U58" s="2" t="inlineStr"/>
-      <c r="V58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W58" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3845,7 +3929,7 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>A belief about the probability that a given event or state will occur or not occur in the future.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms the probability that a given event or state will occur or not occur in the future.</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
@@ -3877,7 +3961,11 @@
       <c r="S59" s="2" t="inlineStr"/>
       <c r="T59" s="2" t="inlineStr"/>
       <c r="U59" s="2" t="inlineStr"/>
-      <c r="V59" s="2" t="inlineStr"/>
+      <c r="V59" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W59" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3903,7 +3991,7 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A belief about the probability a particular behaviour will result or not result in particular outcomes.</t>
+          <t>A &lt;belief about likelihood of consequences of an occurrence&gt; in terms of the probability that a behaviour will result or not result in particular outcomes.</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
@@ -3931,7 +4019,11 @@
       <c r="S60" s="2" t="inlineStr"/>
       <c r="T60" s="2" t="inlineStr"/>
       <c r="U60" s="2" t="inlineStr"/>
-      <c r="V60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W60" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3957,7 +4049,7 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>A belief about the probability of a behaviour resulting or not resulting in a change to emotions.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to emotions.</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
@@ -3985,7 +4077,11 @@
       <c r="S61" s="2" t="inlineStr"/>
       <c r="T61" s="2" t="inlineStr"/>
       <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W61" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4011,7 +4107,7 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>A belief about the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
@@ -4039,7 +4135,11 @@
       <c r="S62" s="2" t="inlineStr"/>
       <c r="T62" s="2" t="inlineStr"/>
       <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
+      <c r="V62" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W62" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4065,7 +4165,7 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>A belief about the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
@@ -4093,7 +4193,11 @@
       <c r="S63" s="2" t="inlineStr"/>
       <c r="T63" s="2" t="inlineStr"/>
       <c r="U63" s="2" t="inlineStr"/>
-      <c r="V63" s="2" t="inlineStr"/>
+      <c r="V63" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W63" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4119,7 +4223,7 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A belief regarding aspects of a verbal, graphic, written or recorded communication. </t>
+          <t xml:space="preserve">A &lt;belief&gt; regarding aspects of a verbal, graphic, written or recorded communication. </t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
@@ -4147,7 +4251,11 @@
       <c r="S64" s="2" t="inlineStr"/>
       <c r="T64" s="2" t="inlineStr"/>
       <c r="U64" s="2" t="inlineStr"/>
-      <c r="V64" s="2" t="inlineStr"/>
+      <c r="V64" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W64" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4173,7 +4281,7 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>A belief regarding whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
+          <t>A &lt;belief about message&gt; in terms of whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
@@ -4201,7 +4309,11 @@
       <c r="S65" s="2" t="inlineStr"/>
       <c r="T65" s="2" t="inlineStr"/>
       <c r="U65" s="2" t="inlineStr"/>
-      <c r="V65" s="2" t="inlineStr"/>
+      <c r="V65" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W65" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4227,7 +4339,7 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
+          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
@@ -4255,7 +4367,11 @@
       <c r="S66" s="2" t="inlineStr"/>
       <c r="T66" s="2" t="inlineStr"/>
       <c r="U66" s="2" t="inlineStr"/>
-      <c r="V66" s="2" t="inlineStr"/>
+      <c r="V66" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W66" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4281,7 +4397,7 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>A belief regarding whether one or more of the person's needs have been met.</t>
+          <t>A &lt;belief&gt; regarding whether one or more of the person's needs have been met.</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
@@ -4309,7 +4425,11 @@
       <c r="S67" s="2" t="inlineStr"/>
       <c r="T67" s="2" t="inlineStr"/>
       <c r="U67" s="2" t="inlineStr"/>
-      <c r="V67" s="2" t="inlineStr"/>
+      <c r="V67" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W67" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4335,7 +4455,7 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>A belief about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
+          <t>A &lt;belief&gt; about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
@@ -4363,7 +4483,11 @@
       <c r="S68" s="2" t="inlineStr"/>
       <c r="T68" s="2" t="inlineStr"/>
       <c r="U68" s="2" t="inlineStr"/>
-      <c r="V68" s="2" t="inlineStr"/>
+      <c r="V68" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W68" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4389,7 +4513,7 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>A belief about parts of one's environment that do not involve people or organisations.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of the parts of one's environment that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
@@ -4417,7 +4541,11 @@
       <c r="S69" s="2" t="inlineStr"/>
       <c r="T69" s="2" t="inlineStr"/>
       <c r="U69" s="2" t="inlineStr"/>
-      <c r="V69" s="2" t="inlineStr"/>
+      <c r="V69" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W69" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4443,7 +4571,7 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>A belief about the aspects of one's immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of the aspects of one’s immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
@@ -4471,7 +4599,11 @@
       <c r="S70" s="2" t="inlineStr"/>
       <c r="T70" s="2" t="inlineStr"/>
       <c r="U70" s="2" t="inlineStr"/>
-      <c r="V70" s="2" t="inlineStr"/>
+      <c r="V70" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W70" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4605,7 +4737,7 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's position in life in relation to one's goals, expectations, standards and concerns.</t>
+          <t>A &lt;belief&gt; about one's position in life in relation to one's goals, expectations, standards and concerns.</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
@@ -4633,7 +4765,11 @@
       <c r="S73" s="2" t="inlineStr"/>
       <c r="T73" s="2" t="inlineStr"/>
       <c r="U73" s="2" t="inlineStr"/>
-      <c r="V73" s="2" t="inlineStr"/>
+      <c r="V73" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W73" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4659,7 +4795,7 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>A belief about the existence of a decrease from an initial reference point.</t>
+          <t>A &lt;belief&gt; about the existence of a decrease from an initial reference point.</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
@@ -4696,7 +4832,11 @@
       <c r="S74" s="2" t="inlineStr"/>
       <c r="T74" s="2" t="inlineStr"/>
       <c r="U74" s="2" t="inlineStr"/>
-      <c r="V74" s="2" t="inlineStr"/>
+      <c r="V74" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W74" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4722,7 +4862,7 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether oneself or another person is obligated to take a certain course of action.</t>
+          <t>A &lt;belief&gt; about whether oneself or another person is obligated to take a certain course of action.</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
@@ -4750,7 +4890,11 @@
       <c r="S75" s="2" t="inlineStr"/>
       <c r="T75" s="2" t="inlineStr"/>
       <c r="U75" s="2" t="inlineStr"/>
-      <c r="V75" s="2" t="inlineStr"/>
+      <c r="V75" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W75" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4776,7 +4920,7 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>A belief about how serious the harm associated with an outcome could be.</t>
+          <t>A &lt;belief&gt; about how serious the harm associated with an outcome could be.</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
@@ -4812,7 +4956,11 @@
       <c r="S76" s="2" t="inlineStr"/>
       <c r="T76" s="2" t="inlineStr"/>
       <c r="U76" s="2" t="inlineStr"/>
-      <c r="V76" s="2" t="inlineStr"/>
+      <c r="V76" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W76" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4838,7 +4986,7 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>A belief about consequences of behaviour in terms of their impact on the social environmental system.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of their impact on the social environmental system.</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
@@ -4870,7 +5018,11 @@
       <c r="S77" s="2" t="inlineStr"/>
       <c r="T77" s="2" t="inlineStr"/>
       <c r="U77" s="2" t="inlineStr"/>
-      <c r="V77" s="2" t="inlineStr"/>
+      <c r="V77" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W77" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4896,7 +5048,7 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
+          <t>A &lt;belief about one's social environment&gt; in terms of whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
@@ -4924,7 +5076,11 @@
       <c r="S78" s="2" t="inlineStr"/>
       <c r="T78" s="2" t="inlineStr"/>
       <c r="U78" s="2" t="inlineStr"/>
-      <c r="V78" s="2" t="inlineStr"/>
+      <c r="V78" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W78" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4950,7 +5106,7 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>A belief about having enough time or a suitable period of time to enact a behaviour.</t>
+          <t>A &lt;belief&gt; about having enough time or a suitable period of time to enact a behaviour.</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
@@ -4978,7 +5134,11 @@
       <c r="S79" s="2" t="inlineStr"/>
       <c r="T79" s="2" t="inlineStr"/>
       <c r="U79" s="2" t="inlineStr"/>
-      <c r="V79" s="2" t="inlineStr"/>
+      <c r="V79" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W79" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5066,7 +5226,7 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
+          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
@@ -5094,7 +5254,11 @@
       <c r="S81" s="2" t="inlineStr"/>
       <c r="T81" s="2" t="inlineStr"/>
       <c r="U81" s="2" t="inlineStr"/>
-      <c r="V81" s="2" t="inlineStr"/>
+      <c r="V81" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W81" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5120,7 +5284,7 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about the value of the consequences of behaviour to oneself.</t>
+          <t>An &lt;evaluative belief about the consequences of behaviour&gt; in terms of the value of the consequences of behaviour to oneself.</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
@@ -5152,7 +5316,11 @@
       <c r="S82" s="2" t="inlineStr"/>
       <c r="T82" s="2" t="inlineStr"/>
       <c r="U82" s="2" t="inlineStr"/>
-      <c r="V82" s="2" t="inlineStr"/>
+      <c r="V82" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W82" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5178,7 +5346,7 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>A belief about consequences of behaviour in terms of how long after the performance of the behaviour they will occur.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of how long after the performance of the behaviour they will occur.</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
@@ -5206,7 +5374,11 @@
       <c r="S83" s="2" t="inlineStr"/>
       <c r="T83" s="2" t="inlineStr"/>
       <c r="U83" s="2" t="inlineStr"/>
-      <c r="V83" s="2" t="inlineStr"/>
+      <c r="V83" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W83" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5340,7 +5512,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>A disposition that inheres in some extended organism.</t>
+          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5377,7 +5549,11 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W86" t="inlineStr">
         <is>
           <t>0</t>
@@ -5856,7 +6032,7 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A self-regulation capability to modulate one's cognitive processes. </t>
+          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's cognitive processes. </t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
@@ -5884,7 +6060,11 @@
       <c r="S95" s="2" t="inlineStr"/>
       <c r="T95" s="2" t="inlineStr"/>
       <c r="U95" s="2" t="inlineStr"/>
-      <c r="V95" s="2" t="inlineStr"/>
+      <c r="V95" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W95" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6582,7 +6762,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>An environmental system which includes both living and non-living components.</t>
+          <t>An &lt;environmental system&gt; which includes both living and non-living components.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -6610,7 +6790,11 @@
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W108" t="inlineStr">
         <is>
           <t>0</t>
@@ -6762,7 +6946,7 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
+          <t>A &lt;self-regulation capability&gt; to modulate one's emotional responses to a stimulus.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
@@ -6794,7 +6978,11 @@
       <c r="S111" s="2" t="inlineStr"/>
       <c r="T111" s="2" t="inlineStr"/>
       <c r="U111" s="2" t="inlineStr"/>
-      <c r="V111" s="2" t="inlineStr"/>
+      <c r="V111" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W111" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6878,7 +7066,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
+          <t>A &lt;system&gt; which has the disposition to surround and interact with one or more material entities.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -6916,7 +7104,11 @@
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W113" t="inlineStr">
         <is>
           <t>0</t>
@@ -7232,7 +7424,7 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>A belief about consequences of behaviour in terms of whether they are positive or negative.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of whether they are positive or negative.</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
@@ -7266,7 +7458,7 @@
       <c r="U119" s="2" t="inlineStr"/>
       <c r="V119" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="W119" s="2" t="inlineStr">
@@ -7527,7 +7719,7 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
+          <t>A &lt;social environmental system&gt; that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
@@ -7555,7 +7747,11 @@
       <c r="S124" s="2" t="inlineStr"/>
       <c r="T124" s="2" t="inlineStr"/>
       <c r="U124" s="2" t="inlineStr"/>
-      <c r="V124" s="2" t="inlineStr"/>
+      <c r="V124" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W124" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8149,7 +8345,7 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
+          <t>A &lt;social environmental system&gt; that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
@@ -8177,7 +8373,11 @@
       <c r="S135" s="2" t="inlineStr"/>
       <c r="T135" s="2" t="inlineStr"/>
       <c r="U135" s="2" t="inlineStr"/>
-      <c r="V135" s="2" t="inlineStr"/>
+      <c r="V135" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W135" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10526,7 +10726,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -10554,7 +10754,11 @@
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr"/>
-      <c r="V177" t="inlineStr"/>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W177" t="inlineStr">
         <is>
           <t>0</t>
@@ -10580,7 +10784,7 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention mechanism of action in which the causal influence affects a bodily disposition.</t>
+          <t>A &lt;behaviour change intervention mechanism of action&gt; in which the causal influence affects a bodily disposition.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
@@ -10618,7 +10822,11 @@
       <c r="S178" s="2" t="inlineStr"/>
       <c r="T178" s="2" t="inlineStr"/>
       <c r="U178" s="2" t="inlineStr"/>
-      <c r="V178" s="2" t="inlineStr"/>
+      <c r="V178" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W178" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10900,7 +11108,7 @@
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention mechanism of action in which the causal influence affects a material entity.</t>
+          <t>A &lt;behaviour change intervention mechanism of action&gt; in which the causal influence affects a material entity.</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
@@ -10938,7 +11146,11 @@
       <c r="S183" s="2" t="inlineStr"/>
       <c r="T183" s="2" t="inlineStr"/>
       <c r="U183" s="2" t="inlineStr"/>
-      <c r="V183" s="2" t="inlineStr"/>
+      <c r="V183" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W183" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11136,7 +11348,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>A personal capability that  includes mental processes in its realisation.</t>
+          <t>A &lt;personal capability&gt; that  includes mental processes in its realisation.</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -11168,7 +11380,11 @@
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W187" t="inlineStr">
         <is>
           <t>0</t>
@@ -11248,7 +11464,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
@@ -11280,7 +11496,11 @@
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="inlineStr"/>
-      <c r="V189" t="inlineStr"/>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W189" t="inlineStr">
         <is>
           <t>0</t>
@@ -11822,7 +12042,7 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>A mental capability acquired through training or practice.</t>
+          <t>A &lt;mental capability&gt; acquired through training or practice.</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -11854,7 +12074,11 @@
       <c r="S199" s="2" t="inlineStr"/>
       <c r="T199" s="2" t="inlineStr"/>
       <c r="U199" s="2" t="inlineStr"/>
-      <c r="V199" s="2" t="inlineStr"/>
+      <c r="V199" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W199" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12602,7 +12826,7 @@
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether key others think one should perform a behaviour.</t>
+          <t>A &lt;perceived norm&gt; regarding whether key others think one should perform a behaviour.</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr"/>
@@ -12634,7 +12858,11 @@
       <c r="S213" s="2" t="inlineStr"/>
       <c r="T213" s="2" t="inlineStr"/>
       <c r="U213" s="2" t="inlineStr"/>
-      <c r="V213" s="2" t="inlineStr"/>
+      <c r="V213" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W213" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12884,7 +13112,7 @@
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+          <t>A &lt;perceived norm&gt; regarding the prevalence of performance of a given behaviour by people within a group.</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -12912,7 +13140,11 @@
       <c r="S218" s="2" t="inlineStr"/>
       <c r="T218" s="2" t="inlineStr"/>
       <c r="U218" s="2" t="inlineStr"/>
-      <c r="V218" s="2" t="inlineStr"/>
+      <c r="V218" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W218" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12938,7 +13170,7 @@
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
+          <t>A &lt;perceived norm&gt; regarding whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr"/>
@@ -12966,7 +13198,11 @@
       <c r="S219" s="2" t="inlineStr"/>
       <c r="T219" s="2" t="inlineStr"/>
       <c r="U219" s="2" t="inlineStr"/>
-      <c r="V219" s="2" t="inlineStr"/>
+      <c r="V219" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W219" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12992,7 +13228,7 @@
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>A belief about what is typical for people who belong to a particular group.</t>
+          <t>A &lt;belief about one's social environment&gt; in terms of what is typical for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
@@ -13028,7 +13264,11 @@
       <c r="S220" s="2" t="inlineStr"/>
       <c r="T220" s="2" t="inlineStr"/>
       <c r="U220" s="2" t="inlineStr"/>
-      <c r="V220" s="2" t="inlineStr"/>
+      <c r="V220" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W220" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13117,7 +13357,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical range or context.</t>
+          <t>A &lt;bodily disposition&gt; whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical range or context.</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -13154,7 +13394,11 @@
       <c r="S222" t="inlineStr"/>
       <c r="T222" t="inlineStr"/>
       <c r="U222" t="inlineStr"/>
-      <c r="V222" t="inlineStr"/>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W222" t="inlineStr">
         <is>
           <t>0</t>
@@ -13462,7 +13706,7 @@
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>A behavioural capability that involves sensory or musculoskeletal abilities</t>
+          <t>A &lt;behavioural capability&gt; that involves sensory or musculoskeletal abilities</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr"/>
@@ -13494,7 +13738,11 @@
       <c r="S228" s="2" t="inlineStr"/>
       <c r="T228" s="2" t="inlineStr"/>
       <c r="U228" s="2" t="inlineStr"/>
-      <c r="V228" s="2" t="inlineStr"/>
+      <c r="V228" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W228" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13582,7 +13830,7 @@
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training or practice.</t>
+          <t>A &lt;physical behavioural capability&gt; acquired through training or practice.</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr"/>
@@ -13610,7 +13858,11 @@
       <c r="S230" s="2" t="inlineStr"/>
       <c r="T230" s="2" t="inlineStr"/>
       <c r="U230" s="2" t="inlineStr"/>
-      <c r="V230" s="2" t="inlineStr"/>
+      <c r="V230" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W230" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14142,7 +14394,7 @@
       </c>
       <c r="D240" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+          <t>A &lt;social environmental system&gt; that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
         </is>
       </c>
       <c r="E240" s="2" t="inlineStr"/>
@@ -14170,7 +14422,11 @@
       <c r="S240" s="2" t="inlineStr"/>
       <c r="T240" s="2" t="inlineStr"/>
       <c r="U240" s="2" t="inlineStr"/>
-      <c r="V240" s="2" t="inlineStr"/>
+      <c r="V240" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W240" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14250,7 +14506,7 @@
       </c>
       <c r="D242" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves psychological abilities. </t>
+          <t xml:space="preserve">A &lt;behavioural capability&gt; that involves psychological abilities. </t>
         </is>
       </c>
       <c r="E242" s="2" t="inlineStr"/>
@@ -14286,7 +14542,11 @@
       <c r="S242" s="2" t="inlineStr"/>
       <c r="T242" s="2" t="inlineStr"/>
       <c r="U242" s="2" t="inlineStr"/>
-      <c r="V242" s="2" t="inlineStr"/>
+      <c r="V242" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W242" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15112,7 +15372,7 @@
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A &lt;mental capability&gt; that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
         </is>
       </c>
       <c r="E257" s="2" t="inlineStr"/>
@@ -15144,7 +15404,11 @@
       <c r="S257" s="2" t="inlineStr"/>
       <c r="T257" s="2" t="inlineStr"/>
       <c r="U257" s="2" t="inlineStr"/>
-      <c r="V257" s="2" t="inlineStr"/>
+      <c r="V257" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W257" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15278,7 +15542,7 @@
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>A self-regulation capability that is acquired through training or practice.</t>
+          <t>A &lt;self-regulation capability&gt; that is acquired through training or practice.</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr"/>
@@ -15306,7 +15570,11 @@
       <c r="S260" s="2" t="inlineStr"/>
       <c r="T260" s="2" t="inlineStr"/>
       <c r="U260" s="2" t="inlineStr"/>
-      <c r="V260" s="2" t="inlineStr"/>
+      <c r="V260" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W260" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15718,7 +15986,7 @@
       </c>
       <c r="D268" s="2" t="inlineStr">
         <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+          <t>A &lt;personal capability&gt; includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E268" s="2" t="inlineStr"/>
@@ -15746,7 +16014,11 @@
       <c r="S268" s="2" t="inlineStr"/>
       <c r="T268" s="2" t="inlineStr"/>
       <c r="U268" s="2" t="inlineStr"/>
-      <c r="V268" s="2" t="inlineStr"/>
+      <c r="V268" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W268" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15938,7 +16210,7 @@
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>An &lt;environmental system&gt; that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -15966,7 +16238,11 @@
       <c r="S272" s="2" t="inlineStr"/>
       <c r="T272" s="2" t="inlineStr"/>
       <c r="U272" s="2" t="inlineStr"/>
-      <c r="V272" s="2" t="inlineStr"/>
+      <c r="V272" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W272" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16166,7 +16442,7 @@
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>A social capability acquired through training or practice.</t>
+          <t>A &lt;social behavioural capability&gt; acquired through training or practice.</t>
         </is>
       </c>
       <c r="E276" s="2" t="inlineStr"/>
@@ -16194,7 +16470,11 @@
       <c r="S276" s="2" t="inlineStr"/>
       <c r="T276" s="2" t="inlineStr"/>
       <c r="U276" s="2" t="inlineStr"/>
-      <c r="V276" s="2" t="inlineStr"/>
+      <c r="V276" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W276" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16744,7 +17024,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
+          <t>A &lt;material entity&gt; consisting of multiple components that are causally integrated.</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -16772,7 +17052,11 @@
       <c r="S286" t="inlineStr"/>
       <c r="T286" t="inlineStr"/>
       <c r="U286" t="inlineStr"/>
-      <c r="V286" t="inlineStr"/>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W286" t="inlineStr">
         <is>
           <t>0</t>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activated, guides a sequence of behaviours.</t>
+          <t>A &lt;cognitive schema&gt; that when activated, guides a sequence of behaviours.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -616,7 +616,11 @@
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
       <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W2" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2605,7 +2609,7 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>A decision that one behaviour is preferred from at least two behavioural options.</t>
+          <t>A &lt;decision&gt; that one behaviour is preferred from at least two behavioural options.</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
@@ -2633,7 +2637,11 @@
       <c r="S37" s="2" t="inlineStr"/>
       <c r="T37" s="2" t="inlineStr"/>
       <c r="U37" s="2" t="inlineStr"/>
-      <c r="V37" s="2" t="inlineStr"/>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3265,7 +3273,7 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>A belief about the extent to which one is free to choose whether to perform the behaviour.</t>
+          <t>A &lt;belief&gt; about the extent to which one is free to choose whether to perform the behaviour.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
@@ -3297,7 +3305,11 @@
       <c r="S48" s="2" t="inlineStr"/>
       <c r="T48" s="2" t="inlineStr"/>
       <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3572,7 +3584,7 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A belief about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
+          <t xml:space="preserve">A &lt;belief&gt; about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
@@ -3604,7 +3616,11 @@
       <c r="S53" s="2" t="inlineStr"/>
       <c r="T53" s="2" t="inlineStr"/>
       <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W53" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4629,7 +4645,7 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>A belief about how vulnerable others are to a threat.</t>
+          <t>A &lt;belief about susceptibility to a threat&gt; in terms of how vulnerable others are to a threat.</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
@@ -4657,7 +4673,11 @@
       <c r="S71" s="2" t="inlineStr"/>
       <c r="T71" s="2" t="inlineStr"/>
       <c r="U71" s="2" t="inlineStr"/>
-      <c r="V71" s="2" t="inlineStr"/>
+      <c r="V71" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W71" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4683,7 +4703,7 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's personal vulnerability to a threat.</t>
+          <t>A &lt;belief about susceptibility to a threat&gt; in terms of one's personal vulnerability to a threat.</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
@@ -4711,7 +4731,11 @@
       <c r="S72" s="2" t="inlineStr"/>
       <c r="T72" s="2" t="inlineStr"/>
       <c r="U72" s="2" t="inlineStr"/>
-      <c r="V72" s="2" t="inlineStr"/>
+      <c r="V72" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W72" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5164,7 +5188,7 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>A belief about vulnerability to a threat.</t>
+          <t>A &lt;belief&gt; about vulnerability to a threat.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
@@ -5200,7 +5224,11 @@
       <c r="S80" s="2" t="inlineStr"/>
       <c r="T80" s="2" t="inlineStr"/>
       <c r="U80" s="2" t="inlineStr"/>
-      <c r="V80" s="2" t="inlineStr"/>
+      <c r="V80" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W80" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5404,7 +5432,7 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>A belief about a potential harm.</t>
+          <t>A &lt;belief&gt; about a potential harm.</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
@@ -5432,7 +5460,11 @@
       <c r="S84" s="2" t="inlineStr"/>
       <c r="T84" s="2" t="inlineStr"/>
       <c r="U84" s="2" t="inlineStr"/>
-      <c r="V84" s="2" t="inlineStr"/>
+      <c r="V84" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W84" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5974,7 +6006,7 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition that when activated, guides an interconnected network of perception, thought, emotion or behaviour.</t>
+          <t>A &lt;mental disposition&gt; that when activated, guides an interconnected network of perception, thought, emotion or behaviour.</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
@@ -6006,7 +6038,11 @@
       <c r="S94" s="2" t="inlineStr"/>
       <c r="T94" s="2" t="inlineStr"/>
       <c r="U94" s="2" t="inlineStr"/>
-      <c r="V94" s="2" t="inlineStr"/>
+      <c r="V94" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W94" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6314,7 +6350,7 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to represent one proposition as preferred from at least two. </t>
+          <t xml:space="preserve">A &lt;mental disposition&gt; to represent one proposition as preferred from at least two. </t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
@@ -6350,7 +6386,11 @@
       <c r="S100" s="2" t="inlineStr"/>
       <c r="T100" s="2" t="inlineStr"/>
       <c r="U100" s="2" t="inlineStr"/>
-      <c r="V100" s="2" t="inlineStr"/>
+      <c r="V100" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W100" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6600,7 +6640,7 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to be detached from other people due to exhaustion experienced in one's working environment.</t>
+          <t>A &lt;mental disposition&gt; to be detached from other people due to exhaustion experienced in one's working environment.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
@@ -6628,7 +6668,11 @@
       <c r="S105" s="2" t="inlineStr"/>
       <c r="T105" s="2" t="inlineStr"/>
       <c r="U105" s="2" t="inlineStr"/>
-      <c r="V105" s="2" t="inlineStr"/>
+      <c r="V105" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W105" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7188,7 +7232,7 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about one's attributes.</t>
+          <t>An &lt;evaluative belief&gt; about one's attributes.</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
@@ -7224,7 +7268,11 @@
       <c r="S115" s="2" t="inlineStr"/>
       <c r="T115" s="2" t="inlineStr"/>
       <c r="U115" s="2" t="inlineStr"/>
-      <c r="V115" s="2" t="inlineStr"/>
+      <c r="V115" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W115" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7250,7 +7298,7 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
+          <t>A &lt;belief&gt; about whether a particular aspect of the world is positive or negative.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
@@ -7282,7 +7330,11 @@
       <c r="S116" s="2" t="inlineStr"/>
       <c r="T116" s="2" t="inlineStr"/>
       <c r="U116" s="2" t="inlineStr"/>
-      <c r="V116" s="2" t="inlineStr"/>
+      <c r="V116" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W116" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7308,7 +7360,7 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+          <t>An &lt;evaluative belief&gt; about whether a behaviour is positive or negative.</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
@@ -7342,7 +7394,7 @@
       <c r="U117" s="2" t="inlineStr"/>
       <c r="V117" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="W117" s="2" t="inlineStr">
@@ -7370,7 +7422,7 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about the attributes of others.</t>
+          <t>An &lt;evaluative belief&gt; about the attributes of others.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
@@ -7398,7 +7450,11 @@
       <c r="S118" s="2" t="inlineStr"/>
       <c r="T118" s="2" t="inlineStr"/>
       <c r="U118" s="2" t="inlineStr"/>
-      <c r="V118" s="2" t="inlineStr"/>
+      <c r="V118" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W118" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10034,7 +10090,7 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>A &lt;mental disposition&gt; to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
@@ -10070,7 +10126,11 @@
       <c r="S165" s="2" t="inlineStr"/>
       <c r="T165" s="2" t="inlineStr"/>
       <c r="U165" s="2" t="inlineStr"/>
-      <c r="V165" s="2" t="inlineStr"/>
+      <c r="V165" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W165" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10096,7 +10156,7 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>&lt;Knowledge&gt; regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -10124,7 +10184,11 @@
       <c r="S166" s="2" t="inlineStr"/>
       <c r="T166" s="2" t="inlineStr"/>
       <c r="U166" s="2" t="inlineStr"/>
-      <c r="V166" s="2" t="inlineStr"/>
+      <c r="V166" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W166" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10150,7 +10214,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>&lt;Knowledge&gt; regarding a potential harm.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -10178,7 +10242,11 @@
       <c r="S167" s="2" t="inlineStr"/>
       <c r="T167" s="2" t="inlineStr"/>
       <c r="U167" s="2" t="inlineStr"/>
-      <c r="V167" s="2" t="inlineStr"/>
+      <c r="V167" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W167" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10204,7 +10272,7 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>&lt;Knowledge&gt; regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
@@ -10232,7 +10300,11 @@
       <c r="S168" s="2" t="inlineStr"/>
       <c r="T168" s="2" t="inlineStr"/>
       <c r="U168" s="2" t="inlineStr"/>
-      <c r="V168" s="2" t="inlineStr"/>
+      <c r="V168" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W168" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10258,7 +10330,7 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+          <t>&lt;Knowledge&gt; regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
@@ -10286,7 +10358,11 @@
       <c r="S169" s="2" t="inlineStr"/>
       <c r="T169" s="2" t="inlineStr"/>
       <c r="U169" s="2" t="inlineStr"/>
-      <c r="V169" s="2" t="inlineStr"/>
+      <c r="V169" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W169" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10312,7 +10388,7 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
+          <t>A &lt;learned stimulus-response co-occurrence&gt; that involves a behavioural disposition in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
@@ -10352,7 +10428,11 @@
       <c r="S170" s="2" t="inlineStr"/>
       <c r="T170" s="2" t="inlineStr"/>
       <c r="U170" s="2" t="inlineStr"/>
-      <c r="V170" s="2" t="inlineStr"/>
+      <c r="V170" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W170" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10378,7 +10458,7 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>A &lt;mental disposition&gt; to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
@@ -10410,7 +10490,11 @@
       <c r="S171" s="2" t="inlineStr"/>
       <c r="T171" s="2" t="inlineStr"/>
       <c r="U171" s="2" t="inlineStr"/>
-      <c r="V171" s="2" t="inlineStr"/>
+      <c r="V171" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W171" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10436,7 +10520,7 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>A &lt;learned stimulus-response co-occurrence&gt; that involves a disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
@@ -10468,7 +10552,11 @@
       <c r="S172" s="2" t="inlineStr"/>
       <c r="T172" s="2" t="inlineStr"/>
       <c r="U172" s="2" t="inlineStr"/>
-      <c r="V172" s="2" t="inlineStr"/>
+      <c r="V172" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W172" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11692,7 +11780,7 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to evoke the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+          <t>A &lt;mental disposition&gt; to evoke the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
@@ -11724,7 +11812,11 @@
       <c r="S193" s="2" t="inlineStr"/>
       <c r="T193" s="2" t="inlineStr"/>
       <c r="U193" s="2" t="inlineStr"/>
-      <c r="V193" s="2" t="inlineStr"/>
+      <c r="V193" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W193" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15128,7 +15220,7 @@
       </c>
       <c r="D253" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
+          <t>A &lt;belief&gt; about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E253" s="2" t="inlineStr"/>
@@ -15161,7 +15253,11 @@
       <c r="S253" s="2" t="inlineStr"/>
       <c r="T253" s="2" t="inlineStr"/>
       <c r="U253" s="2" t="inlineStr"/>
-      <c r="V253" s="2" t="inlineStr"/>
+      <c r="V253" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W253" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15187,7 +15283,7 @@
       </c>
       <c r="D254" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>A &lt;belief&gt; about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E254" s="2" t="inlineStr"/>
@@ -15230,7 +15326,7 @@
       <c r="U254" s="2" t="inlineStr"/>
       <c r="V254" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="W254" s="2" t="inlineStr">
@@ -15874,7 +15970,7 @@
       </c>
       <c r="D266" s="2" t="inlineStr">
         <is>
-          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
+          <t>A &lt;self-efficacy belief for a behaviour&gt; when a barrier or facilitator of the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E266" s="2" t="inlineStr"/>
@@ -15906,7 +16002,11 @@
       <c r="S266" s="2" t="inlineStr"/>
       <c r="T266" s="2" t="inlineStr"/>
       <c r="U266" s="2" t="inlineStr"/>
-      <c r="V266" s="2" t="inlineStr"/>
+      <c r="V266" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W266" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16558,7 +16658,7 @@
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>A &lt;cognitive schema&gt; that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
         </is>
       </c>
       <c r="E278" s="2" t="inlineStr"/>
@@ -16590,7 +16690,11 @@
       <c r="S278" s="2" t="inlineStr"/>
       <c r="T278" s="2" t="inlineStr"/>
       <c r="U278" s="2" t="inlineStr"/>
-      <c r="V278" s="2" t="inlineStr"/>
+      <c r="V278" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W278" s="2" t="inlineStr">
         <is>
           <t>0</t>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -6909,7 +6909,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000007 </t>
+          <t>External</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+          <t>A &lt;bodily disposition&gt; to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -6964,7 +6964,11 @@
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W110" t="inlineStr">
         <is>
           <t>0</t>
@@ -11842,7 +11846,7 @@
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition that is realised in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
+          <t>A &lt;mental disposition&gt; that is realised in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
@@ -11874,7 +11878,11 @@
       <c r="S194" s="2" t="inlineStr"/>
       <c r="T194" s="2" t="inlineStr"/>
       <c r="U194" s="2" t="inlineStr"/>
-      <c r="V194" s="2" t="inlineStr"/>
+      <c r="V194" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W194" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11900,7 +11908,7 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>A mental plan that is realised in mental processes representing the steps to enact a behaviour and the conditions under which the behaviour will be enacted.</t>
+          <t>A &lt;mental plan&gt; that is realised in mental processes representing the steps to enact a behaviour and the conditions under which the behaviour will be enacted.</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -11937,7 +11945,11 @@
       <c r="S195" s="2" t="inlineStr"/>
       <c r="T195" s="2" t="inlineStr"/>
       <c r="U195" s="2" t="inlineStr"/>
-      <c r="V195" s="2" t="inlineStr"/>
+      <c r="V195" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W195" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11963,7 +11975,7 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+          <t>A &lt;mental plan for a behaviour&gt; regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -11991,7 +12003,11 @@
       <c r="S196" s="2" t="inlineStr"/>
       <c r="T196" s="2" t="inlineStr"/>
       <c r="U196" s="2" t="inlineStr"/>
-      <c r="V196" s="2" t="inlineStr"/>
+      <c r="V196" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W196" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12308,7 +12324,7 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+          <t xml:space="preserve">A &lt;mental disposition&gt; for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
@@ -12336,7 +12352,11 @@
       <c r="S202" s="2" t="inlineStr"/>
       <c r="T202" s="2" t="inlineStr"/>
       <c r="U202" s="2" t="inlineStr"/>
-      <c r="V202" s="2" t="inlineStr"/>
+      <c r="V202" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W202" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12362,7 +12382,7 @@
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t>A &lt;psychological need&gt; to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
@@ -12390,7 +12410,11 @@
       <c r="S203" s="2" t="inlineStr"/>
       <c r="T203" s="2" t="inlineStr"/>
       <c r="U203" s="2" t="inlineStr"/>
-      <c r="V203" s="2" t="inlineStr"/>
+      <c r="V203" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W203" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12416,7 +12440,7 @@
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A &lt;psychological need&gt; to feel safe from threats.</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
@@ -12444,7 +12468,11 @@
       <c r="S204" s="2" t="inlineStr"/>
       <c r="T204" s="2" t="inlineStr"/>
       <c r="U204" s="2" t="inlineStr"/>
-      <c r="V204" s="2" t="inlineStr"/>
+      <c r="V204" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W204" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12470,7 +12498,7 @@
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a sense of personal agency and initiative.</t>
+          <t>A &lt;psychological need&gt; to have a sense of personal agency and initiative.</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
@@ -12498,7 +12526,11 @@
       <c r="S205" s="2" t="inlineStr"/>
       <c r="T205" s="2" t="inlineStr"/>
       <c r="U205" s="2" t="inlineStr"/>
-      <c r="V205" s="2" t="inlineStr"/>
+      <c r="V205" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W205" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12524,7 +12556,7 @@
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+          <t>A &lt;psychological need&gt; to have a positive evaluation of oneself and one's qualities and characteristics.</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -12552,7 +12584,11 @@
       <c r="S206" s="2" t="inlineStr"/>
       <c r="T206" s="2" t="inlineStr"/>
       <c r="U206" s="2" t="inlineStr"/>
-      <c r="V206" s="2" t="inlineStr"/>
+      <c r="V206" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W206" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12578,7 +12614,7 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to experience oneself as capable and effective.</t>
+          <t>A &lt;psychological need&gt; to experience oneself as capable and effective.</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
@@ -12610,7 +12646,11 @@
       <c r="S207" s="2" t="inlineStr"/>
       <c r="T207" s="2" t="inlineStr"/>
       <c r="U207" s="2" t="inlineStr"/>
-      <c r="V207" s="2" t="inlineStr"/>
+      <c r="V207" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W207" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13744,7 +13784,7 @@
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
+          <t>A &lt;mental disposition&gt; to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr"/>
@@ -13772,7 +13812,11 @@
       <c r="S227" s="2" t="inlineStr"/>
       <c r="T227" s="2" t="inlineStr"/>
       <c r="U227" s="2" t="inlineStr"/>
-      <c r="V227" s="2" t="inlineStr"/>
+      <c r="V227" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W227" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14324,7 +14368,7 @@
       </c>
       <c r="D237" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
+          <t>A &lt;motivational orientation towards types of outcomes&gt; in which motivation is guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
       <c r="E237" s="2" t="inlineStr"/>
@@ -14352,7 +14396,11 @@
       <c r="S237" s="2" t="inlineStr"/>
       <c r="T237" s="2" t="inlineStr"/>
       <c r="U237" s="2" t="inlineStr"/>
-      <c r="V237" s="2" t="inlineStr"/>
+      <c r="V237" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W237" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14544,7 +14592,7 @@
       </c>
       <c r="D241" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
+          <t>A &lt;motivational orientation towards types of outcomes&gt; in which motivation is guided by a focus on the presence or absence of positive outcomes.</t>
         </is>
       </c>
       <c r="E241" s="2" t="inlineStr"/>
@@ -14572,7 +14620,11 @@
       <c r="S241" s="2" t="inlineStr"/>
       <c r="T241" s="2" t="inlineStr"/>
       <c r="U241" s="2" t="inlineStr"/>
-      <c r="V241" s="2" t="inlineStr"/>
+      <c r="V241" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W241" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14664,7 +14716,7 @@
       </c>
       <c r="D243" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+          <t>A &lt;mental disposition&gt; of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
         </is>
       </c>
       <c r="E243" s="2" t="inlineStr"/>
@@ -14696,7 +14748,11 @@
       <c r="S243" s="2" t="inlineStr"/>
       <c r="T243" s="2" t="inlineStr"/>
       <c r="U243" s="2" t="inlineStr"/>
-      <c r="V243" s="2" t="inlineStr"/>
+      <c r="V243" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W243" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16032,7 +16088,7 @@
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
+          <t>A &lt;mental disposition&gt; to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr"/>
@@ -16060,7 +16116,11 @@
       <c r="S267" s="2" t="inlineStr"/>
       <c r="T267" s="2" t="inlineStr"/>
       <c r="U267" s="2" t="inlineStr"/>
-      <c r="V267" s="2" t="inlineStr"/>
+      <c r="V267" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W267" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16256,7 +16316,7 @@
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>A &lt;mental disposition&gt; to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr"/>
@@ -16284,7 +16344,11 @@
       <c r="S271" s="2" t="inlineStr"/>
       <c r="T271" s="2" t="inlineStr"/>
       <c r="U271" s="2" t="inlineStr"/>
-      <c r="V271" s="2" t="inlineStr"/>
+      <c r="V271" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W271" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -17001,7 +17065,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ADDICTO:0001140</t>
+          <t>External</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -17016,7 +17080,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+          <t>A &lt;bodily disposition&gt; which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -17048,7 +17112,11 @@
       <c r="S284" t="inlineStr"/>
       <c r="T284" t="inlineStr"/>
       <c r="U284" t="inlineStr"/>
-      <c r="V284" t="inlineStr"/>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W284" t="inlineStr">
         <is>
           <t>0</t>
@@ -17302,7 +17370,7 @@
       </c>
       <c r="D289" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to focus more on future than present outcomes.</t>
+          <t>A &lt;mental disposition&gt; to focus more on future than present outcomes.</t>
         </is>
       </c>
       <c r="E289" s="2" t="inlineStr"/>
@@ -17330,7 +17398,11 @@
       <c r="S289" s="2" t="inlineStr"/>
       <c r="T289" s="2" t="inlineStr"/>
       <c r="U289" s="2" t="inlineStr"/>
-      <c r="V289" s="2" t="inlineStr"/>
+      <c r="V289" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W289" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -17356,7 +17428,7 @@
       </c>
       <c r="D290" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to focus more on present than future outcomes.</t>
+          <t>A &lt;mental disposition&gt; to focus more on present than future outcomes.</t>
         </is>
       </c>
       <c r="E290" s="2" t="inlineStr"/>
@@ -17384,7 +17456,11 @@
       <c r="S290" s="2" t="inlineStr"/>
       <c r="T290" s="2" t="inlineStr"/>
       <c r="U290" s="2" t="inlineStr"/>
-      <c r="V290" s="2" t="inlineStr"/>
+      <c r="V290" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W290" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -17572,7 +17648,7 @@
       </c>
       <c r="D294" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to act in accordance with the likely approval of others.</t>
+          <t>A &lt;mental disposition&gt; to act in accordance with the likely approval of others.</t>
         </is>
       </c>
       <c r="E294" s="2" t="inlineStr"/>
@@ -17604,7 +17680,11 @@
       <c r="S294" s="2" t="inlineStr"/>
       <c r="T294" s="2" t="inlineStr"/>
       <c r="U294" s="2" t="inlineStr"/>
-      <c r="V294" s="2" t="inlineStr"/>
+      <c r="V294" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W294" s="2" t="inlineStr">
         <is>
           <t>0</t>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -17065,7 +17065,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>ADDICTO:0001140</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A cognitive representation of the emotional relevance of an object or event to the organism.</t>
+          <t>A &lt;cognitive representation&gt; of the emotional relevance of an object or event to the organism.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1172,7 +1172,11 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr">
         <is>
           <t>0</t>
@@ -1198,7 +1202,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>An appraisal that represents an evaluation that an event was caused by another person.</t>
+          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by another person.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1226,7 +1230,11 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W12" t="inlineStr">
         <is>
           <t>0</t>
@@ -1252,7 +1260,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>An appraisal that represents an evaluation that an event was caused by natural events and not by humans.</t>
+          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by natural events and not by humans.</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -1280,7 +1288,11 @@
       <c r="S13" s="2" t="inlineStr"/>
       <c r="T13" s="2" t="inlineStr"/>
       <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1306,7 +1318,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>An appraisal that represents an evaluation that an event was caused by oneself.</t>
+          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by oneself.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1334,7 +1346,11 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr">
         <is>
           <t>0</t>
@@ -1360,7 +1376,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>An appraisal which represents a judgement about how avoidable the expected consequences of an event will be.</t>
+          <t>An &lt;appraisal&gt; which represents a judgement about how avoidable the expected consequences of an event will be.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1388,7 +1404,11 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>0</t>
@@ -1414,7 +1434,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">An appraisal that represents an evaluation of who or what caused an event. </t>
+          <t xml:space="preserve">An &lt;appraisal&gt; that represents an evaluation of who or what caused an event. </t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1442,7 +1462,11 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W16" t="inlineStr">
         <is>
           <t>0</t>
@@ -1468,7 +1492,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>An appraisal which represents an evaluation of how threatening an object or situation is.</t>
+          <t>An &lt;appraisal&gt; which represents an evaluation of how threatening an object or situation is.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1500,7 +1524,11 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>0</t>
@@ -1526,7 +1554,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>An appraisal that represents an evaluation of the desirability of the expected consequences of an event.</t>
+          <t>An &lt;appraisal&gt; that represents an evaluation of the desirability of the expected consequences of an event.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1554,7 +1582,11 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W18" t="inlineStr">
         <is>
           <t>0</t>
@@ -1580,7 +1612,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">An appraisal that represents an evaluation of whether an event was expected to occur. </t>
+          <t xml:space="preserve">An &lt;appraisal&gt; that represents an evaluation of whether an event was expected to occur. </t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1608,7 +1640,11 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr">
         <is>
           <t>0</t>
@@ -1634,7 +1670,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>An appraisal that represents an evaluation of whether an event or object is important to the person's goals or needs.</t>
+          <t>An &lt;appraisal&gt; that represents an evaluation of whether an event or object is important to the person's goals or needs.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1662,7 +1698,11 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W20" t="inlineStr">
         <is>
           <t>0</t>
@@ -1688,7 +1728,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>An appraisal that represents an evaluation of how much one is personally obliged to respond to an event or person in need.</t>
+          <t>An &lt;appraisal&gt; that represents an evaluation of how much one is personally obliged to respond to an event or person in need.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1716,7 +1756,11 @@
       <c r="S21" s="2" t="inlineStr"/>
       <c r="T21" s="2" t="inlineStr"/>
       <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1742,7 +1786,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>An appraisal that represents an evaluation of the pleasantness of an object or event.</t>
+          <t>An &lt;appraisal&gt; that represents an evaluation of the pleasantness of an object or event.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1770,7 +1814,11 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr">
         <is>
           <t>0</t>
@@ -5943,7 +5991,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">A representation which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
+          <t xml:space="preserve">A &lt;representation&gt; which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -5980,7 +6028,11 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W93" t="inlineStr">
         <is>
           <t>0</t>
@@ -6528,7 +6580,7 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of a reference level that an individual wishes to obtain.</t>
+          <t>A &lt;cognitive representation&gt; of a reference level that an individual wishes to obtain.</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
@@ -6560,7 +6612,11 @@
       <c r="S103" s="2" t="inlineStr"/>
       <c r="T103" s="2" t="inlineStr"/>
       <c r="U103" s="2" t="inlineStr"/>
-      <c r="V103" s="2" t="inlineStr"/>
+      <c r="V103" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W103" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7056,7 +7112,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+          <t>A &lt;disposition&gt; which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -7088,7 +7144,11 @@
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W112" t="inlineStr">
         <is>
           <t>0</t>
@@ -8579,7 +8639,7 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of an end state towards which one is striving.</t>
+          <t>A &lt;cognitive representation&gt; of an end state towards which one is striving.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
@@ -8607,7 +8667,11 @@
       <c r="S138" s="2" t="inlineStr"/>
       <c r="T138" s="2" t="inlineStr"/>
       <c r="U138" s="2" t="inlineStr"/>
-      <c r="V138" s="2" t="inlineStr"/>
+      <c r="V138" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W138" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8915,7 +8979,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>An identity that a group holds about itself.</t>
+          <t>An &lt;identity&gt; that a group holds about itself.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -8947,7 +9011,11 @@
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W144" t="inlineStr">
         <is>
           <t>0</t>
@@ -9534,7 +9602,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>A cognitive representation of themselves by a person or group.</t>
+          <t>A &lt;cognitive representation&gt; of themselves by a person or group.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -9562,7 +9630,11 @@
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W155" t="inlineStr">
         <is>
           <t>0</t>
@@ -10702,7 +10774,7 @@
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
+          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
@@ -10738,7 +10810,11 @@
       <c r="S175" s="2" t="inlineStr"/>
       <c r="T175" s="2" t="inlineStr"/>
       <c r="U175" s="2" t="inlineStr"/>
-      <c r="V175" s="2" t="inlineStr"/>
+      <c r="V175" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W175" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11008,7 +11084,7 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention mechanism of action in which the causal influence affects a cognitive representation.</t>
+          <t>A &lt;behaviour change intervention mechanism of action&gt; in which the causal influence affects a cognitive representation.</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
@@ -11046,7 +11122,11 @@
       <c r="S180" s="2" t="inlineStr"/>
       <c r="T180" s="2" t="inlineStr"/>
       <c r="U180" s="2" t="inlineStr"/>
-      <c r="V180" s="2" t="inlineStr"/>
+      <c r="V180" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W180" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11072,7 +11152,7 @@
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention mechanism of action in which the causal influence affects an environmental disposition.</t>
+          <t>A &lt;behaviour change intervention mechanism of action&gt; in which the causal influence affects an environmental disposition.</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
@@ -11110,7 +11190,11 @@
       <c r="S181" s="2" t="inlineStr"/>
       <c r="T181" s="2" t="inlineStr"/>
       <c r="U181" s="2" t="inlineStr"/>
-      <c r="V181" s="2" t="inlineStr"/>
+      <c r="V181" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W181" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11136,7 +11220,7 @@
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention mechanism of action in which the causal influence shifts the location of people or objects.</t>
+          <t>A &lt;behaviour change intervention mechanism of action&gt; in which the causal influence shifts the location of people or objects.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
@@ -11174,7 +11258,11 @@
       <c r="S182" s="2" t="inlineStr"/>
       <c r="T182" s="2" t="inlineStr"/>
       <c r="U182" s="2" t="inlineStr"/>
-      <c r="V182" s="2" t="inlineStr"/>
+      <c r="V182" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W182" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11268,7 +11356,7 @@
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention mechanism of action in which the causal influence affects a personal role.</t>
+          <t>A &lt;behaviour change intervention mechanism of action&gt; in which the causal influence affects a personal role.</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -11306,7 +11394,11 @@
       <c r="S184" s="2" t="inlineStr"/>
       <c r="T184" s="2" t="inlineStr"/>
       <c r="U184" s="2" t="inlineStr"/>
-      <c r="V184" s="2" t="inlineStr"/>
+      <c r="V184" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W184" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11676,7 +11768,7 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
+          <t>A &lt;cognitive representation&gt; of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -11704,7 +11796,11 @@
       <c r="S191" s="2" t="inlineStr"/>
       <c r="T191" s="2" t="inlineStr"/>
       <c r="U191" s="2" t="inlineStr"/>
-      <c r="V191" s="2" t="inlineStr"/>
+      <c r="V191" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W191" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13074,7 +13170,7 @@
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+          <t>A &lt;personal role&gt; that is realised in a person by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr"/>
@@ -13106,7 +13202,11 @@
       <c r="S215" s="2" t="inlineStr"/>
       <c r="T215" s="2" t="inlineStr"/>
       <c r="U215" s="2" t="inlineStr"/>
-      <c r="V215" s="2" t="inlineStr"/>
+      <c r="V215" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W215" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13722,7 +13822,7 @@
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+          <t>A &lt;role&gt; that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr"/>
@@ -13758,7 +13858,11 @@
       <c r="S226" s="2" t="inlineStr"/>
       <c r="T226" s="2" t="inlineStr"/>
       <c r="U226" s="2" t="inlineStr"/>
-      <c r="V226" s="2" t="inlineStr"/>
+      <c r="V226" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W226" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14480,7 +14584,7 @@
       </c>
       <c r="D239" s="2" t="inlineStr">
         <is>
-          <t>A self-identity that is associated with one's occupational role.</t>
+          <t>A &lt;self-identity&gt; that is associated with one's occupational role.</t>
         </is>
       </c>
       <c r="E239" s="2" t="inlineStr"/>
@@ -14508,7 +14612,11 @@
       <c r="S239" s="2" t="inlineStr"/>
       <c r="T239" s="2" t="inlineStr"/>
       <c r="U239" s="2" t="inlineStr"/>
-      <c r="V239" s="2" t="inlineStr"/>
+      <c r="V239" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W239" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15410,7 +15518,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>An identity that a person has about themselves.</t>
+          <t>An &lt;identity&gt; that a person has about themselves.</t>
         </is>
       </c>
       <c r="E255" t="inlineStr"/>
@@ -15438,7 +15546,11 @@
       <c r="S255" t="inlineStr"/>
       <c r="T255" t="inlineStr"/>
       <c r="U255" t="inlineStr"/>
-      <c r="V255" t="inlineStr"/>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W255" t="inlineStr">
         <is>
           <t>0</t>
@@ -16432,7 +16544,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
+          <t>A &lt;self-identity&gt; in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -16464,7 +16576,11 @@
       <c r="S273" t="inlineStr"/>
       <c r="T273" t="inlineStr"/>
       <c r="U273" t="inlineStr"/>
-      <c r="V273" t="inlineStr"/>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W273" t="inlineStr">
         <is>
           <t>0</t>
@@ -16548,7 +16664,7 @@
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>A &lt;personal role&gt; that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr"/>
@@ -16580,7 +16696,11 @@
       <c r="S275" s="2" t="inlineStr"/>
       <c r="T275" s="2" t="inlineStr"/>
       <c r="U275" s="2" t="inlineStr"/>
-      <c r="V275" s="2" t="inlineStr"/>
+      <c r="V275" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W275" s="2" t="inlineStr">
         <is>
           <t>0</t>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A mental process that has positive or negative valence.</t>
+          <t>A &lt;mental process&gt; that has positive or negative valence.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -869,7 +869,11 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1020,7 +1024,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Disgust elicited by poor hygiene, inappropriate sex, gore or violations of bodily boundaries, and death or the odor of decay.</t>
+          <t>&lt;Disgust&gt; elicited by poor hygiene, inappropriate sex, gore or violations of bodily boundaries, and death or the odor of decay.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1048,7 +1052,11 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>0</t>
@@ -1844,7 +1852,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A mental process that gives rise to an appraisal.</t>
+          <t>A &lt;mental process&gt; that gives rise to an appraisal.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1876,7 +1884,11 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr">
         <is>
           <t>0</t>
@@ -1902,7 +1914,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Extrinsic motivation to gain or maintain social approval or a positive self-evaluation.</t>
+          <t>&lt;Extrinsic motivation&gt; to gain or maintain social approval or a positive self-evaluation.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
@@ -1934,7 +1946,11 @@
       <c r="S24" s="2" t="inlineStr"/>
       <c r="T24" s="2" t="inlineStr"/>
       <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr"/>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1960,7 +1976,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A mental process that involves heightened responding to an internal or external stimulus.</t>
+          <t>A &lt;mental process&gt; that involves heightened responding to an internal or external stimulus.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1988,7 +2004,11 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr">
         <is>
           <t>0</t>
@@ -2014,7 +2034,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Learning that involves changing the strength of association between two or more mental processes.</t>
+          <t>&lt;Learning&gt; that involves changing the strength of association between two or more mental processes.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
@@ -2047,7 +2067,11 @@
       <c r="S26" s="2" t="inlineStr"/>
       <c r="T26" s="2" t="inlineStr"/>
       <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2073,7 +2097,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a set of entities associated with a particular object or event.</t>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding a set of entities associated with a particular object or event.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
@@ -2101,7 +2125,11 @@
       <c r="S27" s="2" t="inlineStr"/>
       <c r="T27" s="2" t="inlineStr"/>
       <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2127,7 +2155,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental process whereby relevant aspects of one's mental experience are focused on specific targets. </t>
+          <t xml:space="preserve">A &lt;mental process&gt; whereby relevant aspects of one's mental experience are focused on specific targets. </t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2155,7 +2183,11 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr">
         <is>
           <t>0</t>
@@ -2371,7 +2403,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Behaviour motivation that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
+          <t>&lt;Behaviour motivation&gt; that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
@@ -2399,7 +2431,11 @@
       <c r="S32" s="2" t="inlineStr"/>
       <c r="T32" s="2" t="inlineStr"/>
       <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2425,7 +2461,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Behavioural motivation that is internally generated and based on a behaviour being interesting or valuable to an individual.</t>
+          <t>&lt;Behavioural motivation&gt; that is internally generated and based on a behaviour being interesting or valuable to an individual.</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -2453,7 +2489,11 @@
       <c r="S33" s="2" t="inlineStr"/>
       <c r="T33" s="2" t="inlineStr"/>
       <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2479,7 +2519,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental process that reduces the frequency by which an aversive cognitive representation is evoked. </t>
+          <t xml:space="preserve">A &lt;mental process&gt; that reduces the frequency by which an aversive cognitive representation is evoked. </t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
@@ -2507,7 +2547,11 @@
       <c r="S34" s="2" t="inlineStr"/>
       <c r="T34" s="2" t="inlineStr"/>
       <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2715,7 +2759,7 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to the perceived value or importance of the behaviour to oneself.</t>
+          <t>&lt;Autonomous motivation&gt; due to the perceived value or importance of the behaviour to oneself.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
@@ -2747,7 +2791,11 @@
       <c r="S38" s="2" t="inlineStr"/>
       <c r="T38" s="2" t="inlineStr"/>
       <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2835,7 +2883,7 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>A mental process that energises and directs a behaviour.</t>
+          <t>A &lt;mental process&gt; that energises and directs a behaviour.</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
@@ -2867,7 +2915,11 @@
       <c r="S40" s="2" t="inlineStr"/>
       <c r="T40" s="2" t="inlineStr"/>
       <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2893,7 +2945,7 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>An environmental disposition that is required for or facilitates a behaviour.</t>
+          <t>An &lt;environmental disposition&gt; that is required for or facilitates a behaviour.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
@@ -2931,7 +2983,11 @@
       <c r="S41" s="2" t="inlineStr"/>
       <c r="T41" s="2" t="inlineStr"/>
       <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3019,7 +3075,7 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Self-regulation of behaviour through the performance of a different behaviour.</t>
+          <t>&lt;Self-regulation of behaviour&gt; through the performance of a different behaviour.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
@@ -3055,7 +3111,11 @@
       <c r="S43" s="2" t="inlineStr"/>
       <c r="T43" s="2" t="inlineStr"/>
       <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5538,7 +5598,7 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>A stimulus that arises from bodily processes and serves to elicit or guide behaviour.</t>
+          <t>A &lt;bodily process&gt; that arises from another bodily process and serves to elicit or guide behaviour.</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
@@ -5566,7 +5626,11 @@
       <c r="S85" s="2" t="inlineStr"/>
       <c r="T85" s="2" t="inlineStr"/>
       <c r="U85" s="2" t="inlineStr"/>
-      <c r="V85" s="2" t="inlineStr"/>
+      <c r="V85" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W85" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5713,7 +5777,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organism participates.</t>
+          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -5749,7 +5813,11 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W88" t="inlineStr">
         <is>
           <t>0</t>
@@ -5829,7 +5897,7 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
+          <t>&lt;Associative learning&gt; that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
@@ -5857,7 +5925,11 @@
       <c r="S90" s="2" t="inlineStr"/>
       <c r="T90" s="2" t="inlineStr"/>
       <c r="U90" s="2" t="inlineStr"/>
-      <c r="V90" s="2" t="inlineStr"/>
+      <c r="V90" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W90" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5883,7 +5955,7 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>An unpleasant subjective affective feeling experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
+          <t>A &lt;subjective affective feeling&gt; that is unpleasant and experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
@@ -5911,7 +5983,11 @@
       <c r="S91" s="2" t="inlineStr"/>
       <c r="T91" s="2" t="inlineStr"/>
       <c r="U91" s="2" t="inlineStr"/>
-      <c r="V91" s="2" t="inlineStr"/>
+      <c r="V91" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W91" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5937,7 +6013,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
+          <t>A &lt;mental process&gt; that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -5965,7 +6041,11 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W92" t="inlineStr">
         <is>
           <t>0</t>
@@ -6178,7 +6258,7 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+          <t>A &lt;cognitive process&gt; that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
@@ -6206,7 +6286,11 @@
       <c r="S96" s="2" t="inlineStr"/>
       <c r="T96" s="2" t="inlineStr"/>
       <c r="U96" s="2" t="inlineStr"/>
-      <c r="V96" s="2" t="inlineStr"/>
+      <c r="V96" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W96" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6290,7 +6374,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Disgust elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
+          <t>&lt;Disgust&gt; elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -6318,7 +6402,11 @@
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W98" t="inlineStr">
         <is>
           <t>0</t>
@@ -6344,7 +6432,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>A subjective affective feeling involving a strong desire or urge.</t>
+          <t>A &lt;subjective affective feeling&gt; involving a strong desire or urge.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -6376,7 +6464,11 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W99" t="inlineStr">
         <is>
           <t>0</t>
@@ -6468,7 +6560,7 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process used prior to decision-making that reduces the perceived scope or complexity of available options.</t>
+          <t>A &lt;cognitive process&gt; used prior to decision-making that reduces the perceived scope or complexity of available options.</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
@@ -6496,7 +6588,11 @@
       <c r="S101" s="2" t="inlineStr"/>
       <c r="T101" s="2" t="inlineStr"/>
       <c r="U101" s="2" t="inlineStr"/>
-      <c r="V101" s="2" t="inlineStr"/>
+      <c r="V101" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W101" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6522,7 +6618,7 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Judging during which one proposition is selected as preferred from at least two.</t>
+          <t>&lt;Judging&gt; during which one proposition is selected as preferred from at least two.</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
@@ -6554,7 +6650,11 @@
       <c r="S102" s="2" t="inlineStr"/>
       <c r="T102" s="2" t="inlineStr"/>
       <c r="U102" s="2" t="inlineStr"/>
-      <c r="V102" s="2" t="inlineStr"/>
+      <c r="V102" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W102" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6642,7 +6742,7 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
+          <t>&lt;Associative learning&gt; in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
@@ -6670,7 +6770,11 @@
       <c r="S104" s="2" t="inlineStr"/>
       <c r="T104" s="2" t="inlineStr"/>
       <c r="U104" s="2" t="inlineStr"/>
-      <c r="V104" s="2" t="inlineStr"/>
+      <c r="V104" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W104" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6808,7 +6912,7 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>A mental process through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
+          <t>A &lt;mental process&gt; through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
@@ -6836,7 +6940,11 @@
       <c r="S107" s="2" t="inlineStr"/>
       <c r="T107" s="2" t="inlineStr"/>
       <c r="U107" s="2" t="inlineStr"/>
-      <c r="V107" s="2" t="inlineStr"/>
+      <c r="V107" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W107" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6920,7 +7028,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
+          <t>An &lt;affective process&gt; that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -6954,7 +7062,11 @@
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W109" t="inlineStr">
         <is>
           <t>0</t>
@@ -7242,7 +7354,7 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a personally experienced event at a particular time or place.</t>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding a personally experienced event at a particular time or place.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
@@ -7270,7 +7382,11 @@
       <c r="S114" s="2" t="inlineStr"/>
       <c r="T114" s="2" t="inlineStr"/>
       <c r="U114" s="2" t="inlineStr"/>
-      <c r="V114" s="2" t="inlineStr"/>
+      <c r="V114" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W114" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7606,7 +7722,7 @@
       </c>
       <c r="D120" s="4" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>An &lt;individual human behaviour&gt; that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="E120" s="4" t="inlineStr"/>
@@ -7664,7 +7780,7 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+          <t>&lt;Associative learning&gt; in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
@@ -7697,7 +7813,11 @@
       <c r="S121" s="2" t="inlineStr"/>
       <c r="T121" s="2" t="inlineStr"/>
       <c r="U121" s="2" t="inlineStr"/>
-      <c r="V121" s="2" t="inlineStr"/>
+      <c r="V121" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W121" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7723,7 +7843,7 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a reinforcer. </t>
+          <t xml:space="preserve">&lt;Associative learning&gt; in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a reinforcer. </t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
@@ -7755,7 +7875,11 @@
       <c r="S122" s="2" t="inlineStr"/>
       <c r="T122" s="2" t="inlineStr"/>
       <c r="U122" s="2" t="inlineStr"/>
-      <c r="V122" s="2" t="inlineStr"/>
+      <c r="V122" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W122" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7781,7 +7905,7 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>Behaviour motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
+          <t>&lt;Behaviour motivation&gt; that is based on external rewards, punishments or pressure regarding a behaviour.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
@@ -7813,7 +7937,11 @@
       <c r="S123" s="2" t="inlineStr"/>
       <c r="T123" s="2" t="inlineStr"/>
       <c r="U123" s="2" t="inlineStr"/>
-      <c r="V123" s="2" t="inlineStr"/>
+      <c r="V123" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W123" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7955,7 +8083,7 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>A subjective affective feeling that  arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
+          <t>A &lt;subjective affective feeling&gt; that  arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
@@ -7987,7 +8115,11 @@
       <c r="S126" s="2" t="inlineStr"/>
       <c r="T126" s="2" t="inlineStr"/>
       <c r="U126" s="2" t="inlineStr"/>
-      <c r="V126" s="2" t="inlineStr"/>
+      <c r="V126" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W126" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8013,7 +8145,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of being at ease, comfortable, relaxed.</t>
+          <t>A &lt;subjective affective feeling&gt; of being at ease, comfortable, relaxed.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -8041,7 +8173,11 @@
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W127" t="inlineStr">
         <is>
           <t>0</t>
@@ -8067,7 +8203,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of having lots of energy, being energetic.</t>
+          <t>A &lt;subjective affective feeling&gt; of having lots of energy, being energetic.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -8095,7 +8231,11 @@
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W128" t="inlineStr">
         <is>
           <t>0</t>
@@ -8121,7 +8261,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Feeling tired to an extremely strong degree.</t>
+          <t>&lt;Feeling tired&gt; to an extremely strong degree.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -8149,7 +8289,11 @@
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W129" t="inlineStr">
         <is>
           <t>0</t>
@@ -8175,7 +8319,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of being not at ease or agitated.</t>
+          <t>A &lt;subjective affective feeling&gt; of being not at ease or agitated.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -8207,7 +8351,11 @@
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W130" t="inlineStr">
         <is>
           <t>0</t>
@@ -8295,7 +8443,7 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
+          <t xml:space="preserve">A &lt;subjective affective feeling&gt; of sadness. </t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
@@ -8323,7 +8471,11 @@
       <c r="S132" s="2" t="inlineStr"/>
       <c r="T132" s="2" t="inlineStr"/>
       <c r="U132" s="2" t="inlineStr"/>
-      <c r="V132" s="2" t="inlineStr"/>
+      <c r="V132" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W132" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8349,7 +8501,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of tiredness, needing sleep.</t>
+          <t>A &lt;subjective affective feeling&gt; of tiredness, needing sleep.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -8377,7 +8529,11 @@
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W133" t="inlineStr">
         <is>
           <t>0</t>
@@ -8403,7 +8559,7 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
+          <t>A &lt;physical behavioural opportunity&gt; that involves the person having sufficient financial resources.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
@@ -8439,7 +8595,11 @@
       <c r="S134" s="2" t="inlineStr"/>
       <c r="T134" s="2" t="inlineStr"/>
       <c r="U134" s="2" t="inlineStr"/>
-      <c r="V134" s="2" t="inlineStr"/>
+      <c r="V134" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W134" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8523,7 +8683,7 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour being perceived to satisfy a core psychological need.</t>
+          <t>&lt;Autonomous motivation&gt; due to a behaviour being perceived to satisfy a core psychological need.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -8555,7 +8715,11 @@
       <c r="S136" s="2" t="inlineStr"/>
       <c r="T136" s="2" t="inlineStr"/>
       <c r="U136" s="2" t="inlineStr"/>
-      <c r="V136" s="2" t="inlineStr"/>
+      <c r="V136" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W136" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8581,7 +8745,7 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
+          <t>&lt;Associative learning&gt; in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -8613,7 +8777,11 @@
       <c r="S137" s="2" t="inlineStr"/>
       <c r="T137" s="2" t="inlineStr"/>
       <c r="U137" s="2" t="inlineStr"/>
-      <c r="V137" s="2" t="inlineStr"/>
+      <c r="V137" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W137" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8697,7 +8865,7 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A goal interaction in which the goals are incompatible.</t>
+          <t>A &lt;goal interaction&gt; in which the goals are incompatible.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
@@ -8725,7 +8893,11 @@
       <c r="S139" s="2" t="inlineStr"/>
       <c r="T139" s="2" t="inlineStr"/>
       <c r="U139" s="2" t="inlineStr"/>
-      <c r="V139" s="2" t="inlineStr"/>
+      <c r="V139" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W139" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8751,7 +8923,7 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A goal interaction in which the goals facilitate each other.</t>
+          <t>A &lt;goal interaction&gt; in which the goals facilitate each other.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -8781,7 +8953,7 @@
       <c r="U140" s="2" t="inlineStr"/>
       <c r="V140" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="W140" s="2" t="inlineStr">
@@ -8809,7 +8981,7 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>An information content entity that is about the extent to which goals are compatible with each other.</t>
+          <t>An &lt;information content entity&gt; that is about the extent to which goals are compatible with each other.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -8841,7 +9013,11 @@
       <c r="S141" s="2" t="inlineStr"/>
       <c r="T141" s="2" t="inlineStr"/>
       <c r="U141" s="2" t="inlineStr"/>
-      <c r="V141" s="2" t="inlineStr"/>
+      <c r="V141" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W141" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8867,7 +9043,7 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+          <t>A &lt;bodily process&gt; in which attempts are made to achieve a desired end state.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
@@ -8899,7 +9075,11 @@
       <c r="S142" s="2" t="inlineStr"/>
       <c r="T142" s="2" t="inlineStr"/>
       <c r="U142" s="2" t="inlineStr"/>
-      <c r="V142" s="2" t="inlineStr"/>
+      <c r="V142" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W142" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8925,7 +9105,7 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
+          <t>A &lt;mental process&gt; that establishes a cognitive representation of the desired end state.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
@@ -8953,7 +9133,11 @@
       <c r="S143" s="2" t="inlineStr"/>
       <c r="T143" s="2" t="inlineStr"/>
       <c r="U143" s="2" t="inlineStr"/>
-      <c r="V143" s="2" t="inlineStr"/>
+      <c r="V143" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W143" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9095,7 +9279,7 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
+          <t>&lt;Associative learning&gt; that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
@@ -9123,7 +9307,11 @@
       <c r="S146" s="2" t="inlineStr"/>
       <c r="T146" s="2" t="inlineStr"/>
       <c r="U146" s="2" t="inlineStr"/>
-      <c r="V146" s="2" t="inlineStr"/>
+      <c r="V146" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W146" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9149,7 +9337,7 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>A behaviour that results from a learnt stimulus-behaviour co-occurrence.</t>
+          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
@@ -9182,7 +9370,11 @@
       <c r="S147" s="2" t="inlineStr"/>
       <c r="T147" s="2" t="inlineStr"/>
       <c r="U147" s="2" t="inlineStr"/>
-      <c r="V147" s="2" t="inlineStr"/>
+      <c r="V147" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W147" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9316,7 +9508,7 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity regarding how easy it is for a person to approach and use a healthcare service.</t>
+          <t>A &lt;behavioural opportunity&gt; regarding how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
@@ -9352,7 +9544,11 @@
       <c r="S150" s="2" t="inlineStr"/>
       <c r="T150" s="2" t="inlineStr"/>
       <c r="U150" s="2" t="inlineStr"/>
-      <c r="V150" s="2" t="inlineStr"/>
+      <c r="V150" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W150" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9378,7 +9574,7 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
+          <t>A &lt;mental process&gt; that uses simple rules and associations learnt from experience to make judgements.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
@@ -9406,7 +9602,11 @@
       <c r="S151" s="2" t="inlineStr"/>
       <c r="T151" s="2" t="inlineStr"/>
       <c r="U151" s="2" t="inlineStr"/>
-      <c r="V151" s="2" t="inlineStr"/>
+      <c r="V151" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W151" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9432,7 +9632,7 @@
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>An &lt;expressive behaviour&gt; that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
@@ -9494,7 +9694,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
+          <t>A &lt;subjective affective feeling&gt; that involves discomfort and is associated with a need to consume food.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -9522,7 +9722,11 @@
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W153" t="inlineStr">
         <is>
           <t>0</t>
@@ -9548,7 +9752,7 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus.</t>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus.</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
@@ -9576,7 +9780,11 @@
       <c r="S154" s="2" t="inlineStr"/>
       <c r="T154" s="2" t="inlineStr"/>
       <c r="U154" s="2" t="inlineStr"/>
-      <c r="V154" s="2" t="inlineStr"/>
+      <c r="V154" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W154" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9660,7 +9868,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Observational learning in which new behaviours are acquired through imitation. </t>
+          <t xml:space="preserve">&lt;Observational learning&gt; in which new behaviours are acquired through imitation. </t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -9688,7 +9896,11 @@
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W156" t="inlineStr">
         <is>
           <t>0</t>
@@ -9714,7 +9926,7 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
+          <t>A &lt;mental process&gt; that is sudden and compels an organism to think or behave in some way.</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
@@ -9746,7 +9958,11 @@
       <c r="S157" s="2" t="inlineStr"/>
       <c r="T157" s="2" t="inlineStr"/>
       <c r="U157" s="2" t="inlineStr"/>
-      <c r="V157" s="2" t="inlineStr"/>
+      <c r="V157" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W157" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9772,7 +9988,7 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A &lt;bodily process&gt; of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
@@ -9834,7 +10050,7 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves an interaction between two or more people.</t>
+          <t>An &lt;individual human behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
@@ -9892,7 +10108,7 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+          <t>A &lt;bodily process&gt; by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
@@ -9920,7 +10136,11 @@
       <c r="S160" s="2" t="inlineStr"/>
       <c r="T160" s="2" t="inlineStr"/>
       <c r="U160" s="2" t="inlineStr"/>
-      <c r="V160" s="2" t="inlineStr"/>
+      <c r="V160" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W160" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9946,7 +10166,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
+          <t>&lt;Disgust&gt; elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -9974,7 +10194,11 @@
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr"/>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W161" t="inlineStr">
         <is>
           <t>0</t>
@@ -10000,7 +10224,7 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+          <t>&lt;Autonomous motivation&gt; due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
@@ -10032,7 +10256,11 @@
       <c r="S162" s="2" t="inlineStr"/>
       <c r="T162" s="2" t="inlineStr"/>
       <c r="U162" s="2" t="inlineStr"/>
-      <c r="V162" s="2" t="inlineStr"/>
+      <c r="V162" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W162" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10058,7 +10286,7 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
+          <t>&lt;Self-regulation of behaviour&gt; undertaken to manage a sense of guilt, anxiety or obligation.</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
@@ -10086,7 +10314,11 @@
       <c r="S163" s="2" t="inlineStr"/>
       <c r="T163" s="2" t="inlineStr"/>
       <c r="U163" s="2" t="inlineStr"/>
-      <c r="V163" s="2" t="inlineStr"/>
+      <c r="V163" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W163" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10112,7 +10344,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
+          <t>A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -10140,7 +10372,11 @@
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W164" t="inlineStr">
         <is>
           <t>0</t>
@@ -10658,7 +10894,7 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
+          <t>A &lt;mental process&gt; in which a lasting mental or behavioural change occurs as the result of experience.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
@@ -10690,7 +10926,11 @@
       <c r="S173" s="2" t="inlineStr"/>
       <c r="T173" s="2" t="inlineStr"/>
       <c r="U173" s="2" t="inlineStr"/>
-      <c r="V173" s="2" t="inlineStr"/>
+      <c r="V173" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W173" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10716,7 +10956,7 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A &lt;human communication behaviour&gt; in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
@@ -10748,7 +10988,11 @@
       <c r="S174" s="2" t="inlineStr"/>
       <c r="T174" s="2" t="inlineStr"/>
       <c r="U174" s="2" t="inlineStr"/>
-      <c r="V174" s="2" t="inlineStr"/>
+      <c r="V174" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W174" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11020,7 +11264,7 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention mechanism of action in which the causal influence occurs in a bodily process.</t>
+          <t>A &lt;behaviour change intervention mechanism of action&gt; in which the causal influence occurs in a bodily process.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
@@ -11058,7 +11302,11 @@
       <c r="S179" s="2" t="inlineStr"/>
       <c r="T179" s="2" t="inlineStr"/>
       <c r="U179" s="2" t="inlineStr"/>
-      <c r="V179" s="2" t="inlineStr"/>
+      <c r="V179" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W179" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11424,7 +11672,7 @@
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>A mental information process that is the encoding, storing, and retrieval of informational stimuli.</t>
+          <t>A &lt;mental process&gt; that is the encoding, storing, and retrieval of informational stimuli.</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
@@ -11452,7 +11700,11 @@
       <c r="S185" s="2" t="inlineStr"/>
       <c r="T185" s="2" t="inlineStr"/>
       <c r="U185" s="2" t="inlineStr"/>
-      <c r="V185" s="2" t="inlineStr"/>
+      <c r="V185" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W185" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11478,7 +11730,7 @@
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
+          <t>A &lt;bodily behavioural cue&gt; that arises from mental processes and serves to elicit or guide behaviour.</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
@@ -11506,7 +11758,11 @@
       <c r="S186" s="2" t="inlineStr"/>
       <c r="T186" s="2" t="inlineStr"/>
       <c r="U186" s="2" t="inlineStr"/>
-      <c r="V186" s="2" t="inlineStr"/>
+      <c r="V186" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W186" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11594,7 +11850,7 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+          <t>A &lt;mental process&gt; in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
@@ -11622,7 +11878,11 @@
       <c r="S188" s="2" t="inlineStr"/>
       <c r="T188" s="2" t="inlineStr"/>
       <c r="U188" s="2" t="inlineStr"/>
-      <c r="V188" s="2" t="inlineStr"/>
+      <c r="V188" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W188" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11710,7 +11970,7 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+          <t>A &lt;cognitive process&gt; that involves intentionally detaching oneself from one's immediate thoughts.</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
@@ -11742,7 +12002,11 @@
       <c r="S190" s="2" t="inlineStr"/>
       <c r="T190" s="2" t="inlineStr"/>
       <c r="U190" s="2" t="inlineStr"/>
-      <c r="V190" s="2" t="inlineStr"/>
+      <c r="V190" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W190" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11826,7 +12090,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+          <t>A &lt;mental process&gt; that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -11854,7 +12118,11 @@
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W192" t="inlineStr">
         <is>
           <t>0</t>
@@ -12129,7 +12397,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t>A &lt;bodily process&gt; that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -12166,7 +12434,11 @@
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W197" t="inlineStr">
         <is>
           <t>0</t>
@@ -12308,7 +12580,7 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which conditions are compared against a particular reference level.</t>
+          <t>A &lt;mental process&gt; in which conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr"/>
@@ -12340,7 +12612,11 @@
       <c r="S200" s="2" t="inlineStr"/>
       <c r="T200" s="2" t="inlineStr"/>
       <c r="U200" s="2" t="inlineStr"/>
-      <c r="V200" s="2" t="inlineStr"/>
+      <c r="V200" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W200" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12366,7 +12642,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
+          <t>&lt;Disgust&gt; elicited by some kinds of especially egregious moral violations.</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -12394,7 +12670,11 @@
       <c r="S201" t="inlineStr"/>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
-      <c r="V201" t="inlineStr"/>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W201" t="inlineStr">
         <is>
           <t>0</t>
@@ -12772,7 +13052,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Surprise with a negative valence.</t>
+          <t>&lt;Surprise&gt; with a negative valence.</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -12800,7 +13080,11 @@
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="inlineStr"/>
-      <c r="V208" t="inlineStr"/>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W208" t="inlineStr">
         <is>
           <t>0</t>
@@ -12880,7 +13164,7 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
+          <t>A &lt;mental process&gt; that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
@@ -12912,7 +13196,11 @@
       <c r="S210" s="2" t="inlineStr"/>
       <c r="T210" s="2" t="inlineStr"/>
       <c r="U210" s="2" t="inlineStr"/>
-      <c r="V210" s="2" t="inlineStr"/>
+      <c r="V210" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W210" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12938,7 +13226,7 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A &lt;human communication behaviour&gt; in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
@@ -12970,7 +13258,11 @@
       <c r="S211" s="2" t="inlineStr"/>
       <c r="T211" s="2" t="inlineStr"/>
       <c r="U211" s="2" t="inlineStr"/>
-      <c r="V211" s="2" t="inlineStr"/>
+      <c r="V211" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W211" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -12996,7 +13288,7 @@
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>An &lt;individual human behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
@@ -13028,7 +13320,11 @@
       <c r="S212" s="2" t="inlineStr"/>
       <c r="T212" s="2" t="inlineStr"/>
       <c r="U212" s="2" t="inlineStr"/>
-      <c r="V212" s="2" t="inlineStr"/>
+      <c r="V212" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W212" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13116,7 +13412,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Learning that occurs through observing the behaviour of others.</t>
+          <t>&lt;Learning&gt; that occurs through observing the behaviour of others.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -13144,7 +13440,11 @@
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr"/>
       <c r="U214" t="inlineStr"/>
-      <c r="V214" t="inlineStr"/>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W214" t="inlineStr">
         <is>
           <t>0</t>
@@ -13232,7 +13532,7 @@
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
+          <t>&lt;Associative learning&gt; in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr"/>
@@ -13260,7 +13560,11 @@
       <c r="S216" s="2" t="inlineStr"/>
       <c r="T216" s="2" t="inlineStr"/>
       <c r="U216" s="2" t="inlineStr"/>
-      <c r="V216" s="2" t="inlineStr"/>
+      <c r="V216" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W216" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13286,7 +13590,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+          <t>A &lt;subjective affective feeling&gt; in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -13318,7 +13622,11 @@
       <c r="S217" t="inlineStr"/>
       <c r="T217" t="inlineStr"/>
       <c r="U217" t="inlineStr"/>
-      <c r="V217" t="inlineStr"/>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W217" t="inlineStr">
         <is>
           <t>0</t>
@@ -13526,7 +13834,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>A mental process which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
+          <t>A &lt;mental process&gt; which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -13563,7 +13871,11 @@
       <c r="S221" t="inlineStr"/>
       <c r="T221" t="inlineStr"/>
       <c r="U221" t="inlineStr"/>
-      <c r="V221" t="inlineStr"/>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W221" t="inlineStr">
         <is>
           <t>0</t>
@@ -14008,7 +14320,7 @@
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t>A &lt;behavioural opportunity&gt; that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr"/>
@@ -14044,7 +14356,11 @@
       <c r="S229" s="2" t="inlineStr"/>
       <c r="T229" s="2" t="inlineStr"/>
       <c r="U229" s="2" t="inlineStr"/>
-      <c r="V229" s="2" t="inlineStr"/>
+      <c r="V229" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W229" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14128,7 +14444,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
+          <t>A &lt;bodily process&gt; that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -14160,7 +14476,11 @@
       <c r="S231" t="inlineStr"/>
       <c r="T231" t="inlineStr"/>
       <c r="U231" t="inlineStr"/>
-      <c r="V231" t="inlineStr"/>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W231" t="inlineStr">
         <is>
           <t>0</t>
@@ -14186,7 +14506,7 @@
       </c>
       <c r="D232" s="2" t="inlineStr">
         <is>
-          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
+          <t>A &lt;bodily process&gt; by which a person attempts to follow the steps in a plan.</t>
         </is>
       </c>
       <c r="E232" s="2" t="inlineStr"/>
@@ -14214,7 +14534,11 @@
       <c r="S232" s="2" t="inlineStr"/>
       <c r="T232" s="2" t="inlineStr"/>
       <c r="U232" s="2" t="inlineStr"/>
-      <c r="V232" s="2" t="inlineStr"/>
+      <c r="V232" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W232" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14240,7 +14564,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+          <t>A &lt;mental process&gt; that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -14272,7 +14596,11 @@
       <c r="S233" t="inlineStr"/>
       <c r="T233" t="inlineStr"/>
       <c r="U233" t="inlineStr"/>
-      <c r="V233" t="inlineStr"/>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W233" t="inlineStr">
         <is>
           <t>0</t>
@@ -14356,7 +14684,7 @@
       </c>
       <c r="D235" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
+          <t xml:space="preserve">&lt;Pleasure&gt; that is experienced as a result of engaging in a behaviour. </t>
         </is>
       </c>
       <c r="E235" s="2" t="inlineStr"/>
@@ -14388,7 +14716,11 @@
       <c r="S235" s="2" t="inlineStr"/>
       <c r="T235" s="2" t="inlineStr"/>
       <c r="U235" s="2" t="inlineStr"/>
-      <c r="V235" s="2" t="inlineStr"/>
+      <c r="V235" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W235" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14414,7 +14746,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Surprise with a positive valence.</t>
+          <t>&lt;Surprise&gt; with a positive valence.</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -14446,7 +14778,11 @@
       <c r="S236" t="inlineStr"/>
       <c r="T236" t="inlineStr"/>
       <c r="U236" t="inlineStr"/>
-      <c r="V236" t="inlineStr"/>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W236" t="inlineStr">
         <is>
           <t>0</t>
@@ -14530,7 +14866,7 @@
       </c>
       <c r="D238" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding performance of an activity.</t>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr"/>
@@ -14558,7 +14894,11 @@
       <c r="S238" s="2" t="inlineStr"/>
       <c r="T238" s="2" t="inlineStr"/>
       <c r="U238" s="2" t="inlineStr"/>
-      <c r="V238" s="2" t="inlineStr"/>
+      <c r="V238" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W238" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14940,7 +15280,7 @@
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>Behavioural motivation that involves reflective thinking.</t>
+          <t>&lt;Behavioural motivation&gt; that involves reflective thinking.</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr"/>
@@ -14972,7 +15312,11 @@
       <c r="S245" s="2" t="inlineStr"/>
       <c r="T245" s="2" t="inlineStr"/>
       <c r="U245" s="2" t="inlineStr"/>
-      <c r="V245" s="2" t="inlineStr"/>
+      <c r="V245" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W245" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14998,7 +15342,7 @@
       </c>
       <c r="D246" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
+          <t>&lt;Thinking&gt; that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
         </is>
       </c>
       <c r="E246" s="2" t="inlineStr"/>
@@ -15026,7 +15370,11 @@
       <c r="S246" s="2" t="inlineStr"/>
       <c r="T246" s="2" t="inlineStr"/>
       <c r="U246" s="2" t="inlineStr"/>
-      <c r="V246" s="2" t="inlineStr"/>
+      <c r="V246" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W246" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15164,7 +15512,7 @@
       </c>
       <c r="D249" s="2" t="inlineStr">
         <is>
-          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
+          <t>&lt;Thinking&gt; that is about negative experiences and feelings, and repeated.</t>
         </is>
       </c>
       <c r="E249" s="2" t="inlineStr"/>
@@ -15192,7 +15540,11 @@
       <c r="S249" s="2" t="inlineStr"/>
       <c r="T249" s="2" t="inlineStr"/>
       <c r="U249" s="2" t="inlineStr"/>
-      <c r="V249" s="2" t="inlineStr"/>
+      <c r="V249" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W249" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15326,7 +15678,7 @@
       </c>
       <c r="D252" s="2" t="inlineStr">
         <is>
-          <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
+          <t>A &lt;mental process&gt; that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
         </is>
       </c>
       <c r="E252" s="2" t="inlineStr"/>
@@ -15358,7 +15710,11 @@
       <c r="S252" s="2" t="inlineStr"/>
       <c r="T252" s="2" t="inlineStr"/>
       <c r="U252" s="2" t="inlineStr"/>
-      <c r="V252" s="2" t="inlineStr"/>
+      <c r="V252" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W252" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15576,7 +15932,7 @@
       </c>
       <c r="D256" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
+          <t>A &lt;mental process&gt; in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E256" s="2" t="inlineStr"/>
@@ -15610,7 +15966,11 @@
       <c r="S256" s="2" t="inlineStr"/>
       <c r="T256" s="2" t="inlineStr"/>
       <c r="U256" s="2" t="inlineStr"/>
-      <c r="V256" s="2" t="inlineStr"/>
+      <c r="V256" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W256" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15698,7 +16058,7 @@
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+          <t>A &lt;self-regulation process&gt; that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr"/>
@@ -15726,7 +16086,11 @@
       <c r="S258" s="2" t="inlineStr"/>
       <c r="T258" s="2" t="inlineStr"/>
       <c r="U258" s="2" t="inlineStr"/>
-      <c r="V258" s="2" t="inlineStr"/>
+      <c r="V258" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W258" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15752,7 +16116,7 @@
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
+          <t>A &lt;bodily process&gt; that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr"/>
@@ -15780,7 +16144,11 @@
       <c r="S259" s="2" t="inlineStr"/>
       <c r="T259" s="2" t="inlineStr"/>
       <c r="U259" s="2" t="inlineStr"/>
-      <c r="V259" s="2" t="inlineStr"/>
+      <c r="V259" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W259" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15864,7 +16232,7 @@
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
+          <t>&lt;Self-regulation of behaviour&gt; through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr"/>
@@ -15896,7 +16264,11 @@
       <c r="S261" s="2" t="inlineStr"/>
       <c r="T261" s="2" t="inlineStr"/>
       <c r="U261" s="2" t="inlineStr"/>
-      <c r="V261" s="2" t="inlineStr"/>
+      <c r="V261" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W261" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15922,7 +16294,7 @@
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr"/>
@@ -15950,7 +16322,11 @@
       <c r="S262" s="2" t="inlineStr"/>
       <c r="T262" s="2" t="inlineStr"/>
       <c r="U262" s="2" t="inlineStr"/>
-      <c r="V262" s="2" t="inlineStr"/>
+      <c r="V262" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W262" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16030,7 +16406,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Pleasure that is experienced as a result of sexual activities.</t>
+          <t>&lt;Pleasure&gt; that is experienced as a result of sexual activities.</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -16058,7 +16434,11 @@
       <c r="S264" t="inlineStr"/>
       <c r="T264" t="inlineStr"/>
       <c r="U264" t="inlineStr"/>
-      <c r="V264" t="inlineStr"/>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W264" t="inlineStr">
         <is>
           <t>0</t>
@@ -16316,7 +16696,7 @@
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A &lt;behavioural opportunity&gt; that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr"/>
@@ -16348,7 +16728,11 @@
       <c r="S269" s="2" t="inlineStr"/>
       <c r="T269" s="2" t="inlineStr"/>
       <c r="U269" s="2" t="inlineStr"/>
-      <c r="V269" s="2" t="inlineStr"/>
+      <c r="V269" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W269" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16374,7 +16758,7 @@
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>&lt;Judging&gt; oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr"/>
@@ -16402,7 +16786,11 @@
       <c r="S270" s="2" t="inlineStr"/>
       <c r="T270" s="2" t="inlineStr"/>
       <c r="U270" s="2" t="inlineStr"/>
-      <c r="V270" s="2" t="inlineStr"/>
+      <c r="V270" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W270" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16606,7 +16994,7 @@
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr"/>
@@ -16638,7 +17026,11 @@
       <c r="S274" s="2" t="inlineStr"/>
       <c r="T274" s="2" t="inlineStr"/>
       <c r="U274" s="2" t="inlineStr"/>
-      <c r="V274" s="2" t="inlineStr"/>
+      <c r="V274" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W274" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16904,7 +17296,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
+          <t>An &lt;affective process&gt; that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -16946,7 +17338,11 @@
       <c r="S279" t="inlineStr"/>
       <c r="T279" t="inlineStr"/>
       <c r="U279" t="inlineStr"/>
-      <c r="V279" t="inlineStr"/>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W279" t="inlineStr">
         <is>
           <t>0</t>
@@ -16972,7 +17368,7 @@
       </c>
       <c r="D280" s="2" t="inlineStr">
         <is>
-          <t>A mental process that involves the experience of internal or external sensory stimuli.</t>
+          <t>A &lt;mental process&gt; that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
       <c r="E280" s="2" t="inlineStr"/>
@@ -17008,7 +17404,11 @@
       <c r="S280" s="2" t="inlineStr"/>
       <c r="T280" s="2" t="inlineStr"/>
       <c r="U280" s="2" t="inlineStr"/>
-      <c r="V280" s="2" t="inlineStr"/>
+      <c r="V280" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W280" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -17034,7 +17434,7 @@
       </c>
       <c r="D281" s="2" t="inlineStr">
         <is>
-          <t>A subjective affective feeling that is an attraction to an imagined scenario involving anticipated relief from or avoidance of mental or physical discomfort.</t>
+          <t>A &lt;subjective affective feeling&gt; that is an attraction to an imagined scenario involving anticipated relief from or avoidance of mental or physical discomfort.</t>
         </is>
       </c>
       <c r="E281" s="2" t="inlineStr"/>
@@ -17066,7 +17466,11 @@
       <c r="S281" s="2" t="inlineStr"/>
       <c r="T281" s="2" t="inlineStr"/>
       <c r="U281" s="2" t="inlineStr"/>
-      <c r="V281" s="2" t="inlineStr"/>
+      <c r="V281" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W281" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -17092,7 +17496,7 @@
       </c>
       <c r="D282" s="2" t="inlineStr">
         <is>
-          <t>A subjective affective feeling that is an attraction to an imagined scenario involving anticipated pleasure or satisfaction.</t>
+          <t>A &lt;subjective affective feeling&gt; that is an attraction to an imagined scenario involving anticipated pleasure or satisfaction.</t>
         </is>
       </c>
       <c r="E282" s="2" t="inlineStr"/>
@@ -17120,7 +17524,11 @@
       <c r="S282" s="2" t="inlineStr"/>
       <c r="T282" s="2" t="inlineStr"/>
       <c r="U282" s="2" t="inlineStr"/>
-      <c r="V282" s="2" t="inlineStr"/>
+      <c r="V282" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W282" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -17146,7 +17554,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
+          <t>A &lt;mental process&gt; that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -17174,7 +17582,11 @@
       <c r="S283" t="inlineStr"/>
       <c r="T283" t="inlineStr"/>
       <c r="U283" t="inlineStr"/>
-      <c r="V283" t="inlineStr"/>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W283" t="inlineStr">
         <is>
           <t>0</t>
@@ -17374,7 +17786,7 @@
       </c>
       <c r="D287" s="2" t="inlineStr">
         <is>
-          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
+          <t>&lt;Mental distancing&gt; that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
       <c r="E287" s="2" t="inlineStr"/>
@@ -17406,7 +17818,11 @@
       <c r="S287" s="2" t="inlineStr"/>
       <c r="T287" s="2" t="inlineStr"/>
       <c r="U287" s="2" t="inlineStr"/>
-      <c r="V287" s="2" t="inlineStr"/>
+      <c r="V287" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W287" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -17432,7 +17848,7 @@
       </c>
       <c r="D288" s="2" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+          <t>A &lt;physical behavioural opportunity&gt; that involves the person having sufficient time or a suitable period.</t>
         </is>
       </c>
       <c r="E288" s="2" t="inlineStr"/>
@@ -17464,7 +17880,11 @@
       <c r="S288" s="2" t="inlineStr"/>
       <c r="T288" s="2" t="inlineStr"/>
       <c r="U288" s="2" t="inlineStr"/>
-      <c r="V288" s="2" t="inlineStr"/>
+      <c r="V288" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W288" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -17606,7 +18026,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
+          <t>A &lt;cognitive process&gt; that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -17634,7 +18054,11 @@
       <c r="S291" t="inlineStr"/>
       <c r="T291" t="inlineStr"/>
       <c r="U291" t="inlineStr"/>
-      <c r="V291" t="inlineStr"/>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W291" t="inlineStr">
         <is>
           <t>0</t>
@@ -17660,7 +18084,7 @@
       </c>
       <c r="D292" s="2" t="inlineStr">
         <is>
-          <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
+          <t>&lt;Self-regulation of behaviour&gt; undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
       <c r="E292" s="2" t="inlineStr"/>
@@ -17688,7 +18112,11 @@
       <c r="S292" s="2" t="inlineStr"/>
       <c r="T292" s="2" t="inlineStr"/>
       <c r="U292" s="2" t="inlineStr"/>
-      <c r="V292" s="2" t="inlineStr"/>
+      <c r="V292" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W292" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -17714,7 +18142,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
+          <t>A &lt;mental process&gt; that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -17742,7 +18170,11 @@
       <c r="S293" t="inlineStr"/>
       <c r="T293" t="inlineStr"/>
       <c r="U293" t="inlineStr"/>
-      <c r="V293" t="inlineStr"/>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W293" t="inlineStr">
         <is>
           <t>0</t>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -14258,7 +14258,7 @@
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural capability&gt; that involves sensory or musculoskeletal abilities</t>
+          <t>A &lt;behavioural capability&gt; that involves sensory or musculoskeletal abilities.</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -8364,66 +8364,70 @@
       <c r="X130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000377</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="3" t="inlineStr">
         <is>
           <t>feeling of need satisfaction</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="3" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D131" s="3" t="inlineStr">
         <is>
           <t>A feeling involving positive affect associated with reduction in a feeling of need.</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
+      <c r="E131" s="3" t="inlineStr"/>
+      <c r="F131" s="3" t="inlineStr">
         <is>
           <t>A feeling of anticipated relief or avoidance of discomfort.</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G131" s="3" t="inlineStr">
         <is>
           <t>subjective need</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X131" t="inlineStr"/>
+      <c r="H131" s="3" t="inlineStr"/>
+      <c r="I131" s="3" t="inlineStr"/>
+      <c r="J131" s="3" t="inlineStr"/>
+      <c r="K131" s="3" t="inlineStr"/>
+      <c r="L131" s="3" t="inlineStr"/>
+      <c r="M131" s="3" t="inlineStr"/>
+      <c r="N131" s="3" t="inlineStr"/>
+      <c r="O131" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="P131" s="3" t="inlineStr"/>
+      <c r="Q131" s="3" t="inlineStr"/>
+      <c r="R131" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S131" s="3" t="inlineStr"/>
+      <c r="T131" s="3" t="inlineStr"/>
+      <c r="U131" s="3" t="inlineStr"/>
+      <c r="V131" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W131" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X131" s="3" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
@@ -10050,7 +10054,7 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
@@ -17176,7 +17180,7 @@
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>An &lt;individual human behaviour&gt; that relates to the social environment.</t>
         </is>
       </c>
       <c r="E277" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -7077,7 +7077,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>MFOEM:000007</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7134,7 +7134,7 @@
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
@@ -8364,70 +8364,70 @@
       <c r="X130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="inlineStr">
+      <c r="A131" t="inlineStr">
         <is>
           <t>ADDICTO:0000377</t>
         </is>
       </c>
-      <c r="B131" s="3" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>feeling of need satisfaction</t>
         </is>
       </c>
-      <c r="C131" s="3" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D131" s="3" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>A feeling involving positive affect associated with reduction in a feeling of need.</t>
         </is>
       </c>
-      <c r="E131" s="3" t="inlineStr"/>
-      <c r="F131" s="3" t="inlineStr">
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
         <is>
           <t>A feeling of anticipated relief or avoidance of discomfort.</t>
         </is>
       </c>
-      <c r="G131" s="3" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>subjective need</t>
         </is>
       </c>
-      <c r="H131" s="3" t="inlineStr"/>
-      <c r="I131" s="3" t="inlineStr"/>
-      <c r="J131" s="3" t="inlineStr"/>
-      <c r="K131" s="3" t="inlineStr"/>
-      <c r="L131" s="3" t="inlineStr"/>
-      <c r="M131" s="3" t="inlineStr"/>
-      <c r="N131" s="3" t="inlineStr"/>
-      <c r="O131" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="P131" s="3" t="inlineStr"/>
-      <c r="Q131" s="3" t="inlineStr"/>
-      <c r="R131" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S131" s="3" t="inlineStr"/>
-      <c r="T131" s="3" t="inlineStr"/>
-      <c r="U131" s="3" t="inlineStr"/>
-      <c r="V131" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W131" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X131" s="3" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -7705,62 +7699,62 @@
       <c r="X119" s="2" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>BCIO:050457</t>
         </is>
       </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>expressive behaviour</t>
         </is>
       </c>
-      <c r="C120" s="4" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D120" s="4" t="inlineStr">
+      <c r="D120" s="2" t="inlineStr">
         <is>
           <t>An &lt;individual human behaviour&gt; that conveys a thought or feeling.</t>
         </is>
       </c>
-      <c r="E120" s="4" t="inlineStr"/>
-      <c r="F120" s="4" t="inlineStr"/>
-      <c r="G120" s="4" t="inlineStr"/>
-      <c r="H120" s="4" t="inlineStr"/>
-      <c r="I120" s="4" t="inlineStr"/>
-      <c r="J120" s="4" t="inlineStr"/>
-      <c r="K120" s="4" t="inlineStr"/>
-      <c r="L120" s="4" t="inlineStr"/>
-      <c r="M120" s="4" t="inlineStr"/>
-      <c r="N120" s="4" t="inlineStr"/>
-      <c r="O120" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P120" s="4" t="inlineStr"/>
-      <c r="Q120" s="4" t="inlineStr"/>
-      <c r="R120" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S120" s="4" t="inlineStr"/>
-      <c r="T120" s="4" t="inlineStr"/>
-      <c r="U120" s="4" t="inlineStr"/>
-      <c r="V120" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W120" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X120" s="4" t="inlineStr"/>
+      <c r="E120" s="2" t="inlineStr"/>
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr"/>
+      <c r="H120" s="2" t="inlineStr"/>
+      <c r="I120" s="2" t="inlineStr"/>
+      <c r="J120" s="2" t="inlineStr"/>
+      <c r="K120" s="2" t="inlineStr"/>
+      <c r="L120" s="2" t="inlineStr"/>
+      <c r="M120" s="2" t="inlineStr"/>
+      <c r="N120" s="2" t="inlineStr"/>
+      <c r="O120" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P120" s="2" t="inlineStr"/>
+      <c r="Q120" s="2" t="inlineStr"/>
+      <c r="R120" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S120" s="2" t="inlineStr"/>
+      <c r="T120" s="2" t="inlineStr"/>
+      <c r="U120" s="2" t="inlineStr"/>
+      <c r="V120" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W120" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X120" s="2" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -15224,7 +15224,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
+          <t>A specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized.</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -15252,7 +15252,11 @@
       <c r="S244" t="inlineStr"/>
       <c r="T244" t="inlineStr"/>
       <c r="U244" t="inlineStr"/>
-      <c r="V244" t="inlineStr"/>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W244" t="inlineStr">
         <is>
           <t>0</t>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -2059,8 +2059,10 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W26" s="3" t="n">
-        <v>0</v>
+      <c r="W26" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X26" s="3" t="inlineStr"/>
     </row>
@@ -10591,7 +10593,7 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>&lt;Judging&gt; during which one proposition is selected as preferred from at least two.</t>
+          <t>&lt;Judging&gt; in which one or more propositions or behaviours are identified as preferred from a larger number.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
@@ -14951,11 +14953,16 @@
           <t>Characteristics of a person's environment that involve the material resources available to them and influence the person's ability to enact a behaviour.</t>
         </is>
       </c>
-      <c r="G242" s="2" t="inlineStr"/>
+      <c r="G242" s="2" t="inlineStr">
+        <is>
+          <t>economic behavioural opportunity; economic environmental system</t>
+        </is>
+      </c>
       <c r="H242" s="2" t="inlineStr"/>
       <c r="I242" s="2" t="inlineStr">
         <is>
-          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
+          <t>Opportunity is an enabling environment.
+As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
         </is>
       </c>
       <c r="J242" s="2" t="inlineStr"/>
@@ -28206,7 +28213,7 @@
       </c>
       <c r="D463" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>A &lt;efficacy belief for a behaviour and its associated outcomes&gt; about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E463" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -13805,62 +13805,62 @@
       <c r="X222" s="2" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="inlineStr">
+      <c r="A223" s="4" t="inlineStr">
         <is>
           <t>BCIO:050657</t>
         </is>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" s="4" t="inlineStr">
         <is>
           <t>family behavioural consequence</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" s="4" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="D223" s="2" t="inlineStr">
+      <c r="D223" s="4" t="inlineStr">
         <is>
           <t>A &lt;social behavioural consequence&gt; of some family member.</t>
         </is>
       </c>
-      <c r="E223" s="2" t="inlineStr"/>
-      <c r="F223" s="2" t="inlineStr"/>
-      <c r="G223" s="2" t="inlineStr"/>
-      <c r="H223" s="2" t="inlineStr"/>
-      <c r="I223" s="2" t="inlineStr"/>
-      <c r="J223" s="2" t="inlineStr"/>
-      <c r="K223" s="2" t="inlineStr"/>
-      <c r="L223" s="2" t="inlineStr"/>
-      <c r="M223" s="2" t="inlineStr"/>
-      <c r="N223" s="2" t="inlineStr"/>
-      <c r="O223" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P223" s="2" t="inlineStr"/>
-      <c r="Q223" s="2" t="inlineStr"/>
-      <c r="R223" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S223" s="2" t="inlineStr"/>
-      <c r="T223" s="2" t="inlineStr"/>
-      <c r="U223" s="2" t="inlineStr"/>
-      <c r="V223" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W223" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X223" s="2" t="inlineStr"/>
+      <c r="E223" s="4" t="inlineStr"/>
+      <c r="F223" s="4" t="inlineStr"/>
+      <c r="G223" s="4" t="inlineStr"/>
+      <c r="H223" s="4" t="inlineStr"/>
+      <c r="I223" s="4" t="inlineStr"/>
+      <c r="J223" s="4" t="inlineStr"/>
+      <c r="K223" s="4" t="inlineStr"/>
+      <c r="L223" s="4" t="inlineStr"/>
+      <c r="M223" s="4" t="inlineStr"/>
+      <c r="N223" s="4" t="inlineStr"/>
+      <c r="O223" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="P223" s="4" t="inlineStr"/>
+      <c r="Q223" s="4" t="inlineStr"/>
+      <c r="R223" s="4" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S223" s="4" t="inlineStr"/>
+      <c r="T223" s="4" t="inlineStr"/>
+      <c r="U223" s="4" t="inlineStr"/>
+      <c r="V223" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W223" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X223" s="4" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
@@ -29553,62 +29553,62 @@
       <c r="X485" s="2" t="inlineStr"/>
     </row>
     <row r="486">
-      <c r="A486" s="2" t="inlineStr">
+      <c r="A486" s="4" t="inlineStr">
         <is>
           <t>BCIO:050770</t>
         </is>
       </c>
-      <c r="B486" s="2" t="inlineStr">
+      <c r="B486" s="4" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="C486" s="2" t="inlineStr">
+      <c r="C486" s="4" t="inlineStr">
         <is>
           <t>behavioural consequence</t>
         </is>
       </c>
-      <c r="D486" s="2" t="inlineStr">
+      <c r="D486" s="4" t="inlineStr">
         <is>
           <t>A &lt;behavioural consequence&gt; of a member of the person’s social environmental system.</t>
         </is>
       </c>
-      <c r="E486" s="2" t="inlineStr"/>
-      <c r="F486" s="2" t="inlineStr"/>
-      <c r="G486" s="2" t="inlineStr"/>
-      <c r="H486" s="2" t="inlineStr"/>
-      <c r="I486" s="2" t="inlineStr"/>
-      <c r="J486" s="2" t="inlineStr"/>
-      <c r="K486" s="2" t="inlineStr"/>
-      <c r="L486" s="2" t="inlineStr"/>
-      <c r="M486" s="2" t="inlineStr"/>
-      <c r="N486" s="2" t="inlineStr"/>
-      <c r="O486" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P486" s="2" t="inlineStr"/>
-      <c r="Q486" s="2" t="inlineStr"/>
-      <c r="R486" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S486" s="2" t="inlineStr"/>
-      <c r="T486" s="2" t="inlineStr"/>
-      <c r="U486" s="2" t="inlineStr"/>
-      <c r="V486" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W486" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X486" s="2" t="inlineStr"/>
+      <c r="E486" s="4" t="inlineStr"/>
+      <c r="F486" s="4" t="inlineStr"/>
+      <c r="G486" s="4" t="inlineStr"/>
+      <c r="H486" s="4" t="inlineStr"/>
+      <c r="I486" s="4" t="inlineStr"/>
+      <c r="J486" s="4" t="inlineStr"/>
+      <c r="K486" s="4" t="inlineStr"/>
+      <c r="L486" s="4" t="inlineStr"/>
+      <c r="M486" s="4" t="inlineStr"/>
+      <c r="N486" s="4" t="inlineStr"/>
+      <c r="O486" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="P486" s="4" t="inlineStr"/>
+      <c r="Q486" s="4" t="inlineStr"/>
+      <c r="R486" s="4" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S486" s="4" t="inlineStr"/>
+      <c r="T486" s="4" t="inlineStr"/>
+      <c r="U486" s="4" t="inlineStr"/>
+      <c r="V486" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W486" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X486" s="4" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="2" t="inlineStr">
@@ -32659,62 +32659,62 @@
       <c r="X537" s="2" t="inlineStr"/>
     </row>
     <row r="538">
-      <c r="A538" s="2" t="inlineStr">
+      <c r="A538" s="4" t="inlineStr">
         <is>
           <t>BCIO:050797</t>
         </is>
       </c>
-      <c r="B538" s="2" t="inlineStr">
+      <c r="B538" s="4" t="inlineStr">
         <is>
           <t>wider community behavioural consequence</t>
         </is>
       </c>
-      <c r="C538" s="2" t="inlineStr">
+      <c r="C538" s="4" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="D538" s="2" t="inlineStr">
+      <c r="D538" s="4" t="inlineStr">
         <is>
           <t>A &lt;social behavioural consequence&gt; that is beyond the person’s family.</t>
         </is>
       </c>
-      <c r="E538" s="2" t="inlineStr"/>
-      <c r="F538" s="2" t="inlineStr"/>
-      <c r="G538" s="2" t="inlineStr"/>
-      <c r="H538" s="2" t="inlineStr"/>
-      <c r="I538" s="2" t="inlineStr"/>
-      <c r="J538" s="2" t="inlineStr"/>
-      <c r="K538" s="2" t="inlineStr"/>
-      <c r="L538" s="2" t="inlineStr"/>
-      <c r="M538" s="2" t="inlineStr"/>
-      <c r="N538" s="2" t="inlineStr"/>
-      <c r="O538" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P538" s="2" t="inlineStr"/>
-      <c r="Q538" s="2" t="inlineStr"/>
-      <c r="R538" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S538" s="2" t="inlineStr"/>
-      <c r="T538" s="2" t="inlineStr"/>
-      <c r="U538" s="2" t="inlineStr"/>
-      <c r="V538" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W538" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X538" s="2" t="inlineStr"/>
+      <c r="E538" s="4" t="inlineStr"/>
+      <c r="F538" s="4" t="inlineStr"/>
+      <c r="G538" s="4" t="inlineStr"/>
+      <c r="H538" s="4" t="inlineStr"/>
+      <c r="I538" s="4" t="inlineStr"/>
+      <c r="J538" s="4" t="inlineStr"/>
+      <c r="K538" s="4" t="inlineStr"/>
+      <c r="L538" s="4" t="inlineStr"/>
+      <c r="M538" s="4" t="inlineStr"/>
+      <c r="N538" s="4" t="inlineStr"/>
+      <c r="O538" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="P538" s="4" t="inlineStr"/>
+      <c r="Q538" s="4" t="inlineStr"/>
+      <c r="R538" s="4" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S538" s="4" t="inlineStr"/>
+      <c r="T538" s="4" t="inlineStr"/>
+      <c r="U538" s="4" t="inlineStr"/>
+      <c r="V538" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W538" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X538" s="4" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -569,22 +569,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050843</t>
+          <t>BCIO:050560</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Accepting responsibility for changing one’s behaviour</t>
+          <t>accepted assigned goal</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal process</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal process&gt; in which the person comes to feel that they have a responsibility to change their behaviour.</t>
+          <t>An assigned &lt;goal&gt; that the person has some level of commitment to.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -627,22 +627,22 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050560</t>
+          <t>BCIO:050843</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>accepted assigned goal</t>
+          <t>accepting responsibility for changing one’s behaviour</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>emotional-relevance appraisal process</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>An assigned &lt;goal&gt; that the person has some level of commitment to.</t>
+          <t>An &lt;emotional-relevance appraisal process&gt; in which the person comes to feel that they have a responsibility to change their behaviour.</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cognitive bias process </t>
+          <t>cognitive bias process</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">decisional balance process about changing behaviour </t>
+          <t>decisional balance process about changing behaviour</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">denial belief </t>
+          <t>denial belief</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">denial belief about a need </t>
+          <t>denial belief about a need</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -12645,7 +12645,7 @@
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">efficacy belief for a behaviour and its associated outcomes </t>
+          <t>efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">feeling of uncertainty about one’s behaviour </t>
+          <t>feeling of uncertainty about one’s behaviour</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">imagination capability </t>
+          <t>imagination capability</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
@@ -19102,7 +19102,7 @@
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">internal influence on behaviour </t>
+          <t>internal influence on behaviour</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
@@ -20842,7 +20842,7 @@
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">low mental capability to enact a behaviour </t>
+          <t>low mental capability to enact a behaviour</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
@@ -20885,10 +20885,8 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W341" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W341" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="X341" s="2" t="inlineStr"/>
     </row>
@@ -25540,7 +25538,7 @@
       </c>
       <c r="B419" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">overestimated perceived descriptive norm </t>
+          <t>overestimated perceived descriptive norm</t>
         </is>
       </c>
       <c r="C419" s="2" t="inlineStr">
@@ -27188,7 +27186,7 @@
       </c>
       <c r="B446" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive evaluative belief about achieving a goal </t>
+          <t>positive evaluative belief about achieving a goal</t>
         </is>
       </c>
       <c r="C446" s="2" t="inlineStr">
@@ -34612,7 +34610,7 @@
       </c>
       <c r="B571" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">total internal influence on behaviour </t>
+          <t>total internal influence on behaviour</t>
         </is>
       </c>
       <c r="C571" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -17032,7 +17032,11 @@
       </c>
       <c r="E277" s="2" t="inlineStr"/>
       <c r="F277" s="2" t="inlineStr"/>
-      <c r="G277" s="2" t="inlineStr"/>
+      <c r="G277" s="2" t="inlineStr">
+        <is>
+          <t>social norm</t>
+        </is>
+      </c>
       <c r="H277" s="2" t="inlineStr"/>
       <c r="I277" s="2" t="inlineStr">
         <is>
@@ -19469,7 +19473,11 @@
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr"/>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>social process</t>
+        </is>
+      </c>
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -1657,39 +1657,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MFOEM:000005</t>
+          <t>MFOEM:000078</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>appraisal as caused by an other</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>appraisal of causal agency</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; of the emotional relevance of an object or event to the organism.</t>
+          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by another person.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>An evaluation of a phenomenon or event's relevance and significance to oneself.</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Appraisals are a part of emotion processes, representing how a triggering stimulus is relevant to oneself. Appraisal captures the ‘aboutness’ of an emotion process.
-For instance, a stimulus (the image of a tiger) can produce different emotion processes depending on how the relevance of this stimulus is evaluated. The image of a tiger on TV would not be evaluated as dangerous. However, the image of a tiger two meters away from a person would be relevant to a person in terms of its dangerousness. Therefore, the appraisal of the dangerousness of the tiger would be part of the emotion process 'fear'.
-There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal does not necessarily precede a physiological process part of the emotion process).</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1723,140 +1713,140 @@
       <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MFOEM:000078</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>appraisal as caused by an other</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050223</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>appraisal as caused by external non-human factors</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>appraisal of causal agency</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by another person.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by natural events and not by humans.</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr"/>
+      <c r="T21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MFOEM:000076</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>appraisal as caused by self</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>appraisal of causal agency</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by oneself.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050223</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>appraisal as caused by external non-human factors</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>appraisal of causal agency</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by natural events and not by humans.</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr"/>
-      <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X22" s="2" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MFOEM:000076</t>
+          <t>MFOEM:000091</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>appraisal as caused by self</t>
+          <t>appraisal of avoidability of consequences</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>appraisal of causal agency</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by oneself.</t>
+          <t>An &lt;emotional-relevance appraisal&gt; which represents a judgement about how avoidable the expected consequences of an event will be.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1899,22 +1889,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MFOEM:000091</t>
+          <t>MFOEM:000075</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>appraisal of avoidability of consequences</t>
+          <t>appraisal of causal agency</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>An &lt;appraisal&gt; which represents a judgement about how avoidable the expected consequences of an event will be.</t>
+          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of who or what caused an event.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1957,12 +1947,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MFOEM:000075</t>
+          <t>MFOEM:000103</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>appraisal of causal agency</t>
+          <t>appraisal of dangerousness</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1972,14 +1962,18 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">An &lt;appraisal&gt; that represents an evaluation of who or what caused an event. </t>
+          <t>An &lt;emotional-relevance appraisal&gt; which represents an evaluation of how threatening an object or situation is.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Dangerousness or level of threat may refer to physical, emotional or social dangers or threats.</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -2013,144 +2007,140 @@
       <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MFOEM:000103</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>appraisal of dangerousness</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>appraisal</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>An &lt;appraisal&gt; which represents an evaluation of how threatening an object or situation is.</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Dangerousness or level of threat may refer to physical, emotional or social dangers or threats.</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050799</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>appraisal of desirability</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>emotional-relevance appraisal</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>An &lt;emotional-relevance appraisal&gt; of the extent to which something is good or beneficial.</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr"/>
+      <c r="H26" s="3" t="inlineStr"/>
+      <c r="I26" s="3" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr"/>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="P26" s="3" t="inlineStr"/>
+      <c r="Q26" s="3" t="inlineStr"/>
+      <c r="R26" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S26" s="3" t="inlineStr"/>
+      <c r="T26" s="3" t="inlineStr"/>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W26" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MFOEM:000085</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>appraisal of desirability of consequences</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>appraisal of desirability</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>An &lt;appraisal of desirability&gt; that represents an evaluation of the desirability of the expected consequences of an event.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050799</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>appraisal of desirability</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>appraisal</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>&lt;Appraisal&gt; of the extent to which something is good or beneficial.</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr"/>
-      <c r="G27" s="3" t="inlineStr"/>
-      <c r="H27" s="3" t="inlineStr"/>
-      <c r="I27" s="3" t="inlineStr"/>
-      <c r="J27" s="3" t="inlineStr"/>
-      <c r="K27" s="3" t="inlineStr"/>
-      <c r="L27" s="3" t="inlineStr"/>
-      <c r="M27" s="3" t="inlineStr"/>
-      <c r="N27" s="3" t="inlineStr"/>
-      <c r="O27" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="P27" s="3" t="inlineStr"/>
-      <c r="Q27" s="3" t="inlineStr"/>
-      <c r="R27" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S27" s="3" t="inlineStr"/>
-      <c r="T27" s="3" t="inlineStr"/>
-      <c r="U27" s="3" t="inlineStr"/>
-      <c r="V27" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W27" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X27" s="3" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MFOEM:000085</t>
+          <t>MFOEM:000060</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>appraisal of desirability of consequences</t>
+          <t>appraisal of expectedness</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>An &lt;appraisal&gt; that represents an evaluation of the desirability of the expected consequences of an event.</t>
+          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of whether an event was expected to occur.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2193,22 +2183,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MFOEM:000060</t>
+          <t>MFOEM:000072</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>appraisal of expectedness</t>
+          <t>appraisal of goal importance</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">An &lt;appraisal&gt; that represents an evaluation of whether an event was expected to occur. </t>
+          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of whether an event or object is important to the person's goals or needs.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2249,327 +2239,323 @@
       <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MFOEM:000072</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>appraisal of goal importance</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>appraisal</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>An &lt;appraisal&gt; that represents an evaluation of whether an event or object is important to the person's goals or needs.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006078</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>appraisal of obligation to act</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>emotional-relevance appraisal</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of how much one is personally obliged to respond to an event or person in need.</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr"/>
+      <c r="Q30" s="2" t="inlineStr"/>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr"/>
+      <c r="T30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MFOEM:000061</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>appraisal of pleasantness</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>emotional-relevance appraisal</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of the pleasantness of an object or event.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006078</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>appraisal of obligation to act</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>appraisal</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;appraisal&gt; that represents an evaluation of how much one is personally obliged to respond to an event or person in need.</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr"/>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S31" s="2" t="inlineStr"/>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W31" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X31" s="2" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MFOEM:000061</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>appraisal of pleasantness</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>appraisal</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>An &lt;appraisal&gt; that represents an evaluation of the pleasantness of an object or event.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050567</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>appreciation by others</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;environmental disposition&gt; for a person to be valued by others.</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006300</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>approval-based motivation</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>need-based motivation</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A &lt;need-based motivation&gt; related to gaining or maintaining social approval or a positive self-evaluation. </t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>introjected motivation; introjected regulation</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MF:0000012</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>arousal</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>A &lt;mental process&gt; that involves heightened responding to an internal or external stimulus.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MFOEM:000002</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>appraisal process</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that gives rise to an appraisal.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Evaluating something's relevance to oneself.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050567</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>appreciation by others</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;environmental disposition&gt; for a person to be valued by others.</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr"/>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X34" s="2" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006300</t>
+          <t>BCIO:050568</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>approval-based motivation</t>
+          <t xml:space="preserve">assertiveness skill </t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>need-based motivation</t>
+          <t>communication skill</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;need-based motivation&gt; related to gaining or maintaining social approval or a positive self-evaluation. </t>
+          <t>A &lt;communication skill&gt; that is realised as the person expressing their views, needs or feelings whilst respecting those of others with whom they are communicating.</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>introjected motivation; introjected regulation</t>
-        </is>
-      </c>
+      <c r="G35" s="2" t="inlineStr"/>
       <c r="H35" s="2" t="inlineStr"/>
       <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
@@ -2605,89 +2591,98 @@
       <c r="X35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>MF:0000012</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>arousal</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that involves heightened responding to an internal or external stimulus.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050569</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>assigned goal</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;goal&gt; that has been set by another person.</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>This class refers to goals that a person may or may not accept for themselves.</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr"/>
+      <c r="Q36" s="2" t="inlineStr"/>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr"/>
+      <c r="T36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050568</t>
+          <t>BCIO:006119</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">assertiveness skill </t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>communication skill</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>A &lt;communication skill&gt; that is realised as the person expressing their views, needs or feelings whilst respecting those of others with whom they are communicating.</t>
+          <t>&lt;Learning&gt; that involves changing the strength of association between two or more mental processes.</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>While associative learning is often defined as learning an association between a stimulus and response, the stimulus has to be perceived. Therefore, associative learning is between perceiving or processing information about a stimulus (a mental process) and one or more other mental processes.
+The label 'associative learning' is also used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Present a neutral stimulus jointly with a stimulus that already elicits the behavior repeatedly until the neutral stimulus elicits that behavior.' As indicated by the definition, the BCT is the deliberate presentation of a stimulus, whereas the MoA is a learning process that occurs in the brain.</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr"/>
@@ -2723,33 +2718,29 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050569</t>
+          <t>BCIO:006126</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>assigned goal</t>
+          <t>associative memory</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>memory process</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal&gt; that has been set by another person.</t>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding a set of entities associated with a particular object or event.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>This class refers to goals that a person may or may not accept for themselves.</t>
-        </is>
-      </c>
+      <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr"/>
@@ -2783,87 +2774,86 @@
       <c r="X38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006119</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>&lt;Learning&gt; that involves changing the strength of association between two or more mental processes.</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>While associative learning is often defined as learning an association between a stimulus and response, the stimulus has to be perceived. Therefore, associative learning is between perceiving or processing information about a stimulus (a mental process) and one or more other mental processes.
-The label 'associative learning' is also used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Present a neutral stimulus jointly with a stimulus that already elicits the behavior repeatedly until the neutral stimulus elicits that behavior.' As indicated by the definition, the BCT is the deliberate presentation of a stimulus, whereas the MoA is a learning process that occurs in the brain.</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr"/>
-      <c r="R39" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S39" s="2" t="inlineStr"/>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X39" s="2" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MF:0000018</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A &lt;mental process&gt; whereby relevant aspects of one's mental experience are focused on specific targets. </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>attention</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006126</t>
+          <t>BCIO:050570</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>associative memory</t>
+          <t>attending to a goal</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>memory process</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding a set of entities associated with a particular object or event.</t>
+          <t>&lt;Attending&gt; where the target of attention is a goal.</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
@@ -2904,86 +2894,86 @@
       <c r="X40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MF:0000018</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050571</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>attending to a social norm</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>attending</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A &lt;mental process&gt; whereby relevant aspects of one's mental experience are focused on specific targets. </t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>attention</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>&lt;Attending&gt; in which the target of the attention is a social norm.</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>This class may be used to refer to any type of norm.</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr"/>
+      <c r="Q41" s="2" t="inlineStr"/>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr"/>
+      <c r="T41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050570</t>
+          <t>BCIO:050572</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>attending to a goal</t>
+          <t>attentional disposition</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>attending</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>&lt;Attending&gt; where the target of attention is a goal.</t>
+          <t>A &lt;mental disposition&gt; that is realised by focusing one's attention on events, objects, sensory patterns or cognitive representations.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
@@ -3026,33 +3016,29 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050571</t>
+          <t>BCIO:050214</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>attending to a social norm</t>
+          <t>attentional self-regulation capability</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>attending</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>&lt;Attending&gt; in which the target of the attention is a social norm.</t>
+          <t>A &lt;self-regulation capability&gt; to modulate one’s attention toward internal or external stimuli.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>This class may be used to refer to any type of norm.</t>
-        </is>
-      </c>
+      <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr"/>
@@ -3088,12 +3074,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050572</t>
+          <t>BCIO:050328</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>attentional disposition</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -3103,14 +3089,22 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is realised by focusing one's attention on events, objects, sensory patterns or cognitive representations.</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr"/>
+          <t>A &lt;mental disposition&gt; that is an affective attitude or an evaluative belief about something.</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>"affective attitude" OR "evaluative belief"</t>
+        </is>
+      </c>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr"/>
       <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>The class “attitude” is logically defined as an “effective attitude” or “evaluative belief”, as the term “attitude” can be used to refer to either class.</t>
+        </is>
+      </c>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr"/>
@@ -3146,25 +3140,29 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050214</t>
+          <t>BCIO:050329</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>attentional self-regulation capability</t>
+          <t>attitude towards a behaviour</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation capability&gt; to modulate one’s attention toward internal or external stimuli.</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr"/>
+          <t>An &lt;attitude&gt; in which the entity that is the attitude object is a behaviour.</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>"affective attitude towards a behaviour" OR "evaluative belief about a behaviour"</t>
+        </is>
+      </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr"/>
       <c r="H45" s="2" t="inlineStr"/>
@@ -3173,7 +3171,11 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr"/>
       <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>The class “attitude towards a behaviour” is logically defined as an “affective attitude towards a behaviour” or “evaluative belief about a behaviour”, as the term “attitude towards a behaviour” can be used to refer to either class.</t>
+        </is>
+      </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -3204,37 +3206,29 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050328</t>
+          <t>BCIO:006134</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>automatic motivation</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is an affective attitude or an evaluative belief about something.</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>"affective attitude" OR "evaluative belief"</t>
-        </is>
-      </c>
+          <t>&lt;Behaviour motivation&gt; that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>The class “attitude” is logically defined as an “effective attitude” or “evaluative belief”, as the term “attitude” can be used to refer to either class.</t>
-        </is>
-      </c>
+      <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr"/>
@@ -3270,29 +3264,25 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050329</t>
+          <t>BCIO:006302</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>attitude towards a behaviour</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attitude&gt; in which the entity that is the attitude object is a behaviour.</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>"affective attitude towards a behaviour" OR "evaluative belief about a behaviour"</t>
-        </is>
-      </c>
+          <t>&lt;Behavioural motivation&gt; that is internally generated and based on a behaviour being interesting or valuable to an individual.</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="inlineStr"/>
@@ -3301,11 +3291,7 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr"/>
       <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr">
-        <is>
-          <t>The class “attitude towards a behaviour” is logically defined as an “affective attitude towards a behaviour” or “evaluative belief about a behaviour”, as the term “attitude towards a behaviour” can be used to refer to either class.</t>
-        </is>
-      </c>
+      <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -3336,22 +3322,22 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006134</t>
+          <t>BCIO:006161</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>automatic motivation</t>
+          <t>avoidance mental process</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>&lt;Behaviour motivation&gt; that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
+          <t xml:space="preserve">A &lt;mental process&gt; that reduces the frequency by which an aversive cognitive representation is evoked. </t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
@@ -3394,29 +3380,33 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006302</t>
+          <t>BCIO:006015</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>&lt;Behavioural motivation&gt; that is internally generated and based on a behaviour being interesting or valuable to an individual.</t>
+          <t>A &lt;mental disposition&gt; that is realized by experiencing events, objects, sensory patterns or cognitive representations.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>The events attended to can include internal and external events.</t>
+        </is>
+      </c>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr"/>
@@ -3452,22 +3442,22 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006161</t>
+          <t>BCIO:050573</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>avoidance mental process</t>
+          <t>awareness of others’ need</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;mental process&gt; that reduces the frequency by which an aversive cognitive representation is evoked. </t>
+          <t>An &lt;awareness&gt; of a lack of resource available to another person or people relative to what they need or want.</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
@@ -3510,33 +3500,29 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006015</t>
+          <t>BCIO:050574</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>background goal</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is realized by experiencing events, objects, sensory patterns or cognitive representations.</t>
+          <t>A &lt;goal&gt; that is not currently being pursued.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>The events attended to can include internal and external events.</t>
-        </is>
-      </c>
+      <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr"/>
@@ -3572,22 +3558,22 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050573</t>
+          <t>BCIO:050575</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>awareness of others’ need</t>
+          <t>behaviour change through group norm</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>individual human behaviour change</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>An &lt;awareness&gt; of a lack of resource available to another person or people relative to what they need or want.</t>
+          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
@@ -3630,29 +3616,33 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050574</t>
+          <t>BCIO:050576</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>background goal</t>
+          <t>behaviour maintenance self-efficacy</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal&gt; that is not currently being pursued.</t>
+          <t>A &lt;self-efficacy belief for a behaviour&gt; that continues a behaviour pattern.</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
+        </is>
+      </c>
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr"/>
@@ -3688,29 +3678,37 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050575</t>
+          <t>BCIO:050577</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>behaviour change through group norm</t>
+          <t>behavioural barrier</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour change</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
+          <t>A &lt;disposition&gt; that includes low capability, opportunity and motivation to enact a behaviour.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>‘low capability to enact a behaviour’ OR ‘low opportunity to enact a behaviour’ OR ‘motivational disposition not to enact a behaviour’</t>
+        </is>
+      </c>
       <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>The entity "behavioural barrier" should only be applied when a behavioural barrier is underspecified or includes a combination of capability, opportunity and/or motivational disposition. If a specific capability, opportunity or motivational disposition acts as a barrier to a behaviour, then the more specific entities should be refered to.</t>
+        </is>
+      </c>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr"/>
@@ -3746,33 +3744,33 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050576</t>
+          <t>BCIO:050215</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>behaviour maintenance self-efficacy</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief for a behaviour&gt; that continues a behaviour pattern.</t>
+          <t>A &lt;personal capability&gt; that includes behaviours in its realisation.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A person’s characteristics that are needed for a behaviour or to facilitate it. </t>
+        </is>
+      </c>
       <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
-        </is>
-      </c>
+      <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr"/>
@@ -3808,37 +3806,29 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050577</t>
+          <t>BCIO:050845</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>behavioural barrier</t>
+          <t>behavioural consequence appraisal process</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>A &lt;disposition&gt; that includes low capability, opportunity and motivation to enact a behaviour.</t>
+          <t>An &lt;emotional-relevance appraisal process&gt; that results in an appraisal of the consequence of some behaviour.</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>‘low capability to enact a behaviour’ OR ‘low opportunity to enact a behaviour’ OR ‘motivational disposition not to enact a behaviour’</t>
-        </is>
-      </c>
+      <c r="G56" s="2" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>The entity "behavioural barrier" should only be applied when a behavioural barrier is underspecified or includes a combination of capability, opportunity and/or motivational disposition. If a specific capability, opportunity or motivational disposition acts as a barrier to a behaviour, then the more specific entities should be refered to.</t>
-        </is>
-      </c>
+      <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr"/>
@@ -3874,33 +3864,33 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050215</t>
+          <t>BCIO:050578</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behavioural cue</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal capability&gt; that includes behaviours in its realisation.</t>
+          <t>A &lt;stimulus&gt; that prompts a behaviour or a behaviour pattern.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A person’s characteristics that are needed for a behaviour or to facilitate it. </t>
-        </is>
-      </c>
+      <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>Find more specific internal stimulus classes under 'bodily behavioural cue'.</t>
+        </is>
+      </c>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr"/>
@@ -3936,22 +3926,22 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050845</t>
+          <t>BCIO:006048</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence appraisal process</t>
+          <t>behavioural decision</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>decision</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal process&gt; that results in an appraisal of the consequence of some behaviour.</t>
+          <t>A &lt;decision&gt; that one behaviour is preferred from at least two behavioural options.</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
@@ -3994,33 +3984,29 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050578</t>
+          <t>BCIO:050579</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>behavioural cue</t>
+          <t>behavioural dissonance reduction through behaviour</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>dissonance reduction through behavior</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>A &lt;stimulus&gt; that prompts a behaviour or a behaviour pattern.</t>
+          <t>&lt;Dissonance reduction through behaviour&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>Find more specific internal stimulus classes under 'bodily behavioural cue'.</t>
-        </is>
-      </c>
+      <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr"/>
@@ -4056,22 +4042,22 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006048</t>
+          <t>BCIO:050580</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>behavioural decision</t>
+          <t>behavioural dissonance reduction through mental process</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>dissonance reduction through mental process</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>A &lt;decision&gt; that one behaviour is preferred from at least two behavioural options.</t>
+          <t>&lt;Dissonance reduction through mental process&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
@@ -4114,27 +4100,31 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050579</t>
+          <t>BCIO:050581</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>behavioural dissonance reduction through behaviour</t>
+          <t>behavioural enabler</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through behavior</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction through behaviour&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
+          <t>A &lt;disposition&gt; to have opportunity, motivation and capability or enact a behaviour.</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>‘behavioural capability’ OR ‘behavioural opportunity’ OR ‘behavioural motivation disposition’</t>
+        </is>
+      </c>
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
@@ -4172,27 +4162,31 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050580</t>
+          <t>BCIO:006304</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>behavioural dissonance reduction through mental process</t>
+          <t xml:space="preserve">behavioural importance-based motivation </t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through mental process</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction through mental process&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
+          <t>&lt;Autonomous motivation&gt; due to the perceived value or importance of the behaviour to oneself.</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>identified motivation; identified regulation</t>
+        </is>
+      </c>
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
@@ -4230,31 +4224,27 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050581</t>
+          <t>BCIO:050582</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>behavioural enabler</t>
+          <t>behavioural inhibition</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>A &lt;disposition&gt; to have opportunity, motivation and capability or enact a behaviour.</t>
+          <t>A &lt;mental process&gt; that counters a behavioural impulse.</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>‘behavioural capability’ OR ‘behavioural opportunity’ OR ‘behavioural motivation disposition’</t>
-        </is>
-      </c>
+      <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
@@ -4292,33 +4282,33 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006304</t>
+          <t>BCIO:006016</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">behavioural importance-based motivation </t>
+          <t>behavioural intention</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>&lt;Autonomous motivation&gt; due to the perceived value or importance of the behaviour to oneself.</t>
+          <t>A &lt;mental disposition&gt; to commit to enact or not enact a behaviour.</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>identified motivation; identified regulation</t>
-        </is>
-      </c>
+      <c r="G64" s="2" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans. </t>
+        </is>
+      </c>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr"/>
@@ -4354,12 +4344,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050582</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>behavioural inhibition</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -4369,11 +4359,15 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that counters a behavioural impulse.</t>
+          <t>A &lt;mental process&gt; that energises and directs a behaviour.</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>Thoughts, feelings, impulses and inhibitory processes that energise and direct a behaviour.</t>
+        </is>
+      </c>
       <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
@@ -4412,31 +4406,37 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006016</t>
+          <t>BCIO:006086</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>behavioural intention</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to commit to enact or not enact a behaviour.</t>
+          <t>An &lt;environmental disposition&gt; that is required for or facilitates a behaviour.</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>Characteristics of a person's environment that are needed for a behaviour or to facilitate it.</t>
+        </is>
+      </c>
       <c r="G66" s="2" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr"/>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans. </t>
+          <t>The phrase ‘required for’ is used in the definition to specify that 'behavioural opportunity' is a necessary condition for behaviour to occur. Although other MoAs will help bring behaviour about, there has to be a 'behavioural opportunity' for behaviour to occur.
+The term 'facilitates' is used to specify that 'behavioural opportunity' will make the behaviour easier. Higher behavioural opportunity will increase the likelihood of behaviour across situations and people.
+The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'behavioural opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr"/>
@@ -4474,30 +4474,26 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:050583</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>behavioural opportunity through information</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that energises and directs a behaviour.</t>
+          <t>A &lt;behavioural opportunity&gt; that is realised by the provision of accurate information.</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>Thoughts, feelings, impulses and inhibitory processes that energise and direct a behaviour.</t>
-        </is>
-      </c>
+      <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr"/>
       <c r="H67" s="2" t="inlineStr"/>
       <c r="I67" s="2" t="inlineStr"/>
@@ -4536,39 +4532,29 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006086</t>
+          <t>BCIO:050584</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural recovery self-efficacy</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>An &lt;environmental disposition&gt; that is required for or facilitates a behaviour.</t>
+          <t>A &lt;self-efficacy belief for a behaviour&gt; following a lapse in that behaviour</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>Characteristics of a person's environment that are needed for a behaviour or to facilitate it.</t>
-        </is>
-      </c>
+      <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr"/>
       <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>The phrase ‘required for’ is used in the definition to specify that 'behavioural opportunity' is a necessary condition for behaviour to occur. Although other MoAs will help bring behaviour about, there has to be a 'behavioural opportunity' for behaviour to occur.
-The term 'facilitates' is used to specify that 'behavioural opportunity' will make the behaviour easier. Higher behavioural opportunity will increase the likelihood of behaviour across situations and people.
-The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'behavioural opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).</t>
-        </is>
-      </c>
+      <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr"/>
@@ -4604,27 +4590,31 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050583</t>
+          <t>BCIO:006006</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity through information</t>
+          <t>behavioural self-regulation capability</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural opportunity&gt; that is realised by the provision of accurate information.</t>
+          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's behaviour. </t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>behavioural regulation capability</t>
+        </is>
+      </c>
       <c r="H69" s="2" t="inlineStr"/>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
@@ -4662,29 +4652,37 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050584</t>
+          <t>BCIO:006104</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>behavioural recovery self-efficacy</t>
+          <t>behavioural self-regulation of behaviour</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief for a behaviour&gt; following a lapse in that behaviour</t>
+          <t>&lt;Self-regulation of behaviour&gt; through the performance of a different behaviour.</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour undertaken to modulate the frequency, rate or extent of a different behaviour, the specific actions or reactions of a person in response to external or internal stimuli, and that is instigated by the person.</t>
+        </is>
+      </c>
       <c r="G70" s="2" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>Behavioural self-regulation of behaviour can be an MoA or outcome depending on how 'behavioural self-regulation of behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets behavioural self-regulation of behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr"/>
@@ -4720,31 +4718,27 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006006</t>
+          <t>BCIO:050846</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>behavioural self-regulation capability</t>
+          <t>behavioural substitution</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's behaviour. </t>
+          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>behavioural regulation capability</t>
-        </is>
-      </c>
+      <c r="G71" s="2" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
@@ -4780,90 +4774,86 @@
       <c r="X71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006104</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>behavioural self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>&lt;Self-regulation of behaviour&gt; through the performance of a different behaviour.</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour undertaken to modulate the frequency, rate or extent of a different behaviour, the specific actions or reactions of a person in response to external or internal stimuli, and that is instigated by the person.</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="inlineStr"/>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural self-regulation of behaviour can be an MoA or outcome depending on how 'behavioural self-regulation of behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets behavioural self-regulation of behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
-        </is>
-      </c>
-      <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
-      <c r="L72" s="2" t="inlineStr"/>
-      <c r="M72" s="2" t="inlineStr"/>
-      <c r="N72" s="2" t="inlineStr"/>
-      <c r="O72" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P72" s="2" t="inlineStr"/>
-      <c r="Q72" s="2" t="inlineStr"/>
-      <c r="R72" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S72" s="2" t="inlineStr"/>
-      <c r="T72" s="2" t="inlineStr"/>
-      <c r="U72" s="2" t="inlineStr"/>
-      <c r="V72" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W72" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X72" s="2" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MF:0000041</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>A &lt;mental disposition&gt; to represent a proposition to be true.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Conviction about something being true.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050846</t>
+          <t>BCIO:050585</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>behavioural substitution</t>
+          <t>belief about a behaviour meeting a need</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>evaluative belief about the consequences of behaviour</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+          <t>An &lt;evaluative belief about the consequences of behaviour&gt; reducing a need in some person.</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
@@ -4904,93 +4894,97 @@
       <c r="X73" s="2" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>MF:0000041</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050586</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>belief about a behavioural rule</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>A &lt;mental disposition&gt; to represent a proposition to be true.</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Conviction about something being true.</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr"/>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;belief&gt; about whether there is a social rule that a behaviour must or must not occur in a given situation.</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr"/>
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>The 'social rules' referred to in the definition include laws.</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr"/>
+      <c r="K74" s="2" t="inlineStr"/>
+      <c r="L74" s="2" t="inlineStr"/>
+      <c r="M74" s="2" t="inlineStr"/>
+      <c r="N74" s="2" t="inlineStr"/>
+      <c r="O74" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P74" s="2" t="inlineStr"/>
+      <c r="Q74" s="2" t="inlineStr"/>
+      <c r="R74" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S74" s="2" t="inlineStr"/>
+      <c r="T74" s="2" t="inlineStr"/>
+      <c r="U74" s="2" t="inlineStr"/>
+      <c r="V74" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W74" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X74" s="2" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050585</t>
+          <t>BCIO:006140</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>belief about a behaviour meeting a need</t>
+          <t>belief about anticipated emotion</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about the consequences of behaviour</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>An &lt;evaluative belief about the consequences of behaviour&gt; reducing a need in some person.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the potential emotions experienced as result of an event.</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr"/>
       <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>'Belief about anticipated emotions' is about the consequences of anything, not just behaviour. In contrast, the class 'belief about emotional consequences of behaviour' is about the emotions resulting from behaviours.</t>
+        </is>
+      </c>
       <c r="J75" s="2" t="inlineStr"/>
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr"/>
@@ -5026,33 +5020,29 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050586</t>
+          <t>BCIO:050216</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>belief about a behavioural rule</t>
+          <t>belief about anticipated regret</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about anticipated emotion</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about whether there is a social rule that a behaviour must or must not occur in a given situation.</t>
+          <t>A &lt;belief about anticipated emotion&gt; in terms of the potential regret experienced as a result of an event.</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr"/>
       <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr">
-        <is>
-          <t>The 'social rules' referred to in the definition include laws.</t>
-        </is>
-      </c>
+      <c r="I76" s="2" t="inlineStr"/>
       <c r="J76" s="2" t="inlineStr"/>
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr"/>
@@ -5088,33 +5078,29 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006140</t>
+          <t>BCIO:006017</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>belief about anticipated emotion</t>
+          <t>belief about barriers to a behaviour</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the potential emotions experienced as result of an event.</t>
+          <t>A &lt;belief&gt; about a factor that could restrict or impede a person from engaging in a behaviour.</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr"/>
       <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr">
-        <is>
-          <t>'Belief about anticipated emotions' is about the consequences of anything, not just behaviour. In contrast, the class 'belief about emotional consequences of behaviour' is about the emotions resulting from behaviours.</t>
-        </is>
-      </c>
+      <c r="I77" s="2" t="inlineStr"/>
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr"/>
@@ -5150,29 +5136,37 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050216</t>
+          <t>BCIO:006034</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>belief about anticipated regret</t>
+          <t>belief about choice over a behaviour</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>belief about anticipated emotion</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about anticipated emotion&gt; in terms of the potential regret experienced as a result of an event.</t>
+          <t>A &lt;belief&gt; about the extent to which one is free to choose whether to perform the behaviour.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
-      <c r="G78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>belief about voluntariness of behaviour; belief about autonomy in performing behaviours</t>
+        </is>
+      </c>
       <c r="H78" s="2" t="inlineStr"/>
-      <c r="I78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. In constrast, 'belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur, and 'belief that a behaviour is forbidden' is about whether there are rules about not performing a behaviour.</t>
+        </is>
+      </c>
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr"/>
@@ -5208,12 +5202,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006017</t>
+          <t>BCIO:050587</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>belief about barriers to a behaviour</t>
+          <t>belief about conformity of behaviour to personal values</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -5223,7 +5217,7 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about a factor that could restrict or impede a person from engaging in a behaviour.</t>
+          <t>A &lt;belief&gt; about how far a behaviour is congruent with one’s personal values.</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
@@ -5266,12 +5260,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006034</t>
+          <t>BCIO:006018</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>belief about choice over a behaviour</t>
+          <t>belief about conformity to behavioural norms</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -5281,22 +5275,14 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which one is free to choose whether to perform the behaviour.</t>
+          <t>A &lt;belief&gt; about the extent to which one's own behaviour is similar to that of referent others.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>belief about voluntariness of behaviour; belief about autonomy in performing behaviours</t>
-        </is>
-      </c>
+      <c r="G80" s="2" t="inlineStr"/>
       <c r="H80" s="2" t="inlineStr"/>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. In constrast, 'belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur, and 'belief that a behaviour is forbidden' is about whether there are rules about not performing a behaviour.</t>
-        </is>
-      </c>
+      <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr"/>
@@ -5332,12 +5318,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050587</t>
+          <t>BCIO:050217</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>belief about conformity of behaviour to personal values</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -5347,14 +5333,18 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about how far a behaviour is congruent with one’s personal values.</t>
+          <t>A &lt;belief&gt; about the outcomes resulting from an occurrence.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr"/>
       <c r="H81" s="2" t="inlineStr"/>
-      <c r="I81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr"/>
@@ -5390,29 +5380,37 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006018</t>
+          <t>BCIO:006019</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>belief about conformity to behavioural norms</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which one's own behaviour is similar to that of referent others.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of what results from or follows the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>response efficacy</t>
+        </is>
+      </c>
       <c r="H82" s="2" t="inlineStr"/>
-      <c r="I82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr"/>
@@ -5448,22 +5446,22 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050217</t>
+          <t>BCIO:006021</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
+          <t>belief about consequences of goal attainment</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
           <t>belief about consequences of an occurrence</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the outcomes resulting from an occurrence.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the outcomes resulting from achieving a goal.</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
@@ -5472,7 +5470,8 @@
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>Consequences can be either positive or negative.</t>
+          <t>Consequences can be either positive or negative.
+Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
         </is>
       </c>
       <c r="J83" s="2" t="inlineStr"/>
@@ -5510,39 +5509,35 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006019</t>
+          <t>BCIO:006152</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about control over behaviour</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms of what results from or follows the performance of a behaviour.</t>
+          <t xml:space="preserve">A &lt;belief&gt; about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>response efficacy</t>
-        </is>
-      </c>
+      <c r="G84" s="2" t="inlineStr"/>
       <c r="H84" s="2" t="inlineStr"/>
-      <c r="I84" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
-      <c r="K84" s="2" t="inlineStr"/>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
       <c r="L84" s="2" t="inlineStr"/>
       <c r="M84" s="2" t="inlineStr"/>
       <c r="N84" s="2" t="inlineStr"/>
@@ -5576,34 +5571,29 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006021</t>
+          <t>BCIO:006022</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of goal attainment</t>
+          <t>belief about control over one's future</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the outcomes resulting from achieving a goal.</t>
+          <t>A &lt;belief&gt; about the extent to which one can direct what happens in one's future.</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr"/>
       <c r="H85" s="2" t="inlineStr"/>
-      <c r="I85" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.
-Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
-        </is>
-      </c>
+      <c r="I85" s="2" t="inlineStr"/>
       <c r="J85" s="2" t="inlineStr"/>
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr"/>
@@ -5639,12 +5629,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006152</t>
+          <t>BCIO:050588</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>belief about control over behaviour</t>
+          <t>belief about control over valued outcomes</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -5654,20 +5644,20 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;belief&gt; about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
+          <t>A &lt;belief&gt; about the extent to which the person has control over outcomes that are important to them.</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>locus of control</t>
+        </is>
+      </c>
       <c r="G86" s="2" t="inlineStr"/>
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
-      <c r="K86" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
+      <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr"/>
       <c r="M86" s="2" t="inlineStr"/>
       <c r="N86" s="2" t="inlineStr"/>
@@ -5701,22 +5691,22 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006022</t>
+          <t>BCIO:050589</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>belief about control over one's future</t>
+          <t>belief about effort required for a behaviour</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about barriers to a behaviour</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which one can direct what happens in one's future.</t>
+          <t>A &lt;belief about barriers to a behaviour&gt; in terms of level of effort required.</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr"/>
@@ -5759,30 +5749,26 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050588</t>
+          <t>BCIO:050218</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>belief about control over valued outcomes</t>
+          <t>belief about emotional consequences of behaviour</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which the person has control over outcomes that are important to them.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of resulting emotions.</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>locus of control</t>
-        </is>
-      </c>
+      <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr"/>
       <c r="H88" s="2" t="inlineStr"/>
       <c r="I88" s="2" t="inlineStr"/>
@@ -5821,22 +5807,22 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050589</t>
+          <t>BCIO:050590</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>belief about effort required for a behaviour</t>
+          <t>belief about emotional consequences of goal attainment</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>belief about barriers to a behaviour</t>
+          <t>belief about consequences of goal attainment</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about barriers to a behaviour&gt; in terms of level of effort required.</t>
+          <t>A &lt;belief about consequences of goal attainment&gt; that focuses on the emotional response following that attainment.</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
@@ -5879,22 +5865,22 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050218</t>
+          <t>BCIO:050591</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>belief about emotional consequences of behaviour</t>
+          <t>belief about enablers of a behaviour</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of resulting emotions.</t>
+          <t>A &lt;belief&gt; about factors that could facilitate or enable a behaviour.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
@@ -5937,29 +5923,38 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050590</t>
+          <t>BCIO:006023</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>belief about emotional consequences of goal attainment</t>
+          <t>belief about gain</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of goal attainment</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of goal attainment&gt; that focuses on the emotional response following that attainment.</t>
+          <t>A &lt;belief&gt; about the existence of an increase from an initial reference point.</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
-      <c r="G91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>Perceived gain</t>
+        </is>
+      </c>
       <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The perceived gain could be in anything internal or external, such as health or wealth.
+The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future, However, 'belief about gain' might be about an existing gain.  For instance, in situation where the following trade is offered: "I've given you $2, are you willing to trade it for a 50% chance of winning $6?" it'd be "I have $2 more than I started with", there is an existing gain that is compared to a future one. </t>
+        </is>
+      </c>
       <c r="J91" s="2" t="inlineStr"/>
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr"/>
@@ -5995,12 +5990,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050591</t>
+          <t>BCIO:050592</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>belief about enablers of a behaviour</t>
+          <t>belief about goal attainment</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -6010,7 +6005,7 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about factors that could facilitate or enable a behaviour.</t>
+          <t xml:space="preserve">A &lt;belief&gt; about the extend to which goals are achievable. </t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
@@ -6053,38 +6048,29 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006023</t>
+          <t>BCIO:050219</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>belief about gain</t>
+          <t>belief about health consequences of behaviour</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the existence of an increase from an initial reference point.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of health and wellbeing.</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>Perceived gain</t>
-        </is>
-      </c>
+      <c r="G93" s="2" t="inlineStr"/>
       <c r="H93" s="2" t="inlineStr"/>
-      <c r="I93" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The perceived gain could be in anything internal or external, such as health or wealth.
-The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future, However, 'belief about gain' might be about an existing gain.  For instance, in situation where the following trade is offered: "I've given you $2, are you willing to trade it for a 50% chance of winning $6?" it'd be "I have $2 more than I started with", there is an existing gain that is compared to a future one. </t>
-        </is>
-      </c>
+      <c r="I93" s="2" t="inlineStr"/>
       <c r="J93" s="2" t="inlineStr"/>
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr"/>
@@ -6120,12 +6106,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050592</t>
+          <t>BCIO:050593</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>belief about goal attainment</t>
+          <t>belief about health status</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -6135,14 +6121,19 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;belief&gt; about the extend to which goals are achievable. </t>
+          <t>A &lt;belief&gt; about one’s health status.</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr"/>
       <c r="H94" s="2" t="inlineStr"/>
-      <c r="I94" s="2" t="inlineStr"/>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>This class covers belief about current health status. A person may have more than one such belief.
+"health status" is defined as "A personal attribute that is the state of an individual’s mental or physical condition."</t>
+        </is>
+      </c>
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr"/>
@@ -6178,22 +6169,22 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050219</t>
+          <t>BCIO:050224</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>belief about health consequences of behaviour</t>
+          <t>belief about healthcare accessibility</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about ones environment</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of health and wellbeing.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
@@ -6236,22 +6227,22 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050593</t>
+          <t>BCIO:006026</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>belief about health status</t>
+          <t>belief about likelihood of consequences of an occurrence</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one’s health status.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms the probability that a given event or state will occur or not occur in the future.</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
@@ -6260,8 +6251,7 @@
       <c r="H96" s="2" t="inlineStr"/>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>This class covers belief about current health status. A person may have more than one such belief.
-"health status" is defined as "A personal attribute that is the state of an individual’s mental or physical condition."</t>
+          <t>Consequences can be either positive or negative.</t>
         </is>
       </c>
       <c r="J96" s="2" t="inlineStr"/>
@@ -6299,22 +6289,22 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050224</t>
+          <t>BCIO:006024</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>belief about healthcare accessibility</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>belief about ones environment</t>
+          <t>belief about likelihood of consequences of an occurrence</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's environment&gt; in terms of how easy it is for a person to approach and use a healthcare service.</t>
+          <t>A &lt;belief about likelihood of consequences of an occurrence&gt; in terms of the probability that a behaviour will result or not result in particular outcomes.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
@@ -6357,33 +6347,29 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006026</t>
+          <t>BCIO:050220</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of an occurrence</t>
+          <t>belief about likelihood of emotional consequences of behaviour</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms the probability that a given event or state will occur or not occur in the future.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to emotions.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr"/>
       <c r="H98" s="2" t="inlineStr"/>
-      <c r="I98" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="I98" s="2" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr"/>
@@ -6419,22 +6405,22 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006024</t>
+          <t>BCIO:050594</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t xml:space="preserve">belief about likelihood of financial consequences of a behaviour </t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of an occurrence</t>
+          <t>belief about the likelihood of consequences of a behaviour</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of an occurrence&gt; in terms of the probability that a behaviour will result or not result in particular outcomes.</t>
+          <t>A &lt;belief about the likelihood of consequences of a behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to financial outcomes.</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
@@ -6477,12 +6463,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050220</t>
+          <t>BCIO:006025</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of emotional consequences of behaviour</t>
+          <t>belief about likelihood of health consequences of behaviour</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -6492,7 +6478,7 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to emotions.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
@@ -6535,22 +6521,22 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050594</t>
+          <t>BCIO:050221</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">belief about likelihood of financial consequences of a behaviour </t>
+          <t>belief about likelihood of social consequences of behaviour</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>belief about the likelihood of consequences of a behaviour</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the likelihood of consequences of a behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to financial outcomes.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
@@ -6593,22 +6579,22 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006025</t>
+          <t>BCIO:006141</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of health consequences of behaviour</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
+          <t xml:space="preserve">A &lt;belief&gt; regarding aspects of a verbal, graphic, written or recorded communication. </t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
@@ -6651,22 +6637,22 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050221</t>
+          <t>BCIO:006028</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of social consequences of behaviour</t>
+          <t>belief about message relevance</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
+          <t>A &lt;belief about message&gt; in terms of whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
@@ -6709,22 +6695,22 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006141</t>
+          <t>BCIO:006143</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
+          <t>belief about message trustworthiness</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
           <t>belief about message</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;belief&gt; regarding aspects of a verbal, graphic, written or recorded communication. </t>
+          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
@@ -6767,22 +6753,22 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006028</t>
+          <t>BCIO:006144</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>belief about message relevance</t>
+          <t>belief about need satisfaction</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about message&gt; in terms of whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
+          <t>A &lt;belief&gt; regarding whether one or more of the person's needs have been met.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
@@ -6825,22 +6811,22 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006143</t>
+          <t>BCIO:006029</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>belief about message trustworthiness</t>
+          <t>belief about ones environment</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
+          <t>A &lt;belief&gt; about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
@@ -6883,22 +6869,22 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006144</t>
+          <t>BCIO:050225</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>belief about need satisfaction</t>
+          <t>belief about ones physical environment</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about ones environment</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; regarding whether one or more of the person's needs have been met.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of the parts of one's environment that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
@@ -6941,22 +6927,22 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006029</t>
+          <t>BCIO:006145</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
+          <t>belief about ones social environment</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
           <t>belief about ones environment</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of the aspects of one’s immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
@@ -6999,22 +6985,22 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050225</t>
+          <t>BCIO:006301</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>belief about ones physical environment</t>
+          <t>belief about others' susceptibility</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>belief about ones environment</t>
+          <t>belief about susceptibility to a threat</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's environment&gt; in terms of the parts of one's environment that do not involve people or organisations.</t>
+          <t>A &lt;belief about susceptibility to a threat&gt; in terms of how vulnerable others are to a threat.</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
@@ -7057,22 +7043,22 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006145</t>
+          <t>BCIO:050595</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>belief about ones social environment</t>
+          <t>belief about own health</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>belief about ones environment</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's environment&gt; in terms of the aspects of one’s immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
+          <t>A &lt;belief&gt; about one’s own health</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
@@ -7115,12 +7101,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006301</t>
+          <t>BCIO:006031</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>belief about others' susceptibility</t>
+          <t>belief about personal susceptibility</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -7130,7 +7116,7 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about susceptibility to a threat&gt; in terms of how vulnerable others are to a threat.</t>
+          <t>A &lt;belief about susceptibility to a threat&gt; in terms of one's personal vulnerability to a threat.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
@@ -7173,12 +7159,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050595</t>
+          <t>BCIO:050324</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>belief about own health</t>
+          <t>belief about quality of life</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -7188,7 +7174,7 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one’s own health</t>
+          <t>A &lt;belief&gt; about one's position in life in relation to one's goals, expectations, standards and concerns.</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
@@ -7231,29 +7217,38 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006031</t>
+          <t>BCIO:006027</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>belief about personal susceptibility</t>
+          <t>belief about reduction</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a threat</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about susceptibility to a threat&gt; in terms of one's personal vulnerability to a threat.</t>
+          <t>A &lt;belief&gt; about the existence of a decrease from an initial reference point.</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>perceived loss; belief about loss</t>
+        </is>
+      </c>
       <c r="H113" s="2" t="inlineStr"/>
-      <c r="I113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>The perceived loss could be in anything internal or external, such as wealth or health.
+The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future. However, 'belief about reduction' might be about an existing loss.</t>
+        </is>
+      </c>
       <c r="J113" s="2" t="inlineStr"/>
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr"/>
@@ -7289,12 +7284,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050324</t>
+          <t>BCIO:006303</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>belief about quality of life</t>
+          <t>belief about responsibility to act</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -7304,7 +7299,7 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one's position in life in relation to one's goals, expectations, standards and concerns.</t>
+          <t>A &lt;belief&gt; about whether oneself or another person is obligated to take a certain course of action.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
@@ -7347,38 +7342,29 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006027</t>
+          <t>BCIO:050596</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>belief about reduction</t>
+          <t>belief about severity of AIDS</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about severity of health condition</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the existence of a decrease from an initial reference point.</t>
+          <t>A &lt;belief about severity of health condition&gt; in terms of the outcomes of AIDS.</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr">
-        <is>
-          <t>perceived loss; belief about loss</t>
-        </is>
-      </c>
+      <c r="G115" s="2" t="inlineStr"/>
       <c r="H115" s="2" t="inlineStr"/>
-      <c r="I115" s="2" t="inlineStr">
-        <is>
-          <t>The perceived loss could be in anything internal or external, such as wealth or health.
-The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future. However, 'belief about reduction' might be about an existing loss.</t>
-        </is>
-      </c>
+      <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr"/>
@@ -7414,12 +7400,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006303</t>
+          <t>BCIO:006030</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>belief about responsibility to act</t>
+          <t>belief about severity of an outcome</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -7429,15 +7415,23 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about whether oneself or another person is obligated to take a certain course of action.</t>
+          <t>A &lt;belief&gt; about how serious the harm associated with an outcome could be.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
-      <c r="G116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat severity</t>
+        </is>
+      </c>
       <c r="H116" s="2" t="inlineStr"/>
       <c r="I116" s="2" t="inlineStr"/>
-      <c r="J116" s="2" t="inlineStr"/>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat</t>
+        </is>
+      </c>
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr"/>
       <c r="M116" s="2" t="inlineStr"/>
@@ -7472,22 +7466,22 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050596</t>
+          <t>BCIO:050597</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of AIDS</t>
+          <t>belief about severity of health condition</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of health condition</t>
+          <t>belief about severity of an outcome</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about severity of health condition&gt; in terms of the outcomes of AIDS.</t>
+          <t>A &lt;belief about severity of an outcome&gt; relating to a health condition.</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
@@ -7530,38 +7524,34 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006030</t>
+          <t>BCIO:006020</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of an outcome</t>
+          <t>belief about social consequences of behaviour</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about how serious the harm associated with an outcome could be.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of their impact on the social environmental system.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat severity</t>
-        </is>
-      </c>
+      <c r="G118" s="2" t="inlineStr"/>
       <c r="H118" s="2" t="inlineStr"/>
-      <c r="I118" s="2" t="inlineStr"/>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat</t>
-        </is>
-      </c>
+      <c r="I118" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
+      <c r="J118" s="2" t="inlineStr"/>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr"/>
       <c r="M118" s="2" t="inlineStr"/>
@@ -7596,22 +7586,22 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050597</t>
+          <t>BCIO:050598</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of health condition</t>
+          <t>belief about social influence</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of an outcome</t>
+          <t>belief about one’s social environment</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about severity of an outcome&gt; relating to a health condition.</t>
+          <t>A &lt;belief about one’s social environment&gt; that focuses on people’s influences on each other.</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
@@ -7654,33 +7644,29 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006020</t>
+          <t>BCIO:050599</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>belief about social consequences of behaviour</t>
+          <t>belief about social influence on oneself</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about social influence</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of their impact on the social environmental system.</t>
+          <t>A &lt;belief about social influence&gt; in terms of the extent to which other people influence one’s behaviour.</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr"/>
       <c r="H120" s="2" t="inlineStr"/>
-      <c r="I120" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="I120" s="2" t="inlineStr"/>
       <c r="J120" s="2" t="inlineStr"/>
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr"/>
@@ -7716,22 +7702,22 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050598</t>
+          <t>BCIO:006146</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>belief about social influence</t>
+          <t>belief about social support</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>belief about one’s social environment</t>
+          <t>belief about ones social environment</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one’s social environment&gt; that focuses on people’s influences on each other.</t>
+          <t>A &lt;belief about one's social environment&gt; in terms of whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
@@ -7774,22 +7760,22 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050599</t>
+          <t>BCIO:050600</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>belief about social influence on oneself</t>
+          <t>belief about social support for a behaviour</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>belief about social influence</t>
+          <t>belief about social support</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about social influence&gt; in terms of the extent to which other people influence one’s behaviour.</t>
+          <t>A &lt;belief about social support&gt; for the person to enact a behaviour.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
@@ -7832,22 +7818,22 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006146</t>
+          <t>BCIO:050226</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>belief about social support</t>
+          <t>belief about sufficient time for a behaviour</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>belief about ones social environment</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's social environment&gt; in terms of whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
+          <t>A &lt;belief&gt; about having enough time or a suitable period of time to enact a behaviour.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
@@ -7890,30 +7876,38 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050600</t>
+          <t>BCIO:006305</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>belief about social support for a behaviour</t>
+          <t>belief about susceptibility to a threat</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>belief about social support</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about social support&gt; for the person to enact a behaviour.</t>
+          <t>A &lt;belief&gt; about vulnerability to a threat.</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
-      <c r="G124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a risk</t>
+        </is>
+      </c>
       <c r="H124" s="2" t="inlineStr"/>
       <c r="I124" s="2" t="inlineStr"/>
-      <c r="J124" s="2" t="inlineStr"/>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat</t>
+        </is>
+      </c>
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr"/>
       <c r="M124" s="2" t="inlineStr"/>
@@ -7948,12 +7942,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050226</t>
+          <t>BCIO:050601</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>belief about sufficient time for a behaviour</t>
+          <t>belief about task complexity</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -7963,7 +7957,7 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about having enough time or a suitable period of time to enact a behaviour.</t>
+          <t>A &lt;belief&gt; about the degree to which a task is complex and therefore difficult to perform.</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
@@ -8006,12 +8000,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006305</t>
+          <t>BCIO:050602</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a threat</t>
+          <t>belief about the cause of a behaviour</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -8021,23 +8015,19 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about vulnerability to a threat.</t>
+          <t>A &lt;belief&gt; about what causes or influences a behaviour.</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
-      <c r="G126" s="2" t="inlineStr">
-        <is>
-          <t>belief about susceptibility to a risk</t>
-        </is>
-      </c>
+      <c r="G126" s="2" t="inlineStr"/>
       <c r="H126" s="2" t="inlineStr"/>
-      <c r="I126" s="2" t="inlineStr"/>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat</t>
-        </is>
-      </c>
+      <c r="I126" s="2" t="inlineStr">
+        <is>
+          <t>The class 'belief about the cause of a behaviour' captures what a person believes in terms of the causes of events. A related class is 'emotional-relevance appraisal of causal agency', but this class involves an appraisal that gives raise to emotions, such as blaming yourself for an accident, giving raise to feelings of guilt.</t>
+        </is>
+      </c>
+      <c r="J126" s="2" t="inlineStr"/>
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr"/>
       <c r="M126" s="2" t="inlineStr"/>
@@ -8072,22 +8062,22 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050601</t>
+          <t>BCIO:006142</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>belief about task complexity</t>
+          <t>belief about the credibility of a message's source</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the degree to which a task is complex and therefore difficult to perform.</t>
+          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
@@ -8130,12 +8120,12 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050602</t>
+          <t>BCIO:050603</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>belief about the cause of a behaviour</t>
+          <t>belief about the discrepancy between one’s current and target state</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -8145,18 +8135,14 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about what causes or influences a behaviour.</t>
+          <t>A &lt;belief&gt; about the discrepancy between one’s current and target state.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr"/>
       <c r="H128" s="2" t="inlineStr"/>
-      <c r="I128" s="2" t="inlineStr">
-        <is>
-          <t>The class 'belief about the cause of a behaviour' captures what a person believes in terms of the causes of events. A related class is 'emotional-relevance appraisal of causal agency', but this class involves an appraisal that gives raise to emotions, such as blaming yourself for an accident, giving raise to feelings of guilt.</t>
-        </is>
-      </c>
+      <c r="I128" s="2" t="inlineStr"/>
       <c r="J128" s="2" t="inlineStr"/>
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr"/>
@@ -8192,22 +8178,22 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006142</t>
+          <t>BCIO:050604</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>belief about the credibility of a message's source</t>
+          <t>belief about the financial consequences of a behaviour</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief about the consequences of a behaviour</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
+          <t>A &lt;belief about the consequences of a behaviour&gt; in terms of finance.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
@@ -8250,27 +8236,31 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050603</t>
+          <t>BCIO:050605</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>belief about the discrepancy between one’s current and target state</t>
+          <t>belief about the negative health consequences of a behaviour</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about the health consequences of a behaviour</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the discrepancy between one’s current and target state.</t>
+          <t>A &lt;belief about the health consequences of a behaviour&gt; in which the consequences are evaluated as negative.</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr"/>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>An evaluative belief about the negative consequences of a behaviour AND belief about the health consequences of a behaviour</t>
+        </is>
+      </c>
       <c r="H130" s="2" t="inlineStr"/>
       <c r="I130" s="2" t="inlineStr"/>
       <c r="J130" s="2" t="inlineStr"/>
@@ -8308,29 +8298,33 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050604</t>
+          <t>BCIO:006149</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>belief about the financial consequences of a behaviour</t>
+          <t>belief about the personal desirability of consequences of a behaviour</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>belief about the consequences of a behaviour</t>
+          <t>evaluative belief about the consequences of behaviour</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the consequences of a behaviour&gt; in terms of finance.</t>
+          <t>An &lt;evaluative belief about the consequences of behaviour&gt; in terms of the value of the consequences of behaviour to oneself.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr"/>
       <c r="H131" s="2" t="inlineStr"/>
-      <c r="I131" s="2" t="inlineStr"/>
+      <c r="I131" s="2" t="inlineStr">
+        <is>
+          <t>'Desirability' can range from highly desirable to highly undesirable.</t>
+        </is>
+      </c>
       <c r="J131" s="2" t="inlineStr"/>
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr"/>
@@ -8366,33 +8360,33 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050605</t>
+          <t>BCIO:050606</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>belief about the negative health consequences of a behaviour</t>
+          <t>belief about the positive emotional consequences of a behaviour</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>belief about the health consequences of a behaviour</t>
+          <t>belief about the emotional consequences of a behaviour</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the health consequences of a behaviour&gt; in which the consequences are evaluated as negative.</t>
+          <t>A &lt;belief about the emotional consequences of a behaviour&gt; where the emotions are positive.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
-      <c r="G132" s="2" t="inlineStr">
-        <is>
-          <t>An evaluative belief about the negative consequences of a behaviour AND belief about the health consequences of a behaviour</t>
-        </is>
-      </c>
+      <c r="G132" s="2" t="inlineStr"/>
       <c r="H132" s="2" t="inlineStr"/>
-      <c r="I132" s="2" t="inlineStr"/>
+      <c r="I132" s="2" t="inlineStr">
+        <is>
+          <t>Positive emotions are enjoyment, pleasure and satisfaction. The emotions are those of the person enacting the behaviour.</t>
+        </is>
+      </c>
       <c r="J132" s="2" t="inlineStr"/>
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr"/>
@@ -8428,33 +8422,33 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006149</t>
+          <t>BCIO:050607</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>belief about the personal desirability of consequences of a behaviour</t>
+          <t>belief about the positive health consequences of a behaviour</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about the consequences of behaviour</t>
+          <t>belief about the health consequences of a behaviour</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>An &lt;evaluative belief about the consequences of behaviour&gt; in terms of the value of the consequences of behaviour to oneself.</t>
+          <t>A &lt;belief about the health consequences of a behaviour&gt; in which the consequences are evaluated as positive.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
-      <c r="G133" s="2" t="inlineStr"/>
+      <c r="G133" s="2" t="inlineStr">
+        <is>
+          <t>An evaluative belief about the positive consequences of a behaviour AND belief about the health consequences of a behaviour</t>
+        </is>
+      </c>
       <c r="H133" s="2" t="inlineStr"/>
-      <c r="I133" s="2" t="inlineStr">
-        <is>
-          <t>'Desirability' can range from highly desirable to highly undesirable.</t>
-        </is>
-      </c>
+      <c r="I133" s="2" t="inlineStr"/>
       <c r="J133" s="2" t="inlineStr"/>
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr"/>
@@ -8490,33 +8484,29 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050606</t>
+          <t>BCIO:050608</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>belief about the positive emotional consequences of a behaviour</t>
+          <t>belief about the positive social consequences of a behaviour</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>belief about the emotional consequences of a behaviour</t>
+          <t>belief about the social consequences of a behaviour</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the emotional consequences of a behaviour&gt; where the emotions are positive.</t>
+          <t>A &lt;belief about the social consequences of a behaviour&gt; where those consequences are evaluated positively.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr"/>
       <c r="H134" s="2" t="inlineStr"/>
-      <c r="I134" s="2" t="inlineStr">
-        <is>
-          <t>Positive emotions are enjoyment, pleasure and satisfaction. The emotions are those of the person enacting the behaviour.</t>
-        </is>
-      </c>
+      <c r="I134" s="2" t="inlineStr"/>
       <c r="J134" s="2" t="inlineStr"/>
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr"/>
@@ -8552,31 +8542,27 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050607</t>
+          <t>BCIO:006033</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>belief about the positive health consequences of a behaviour</t>
+          <t>belief about the timing of the consequences of behaviour</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>belief about the health consequences of a behaviour</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the health consequences of a behaviour&gt; in which the consequences are evaluated as positive.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of how long after the performance of the behaviour they will occur.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr">
-        <is>
-          <t>An evaluative belief about the positive consequences of a behaviour AND belief about the health consequences of a behaviour</t>
-        </is>
-      </c>
+      <c r="G135" s="2" t="inlineStr"/>
       <c r="H135" s="2" t="inlineStr"/>
       <c r="I135" s="2" t="inlineStr"/>
       <c r="J135" s="2" t="inlineStr"/>
@@ -8614,22 +8600,22 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050608</t>
+          <t>BCIO:006306</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>belief about the positive social consequences of a behaviour</t>
+          <t>belief about threat</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>belief about the social consequences of a behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the social consequences of a behaviour&gt; where those consequences are evaluated positively.</t>
+          <t>A &lt;belief&gt; about a potential harm.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -8672,22 +8658,22 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006033</t>
+          <t>BCIO:050847</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>belief about the timing of the consequences of behaviour</t>
+          <t>belief in false minority</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>group belief</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of how long after the performance of the behaviour they will occur.</t>
+          <t>A &lt;group belief&gt; in which members of a group falsely believe that their own beliefs and behaviours are unusual.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -8730,29 +8716,33 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006306</t>
+          <t>BCIO:050609</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>belief about threat</t>
+          <t>belief that a behaviour is compulsory</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about a behavioural rule</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about a potential harm.</t>
+          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must occur.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr"/>
       <c r="H138" s="2" t="inlineStr"/>
-      <c r="I138" s="2" t="inlineStr"/>
+      <c r="I138" s="2" t="inlineStr">
+        <is>
+          <t>The two entities 'belief that a behaviour is compulsary' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur.</t>
+        </is>
+      </c>
       <c r="J138" s="2" t="inlineStr"/>
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr"/>
@@ -8788,29 +8778,33 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050847</t>
+          <t>BCIO:050610</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>belief in false minority</t>
+          <t>belief that a behaviour is forbidden</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>group belief</t>
+          <t>belief about a behavioural rule</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A &lt;group belief&gt; in which members of a group falsely believe that their own beliefs and behaviours are unusual.</t>
+          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must not occur.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr"/>
       <c r="H139" s="2" t="inlineStr"/>
-      <c r="I139" s="2" t="inlineStr"/>
+      <c r="I139" s="2" t="inlineStr">
+        <is>
+          <t>The two entities 'belief that a behaviour is forbidden' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is forbidden' is specifically about whether there are rules about not performing a behaviour.</t>
+        </is>
+      </c>
       <c r="J139" s="2" t="inlineStr"/>
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr"/>
@@ -8846,22 +8840,22 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050609</t>
+          <t>BCIO:050611</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>belief that a behaviour is compulsory</t>
+          <t>beneficial fear reduction mental process</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>belief about a behavioural rule</t>
+          <t>fear reduction mental process</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must occur.</t>
+          <t>A &lt;fear reduction mental process&gt; that has a positive  outcome.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -8870,7 +8864,7 @@
       <c r="H140" s="2" t="inlineStr"/>
       <c r="I140" s="2" t="inlineStr">
         <is>
-          <t>The two entities 'belief that a behaviour is compulsary' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur.</t>
+          <t>‘Positive’ is inherently subjective. It could mean a good outcome for the person, the people or those around them, or society more generally.</t>
         </is>
       </c>
       <c r="J140" s="2" t="inlineStr"/>
@@ -8906,331 +8900,327 @@
       <c r="X140" s="2" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050610</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>belief that a behaviour is forbidden</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>belief about a behavioural rule</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must not occur.</t>
-        </is>
-      </c>
-      <c r="E141" s="2" t="inlineStr"/>
-      <c r="F141" s="2" t="inlineStr"/>
-      <c r="G141" s="2" t="inlineStr"/>
-      <c r="H141" s="2" t="inlineStr"/>
-      <c r="I141" s="2" t="inlineStr">
-        <is>
-          <t>The two entities 'belief that a behaviour is forbidden' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is forbidden' is specifically about whether there are rules about not performing a behaviour.</t>
-        </is>
-      </c>
-      <c r="J141" s="2" t="inlineStr"/>
-      <c r="K141" s="2" t="inlineStr"/>
-      <c r="L141" s="2" t="inlineStr"/>
-      <c r="M141" s="2" t="inlineStr"/>
-      <c r="N141" s="2" t="inlineStr"/>
-      <c r="O141" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P141" s="2" t="inlineStr"/>
-      <c r="Q141" s="2" t="inlineStr"/>
-      <c r="R141" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S141" s="2" t="inlineStr"/>
-      <c r="T141" s="2" t="inlineStr"/>
-      <c r="U141" s="2" t="inlineStr"/>
-      <c r="V141" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W141" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X141" s="2" t="inlineStr"/>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADDICTO:0001303 </t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>beneficialness</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>A &lt;disposition&gt; that is realised as a benefit process.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050611</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>beneficial fear reduction mental process</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>fear reduction mental process</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;fear reduction mental process&gt; that has a positive  outcome.</t>
-        </is>
-      </c>
-      <c r="E142" s="2" t="inlineStr"/>
-      <c r="F142" s="2" t="inlineStr"/>
-      <c r="G142" s="2" t="inlineStr"/>
-      <c r="H142" s="2" t="inlineStr"/>
-      <c r="I142" s="2" t="inlineStr">
-        <is>
-          <t>‘Positive’ is inherently subjective. It could mean a good outcome for the person, the people or those around them, or society more generally.</t>
-        </is>
-      </c>
-      <c r="J142" s="2" t="inlineStr"/>
-      <c r="K142" s="2" t="inlineStr"/>
-      <c r="L142" s="2" t="inlineStr"/>
-      <c r="M142" s="2" t="inlineStr"/>
-      <c r="N142" s="2" t="inlineStr"/>
-      <c r="O142" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P142" s="2" t="inlineStr"/>
-      <c r="Q142" s="2" t="inlineStr"/>
-      <c r="R142" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S142" s="2" t="inlineStr"/>
-      <c r="T142" s="2" t="inlineStr"/>
-      <c r="U142" s="2" t="inlineStr"/>
-      <c r="V142" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W142" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X142" s="2" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001303 </t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>beneficialness</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>MF:0000032</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>A &lt;disposition&gt; that is realised as a benefit process.</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W143" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>MF:0000032</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
         <is>
           <t>An attribute of a body that influences the way that it functions.</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr">
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
         <is>
           <t>Extended organism refers to an organism and its microbiome (e.g., the bacteria that live in one's digestive system)
 Bodily disposition would include features, such as a person's strength (which can be used in a specific context), but not weight. A person would have a certain weight independent of most circumstances they are in.</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X144" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050612</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>bodily disposition that increases likelihood of harmful behaviour</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;bodily disposition&gt; that increases the probability that a person will engage in a harmful behaviour.</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr"/>
+      <c r="F143" s="2" t="inlineStr"/>
+      <c r="G143" s="2" t="inlineStr"/>
+      <c r="H143" s="2" t="inlineStr"/>
+      <c r="I143" s="2" t="inlineStr"/>
+      <c r="J143" s="2" t="inlineStr"/>
+      <c r="K143" s="2" t="inlineStr"/>
+      <c r="L143" s="2" t="inlineStr"/>
+      <c r="M143" s="2" t="inlineStr"/>
+      <c r="N143" s="2" t="inlineStr"/>
+      <c r="O143" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P143" s="2" t="inlineStr"/>
+      <c r="Q143" s="2" t="inlineStr"/>
+      <c r="R143" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S143" s="2" t="inlineStr"/>
+      <c r="T143" s="2" t="inlineStr"/>
+      <c r="U143" s="2" t="inlineStr"/>
+      <c r="V143" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W143" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X143" s="2" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050304</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>bodily feeling</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>affective process</t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>An affective process involving sensory experience of physiological stimuli.</t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="inlineStr"/>
+      <c r="F144" s="4" t="inlineStr"/>
+      <c r="G144" s="4" t="inlineStr"/>
+      <c r="H144" s="4" t="inlineStr"/>
+      <c r="I144" s="4" t="inlineStr"/>
+      <c r="J144" s="4" t="inlineStr"/>
+      <c r="K144" s="4" t="inlineStr"/>
+      <c r="L144" s="4" t="inlineStr"/>
+      <c r="M144" s="4" t="inlineStr"/>
+      <c r="N144" s="4" t="inlineStr"/>
+      <c r="O144" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="P144" s="4" t="inlineStr"/>
+      <c r="Q144" s="4" t="inlineStr"/>
+      <c r="R144" s="4" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S144" s="4" t="inlineStr"/>
+      <c r="T144" s="4" t="inlineStr"/>
+      <c r="U144" s="4" t="inlineStr"/>
+      <c r="V144" s="4" t="inlineStr"/>
+      <c r="W144" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X144" s="4" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050612</t>
-        </is>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>bodily disposition that increases likelihood of harmful behaviour</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;bodily disposition&gt; that increases the probability that a person will engage in a harmful behaviour.</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr"/>
-      <c r="F145" s="2" t="inlineStr"/>
-      <c r="G145" s="2" t="inlineStr"/>
-      <c r="H145" s="2" t="inlineStr"/>
-      <c r="I145" s="2" t="inlineStr"/>
-      <c r="J145" s="2" t="inlineStr"/>
-      <c r="K145" s="2" t="inlineStr"/>
-      <c r="L145" s="2" t="inlineStr"/>
-      <c r="M145" s="2" t="inlineStr"/>
-      <c r="N145" s="2" t="inlineStr"/>
-      <c r="O145" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P145" s="2" t="inlineStr"/>
-      <c r="Q145" s="2" t="inlineStr"/>
-      <c r="R145" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S145" s="2" t="inlineStr"/>
-      <c r="T145" s="2" t="inlineStr"/>
-      <c r="U145" s="2" t="inlineStr"/>
-      <c r="V145" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W145" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X145" s="2" t="inlineStr"/>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>OGMS:0000060</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Any process going on in the body.</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The phrase 'bodily component of an organism’ in the definition refers to ‘a part of the body’. </t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>BCIO:050304</t>
+          <t>BCIO:050305</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>bodily feeling</t>
+          <t>bodily quality</t>
         </is>
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t>affective process</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D146" s="4" t="inlineStr">
         <is>
-          <t>An affective process involving sensory experience of physiological stimuli.</t>
+          <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
       <c r="E146" s="4" t="inlineStr"/>
@@ -9267,144 +9257,144 @@
       <c r="X146" s="4" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>OGMS:0000060</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Any process going on in the body.</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The phrase 'bodily component of an organism’ in the definition refers to ‘a part of the body’. </t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr"/>
-      <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X147" t="inlineStr"/>
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050613</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>bodily system</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;system&gt; that consists of the parts of an organism and their interactions.</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr"/>
+      <c r="F147" s="2" t="inlineStr"/>
+      <c r="G147" s="2" t="inlineStr"/>
+      <c r="H147" s="2" t="inlineStr"/>
+      <c r="I147" s="2" t="inlineStr"/>
+      <c r="J147" s="2" t="inlineStr"/>
+      <c r="K147" s="2" t="inlineStr"/>
+      <c r="L147" s="2" t="inlineStr"/>
+      <c r="M147" s="2" t="inlineStr"/>
+      <c r="N147" s="2" t="inlineStr"/>
+      <c r="O147" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P147" s="2" t="inlineStr"/>
+      <c r="Q147" s="2" t="inlineStr"/>
+      <c r="R147" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S147" s="2" t="inlineStr"/>
+      <c r="T147" s="2" t="inlineStr"/>
+      <c r="U147" s="2" t="inlineStr"/>
+      <c r="V147" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W147" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X147" s="2" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:050305</t>
-        </is>
-      </c>
-      <c r="B148" s="4" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
-      <c r="C148" s="4" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D148" s="4" t="inlineStr">
-        <is>
-          <t>A quality that inheres in some extended organism.</t>
-        </is>
-      </c>
-      <c r="E148" s="4" t="inlineStr"/>
-      <c r="F148" s="4" t="inlineStr"/>
-      <c r="G148" s="4" t="inlineStr"/>
-      <c r="H148" s="4" t="inlineStr"/>
-      <c r="I148" s="4" t="inlineStr"/>
-      <c r="J148" s="4" t="inlineStr"/>
-      <c r="K148" s="4" t="inlineStr"/>
-      <c r="L148" s="4" t="inlineStr"/>
-      <c r="M148" s="4" t="inlineStr"/>
-      <c r="N148" s="4" t="inlineStr"/>
-      <c r="O148" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="P148" s="4" t="inlineStr"/>
-      <c r="Q148" s="4" t="inlineStr"/>
-      <c r="R148" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S148" s="4" t="inlineStr"/>
-      <c r="T148" s="4" t="inlineStr"/>
-      <c r="U148" s="4" t="inlineStr"/>
-      <c r="V148" s="4" t="inlineStr"/>
-      <c r="W148" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X148" s="4" t="inlineStr"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050848</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>capability to imagine future scenarios</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">imagination capability </t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;imagination capability&gt; in which what is imagined are scenarios that could happen in the future.</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr"/>
+      <c r="F148" s="2" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr"/>
+      <c r="H148" s="2" t="inlineStr"/>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>Scenarios include possible, outcomes of behaviours, goals and actions to achieve them.</t>
+        </is>
+      </c>
+      <c r="J148" s="2" t="inlineStr"/>
+      <c r="K148" s="2" t="inlineStr"/>
+      <c r="L148" s="2" t="inlineStr"/>
+      <c r="M148" s="2" t="inlineStr"/>
+      <c r="N148" s="2" t="inlineStr"/>
+      <c r="O148" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P148" s="2" t="inlineStr"/>
+      <c r="Q148" s="2" t="inlineStr"/>
+      <c r="R148" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S148" s="2" t="inlineStr"/>
+      <c r="T148" s="2" t="inlineStr"/>
+      <c r="U148" s="2" t="inlineStr"/>
+      <c r="V148" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W148" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X148" s="2" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050613</t>
+          <t>BCIO:050849</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>bodily system</t>
+          <t>certainty bias</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>system</t>
+          <t xml:space="preserve">cognitive bias process </t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>A &lt;system&gt; that consists of the parts of an organism and their interactions.</t>
+          <t>A &lt;cognitive bias process&gt; that overweights an outcome that is judged to be certain compared with ones that are judged to be less than certain.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
@@ -9447,33 +9437,29 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050848</t>
+          <t>BCIO:006120</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>capability to imagine future scenarios</t>
+          <t>classical conditioning</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">imagination capability </t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>An &lt;imagination capability&gt; in which what is imagined are scenarios that could happen in the future.</t>
+          <t>&lt;Associative learning&gt; that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr"/>
       <c r="H150" s="2" t="inlineStr"/>
-      <c r="I150" s="2" t="inlineStr">
-        <is>
-          <t>Scenarios include possible, outcomes of behaviours, goals and actions to achieve them.</t>
-        </is>
-      </c>
+      <c r="I150" s="2" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr"/>
@@ -9509,22 +9495,22 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050849</t>
+          <t>BCIO:050850</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>certainty bias</t>
+          <t>cognitive bias disposition</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cognitive bias process </t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive bias process&gt; that overweights an outcome that is judged to be certain compared with ones that are judged to be less than certain.</t>
+          <t>A &lt;mental disposition&gt; that is realised as a cognitive bias process.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
@@ -9567,22 +9553,22 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006120</t>
+          <t>BCIO:050851</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>classical conditioning</t>
+          <t>cognitive bias process</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>&lt;Associative learning&gt; that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
+          <t>A &lt;cognitive process&gt; that leads to systematic error in judgement or belief.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
@@ -9625,22 +9611,22 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050850</t>
+          <t>BCIO:006108</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>cognitive bias disposition</t>
+          <t>cognitive dissonance</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is realised as a cognitive bias process.</t>
+          <t>A &lt;subjective affective feeling&gt; that is unpleasant and experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
@@ -9681,269 +9667,273 @@
       <c r="X153" s="2" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050851</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>cognitive bias process</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>MF:0000008</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D154" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;cognitive process&gt; that leads to systematic error in judgement or belief.</t>
-        </is>
-      </c>
-      <c r="E154" s="2" t="inlineStr"/>
-      <c r="F154" s="2" t="inlineStr"/>
-      <c r="G154" s="2" t="inlineStr"/>
-      <c r="H154" s="2" t="inlineStr"/>
-      <c r="I154" s="2" t="inlineStr"/>
-      <c r="J154" s="2" t="inlineStr"/>
-      <c r="K154" s="2" t="inlineStr"/>
-      <c r="L154" s="2" t="inlineStr"/>
-      <c r="M154" s="2" t="inlineStr"/>
-      <c r="N154" s="2" t="inlineStr"/>
-      <c r="O154" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P154" s="2" t="inlineStr"/>
-      <c r="Q154" s="2" t="inlineStr"/>
-      <c r="R154" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S154" s="2" t="inlineStr"/>
-      <c r="T154" s="2" t="inlineStr"/>
-      <c r="U154" s="2" t="inlineStr"/>
-      <c r="V154" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W154" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X154" s="2" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>A &lt;mental process&gt; that creates, modifies or has as participant some cognitive representation.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006108</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>cognitive dissonance</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;subjective affective feeling&gt; that is unpleasant and experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
-        </is>
-      </c>
-      <c r="E155" s="2" t="inlineStr"/>
-      <c r="F155" s="2" t="inlineStr"/>
-      <c r="G155" s="2" t="inlineStr"/>
-      <c r="H155" s="2" t="inlineStr"/>
-      <c r="I155" s="2" t="inlineStr"/>
-      <c r="J155" s="2" t="inlineStr"/>
-      <c r="K155" s="2" t="inlineStr"/>
-      <c r="L155" s="2" t="inlineStr"/>
-      <c r="M155" s="2" t="inlineStr"/>
-      <c r="N155" s="2" t="inlineStr"/>
-      <c r="O155" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P155" s="2" t="inlineStr"/>
-      <c r="Q155" s="2" t="inlineStr"/>
-      <c r="R155" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S155" s="2" t="inlineStr"/>
-      <c r="T155" s="2" t="inlineStr"/>
-      <c r="U155" s="2" t="inlineStr"/>
-      <c r="V155" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W155" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X155" s="2" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>MF:0000008</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that creates, modifies or has as participant some cognitive representation.</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W156" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A155" t="inlineStr">
         <is>
           <t>MF:0000031</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>cognitive representation</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t xml:space="preserve">A &lt;representation&gt; which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
         <is>
           <t>A mental representation of something that is experienced or imagined about one's inner or outer world.</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr">
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
         <is>
           <t>The use of the phrase ‘an anatomical structure in the cognitive system’ in the formal definition means that a specific cognitive representation will depend on parts of the brain, rather than involving the whole brain.
 When a belief is activated, the content of that belief is a cognitive representation.</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X157" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050614</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>cognitive representation of an alternative behaviour</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>cognitive representation of one’s behaviour</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;cognitive representation of one’s behaviour&gt; that the person could enact instead of one that they have enacted or are enacting.</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr"/>
+      <c r="F156" s="2" t="inlineStr"/>
+      <c r="G156" s="2" t="inlineStr"/>
+      <c r="H156" s="2" t="inlineStr"/>
+      <c r="I156" s="2" t="inlineStr"/>
+      <c r="J156" s="2" t="inlineStr"/>
+      <c r="K156" s="2" t="inlineStr"/>
+      <c r="L156" s="2" t="inlineStr"/>
+      <c r="M156" s="2" t="inlineStr"/>
+      <c r="N156" s="2" t="inlineStr"/>
+      <c r="O156" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P156" s="2" t="inlineStr"/>
+      <c r="Q156" s="2" t="inlineStr"/>
+      <c r="R156" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S156" s="2" t="inlineStr"/>
+      <c r="T156" s="2" t="inlineStr"/>
+      <c r="U156" s="2" t="inlineStr"/>
+      <c r="V156" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W156" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050615</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>cognitive representation of one’s behaviour</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>cognitive representation of a behaviour</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;cognitive representation&gt; of a behaviour that the person is enacting or has enacted.</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr"/>
+      <c r="F157" s="2" t="inlineStr"/>
+      <c r="G157" s="2" t="inlineStr"/>
+      <c r="H157" s="2" t="inlineStr"/>
+      <c r="I157" s="2" t="inlineStr"/>
+      <c r="J157" s="2" t="inlineStr"/>
+      <c r="K157" s="2" t="inlineStr"/>
+      <c r="L157" s="2" t="inlineStr"/>
+      <c r="M157" s="2" t="inlineStr"/>
+      <c r="N157" s="2" t="inlineStr"/>
+      <c r="O157" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P157" s="2" t="inlineStr"/>
+      <c r="Q157" s="2" t="inlineStr"/>
+      <c r="R157" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S157" s="2" t="inlineStr"/>
+      <c r="T157" s="2" t="inlineStr"/>
+      <c r="U157" s="2" t="inlineStr"/>
+      <c r="V157" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W157" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X157" s="2" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050614</t>
+          <t>BCIO:006045</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation of an alternative behaviour</t>
+          <t>cognitive schema</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation of one’s behaviour</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation of one’s behaviour&gt; that the person could enact instead of one that they have enacted or are enacting.</t>
+          <t>A &lt;mental disposition&gt; that when activated, guides an interconnected network of perception, thought, emotion or behaviour.</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
-      <c r="F158" s="2" t="inlineStr"/>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>A collection of interconnected perceptions, thoughts, emotions and behaviours.</t>
+        </is>
+      </c>
       <c r="G158" s="2" t="inlineStr"/>
       <c r="H158" s="2" t="inlineStr"/>
       <c r="I158" s="2" t="inlineStr"/>
@@ -9982,22 +9972,22 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050615</t>
+          <t>BCIO:006007</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation of one’s behaviour</t>
+          <t>cognitive self-regulation capability</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation of a behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; of a behaviour that the person is enacting or has enacted.</t>
+          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's cognitive processes. </t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
@@ -10040,30 +10030,26 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006045</t>
+          <t>BCIO:050852</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>cognitive substitution</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that when activated, guides an interconnected network of perception, thought, emotion or behaviour.</t>
+          <t>A &lt;cognitive process&gt; in which a person substitutes a more desired thought process for a less desired thought process.</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>A collection of interconnected perceptions, thoughts, emotions and behaviours.</t>
-        </is>
-      </c>
+      <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr"/>
       <c r="H160" s="2" t="inlineStr"/>
       <c r="I160" s="2" t="inlineStr"/>
@@ -10102,29 +10088,33 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006007</t>
+          <t>BCIO:050616</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>cognitive self-regulation capability</t>
+          <t>communication skill</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's cognitive processes. </t>
+          <t>A &lt;social skill&gt; that is realised as effective communication behaviour</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr"/>
       <c r="H161" s="2" t="inlineStr"/>
-      <c r="I161" s="2" t="inlineStr"/>
+      <c r="I161" s="2" t="inlineStr">
+        <is>
+          <t>Capability is broader than skill (includes, for example,mental stamina, resilience)</t>
+        </is>
+      </c>
       <c r="J161" s="2" t="inlineStr"/>
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr"/>
@@ -10160,22 +10150,22 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050852</t>
+          <t>BCIO:050617</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>cognitive substitution</t>
+          <t>comparative desirability appraisal</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive process&gt; in which a person substitutes a more desired thought process for a less desired thought process.</t>
+          <t>An &lt;emotional-relevance appraisal&gt; that involves a relative desirability of two or more entities.</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
@@ -10218,33 +10208,29 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050616</t>
+          <t>BCIO:050618</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>communication skill</t>
+          <t>comparative evaluation process</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social skill&gt; that is realised as effective communication behaviour</t>
+          <t>&lt;Judging&gt; that involves comparing aspects of entities.</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr"/>
       <c r="H163" s="2" t="inlineStr"/>
-      <c r="I163" s="2" t="inlineStr">
-        <is>
-          <t>Capability is broader than skill (includes, for example,mental stamina, resilience)</t>
-        </is>
-      </c>
+      <c r="I163" s="2" t="inlineStr"/>
       <c r="J163" s="2" t="inlineStr"/>
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr"/>
@@ -10280,22 +10266,22 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050617</t>
+          <t>BCIO:050853</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>comparative desirability appraisal</t>
+          <t>comparison of current behaviour with a standard</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>comparison of current situation with a standard</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal&gt; that involves a relative desirability of two or more entities.</t>
+          <t>&lt;Comparison of current situation with a standard&gt; where the focus is on current behaviour.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -10338,22 +10324,22 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050618</t>
+          <t>BCIO:050619</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
+          <t>comparison of current situation with a standard</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
           <t>comparative evaluation process</t>
         </is>
       </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>&lt;Judging&gt; that involves comparing aspects of entities.</t>
+          <t>A &lt;comparative evaluation process&gt; that compares the current situation with a standard or benchmark.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
@@ -10396,22 +10382,22 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050853</t>
+          <t>BCIO:006110</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>comparison of current behaviour with a standard</t>
+          <t>comprehension</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>comparison of current situation with a standard</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>&lt;Comparison of current situation with a standard&gt; where the focus is on current behaviour.</t>
+          <t>A &lt;cognitive process&gt; that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -10454,22 +10440,22 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050619</t>
+          <t>BCIO:050620</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>comparison of current situation with a standard</t>
+          <t>conditioned positive reinforcer</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>comparative evaluation process</t>
+          <t>conditioned reinforcer</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>A &lt;comparative evaluation process&gt; that compares the current situation with a standard or benchmark.</t>
+          <t>A &lt;conditioned reinforcer&gt; that has acquired its reinforcing property by having been associated with a positive reinforcer.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -10512,22 +10498,22 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006110</t>
+          <t>BCIO:050621</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>comprehension</t>
+          <t>conditioned reinforcer</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>reinforcer</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive process&gt; that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+          <t>A &lt;reinforcer&gt; whose effect on behaviour results from being paired with another reinforcer</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
@@ -10568,82 +10554,90 @@
       <c r="X168" s="2" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050620</t>
-        </is>
-      </c>
-      <c r="B169" s="2" t="inlineStr">
-        <is>
-          <t>conditioned positive reinforcer</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>conditioned reinforcer</t>
-        </is>
-      </c>
-      <c r="D169" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;conditioned reinforcer&gt; that has acquired its reinforcing property by having been associated with a positive reinforcer.</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="inlineStr"/>
-      <c r="F169" s="2" t="inlineStr"/>
-      <c r="G169" s="2" t="inlineStr"/>
-      <c r="H169" s="2" t="inlineStr"/>
-      <c r="I169" s="2" t="inlineStr"/>
-      <c r="J169" s="2" t="inlineStr"/>
-      <c r="K169" s="2" t="inlineStr"/>
-      <c r="L169" s="2" t="inlineStr"/>
-      <c r="M169" s="2" t="inlineStr"/>
-      <c r="N169" s="2" t="inlineStr"/>
-      <c r="O169" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P169" s="2" t="inlineStr"/>
-      <c r="Q169" s="2" t="inlineStr"/>
-      <c r="R169" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S169" s="2" t="inlineStr"/>
-      <c r="T169" s="2" t="inlineStr"/>
-      <c r="U169" s="2" t="inlineStr"/>
-      <c r="V169" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W169" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X169" s="2" t="inlineStr"/>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>MF:0000017</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>consciousness</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and intends the object or event that the mental process is about, should such exist; it confers intentionality on the mental process.</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>A subjective experience of one’s inner or outer world, which can include experience of one's own mental processes.</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>conscious awareness</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050621</t>
+          <t>BCIO:050622</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>conditioned reinforcer</t>
+          <t>control over one’s life</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>reinforcer</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A &lt;reinforcer&gt; whose effect on behaviour results from being paired with another reinforcer</t>
+          <t>An &lt;environmental disposition&gt; that is the extent to which the person can control what happens to them.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
@@ -10684,90 +10678,82 @@
       <c r="X170" s="2" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>MF:0000017</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>consciousness</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and intends the object or event that the mental process is about, should such exist; it confers intentionality on the mental process.</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>A subjective experience of one’s inner or outer world, which can include experience of one's own mental processes.</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>conscious awareness</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S171" t="inlineStr"/>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W171" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X171" t="inlineStr"/>
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050623</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>coping efficacy belief</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>belief about likelihood of consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;belief about likelihood of consequences of a behaviour&gt; in terms of coping.</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr"/>
+      <c r="F171" s="2" t="inlineStr"/>
+      <c r="G171" s="2" t="inlineStr"/>
+      <c r="H171" s="2" t="inlineStr"/>
+      <c r="I171" s="2" t="inlineStr"/>
+      <c r="J171" s="2" t="inlineStr"/>
+      <c r="K171" s="2" t="inlineStr"/>
+      <c r="L171" s="2" t="inlineStr"/>
+      <c r="M171" s="2" t="inlineStr"/>
+      <c r="N171" s="2" t="inlineStr"/>
+      <c r="O171" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P171" s="2" t="inlineStr"/>
+      <c r="Q171" s="2" t="inlineStr"/>
+      <c r="R171" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S171" s="2" t="inlineStr"/>
+      <c r="T171" s="2" t="inlineStr"/>
+      <c r="U171" s="2" t="inlineStr"/>
+      <c r="V171" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W171" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X171" s="2" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050622</t>
+          <t>BCIO:050624</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>control over one’s life</t>
+          <t>coping planning</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>An &lt;environmental disposition&gt; that is the extent to which the person can control what happens to them.</t>
+          <t>&lt;Planning&gt; that involves identifying and attempting to overcome barriers to enacting a behaviour.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
@@ -10808,273 +10794,277 @@
       <c r="X172" s="2" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050623</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>coping efficacy belief</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>belief about likelihood of consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;belief about likelihood of consequences of a behaviour&gt; in terms of coping.</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr"/>
-      <c r="F173" s="2" t="inlineStr"/>
-      <c r="G173" s="2" t="inlineStr"/>
-      <c r="H173" s="2" t="inlineStr"/>
-      <c r="I173" s="2" t="inlineStr"/>
-      <c r="J173" s="2" t="inlineStr"/>
-      <c r="K173" s="2" t="inlineStr"/>
-      <c r="L173" s="2" t="inlineStr"/>
-      <c r="M173" s="2" t="inlineStr"/>
-      <c r="N173" s="2" t="inlineStr"/>
-      <c r="O173" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P173" s="2" t="inlineStr"/>
-      <c r="Q173" s="2" t="inlineStr"/>
-      <c r="R173" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S173" s="2" t="inlineStr"/>
-      <c r="T173" s="2" t="inlineStr"/>
-      <c r="U173" s="2" t="inlineStr"/>
-      <c r="V173" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W173" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X173" s="2" t="inlineStr"/>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>MFOEM:000020</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>core disgust</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>&lt;Disgust&gt; elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050624</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>coping planning</t>
-        </is>
-      </c>
-      <c r="C174" s="2" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="inlineStr">
-        <is>
-          <t>&lt;Planning&gt; that involves identifying and attempting to overcome barriers to enacting a behaviour.</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="inlineStr"/>
-      <c r="F174" s="2" t="inlineStr"/>
-      <c r="G174" s="2" t="inlineStr"/>
-      <c r="H174" s="2" t="inlineStr"/>
-      <c r="I174" s="2" t="inlineStr"/>
-      <c r="J174" s="2" t="inlineStr"/>
-      <c r="K174" s="2" t="inlineStr"/>
-      <c r="L174" s="2" t="inlineStr"/>
-      <c r="M174" s="2" t="inlineStr"/>
-      <c r="N174" s="2" t="inlineStr"/>
-      <c r="O174" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P174" s="2" t="inlineStr"/>
-      <c r="Q174" s="2" t="inlineStr"/>
-      <c r="R174" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S174" s="2" t="inlineStr"/>
-      <c r="T174" s="2" t="inlineStr"/>
-      <c r="U174" s="2" t="inlineStr"/>
-      <c r="V174" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W174" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X174" s="2" t="inlineStr"/>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000511</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>craving</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>A &lt;subjective affective feeling&gt; involving a strong desire or urge.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>RW: I've made the edits I suggest pending agreement from the rest of the team 23 Feb 22</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>MFOEM:000020</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>core disgust</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>&lt;Disgust&gt; elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W175" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X175" t="inlineStr"/>
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006047</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>decision</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A &lt;mental disposition&gt; to represent one proposition as preferred from at least two. </t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr"/>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>A conclusion or resolution reached after consideration of options.</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="inlineStr"/>
+      <c r="H175" s="2" t="inlineStr"/>
+      <c r="I175" s="2" t="inlineStr">
+        <is>
+          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="inlineStr"/>
+      <c r="K175" s="2" t="inlineStr"/>
+      <c r="L175" s="2" t="inlineStr"/>
+      <c r="M175" s="2" t="inlineStr"/>
+      <c r="N175" s="2" t="inlineStr"/>
+      <c r="O175" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P175" s="2" t="inlineStr"/>
+      <c r="Q175" s="2" t="inlineStr"/>
+      <c r="R175" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S175" s="2" t="inlineStr"/>
+      <c r="T175" s="2" t="inlineStr"/>
+      <c r="U175" s="2" t="inlineStr"/>
+      <c r="V175" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W175" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X175" s="2" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000511</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>craving</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>A &lt;subjective affective feeling&gt; involving a strong desire or urge.</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr">
-        <is>
-          <t>RW: I've made the edits I suggest pending agreement from the rest of the team 23 Feb 22</t>
-        </is>
-      </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S176" t="inlineStr"/>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" t="inlineStr"/>
-      <c r="V176" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W176" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X176" t="inlineStr"/>
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006111</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">decision simplification </t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;cognitive process&gt; used prior to decision-making that reduces the perceived scope or complexity of available options.</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr"/>
+      <c r="F176" s="2" t="inlineStr"/>
+      <c r="G176" s="2" t="inlineStr"/>
+      <c r="H176" s="2" t="inlineStr"/>
+      <c r="I176" s="2" t="inlineStr"/>
+      <c r="J176" s="2" t="inlineStr"/>
+      <c r="K176" s="2" t="inlineStr"/>
+      <c r="L176" s="2" t="inlineStr"/>
+      <c r="M176" s="2" t="inlineStr"/>
+      <c r="N176" s="2" t="inlineStr"/>
+      <c r="O176" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P176" s="2" t="inlineStr"/>
+      <c r="Q176" s="2" t="inlineStr"/>
+      <c r="R176" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S176" s="2" t="inlineStr"/>
+      <c r="T176" s="2" t="inlineStr"/>
+      <c r="U176" s="2" t="inlineStr"/>
+      <c r="V176" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W176" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X176" s="2" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006047</t>
+          <t>BCIO:006116</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;mental disposition&gt; to represent one proposition as preferred from at least two. </t>
+          <t>&lt;Judging&gt; in which one or more propositions or behaviours are identified as preferred from a larger number.</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>A conclusion or resolution reached after consideration of options.</t>
-        </is>
-      </c>
+      <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr"/>
       <c r="H177" s="2" t="inlineStr"/>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
+          <t>The output of decision-making is a decision.</t>
         </is>
       </c>
       <c r="J177" s="2" t="inlineStr"/>
@@ -11112,22 +11102,22 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006111</t>
+          <t>BCIO:050854</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">decision simplification </t>
+          <t>decisional balance process about changing behaviour</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive process&gt; used prior to decision-making that reduces the perceived scope or complexity of available options.</t>
+          <t>&lt;Decision-making&gt; in which the person compares the pros and cons of changing a behaviour pattern.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
@@ -11170,33 +11160,29 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006116</t>
+          <t>BCIO:050625</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t>deductive reasoning</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>reflective reasoning</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>&lt;Judging&gt; in which one or more propositions or behaviours are identified as preferred from a larger number.</t>
+          <t>&lt;Reflective reasoning&gt; in which general propositions are used to draw more specific conclusions.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr"/>
       <c r="H179" s="2" t="inlineStr"/>
-      <c r="I179" s="2" t="inlineStr">
-        <is>
-          <t>The output of decision-making is a decision.</t>
-        </is>
-      </c>
+      <c r="I179" s="2" t="inlineStr"/>
       <c r="J179" s="2" t="inlineStr"/>
       <c r="K179" s="2" t="inlineStr"/>
       <c r="L179" s="2" t="inlineStr"/>
@@ -11232,22 +11218,22 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050854</t>
+          <t>BCIO:050855</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>decisional balance process about changing behaviour</t>
+          <t>denial belief</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>&lt;Decision-making&gt; in which the person compares the pros and cons of changing a behaviour pattern.</t>
+          <t>A &lt;belief&gt; that a proposition is not true, not important or not relevant.</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
@@ -11290,29 +11276,33 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050625</t>
+          <t>BCIO:050856</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>deductive reasoning</t>
+          <t>denial belief about a need</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>reflective reasoning</t>
+          <t xml:space="preserve">denial belief </t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>&lt;Reflective reasoning&gt; in which general propositions are used to draw more specific conclusions.</t>
+          <t>A &lt;denial belief&gt; that holds that the person does not have a specific bodily or psychological need in a given scenario.</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
       <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr"/>
       <c r="H181" s="2" t="inlineStr"/>
-      <c r="I181" s="2" t="inlineStr"/>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>This can include any type of need.</t>
+        </is>
+      </c>
       <c r="J181" s="2" t="inlineStr"/>
       <c r="K181" s="2" t="inlineStr"/>
       <c r="L181" s="2" t="inlineStr"/>
@@ -11348,22 +11338,22 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050855</t>
+          <t>BCIO:050857</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>denial belief</t>
+          <t>denial belief about a responsibility to act</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t xml:space="preserve">denial belief </t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; that a proposition is not true, not important or not relevant.</t>
+          <t>A &lt;denial belief&gt; that holds that the person has no responsibility to act to address a problem.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
@@ -11406,12 +11396,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050856</t>
+          <t>BCIO:050858</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>denial belief about a need</t>
+          <t>denial belief about norm relevance</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -11421,18 +11411,14 @@
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>A &lt;denial belief&gt; that holds that the person does not have a specific bodily or psychological need in a given scenario.</t>
+          <t>A &lt;denial belief&gt; that holds that a norm is not relevant in a given scenario.</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
       <c r="F183" s="2" t="inlineStr"/>
       <c r="G183" s="2" t="inlineStr"/>
       <c r="H183" s="2" t="inlineStr"/>
-      <c r="I183" s="2" t="inlineStr">
-        <is>
-          <t>This can include any type of need.</t>
-        </is>
-      </c>
+      <c r="I183" s="2" t="inlineStr"/>
       <c r="J183" s="2" t="inlineStr"/>
       <c r="K183" s="2" t="inlineStr"/>
       <c r="L183" s="2" t="inlineStr"/>
@@ -11468,22 +11454,22 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050857</t>
+          <t>BCIO:050626</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>denial belief about a responsibility to act</t>
+          <t>depressed mood</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">denial belief </t>
+          <t>mood process</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>A &lt;denial belief&gt; that holds that the person has no responsibility to act to address a problem.</t>
+          <t>A &lt;mood process&gt; that involves generally feeling sad or blunted and experiencing low motivation to engage with activities.</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -11526,22 +11512,22 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050858</t>
+          <t>BCIO:050627</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>denial belief about norm relevance</t>
+          <t>depressive disposition</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">denial belief </t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>A &lt;denial belief&gt; that holds that a norm is not relevant in a given scenario.</t>
+          <t>A &lt;mental disposition&gt; to experience depressed mood.</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
@@ -11584,22 +11570,22 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050626</t>
+          <t>BCIO:050859</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>depressed mood</t>
+          <t>desired self-regulatory standard</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>mood process</t>
+          <t>desired standard</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mood process&gt; that involves generally feeling sad or blunted and experiencing low motivation to engage with activities.</t>
+          <t>A &lt;desired standard&gt; for a self-regulatory process that the person wishes to enact.</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
@@ -11642,29 +11628,33 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050627</t>
+          <t>BCIO:006079</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>depressive disposition</t>
+          <t>desired standard</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to experience depressed mood.</t>
+          <t>A &lt;cognitive representation&gt; of a reference level that an individual wishes to obtain.</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr"/>
       <c r="H187" s="2" t="inlineStr"/>
-      <c r="I187" s="2" t="inlineStr"/>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>Examples of 'reference level' are the level of a behaviour and the blood glucose level.</t>
+        </is>
+      </c>
       <c r="J187" s="2" t="inlineStr"/>
       <c r="K187" s="2" t="inlineStr"/>
       <c r="L187" s="2" t="inlineStr"/>
@@ -11700,12 +11690,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050859</t>
+          <t>BCIO:050860</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>desired self-regulatory standard</t>
+          <t>desired standard for self-identity</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -11715,7 +11705,7 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>A &lt;desired standard&gt; for a self-regulatory process that the person wishes to enact.</t>
+          <t>A &lt;desired standard&gt; for a self-identity that the person wishes to attain.</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
@@ -11758,22 +11748,22 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006079</t>
+          <t>BCIO:050628</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>desired standard</t>
+          <t>differential reinforcement</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>reinforcement process</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; of a reference level that an individual wishes to obtain.</t>
+          <t>A &lt;reinforcement process&gt; in which the event following the behaviour only occurs in particular situations.</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
@@ -11782,7 +11772,7 @@
       <c r="H189" s="2" t="inlineStr"/>
       <c r="I189" s="2" t="inlineStr">
         <is>
-          <t>Examples of 'reference level' are the level of a behaviour and the blood glucose level.</t>
+          <t>The situations could involve the presence of a stimulus (discriminative stimulus) that signals the contingency. A discriminative stimulus signals that a behaviour will be followed by a particular reinforcer.</t>
         </is>
       </c>
       <c r="J189" s="2" t="inlineStr"/>
@@ -11820,22 +11810,22 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050860</t>
+          <t>BCIO:006121</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>desired standard for self-identity</t>
+          <t>discrimination learning</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>desired standard</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>A &lt;desired standard&gt; for a self-identity that the person wishes to attain.</t>
+          <t>&lt;Associative learning&gt; in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
@@ -11878,22 +11868,22 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050628</t>
+          <t>BCIO:050629</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>differential reinforcement</t>
+          <t>discriminative stimulus</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>reinforcement process</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A &lt;reinforcement process&gt; in which the event following the behaviour only occurs in particular situations.</t>
+          <t>A &lt;stimulus&gt; that signals that a behaviour will be followed by a particular reinforcer.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -11902,7 +11892,7 @@
       <c r="H191" s="2" t="inlineStr"/>
       <c r="I191" s="2" t="inlineStr">
         <is>
-          <t>The situations could involve the presence of a stimulus (discriminative stimulus) that signals the contingency. A discriminative stimulus signals that a behaviour will be followed by a particular reinforcer.</t>
+          <t>Specific refers to an instance or subclass of something rather than anything in the general class. Particular refers to an instance or subclass of something rather than another instance or subclass of it.</t>
         </is>
       </c>
       <c r="J191" s="2" t="inlineStr"/>
@@ -11940,22 +11930,22 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006121</t>
+          <t>BCIO:050227</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>discrimination learning</t>
+          <t>disengagement due to workload</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>&lt;Associative learning&gt; in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
+          <t>A &lt;mental disposition&gt; to be detached from other people due to exhaustion experienced in one's working environment.</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
@@ -11996,86 +11986,78 @@
       <c r="X192" s="2" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050629</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>discriminative stimulus</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>stimulus</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;stimulus&gt; that signals that a behaviour will be followed by a particular reinforcer.</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr"/>
-      <c r="F193" s="2" t="inlineStr"/>
-      <c r="G193" s="2" t="inlineStr"/>
-      <c r="H193" s="2" t="inlineStr"/>
-      <c r="I193" s="2" t="inlineStr">
-        <is>
-          <t>Specific refers to an instance or subclass of something rather than anything in the general class. Particular refers to an instance or subclass of something rather than another instance or subclass of it.</t>
-        </is>
-      </c>
-      <c r="J193" s="2" t="inlineStr"/>
-      <c r="K193" s="2" t="inlineStr"/>
-      <c r="L193" s="2" t="inlineStr"/>
-      <c r="M193" s="2" t="inlineStr"/>
-      <c r="N193" s="2" t="inlineStr"/>
-      <c r="O193" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P193" s="2" t="inlineStr"/>
-      <c r="Q193" s="2" t="inlineStr"/>
-      <c r="R193" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S193" s="2" t="inlineStr"/>
-      <c r="T193" s="2" t="inlineStr"/>
-      <c r="U193" s="2" t="inlineStr"/>
-      <c r="V193" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W193" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X193" s="2" t="inlineStr"/>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000019 </t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050227</t>
+          <t>BCIO:050630</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>disengagement due to workload</t>
+          <t>disposition to attend to one’s goals</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>attentional disposition</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to be detached from other people due to exhaustion experienced in one's working environment.</t>
+          <t>An &lt;attentional disposition&gt; to attend to one's goals.</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
@@ -12116,78 +12098,82 @@
       <c r="X194" s="2" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000019 </t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S195" t="inlineStr"/>
-      <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
-      <c r="V195" t="inlineStr"/>
-      <c r="W195" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X195" t="inlineStr"/>
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006113</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>dissonance reduction process</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;bodily process&gt; through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr"/>
+      <c r="F195" s="2" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr"/>
+      <c r="H195" s="2" t="inlineStr"/>
+      <c r="I195" s="2" t="inlineStr"/>
+      <c r="J195" s="2" t="inlineStr"/>
+      <c r="K195" s="2" t="inlineStr"/>
+      <c r="L195" s="2" t="inlineStr"/>
+      <c r="M195" s="2" t="inlineStr"/>
+      <c r="N195" s="2" t="inlineStr"/>
+      <c r="O195" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P195" s="2" t="inlineStr"/>
+      <c r="Q195" s="2" t="inlineStr"/>
+      <c r="R195" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S195" s="2" t="inlineStr"/>
+      <c r="T195" s="2" t="inlineStr"/>
+      <c r="U195" s="2" t="inlineStr"/>
+      <c r="V195" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W195" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X195" s="2" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050630</t>
+          <t>BCIO:050631</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>disposition to attend to one’s goals</t>
+          <t>dissonance reduction process for a behaviour</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>attentional disposition</t>
+          <t>dissonance reduction process</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attentional disposition&gt; to attend to one's goals.</t>
+          <t>A &lt;dissonance reduction process&gt; in which the perceived discrepancy is between the person’s perceived behaviour and a target behaviour</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -12230,22 +12216,22 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006113</t>
+          <t>BCIO:050632</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
+          <t>dissonance reduction through behavior</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
           <t>dissonance reduction process</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
+          <t>&lt;Dissonance reduction process&gt; that involves behaviour to reduce the inconsistency of two concurrently held conditions.</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -12288,12 +12274,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050631</t>
+          <t>BCIO:050633</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction process for a behaviour</t>
+          <t>dissonance reduction through mental process</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -12303,7 +12289,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>A &lt;dissonance reduction process&gt; in which the perceived discrepancy is between the person’s perceived behaviour and a target behaviour</t>
+          <t>&lt;Dissonance reduction process&gt; that involves mental processes to reduce the inconsistency of two concurrently held conditions.</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -12346,22 +12332,22 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050632</t>
+          <t>BCIO:050634</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through behavior</t>
+          <t>drive process</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction process</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction process&gt; that involves behaviour to reduce the inconsistency of two concurrently held conditions.</t>
+          <t>A &lt;behavioural motivation&gt; that results from a physiological need.</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -12404,22 +12390,22 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050633</t>
+          <t>BCIO:050635</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through mental process</t>
+          <t xml:space="preserve">economic environmental system </t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction process</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction process&gt; that involves mental processes to reduce the inconsistency of two concurrently held conditions.</t>
+          <t>A &lt;social environmental system&gt; of production, resource allocation and distribution of goods and services within a society or a given geographic area.</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr"/>
@@ -12445,7 +12431,11 @@
         </is>
       </c>
       <c r="S200" s="2" t="inlineStr"/>
-      <c r="T200" s="2" t="inlineStr"/>
+      <c r="T200" s="2" t="inlineStr">
+        <is>
+          <t>economic system (GSSO:003812)</t>
+        </is>
+      </c>
       <c r="U200" s="2" t="inlineStr"/>
       <c r="V200" s="2" t="inlineStr">
         <is>
@@ -12460,82 +12450,82 @@
       <c r="X200" s="2" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050634</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>drive process</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>behavioural motivation</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;behavioural motivation&gt; that results from a physiological need.</t>
-        </is>
-      </c>
-      <c r="E201" s="2" t="inlineStr"/>
-      <c r="F201" s="2" t="inlineStr"/>
-      <c r="G201" s="2" t="inlineStr"/>
-      <c r="H201" s="2" t="inlineStr"/>
-      <c r="I201" s="2" t="inlineStr"/>
-      <c r="J201" s="2" t="inlineStr"/>
-      <c r="K201" s="2" t="inlineStr"/>
-      <c r="L201" s="2" t="inlineStr"/>
-      <c r="M201" s="2" t="inlineStr"/>
-      <c r="N201" s="2" t="inlineStr"/>
-      <c r="O201" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P201" s="2" t="inlineStr"/>
-      <c r="Q201" s="2" t="inlineStr"/>
-      <c r="R201" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S201" s="2" t="inlineStr"/>
-      <c r="T201" s="2" t="inlineStr"/>
-      <c r="U201" s="2" t="inlineStr"/>
-      <c r="V201" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W201" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X201" s="2" t="inlineStr"/>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ENVO:01001110</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ecosystem</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>An &lt;environmental system&gt; which includes both living and non-living components.</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050635</t>
+          <t>BCIO:050861</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic environmental system </t>
+          <t>efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social environmental system&gt; of production, resource allocation and distribution of goods and services within a society or a given geographic area.</t>
+          <t xml:space="preserve">A &lt;belief&gt; about some person’s capability to organise and execute a behaviour and achieve the outcomes associated with this behaviour. </t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
@@ -12561,11 +12551,7 @@
         </is>
       </c>
       <c r="S202" s="2" t="inlineStr"/>
-      <c r="T202" s="2" t="inlineStr">
-        <is>
-          <t>economic system (GSSO:003812)</t>
-        </is>
-      </c>
+      <c r="T202" s="2" t="inlineStr"/>
       <c r="U202" s="2" t="inlineStr"/>
       <c r="V202" s="2" t="inlineStr">
         <is>
@@ -12580,82 +12566,82 @@
       <c r="X202" s="2" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>ENVO:01001110</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>ecosystem</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>An &lt;environmental system&gt; which includes both living and non-living components.</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr"/>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S203" t="inlineStr"/>
-      <c r="T203" t="inlineStr"/>
-      <c r="U203" t="inlineStr"/>
-      <c r="V203" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W203" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X203" t="inlineStr"/>
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050636</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>egoistic personal health value</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>egoistic personal value</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;egoistic personal value&gt; that involves regarding health as fundamentally important in life.</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr"/>
+      <c r="F203" s="2" t="inlineStr"/>
+      <c r="G203" s="2" t="inlineStr"/>
+      <c r="H203" s="2" t="inlineStr"/>
+      <c r="I203" s="2" t="inlineStr"/>
+      <c r="J203" s="2" t="inlineStr"/>
+      <c r="K203" s="2" t="inlineStr"/>
+      <c r="L203" s="2" t="inlineStr"/>
+      <c r="M203" s="2" t="inlineStr"/>
+      <c r="N203" s="2" t="inlineStr"/>
+      <c r="O203" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P203" s="2" t="inlineStr"/>
+      <c r="Q203" s="2" t="inlineStr"/>
+      <c r="R203" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S203" s="2" t="inlineStr"/>
+      <c r="T203" s="2" t="inlineStr"/>
+      <c r="U203" s="2" t="inlineStr"/>
+      <c r="V203" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W203" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X203" s="2" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050861</t>
+          <t>BCIO:050637</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>efficacy belief for a behaviour and its associated outcomes</t>
+          <t>egoistic personal value</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;belief&gt; about some person’s capability to organise and execute a behaviour and achieve the outcomes associated with this behaviour. </t>
+          <t>A &lt;personal value&gt; that involves regarding self-interest as fundamentally important in life.</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
@@ -12698,22 +12684,22 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050636</t>
+          <t>BCIO:050638</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>egoistic personal health value</t>
+          <t>emotion about self</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>egoistic personal value</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>An &lt;egoistic personal value&gt; that involves regarding health as fundamentally important in life.</t>
+          <t>An &lt;emotion process&gt; that is about oneself.</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
@@ -12754,345 +12740,355 @@
       <c r="X205" s="2" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050637</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>egoistic personal value</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>personal value</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;personal value&gt; that involves regarding self-interest as fundamentally important in life.</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="inlineStr"/>
-      <c r="F206" s="2" t="inlineStr"/>
-      <c r="G206" s="2" t="inlineStr"/>
-      <c r="H206" s="2" t="inlineStr"/>
-      <c r="I206" s="2" t="inlineStr"/>
-      <c r="J206" s="2" t="inlineStr"/>
-      <c r="K206" s="2" t="inlineStr"/>
-      <c r="L206" s="2" t="inlineStr"/>
-      <c r="M206" s="2" t="inlineStr"/>
-      <c r="N206" s="2" t="inlineStr"/>
-      <c r="O206" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P206" s="2" t="inlineStr"/>
-      <c r="Q206" s="2" t="inlineStr"/>
-      <c r="R206" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S206" s="2" t="inlineStr"/>
-      <c r="T206" s="2" t="inlineStr"/>
-      <c r="U206" s="2" t="inlineStr"/>
-      <c r="V206" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W206" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X206" s="2" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050638</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>emotion about self</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000001 </t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D207" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;emotion process&gt; that is about oneself.</t>
-        </is>
-      </c>
-      <c r="E207" s="2" t="inlineStr"/>
-      <c r="F207" s="2" t="inlineStr"/>
-      <c r="G207" s="2" t="inlineStr"/>
-      <c r="H207" s="2" t="inlineStr"/>
-      <c r="I207" s="2" t="inlineStr"/>
-      <c r="J207" s="2" t="inlineStr"/>
-      <c r="K207" s="2" t="inlineStr"/>
-      <c r="L207" s="2" t="inlineStr"/>
-      <c r="M207" s="2" t="inlineStr"/>
-      <c r="N207" s="2" t="inlineStr"/>
-      <c r="O207" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P207" s="2" t="inlineStr"/>
-      <c r="Q207" s="2" t="inlineStr"/>
-      <c r="R207" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S207" s="2" t="inlineStr"/>
-      <c r="T207" s="2" t="inlineStr"/>
-      <c r="U207" s="2" t="inlineStr"/>
-      <c r="V207" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W207" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X207" s="2" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000001 </t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>An &lt;affective process&gt; that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr">
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
         <is>
           <t>There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal process does not necessarily precede a physiological process part of the emotion process). 
 Emotion processes are distinguished from other affective processes (e.g., mood) by having an object. Even if an emotion is experienced due to physiological reasons, they would be felt as being about something or someone. For instance, a person might be angry at a situation that they would normally not be angry at, because they are hungry. However, that person would still be angry at a specific situation. 
 Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr">
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S208" t="inlineStr"/>
-      <c r="T208" t="inlineStr"/>
-      <c r="U208" t="inlineStr"/>
-      <c r="V208" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W208" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X208" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>MFOEM:000007</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>emotional action tendency</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>A &lt;bodily disposition&gt; to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>A tendency to enact a behaviour that is experienced during or after an emotion.</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Flight and fight action tendencies</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>PS; BG</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050639</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>emotional opportunity</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;environmental disposition&gt; that is realised as some emotion process.</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>A feature of a person’s environment that tends to lead to their experiencing an emotion.</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr"/>
+      <c r="G208" s="2" t="inlineStr"/>
+      <c r="H208" s="2" t="inlineStr"/>
+      <c r="I208" s="2" t="inlineStr"/>
+      <c r="J208" s="2" t="inlineStr"/>
+      <c r="K208" s="2" t="inlineStr"/>
+      <c r="L208" s="2" t="inlineStr"/>
+      <c r="M208" s="2" t="inlineStr"/>
+      <c r="N208" s="2" t="inlineStr"/>
+      <c r="O208" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P208" s="2" t="inlineStr"/>
+      <c r="Q208" s="2" t="inlineStr"/>
+      <c r="R208" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S208" s="2" t="inlineStr"/>
+      <c r="T208" s="2" t="inlineStr"/>
+      <c r="U208" s="2" t="inlineStr"/>
+      <c r="V208" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W208" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X208" s="2" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>MFOEM:000007</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>emotional action tendency</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>A &lt;bodily disposition&gt; to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>A tendency to enact a behaviour that is experienced during or after an emotion.</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Flight and fight action tendencies</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr"/>
-      <c r="O209" t="inlineStr">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006008</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>emotional self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;self-regulation capability&gt; to modulate one's emotional responses to a stimulus.</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="inlineStr"/>
+      <c r="F209" s="2" t="inlineStr"/>
+      <c r="G209" s="2" t="inlineStr">
+        <is>
+          <t>emotional regulation capability</t>
+        </is>
+      </c>
+      <c r="H209" s="2" t="inlineStr"/>
+      <c r="I209" s="2" t="inlineStr"/>
+      <c r="J209" s="2" t="inlineStr"/>
+      <c r="K209" s="2" t="inlineStr"/>
+      <c r="L209" s="2" t="inlineStr"/>
+      <c r="M209" s="2" t="inlineStr"/>
+      <c r="N209" s="2" t="inlineStr"/>
+      <c r="O209" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P209" s="2" t="inlineStr"/>
+      <c r="Q209" s="2" t="inlineStr"/>
+      <c r="R209" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S209" s="2" t="inlineStr"/>
+      <c r="T209" s="2" t="inlineStr"/>
+      <c r="U209" s="2" t="inlineStr"/>
+      <c r="V209" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W209" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X209" s="2" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>MFOEM:000005</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>emotional-relevance appraisal</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>A &lt;cognitive representation&gt; of the emotional relevance of an object or event to the organism.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>An evaluation of a phenomenon or event's relevance and significance to oneself.</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Appraisals are a part of emotion processes, representing how a triggering stimulus is relevant to oneself. Appraisal captures the ‘aboutness’ of an emotion process.
+For instance, a stimulus (the image of a tiger) can produce different emotion processes depending on how the relevance of this stimulus is evaluated. The image of a tiger on TV would not be evaluated as dangerous. However, the image of a tiger two meters away from a person would be relevant to a person in terms of its dangerousness. Therefore, the appraisal of the dangerousness of the tiger would be part of the emotion process 'fear'.
+There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal does not necessarily precede a physiological process part of the emotion process).</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S209" t="inlineStr"/>
-      <c r="T209" t="inlineStr"/>
-      <c r="U209" t="inlineStr"/>
-      <c r="V209" t="inlineStr">
-        <is>
-          <t>PS; BG</t>
-        </is>
-      </c>
-      <c r="W209" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050639</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>emotional opportunity</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;environmental disposition&gt; that is realised as some emotion process.</t>
-        </is>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>A feature of a person’s environment that tends to lead to their experiencing an emotion.</t>
-        </is>
-      </c>
-      <c r="F210" s="2" t="inlineStr"/>
-      <c r="G210" s="2" t="inlineStr"/>
-      <c r="H210" s="2" t="inlineStr"/>
-      <c r="I210" s="2" t="inlineStr"/>
-      <c r="J210" s="2" t="inlineStr"/>
-      <c r="K210" s="2" t="inlineStr"/>
-      <c r="L210" s="2" t="inlineStr"/>
-      <c r="M210" s="2" t="inlineStr"/>
-      <c r="N210" s="2" t="inlineStr"/>
-      <c r="O210" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P210" s="2" t="inlineStr"/>
-      <c r="Q210" s="2" t="inlineStr"/>
-      <c r="R210" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S210" s="2" t="inlineStr"/>
-      <c r="T210" s="2" t="inlineStr"/>
-      <c r="U210" s="2" t="inlineStr"/>
-      <c r="V210" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W210" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X210" s="2" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006008</t>
+          <t>BCIO:050640</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>emotional self-regulation capability</t>
+          <t>emotional-relevance appraisal of possible consequences</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation capability&gt; to modulate one's emotional responses to a stimulus.</t>
+          <t>An &lt;emotional-relevance appraisal&gt; of all the imagined consequences of an occurrence or state of affairs.</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
       <c r="F211" s="2" t="inlineStr"/>
-      <c r="G211" s="2" t="inlineStr">
-        <is>
-          <t>emotional regulation capability</t>
-        </is>
-      </c>
+      <c r="G211" s="2" t="inlineStr"/>
       <c r="H211" s="2" t="inlineStr"/>
       <c r="I211" s="2" t="inlineStr"/>
       <c r="J211" s="2" t="inlineStr"/>
@@ -13128,62 +13124,66 @@
       <c r="X211" s="2" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050640</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>emotional-relevance appraisal of possible consequences</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>emotional-relevance appraisal</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;emotional-relevance appraisal&gt; of all the imagined consequences of an occurrence or state of affairs.</t>
-        </is>
-      </c>
-      <c r="E212" s="2" t="inlineStr"/>
-      <c r="F212" s="2" t="inlineStr"/>
-      <c r="G212" s="2" t="inlineStr"/>
-      <c r="H212" s="2" t="inlineStr"/>
-      <c r="I212" s="2" t="inlineStr"/>
-      <c r="J212" s="2" t="inlineStr"/>
-      <c r="K212" s="2" t="inlineStr"/>
-      <c r="L212" s="2" t="inlineStr"/>
-      <c r="M212" s="2" t="inlineStr"/>
-      <c r="N212" s="2" t="inlineStr"/>
-      <c r="O212" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P212" s="2" t="inlineStr"/>
-      <c r="Q212" s="2" t="inlineStr"/>
-      <c r="R212" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S212" s="2" t="inlineStr"/>
-      <c r="T212" s="2" t="inlineStr"/>
-      <c r="U212" s="2" t="inlineStr"/>
-      <c r="V212" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W212" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X212" s="2" t="inlineStr"/>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>MFOEM:000002</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>emotional-relevance appraisal process</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>A &lt;mental process&gt; that gives rise to an appraisal.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Evaluating something's relevance to oneself.</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
@@ -20893,8 +20893,10 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W341" s="2" t="b">
-        <v>1</v>
+      <c r="W341" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="X341" s="2" t="inlineStr"/>
     </row>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -6357,12 +6357,12 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>belief about the likelihood of consequences of a behaviour</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the likelihood of consequences of a behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to financial outcomes.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to financial outcomes.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -7538,7 +7538,7 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>belief about one’s social environment</t>
+          <t>belief about ones social environment</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -8135,7 +8135,7 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the consequences of a behaviour&gt; in terms of finance.</t>
+          <t>A &lt;belief about consequences of a behaviour&gt; in terms of finance.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
@@ -8188,12 +8188,12 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>belief about the health consequences of a behaviour</t>
+          <t>belief about health consequences of behaviour</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the health consequences of a behaviour&gt; in which the consequences are evaluated as negative.</t>
+          <t>A &lt;belief about health consequences of a behaviour&gt; in which the consequences are evaluated as negative.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -8130,7 +8130,7 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>belief about the consequences of a behaviour</t>
+          <t>belief about consequences of a behaviour</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -8312,12 +8312,12 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>belief about the emotional consequences of a behaviour</t>
+          <t>belief about emotional consequences of a behaviour</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the emotional consequences of a behaviour&gt; where the emotions are positive.</t>
+          <t>A &lt;belief about emotional consequences of a behaviour&gt; where the emotions are positive.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
@@ -8374,12 +8374,12 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>belief about the health consequences of a behaviour</t>
+          <t>belief about health consequences of behaviour</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the health consequences of a behaviour&gt; in which the consequences are evaluated as positive.</t>
+          <t>A &lt;belief about health consequences of behaviour&gt; in which the consequences are evaluated as positive.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -8436,12 +8436,12 @@
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>belief about the social consequences of a behaviour</t>
+          <t>belief about social consequences of behaviour</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the social consequences of a behaviour&gt; where those consequences are evaluated positively.</t>
+          <t>A &lt;belief about social consequences of behaviour&gt; where those consequences are evaluated positively.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -8130,12 +8130,12 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of a behaviour</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of a behaviour&gt; in terms of finance.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of finance.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -8312,12 +8312,12 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>belief about emotional consequences of a behaviour</t>
+          <t>belief about emotional consequences of behaviour</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about emotional consequences of a behaviour&gt; where the emotions are positive.</t>
+          <t>A &lt;belief about emotional consequences of behaviour&gt; where the emotions are positive.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation of a behaviour</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -14044,12 +14044,12 @@
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about the consequences of a behaviour</t>
+          <t>evaluative belief about the consequences of behaviour</t>
         </is>
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>An &lt;evaluative belief about the consequences of a behaviour&gt; in which those consequences are evaluated as negative.</t>
+          <t>An &lt;evaluative belief about the consequences of behaviour&gt; in which those consequences are evaluated as negative.</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -14102,12 +14102,12 @@
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about the consequences of a behaviour</t>
+          <t>evaluative belief about the consequences of behaviour</t>
         </is>
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>An &lt;evaluative belief about the consequences of a behaviour&gt; in which those consequences are evaluated as positive.</t>
+          <t>An &lt;evaluative belief about the consequences of behaviour&gt; in which those consequences are evaluated as positive.</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -15229,7 +15229,7 @@
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>feedback process</t>
+          <t>feedback process to a person</t>
         </is>
       </c>
       <c r="D247" s="2" t="inlineStr">
@@ -22281,7 +22281,7 @@
       </c>
       <c r="C364" s="2" t="inlineStr">
         <is>
-          <t>feedback process</t>
+          <t>feedback process to a person</t>
         </is>
       </c>
       <c r="D364" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -44,7 +44,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -2039,7 +2039,7 @@
       <c r="N26" s="3" t="inlineStr"/>
       <c r="O26" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P26" s="3" t="inlineStr"/>
@@ -3960,7 +3960,7 @@
       <c r="N58" s="3" t="inlineStr"/>
       <c r="O58" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P58" s="3" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2007,62 +2001,62 @@
       <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>BCIO:050799</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>appraisal of desirability</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>emotional-relevance appraisal</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>An &lt;emotional-relevance appraisal&gt; of the extent to which something is good or beneficial.</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr"/>
-      <c r="F26" s="3" t="inlineStr"/>
-      <c r="G26" s="3" t="inlineStr"/>
-      <c r="H26" s="3" t="inlineStr"/>
-      <c r="I26" s="3" t="inlineStr"/>
-      <c r="J26" s="3" t="inlineStr"/>
-      <c r="K26" s="3" t="inlineStr"/>
-      <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="inlineStr"/>
-      <c r="N26" s="3" t="inlineStr"/>
-      <c r="O26" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P26" s="3" t="inlineStr"/>
-      <c r="Q26" s="3" t="inlineStr"/>
-      <c r="R26" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S26" s="3" t="inlineStr"/>
-      <c r="T26" s="3" t="inlineStr"/>
-      <c r="U26" s="3" t="inlineStr"/>
-      <c r="V26" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W26" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X26" s="3" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr"/>
+      <c r="T26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3924,62 +3918,64 @@
       <c r="X57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>BCIO:050416</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>behavioural disposition</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr">
         <is>
           <t>A &lt;bodily disposition&gt; that is realised as some behaviour.</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr"/>
-      <c r="F58" s="3" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
-      <c r="G58" s="3" t="inlineStr"/>
-      <c r="H58" s="3" t="inlineStr"/>
-      <c r="I58" s="3" t="inlineStr"/>
-      <c r="J58" s="3" t="inlineStr"/>
-      <c r="K58" s="3" t="inlineStr"/>
-      <c r="L58" s="3" t="inlineStr"/>
-      <c r="M58" s="3" t="inlineStr"/>
-      <c r="N58" s="3" t="inlineStr"/>
-      <c r="O58" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P58" s="3" t="inlineStr"/>
-      <c r="Q58" s="3" t="inlineStr"/>
-      <c r="R58" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S58" s="3" t="inlineStr"/>
-      <c r="T58" s="3" t="inlineStr"/>
-      <c r="U58" s="3" t="inlineStr"/>
-      <c r="V58" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W58" s="3" t="inlineStr"/>
-      <c r="X58" s="3" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P58" s="2" t="inlineStr"/>
+      <c r="Q58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S58" s="2" t="inlineStr"/>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -9083,58 +9079,58 @@
       <c r="X143" s="2" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="4" t="inlineStr">
+      <c r="A144" s="3" t="inlineStr">
         <is>
           <t>BCIO:050304</t>
         </is>
       </c>
-      <c r="B144" s="4" t="inlineStr">
+      <c r="B144" s="3" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C144" s="4" t="inlineStr">
+      <c r="C144" s="3" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D144" s="4" t="inlineStr">
+      <c r="D144" s="3" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E144" s="4" t="inlineStr"/>
-      <c r="F144" s="4" t="inlineStr"/>
-      <c r="G144" s="4" t="inlineStr"/>
-      <c r="H144" s="4" t="inlineStr"/>
-      <c r="I144" s="4" t="inlineStr"/>
-      <c r="J144" s="4" t="inlineStr"/>
-      <c r="K144" s="4" t="inlineStr"/>
-      <c r="L144" s="4" t="inlineStr"/>
-      <c r="M144" s="4" t="inlineStr"/>
-      <c r="N144" s="4" t="inlineStr"/>
-      <c r="O144" s="4" t="inlineStr">
+      <c r="E144" s="3" t="inlineStr"/>
+      <c r="F144" s="3" t="inlineStr"/>
+      <c r="G144" s="3" t="inlineStr"/>
+      <c r="H144" s="3" t="inlineStr"/>
+      <c r="I144" s="3" t="inlineStr"/>
+      <c r="J144" s="3" t="inlineStr"/>
+      <c r="K144" s="3" t="inlineStr"/>
+      <c r="L144" s="3" t="inlineStr"/>
+      <c r="M144" s="3" t="inlineStr"/>
+      <c r="N144" s="3" t="inlineStr"/>
+      <c r="O144" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P144" s="4" t="inlineStr"/>
-      <c r="Q144" s="4" t="inlineStr"/>
-      <c r="R144" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S144" s="4" t="inlineStr"/>
-      <c r="T144" s="4" t="inlineStr"/>
-      <c r="U144" s="4" t="inlineStr"/>
-      <c r="V144" s="4" t="inlineStr"/>
-      <c r="W144" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X144" s="4" t="inlineStr"/>
+      <c r="P144" s="3" t="inlineStr"/>
+      <c r="Q144" s="3" t="inlineStr"/>
+      <c r="R144" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S144" s="3" t="inlineStr"/>
+      <c r="T144" s="3" t="inlineStr"/>
+      <c r="U144" s="3" t="inlineStr"/>
+      <c r="V144" s="3" t="inlineStr"/>
+      <c r="W144" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X144" s="3" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9203,58 +9199,58 @@
       <c r="X145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="4" t="inlineStr">
+      <c r="A146" s="3" t="inlineStr">
         <is>
           <t>BCIO:050305</t>
         </is>
       </c>
-      <c r="B146" s="4" t="inlineStr">
+      <c r="B146" s="3" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C146" s="4" t="inlineStr">
+      <c r="C146" s="3" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D146" s="4" t="inlineStr">
+      <c r="D146" s="3" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E146" s="4" t="inlineStr"/>
-      <c r="F146" s="4" t="inlineStr"/>
-      <c r="G146" s="4" t="inlineStr"/>
-      <c r="H146" s="4" t="inlineStr"/>
-      <c r="I146" s="4" t="inlineStr"/>
-      <c r="J146" s="4" t="inlineStr"/>
-      <c r="K146" s="4" t="inlineStr"/>
-      <c r="L146" s="4" t="inlineStr"/>
-      <c r="M146" s="4" t="inlineStr"/>
-      <c r="N146" s="4" t="inlineStr"/>
-      <c r="O146" s="4" t="inlineStr">
+      <c r="E146" s="3" t="inlineStr"/>
+      <c r="F146" s="3" t="inlineStr"/>
+      <c r="G146" s="3" t="inlineStr"/>
+      <c r="H146" s="3" t="inlineStr"/>
+      <c r="I146" s="3" t="inlineStr"/>
+      <c r="J146" s="3" t="inlineStr"/>
+      <c r="K146" s="3" t="inlineStr"/>
+      <c r="L146" s="3" t="inlineStr"/>
+      <c r="M146" s="3" t="inlineStr"/>
+      <c r="N146" s="3" t="inlineStr"/>
+      <c r="O146" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P146" s="4" t="inlineStr"/>
-      <c r="Q146" s="4" t="inlineStr"/>
-      <c r="R146" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S146" s="4" t="inlineStr"/>
-      <c r="T146" s="4" t="inlineStr"/>
-      <c r="U146" s="4" t="inlineStr"/>
-      <c r="V146" s="4" t="inlineStr"/>
-      <c r="W146" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X146" s="4" t="inlineStr"/>
+      <c r="P146" s="3" t="inlineStr"/>
+      <c r="Q146" s="3" t="inlineStr"/>
+      <c r="R146" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S146" s="3" t="inlineStr"/>
+      <c r="T146" s="3" t="inlineStr"/>
+      <c r="U146" s="3" t="inlineStr"/>
+      <c r="V146" s="3" t="inlineStr"/>
+      <c r="W146" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X146" s="3" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
@@ -14923,62 +14919,62 @@
       <c r="X241" s="2" t="inlineStr"/>
     </row>
     <row r="242">
-      <c r="A242" s="4" t="inlineStr">
+      <c r="A242" s="3" t="inlineStr">
         <is>
           <t>BCIO:050657</t>
         </is>
       </c>
-      <c r="B242" s="4" t="inlineStr">
+      <c r="B242" s="3" t="inlineStr">
         <is>
           <t>family behavioural consequence</t>
         </is>
       </c>
-      <c r="C242" s="4" t="inlineStr">
+      <c r="C242" s="3" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="D242" s="4" t="inlineStr">
+      <c r="D242" s="3" t="inlineStr">
         <is>
           <t>A &lt;social behavioural consequence&gt; of some family member.</t>
         </is>
       </c>
-      <c r="E242" s="4" t="inlineStr"/>
-      <c r="F242" s="4" t="inlineStr"/>
-      <c r="G242" s="4" t="inlineStr"/>
-      <c r="H242" s="4" t="inlineStr"/>
-      <c r="I242" s="4" t="inlineStr"/>
-      <c r="J242" s="4" t="inlineStr"/>
-      <c r="K242" s="4" t="inlineStr"/>
-      <c r="L242" s="4" t="inlineStr"/>
-      <c r="M242" s="4" t="inlineStr"/>
-      <c r="N242" s="4" t="inlineStr"/>
-      <c r="O242" s="4" t="inlineStr">
+      <c r="E242" s="3" t="inlineStr"/>
+      <c r="F242" s="3" t="inlineStr"/>
+      <c r="G242" s="3" t="inlineStr"/>
+      <c r="H242" s="3" t="inlineStr"/>
+      <c r="I242" s="3" t="inlineStr"/>
+      <c r="J242" s="3" t="inlineStr"/>
+      <c r="K242" s="3" t="inlineStr"/>
+      <c r="L242" s="3" t="inlineStr"/>
+      <c r="M242" s="3" t="inlineStr"/>
+      <c r="N242" s="3" t="inlineStr"/>
+      <c r="O242" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P242" s="4" t="inlineStr"/>
-      <c r="Q242" s="4" t="inlineStr"/>
-      <c r="R242" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S242" s="4" t="inlineStr"/>
-      <c r="T242" s="4" t="inlineStr"/>
-      <c r="U242" s="4" t="inlineStr"/>
-      <c r="V242" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W242" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X242" s="4" t="inlineStr"/>
+      <c r="P242" s="3" t="inlineStr"/>
+      <c r="Q242" s="3" t="inlineStr"/>
+      <c r="R242" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S242" s="3" t="inlineStr"/>
+      <c r="T242" s="3" t="inlineStr"/>
+      <c r="U242" s="3" t="inlineStr"/>
+      <c r="V242" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W242" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X242" s="3" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
@@ -22875,58 +22871,58 @@
       <c r="X373" s="2" t="inlineStr"/>
     </row>
     <row r="374">
-      <c r="A374" s="4" t="inlineStr">
+      <c r="A374" s="3" t="inlineStr">
         <is>
           <t>BCIO:050307</t>
         </is>
       </c>
-      <c r="B374" s="4" t="inlineStr">
+      <c r="B374" s="3" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C374" s="4" t="inlineStr">
+      <c r="C374" s="3" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D374" s="4" t="inlineStr">
+      <c r="D374" s="3" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E374" s="4" t="inlineStr"/>
-      <c r="F374" s="4" t="inlineStr"/>
-      <c r="G374" s="4" t="inlineStr"/>
-      <c r="H374" s="4" t="inlineStr"/>
-      <c r="I374" s="4" t="inlineStr"/>
-      <c r="J374" s="4" t="inlineStr"/>
-      <c r="K374" s="4" t="inlineStr"/>
-      <c r="L374" s="4" t="inlineStr"/>
-      <c r="M374" s="4" t="inlineStr"/>
-      <c r="N374" s="4" t="inlineStr"/>
-      <c r="O374" s="4" t="inlineStr">
+      <c r="E374" s="3" t="inlineStr"/>
+      <c r="F374" s="3" t="inlineStr"/>
+      <c r="G374" s="3" t="inlineStr"/>
+      <c r="H374" s="3" t="inlineStr"/>
+      <c r="I374" s="3" t="inlineStr"/>
+      <c r="J374" s="3" t="inlineStr"/>
+      <c r="K374" s="3" t="inlineStr"/>
+      <c r="L374" s="3" t="inlineStr"/>
+      <c r="M374" s="3" t="inlineStr"/>
+      <c r="N374" s="3" t="inlineStr"/>
+      <c r="O374" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P374" s="4" t="inlineStr"/>
-      <c r="Q374" s="4" t="inlineStr"/>
-      <c r="R374" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S374" s="4" t="inlineStr"/>
-      <c r="T374" s="4" t="inlineStr"/>
-      <c r="U374" s="4" t="inlineStr"/>
-      <c r="V374" s="4" t="inlineStr"/>
-      <c r="W374" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X374" s="4" t="inlineStr"/>
+      <c r="P374" s="3" t="inlineStr"/>
+      <c r="Q374" s="3" t="inlineStr"/>
+      <c r="R374" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S374" s="3" t="inlineStr"/>
+      <c r="T374" s="3" t="inlineStr"/>
+      <c r="U374" s="3" t="inlineStr"/>
+      <c r="V374" s="3" t="inlineStr"/>
+      <c r="W374" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X374" s="3" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="2" t="inlineStr">
@@ -26105,170 +26101,170 @@
       <c r="X427" t="inlineStr"/>
     </row>
     <row r="428">
-      <c r="A428" s="4" t="inlineStr">
+      <c r="A428" s="3" t="inlineStr">
         <is>
           <t>BCIO:050301</t>
         </is>
       </c>
-      <c r="B428" s="4" t="inlineStr">
+      <c r="B428" s="3" t="inlineStr">
         <is>
           <t>personal disposition</t>
         </is>
       </c>
-      <c r="C428" s="4" t="inlineStr">
+      <c r="C428" s="3" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="D428" s="4" t="inlineStr">
+      <c r="D428" s="3" t="inlineStr">
         <is>
           <t>A disposition that inheres in a person.</t>
         </is>
       </c>
-      <c r="E428" s="4" t="inlineStr"/>
-      <c r="F428" s="4" t="inlineStr">
+      <c r="E428" s="3" t="inlineStr"/>
+      <c r="F428" s="3" t="inlineStr">
         <is>
           <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
         </is>
       </c>
-      <c r="G428" s="4" t="inlineStr"/>
-      <c r="H428" s="4" t="inlineStr"/>
-      <c r="I428" s="4" t="inlineStr"/>
-      <c r="J428" s="4" t="inlineStr"/>
-      <c r="K428" s="4" t="inlineStr"/>
-      <c r="L428" s="4" t="inlineStr"/>
-      <c r="M428" s="4" t="inlineStr"/>
-      <c r="N428" s="4" t="inlineStr"/>
-      <c r="O428" s="4" t="inlineStr">
+      <c r="G428" s="3" t="inlineStr"/>
+      <c r="H428" s="3" t="inlineStr"/>
+      <c r="I428" s="3" t="inlineStr"/>
+      <c r="J428" s="3" t="inlineStr"/>
+      <c r="K428" s="3" t="inlineStr"/>
+      <c r="L428" s="3" t="inlineStr"/>
+      <c r="M428" s="3" t="inlineStr"/>
+      <c r="N428" s="3" t="inlineStr"/>
+      <c r="O428" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P428" s="4" t="inlineStr"/>
-      <c r="Q428" s="4" t="inlineStr"/>
-      <c r="R428" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S428" s="4" t="inlineStr"/>
-      <c r="T428" s="4" t="inlineStr"/>
-      <c r="U428" s="4" t="inlineStr"/>
-      <c r="V428" s="4" t="inlineStr"/>
-      <c r="W428" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X428" s="4" t="inlineStr"/>
+      <c r="P428" s="3" t="inlineStr"/>
+      <c r="Q428" s="3" t="inlineStr"/>
+      <c r="R428" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S428" s="3" t="inlineStr"/>
+      <c r="T428" s="3" t="inlineStr"/>
+      <c r="U428" s="3" t="inlineStr"/>
+      <c r="V428" s="3" t="inlineStr"/>
+      <c r="W428" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X428" s="3" t="inlineStr"/>
     </row>
     <row r="429">
-      <c r="A429" s="4" t="inlineStr">
+      <c r="A429" s="3" t="inlineStr">
         <is>
           <t>BCIO:050302</t>
         </is>
       </c>
-      <c r="B429" s="4" t="inlineStr">
+      <c r="B429" s="3" t="inlineStr">
         <is>
           <t>personal life attribute</t>
         </is>
       </c>
-      <c r="C429" s="4" t="inlineStr">
+      <c r="C429" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="D429" s="4" t="inlineStr">
+      <c r="D429" s="3" t="inlineStr">
         <is>
           <t>A process attribute that is an attribute of a life process.</t>
         </is>
       </c>
-      <c r="E429" s="4" t="inlineStr"/>
-      <c r="F429" s="4" t="inlineStr"/>
-      <c r="G429" s="4" t="inlineStr"/>
-      <c r="H429" s="4" t="inlineStr"/>
-      <c r="I429" s="4" t="inlineStr"/>
-      <c r="J429" s="4" t="inlineStr"/>
-      <c r="K429" s="4" t="inlineStr"/>
-      <c r="L429" s="4" t="inlineStr"/>
-      <c r="M429" s="4" t="inlineStr"/>
-      <c r="N429" s="4" t="inlineStr"/>
-      <c r="O429" s="4" t="inlineStr">
+      <c r="E429" s="3" t="inlineStr"/>
+      <c r="F429" s="3" t="inlineStr"/>
+      <c r="G429" s="3" t="inlineStr"/>
+      <c r="H429" s="3" t="inlineStr"/>
+      <c r="I429" s="3" t="inlineStr"/>
+      <c r="J429" s="3" t="inlineStr"/>
+      <c r="K429" s="3" t="inlineStr"/>
+      <c r="L429" s="3" t="inlineStr"/>
+      <c r="M429" s="3" t="inlineStr"/>
+      <c r="N429" s="3" t="inlineStr"/>
+      <c r="O429" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P429" s="4" t="inlineStr"/>
-      <c r="Q429" s="4" t="inlineStr"/>
-      <c r="R429" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S429" s="4" t="inlineStr"/>
-      <c r="T429" s="4" t="inlineStr"/>
-      <c r="U429" s="4" t="inlineStr"/>
-      <c r="V429" s="4" t="inlineStr"/>
-      <c r="W429" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X429" s="4" t="inlineStr"/>
+      <c r="P429" s="3" t="inlineStr"/>
+      <c r="Q429" s="3" t="inlineStr"/>
+      <c r="R429" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S429" s="3" t="inlineStr"/>
+      <c r="T429" s="3" t="inlineStr"/>
+      <c r="U429" s="3" t="inlineStr"/>
+      <c r="V429" s="3" t="inlineStr"/>
+      <c r="W429" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X429" s="3" t="inlineStr"/>
     </row>
     <row r="430">
-      <c r="A430" s="4" t="inlineStr">
+      <c r="A430" s="3" t="inlineStr">
         <is>
           <t>BCIO:050303</t>
         </is>
       </c>
-      <c r="B430" s="4" t="inlineStr">
+      <c r="B430" s="3" t="inlineStr">
         <is>
           <t>personal quality</t>
         </is>
       </c>
-      <c r="C430" s="4" t="inlineStr">
+      <c r="C430" s="3" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D430" s="4" t="inlineStr">
+      <c r="D430" s="3" t="inlineStr">
         <is>
           <t>A quality that inheres in a person.</t>
         </is>
       </c>
-      <c r="E430" s="4" t="inlineStr"/>
-      <c r="F430" s="4" t="inlineStr"/>
-      <c r="G430" s="4" t="inlineStr"/>
-      <c r="H430" s="4" t="inlineStr"/>
-      <c r="I430" s="4" t="inlineStr"/>
-      <c r="J430" s="4" t="inlineStr"/>
-      <c r="K430" s="4" t="inlineStr"/>
-      <c r="L430" s="4" t="inlineStr"/>
-      <c r="M430" s="4" t="inlineStr"/>
-      <c r="N430" s="4" t="inlineStr"/>
-      <c r="O430" s="4" t="inlineStr">
+      <c r="E430" s="3" t="inlineStr"/>
+      <c r="F430" s="3" t="inlineStr"/>
+      <c r="G430" s="3" t="inlineStr"/>
+      <c r="H430" s="3" t="inlineStr"/>
+      <c r="I430" s="3" t="inlineStr"/>
+      <c r="J430" s="3" t="inlineStr"/>
+      <c r="K430" s="3" t="inlineStr"/>
+      <c r="L430" s="3" t="inlineStr"/>
+      <c r="M430" s="3" t="inlineStr"/>
+      <c r="N430" s="3" t="inlineStr"/>
+      <c r="O430" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P430" s="4" t="inlineStr"/>
-      <c r="Q430" s="4" t="inlineStr"/>
-      <c r="R430" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S430" s="4" t="inlineStr"/>
-      <c r="T430" s="4" t="inlineStr"/>
-      <c r="U430" s="4" t="inlineStr"/>
-      <c r="V430" s="4" t="inlineStr"/>
-      <c r="W430" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X430" s="4" t="inlineStr"/>
+      <c r="P430" s="3" t="inlineStr"/>
+      <c r="Q430" s="3" t="inlineStr"/>
+      <c r="R430" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S430" s="3" t="inlineStr"/>
+      <c r="T430" s="3" t="inlineStr"/>
+      <c r="U430" s="3" t="inlineStr"/>
+      <c r="V430" s="3" t="inlineStr"/>
+      <c r="W430" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X430" s="3" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="2" t="inlineStr">
@@ -31561,62 +31557,62 @@
       <c r="X519" s="2" t="inlineStr"/>
     </row>
     <row r="520">
-      <c r="A520" s="4" t="inlineStr">
+      <c r="A520" s="3" t="inlineStr">
         <is>
           <t>BCIO:050770</t>
         </is>
       </c>
-      <c r="B520" s="4" t="inlineStr">
+      <c r="B520" s="3" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="C520" s="4" t="inlineStr">
+      <c r="C520" s="3" t="inlineStr">
         <is>
           <t>behavioural consequence</t>
         </is>
       </c>
-      <c r="D520" s="4" t="inlineStr">
+      <c r="D520" s="3" t="inlineStr">
         <is>
           <t>A &lt;behavioural consequence&gt; of a member of the person’s social environmental system.</t>
         </is>
       </c>
-      <c r="E520" s="4" t="inlineStr"/>
-      <c r="F520" s="4" t="inlineStr"/>
-      <c r="G520" s="4" t="inlineStr"/>
-      <c r="H520" s="4" t="inlineStr"/>
-      <c r="I520" s="4" t="inlineStr"/>
-      <c r="J520" s="4" t="inlineStr"/>
-      <c r="K520" s="4" t="inlineStr"/>
-      <c r="L520" s="4" t="inlineStr"/>
-      <c r="M520" s="4" t="inlineStr"/>
-      <c r="N520" s="4" t="inlineStr"/>
-      <c r="O520" s="4" t="inlineStr">
+      <c r="E520" s="3" t="inlineStr"/>
+      <c r="F520" s="3" t="inlineStr"/>
+      <c r="G520" s="3" t="inlineStr"/>
+      <c r="H520" s="3" t="inlineStr"/>
+      <c r="I520" s="3" t="inlineStr"/>
+      <c r="J520" s="3" t="inlineStr"/>
+      <c r="K520" s="3" t="inlineStr"/>
+      <c r="L520" s="3" t="inlineStr"/>
+      <c r="M520" s="3" t="inlineStr"/>
+      <c r="N520" s="3" t="inlineStr"/>
+      <c r="O520" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P520" s="4" t="inlineStr"/>
-      <c r="Q520" s="4" t="inlineStr"/>
-      <c r="R520" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S520" s="4" t="inlineStr"/>
-      <c r="T520" s="4" t="inlineStr"/>
-      <c r="U520" s="4" t="inlineStr"/>
-      <c r="V520" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W520" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X520" s="4" t="inlineStr"/>
+      <c r="P520" s="3" t="inlineStr"/>
+      <c r="Q520" s="3" t="inlineStr"/>
+      <c r="R520" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S520" s="3" t="inlineStr"/>
+      <c r="T520" s="3" t="inlineStr"/>
+      <c r="U520" s="3" t="inlineStr"/>
+      <c r="V520" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W520" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X520" s="3" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" s="2" t="inlineStr">
@@ -35139,62 +35135,62 @@
       <c r="X579" s="2" t="inlineStr"/>
     </row>
     <row r="580">
-      <c r="A580" s="4" t="inlineStr">
+      <c r="A580" s="3" t="inlineStr">
         <is>
           <t>BCIO:050797</t>
         </is>
       </c>
-      <c r="B580" s="4" t="inlineStr">
+      <c r="B580" s="3" t="inlineStr">
         <is>
           <t>wider community behavioural consequence</t>
         </is>
       </c>
-      <c r="C580" s="4" t="inlineStr">
+      <c r="C580" s="3" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="D580" s="4" t="inlineStr">
+      <c r="D580" s="3" t="inlineStr">
         <is>
           <t>A &lt;social behavioural consequence&gt; that is beyond the person’s family.</t>
         </is>
       </c>
-      <c r="E580" s="4" t="inlineStr"/>
-      <c r="F580" s="4" t="inlineStr"/>
-      <c r="G580" s="4" t="inlineStr"/>
-      <c r="H580" s="4" t="inlineStr"/>
-      <c r="I580" s="4" t="inlineStr"/>
-      <c r="J580" s="4" t="inlineStr"/>
-      <c r="K580" s="4" t="inlineStr"/>
-      <c r="L580" s="4" t="inlineStr"/>
-      <c r="M580" s="4" t="inlineStr"/>
-      <c r="N580" s="4" t="inlineStr"/>
-      <c r="O580" s="4" t="inlineStr">
+      <c r="E580" s="3" t="inlineStr"/>
+      <c r="F580" s="3" t="inlineStr"/>
+      <c r="G580" s="3" t="inlineStr"/>
+      <c r="H580" s="3" t="inlineStr"/>
+      <c r="I580" s="3" t="inlineStr"/>
+      <c r="J580" s="3" t="inlineStr"/>
+      <c r="K580" s="3" t="inlineStr"/>
+      <c r="L580" s="3" t="inlineStr"/>
+      <c r="M580" s="3" t="inlineStr"/>
+      <c r="N580" s="3" t="inlineStr"/>
+      <c r="O580" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P580" s="4" t="inlineStr"/>
-      <c r="Q580" s="4" t="inlineStr"/>
-      <c r="R580" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S580" s="4" t="inlineStr"/>
-      <c r="T580" s="4" t="inlineStr"/>
-      <c r="U580" s="4" t="inlineStr"/>
-      <c r="V580" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W580" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X580" s="4" t="inlineStr"/>
+      <c r="P580" s="3" t="inlineStr"/>
+      <c r="Q580" s="3" t="inlineStr"/>
+      <c r="R580" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S580" s="3" t="inlineStr"/>
+      <c r="T580" s="3" t="inlineStr"/>
+      <c r="U580" s="3" t="inlineStr"/>
+      <c r="V580" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W580" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X580" s="3" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -3972,8 +3972,10 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W58" s="2" t="n">
-        <v>0</v>
+      <c r="W58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X58" s="2" t="inlineStr"/>
     </row>
@@ -17851,12 +17853,12 @@
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D291" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attribute&gt; of behavioural capability that is high.</t>
+          <t>A &lt;personal attribute&gt;in terms of behavioural capability being high.</t>
         </is>
       </c>
       <c r="E291" s="2" t="inlineStr"/>
@@ -17911,12 +17913,12 @@
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D292" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attribute&gt; of motivational disposition to change behaviour that is high.</t>
+          <t>A &lt;personal attribute&gt; in terms of motivational disposition to change behaviour being high.</t>
         </is>
       </c>
       <c r="E292" s="2" t="inlineStr"/>
@@ -17971,12 +17973,12 @@
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D293" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attribute&gt; of behavioural opportunity that is high.</t>
+          <t>A &lt;personal attribute&gt; in terms of  behavioural opportunity being high.</t>
         </is>
       </c>
       <c r="E293" s="2" t="inlineStr"/>
@@ -20967,12 +20969,12 @@
       </c>
       <c r="C343" s="2" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D343" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attribute&gt; of motivational disposition to change behaviour that is low.</t>
+          <t>A &lt;personal attribute&gt; in terms of motivational disposition to change behaviour being low.</t>
         </is>
       </c>
       <c r="E343" s="2" t="inlineStr"/>
@@ -21027,12 +21029,12 @@
       </c>
       <c r="C344" s="2" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D344" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attribute&gt; of behavioural opportunity that is low.</t>
+          <t>A &lt;personal attribute&gt; in terms of having low behavioural opportunity.</t>
         </is>
       </c>
       <c r="E344" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -20793,12 +20793,12 @@
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D340" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attribute&gt; of behavioural capability that is low.</t>
+          <t>A &lt;personal attribute&gt;in terms of behavioural capability being low.</t>
         </is>
       </c>
       <c r="E340" s="2" t="inlineStr"/>
@@ -21207,12 +21207,12 @@
       </c>
       <c r="C347" s="2" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D347" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attribute&gt; of self-efficacy belief that is low.</t>
+          <t>An &lt;personal attribute&gt; of self-efficacy belief that is low.</t>
         </is>
       </c>
       <c r="E347" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X582"/>
+  <dimension ref="A1:X583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26036,153 +26042,157 @@
       <c r="X426" s="2" t="inlineStr"/>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr">
+      <c r="A427" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B427" s="4" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="C427" s="4" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D427" s="4" t="inlineStr">
+        <is>
+          <t>A specifically dependent continuant that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="E427" s="4" t="inlineStr"/>
+      <c r="F427" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+        </is>
+      </c>
+      <c r="G427" s="4" t="inlineStr"/>
+      <c r="H427" s="4" t="inlineStr"/>
+      <c r="I427" s="4" t="inlineStr"/>
+      <c r="J427" s="4" t="inlineStr"/>
+      <c r="K427" s="4" t="inlineStr"/>
+      <c r="L427" s="4" t="inlineStr"/>
+      <c r="M427" s="4" t="inlineStr"/>
+      <c r="N427" s="4" t="inlineStr"/>
+      <c r="O427" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="P427" s="4" t="inlineStr"/>
+      <c r="Q427" s="4" t="inlineStr"/>
+      <c r="R427" s="4" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S427" s="4" t="inlineStr"/>
+      <c r="T427" s="4" t="inlineStr"/>
+      <c r="U427" s="4" t="inlineStr"/>
+      <c r="V427" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W427" s="4" t="inlineStr"/>
+      <c r="X427" s="4" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000043 </t>
         </is>
       </c>
-      <c r="B427" t="inlineStr">
+      <c r="B428" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="C427" t="inlineStr">
+      <c r="C428" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D427" t="inlineStr">
+      <c r="D428" t="inlineStr">
         <is>
           <t>A &lt;bodily disposition&gt; whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical range or context.</t>
         </is>
       </c>
-      <c r="E427" t="inlineStr"/>
-      <c r="F427" t="inlineStr">
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr">
         <is>
           <t>The ability of someone to perform some useful and/or beneficial activity.</t>
         </is>
       </c>
-      <c r="G427" t="inlineStr"/>
-      <c r="H427" t="inlineStr"/>
-      <c r="I427" t="inlineStr">
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr">
         <is>
           <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
 For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
         </is>
       </c>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
-      <c r="M427" t="inlineStr"/>
-      <c r="N427" t="inlineStr"/>
-      <c r="O427" t="inlineStr">
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
+      <c r="M428" t="inlineStr"/>
+      <c r="N428" t="inlineStr"/>
+      <c r="O428" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P427" t="inlineStr"/>
-      <c r="Q427" t="inlineStr"/>
-      <c r="R427" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S427" t="inlineStr"/>
-      <c r="T427" t="inlineStr"/>
-      <c r="U427" t="inlineStr"/>
-      <c r="V427" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W427" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050301</t>
-        </is>
-      </c>
-      <c r="B428" s="3" t="inlineStr">
-        <is>
-          <t>personal disposition</t>
-        </is>
-      </c>
-      <c r="C428" s="3" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="D428" s="3" t="inlineStr">
-        <is>
-          <t>A disposition that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="E428" s="3" t="inlineStr"/>
-      <c r="F428" s="3" t="inlineStr">
-        <is>
-          <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
-        </is>
-      </c>
-      <c r="G428" s="3" t="inlineStr"/>
-      <c r="H428" s="3" t="inlineStr"/>
-      <c r="I428" s="3" t="inlineStr"/>
-      <c r="J428" s="3" t="inlineStr"/>
-      <c r="K428" s="3" t="inlineStr"/>
-      <c r="L428" s="3" t="inlineStr"/>
-      <c r="M428" s="3" t="inlineStr"/>
-      <c r="N428" s="3" t="inlineStr"/>
-      <c r="O428" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="P428" s="3" t="inlineStr"/>
-      <c r="Q428" s="3" t="inlineStr"/>
-      <c r="R428" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S428" s="3" t="inlineStr"/>
-      <c r="T428" s="3" t="inlineStr"/>
-      <c r="U428" s="3" t="inlineStr"/>
-      <c r="V428" s="3" t="inlineStr"/>
-      <c r="W428" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X428" s="3" t="inlineStr"/>
+      <c r="P428" t="inlineStr"/>
+      <c r="Q428" t="inlineStr"/>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S428" t="inlineStr"/>
+      <c r="T428" t="inlineStr"/>
+      <c r="U428" t="inlineStr"/>
+      <c r="V428" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W428" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050302</t>
+          <t>BCIO:050301</t>
         </is>
       </c>
       <c r="B429" s="3" t="inlineStr">
         <is>
-          <t>personal life attribute</t>
+          <t>personal disposition</t>
         </is>
       </c>
       <c r="C429" s="3" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="D429" s="3" t="inlineStr">
         <is>
-          <t>A process attribute that is an attribute of a life process.</t>
+          <t>A disposition that inheres in a person.</t>
         </is>
       </c>
       <c r="E429" s="3" t="inlineStr"/>
-      <c r="F429" s="3" t="inlineStr"/>
+      <c r="F429" s="3" t="inlineStr">
+        <is>
+          <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
+        </is>
+      </c>
       <c r="G429" s="3" t="inlineStr"/>
       <c r="H429" s="3" t="inlineStr"/>
       <c r="I429" s="3" t="inlineStr"/>
@@ -26217,22 +26227,22 @@
     <row r="430">
       <c r="A430" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050303</t>
+          <t>BCIO:050302</t>
         </is>
       </c>
       <c r="B430" s="3" t="inlineStr">
         <is>
-          <t>personal quality</t>
+          <t>personal life attribute</t>
         </is>
       </c>
       <c r="C430" s="3" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="D430" s="3" t="inlineStr">
         <is>
-          <t>A quality that inheres in a person.</t>
+          <t>A process attribute that is an attribute of a life process.</t>
         </is>
       </c>
       <c r="E430" s="3" t="inlineStr"/>
@@ -26269,97 +26279,93 @@
       <c r="X430" s="3" t="inlineStr"/>
     </row>
     <row r="431">
-      <c r="A431" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006081</t>
-        </is>
-      </c>
-      <c r="B431" s="2" t="inlineStr">
-        <is>
-          <t>personal role</t>
-        </is>
-      </c>
-      <c r="C431" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D431" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;role&gt; that inheres in a human being by virtue of their social and institutional circumstances.</t>
-        </is>
-      </c>
-      <c r="E431" s="2" t="inlineStr"/>
-      <c r="F431" s="2" t="inlineStr">
-        <is>
-          <t>A role that someone has within an organisation or social grouping.</t>
-        </is>
-      </c>
-      <c r="G431" s="2" t="inlineStr"/>
-      <c r="H431" s="2" t="inlineStr"/>
-      <c r="I431" s="2" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
-      <c r="J431" s="2" t="inlineStr"/>
-      <c r="K431" s="2" t="inlineStr"/>
-      <c r="L431" s="2" t="inlineStr"/>
-      <c r="M431" s="2" t="inlineStr"/>
-      <c r="N431" s="2" t="inlineStr"/>
-      <c r="O431" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P431" s="2" t="inlineStr"/>
-      <c r="Q431" s="2" t="inlineStr"/>
-      <c r="R431" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S431" s="2" t="inlineStr"/>
-      <c r="T431" s="2" t="inlineStr"/>
-      <c r="U431" s="2" t="inlineStr"/>
-      <c r="V431" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W431" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X431" s="2" t="inlineStr"/>
+      <c r="A431" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050303</t>
+        </is>
+      </c>
+      <c r="B431" s="3" t="inlineStr">
+        <is>
+          <t>personal quality</t>
+        </is>
+      </c>
+      <c r="C431" s="3" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D431" s="3" t="inlineStr">
+        <is>
+          <t>A quality that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="E431" s="3" t="inlineStr"/>
+      <c r="F431" s="3" t="inlineStr"/>
+      <c r="G431" s="3" t="inlineStr"/>
+      <c r="H431" s="3" t="inlineStr"/>
+      <c r="I431" s="3" t="inlineStr"/>
+      <c r="J431" s="3" t="inlineStr"/>
+      <c r="K431" s="3" t="inlineStr"/>
+      <c r="L431" s="3" t="inlineStr"/>
+      <c r="M431" s="3" t="inlineStr"/>
+      <c r="N431" s="3" t="inlineStr"/>
+      <c r="O431" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="P431" s="3" t="inlineStr"/>
+      <c r="Q431" s="3" t="inlineStr"/>
+      <c r="R431" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S431" s="3" t="inlineStr"/>
+      <c r="T431" s="3" t="inlineStr"/>
+      <c r="U431" s="3" t="inlineStr"/>
+      <c r="V431" s="3" t="inlineStr"/>
+      <c r="W431" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X431" s="3" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006063</t>
+          <t>BCIO:006081</t>
         </is>
       </c>
       <c r="B432" s="2" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="C432" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D432" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
+          <t>A &lt;role&gt; that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E432" s="2" t="inlineStr"/>
-      <c r="F432" s="2" t="inlineStr"/>
+      <c r="F432" s="2" t="inlineStr">
+        <is>
+          <t>A role that someone has within an organisation or social grouping.</t>
+        </is>
+      </c>
       <c r="G432" s="2" t="inlineStr"/>
       <c r="H432" s="2" t="inlineStr"/>
-      <c r="I432" s="2" t="inlineStr"/>
+      <c r="I432" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J432" s="2" t="inlineStr"/>
       <c r="K432" s="2" t="inlineStr"/>
       <c r="L432" s="2" t="inlineStr"/>
@@ -26395,37 +26401,29 @@
     <row r="433">
       <c r="A433" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050731</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B433" s="2" t="inlineStr">
         <is>
-          <t>person’s environmental system</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C433" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D433" s="2" t="inlineStr">
         <is>
-          <t>An &lt;environmental system&gt; that is inhabited by a person.</t>
+          <t>A &lt;mental disposition&gt; to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E433" s="2" t="inlineStr"/>
       <c r="F433" s="2" t="inlineStr"/>
-      <c r="G433" s="2" t="inlineStr">
-        <is>
-          <t>“environmental system” “inhabited by” some “person”</t>
-        </is>
-      </c>
+      <c r="G433" s="2" t="inlineStr"/>
       <c r="H433" s="2" t="inlineStr"/>
-      <c r="I433" s="2" t="inlineStr">
-        <is>
-          <t>This class provides a way to link environmental system (that does not have a point of reference) to a person and how they stand in relation to it.</t>
-        </is>
-      </c>
+      <c r="I433" s="2" t="inlineStr"/>
       <c r="J433" s="2" t="inlineStr"/>
       <c r="K433" s="2" t="inlineStr"/>
       <c r="L433" s="2" t="inlineStr"/>
@@ -26461,35 +26459,35 @@
     <row r="434">
       <c r="A434" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050732</t>
+          <t>BCIO:050731</t>
         </is>
       </c>
       <c r="B434" s="2" t="inlineStr">
         <is>
-          <t>person’s social environmental system</t>
+          <t>person’s environmental system</t>
         </is>
       </c>
       <c r="C434" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D434" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social environmental system&gt; that is inhabited by a person.</t>
+          <t>An &lt;environmental system&gt; that is inhabited by a person.</t>
         </is>
       </c>
       <c r="E434" s="2" t="inlineStr"/>
       <c r="F434" s="2" t="inlineStr"/>
       <c r="G434" s="2" t="inlineStr">
         <is>
-          <t>“social environmental system” “inhabited by” some “person”</t>
+          <t>“environmental system” “inhabited by” some “person”</t>
         </is>
       </c>
       <c r="H434" s="2" t="inlineStr"/>
       <c r="I434" s="2" t="inlineStr">
         <is>
-          <t>This class provides a way to link the social environmental system (that does not have a point of reference) to a person and how they stand in relation to it.</t>
+          <t>This class provides a way to link environmental system (that does not have a point of reference) to a person and how they stand in relation to it.</t>
         </is>
       </c>
       <c r="J434" s="2" t="inlineStr"/>
@@ -26527,29 +26525,37 @@
     <row r="435">
       <c r="A435" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050733</t>
+          <t>BCIO:050732</t>
         </is>
       </c>
       <c r="B435" s="2" t="inlineStr">
         <is>
-          <t>physical access to a facility</t>
+          <t>person’s social environmental system</t>
         </is>
       </c>
       <c r="C435" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D435" s="2" t="inlineStr">
         <is>
-          <t>A &lt;physical behavioural opportunity&gt; that involves having access to a facility in which the behaviour can occur.</t>
+          <t>A &lt;social environmental system&gt; that is inhabited by a person.</t>
         </is>
       </c>
       <c r="E435" s="2" t="inlineStr"/>
       <c r="F435" s="2" t="inlineStr"/>
-      <c r="G435" s="2" t="inlineStr"/>
+      <c r="G435" s="2" t="inlineStr">
+        <is>
+          <t>“social environmental system” “inhabited by” some “person”</t>
+        </is>
+      </c>
       <c r="H435" s="2" t="inlineStr"/>
-      <c r="I435" s="2" t="inlineStr"/>
+      <c r="I435" s="2" t="inlineStr">
+        <is>
+          <t>This class provides a way to link the social environmental system (that does not have a point of reference) to a person and how they stand in relation to it.</t>
+        </is>
+      </c>
       <c r="J435" s="2" t="inlineStr"/>
       <c r="K435" s="2" t="inlineStr"/>
       <c r="L435" s="2" t="inlineStr"/>
@@ -26585,30 +26591,26 @@
     <row r="436">
       <c r="A436" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:050733</t>
         </is>
       </c>
       <c r="B436" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>physical access to a facility</t>
         </is>
       </c>
       <c r="C436" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="D436" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural capability&gt; that involves sensory or musculoskeletal abilities.</t>
+          <t>A &lt;physical behavioural opportunity&gt; that involves having access to a facility in which the behaviour can occur.</t>
         </is>
       </c>
       <c r="E436" s="2" t="inlineStr"/>
-      <c r="F436" s="2" t="inlineStr">
-        <is>
-          <t>A person's sensory and physical abilities that are needed for a behaviour or to facilitate it.</t>
-        </is>
-      </c>
+      <c r="F436" s="2" t="inlineStr"/>
       <c r="G436" s="2" t="inlineStr"/>
       <c r="H436" s="2" t="inlineStr"/>
       <c r="I436" s="2" t="inlineStr"/>
@@ -26647,37 +26649,33 @@
     <row r="437">
       <c r="A437" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B437" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C437" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D437" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural opportunity&gt; that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t>A &lt;behavioural capability&gt; that involves sensory or musculoskeletal abilities.</t>
         </is>
       </c>
       <c r="E437" s="2" t="inlineStr"/>
       <c r="F437" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Characteristics of a person's physical (rather than social) environment that are needed for a behaviour or to facilitate it. </t>
+          <t>A person's sensory and physical abilities that are needed for a behaviour or to facilitate it.</t>
         </is>
       </c>
       <c r="G437" s="2" t="inlineStr"/>
       <c r="H437" s="2" t="inlineStr"/>
-      <c r="I437" s="2" t="inlineStr">
-        <is>
-          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
-        </is>
-      </c>
+      <c r="I437" s="2" t="inlineStr"/>
       <c r="J437" s="2" t="inlineStr"/>
       <c r="K437" s="2" t="inlineStr"/>
       <c r="L437" s="2" t="inlineStr"/>
@@ -26713,29 +26711,37 @@
     <row r="438">
       <c r="A438" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006010</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B438" s="2" t="inlineStr">
         <is>
-          <t>physical skill</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C438" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D438" s="2" t="inlineStr">
         <is>
-          <t>A &lt;physical behavioural capability&gt; acquired through training or practice.</t>
+          <t>A &lt;behavioural opportunity&gt; that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E438" s="2" t="inlineStr"/>
-      <c r="F438" s="2" t="inlineStr"/>
+      <c r="F438" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Characteristics of a person's physical (rather than social) environment that are needed for a behaviour or to facilitate it. </t>
+        </is>
+      </c>
       <c r="G438" s="2" t="inlineStr"/>
       <c r="H438" s="2" t="inlineStr"/>
-      <c r="I438" s="2" t="inlineStr"/>
+      <c r="I438" s="2" t="inlineStr">
+        <is>
+          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+        </is>
+      </c>
       <c r="J438" s="2" t="inlineStr"/>
       <c r="K438" s="2" t="inlineStr"/>
       <c r="L438" s="2" t="inlineStr"/>
@@ -26771,22 +26777,22 @@
     <row r="439">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050734</t>
+          <t>BCIO:006010</t>
         </is>
       </c>
       <c r="B439" s="2" t="inlineStr">
         <is>
-          <t>physiological need</t>
+          <t>physical skill</t>
         </is>
       </c>
       <c r="C439" s="2" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="D439" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; resulting from a discrepancy between a current and target physiological state.</t>
+          <t>A &lt;physical behavioural capability&gt; acquired through training or practice.</t>
         </is>
       </c>
       <c r="E439" s="2" t="inlineStr"/>
@@ -26827,217 +26833,213 @@
       <c r="X439" s="2" t="inlineStr"/>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
+      <c r="A440" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050734</t>
+        </is>
+      </c>
+      <c r="B440" s="2" t="inlineStr">
+        <is>
+          <t>physiological need</t>
+        </is>
+      </c>
+      <c r="C440" s="2" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D440" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;bodily disposition&gt; resulting from a discrepancy between a current and target physiological state.</t>
+        </is>
+      </c>
+      <c r="E440" s="2" t="inlineStr"/>
+      <c r="F440" s="2" t="inlineStr"/>
+      <c r="G440" s="2" t="inlineStr"/>
+      <c r="H440" s="2" t="inlineStr"/>
+      <c r="I440" s="2" t="inlineStr"/>
+      <c r="J440" s="2" t="inlineStr"/>
+      <c r="K440" s="2" t="inlineStr"/>
+      <c r="L440" s="2" t="inlineStr"/>
+      <c r="M440" s="2" t="inlineStr"/>
+      <c r="N440" s="2" t="inlineStr"/>
+      <c r="O440" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P440" s="2" t="inlineStr"/>
+      <c r="Q440" s="2" t="inlineStr"/>
+      <c r="R440" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S440" s="2" t="inlineStr"/>
+      <c r="T440" s="2" t="inlineStr"/>
+      <c r="U440" s="2" t="inlineStr"/>
+      <c r="V440" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W440" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X440" s="2" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000003 </t>
         </is>
       </c>
-      <c r="B440" t="inlineStr">
+      <c r="B441" t="inlineStr">
         <is>
           <t>physiological process involved in an emotion</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr">
+      <c r="C441" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D440" t="inlineStr">
+      <c r="D441" t="inlineStr">
         <is>
           <t>A &lt;bodily process&gt; that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
         </is>
       </c>
-      <c r="E440" t="inlineStr"/>
-      <c r="F440" t="inlineStr">
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr">
         <is>
           <t>A process that occurs in a person's body when they are experiencing an emotion.</t>
         </is>
       </c>
-      <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr"/>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
-      <c r="M440" t="inlineStr"/>
-      <c r="N440" t="inlineStr"/>
-      <c r="O440" t="inlineStr">
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
+      <c r="M441" t="inlineStr"/>
+      <c r="N441" t="inlineStr"/>
+      <c r="O441" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P440" t="inlineStr"/>
-      <c r="Q440" t="inlineStr"/>
-      <c r="R440" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S440" t="inlineStr"/>
-      <c r="T440" t="inlineStr"/>
-      <c r="U440" t="inlineStr"/>
-      <c r="V440" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W440" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="2" t="inlineStr">
+      <c r="P441" t="inlineStr"/>
+      <c r="Q441" t="inlineStr"/>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S441" t="inlineStr"/>
+      <c r="T441" t="inlineStr"/>
+      <c r="U441" t="inlineStr"/>
+      <c r="V441" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W441" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="inlineStr">
         <is>
           <t>BCIO:006102</t>
         </is>
       </c>
-      <c r="B441" s="2" t="inlineStr">
+      <c r="B442" s="2" t="inlineStr">
         <is>
           <t>plan enactment</t>
         </is>
       </c>
-      <c r="C441" s="2" t="inlineStr">
+      <c r="C442" s="2" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D441" s="2" t="inlineStr">
+      <c r="D442" s="2" t="inlineStr">
         <is>
           <t>A &lt;bodily process&gt; by which a person attempts to follow the steps in a plan.</t>
         </is>
       </c>
-      <c r="E441" s="2" t="inlineStr"/>
-      <c r="F441" s="2" t="inlineStr"/>
-      <c r="G441" s="2" t="inlineStr"/>
-      <c r="H441" s="2" t="inlineStr"/>
-      <c r="I441" s="2" t="inlineStr"/>
-      <c r="J441" s="2" t="inlineStr"/>
-      <c r="K441" s="2" t="inlineStr"/>
-      <c r="L441" s="2" t="inlineStr"/>
-      <c r="M441" s="2" t="inlineStr"/>
-      <c r="N441" s="2" t="inlineStr"/>
-      <c r="O441" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P441" s="2" t="inlineStr"/>
-      <c r="Q441" s="2" t="inlineStr"/>
-      <c r="R441" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S441" s="2" t="inlineStr"/>
-      <c r="T441" s="2" t="inlineStr"/>
-      <c r="U441" s="2" t="inlineStr"/>
-      <c r="V441" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W441" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X441" s="2" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>MF:0000027</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E442" t="inlineStr"/>
-      <c r="F442" t="inlineStr"/>
-      <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr"/>
-      <c r="I442" t="inlineStr">
-        <is>
-          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
-      <c r="M442" t="inlineStr"/>
-      <c r="N442" t="inlineStr"/>
-      <c r="O442" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P442" t="inlineStr"/>
-      <c r="Q442" t="inlineStr"/>
-      <c r="R442" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S442" t="inlineStr"/>
-      <c r="T442" t="inlineStr"/>
-      <c r="U442" t="inlineStr"/>
-      <c r="V442" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W442" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X442" t="inlineStr"/>
+      <c r="E442" s="2" t="inlineStr"/>
+      <c r="F442" s="2" t="inlineStr"/>
+      <c r="G442" s="2" t="inlineStr"/>
+      <c r="H442" s="2" t="inlineStr"/>
+      <c r="I442" s="2" t="inlineStr"/>
+      <c r="J442" s="2" t="inlineStr"/>
+      <c r="K442" s="2" t="inlineStr"/>
+      <c r="L442" s="2" t="inlineStr"/>
+      <c r="M442" s="2" t="inlineStr"/>
+      <c r="N442" s="2" t="inlineStr"/>
+      <c r="O442" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P442" s="2" t="inlineStr"/>
+      <c r="Q442" s="2" t="inlineStr"/>
+      <c r="R442" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S442" s="2" t="inlineStr"/>
+      <c r="T442" s="2" t="inlineStr"/>
+      <c r="U442" s="2" t="inlineStr"/>
+      <c r="V442" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W442" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X442" s="2" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>MFOEM:000035</t>
+          <t>MF:0000027</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+          <t>A &lt;mental process&gt; that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
+      <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr"/>
-      <c r="I443" t="inlineStr"/>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr"/>
@@ -27058,7 +27060,11 @@
       <c r="S443" t="inlineStr"/>
       <c r="T443" t="inlineStr"/>
       <c r="U443" t="inlineStr"/>
-      <c r="V443" t="inlineStr"/>
+      <c r="V443" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W443" t="inlineStr">
         <is>
           <t>0</t>
@@ -27067,91 +27073,91 @@
       <c r="X443" t="inlineStr"/>
     </row>
     <row r="444">
-      <c r="A444" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006159</t>
-        </is>
-      </c>
-      <c r="B444" s="2" t="inlineStr">
-        <is>
-          <t>pleasure associated with behaviour</t>
-        </is>
-      </c>
-      <c r="C444" s="2" t="inlineStr">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>MFOEM:000035</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
         <is>
           <t>pleasure</t>
         </is>
       </c>
-      <c r="D444" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;Pleasure&gt; that is experienced as a result of engaging in a behaviour. </t>
-        </is>
-      </c>
-      <c r="E444" s="2" t="inlineStr"/>
-      <c r="F444" s="2" t="inlineStr"/>
-      <c r="G444" s="2" t="inlineStr">
-        <is>
-          <t>Enjoyment of behaviour</t>
-        </is>
-      </c>
-      <c r="H444" s="2" t="inlineStr"/>
-      <c r="I444" s="2" t="inlineStr"/>
-      <c r="J444" s="2" t="inlineStr"/>
-      <c r="K444" s="2" t="inlineStr"/>
-      <c r="L444" s="2" t="inlineStr"/>
-      <c r="M444" s="2" t="inlineStr"/>
-      <c r="N444" s="2" t="inlineStr"/>
-      <c r="O444" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P444" s="2" t="inlineStr"/>
-      <c r="Q444" s="2" t="inlineStr"/>
-      <c r="R444" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S444" s="2" t="inlineStr"/>
-      <c r="T444" s="2" t="inlineStr"/>
-      <c r="U444" s="2" t="inlineStr"/>
-      <c r="V444" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W444" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X444" s="2" t="inlineStr"/>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
+      <c r="M444" t="inlineStr"/>
+      <c r="N444" t="inlineStr"/>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P444" t="inlineStr"/>
+      <c r="Q444" t="inlineStr"/>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S444" t="inlineStr"/>
+      <c r="T444" t="inlineStr"/>
+      <c r="U444" t="inlineStr"/>
+      <c r="V444" t="inlineStr"/>
+      <c r="W444" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050735</t>
+          <t>BCIO:006159</t>
         </is>
       </c>
       <c r="B445" s="2" t="inlineStr">
         <is>
-          <t>positive evaluative belief about a behaviour</t>
+          <t>pleasure associated with behaviour</t>
         </is>
       </c>
       <c r="C445" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about a behaviour</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D445" s="2" t="inlineStr">
         <is>
-          <t>An &lt;evaluative belief about a behaviour&gt; in which the behaviour is evaluated positively.</t>
+          <t xml:space="preserve">&lt;Pleasure&gt; that is experienced as a result of engaging in a behaviour. </t>
         </is>
       </c>
       <c r="E445" s="2" t="inlineStr"/>
       <c r="F445" s="2" t="inlineStr"/>
-      <c r="G445" s="2" t="inlineStr"/>
+      <c r="G445" s="2" t="inlineStr">
+        <is>
+          <t>Enjoyment of behaviour</t>
+        </is>
+      </c>
       <c r="H445" s="2" t="inlineStr"/>
       <c r="I445" s="2" t="inlineStr"/>
       <c r="J445" s="2" t="inlineStr"/>
@@ -27189,22 +27195,22 @@
     <row r="446">
       <c r="A446" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050872</t>
+          <t>BCIO:050735</t>
         </is>
       </c>
       <c r="B446" s="2" t="inlineStr">
         <is>
-          <t>positive evaluative belief about achieving a goal</t>
+          <t>positive evaluative belief about a behaviour</t>
         </is>
       </c>
       <c r="C446" s="2" t="inlineStr">
         <is>
-          <t>positive evaluative belief</t>
+          <t>evaluative belief about a behaviour</t>
         </is>
       </c>
       <c r="D446" s="2" t="inlineStr">
         <is>
-          <t>A &lt;positive evaluative belief&gt; about acting in a way that achieves a goal.</t>
+          <t>An &lt;evaluative belief about a behaviour&gt; in which the behaviour is evaluated positively.</t>
         </is>
       </c>
       <c r="E446" s="2" t="inlineStr"/>
@@ -27247,12 +27253,12 @@
     <row r="447">
       <c r="A447" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050873</t>
+          <t>BCIO:050872</t>
         </is>
       </c>
       <c r="B447" s="2" t="inlineStr">
         <is>
-          <t>positive evaluative belief about interacting with others</t>
+          <t>positive evaluative belief about achieving a goal</t>
         </is>
       </c>
       <c r="C447" s="2" t="inlineStr">
@@ -27262,7 +27268,7 @@
       </c>
       <c r="D447" s="2" t="inlineStr">
         <is>
-          <t>A &lt;positive evaluative belief&gt; about interacting with other people.</t>
+          <t>A &lt;positive evaluative belief&gt; about acting in a way that achieves a goal.</t>
         </is>
       </c>
       <c r="E447" s="2" t="inlineStr"/>
@@ -27305,22 +27311,22 @@
     <row r="448">
       <c r="A448" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050736</t>
+          <t>BCIO:050873</t>
         </is>
       </c>
       <c r="B448" s="2" t="inlineStr">
         <is>
-          <t>positive mental health</t>
+          <t>positive evaluative belief about interacting with others</t>
         </is>
       </c>
       <c r="C448" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>positive evaluative belief</t>
         </is>
       </c>
       <c r="D448" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; in which an individual is able to use their cognitive, emotional and behavioural capabilities in order to meet the demands of everyday life.</t>
+          <t>A &lt;positive evaluative belief&gt; about interacting with other people.</t>
         </is>
       </c>
       <c r="E448" s="2" t="inlineStr"/>
@@ -27363,22 +27369,22 @@
     <row r="449">
       <c r="A449" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050737</t>
+          <t>BCIO:050736</t>
         </is>
       </c>
       <c r="B449" s="2" t="inlineStr">
         <is>
-          <t>positive punishing stimulus</t>
+          <t>positive mental health</t>
         </is>
       </c>
       <c r="C449" s="2" t="inlineStr">
         <is>
-          <t>negative reinforcer</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D449" s="2" t="inlineStr">
         <is>
-          <t>A &lt;negative reinforcer&gt; that decreases the likelihood of a preceding behaviour by onset or continuation of an aversive event</t>
+          <t>A &lt;mental disposition&gt; in which an individual is able to use their cognitive, emotional and behavioural capabilities in order to meet the demands of everyday life.</t>
         </is>
       </c>
       <c r="E449" s="2" t="inlineStr"/>
@@ -27421,22 +27427,22 @@
     <row r="450">
       <c r="A450" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050738</t>
+          <t>BCIO:050737</t>
         </is>
       </c>
       <c r="B450" s="2" t="inlineStr">
         <is>
-          <t>positive reinforcement process</t>
+          <t>positive punishing stimulus</t>
         </is>
       </c>
       <c r="C450" s="2" t="inlineStr">
         <is>
-          <t>reinforcement process</t>
+          <t>negative reinforcer</t>
         </is>
       </c>
       <c r="D450" s="2" t="inlineStr">
         <is>
-          <t>A &lt;reinforcement process&gt; in which the likelihood of a behaviour is increased by it being followed by a positively appraised event.</t>
+          <t>A &lt;negative reinforcer&gt; that decreases the likelihood of a preceding behaviour by onset or continuation of an aversive event</t>
         </is>
       </c>
       <c r="E450" s="2" t="inlineStr"/>
@@ -27479,37 +27485,29 @@
     <row r="451">
       <c r="A451" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050739</t>
+          <t>BCIO:050738</t>
         </is>
       </c>
       <c r="B451" s="2" t="inlineStr">
         <is>
-          <t>positive reinforcer</t>
+          <t>positive reinforcement process</t>
         </is>
       </c>
       <c r="C451" s="2" t="inlineStr">
         <is>
-          <t>reinforcer</t>
+          <t>reinforcement process</t>
         </is>
       </c>
       <c r="D451" s="2" t="inlineStr">
         <is>
-          <t>A &lt;reinforcer&gt; that increases the likelihood of a preceding behaviour.</t>
+          <t>A &lt;reinforcement process&gt; in which the likelihood of a behaviour is increased by it being followed by a positively appraised event.</t>
         </is>
       </c>
       <c r="E451" s="2" t="inlineStr"/>
-      <c r="F451" s="2" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
+      <c r="F451" s="2" t="inlineStr"/>
       <c r="G451" s="2" t="inlineStr"/>
       <c r="H451" s="2" t="inlineStr"/>
-      <c r="I451" s="2" t="inlineStr">
-        <is>
-          <t>A reinforcer can be onset of a reward or withdrawal of a punishment.</t>
-        </is>
-      </c>
+      <c r="I451" s="2" t="inlineStr"/>
       <c r="J451" s="2" t="inlineStr"/>
       <c r="K451" s="2" t="inlineStr"/>
       <c r="L451" s="2" t="inlineStr"/>
@@ -27545,31 +27543,35 @@
     <row r="452">
       <c r="A452" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050740</t>
+          <t>BCIO:050739</t>
         </is>
       </c>
       <c r="B452" s="2" t="inlineStr">
         <is>
-          <t>positive social environmental system</t>
+          <t>positive reinforcer</t>
         </is>
       </c>
       <c r="C452" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>reinforcer</t>
         </is>
       </c>
       <c r="D452" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social environmental system&gt; that is enjoyable, satisfying or beneficial to the person.</t>
+          <t>A &lt;reinforcer&gt; that increases the likelihood of a preceding behaviour.</t>
         </is>
       </c>
       <c r="E452" s="2" t="inlineStr"/>
-      <c r="F452" s="2" t="inlineStr"/>
+      <c r="F452" s="2" t="inlineStr">
+        <is>
+          <t>reward</t>
+        </is>
+      </c>
       <c r="G452" s="2" t="inlineStr"/>
       <c r="H452" s="2" t="inlineStr"/>
       <c r="I452" s="2" t="inlineStr">
         <is>
-          <t>A positive social environmental system can also be supportive.</t>
+          <t>A reinforcer can be onset of a reward or withdrawal of a punishment.</t>
         </is>
       </c>
       <c r="J452" s="2" t="inlineStr"/>
@@ -27605,144 +27607,148 @@
       <c r="X452" s="2" t="inlineStr"/>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr">
+      <c r="A453" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050740</t>
+        </is>
+      </c>
+      <c r="B453" s="2" t="inlineStr">
+        <is>
+          <t>positive social environmental system</t>
+        </is>
+      </c>
+      <c r="C453" s="2" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="D453" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;social environmental system&gt; that is enjoyable, satisfying or beneficial to the person.</t>
+        </is>
+      </c>
+      <c r="E453" s="2" t="inlineStr"/>
+      <c r="F453" s="2" t="inlineStr"/>
+      <c r="G453" s="2" t="inlineStr"/>
+      <c r="H453" s="2" t="inlineStr"/>
+      <c r="I453" s="2" t="inlineStr">
+        <is>
+          <t>A positive social environmental system can also be supportive.</t>
+        </is>
+      </c>
+      <c r="J453" s="2" t="inlineStr"/>
+      <c r="K453" s="2" t="inlineStr"/>
+      <c r="L453" s="2" t="inlineStr"/>
+      <c r="M453" s="2" t="inlineStr"/>
+      <c r="N453" s="2" t="inlineStr"/>
+      <c r="O453" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P453" s="2" t="inlineStr"/>
+      <c r="Q453" s="2" t="inlineStr"/>
+      <c r="R453" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S453" s="2" t="inlineStr"/>
+      <c r="T453" s="2" t="inlineStr"/>
+      <c r="U453" s="2" t="inlineStr"/>
+      <c r="V453" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W453" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X453" s="2" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
         <is>
           <t>MFOEM:000209</t>
         </is>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>positive surprise</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>surprise</t>
         </is>
       </c>
-      <c r="D453" t="inlineStr">
+      <c r="D454" t="inlineStr">
         <is>
           <t>&lt;Surprise&gt; with a positive valence.</t>
         </is>
       </c>
-      <c r="E453" t="inlineStr"/>
-      <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr">
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr">
         <is>
           <t>wonder; astonishment</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr"/>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
-      <c r="M453" t="inlineStr"/>
-      <c r="N453" t="inlineStr"/>
-      <c r="O453" t="inlineStr">
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
+      <c r="M454" t="inlineStr"/>
+      <c r="N454" t="inlineStr"/>
+      <c r="O454" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P453" t="inlineStr"/>
-      <c r="Q453" t="inlineStr"/>
-      <c r="R453" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S453" t="inlineStr"/>
-      <c r="T453" t="inlineStr"/>
-      <c r="U453" t="inlineStr"/>
-      <c r="V453" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W453" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006061</t>
-        </is>
-      </c>
-      <c r="B454" s="2" t="inlineStr">
-        <is>
-          <t>prevention focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C454" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D454" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;motivational orientation towards types of outcomes&gt; in which motivation is guided by a focus on the presence or absence of negative outcomes.</t>
-        </is>
-      </c>
-      <c r="E454" s="2" t="inlineStr"/>
-      <c r="F454" s="2" t="inlineStr"/>
-      <c r="G454" s="2" t="inlineStr"/>
-      <c r="H454" s="2" t="inlineStr"/>
-      <c r="I454" s="2" t="inlineStr"/>
-      <c r="J454" s="2" t="inlineStr"/>
-      <c r="K454" s="2" t="inlineStr"/>
-      <c r="L454" s="2" t="inlineStr"/>
-      <c r="M454" s="2" t="inlineStr"/>
-      <c r="N454" s="2" t="inlineStr"/>
-      <c r="O454" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P454" s="2" t="inlineStr"/>
-      <c r="Q454" s="2" t="inlineStr"/>
-      <c r="R454" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S454" s="2" t="inlineStr"/>
-      <c r="T454" s="2" t="inlineStr"/>
-      <c r="U454" s="2" t="inlineStr"/>
-      <c r="V454" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W454" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X454" s="2" t="inlineStr"/>
+      <c r="P454" t="inlineStr"/>
+      <c r="Q454" t="inlineStr"/>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S454" t="inlineStr"/>
+      <c r="T454" t="inlineStr"/>
+      <c r="U454" t="inlineStr"/>
+      <c r="V454" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W454" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050741</t>
+          <t>BCIO:006061</t>
         </is>
       </c>
       <c r="B455" s="2" t="inlineStr">
         <is>
-          <t>primary  reinforcer</t>
+          <t>prevention focused motivational orientation</t>
         </is>
       </c>
       <c r="C455" s="2" t="inlineStr">
         <is>
-          <t>reinforcer</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D455" s="2" t="inlineStr">
         <is>
-          <t>A &lt;reinforcer&gt; whose effect on behaviour is innately determined.</t>
+          <t>A &lt;motivational orientation towards types of outcomes&gt; in which motivation is guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
       <c r="E455" s="2" t="inlineStr"/>
@@ -27785,22 +27791,22 @@
     <row r="456">
       <c r="A456" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050742</t>
+          <t>BCIO:050741</t>
         </is>
       </c>
       <c r="B456" s="2" t="inlineStr">
         <is>
-          <t>privacy</t>
+          <t>primary  reinforcer</t>
         </is>
       </c>
       <c r="C456" s="2" t="inlineStr">
         <is>
-          <t>social environmental disposition</t>
+          <t>reinforcer</t>
         </is>
       </c>
       <c r="D456" s="2" t="inlineStr">
         <is>
-          <t>An &lt;social environmental disposition&gt; that is realised as being protected from being observed or disturbed by other people.</t>
+          <t>A &lt;reinforcer&gt; whose effect on behaviour is innately determined.</t>
         </is>
       </c>
       <c r="E456" s="2" t="inlineStr"/>
@@ -27843,33 +27849,29 @@
     <row r="457">
       <c r="A457" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050743</t>
+          <t>BCIO:050742</t>
         </is>
       </c>
       <c r="B457" s="2" t="inlineStr">
         <is>
-          <t>pro-social group</t>
+          <t>privacy</t>
         </is>
       </c>
       <c r="C457" s="2" t="inlineStr">
         <is>
-          <t>social group</t>
+          <t>social environmental disposition</t>
         </is>
       </c>
       <c r="D457" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social group&gt; whose behaviours conform to societal norms.</t>
+          <t>An &lt;social environmental disposition&gt; that is realised as being protected from being observed or disturbed by other people.</t>
         </is>
       </c>
       <c r="E457" s="2" t="inlineStr"/>
       <c r="F457" s="2" t="inlineStr"/>
       <c r="G457" s="2" t="inlineStr"/>
       <c r="H457" s="2" t="inlineStr"/>
-      <c r="I457" s="2" t="inlineStr">
-        <is>
-          <t>A social grouping is a population who share some common attribute that involves some form of social interaction, whereas a social group is a social grouping that identifies as such and acts collectively.</t>
-        </is>
-      </c>
+      <c r="I457" s="2" t="inlineStr"/>
       <c r="J457" s="2" t="inlineStr"/>
       <c r="K457" s="2" t="inlineStr"/>
       <c r="L457" s="2" t="inlineStr"/>
@@ -27905,29 +27907,33 @@
     <row r="458">
       <c r="A458" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050744</t>
+          <t>BCIO:050743</t>
         </is>
       </c>
       <c r="B458" s="2" t="inlineStr">
         <is>
-          <t>problem solving</t>
+          <t>pro-social group</t>
         </is>
       </c>
       <c r="C458" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>social group</t>
         </is>
       </c>
       <c r="D458" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal pursuit process&gt; in which some barrier has to be overcome.</t>
+          <t>A &lt;social group&gt; whose behaviours conform to societal norms.</t>
         </is>
       </c>
       <c r="E458" s="2" t="inlineStr"/>
       <c r="F458" s="2" t="inlineStr"/>
       <c r="G458" s="2" t="inlineStr"/>
       <c r="H458" s="2" t="inlineStr"/>
-      <c r="I458" s="2" t="inlineStr"/>
+      <c r="I458" s="2" t="inlineStr">
+        <is>
+          <t>A social grouping is a population who share some common attribute that involves some form of social interaction, whereas a social group is a social grouping that identifies as such and acts collectively.</t>
+        </is>
+      </c>
       <c r="J458" s="2" t="inlineStr"/>
       <c r="K458" s="2" t="inlineStr"/>
       <c r="L458" s="2" t="inlineStr"/>
@@ -27963,22 +27969,22 @@
     <row r="459">
       <c r="A459" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006129</t>
+          <t>BCIO:050744</t>
         </is>
       </c>
       <c r="B459" s="2" t="inlineStr">
         <is>
-          <t>procedural memory</t>
+          <t>problem solving</t>
         </is>
       </c>
       <c r="C459" s="2" t="inlineStr">
         <is>
-          <t>memory process</t>
+          <t>goal pursuit process</t>
         </is>
       </c>
       <c r="D459" s="2" t="inlineStr">
         <is>
-          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+          <t>A &lt;goal pursuit process&gt; in which some barrier has to be overcome.</t>
         </is>
       </c>
       <c r="E459" s="2" t="inlineStr"/>
@@ -28021,22 +28027,22 @@
     <row r="460">
       <c r="A460" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050229</t>
+          <t>BCIO:006129</t>
         </is>
       </c>
       <c r="B460" s="2" t="inlineStr">
         <is>
-          <t>professional identity</t>
+          <t>procedural memory</t>
         </is>
       </c>
       <c r="C460" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>memory process</t>
         </is>
       </c>
       <c r="D460" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-identity&gt; that is associated with one's occupational role.</t>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
         </is>
       </c>
       <c r="E460" s="2" t="inlineStr"/>
@@ -28079,22 +28085,22 @@
     <row r="461">
       <c r="A461" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050213</t>
+          <t>BCIO:050229</t>
         </is>
       </c>
       <c r="B461" s="2" t="inlineStr">
         <is>
-          <t>professional network</t>
+          <t>professional identity</t>
         </is>
       </c>
       <c r="C461" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> social environmental system</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="D461" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social environmental system&gt; that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+          <t>A &lt;self-identity&gt; that is associated with one's occupational role.</t>
         </is>
       </c>
       <c r="E461" s="2" t="inlineStr"/>
@@ -28137,22 +28143,22 @@
     <row r="462">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006062</t>
+          <t>BCIO:050213</t>
         </is>
       </c>
       <c r="B462" s="2" t="inlineStr">
         <is>
-          <t>promotion focused motivational orientation</t>
+          <t>professional network</t>
         </is>
       </c>
       <c r="C462" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t xml:space="preserve"> social environmental system</t>
         </is>
       </c>
       <c r="D462" s="2" t="inlineStr">
         <is>
-          <t>A &lt;motivational orientation towards types of outcomes&gt; in which motivation is guided by a focus on the presence or absence of positive outcomes.</t>
+          <t>A &lt;social environmental system&gt; that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
         </is>
       </c>
       <c r="E462" s="2" t="inlineStr"/>
@@ -28195,37 +28201,29 @@
     <row r="463">
       <c r="A463" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050745</t>
+          <t>BCIO:006062</t>
         </is>
       </c>
       <c r="B463" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">propositional cognitive representation </t>
+          <t>promotion focused motivational orientation</t>
         </is>
       </c>
       <c r="C463" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D463" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; in the form of symbols connected together with a syntactic structure.</t>
-        </is>
-      </c>
-      <c r="E463" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive representation that includes language-like structures</t>
-        </is>
-      </c>
+          <t>A &lt;motivational orientation towards types of outcomes&gt; in which motivation is guided by a focus on the presence or absence of positive outcomes.</t>
+        </is>
+      </c>
+      <c r="E463" s="2" t="inlineStr"/>
       <c r="F463" s="2" t="inlineStr"/>
       <c r="G463" s="2" t="inlineStr"/>
       <c r="H463" s="2" t="inlineStr"/>
-      <c r="I463" s="2" t="inlineStr">
-        <is>
-          <t>Syntactic structures connect symbols together to create meaning.</t>
-        </is>
-      </c>
+      <c r="I463" s="2" t="inlineStr"/>
       <c r="J463" s="2" t="inlineStr"/>
       <c r="K463" s="2" t="inlineStr"/>
       <c r="L463" s="2" t="inlineStr"/>
@@ -28261,29 +28259,37 @@
     <row r="464">
       <c r="A464" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050746</t>
+          <t>BCIO:050745</t>
         </is>
       </c>
       <c r="B464" s="2" t="inlineStr">
         <is>
-          <t>proximal goal</t>
+          <t xml:space="preserve">propositional cognitive representation </t>
         </is>
       </c>
       <c r="C464" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D464" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal&gt; that is about a scenario in the near future.</t>
-        </is>
-      </c>
-      <c r="E464" s="2" t="inlineStr"/>
+          <t>A &lt;cognitive representation&gt; in the form of symbols connected together with a syntactic structure.</t>
+        </is>
+      </c>
+      <c r="E464" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive representation that includes language-like structures</t>
+        </is>
+      </c>
       <c r="F464" s="2" t="inlineStr"/>
       <c r="G464" s="2" t="inlineStr"/>
       <c r="H464" s="2" t="inlineStr"/>
-      <c r="I464" s="2" t="inlineStr"/>
+      <c r="I464" s="2" t="inlineStr">
+        <is>
+          <t>Syntactic structures connect symbols together to create meaning.</t>
+        </is>
+      </c>
       <c r="J464" s="2" t="inlineStr"/>
       <c r="K464" s="2" t="inlineStr"/>
       <c r="L464" s="2" t="inlineStr"/>
@@ -28319,33 +28325,29 @@
     <row r="465">
       <c r="A465" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050747</t>
+          <t>BCIO:050746</t>
         </is>
       </c>
       <c r="B465" s="2" t="inlineStr">
         <is>
-          <t>psychological attachment</t>
+          <t>proximal goal</t>
         </is>
       </c>
       <c r="C465" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="D465" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to experience a positive affective feeling of security and wellbeing by physical or psychological closeness to something.</t>
+          <t>A &lt;goal&gt; that is about a scenario in the near future.</t>
         </is>
       </c>
       <c r="E465" s="2" t="inlineStr"/>
       <c r="F465" s="2" t="inlineStr"/>
       <c r="G465" s="2" t="inlineStr"/>
       <c r="H465" s="2" t="inlineStr"/>
-      <c r="I465" s="2" t="inlineStr">
-        <is>
-          <t>Something' can refer to another person or animal forms.</t>
-        </is>
-      </c>
+      <c r="I465" s="2" t="inlineStr"/>
       <c r="J465" s="2" t="inlineStr"/>
       <c r="K465" s="2" t="inlineStr"/>
       <c r="L465" s="2" t="inlineStr"/>
@@ -28381,29 +28383,33 @@
     <row r="466">
       <c r="A466" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050748</t>
+          <t>BCIO:050747</t>
         </is>
       </c>
       <c r="B466" s="2" t="inlineStr">
         <is>
-          <t>psychological attachment formation</t>
+          <t>psychological attachment</t>
         </is>
       </c>
       <c r="C466" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D466" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; by which a psychological attachment is formed or strengthened.</t>
+          <t>A &lt;mental disposition&gt; to experience a positive affective feeling of security and wellbeing by physical or psychological closeness to something.</t>
         </is>
       </c>
       <c r="E466" s="2" t="inlineStr"/>
       <c r="F466" s="2" t="inlineStr"/>
       <c r="G466" s="2" t="inlineStr"/>
       <c r="H466" s="2" t="inlineStr"/>
-      <c r="I466" s="2" t="inlineStr"/>
+      <c r="I466" s="2" t="inlineStr">
+        <is>
+          <t>Something' can refer to another person or animal forms.</t>
+        </is>
+      </c>
       <c r="J466" s="2" t="inlineStr"/>
       <c r="K466" s="2" t="inlineStr"/>
       <c r="L466" s="2" t="inlineStr"/>
@@ -28439,22 +28445,22 @@
     <row r="467">
       <c r="A467" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050749</t>
+          <t>BCIO:050748</t>
         </is>
       </c>
       <c r="B467" s="2" t="inlineStr">
         <is>
-          <t>psychological attachment formation to conventional society</t>
+          <t>psychological attachment formation</t>
         </is>
       </c>
       <c r="C467" s="2" t="inlineStr">
         <is>
-          <t>psychological attachment formation</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D467" s="2" t="inlineStr">
         <is>
-          <t>A &lt;psychological attachment formation&gt; to conventional society.</t>
+          <t>A &lt;mental process&gt; by which a psychological attachment is formed or strengthened.</t>
         </is>
       </c>
       <c r="E467" s="2" t="inlineStr"/>
@@ -28497,22 +28503,22 @@
     <row r="468">
       <c r="A468" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050750</t>
+          <t>BCIO:050749</t>
         </is>
       </c>
       <c r="B468" s="2" t="inlineStr">
         <is>
-          <t>psychological attachment to conventional society</t>
+          <t>psychological attachment formation to conventional society</t>
         </is>
       </c>
       <c r="C468" s="2" t="inlineStr">
         <is>
-          <t>psychological attachment</t>
+          <t>psychological attachment formation</t>
         </is>
       </c>
       <c r="D468" s="2" t="inlineStr">
         <is>
-          <t>&lt;Psychological attachment&gt; that involves attachment to conventional society.</t>
+          <t>A &lt;psychological attachment formation&gt; to conventional society.</t>
         </is>
       </c>
       <c r="E468" s="2" t="inlineStr"/>
@@ -28555,37 +28561,29 @@
     <row r="469">
       <c r="A469" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050325</t>
+          <t>BCIO:050750</t>
         </is>
       </c>
       <c r="B469" s="2" t="inlineStr">
         <is>
-          <t>psychological behavioural capability</t>
+          <t>psychological attachment to conventional society</t>
         </is>
       </c>
       <c r="C469" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>psychological attachment</t>
         </is>
       </c>
       <c r="D469" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;behavioural capability&gt; that involves psychological abilities. </t>
+          <t>&lt;Psychological attachment&gt; that involves attachment to conventional society.</t>
         </is>
       </c>
       <c r="E469" s="2" t="inlineStr"/>
-      <c r="F469" s="2" t="inlineStr">
-        <is>
-          <t>A person’s social, emotional and intellectual understanding, and reasoning and self-regulation abilities that are needed for a behaviour or to facilitate it.</t>
-        </is>
-      </c>
+      <c r="F469" s="2" t="inlineStr"/>
       <c r="G469" s="2" t="inlineStr"/>
       <c r="H469" s="2" t="inlineStr"/>
-      <c r="I469" s="2" t="inlineStr">
-        <is>
-          <t>The class ‘psychological behavioural capability’ is the subclass of both ‘behavioural capability’ and ‘mental capability’ and refers to mental capabilities that are needed to realise a behaviour.</t>
-        </is>
-      </c>
+      <c r="I469" s="2" t="inlineStr"/>
       <c r="J469" s="2" t="inlineStr"/>
       <c r="K469" s="2" t="inlineStr"/>
       <c r="L469" s="2" t="inlineStr"/>
@@ -28621,31 +28619,35 @@
     <row r="470">
       <c r="A470" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006064</t>
+          <t>BCIO:050325</t>
         </is>
       </c>
       <c r="B470" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>psychological behavioural capability</t>
         </is>
       </c>
       <c r="C470" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D470" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+          <t xml:space="preserve">A &lt;behavioural capability&gt; that involves psychological abilities. </t>
         </is>
       </c>
       <c r="E470" s="2" t="inlineStr"/>
-      <c r="F470" s="2" t="inlineStr"/>
+      <c r="F470" s="2" t="inlineStr">
+        <is>
+          <t>A person’s social, emotional and intellectual understanding, and reasoning and self-regulation abilities that are needed for a behaviour or to facilitate it.</t>
+        </is>
+      </c>
       <c r="G470" s="2" t="inlineStr"/>
       <c r="H470" s="2" t="inlineStr"/>
       <c r="I470" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+          <t>The class ‘psychological behavioural capability’ is the subclass of both ‘behavioural capability’ and ‘mental capability’ and refers to mental capabilities that are needed to realise a behaviour.</t>
         </is>
       </c>
       <c r="J470" s="2" t="inlineStr"/>
@@ -28681,148 +28683,148 @@
       <c r="X470" s="2" t="inlineStr"/>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
+      <c r="A471" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006064</t>
+        </is>
+      </c>
+      <c r="B471" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="C471" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D471" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;mental disposition&gt; of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+        </is>
+      </c>
+      <c r="E471" s="2" t="inlineStr"/>
+      <c r="F471" s="2" t="inlineStr"/>
+      <c r="G471" s="2" t="inlineStr"/>
+      <c r="H471" s="2" t="inlineStr"/>
+      <c r="I471" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
+      <c r="J471" s="2" t="inlineStr"/>
+      <c r="K471" s="2" t="inlineStr"/>
+      <c r="L471" s="2" t="inlineStr"/>
+      <c r="M471" s="2" t="inlineStr"/>
+      <c r="N471" s="2" t="inlineStr"/>
+      <c r="O471" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P471" s="2" t="inlineStr"/>
+      <c r="Q471" s="2" t="inlineStr"/>
+      <c r="R471" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S471" s="2" t="inlineStr"/>
+      <c r="T471" s="2" t="inlineStr"/>
+      <c r="U471" s="2" t="inlineStr"/>
+      <c r="V471" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W471" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X471" s="2" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
         <is>
           <t>BFO:0000019</t>
         </is>
       </c>
-      <c r="B471" t="inlineStr">
+      <c r="B472" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr">
+      <c r="C472" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D471" t="inlineStr">
+      <c r="D472" t="inlineStr">
         <is>
           <t>A specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized.</t>
         </is>
       </c>
-      <c r="E471" t="inlineStr"/>
-      <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr"/>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
-      <c r="M471" t="inlineStr"/>
-      <c r="N471" t="inlineStr"/>
-      <c r="O471" t="inlineStr">
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="inlineStr"/>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
+      <c r="M472" t="inlineStr"/>
+      <c r="N472" t="inlineStr"/>
+      <c r="O472" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P471" t="inlineStr"/>
-      <c r="Q471" t="inlineStr"/>
-      <c r="R471" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S471" t="inlineStr"/>
-      <c r="T471" t="inlineStr"/>
-      <c r="U471" t="inlineStr"/>
-      <c r="V471" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W471" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050751</t>
-        </is>
-      </c>
-      <c r="B472" s="2" t="inlineStr">
-        <is>
-          <t>quality of social relationships</t>
-        </is>
-      </c>
-      <c r="C472" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system attribute</t>
-        </is>
-      </c>
-      <c r="D472" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;social environmental system attribute&gt; that is the extent to which social relationships with other people are positive or negative.</t>
-        </is>
-      </c>
-      <c r="E472" s="2" t="inlineStr"/>
-      <c r="F472" s="2" t="inlineStr"/>
-      <c r="G472" s="2" t="inlineStr"/>
-      <c r="H472" s="2" t="inlineStr"/>
-      <c r="I472" s="2" t="inlineStr"/>
-      <c r="J472" s="2" t="inlineStr"/>
-      <c r="K472" s="2" t="inlineStr"/>
-      <c r="L472" s="2" t="inlineStr"/>
-      <c r="M472" s="2" t="inlineStr"/>
-      <c r="N472" s="2" t="inlineStr"/>
-      <c r="O472" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P472" s="2" t="inlineStr"/>
-      <c r="Q472" s="2" t="inlineStr"/>
-      <c r="R472" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S472" s="2" t="inlineStr"/>
-      <c r="T472" s="2" t="inlineStr"/>
-      <c r="U472" s="2" t="inlineStr"/>
-      <c r="V472" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W472" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X472" s="2" t="inlineStr"/>
+      <c r="P472" t="inlineStr"/>
+      <c r="Q472" t="inlineStr"/>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S472" t="inlineStr"/>
+      <c r="T472" t="inlineStr"/>
+      <c r="U472" t="inlineStr"/>
+      <c r="V472" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W472" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050318</t>
+          <t>BCIO:050751</t>
         </is>
       </c>
       <c r="B473" s="2" t="inlineStr">
         <is>
-          <t>reflective behavioural motivation</t>
+          <t>quality of social relationships</t>
         </is>
       </c>
       <c r="C473" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>social environmental system attribute</t>
         </is>
       </c>
       <c r="D473" s="2" t="inlineStr">
         <is>
-          <t>&lt;Behavioural motivation&gt; that involves reflective thinking.</t>
+          <t>A &lt;social environmental system attribute&gt; that is the extent to which social relationships with other people are positive or negative.</t>
         </is>
       </c>
       <c r="E473" s="2" t="inlineStr"/>
-      <c r="F473" s="2" t="inlineStr">
-        <is>
-          <t>Motivation to enact a behaviour that involves judgements, intentions or plans.</t>
-        </is>
-      </c>
+      <c r="F473" s="2" t="inlineStr"/>
       <c r="G473" s="2" t="inlineStr"/>
       <c r="H473" s="2" t="inlineStr"/>
       <c r="I473" s="2" t="inlineStr"/>
@@ -28861,26 +28863,30 @@
     <row r="474">
       <c r="A474" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050752</t>
+          <t>BCIO:050318</t>
         </is>
       </c>
       <c r="B474" s="2" t="inlineStr">
         <is>
-          <t>reflective capability</t>
+          <t>reflective behavioural motivation</t>
         </is>
       </c>
       <c r="C474" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="D474" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; to analyse one’s experiences, thoughts or beliefs.</t>
+          <t>&lt;Behavioural motivation&gt; that involves reflective thinking.</t>
         </is>
       </c>
       <c r="E474" s="2" t="inlineStr"/>
-      <c r="F474" s="2" t="inlineStr"/>
+      <c r="F474" s="2" t="inlineStr">
+        <is>
+          <t>Motivation to enact a behaviour that involves judgements, intentions or plans.</t>
+        </is>
+      </c>
       <c r="G474" s="2" t="inlineStr"/>
       <c r="H474" s="2" t="inlineStr"/>
       <c r="I474" s="2" t="inlineStr"/>
@@ -28919,12 +28925,12 @@
     <row r="475">
       <c r="A475" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050753</t>
+          <t>BCIO:050752</t>
         </is>
       </c>
       <c r="B475" s="2" t="inlineStr">
         <is>
-          <t>reflective mental process</t>
+          <t>reflective capability</t>
         </is>
       </c>
       <c r="C475" s="2" t="inlineStr">
@@ -28934,16 +28940,12 @@
       </c>
       <c r="D475" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that involves conscious awareness.</t>
+          <t>A &lt;mental process&gt; to analyse one’s experiences, thoughts or beliefs.</t>
         </is>
       </c>
       <c r="E475" s="2" t="inlineStr"/>
       <c r="F475" s="2" t="inlineStr"/>
-      <c r="G475" s="2" t="inlineStr">
-        <is>
-          <t>"mental process" has process attribute "consciousness"</t>
-        </is>
-      </c>
+      <c r="G475" s="2" t="inlineStr"/>
       <c r="H475" s="2" t="inlineStr"/>
       <c r="I475" s="2" t="inlineStr"/>
       <c r="J475" s="2" t="inlineStr"/>
@@ -28981,33 +28983,33 @@
     <row r="476">
       <c r="A476" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050754</t>
+          <t>BCIO:050753</t>
         </is>
       </c>
       <c r="B476" s="2" t="inlineStr">
         <is>
-          <t>reflective reasoning</t>
+          <t>reflective mental process</t>
         </is>
       </c>
       <c r="C476" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D476" s="2" t="inlineStr">
         <is>
-          <t>&lt;Reflective thinking&gt; in which propositions are derived from other propositions.</t>
+          <t>A &lt;mental process&gt; that involves conscious awareness.</t>
         </is>
       </c>
       <c r="E476" s="2" t="inlineStr"/>
       <c r="F476" s="2" t="inlineStr"/>
-      <c r="G476" s="2" t="inlineStr"/>
+      <c r="G476" s="2" t="inlineStr">
+        <is>
+          <t>"mental process" has process attribute "consciousness"</t>
+        </is>
+      </c>
       <c r="H476" s="2" t="inlineStr"/>
-      <c r="I476" s="2" t="inlineStr">
-        <is>
-          <t>Reasoning is a specific type of thinking.</t>
-        </is>
-      </c>
+      <c r="I476" s="2" t="inlineStr"/>
       <c r="J476" s="2" t="inlineStr"/>
       <c r="K476" s="2" t="inlineStr"/>
       <c r="L476" s="2" t="inlineStr"/>
@@ -29043,29 +29045,33 @@
     <row r="477">
       <c r="A477" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:050754</t>
         </is>
       </c>
       <c r="B477" s="2" t="inlineStr">
         <is>
+          <t>reflective reasoning</t>
+        </is>
+      </c>
+      <c r="C477" s="2" t="inlineStr">
+        <is>
           <t>reflective thinking</t>
         </is>
       </c>
-      <c r="C477" s="2" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
       <c r="D477" s="2" t="inlineStr">
         <is>
-          <t>&lt;Thinking&gt; that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
+          <t>&lt;Reflective thinking&gt; in which propositions are derived from other propositions.</t>
         </is>
       </c>
       <c r="E477" s="2" t="inlineStr"/>
       <c r="F477" s="2" t="inlineStr"/>
       <c r="G477" s="2" t="inlineStr"/>
       <c r="H477" s="2" t="inlineStr"/>
-      <c r="I477" s="2" t="inlineStr"/>
+      <c r="I477" s="2" t="inlineStr">
+        <is>
+          <t>Reasoning is a specific type of thinking.</t>
+        </is>
+      </c>
       <c r="J477" s="2" t="inlineStr"/>
       <c r="K477" s="2" t="inlineStr"/>
       <c r="L477" s="2" t="inlineStr"/>
@@ -29101,22 +29107,22 @@
     <row r="478">
       <c r="A478" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050232</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B478" s="2" t="inlineStr">
         <is>
-          <t>regret</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C478" s="2" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="D478" s="2" t="inlineStr">
         <is>
-          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
+          <t>&lt;Thinking&gt; that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
         </is>
       </c>
       <c r="E478" s="2" t="inlineStr"/>
@@ -29144,7 +29150,11 @@
       <c r="S478" s="2" t="inlineStr"/>
       <c r="T478" s="2" t="inlineStr"/>
       <c r="U478" s="2" t="inlineStr"/>
-      <c r="V478" s="2" t="inlineStr"/>
+      <c r="V478" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W478" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -29155,33 +29165,29 @@
     <row r="479">
       <c r="A479" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050755</t>
+          <t>BCIO:050232</t>
         </is>
       </c>
       <c r="B479" s="2" t="inlineStr">
         <is>
-          <t>reinforcement process</t>
+          <t>regret</t>
         </is>
       </c>
       <c r="C479" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D479" s="2" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; in which a behaviour is followed by an event that alters the likelihood of occurrence of the behaviour.</t>
+          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
         </is>
       </c>
       <c r="E479" s="2" t="inlineStr"/>
       <c r="F479" s="2" t="inlineStr"/>
       <c r="G479" s="2" t="inlineStr"/>
       <c r="H479" s="2" t="inlineStr"/>
-      <c r="I479" s="2" t="inlineStr">
-        <is>
-          <t>If interested in more specific classes, see self-regulation and reinforcement learning</t>
-        </is>
-      </c>
+      <c r="I479" s="2" t="inlineStr"/>
       <c r="J479" s="2" t="inlineStr"/>
       <c r="K479" s="2" t="inlineStr"/>
       <c r="L479" s="2" t="inlineStr"/>
@@ -29202,11 +29208,7 @@
       <c r="S479" s="2" t="inlineStr"/>
       <c r="T479" s="2" t="inlineStr"/>
       <c r="U479" s="2" t="inlineStr"/>
-      <c r="V479" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V479" s="2" t="inlineStr"/>
       <c r="W479" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -29217,29 +29219,33 @@
     <row r="480">
       <c r="A480" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050756</t>
+          <t>BCIO:050755</t>
         </is>
       </c>
       <c r="B480" s="2" t="inlineStr">
         <is>
-          <t>reinforcer</t>
+          <t>reinforcement process</t>
         </is>
       </c>
       <c r="C480" s="2" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D480" s="2" t="inlineStr">
         <is>
-          <t>A &lt;stimulus&gt; that changes the likelihood of a preceding behaviour.</t>
+          <t>A &lt;process&gt; in which a behaviour is followed by an event that alters the likelihood of occurrence of the behaviour.</t>
         </is>
       </c>
       <c r="E480" s="2" t="inlineStr"/>
       <c r="F480" s="2" t="inlineStr"/>
       <c r="G480" s="2" t="inlineStr"/>
       <c r="H480" s="2" t="inlineStr"/>
-      <c r="I480" s="2" t="inlineStr"/>
+      <c r="I480" s="2" t="inlineStr">
+        <is>
+          <t>If interested in more specific classes, see self-regulation and reinforcement learning</t>
+        </is>
+      </c>
       <c r="J480" s="2" t="inlineStr"/>
       <c r="K480" s="2" t="inlineStr"/>
       <c r="L480" s="2" t="inlineStr"/>
@@ -29275,30 +29281,26 @@
     <row r="481">
       <c r="A481" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050757</t>
+          <t>BCIO:050756</t>
         </is>
       </c>
       <c r="B481" s="2" t="inlineStr">
         <is>
-          <t>reminder stimulus</t>
+          <t>reinforcer</t>
         </is>
       </c>
       <c r="C481" s="2" t="inlineStr">
         <is>
-          <t>external stimulus</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="D481" s="2" t="inlineStr">
         <is>
-          <t>An &lt;external stimulus&gt; that causes memory retrieval.</t>
+          <t>A &lt;stimulus&gt; that changes the likelihood of a preceding behaviour.</t>
         </is>
       </c>
       <c r="E481" s="2" t="inlineStr"/>
-      <c r="F481" s="2" t="inlineStr">
-        <is>
-          <t>reminder</t>
-        </is>
-      </c>
+      <c r="F481" s="2" t="inlineStr"/>
       <c r="G481" s="2" t="inlineStr"/>
       <c r="H481" s="2" t="inlineStr"/>
       <c r="I481" s="2" t="inlineStr"/>
@@ -29335,140 +29337,144 @@
       <c r="X481" s="2" t="inlineStr"/>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr">
+      <c r="A482" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050757</t>
+        </is>
+      </c>
+      <c r="B482" s="2" t="inlineStr">
+        <is>
+          <t>reminder stimulus</t>
+        </is>
+      </c>
+      <c r="C482" s="2" t="inlineStr">
+        <is>
+          <t>external stimulus</t>
+        </is>
+      </c>
+      <c r="D482" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;external stimulus&gt; that causes memory retrieval.</t>
+        </is>
+      </c>
+      <c r="E482" s="2" t="inlineStr"/>
+      <c r="F482" s="2" t="inlineStr">
+        <is>
+          <t>reminder</t>
+        </is>
+      </c>
+      <c r="G482" s="2" t="inlineStr"/>
+      <c r="H482" s="2" t="inlineStr"/>
+      <c r="I482" s="2" t="inlineStr"/>
+      <c r="J482" s="2" t="inlineStr"/>
+      <c r="K482" s="2" t="inlineStr"/>
+      <c r="L482" s="2" t="inlineStr"/>
+      <c r="M482" s="2" t="inlineStr"/>
+      <c r="N482" s="2" t="inlineStr"/>
+      <c r="O482" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P482" s="2" t="inlineStr"/>
+      <c r="Q482" s="2" t="inlineStr"/>
+      <c r="R482" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S482" s="2" t="inlineStr"/>
+      <c r="T482" s="2" t="inlineStr"/>
+      <c r="U482" s="2" t="inlineStr"/>
+      <c r="V482" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W482" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X482" s="2" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
         <is>
           <t>MF:0000030</t>
         </is>
       </c>
-      <c r="B482" t="inlineStr">
+      <c r="B483" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C482" t="inlineStr">
+      <c r="C483" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D482" t="inlineStr">
+      <c r="D483" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E482" t="inlineStr"/>
-      <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr"/>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
-      <c r="M482" t="inlineStr"/>
-      <c r="N482" t="inlineStr"/>
-      <c r="O482" t="inlineStr">
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr"/>
+      <c r="N483" t="inlineStr"/>
+      <c r="O483" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P482" t="inlineStr"/>
-      <c r="Q482" t="inlineStr"/>
-      <c r="R482" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S482" t="inlineStr"/>
-      <c r="T482" t="inlineStr"/>
-      <c r="U482" t="inlineStr"/>
-      <c r="V482" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W482" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050758</t>
-        </is>
-      </c>
-      <c r="B483" s="2" t="inlineStr">
-        <is>
-          <t>resilience of self-efficacy</t>
-        </is>
-      </c>
-      <c r="C483" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D483" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;mental disposition&gt; to be self-efficacious despite experiences of failure.</t>
-        </is>
-      </c>
-      <c r="E483" s="2" t="inlineStr"/>
-      <c r="F483" s="2" t="inlineStr"/>
-      <c r="G483" s="2" t="inlineStr"/>
-      <c r="H483" s="2" t="inlineStr"/>
-      <c r="I483" s="2" t="inlineStr"/>
-      <c r="J483" s="2" t="inlineStr"/>
-      <c r="K483" s="2" t="inlineStr"/>
-      <c r="L483" s="2" t="inlineStr"/>
-      <c r="M483" s="2" t="inlineStr"/>
-      <c r="N483" s="2" t="inlineStr"/>
-      <c r="O483" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P483" s="2" t="inlineStr"/>
-      <c r="Q483" s="2" t="inlineStr"/>
-      <c r="R483" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S483" s="2" t="inlineStr"/>
-      <c r="T483" s="2" t="inlineStr"/>
-      <c r="U483" s="2" t="inlineStr"/>
-      <c r="V483" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W483" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X483" s="2" t="inlineStr"/>
+      <c r="P483" t="inlineStr"/>
+      <c r="Q483" t="inlineStr"/>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S483" t="inlineStr"/>
+      <c r="T483" t="inlineStr"/>
+      <c r="U483" t="inlineStr"/>
+      <c r="V483" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W483" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050759</t>
+          <t>BCIO:050758</t>
         </is>
       </c>
       <c r="B484" s="2" t="inlineStr">
         <is>
-          <t>risk-taker stereotype</t>
+          <t>resilience of self-efficacy</t>
         </is>
       </c>
       <c r="C484" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D484" s="2" t="inlineStr">
         <is>
-          <t>A &lt;stereotype&gt; about people who are judged to be risk takers.</t>
+          <t>A &lt;mental disposition&gt; to be self-efficacious despite experiences of failure.</t>
         </is>
       </c>
       <c r="E484" s="2" t="inlineStr"/>
@@ -29511,22 +29517,22 @@
     <row r="485">
       <c r="A485" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050266</t>
+          <t>BCIO:050759</t>
         </is>
       </c>
       <c r="B485" s="2" t="inlineStr">
         <is>
-          <t>ruminating</t>
+          <t>risk-taker stereotype</t>
         </is>
       </c>
       <c r="C485" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="D485" s="2" t="inlineStr">
         <is>
-          <t>&lt;Thinking&gt; that is about negative experiences and feelings, and repeated.</t>
+          <t>A &lt;stereotype&gt; about people who are judged to be risk takers.</t>
         </is>
       </c>
       <c r="E485" s="2" t="inlineStr"/>
@@ -29567,68 +29573,72 @@
       <c r="X485" s="2" t="inlineStr"/>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>sadness</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
-        </is>
-      </c>
-      <c r="E486" t="inlineStr"/>
-      <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr"/>
-      <c r="H486" t="inlineStr"/>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
-      <c r="M486" t="inlineStr"/>
-      <c r="N486" t="inlineStr"/>
-      <c r="O486" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P486" t="inlineStr"/>
-      <c r="Q486" t="inlineStr"/>
-      <c r="R486" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S486" t="inlineStr"/>
-      <c r="T486" t="inlineStr"/>
-      <c r="U486" t="inlineStr"/>
-      <c r="V486" t="inlineStr"/>
-      <c r="W486" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X486" t="inlineStr"/>
+      <c r="A486" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050266</t>
+        </is>
+      </c>
+      <c r="B486" s="2" t="inlineStr">
+        <is>
+          <t>ruminating</t>
+        </is>
+      </c>
+      <c r="C486" s="2" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D486" s="2" t="inlineStr">
+        <is>
+          <t>&lt;Thinking&gt; that is about negative experiences and feelings, and repeated.</t>
+        </is>
+      </c>
+      <c r="E486" s="2" t="inlineStr"/>
+      <c r="F486" s="2" t="inlineStr"/>
+      <c r="G486" s="2" t="inlineStr"/>
+      <c r="H486" s="2" t="inlineStr"/>
+      <c r="I486" s="2" t="inlineStr"/>
+      <c r="J486" s="2" t="inlineStr"/>
+      <c r="K486" s="2" t="inlineStr"/>
+      <c r="L486" s="2" t="inlineStr"/>
+      <c r="M486" s="2" t="inlineStr"/>
+      <c r="N486" s="2" t="inlineStr"/>
+      <c r="O486" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P486" s="2" t="inlineStr"/>
+      <c r="Q486" s="2" t="inlineStr"/>
+      <c r="R486" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S486" s="2" t="inlineStr"/>
+      <c r="T486" s="2" t="inlineStr"/>
+      <c r="U486" s="2" t="inlineStr"/>
+      <c r="V486" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W486" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X486" s="2" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>MFOEM:000169</t>
+          <t xml:space="preserve">MFOEM:000056 </t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>sadness</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -29638,7 +29648,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -29675,93 +29685,89 @@
       <c r="X487" t="inlineStr"/>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050760</t>
-        </is>
-      </c>
-      <c r="B488" s="2" t="inlineStr">
-        <is>
-          <t>schedule of reinforcement</t>
-        </is>
-      </c>
-      <c r="C488" s="2" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="D488" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;uniform process aggregate&gt; whose members are reinforcement processes involving an individual over a period of time.</t>
-        </is>
-      </c>
-      <c r="E488" s="2" t="inlineStr"/>
-      <c r="F488" s="2" t="inlineStr"/>
-      <c r="G488" s="2" t="inlineStr"/>
-      <c r="H488" s="2" t="inlineStr"/>
-      <c r="I488" s="2" t="inlineStr">
-        <is>
-          <t>If interested in capturing timing, see the Schedule Ontology</t>
-        </is>
-      </c>
-      <c r="J488" s="2" t="inlineStr"/>
-      <c r="K488" s="2" t="inlineStr"/>
-      <c r="L488" s="2" t="inlineStr"/>
-      <c r="M488" s="2" t="inlineStr"/>
-      <c r="N488" s="2" t="inlineStr"/>
-      <c r="O488" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P488" s="2" t="inlineStr"/>
-      <c r="Q488" s="2" t="inlineStr"/>
-      <c r="R488" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S488" s="2" t="inlineStr"/>
-      <c r="T488" s="2" t="inlineStr"/>
-      <c r="U488" s="2" t="inlineStr"/>
-      <c r="V488" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W488" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X488" s="2" t="inlineStr"/>
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>MFOEM:000169</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
+      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P488" t="inlineStr"/>
+      <c r="Q488" t="inlineStr"/>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S488" t="inlineStr"/>
+      <c r="T488" t="inlineStr"/>
+      <c r="U488" t="inlineStr"/>
+      <c r="V488" t="inlineStr"/>
+      <c r="W488" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050761</t>
+          <t>BCIO:050760</t>
         </is>
       </c>
       <c r="B489" s="2" t="inlineStr">
         <is>
-          <t>school influence behaviour</t>
+          <t>schedule of reinforcement</t>
         </is>
       </c>
       <c r="C489" s="2" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="D489" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social influence behaviour&gt; where part of the school’s social environment exerts an influence on the behaviour of another.</t>
+          <t>A &lt;uniform process aggregate&gt; whose members are reinforcement processes involving an individual over a period of time.</t>
         </is>
       </c>
       <c r="E489" s="2" t="inlineStr"/>
       <c r="F489" s="2" t="inlineStr"/>
       <c r="G489" s="2" t="inlineStr"/>
       <c r="H489" s="2" t="inlineStr"/>
-      <c r="I489" s="2" t="inlineStr"/>
+      <c r="I489" s="2" t="inlineStr">
+        <is>
+          <t>If interested in capturing timing, see the Schedule Ontology</t>
+        </is>
+      </c>
       <c r="J489" s="2" t="inlineStr"/>
       <c r="K489" s="2" t="inlineStr"/>
       <c r="L489" s="2" t="inlineStr"/>
@@ -29797,22 +29803,22 @@
     <row r="490">
       <c r="A490" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050874</t>
+          <t>BCIO:050761</t>
         </is>
       </c>
       <c r="B490" s="2" t="inlineStr">
         <is>
-          <t>self-awareness process in relation to a problem</t>
+          <t>school influence behaviour</t>
         </is>
       </c>
       <c r="C490" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="D490" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that increases the accuracy of one’s cognitive representation of oneself through engaging with a problem.</t>
+          <t>A &lt;social influence behaviour&gt; where part of the school’s social environment exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E490" s="2" t="inlineStr"/>
@@ -29855,12 +29861,12 @@
     <row r="491">
       <c r="A491" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050236</t>
+          <t>BCIO:050874</t>
         </is>
       </c>
       <c r="B491" s="2" t="inlineStr">
         <is>
-          <t>self-binding</t>
+          <t>self-awareness process in relation to a problem</t>
         </is>
       </c>
       <c r="C491" s="2" t="inlineStr">
@@ -29870,16 +29876,12 @@
       </c>
       <c r="D491" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
+          <t>A &lt;mental process&gt; that increases the accuracy of one’s cognitive representation of oneself through engaging with a problem.</t>
         </is>
       </c>
       <c r="E491" s="2" t="inlineStr"/>
       <c r="F491" s="2" t="inlineStr"/>
-      <c r="G491" s="2" t="inlineStr">
-        <is>
-          <t>Pre-commitment</t>
-        </is>
-      </c>
+      <c r="G491" s="2" t="inlineStr"/>
       <c r="H491" s="2" t="inlineStr"/>
       <c r="I491" s="2" t="inlineStr"/>
       <c r="J491" s="2" t="inlineStr"/>
@@ -29915,21 +29917,33 @@
       <c r="X491" s="2" t="inlineStr"/>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="inlineStr"/>
+      <c r="A492" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050236</t>
+        </is>
+      </c>
       <c r="B492" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">self-efficacy belief </t>
-        </is>
-      </c>
-      <c r="C492" s="2" t="inlineStr"/>
+          <t>self-binding</t>
+        </is>
+      </c>
+      <c r="C492" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
       <c r="D492" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one's capabilities to organise and execute a process or achieve an outcome.</t>
+          <t>A &lt;mental process&gt; that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
         </is>
       </c>
       <c r="E492" s="2" t="inlineStr"/>
       <c r="F492" s="2" t="inlineStr"/>
-      <c r="G492" s="2" t="inlineStr"/>
+      <c r="G492" s="2" t="inlineStr">
+        <is>
+          <t>Pre-commitment</t>
+        </is>
+      </c>
       <c r="H492" s="2" t="inlineStr"/>
       <c r="I492" s="2" t="inlineStr"/>
       <c r="J492" s="2" t="inlineStr"/>
@@ -29965,36 +29979,23 @@
       <c r="X492" s="2" t="inlineStr"/>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006154</t>
-        </is>
-      </c>
+      <c r="A493" s="2" t="inlineStr"/>
       <c r="B493" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C493" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
+          <t xml:space="preserve">self-efficacy belief </t>
+        </is>
+      </c>
+      <c r="C493" s="2" t="inlineStr"/>
       <c r="D493" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one's capabilities to organise and execute a behaviour.</t>
+          <t>A &lt;belief&gt; about one's capabilities to organise and execute a process or achieve an outcome.</t>
         </is>
       </c>
       <c r="E493" s="2" t="inlineStr"/>
       <c r="F493" s="2" t="inlineStr"/>
       <c r="G493" s="2" t="inlineStr"/>
       <c r="H493" s="2" t="inlineStr"/>
-      <c r="I493" s="2" t="inlineStr">
-        <is>
-          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
+      <c r="I493" s="2" t="inlineStr"/>
       <c r="J493" s="2" t="inlineStr"/>
       <c r="K493" s="2" t="inlineStr"/>
       <c r="L493" s="2" t="inlineStr"/>
@@ -30030,12 +30031,12 @@
     <row r="494">
       <c r="A494" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006043</t>
+          <t>BCIO:006154</t>
         </is>
       </c>
       <c r="B494" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C494" s="2" t="inlineStr">
@@ -30045,16 +30046,12 @@
       </c>
       <c r="D494" s="2" t="inlineStr">
         <is>
-          <t>A &lt;efficacy belief for a behaviour and its associated outcomes&gt; about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>A &lt;belief&gt; about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E494" s="2" t="inlineStr"/>
       <c r="F494" s="2" t="inlineStr"/>
-      <c r="G494" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy</t>
-        </is>
-      </c>
+      <c r="G494" s="2" t="inlineStr"/>
       <c r="H494" s="2" t="inlineStr"/>
       <c r="I494" s="2" t="inlineStr">
         <is>
@@ -30063,11 +30060,7 @@
         </is>
       </c>
       <c r="J494" s="2" t="inlineStr"/>
-      <c r="K494" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
+      <c r="K494" s="2" t="inlineStr"/>
       <c r="L494" s="2" t="inlineStr"/>
       <c r="M494" s="2" t="inlineStr"/>
       <c r="N494" s="2" t="inlineStr"/>
@@ -30088,7 +30081,7 @@
       <c r="U494" s="2" t="inlineStr"/>
       <c r="V494" s="2" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W494" s="2" t="inlineStr">
@@ -30101,31 +30094,44 @@
     <row r="495">
       <c r="A495" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050762</t>
+          <t>BCIO:006043</t>
         </is>
       </c>
       <c r="B495" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">self-efficacy belief for a behaviour during routine activities </t>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C495" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D495" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief for a behaviour&gt; that is enacted as part of activities that are routine.</t>
+          <t>A &lt;efficacy belief for a behaviour and its associated outcomes&gt; about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E495" s="2" t="inlineStr"/>
       <c r="F495" s="2" t="inlineStr"/>
-      <c r="G495" s="2" t="inlineStr"/>
+      <c r="G495" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy</t>
+        </is>
+      </c>
       <c r="H495" s="2" t="inlineStr"/>
-      <c r="I495" s="2" t="inlineStr"/>
+      <c r="I495" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
       <c r="J495" s="2" t="inlineStr"/>
-      <c r="K495" s="2" t="inlineStr"/>
+      <c r="K495" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
       <c r="L495" s="2" t="inlineStr"/>
       <c r="M495" s="2" t="inlineStr"/>
       <c r="N495" s="2" t="inlineStr"/>
@@ -30146,7 +30152,7 @@
       <c r="U495" s="2" t="inlineStr"/>
       <c r="V495" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="W495" s="2" t="inlineStr">
@@ -30159,22 +30165,22 @@
     <row r="496">
       <c r="A496" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050763</t>
+          <t>BCIO:050762</t>
         </is>
       </c>
       <c r="B496" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">self-efficacy belief for a behaviour in the face of social pressure </t>
+          <t xml:space="preserve">self-efficacy belief for a behaviour during routine activities </t>
         </is>
       </c>
       <c r="C496" s="2" t="inlineStr">
         <is>
-          <t>situational self-efficacy belief for a behaviour</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D496" s="2" t="inlineStr">
         <is>
-          <t>A &lt;situational self-efficacy belief for a behaviour&gt; that is enacted against social pressire.</t>
+          <t>A &lt;self-efficacy belief for a behaviour&gt; that is enacted as part of activities that are routine.</t>
         </is>
       </c>
       <c r="E496" s="2" t="inlineStr"/>
@@ -30217,12 +30223,12 @@
     <row r="497">
       <c r="A497" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050764</t>
+          <t>BCIO:050763</t>
         </is>
       </c>
       <c r="B497" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">self-efficacy belief for a behaviour under conditions of stress </t>
+          <t xml:space="preserve">self-efficacy belief for a behaviour in the face of social pressure </t>
         </is>
       </c>
       <c r="C497" s="2" t="inlineStr">
@@ -30232,7 +30238,7 @@
       </c>
       <c r="D497" s="2" t="inlineStr">
         <is>
-          <t>A &lt;situational self-efficacy belief for a behaviour&gt; that is enacted when under stress.</t>
+          <t>A &lt;situational self-efficacy belief for a behaviour&gt; that is enacted against social pressire.</t>
         </is>
       </c>
       <c r="E497" s="2" t="inlineStr"/>
@@ -30275,22 +30281,22 @@
     <row r="498">
       <c r="A498" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050765</t>
+          <t>BCIO:050764</t>
         </is>
       </c>
       <c r="B498" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">self-efficacy belief for avoiding a threat </t>
+          <t xml:space="preserve">self-efficacy belief for a behaviour under conditions of stress </t>
         </is>
       </c>
       <c r="C498" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D498" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief&gt; that one can take actions to avoid, reduce, or remove a threat or its effects.</t>
+          <t>A &lt;situational self-efficacy belief for a behaviour&gt; that is enacted when under stress.</t>
         </is>
       </c>
       <c r="E498" s="2" t="inlineStr"/>
@@ -30331,140 +30337,140 @@
       <c r="X498" s="2" t="inlineStr"/>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr">
+      <c r="A499" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050765</t>
+        </is>
+      </c>
+      <c r="B499" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">self-efficacy belief for avoiding a threat </t>
+        </is>
+      </c>
+      <c r="C499" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief</t>
+        </is>
+      </c>
+      <c r="D499" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;self-efficacy belief&gt; that one can take actions to avoid, reduce, or remove a threat or its effects.</t>
+        </is>
+      </c>
+      <c r="E499" s="2" t="inlineStr"/>
+      <c r="F499" s="2" t="inlineStr"/>
+      <c r="G499" s="2" t="inlineStr"/>
+      <c r="H499" s="2" t="inlineStr"/>
+      <c r="I499" s="2" t="inlineStr"/>
+      <c r="J499" s="2" t="inlineStr"/>
+      <c r="K499" s="2" t="inlineStr"/>
+      <c r="L499" s="2" t="inlineStr"/>
+      <c r="M499" s="2" t="inlineStr"/>
+      <c r="N499" s="2" t="inlineStr"/>
+      <c r="O499" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P499" s="2" t="inlineStr"/>
+      <c r="Q499" s="2" t="inlineStr"/>
+      <c r="R499" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S499" s="2" t="inlineStr"/>
+      <c r="T499" s="2" t="inlineStr"/>
+      <c r="U499" s="2" t="inlineStr"/>
+      <c r="V499" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W499" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X499" s="2" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
         <is>
           <t>ADDICTO:0000399</t>
         </is>
       </c>
-      <c r="B499" t="inlineStr">
+      <c r="B500" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="C499" t="inlineStr">
+      <c r="C500" t="inlineStr">
         <is>
           <t>identity</t>
         </is>
       </c>
-      <c r="D499" t="inlineStr">
+      <c r="D500" t="inlineStr">
         <is>
           <t>An &lt;identity&gt; that a person has about themselves.</t>
         </is>
       </c>
-      <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
-      <c r="H499" t="inlineStr"/>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
-      <c r="M499" t="inlineStr"/>
-      <c r="N499" t="inlineStr"/>
-      <c r="O499" t="inlineStr">
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr"/>
+      <c r="G500" t="inlineStr"/>
+      <c r="H500" t="inlineStr"/>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
+      <c r="M500" t="inlineStr"/>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P499" t="inlineStr"/>
-      <c r="Q499" t="inlineStr"/>
-      <c r="R499" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S499" t="inlineStr"/>
-      <c r="T499" t="inlineStr"/>
-      <c r="U499" t="inlineStr"/>
-      <c r="V499" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W499" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X499" t="inlineStr"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050875</t>
-        </is>
-      </c>
-      <c r="B500" s="2" t="inlineStr">
-        <is>
-          <t>self-identity appraisal informed by one’s behaviour</t>
-        </is>
-      </c>
-      <c r="C500" s="2" t="inlineStr">
-        <is>
-          <t>self-identity appraisal process</t>
-        </is>
-      </c>
-      <c r="D500" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;self-identity appraisal process&gt; that is informed by the person’s behaviour.</t>
-        </is>
-      </c>
-      <c r="E500" s="2" t="inlineStr"/>
-      <c r="F500" s="2" t="inlineStr"/>
-      <c r="G500" s="2" t="inlineStr"/>
-      <c r="H500" s="2" t="inlineStr"/>
-      <c r="I500" s="2" t="inlineStr"/>
-      <c r="J500" s="2" t="inlineStr"/>
-      <c r="K500" s="2" t="inlineStr"/>
-      <c r="L500" s="2" t="inlineStr"/>
-      <c r="M500" s="2" t="inlineStr"/>
-      <c r="N500" s="2" t="inlineStr"/>
-      <c r="O500" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P500" s="2" t="inlineStr"/>
-      <c r="Q500" s="2" t="inlineStr"/>
-      <c r="R500" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S500" s="2" t="inlineStr"/>
-      <c r="T500" s="2" t="inlineStr"/>
-      <c r="U500" s="2" t="inlineStr"/>
-      <c r="V500" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W500" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X500" s="2" t="inlineStr"/>
+      <c r="P500" t="inlineStr"/>
+      <c r="Q500" t="inlineStr"/>
+      <c r="R500" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S500" t="inlineStr"/>
+      <c r="T500" t="inlineStr"/>
+      <c r="U500" t="inlineStr"/>
+      <c r="V500" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W500" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050876</t>
+          <t>BCIO:050875</t>
         </is>
       </c>
       <c r="B501" s="2" t="inlineStr">
         <is>
+          <t>self-identity appraisal informed by one’s behaviour</t>
+        </is>
+      </c>
+      <c r="C501" s="2" t="inlineStr">
+        <is>
           <t>self-identity appraisal process</t>
         </is>
       </c>
-      <c r="C501" s="2" t="inlineStr">
-        <is>
-          <t>emotional-relevance appraisal</t>
-        </is>
-      </c>
       <c r="D501" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal process&gt; that results in some appraisal of oneself.</t>
+          <t>A &lt;self-identity appraisal process&gt; that is informed by the person’s behaviour.</t>
         </is>
       </c>
       <c r="E501" s="2" t="inlineStr"/>
@@ -30507,22 +30513,22 @@
     <row r="502">
       <c r="A502" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050766</t>
+          <t>BCIO:050876</t>
         </is>
       </c>
       <c r="B502" s="2" t="inlineStr">
         <is>
-          <t>self-initiated goal</t>
+          <t>self-identity appraisal process</t>
         </is>
       </c>
       <c r="C502" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D502" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal&gt; that a person has set for themselves.</t>
+          <t>An &lt;emotional-relevance appraisal process&gt; that results in some appraisal of oneself.</t>
         </is>
       </c>
       <c r="E502" s="2" t="inlineStr"/>
@@ -30565,35 +30571,29 @@
     <row r="503">
       <c r="A503" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006137</t>
+          <t>BCIO:050766</t>
         </is>
       </c>
       <c r="B503" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring</t>
+          <t>self-initiated goal</t>
         </is>
       </c>
       <c r="C503" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="D503" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; in which one observes one's own behaviour or mental processes.</t>
+          <t>A &lt;goal&gt; that a person has set for themselves.</t>
         </is>
       </c>
       <c r="E503" s="2" t="inlineStr"/>
       <c r="F503" s="2" t="inlineStr"/>
       <c r="G503" s="2" t="inlineStr"/>
       <c r="H503" s="2" t="inlineStr"/>
-      <c r="I503" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
-'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
-'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
-        </is>
-      </c>
+      <c r="I503" s="2" t="inlineStr"/>
       <c r="J503" s="2" t="inlineStr"/>
       <c r="K503" s="2" t="inlineStr"/>
       <c r="L503" s="2" t="inlineStr"/>
@@ -30629,29 +30629,35 @@
     <row r="504">
       <c r="A504" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050767</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B504" s="2" t="inlineStr">
         <is>
-          <t>self-motive</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C504" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D504" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural motivation&gt; that arises from a person’s self-identity.</t>
+          <t>A &lt;mental process&gt; in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E504" s="2" t="inlineStr"/>
       <c r="F504" s="2" t="inlineStr"/>
       <c r="G504" s="2" t="inlineStr"/>
       <c r="H504" s="2" t="inlineStr"/>
-      <c r="I504" s="2" t="inlineStr"/>
+      <c r="I504" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
+        </is>
+      </c>
       <c r="J504" s="2" t="inlineStr"/>
       <c r="K504" s="2" t="inlineStr"/>
       <c r="L504" s="2" t="inlineStr"/>
@@ -30687,33 +30693,29 @@
     <row r="505">
       <c r="A505" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006005</t>
+          <t>BCIO:050767</t>
         </is>
       </c>
       <c r="B505" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-motive</t>
         </is>
       </c>
       <c r="C505" s="2" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="D505" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental capability&gt; that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A &lt;behavioural motivation&gt; that arises from a person’s self-identity.</t>
         </is>
       </c>
       <c r="E505" s="2" t="inlineStr"/>
       <c r="F505" s="2" t="inlineStr"/>
       <c r="G505" s="2" t="inlineStr"/>
       <c r="H505" s="2" t="inlineStr"/>
-      <c r="I505" s="2" t="inlineStr">
-        <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
-        </is>
-      </c>
+      <c r="I505" s="2" t="inlineStr"/>
       <c r="J505" s="2" t="inlineStr"/>
       <c r="K505" s="2" t="inlineStr"/>
       <c r="L505" s="2" t="inlineStr"/>
@@ -30749,29 +30751,33 @@
     <row r="506">
       <c r="A506" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006005</t>
         </is>
       </c>
       <c r="B506" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="C506" s="2" t="inlineStr">
         <is>
-          <t>self-regulation process</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D506" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation process&gt; that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+          <t>A &lt;mental capability&gt; that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
         </is>
       </c>
       <c r="E506" s="2" t="inlineStr"/>
       <c r="F506" s="2" t="inlineStr"/>
       <c r="G506" s="2" t="inlineStr"/>
       <c r="H506" s="2" t="inlineStr"/>
-      <c r="I506" s="2" t="inlineStr"/>
+      <c r="I506" s="2" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
       <c r="J506" s="2" t="inlineStr"/>
       <c r="K506" s="2" t="inlineStr"/>
       <c r="L506" s="2" t="inlineStr"/>
@@ -30807,22 +30813,22 @@
     <row r="507">
       <c r="A507" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050268</t>
+          <t>BCIO:006103</t>
         </is>
       </c>
       <c r="B507" s="2" t="inlineStr">
         <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C507" s="2" t="inlineStr">
+        <is>
           <t>self-regulation process</t>
         </is>
       </c>
-      <c r="C507" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
       <c r="D507" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
+          <t>A &lt;self-regulation process&gt; that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
         </is>
       </c>
       <c r="E507" s="2" t="inlineStr"/>
@@ -30865,22 +30871,22 @@
     <row r="508">
       <c r="A508" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050768</t>
+          <t>BCIO:050268</t>
         </is>
       </c>
       <c r="B508" s="2" t="inlineStr">
         <is>
-          <t>self-regulation through behavioural feedback</t>
+          <t>self-regulation process</t>
         </is>
       </c>
       <c r="C508" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D508" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation of behaviour&gt; that is informed by feedback.</t>
+          <t>A &lt;bodily process&gt; that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
         </is>
       </c>
       <c r="E508" s="2" t="inlineStr"/>
@@ -30923,22 +30929,22 @@
     <row r="509">
       <c r="A509" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050222</t>
+          <t>BCIO:050768</t>
         </is>
       </c>
       <c r="B509" s="2" t="inlineStr">
         <is>
-          <t>self-regulatory skill</t>
+          <t>self-regulation through behavioural feedback</t>
         </is>
       </c>
       <c r="C509" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D509" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation capability&gt; that is acquired through training or practice.</t>
+          <t>A &lt;self-regulation of behaviour&gt; that is informed by feedback.</t>
         </is>
       </c>
       <c r="E509" s="2" t="inlineStr"/>
@@ -30981,30 +30987,26 @@
     <row r="510">
       <c r="A510" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006106</t>
+          <t>BCIO:050222</t>
         </is>
       </c>
       <c r="B510" s="2" t="inlineStr">
         <is>
-          <t>self-reinforcing self-regulation</t>
+          <t>self-regulatory skill</t>
         </is>
       </c>
       <c r="C510" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D510" s="2" t="inlineStr">
         <is>
-          <t>&lt;Self-regulation of behaviour&gt; through self-administering a reward for performing an intended behaviour.</t>
+          <t>A &lt;self-regulation capability&gt; that is acquired through training or practice.</t>
         </is>
       </c>
       <c r="E510" s="2" t="inlineStr"/>
-      <c r="F510" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
+      <c r="F510" s="2" t="inlineStr"/>
       <c r="G510" s="2" t="inlineStr"/>
       <c r="H510" s="2" t="inlineStr"/>
       <c r="I510" s="2" t="inlineStr"/>
@@ -31043,26 +31045,30 @@
     <row r="511">
       <c r="A511" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006128</t>
+          <t>BCIO:006106</t>
         </is>
       </c>
       <c r="B511" s="2" t="inlineStr">
         <is>
-          <t>semantic memory</t>
+          <t>self-reinforcing self-regulation</t>
         </is>
       </c>
       <c r="C511" s="2" t="inlineStr">
         <is>
-          <t>memory process</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D511" s="2" t="inlineStr">
         <is>
-          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+          <t>&lt;Self-regulation of behaviour&gt; through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
       <c r="E511" s="2" t="inlineStr"/>
-      <c r="F511" s="2" t="inlineStr"/>
+      <c r="F511" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
+        </is>
+      </c>
       <c r="G511" s="2" t="inlineStr"/>
       <c r="H511" s="2" t="inlineStr"/>
       <c r="I511" s="2" t="inlineStr"/>
@@ -31099,78 +31105,82 @@
       <c r="X511" s="2" t="inlineStr"/>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E512" t="inlineStr"/>
-      <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr"/>
-      <c r="H512" t="inlineStr"/>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
-      <c r="M512" t="inlineStr"/>
-      <c r="N512" t="inlineStr"/>
-      <c r="O512" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P512" t="inlineStr"/>
-      <c r="Q512" t="inlineStr"/>
-      <c r="R512" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S512" t="inlineStr"/>
-      <c r="T512" t="inlineStr"/>
-      <c r="U512" t="inlineStr"/>
-      <c r="V512" t="inlineStr"/>
-      <c r="W512" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X512" t="inlineStr"/>
+      <c r="A512" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006128</t>
+        </is>
+      </c>
+      <c r="B512" s="2" t="inlineStr">
+        <is>
+          <t>semantic memory</t>
+        </is>
+      </c>
+      <c r="C512" s="2" t="inlineStr">
+        <is>
+          <t>memory process</t>
+        </is>
+      </c>
+      <c r="D512" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+        </is>
+      </c>
+      <c r="E512" s="2" t="inlineStr"/>
+      <c r="F512" s="2" t="inlineStr"/>
+      <c r="G512" s="2" t="inlineStr"/>
+      <c r="H512" s="2" t="inlineStr"/>
+      <c r="I512" s="2" t="inlineStr"/>
+      <c r="J512" s="2" t="inlineStr"/>
+      <c r="K512" s="2" t="inlineStr"/>
+      <c r="L512" s="2" t="inlineStr"/>
+      <c r="M512" s="2" t="inlineStr"/>
+      <c r="N512" s="2" t="inlineStr"/>
+      <c r="O512" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P512" s="2" t="inlineStr"/>
+      <c r="Q512" s="2" t="inlineStr"/>
+      <c r="R512" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S512" s="2" t="inlineStr"/>
+      <c r="T512" s="2" t="inlineStr"/>
+      <c r="U512" s="2" t="inlineStr"/>
+      <c r="V512" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W512" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X512" s="2" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>MFOEM:000040</t>
+          <t>GO:0046960</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>sexual pleasure</t>
+          <t>sensitization</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>&lt;Pleasure&gt; that is experienced as a result of sexual activities.</t>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E513" t="inlineStr"/>
@@ -31198,11 +31208,7 @@
       <c r="S513" t="inlineStr"/>
       <c r="T513" t="inlineStr"/>
       <c r="U513" t="inlineStr"/>
-      <c r="V513" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V513" t="inlineStr"/>
       <c r="W513" t="inlineStr">
         <is>
           <t>0</t>
@@ -31213,22 +31219,22 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>MFOEM:000055</t>
+          <t>MFOEM:000040</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>shame</t>
+          <t>sexual pleasure</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+          <t>&lt;Pleasure&gt; that is experienced as a result of sexual activities.</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -31256,7 +31262,11 @@
       <c r="S514" t="inlineStr"/>
       <c r="T514" t="inlineStr"/>
       <c r="U514" t="inlineStr"/>
-      <c r="V514" t="inlineStr"/>
+      <c r="V514" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W514" t="inlineStr">
         <is>
           <t>0</t>
@@ -31265,93 +31275,85 @@
       <c r="X514" t="inlineStr"/>
     </row>
     <row r="515">
-      <c r="A515" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050769</t>
-        </is>
-      </c>
-      <c r="B515" s="2" t="inlineStr">
-        <is>
-          <t>similarity to other people</t>
-        </is>
-      </c>
-      <c r="C515" s="2" t="inlineStr">
-        <is>
-          <t>social identity</t>
-        </is>
-      </c>
-      <c r="D515" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;social identity&gt; in which the representation is similarity between oneself and another person or group.</t>
-        </is>
-      </c>
-      <c r="E515" s="2" t="inlineStr"/>
-      <c r="F515" s="2" t="inlineStr"/>
-      <c r="G515" s="2" t="inlineStr"/>
-      <c r="H515" s="2" t="inlineStr"/>
-      <c r="I515" s="2" t="inlineStr"/>
-      <c r="J515" s="2" t="inlineStr"/>
-      <c r="K515" s="2" t="inlineStr"/>
-      <c r="L515" s="2" t="inlineStr"/>
-      <c r="M515" s="2" t="inlineStr"/>
-      <c r="N515" s="2" t="inlineStr"/>
-      <c r="O515" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P515" s="2" t="inlineStr"/>
-      <c r="Q515" s="2" t="inlineStr"/>
-      <c r="R515" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S515" s="2" t="inlineStr"/>
-      <c r="T515" s="2" t="inlineStr"/>
-      <c r="U515" s="2" t="inlineStr"/>
-      <c r="V515" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W515" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X515" s="2" t="inlineStr"/>
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr"/>
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="inlineStr"/>
+      <c r="H515" t="inlineStr"/>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
+      <c r="M515" t="inlineStr"/>
+      <c r="N515" t="inlineStr"/>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P515" t="inlineStr"/>
+      <c r="Q515" t="inlineStr"/>
+      <c r="R515" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S515" t="inlineStr"/>
+      <c r="T515" t="inlineStr"/>
+      <c r="U515" t="inlineStr"/>
+      <c r="V515" t="inlineStr"/>
+      <c r="W515" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006044</t>
+          <t>BCIO:050769</t>
         </is>
       </c>
       <c r="B516" s="2" t="inlineStr">
         <is>
-          <t>situational self-efficacy belief for a behaviour</t>
+          <t>similarity to other people</t>
         </is>
       </c>
       <c r="C516" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="D516" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief for a behaviour&gt; when a barrier or facilitator of the behaviour is encountered.</t>
+          <t>A &lt;social identity&gt; in which the representation is similarity between oneself and another person or group.</t>
         </is>
       </c>
       <c r="E516" s="2" t="inlineStr"/>
       <c r="F516" s="2" t="inlineStr"/>
       <c r="G516" s="2" t="inlineStr"/>
       <c r="H516" s="2" t="inlineStr"/>
-      <c r="I516" s="2" t="inlineStr">
-        <is>
-          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
-        </is>
-      </c>
+      <c r="I516" s="2" t="inlineStr"/>
       <c r="J516" s="2" t="inlineStr"/>
       <c r="K516" s="2" t="inlineStr"/>
       <c r="L516" s="2" t="inlineStr"/>
@@ -31387,29 +31389,33 @@
     <row r="517">
       <c r="A517" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006014</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B517" s="2" t="inlineStr">
         <is>
-          <t>social alienation</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C517" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D517" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
+          <t>A &lt;self-efficacy belief for a behaviour&gt; when a barrier or facilitator of the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E517" s="2" t="inlineStr"/>
       <c r="F517" s="2" t="inlineStr"/>
       <c r="G517" s="2" t="inlineStr"/>
       <c r="H517" s="2" t="inlineStr"/>
-      <c r="I517" s="2" t="inlineStr"/>
+      <c r="I517" s="2" t="inlineStr">
+        <is>
+          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
+        </is>
+      </c>
       <c r="J517" s="2" t="inlineStr"/>
       <c r="K517" s="2" t="inlineStr"/>
       <c r="L517" s="2" t="inlineStr"/>
@@ -31445,22 +31451,22 @@
     <row r="518">
       <c r="A518" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050877</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B518" s="2" t="inlineStr">
         <is>
-          <t>social approval pleasure</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C518" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D518" s="2" t="inlineStr">
         <is>
-          <t>&lt;Pleasure&gt; derived from receiving social approval</t>
+          <t>A &lt;mental disposition&gt; to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E518" s="2" t="inlineStr"/>
@@ -31503,22 +31509,22 @@
     <row r="519">
       <c r="A519" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:050877</t>
         </is>
       </c>
       <c r="B519" s="2" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>social approval pleasure</t>
         </is>
       </c>
       <c r="C519" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D519" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal capability&gt; includes interpersonal behaviour in its realisation.</t>
+          <t>&lt;Pleasure&gt; derived from receiving social approval</t>
         </is>
       </c>
       <c r="E519" s="2" t="inlineStr"/>
@@ -31559,148 +31565,148 @@
       <c r="X519" s="2" t="inlineStr"/>
     </row>
     <row r="520">
-      <c r="A520" s="3" t="inlineStr">
+      <c r="A520" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006011</t>
+        </is>
+      </c>
+      <c r="B520" s="2" t="inlineStr">
+        <is>
+          <t>social behavioural capability</t>
+        </is>
+      </c>
+      <c r="C520" s="2" t="inlineStr">
+        <is>
+          <t>behavioural capability</t>
+        </is>
+      </c>
+      <c r="D520" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;personal capability&gt; includes interpersonal behaviour in its realisation.</t>
+        </is>
+      </c>
+      <c r="E520" s="2" t="inlineStr"/>
+      <c r="F520" s="2" t="inlineStr"/>
+      <c r="G520" s="2" t="inlineStr"/>
+      <c r="H520" s="2" t="inlineStr"/>
+      <c r="I520" s="2" t="inlineStr"/>
+      <c r="J520" s="2" t="inlineStr"/>
+      <c r="K520" s="2" t="inlineStr"/>
+      <c r="L520" s="2" t="inlineStr"/>
+      <c r="M520" s="2" t="inlineStr"/>
+      <c r="N520" s="2" t="inlineStr"/>
+      <c r="O520" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P520" s="2" t="inlineStr"/>
+      <c r="Q520" s="2" t="inlineStr"/>
+      <c r="R520" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S520" s="2" t="inlineStr"/>
+      <c r="T520" s="2" t="inlineStr"/>
+      <c r="U520" s="2" t="inlineStr"/>
+      <c r="V520" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W520" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X520" s="2" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="3" t="inlineStr">
         <is>
           <t>BCIO:050770</t>
         </is>
       </c>
-      <c r="B520" s="3" t="inlineStr">
+      <c r="B521" s="3" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="C520" s="3" t="inlineStr">
+      <c r="C521" s="3" t="inlineStr">
         <is>
           <t>behavioural consequence</t>
         </is>
       </c>
-      <c r="D520" s="3" t="inlineStr">
+      <c r="D521" s="3" t="inlineStr">
         <is>
           <t>A &lt;behavioural consequence&gt; of a member of the person’s social environmental system.</t>
         </is>
       </c>
-      <c r="E520" s="3" t="inlineStr"/>
-      <c r="F520" s="3" t="inlineStr"/>
-      <c r="G520" s="3" t="inlineStr"/>
-      <c r="H520" s="3" t="inlineStr"/>
-      <c r="I520" s="3" t="inlineStr"/>
-      <c r="J520" s="3" t="inlineStr"/>
-      <c r="K520" s="3" t="inlineStr"/>
-      <c r="L520" s="3" t="inlineStr"/>
-      <c r="M520" s="3" t="inlineStr"/>
-      <c r="N520" s="3" t="inlineStr"/>
-      <c r="O520" s="3" t="inlineStr">
+      <c r="E521" s="3" t="inlineStr"/>
+      <c r="F521" s="3" t="inlineStr"/>
+      <c r="G521" s="3" t="inlineStr"/>
+      <c r="H521" s="3" t="inlineStr"/>
+      <c r="I521" s="3" t="inlineStr"/>
+      <c r="J521" s="3" t="inlineStr"/>
+      <c r="K521" s="3" t="inlineStr"/>
+      <c r="L521" s="3" t="inlineStr"/>
+      <c r="M521" s="3" t="inlineStr"/>
+      <c r="N521" s="3" t="inlineStr"/>
+      <c r="O521" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P520" s="3" t="inlineStr"/>
-      <c r="Q520" s="3" t="inlineStr"/>
-      <c r="R520" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S520" s="3" t="inlineStr"/>
-      <c r="T520" s="3" t="inlineStr"/>
-      <c r="U520" s="3" t="inlineStr"/>
-      <c r="V520" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W520" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X520" s="3" t="inlineStr"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006090</t>
-        </is>
-      </c>
-      <c r="B521" s="2" t="inlineStr">
-        <is>
-          <t>social behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="C521" s="2" t="inlineStr">
-        <is>
-          <t>behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="D521" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;behavioural opportunity&gt; that involves the social environmental system.</t>
-        </is>
-      </c>
-      <c r="E521" s="2" t="inlineStr"/>
-      <c r="F521" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Characteristics of a person's social environment that are needed for a behaviour or to facilitate it. </t>
-        </is>
-      </c>
-      <c r="G521" s="2" t="inlineStr"/>
-      <c r="H521" s="2" t="inlineStr"/>
-      <c r="I521" s="2" t="inlineStr"/>
-      <c r="J521" s="2" t="inlineStr"/>
-      <c r="K521" s="2" t="inlineStr"/>
-      <c r="L521" s="2" t="inlineStr"/>
-      <c r="M521" s="2" t="inlineStr"/>
-      <c r="N521" s="2" t="inlineStr"/>
-      <c r="O521" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P521" s="2" t="inlineStr"/>
-      <c r="Q521" s="2" t="inlineStr"/>
-      <c r="R521" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S521" s="2" t="inlineStr"/>
-      <c r="T521" s="2" t="inlineStr"/>
-      <c r="U521" s="2" t="inlineStr"/>
-      <c r="V521" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W521" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X521" s="2" t="inlineStr"/>
+      <c r="P521" s="3" t="inlineStr"/>
+      <c r="Q521" s="3" t="inlineStr"/>
+      <c r="R521" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S521" s="3" t="inlineStr"/>
+      <c r="T521" s="3" t="inlineStr"/>
+      <c r="U521" s="3" t="inlineStr"/>
+      <c r="V521" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W521" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X521" s="3" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050878</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B522" s="2" t="inlineStr">
         <is>
-          <t>social categorising</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C522" s="2" t="inlineStr">
         <is>
-          <t>mental categorising</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D522" s="2" t="inlineStr">
         <is>
-          <t>&lt;Mental categorising&gt; where what is being categorised are parts of the social environmental system.</t>
+          <t>A &lt;behavioural opportunity&gt; that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E522" s="2" t="inlineStr"/>
-      <c r="F522" s="2" t="inlineStr"/>
+      <c r="F522" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Characteristics of a person's social environment that are needed for a behaviour or to facilitate it. </t>
+        </is>
+      </c>
       <c r="G522" s="2" t="inlineStr"/>
       <c r="H522" s="2" t="inlineStr"/>
       <c r="I522" s="2" t="inlineStr"/>
@@ -31739,22 +31745,22 @@
     <row r="523">
       <c r="A523" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:050878</t>
         </is>
       </c>
       <c r="B523" s="2" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social categorising</t>
         </is>
       </c>
       <c r="C523" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>mental categorising</t>
         </is>
       </c>
       <c r="D523" s="2" t="inlineStr">
         <is>
-          <t>&lt;Judging&gt; oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>&lt;Mental categorising&gt; where what is being categorised are parts of the social environmental system.</t>
         </is>
       </c>
       <c r="E523" s="2" t="inlineStr"/>
@@ -31797,22 +31803,22 @@
     <row r="524">
       <c r="A524" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050879</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B524" s="2" t="inlineStr">
         <is>
-          <t>social connectedness pleasure</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C524" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D524" s="2" t="inlineStr">
         <is>
-          <t>&lt;Pleasure&gt; derived from feeling emotionally connected to others.</t>
+          <t>&lt;Judging&gt; oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E524" s="2" t="inlineStr"/>
@@ -31855,22 +31861,22 @@
     <row r="525">
       <c r="A525" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050880</t>
+          <t>BCIO:050879</t>
         </is>
       </c>
       <c r="B525" s="2" t="inlineStr">
         <is>
-          <t>social consequence of behaviour appraisal process</t>
+          <t>social connectedness pleasure</t>
         </is>
       </c>
       <c r="C525" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence appraisal process</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D525" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural consequences appraisal process&gt; in which the consequence concerns the social environmental system.</t>
+          <t>&lt;Pleasure&gt; derived from feeling emotionally connected to others.</t>
         </is>
       </c>
       <c r="E525" s="2" t="inlineStr"/>
@@ -31913,22 +31919,22 @@
     <row r="526">
       <c r="A526" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:050880</t>
         </is>
       </c>
       <c r="B526" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social consequence of behaviour appraisal process</t>
         </is>
       </c>
       <c r="C526" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural consequence appraisal process</t>
         </is>
       </c>
       <c r="D526" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to experience a feeling of being connected by social attachments.</t>
+          <t>A &lt;behavioural consequences appraisal process&gt; in which the consequence concerns the social environmental system.</t>
         </is>
       </c>
       <c r="E526" s="2" t="inlineStr"/>
@@ -31971,22 +31977,22 @@
     <row r="527">
       <c r="A527" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050771</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B527" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness in a social group</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C527" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D527" s="2" t="inlineStr">
         <is>
-          <t>&lt;Social embeddedness&gt; that involves attachment to a social group.</t>
+          <t>A &lt;mental disposition&gt; to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E527" s="2" t="inlineStr"/>
@@ -32029,22 +32035,22 @@
     <row r="528">
       <c r="A528" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050772</t>
+          <t>BCIO:050771</t>
         </is>
       </c>
       <c r="B528" s="2" t="inlineStr">
         <is>
-          <t>social environmental disposition</t>
+          <t>social embeddedness in a social group</t>
         </is>
       </c>
       <c r="C528" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="D528" s="2" t="inlineStr">
         <is>
-          <t>An &lt;environmental disposition&gt; of the social environmental system.</t>
+          <t>&lt;Social embeddedness&gt; that involves attachment to a social group.</t>
         </is>
       </c>
       <c r="E528" s="2" t="inlineStr"/>
@@ -32087,22 +32093,22 @@
     <row r="529">
       <c r="A529" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:050772</t>
         </is>
       </c>
       <c r="B529" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social environmental disposition</t>
         </is>
       </c>
       <c r="C529" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D529" s="2" t="inlineStr">
         <is>
-          <t>An &lt;environmental system&gt; that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>An &lt;environmental disposition&gt; of the social environmental system.</t>
         </is>
       </c>
       <c r="E529" s="2" t="inlineStr"/>
@@ -32145,22 +32151,22 @@
     <row r="530">
       <c r="A530" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050773</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B530" s="2" t="inlineStr">
         <is>
-          <t>social environmental system attribute</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C530" s="2" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D530" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attribute&gt; of a social environmental system.</t>
+          <t>An &lt;environmental system&gt; that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E530" s="2" t="inlineStr"/>
@@ -32203,22 +32209,22 @@
     <row r="531">
       <c r="A531" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050774</t>
+          <t>BCIO:050773</t>
         </is>
       </c>
       <c r="B531" s="2" t="inlineStr">
         <is>
-          <t>social group attribute</t>
+          <t>social environmental system attribute</t>
         </is>
       </c>
       <c r="C531" s="2" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="D531" s="2" t="inlineStr">
         <is>
-          <t>A &lt;specifically dependent continuant&gt; whose bearer is a social group.</t>
+          <t>An &lt;attribute&gt; of a social environmental system.</t>
         </is>
       </c>
       <c r="E531" s="2" t="inlineStr"/>
@@ -32261,29 +32267,25 @@
     <row r="532">
       <c r="A532" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050881</t>
+          <t>BCIO:050774</t>
         </is>
       </c>
       <c r="B532" s="2" t="inlineStr">
         <is>
-          <t>social group process</t>
+          <t>social group attribute</t>
         </is>
       </c>
       <c r="C532" s="2" t="inlineStr">
         <is>
-          <t>interpersonal process</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D532" s="2" t="inlineStr">
         <is>
-          <t>A &lt;interpersonal process&gt; that has some social group as a participant.</t>
-        </is>
-      </c>
-      <c r="E532" s="2" t="inlineStr">
-        <is>
-          <t>Any process involving one or more social group.</t>
-        </is>
-      </c>
+          <t>A &lt;specifically dependent continuant&gt; whose bearer is a social group.</t>
+        </is>
+      </c>
+      <c r="E532" s="2" t="inlineStr"/>
       <c r="F532" s="2" t="inlineStr"/>
       <c r="G532" s="2" t="inlineStr"/>
       <c r="H532" s="2" t="inlineStr"/>
@@ -32321,148 +32323,148 @@
       <c r="X532" s="2" t="inlineStr"/>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr">
+      <c r="A533" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050881</t>
+        </is>
+      </c>
+      <c r="B533" s="2" t="inlineStr">
+        <is>
+          <t>social group process</t>
+        </is>
+      </c>
+      <c r="C533" s="2" t="inlineStr">
+        <is>
+          <t>interpersonal process</t>
+        </is>
+      </c>
+      <c r="D533" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;interpersonal process&gt; that has some social group as a participant.</t>
+        </is>
+      </c>
+      <c r="E533" s="2" t="inlineStr">
+        <is>
+          <t>Any process involving one or more social group.</t>
+        </is>
+      </c>
+      <c r="F533" s="2" t="inlineStr"/>
+      <c r="G533" s="2" t="inlineStr"/>
+      <c r="H533" s="2" t="inlineStr"/>
+      <c r="I533" s="2" t="inlineStr"/>
+      <c r="J533" s="2" t="inlineStr"/>
+      <c r="K533" s="2" t="inlineStr"/>
+      <c r="L533" s="2" t="inlineStr"/>
+      <c r="M533" s="2" t="inlineStr"/>
+      <c r="N533" s="2" t="inlineStr"/>
+      <c r="O533" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P533" s="2" t="inlineStr"/>
+      <c r="Q533" s="2" t="inlineStr"/>
+      <c r="R533" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S533" s="2" t="inlineStr"/>
+      <c r="T533" s="2" t="inlineStr"/>
+      <c r="U533" s="2" t="inlineStr"/>
+      <c r="V533" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W533" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X533" s="2" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001087 </t>
         </is>
       </c>
-      <c r="B533" t="inlineStr">
+      <c r="B534" t="inlineStr">
         <is>
           <t>social identity</t>
         </is>
       </c>
-      <c r="C533" t="inlineStr">
+      <c r="C534" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="D533" t="inlineStr">
+      <c r="D534" t="inlineStr">
         <is>
           <t>A &lt;self-identity&gt; in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
-      <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
-      <c r="H533" t="inlineStr"/>
-      <c r="I533" t="inlineStr">
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" t="inlineStr"/>
+      <c r="G534" t="inlineStr"/>
+      <c r="H534" t="inlineStr"/>
+      <c r="I534" t="inlineStr">
         <is>
           <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
         </is>
       </c>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
-      <c r="M533" t="inlineStr"/>
-      <c r="N533" t="inlineStr"/>
-      <c r="O533" t="inlineStr">
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
+      <c r="M534" t="inlineStr"/>
+      <c r="N534" t="inlineStr"/>
+      <c r="O534" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P533" t="inlineStr"/>
-      <c r="Q533" t="inlineStr"/>
-      <c r="R533" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S533" t="inlineStr"/>
-      <c r="T533" t="inlineStr"/>
-      <c r="U533" t="inlineStr"/>
-      <c r="V533" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W533" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X533" t="inlineStr"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050775</t>
-        </is>
-      </c>
-      <c r="B534" s="2" t="inlineStr">
-        <is>
-          <t>social identity process</t>
-        </is>
-      </c>
-      <c r="C534" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D534" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that results from the person’s social identity.</t>
-        </is>
-      </c>
-      <c r="E534" s="2" t="inlineStr"/>
-      <c r="F534" s="2" t="inlineStr"/>
-      <c r="G534" s="2" t="inlineStr"/>
-      <c r="H534" s="2" t="inlineStr">
-        <is>
-          <t>attachment to a group, conflict</t>
-        </is>
-      </c>
-      <c r="I534" s="2" t="inlineStr"/>
-      <c r="J534" s="2" t="inlineStr"/>
-      <c r="K534" s="2" t="inlineStr"/>
-      <c r="L534" s="2" t="inlineStr"/>
-      <c r="M534" s="2" t="inlineStr"/>
-      <c r="N534" s="2" t="inlineStr"/>
-      <c r="O534" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P534" s="2" t="inlineStr"/>
-      <c r="Q534" s="2" t="inlineStr"/>
-      <c r="R534" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S534" s="2" t="inlineStr"/>
-      <c r="T534" s="2" t="inlineStr"/>
-      <c r="U534" s="2" t="inlineStr"/>
-      <c r="V534" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W534" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X534" s="2" t="inlineStr"/>
+      <c r="P534" t="inlineStr"/>
+      <c r="Q534" t="inlineStr"/>
+      <c r="R534" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S534" t="inlineStr"/>
+      <c r="T534" t="inlineStr"/>
+      <c r="U534" t="inlineStr"/>
+      <c r="V534" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W534" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:050775</t>
         </is>
       </c>
       <c r="B535" s="2" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>social identity process</t>
         </is>
       </c>
       <c r="C535" s="2" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D535" s="2" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
+          <t>A &lt;mental process&gt; that results from the person’s social identity.</t>
         </is>
       </c>
       <c r="E535" s="2" t="inlineStr"/>
@@ -32470,7 +32472,7 @@
       <c r="G535" s="2" t="inlineStr"/>
       <c r="H535" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Social support from social network. </t>
+          <t>attachment to a group, conflict</t>
         </is>
       </c>
       <c r="I535" s="2" t="inlineStr"/>
@@ -32509,33 +32511,33 @@
     <row r="536">
       <c r="A536" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050776</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B536" s="2" t="inlineStr">
         <is>
-          <t>social influence process</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C536" s="2" t="inlineStr">
         <is>
-          <t>interpersonal process</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D536" s="2" t="inlineStr">
         <is>
-          <t>An &lt;interpersonal process&gt; in which people’s thoughts, feelings or behaviours are influenced by other people.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E536" s="2" t="inlineStr"/>
       <c r="F536" s="2" t="inlineStr"/>
       <c r="G536" s="2" t="inlineStr"/>
-      <c r="H536" s="2" t="inlineStr"/>
-      <c r="I536" s="2" t="inlineStr">
-        <is>
-          <t>If social influence processes are specific to behaviour, the entity “social influence behaviour” should be referred to.</t>
-        </is>
-      </c>
+      <c r="H536" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
+      <c r="I536" s="2" t="inlineStr"/>
       <c r="J536" s="2" t="inlineStr"/>
       <c r="K536" s="2" t="inlineStr"/>
       <c r="L536" s="2" t="inlineStr"/>
@@ -32571,29 +32573,33 @@
     <row r="537">
       <c r="A537" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050777</t>
+          <t>BCIO:050776</t>
         </is>
       </c>
       <c r="B537" s="2" t="inlineStr">
         <is>
-          <t>social justice</t>
+          <t>social influence process</t>
         </is>
       </c>
       <c r="C537" s="2" t="inlineStr">
         <is>
-          <t>social environmental disposition</t>
+          <t>interpersonal process</t>
         </is>
       </c>
       <c r="D537" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social environmental disposition&gt; that is how far members of a society experience fair and equitable resources, opportunities and privileges.</t>
+          <t>An &lt;interpersonal process&gt; in which people’s thoughts, feelings or behaviours are influenced by other people.</t>
         </is>
       </c>
       <c r="E537" s="2" t="inlineStr"/>
       <c r="F537" s="2" t="inlineStr"/>
       <c r="G537" s="2" t="inlineStr"/>
       <c r="H537" s="2" t="inlineStr"/>
-      <c r="I537" s="2" t="inlineStr"/>
+      <c r="I537" s="2" t="inlineStr">
+        <is>
+          <t>If social influence processes are specific to behaviour, the entity “social influence behaviour” should be referred to.</t>
+        </is>
+      </c>
       <c r="J537" s="2" t="inlineStr"/>
       <c r="K537" s="2" t="inlineStr"/>
       <c r="L537" s="2" t="inlineStr"/>
@@ -32629,22 +32635,22 @@
     <row r="538">
       <c r="A538" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050882</t>
+          <t>BCIO:050777</t>
         </is>
       </c>
       <c r="B538" s="2" t="inlineStr">
         <is>
-          <t>social pleasure</t>
+          <t>social justice</t>
         </is>
       </c>
       <c r="C538" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>social environmental disposition</t>
         </is>
       </c>
       <c r="D538" s="2" t="inlineStr">
         <is>
-          <t>&lt;Pleasure&gt; derived from social interaction.</t>
+          <t>A &lt;social environmental disposition&gt; that is how far members of a society experience fair and equitable resources, opportunities and privileges.</t>
         </is>
       </c>
       <c r="E538" s="2" t="inlineStr"/>
@@ -32687,22 +32693,22 @@
     <row r="539">
       <c r="A539" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050778</t>
+          <t>BCIO:050882</t>
         </is>
       </c>
       <c r="B539" s="2" t="inlineStr">
         <is>
-          <t>social reinforcement process for a behaviour</t>
+          <t>social pleasure</t>
         </is>
       </c>
       <c r="C539" s="2" t="inlineStr">
         <is>
-          <t>reinforcement process</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D539" s="2" t="inlineStr">
         <is>
-          <t>A &lt;reinforcement process&gt; in which a behaviour is followed by a social event that alters the likelihood of the behaviour.</t>
+          <t>&lt;Pleasure&gt; derived from social interaction.</t>
         </is>
       </c>
       <c r="E539" s="2" t="inlineStr"/>
@@ -32745,33 +32751,29 @@
     <row r="540">
       <c r="A540" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050779</t>
+          <t>BCIO:050778</t>
         </is>
       </c>
       <c r="B540" s="2" t="inlineStr">
         <is>
-          <t>social representation of a behaviour</t>
+          <t>social reinforcement process for a behaviour</t>
         </is>
       </c>
       <c r="C540" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>reinforcement process</t>
         </is>
       </c>
       <c r="D540" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; about a behaviour that is shared by members of a social group.</t>
+          <t>A &lt;reinforcement process&gt; in which a behaviour is followed by a social event that alters the likelihood of the behaviour.</t>
         </is>
       </c>
       <c r="E540" s="2" t="inlineStr"/>
       <c r="F540" s="2" t="inlineStr"/>
       <c r="G540" s="2" t="inlineStr"/>
       <c r="H540" s="2" t="inlineStr"/>
-      <c r="I540" s="2" t="inlineStr">
-        <is>
-          <t>This class includes the physical representation of the behaviour and also the meanings that members of a social group assign to it.</t>
-        </is>
-      </c>
+      <c r="I540" s="2" t="inlineStr"/>
       <c r="J540" s="2" t="inlineStr"/>
       <c r="K540" s="2" t="inlineStr"/>
       <c r="L540" s="2" t="inlineStr"/>
@@ -32807,22 +32809,22 @@
     <row r="541">
       <c r="A541" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:050779</t>
         </is>
       </c>
       <c r="B541" s="2" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>social representation of a behaviour</t>
         </is>
       </c>
       <c r="C541" s="2" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D541" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal role&gt; that is realised in human social processes.</t>
+          <t>A &lt;cognitive representation&gt; about a behaviour that is shared by members of a social group.</t>
         </is>
       </c>
       <c r="E541" s="2" t="inlineStr"/>
@@ -32831,7 +32833,7 @@
       <c r="H541" s="2" t="inlineStr"/>
       <c r="I541" s="2" t="inlineStr">
         <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+          <t>This class includes the physical representation of the behaviour and also the meanings that members of a social group assign to it.</t>
         </is>
       </c>
       <c r="J541" s="2" t="inlineStr"/>
@@ -32869,29 +32871,33 @@
     <row r="542">
       <c r="A542" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050780</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B542" s="2" t="inlineStr">
         <is>
-          <t>social role learning</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C542" s="2" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D542" s="2" t="inlineStr">
         <is>
-          <t>&lt;Learning&gt; about one’s social role.</t>
+          <t>A &lt;personal role&gt; that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E542" s="2" t="inlineStr"/>
       <c r="F542" s="2" t="inlineStr"/>
       <c r="G542" s="2" t="inlineStr"/>
       <c r="H542" s="2" t="inlineStr"/>
-      <c r="I542" s="2" t="inlineStr"/>
+      <c r="I542" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J542" s="2" t="inlineStr"/>
       <c r="K542" s="2" t="inlineStr"/>
       <c r="L542" s="2" t="inlineStr"/>
@@ -32927,22 +32933,22 @@
     <row r="543">
       <c r="A543" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:050780</t>
         </is>
       </c>
       <c r="B543" s="2" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social role learning</t>
         </is>
       </c>
       <c r="C543" s="2" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="D543" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social behavioural capability&gt; acquired through training or practice.</t>
+          <t>&lt;Learning&gt; about one’s social role.</t>
         </is>
       </c>
       <c r="E543" s="2" t="inlineStr"/>
@@ -32985,22 +32991,22 @@
     <row r="544">
       <c r="A544" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:006012</t>
         </is>
       </c>
       <c r="B544" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="C544" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="D544" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that relates to the social environment.</t>
+          <t>A &lt;social behavioural capability&gt; acquired through training or practice.</t>
         </is>
       </c>
       <c r="E544" s="2" t="inlineStr"/>
@@ -33022,7 +33028,7 @@
       <c r="Q544" s="2" t="inlineStr"/>
       <c r="R544" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Mechanisms of action</t>
         </is>
       </c>
       <c r="S544" s="2" t="inlineStr"/>
@@ -33043,22 +33049,22 @@
     <row r="545">
       <c r="A545" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050781</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B545" s="2" t="inlineStr">
         <is>
-          <t>societal personal value</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="C545" s="2" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D545" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal value&gt; that involves regarding societal wellbeing as fundamentally important in life.</t>
+          <t>An &lt;individual human behaviour&gt; that relates to the social environment.</t>
         </is>
       </c>
       <c r="E545" s="2" t="inlineStr"/>
@@ -33080,7 +33086,7 @@
       <c r="Q545" s="2" t="inlineStr"/>
       <c r="R545" s="2" t="inlineStr">
         <is>
-          <t>Mechanisms of action</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="S545" s="2" t="inlineStr"/>
@@ -33101,22 +33107,22 @@
     <row r="546">
       <c r="A546" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050782</t>
+          <t>BCIO:050781</t>
         </is>
       </c>
       <c r="B546" s="2" t="inlineStr">
         <is>
-          <t>stability of living conditions</t>
+          <t>societal personal value</t>
         </is>
       </c>
       <c r="C546" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="D546" s="2" t="inlineStr">
         <is>
-          <t>An &lt;environmental disposition&gt; to have a stable and secure physical and social home environment.</t>
+          <t>A &lt;personal value&gt; that involves regarding societal wellbeing as fundamentally important in life.</t>
         </is>
       </c>
       <c r="E546" s="2" t="inlineStr"/>
@@ -33159,33 +33165,29 @@
     <row r="547">
       <c r="A547" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:050782</t>
         </is>
       </c>
       <c r="B547" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>stability of living conditions</t>
         </is>
       </c>
       <c r="C547" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D547" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive schema&gt; that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>An &lt;environmental disposition&gt; to have a stable and secure physical and social home environment.</t>
         </is>
       </c>
       <c r="E547" s="2" t="inlineStr"/>
       <c r="F547" s="2" t="inlineStr"/>
       <c r="G547" s="2" t="inlineStr"/>
       <c r="H547" s="2" t="inlineStr"/>
-      <c r="I547" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
-        </is>
-      </c>
+      <c r="I547" s="2" t="inlineStr"/>
       <c r="J547" s="2" t="inlineStr"/>
       <c r="K547" s="2" t="inlineStr"/>
       <c r="L547" s="2" t="inlineStr"/>
@@ -33221,35 +33223,31 @@
     <row r="548">
       <c r="A548" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050783</t>
+          <t>BCIO:006072</t>
         </is>
       </c>
       <c r="B548" s="2" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="C548" s="2" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>cognitive schema</t>
         </is>
       </c>
       <c r="D548" s="2" t="inlineStr">
         <is>
-          <t>An &lt;entity&gt; that acts as an input to a perceptual process leading to a thought, feeling or action.</t>
+          <t>A &lt;cognitive schema&gt; that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
         </is>
       </c>
       <c r="E548" s="2" t="inlineStr"/>
       <c r="F548" s="2" t="inlineStr"/>
       <c r="G548" s="2" t="inlineStr"/>
-      <c r="H548" s="2" t="inlineStr">
-        <is>
-          <t>a loud noise, the sight of a treadmill, the picture of specific foods</t>
-        </is>
-      </c>
+      <c r="H548" s="2" t="inlineStr"/>
       <c r="I548" s="2" t="inlineStr">
         <is>
-          <t>A stimulus can be naturally occurring or used as component of Behaviour Change Techniques (BCTs). These are part of learning processes and operationalized as part of BCTs.</t>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
         </is>
       </c>
       <c r="J548" s="2" t="inlineStr"/>
@@ -33287,31 +33285,35 @@
     <row r="549">
       <c r="A549" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050784</t>
+          <t>BCIO:050783</t>
         </is>
       </c>
       <c r="B549" s="2" t="inlineStr">
         <is>
-          <t>stimulus-impulse association</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="C549" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="D549" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; in which a stimulus strengthens a tendency for an impulse.</t>
+          <t>An &lt;entity&gt; that acts as an input to a perceptual process leading to a thought, feeling or action.</t>
         </is>
       </c>
       <c r="E549" s="2" t="inlineStr"/>
       <c r="F549" s="2" t="inlineStr"/>
       <c r="G549" s="2" t="inlineStr"/>
-      <c r="H549" s="2" t="inlineStr"/>
+      <c r="H549" s="2" t="inlineStr">
+        <is>
+          <t>a loud noise, the sight of a treadmill, the picture of specific foods</t>
+        </is>
+      </c>
       <c r="I549" s="2" t="inlineStr">
         <is>
-          <t>Stimulus-impulse association is part of operant learning processes.</t>
+          <t>A stimulus can be naturally occurring or used as component of Behaviour Change Techniques (BCTs). These are part of learning processes and operationalized as part of BCTs.</t>
         </is>
       </c>
       <c r="J549" s="2" t="inlineStr"/>
@@ -33349,22 +33351,22 @@
     <row r="550">
       <c r="A550" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050785</t>
+          <t>BCIO:050784</t>
         </is>
       </c>
       <c r="B550" s="2" t="inlineStr">
         <is>
-          <t>strength of attention</t>
+          <t>stimulus-impulse association</t>
         </is>
       </c>
       <c r="C550" s="2" t="inlineStr">
         <is>
-          <t>mental process attribute</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D550" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process attribute&gt; that is the extent to which attentional resources are focused on a target.</t>
+          <t>A &lt;mental process&gt; in which a stimulus strengthens a tendency for an impulse.</t>
         </is>
       </c>
       <c r="E550" s="2" t="inlineStr"/>
@@ -33373,7 +33375,7 @@
       <c r="H550" s="2" t="inlineStr"/>
       <c r="I550" s="2" t="inlineStr">
         <is>
-          <t>Target refers to anything that can be attended to, whether it be an object, an attribute of an object, information or a process.</t>
+          <t>Stimulus-impulse association is part of operant learning processes.</t>
         </is>
       </c>
       <c r="J550" s="2" t="inlineStr"/>
@@ -33411,29 +33413,33 @@
     <row r="551">
       <c r="A551" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050883</t>
+          <t>BCIO:050785</t>
         </is>
       </c>
       <c r="B551" s="2" t="inlineStr">
         <is>
-          <t>strength of group support for an intervention</t>
+          <t>strength of attention</t>
         </is>
       </c>
       <c r="C551" s="2" t="inlineStr">
         <is>
-          <t>social group attribute</t>
+          <t>mental process attribute</t>
         </is>
       </c>
       <c r="D551" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social group attribute&gt; that is the extent to which its members positively evaluate an intervention.</t>
+          <t>A &lt;mental process attribute&gt; that is the extent to which attentional resources are focused on a target.</t>
         </is>
       </c>
       <c r="E551" s="2" t="inlineStr"/>
       <c r="F551" s="2" t="inlineStr"/>
       <c r="G551" s="2" t="inlineStr"/>
       <c r="H551" s="2" t="inlineStr"/>
-      <c r="I551" s="2" t="inlineStr"/>
+      <c r="I551" s="2" t="inlineStr">
+        <is>
+          <t>Target refers to anything that can be attended to, whether it be an object, an attribute of an object, information or a process.</t>
+        </is>
+      </c>
       <c r="J551" s="2" t="inlineStr"/>
       <c r="K551" s="2" t="inlineStr"/>
       <c r="L551" s="2" t="inlineStr"/>
@@ -33467,173 +33473,169 @@
       <c r="X551" s="2" t="inlineStr"/>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr">
+      <c r="A552" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050883</t>
+        </is>
+      </c>
+      <c r="B552" s="2" t="inlineStr">
+        <is>
+          <t>strength of group support for an intervention</t>
+        </is>
+      </c>
+      <c r="C552" s="2" t="inlineStr">
+        <is>
+          <t>social group attribute</t>
+        </is>
+      </c>
+      <c r="D552" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;social group attribute&gt; that is the extent to which its members positively evaluate an intervention.</t>
+        </is>
+      </c>
+      <c r="E552" s="2" t="inlineStr"/>
+      <c r="F552" s="2" t="inlineStr"/>
+      <c r="G552" s="2" t="inlineStr"/>
+      <c r="H552" s="2" t="inlineStr"/>
+      <c r="I552" s="2" t="inlineStr"/>
+      <c r="J552" s="2" t="inlineStr"/>
+      <c r="K552" s="2" t="inlineStr"/>
+      <c r="L552" s="2" t="inlineStr"/>
+      <c r="M552" s="2" t="inlineStr"/>
+      <c r="N552" s="2" t="inlineStr"/>
+      <c r="O552" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P552" s="2" t="inlineStr"/>
+      <c r="Q552" s="2" t="inlineStr"/>
+      <c r="R552" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S552" s="2" t="inlineStr"/>
+      <c r="T552" s="2" t="inlineStr"/>
+      <c r="U552" s="2" t="inlineStr"/>
+      <c r="V552" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W552" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X552" s="2" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
-      <c r="B552" t="inlineStr">
+      <c r="B553" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="C552" t="inlineStr">
+      <c r="C553" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D552" t="inlineStr">
+      <c r="D553" t="inlineStr">
         <is>
           <t>An &lt;affective process&gt; that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
-      <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr">
+      <c r="E553" t="inlineStr"/>
+      <c r="F553" t="inlineStr">
         <is>
           <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
         </is>
       </c>
-      <c r="G552" t="inlineStr">
+      <c r="G553" t="inlineStr">
         <is>
           <t>Feeling calm; hunger; pain</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr"/>
-      <c r="I552" t="inlineStr">
+      <c r="H553" t="inlineStr"/>
+      <c r="I553" t="inlineStr">
         <is>
           <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
 Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
 As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
-      <c r="M552" t="inlineStr"/>
-      <c r="N552" t="inlineStr"/>
-      <c r="O552" t="inlineStr">
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
+      <c r="M553" t="inlineStr"/>
+      <c r="N553" t="inlineStr"/>
+      <c r="O553" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P552" t="inlineStr"/>
-      <c r="Q552" t="inlineStr"/>
-      <c r="R552" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S552" t="inlineStr"/>
-      <c r="T552" t="inlineStr"/>
-      <c r="U552" t="inlineStr"/>
-      <c r="V552" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W552" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050323</t>
-        </is>
-      </c>
-      <c r="B553" s="2" t="inlineStr">
-        <is>
-          <t>subjective feeling</t>
-        </is>
-      </c>
-      <c r="C553" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D553" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that involves the experience of internal or external sensory stimuli.</t>
-        </is>
-      </c>
-      <c r="E553" s="2" t="inlineStr"/>
-      <c r="F553" s="2" t="inlineStr"/>
-      <c r="G553" s="2" t="inlineStr"/>
-      <c r="H553" s="2" t="inlineStr">
-        <is>
-          <t>Feeling ticklish, feeling tingling</t>
-        </is>
-      </c>
-      <c r="I553" s="2" t="inlineStr">
-        <is>
-          <t>If a subjective feeling is valenced (i.e., an affective process), the more granular class “subjective affective feeling” can be used to capture this feeling.</t>
-        </is>
-      </c>
-      <c r="J553" s="2" t="inlineStr"/>
-      <c r="K553" s="2" t="inlineStr"/>
-      <c r="L553" s="2" t="inlineStr"/>
-      <c r="M553" s="2" t="inlineStr"/>
-      <c r="N553" s="2" t="inlineStr"/>
-      <c r="O553" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P553" s="2" t="inlineStr"/>
-      <c r="Q553" s="2" t="inlineStr"/>
-      <c r="R553" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S553" s="2" t="inlineStr"/>
-      <c r="T553" s="2" t="inlineStr"/>
-      <c r="U553" s="2" t="inlineStr"/>
-      <c r="V553" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W553" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X553" s="2" t="inlineStr"/>
+      <c r="P553" t="inlineStr"/>
+      <c r="Q553" t="inlineStr"/>
+      <c r="R553" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S553" t="inlineStr"/>
+      <c r="T553" t="inlineStr"/>
+      <c r="U553" t="inlineStr"/>
+      <c r="V553" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W553" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050316</t>
+          <t>BCIO:050323</t>
         </is>
       </c>
       <c r="B554" s="2" t="inlineStr">
         <is>
-          <t>subjective need</t>
+          <t>subjective feeling</t>
         </is>
       </c>
       <c r="C554" s="2" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D554" s="2" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; that is an attraction to an imagined scenario involving anticipated relief from or avoidance of mental or physical discomfort.</t>
+          <t>A &lt;mental process&gt; that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
       <c r="E554" s="2" t="inlineStr"/>
-      <c r="F554" s="2" t="inlineStr">
-        <is>
-          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
-        </is>
-      </c>
+      <c r="F554" s="2" t="inlineStr"/>
       <c r="G554" s="2" t="inlineStr"/>
-      <c r="H554" s="2" t="inlineStr"/>
-      <c r="I554" s="2" t="inlineStr"/>
+      <c r="H554" s="2" t="inlineStr">
+        <is>
+          <t>Feeling ticklish, feeling tingling</t>
+        </is>
+      </c>
+      <c r="I554" s="2" t="inlineStr">
+        <is>
+          <t>If a subjective feeling is valenced (i.e., an affective process), the more granular class “subjective affective feeling” can be used to capture this feeling.</t>
+        </is>
+      </c>
       <c r="J554" s="2" t="inlineStr"/>
       <c r="K554" s="2" t="inlineStr"/>
       <c r="L554" s="2" t="inlineStr"/>
@@ -33669,12 +33671,12 @@
     <row r="555">
       <c r="A555" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050317</t>
+          <t>BCIO:050316</t>
         </is>
       </c>
       <c r="B555" s="2" t="inlineStr">
         <is>
-          <t>subjective want</t>
+          <t>subjective need</t>
         </is>
       </c>
       <c r="C555" s="2" t="inlineStr">
@@ -33684,11 +33686,15 @@
       </c>
       <c r="D555" s="2" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; that is an attraction to an imagined scenario involving anticipated pleasure or satisfaction.</t>
+          <t>A &lt;subjective affective feeling&gt; that is an attraction to an imagined scenario involving anticipated relief from or avoidance of mental or physical discomfort.</t>
         </is>
       </c>
       <c r="E555" s="2" t="inlineStr"/>
-      <c r="F555" s="2" t="inlineStr"/>
+      <c r="F555" s="2" t="inlineStr">
+        <is>
+          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
+        </is>
+      </c>
       <c r="G555" s="2" t="inlineStr"/>
       <c r="H555" s="2" t="inlineStr"/>
       <c r="I555" s="2" t="inlineStr"/>
@@ -33725,93 +33731,89 @@
       <c r="X555" s="2" t="inlineStr"/>
     </row>
     <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr"/>
-      <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr"/>
-      <c r="H556" t="inlineStr"/>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
-      <c r="M556" t="inlineStr"/>
-      <c r="N556" t="inlineStr"/>
-      <c r="O556" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P556" t="inlineStr"/>
-      <c r="Q556" t="inlineStr"/>
-      <c r="R556" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S556" t="inlineStr"/>
-      <c r="T556" t="inlineStr"/>
-      <c r="U556" t="inlineStr"/>
-      <c r="V556" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W556" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X556" t="inlineStr"/>
+      <c r="A556" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050317</t>
+        </is>
+      </c>
+      <c r="B556" s="2" t="inlineStr">
+        <is>
+          <t>subjective want</t>
+        </is>
+      </c>
+      <c r="C556" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D556" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;subjective affective feeling&gt; that is an attraction to an imagined scenario involving anticipated pleasure or satisfaction.</t>
+        </is>
+      </c>
+      <c r="E556" s="2" t="inlineStr"/>
+      <c r="F556" s="2" t="inlineStr"/>
+      <c r="G556" s="2" t="inlineStr"/>
+      <c r="H556" s="2" t="inlineStr"/>
+      <c r="I556" s="2" t="inlineStr"/>
+      <c r="J556" s="2" t="inlineStr"/>
+      <c r="K556" s="2" t="inlineStr"/>
+      <c r="L556" s="2" t="inlineStr"/>
+      <c r="M556" s="2" t="inlineStr"/>
+      <c r="N556" s="2" t="inlineStr"/>
+      <c r="O556" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P556" s="2" t="inlineStr"/>
+      <c r="Q556" s="2" t="inlineStr"/>
+      <c r="R556" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S556" s="2" t="inlineStr"/>
+      <c r="T556" s="2" t="inlineStr"/>
+      <c r="U556" s="2" t="inlineStr"/>
+      <c r="V556" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W556" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X556" s="2" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ADDICTO:0001140</t>
+          <t xml:space="preserve">MF:0000088 </t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>substance dependence</t>
+          <t>subliminal process</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+          <t>A &lt;mental process&gt; that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr"/>
       <c r="H557" t="inlineStr"/>
-      <c r="I557" t="inlineStr">
-        <is>
-          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
-        </is>
-      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr"/>
@@ -33845,86 +33847,86 @@
       <c r="X557" t="inlineStr"/>
     </row>
     <row r="558">
-      <c r="A558" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050786</t>
-        </is>
-      </c>
-      <c r="B558" s="2" t="inlineStr">
-        <is>
-          <t>supportive social environmental disposition</t>
-        </is>
-      </c>
-      <c r="C558" s="2" t="inlineStr">
-        <is>
-          <t>social environmental disposition</t>
-        </is>
-      </c>
-      <c r="D558" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;social environmental disposition&gt; that is the extend to which the social environemental system benefits the person’s thoughts, emotions or behaviours.</t>
-        </is>
-      </c>
-      <c r="E558" s="2" t="inlineStr"/>
-      <c r="F558" s="2" t="inlineStr"/>
-      <c r="G558" s="2" t="inlineStr"/>
-      <c r="H558" s="2" t="inlineStr"/>
-      <c r="I558" s="2" t="inlineStr">
-        <is>
-          <t>If you are interested in capturing a social environmental system that is supportive rather than to what extend a system is supportive, then please refer to "supportive social environmental system".</t>
-        </is>
-      </c>
-      <c r="J558" s="2" t="inlineStr"/>
-      <c r="K558" s="2" t="inlineStr"/>
-      <c r="L558" s="2" t="inlineStr"/>
-      <c r="M558" s="2" t="inlineStr"/>
-      <c r="N558" s="2" t="inlineStr"/>
-      <c r="O558" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P558" s="2" t="inlineStr"/>
-      <c r="Q558" s="2" t="inlineStr"/>
-      <c r="R558" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S558" s="2" t="inlineStr"/>
-      <c r="T558" s="2" t="inlineStr"/>
-      <c r="U558" s="2" t="inlineStr"/>
-      <c r="V558" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W558" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X558" s="2" t="inlineStr"/>
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001140</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>substance dependence</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>A &lt;bodily disposition&gt; which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr"/>
+      <c r="H558" t="inlineStr"/>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
+      <c r="M558" t="inlineStr"/>
+      <c r="N558" t="inlineStr"/>
+      <c r="O558" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P558" t="inlineStr"/>
+      <c r="Q558" t="inlineStr"/>
+      <c r="R558" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S558" t="inlineStr"/>
+      <c r="T558" t="inlineStr"/>
+      <c r="U558" t="inlineStr"/>
+      <c r="V558" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W558" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050787</t>
+          <t>BCIO:050786</t>
         </is>
       </c>
       <c r="B559" s="2" t="inlineStr">
         <is>
-          <t>supportive social environmental system</t>
+          <t>supportive social environmental disposition</t>
         </is>
       </c>
       <c r="C559" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social environmental disposition</t>
         </is>
       </c>
       <c r="D559" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social environmental system&gt; that benefits the person’s thoughts, emotions or behaviours.</t>
+          <t>A &lt;social environmental disposition&gt; that is the extend to which the social environemental system benefits the person’s thoughts, emotions or behaviours.</t>
         </is>
       </c>
       <c r="E559" s="2" t="inlineStr"/>
@@ -33933,7 +33935,7 @@
       <c r="H559" s="2" t="inlineStr"/>
       <c r="I559" s="2" t="inlineStr">
         <is>
-          <t>If you are interested in capturing to what extend a system is supportive rather than the system itself, then please refer to "supportive social environmental disposition".</t>
+          <t>If you are interested in capturing a social environmental system that is supportive rather than to what extend a system is supportive, then please refer to "supportive social environmental system".</t>
         </is>
       </c>
       <c r="J559" s="2" t="inlineStr"/>
@@ -33969,261 +33971,265 @@
       <c r="X559" s="2" t="inlineStr"/>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr">
+      <c r="A560" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050787</t>
+        </is>
+      </c>
+      <c r="B560" s="2" t="inlineStr">
+        <is>
+          <t>supportive social environmental system</t>
+        </is>
+      </c>
+      <c r="C560" s="2" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="D560" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;social environmental system&gt; that benefits the person’s thoughts, emotions or behaviours.</t>
+        </is>
+      </c>
+      <c r="E560" s="2" t="inlineStr"/>
+      <c r="F560" s="2" t="inlineStr"/>
+      <c r="G560" s="2" t="inlineStr"/>
+      <c r="H560" s="2" t="inlineStr"/>
+      <c r="I560" s="2" t="inlineStr">
+        <is>
+          <t>If you are interested in capturing to what extend a system is supportive rather than the system itself, then please refer to "supportive social environmental disposition".</t>
+        </is>
+      </c>
+      <c r="J560" s="2" t="inlineStr"/>
+      <c r="K560" s="2" t="inlineStr"/>
+      <c r="L560" s="2" t="inlineStr"/>
+      <c r="M560" s="2" t="inlineStr"/>
+      <c r="N560" s="2" t="inlineStr"/>
+      <c r="O560" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P560" s="2" t="inlineStr"/>
+      <c r="Q560" s="2" t="inlineStr"/>
+      <c r="R560" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S560" s="2" t="inlineStr"/>
+      <c r="T560" s="2" t="inlineStr"/>
+      <c r="U560" s="2" t="inlineStr"/>
+      <c r="V560" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W560" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X560" s="2" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
         <is>
           <t>MFOEM:000032</t>
         </is>
       </c>
-      <c r="B560" t="inlineStr">
+      <c r="B561" t="inlineStr">
         <is>
           <t>surprise</t>
         </is>
       </c>
-      <c r="C560" t="inlineStr">
+      <c r="C561" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D560" t="inlineStr">
+      <c r="D561" t="inlineStr">
         <is>
           <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
         </is>
       </c>
-      <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr"/>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
-      <c r="M560" t="inlineStr"/>
-      <c r="N560" t="inlineStr"/>
-      <c r="O560" t="inlineStr">
+      <c r="E561" t="inlineStr"/>
+      <c r="F561" t="inlineStr"/>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="inlineStr"/>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
+      <c r="M561" t="inlineStr"/>
+      <c r="N561" t="inlineStr"/>
+      <c r="O561" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P560" t="inlineStr"/>
-      <c r="Q560" t="inlineStr"/>
-      <c r="R560" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S560" t="inlineStr"/>
-      <c r="T560" t="inlineStr"/>
-      <c r="U560" t="inlineStr"/>
-      <c r="V560" t="inlineStr"/>
-      <c r="W560" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="2" t="inlineStr">
+      <c r="P561" t="inlineStr"/>
+      <c r="Q561" t="inlineStr"/>
+      <c r="R561" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S561" t="inlineStr"/>
+      <c r="T561" t="inlineStr"/>
+      <c r="U561" t="inlineStr"/>
+      <c r="V561" t="inlineStr"/>
+      <c r="W561" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="inlineStr">
         <is>
           <t>BCIO:050788</t>
         </is>
       </c>
-      <c r="B561" s="2" t="inlineStr">
+      <c r="B562" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">symbol processing skill </t>
         </is>
       </c>
-      <c r="C561" s="2" t="inlineStr">
+      <c r="C562" s="2" t="inlineStr">
         <is>
           <t>mental skill</t>
         </is>
       </c>
-      <c r="D561" s="2" t="inlineStr">
+      <c r="D562" s="2" t="inlineStr">
         <is>
           <t>A &lt;mental skill&gt; to be able to process information in the form of symbols.</t>
         </is>
       </c>
-      <c r="E561" s="2" t="inlineStr"/>
-      <c r="F561" s="2" t="inlineStr"/>
-      <c r="G561" s="2" t="inlineStr"/>
-      <c r="H561" s="2" t="inlineStr"/>
-      <c r="I561" s="2" t="inlineStr"/>
-      <c r="J561" s="2" t="inlineStr"/>
-      <c r="K561" s="2" t="inlineStr"/>
-      <c r="L561" s="2" t="inlineStr"/>
-      <c r="M561" s="2" t="inlineStr"/>
-      <c r="N561" s="2" t="inlineStr"/>
-      <c r="O561" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P561" s="2" t="inlineStr"/>
-      <c r="Q561" s="2" t="inlineStr"/>
-      <c r="R561" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S561" s="2" t="inlineStr"/>
-      <c r="T561" s="2" t="inlineStr"/>
-      <c r="U561" s="2" t="inlineStr"/>
-      <c r="V561" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W561" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X561" s="2" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
+      <c r="E562" s="2" t="inlineStr"/>
+      <c r="F562" s="2" t="inlineStr"/>
+      <c r="G562" s="2" t="inlineStr"/>
+      <c r="H562" s="2" t="inlineStr"/>
+      <c r="I562" s="2" t="inlineStr"/>
+      <c r="J562" s="2" t="inlineStr"/>
+      <c r="K562" s="2" t="inlineStr"/>
+      <c r="L562" s="2" t="inlineStr"/>
+      <c r="M562" s="2" t="inlineStr"/>
+      <c r="N562" s="2" t="inlineStr"/>
+      <c r="O562" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P562" s="2" t="inlineStr"/>
+      <c r="Q562" s="2" t="inlineStr"/>
+      <c r="R562" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S562" s="2" t="inlineStr"/>
+      <c r="T562" s="2" t="inlineStr"/>
+      <c r="U562" s="2" t="inlineStr"/>
+      <c r="V562" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W562" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X562" s="2" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
         <is>
           <t>RO:0002577</t>
         </is>
       </c>
-      <c r="B562" t="inlineStr">
+      <c r="B563" t="inlineStr">
         <is>
           <t>system</t>
         </is>
       </c>
-      <c r="C562" t="inlineStr">
+      <c r="C563" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="D562" t="inlineStr">
+      <c r="D563" t="inlineStr">
         <is>
           <t>A &lt;material entity&gt; consisting of multiple components that are causally integrated.</t>
         </is>
       </c>
-      <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr"/>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
-      <c r="M562" t="inlineStr"/>
-      <c r="N562" t="inlineStr"/>
-      <c r="O562" t="inlineStr">
+      <c r="E563" t="inlineStr"/>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
+      <c r="H563" t="inlineStr"/>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
+      <c r="M563" t="inlineStr"/>
+      <c r="N563" t="inlineStr"/>
+      <c r="O563" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P562" t="inlineStr"/>
-      <c r="Q562" t="inlineStr"/>
-      <c r="R562" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S562" t="inlineStr"/>
-      <c r="T562" t="inlineStr"/>
-      <c r="U562" t="inlineStr"/>
-      <c r="V562" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W562" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006163</t>
-        </is>
-      </c>
-      <c r="B563" s="2" t="inlineStr">
-        <is>
-          <t>targeted mental distancing</t>
-        </is>
-      </c>
-      <c r="C563" s="2" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="D563" s="2" t="inlineStr">
-        <is>
-          <t>&lt;Mental distancing&gt; that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
-        </is>
-      </c>
-      <c r="E563" s="2" t="inlineStr"/>
-      <c r="F563" s="2" t="inlineStr"/>
-      <c r="G563" s="2" t="inlineStr">
-        <is>
-          <t>targeted decentring</t>
-        </is>
-      </c>
-      <c r="H563" s="2" t="inlineStr"/>
-      <c r="I563" s="2" t="inlineStr"/>
-      <c r="J563" s="2" t="inlineStr"/>
-      <c r="K563" s="2" t="inlineStr"/>
-      <c r="L563" s="2" t="inlineStr"/>
-      <c r="M563" s="2" t="inlineStr"/>
-      <c r="N563" s="2" t="inlineStr"/>
-      <c r="O563" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P563" s="2" t="inlineStr"/>
-      <c r="Q563" s="2" t="inlineStr"/>
-      <c r="R563" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S563" s="2" t="inlineStr"/>
-      <c r="T563" s="2" t="inlineStr"/>
-      <c r="U563" s="2" t="inlineStr"/>
-      <c r="V563" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W563" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X563" s="2" t="inlineStr"/>
+      <c r="P563" t="inlineStr"/>
+      <c r="Q563" t="inlineStr"/>
+      <c r="R563" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S563" t="inlineStr"/>
+      <c r="T563" t="inlineStr"/>
+      <c r="U563" t="inlineStr"/>
+      <c r="V563" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W563" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050789</t>
+          <t>BCIO:006163</t>
         </is>
       </c>
       <c r="B564" s="2" t="inlineStr">
         <is>
-          <t>technology availability</t>
+          <t>targeted mental distancing</t>
         </is>
       </c>
       <c r="C564" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="D564" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural opportunity&gt; that involves the extend to which technology is available in the environmental system.</t>
+          <t>&lt;Mental distancing&gt; that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
       <c r="E564" s="2" t="inlineStr"/>
       <c r="F564" s="2" t="inlineStr"/>
-      <c r="G564" s="2" t="inlineStr"/>
+      <c r="G564" s="2" t="inlineStr">
+        <is>
+          <t>targeted decentring</t>
+        </is>
+      </c>
       <c r="H564" s="2" t="inlineStr"/>
       <c r="I564" s="2" t="inlineStr"/>
       <c r="J564" s="2" t="inlineStr"/>
@@ -34261,30 +34267,26 @@
     <row r="565">
       <c r="A565" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006091</t>
+          <t>BCIO:050789</t>
         </is>
       </c>
       <c r="B565" s="2" t="inlineStr">
         <is>
-          <t>temporal behavioural opportunity</t>
+          <t>technology availability</t>
         </is>
       </c>
       <c r="C565" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D565" s="2" t="inlineStr">
         <is>
-          <t>A &lt;physical behavioural opportunity&gt; that involves the person having sufficient time or a suitable period.</t>
+          <t>A &lt;behavioural opportunity&gt; that involves the extend to which technology is available in the environmental system.</t>
         </is>
       </c>
       <c r="E565" s="2" t="inlineStr"/>
-      <c r="F565" s="2" t="inlineStr">
-        <is>
-          <t>Characteristics of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
+      <c r="F565" s="2" t="inlineStr"/>
       <c r="G565" s="2" t="inlineStr"/>
       <c r="H565" s="2" t="inlineStr"/>
       <c r="I565" s="2" t="inlineStr"/>
@@ -34323,26 +34325,30 @@
     <row r="566">
       <c r="A566" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050790</t>
+          <t>BCIO:006091</t>
         </is>
       </c>
       <c r="B566" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation</t>
+          <t>temporal behavioural opportunity</t>
         </is>
       </c>
       <c r="C566" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="D566" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to appraise imagined future occurrences differently according to how far in the future they are judged to occur.</t>
+          <t>A &lt;physical behavioural opportunity&gt; that involves the person having sufficient time or a suitable period.</t>
         </is>
       </c>
       <c r="E566" s="2" t="inlineStr"/>
-      <c r="F566" s="2" t="inlineStr"/>
+      <c r="F566" s="2" t="inlineStr">
+        <is>
+          <t>Characteristics of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
       <c r="G566" s="2" t="inlineStr"/>
       <c r="H566" s="2" t="inlineStr"/>
       <c r="I566" s="2" t="inlineStr"/>
@@ -34381,22 +34387,22 @@
     <row r="567">
       <c r="A567" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050230</t>
+          <t>BCIO:050790</t>
         </is>
       </c>
       <c r="B567" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the future</t>
+          <t>temporal orientation</t>
         </is>
       </c>
       <c r="C567" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D567" s="2" t="inlineStr">
         <is>
-          <t>A &lt;temporal orientation&gt; to focus more on future than present outcomes.</t>
+          <t>A &lt;mental disposition&gt; to appraise imagined future occurrences differently according to how far in the future they are judged to occur.</t>
         </is>
       </c>
       <c r="E567" s="2" t="inlineStr"/>
@@ -34439,12 +34445,12 @@
     <row r="568">
       <c r="A568" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050231</t>
+          <t>BCIO:050230</t>
         </is>
       </c>
       <c r="B568" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the present</t>
+          <t>temporal orientation to the future</t>
         </is>
       </c>
       <c r="C568" s="2" t="inlineStr">
@@ -34454,7 +34460,7 @@
       </c>
       <c r="D568" s="2" t="inlineStr">
         <is>
-          <t>A &lt;temporal orientation&gt; to focus more on present than future outcomes.</t>
+          <t>A &lt;temporal orientation&gt; to focus more on future than present outcomes.</t>
         </is>
       </c>
       <c r="E568" s="2" t="inlineStr"/>
@@ -34495,140 +34501,140 @@
       <c r="X568" s="2" t="inlineStr"/>
     </row>
     <row r="569">
-      <c r="A569" t="inlineStr">
+      <c r="A569" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050231</t>
+        </is>
+      </c>
+      <c r="B569" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation to the present</t>
+        </is>
+      </c>
+      <c r="C569" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation</t>
+        </is>
+      </c>
+      <c r="D569" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;temporal orientation&gt; to focus more on present than future outcomes.</t>
+        </is>
+      </c>
+      <c r="E569" s="2" t="inlineStr"/>
+      <c r="F569" s="2" t="inlineStr"/>
+      <c r="G569" s="2" t="inlineStr"/>
+      <c r="H569" s="2" t="inlineStr"/>
+      <c r="I569" s="2" t="inlineStr"/>
+      <c r="J569" s="2" t="inlineStr"/>
+      <c r="K569" s="2" t="inlineStr"/>
+      <c r="L569" s="2" t="inlineStr"/>
+      <c r="M569" s="2" t="inlineStr"/>
+      <c r="N569" s="2" t="inlineStr"/>
+      <c r="O569" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P569" s="2" t="inlineStr"/>
+      <c r="Q569" s="2" t="inlineStr"/>
+      <c r="R569" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S569" s="2" t="inlineStr"/>
+      <c r="T569" s="2" t="inlineStr"/>
+      <c r="U569" s="2" t="inlineStr"/>
+      <c r="V569" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W569" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X569" s="2" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B569" t="inlineStr">
+      <c r="B570" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C569" t="inlineStr">
+      <c r="C570" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D569" t="inlineStr">
+      <c r="D570" t="inlineStr">
         <is>
           <t>A &lt;cognitive process&gt; that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="E569" t="inlineStr"/>
-      <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr"/>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
-      <c r="M569" t="inlineStr"/>
-      <c r="N569" t="inlineStr"/>
-      <c r="O569" t="inlineStr">
+      <c r="E570" t="inlineStr"/>
+      <c r="F570" t="inlineStr"/>
+      <c r="G570" t="inlineStr"/>
+      <c r="H570" t="inlineStr"/>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
+      <c r="M570" t="inlineStr"/>
+      <c r="N570" t="inlineStr"/>
+      <c r="O570" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P569" t="inlineStr"/>
-      <c r="Q569" t="inlineStr"/>
-      <c r="R569" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S569" t="inlineStr"/>
-      <c r="T569" t="inlineStr"/>
-      <c r="U569" t="inlineStr"/>
-      <c r="V569" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W569" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050791</t>
-        </is>
-      </c>
-      <c r="B570" s="2" t="inlineStr">
-        <is>
-          <t>threat appraisal</t>
-        </is>
-      </c>
-      <c r="C570" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="D570" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; that is about belief about threat expressed as the likelihood of a potentially harmful occurrence weighted by the severity of the harm.</t>
-        </is>
-      </c>
-      <c r="E570" s="2" t="inlineStr"/>
-      <c r="F570" s="2" t="inlineStr"/>
-      <c r="G570" s="2" t="inlineStr"/>
-      <c r="H570" s="2" t="inlineStr"/>
-      <c r="I570" s="2" t="inlineStr"/>
-      <c r="J570" s="2" t="inlineStr"/>
-      <c r="K570" s="2" t="inlineStr"/>
-      <c r="L570" s="2" t="inlineStr"/>
-      <c r="M570" s="2" t="inlineStr"/>
-      <c r="N570" s="2" t="inlineStr"/>
-      <c r="O570" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P570" s="2" t="inlineStr"/>
-      <c r="Q570" s="2" t="inlineStr"/>
-      <c r="R570" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S570" s="2" t="inlineStr"/>
-      <c r="T570" s="2" t="inlineStr"/>
-      <c r="U570" s="2" t="inlineStr"/>
-      <c r="V570" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W570" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X570" s="2" t="inlineStr"/>
+      <c r="P570" t="inlineStr"/>
+      <c r="Q570" t="inlineStr"/>
+      <c r="R570" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S570" t="inlineStr"/>
+      <c r="T570" t="inlineStr"/>
+      <c r="U570" t="inlineStr"/>
+      <c r="V570" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W570" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050884</t>
+          <t>BCIO:050791</t>
         </is>
       </c>
       <c r="B571" s="2" t="inlineStr">
         <is>
-          <t>total internal influence on behaviour</t>
+          <t>threat appraisal</t>
         </is>
       </c>
       <c r="C571" s="2" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D571" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; that is the aggregate of internal influences on behaviour.</t>
+          <t>A &lt;data item&gt; that is about belief about threat expressed as the likelihood of a potentially harmful occurrence weighted by the severity of the harm.</t>
         </is>
       </c>
       <c r="E571" s="2" t="inlineStr"/>
@@ -34671,22 +34677,22 @@
     <row r="572">
       <c r="A572" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050792</t>
+          <t>BCIO:050884</t>
         </is>
       </c>
       <c r="B572" s="2" t="inlineStr">
         <is>
-          <t>traditional personal value</t>
+          <t>total internal influence on behaviour</t>
         </is>
       </c>
       <c r="C572" s="2" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D572" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal value&gt; that involves regarding long-standing social customs as fundamentally important in life.</t>
+          <t>A &lt;bodily disposition&gt; that is the aggregate of internal influences on behaviour.</t>
         </is>
       </c>
       <c r="E572" s="2" t="inlineStr"/>
@@ -34729,33 +34735,29 @@
     <row r="573">
       <c r="A573" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050885</t>
+          <t>BCIO:050792</t>
         </is>
       </c>
       <c r="B573" s="2" t="inlineStr">
         <is>
-          <t>underestimated perceived descriptive norm</t>
+          <t>traditional personal value</t>
         </is>
       </c>
       <c r="C573" s="2" t="inlineStr">
         <is>
-          <t>perceived descriptive norm</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="D573" s="2" t="inlineStr">
         <is>
-          <t>A &lt;perceived descriptive norm&gt; in which the prevalence of a behaviour is underestimated.</t>
+          <t>A &lt;personal value&gt; that involves regarding long-standing social customs as fundamentally important in life.</t>
         </is>
       </c>
       <c r="E573" s="2" t="inlineStr"/>
       <c r="F573" s="2" t="inlineStr"/>
       <c r="G573" s="2" t="inlineStr"/>
       <c r="H573" s="2" t="inlineStr"/>
-      <c r="I573" s="2" t="inlineStr">
-        <is>
-          <t>This is the belief of an individual.</t>
-        </is>
-      </c>
+      <c r="I573" s="2" t="inlineStr"/>
       <c r="J573" s="2" t="inlineStr"/>
       <c r="K573" s="2" t="inlineStr"/>
       <c r="L573" s="2" t="inlineStr"/>
@@ -34791,29 +34793,33 @@
     <row r="574">
       <c r="A574" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050793</t>
+          <t>BCIO:050885</t>
         </is>
       </c>
       <c r="B574" s="2" t="inlineStr">
         <is>
-          <t>utility maximisation disposition</t>
+          <t>underestimated perceived descriptive norm</t>
         </is>
       </c>
       <c r="C574" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>perceived descriptive norm</t>
         </is>
       </c>
       <c r="D574" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to behave in a way that seeks to maximise the net positive consequences of behaviour.</t>
+          <t>A &lt;perceived descriptive norm&gt; in which the prevalence of a behaviour is underestimated.</t>
         </is>
       </c>
       <c r="E574" s="2" t="inlineStr"/>
       <c r="F574" s="2" t="inlineStr"/>
       <c r="G574" s="2" t="inlineStr"/>
       <c r="H574" s="2" t="inlineStr"/>
-      <c r="I574" s="2" t="inlineStr"/>
+      <c r="I574" s="2" t="inlineStr">
+        <is>
+          <t>This is the belief of an individual.</t>
+        </is>
+      </c>
       <c r="J574" s="2" t="inlineStr"/>
       <c r="K574" s="2" t="inlineStr"/>
       <c r="L574" s="2" t="inlineStr"/>
@@ -34849,22 +34855,22 @@
     <row r="575">
       <c r="A575" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006107</t>
+          <t>BCIO:050793</t>
         </is>
       </c>
       <c r="B575" s="2" t="inlineStr">
         <is>
-          <t>value-congruent self-regulation</t>
+          <t>utility maximisation disposition</t>
         </is>
       </c>
       <c r="C575" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D575" s="2" t="inlineStr">
         <is>
-          <t>&lt;Self-regulation of behaviour&gt; undertaken to achieve consistency between one's values and the behaviour performed.</t>
+          <t>A &lt;mental disposition&gt; to behave in a way that seeks to maximise the net positive consequences of behaviour.</t>
         </is>
       </c>
       <c r="E575" s="2" t="inlineStr"/>
@@ -34907,22 +34913,22 @@
     <row r="576">
       <c r="A576" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050794</t>
+          <t>BCIO:006107</t>
         </is>
       </c>
       <c r="B576" s="2" t="inlineStr">
         <is>
-          <t>vicarious learning</t>
+          <t>value-congruent self-regulation</t>
         </is>
       </c>
       <c r="C576" s="2" t="inlineStr">
         <is>
-          <t>observational learning</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D576" s="2" t="inlineStr">
         <is>
-          <t>&lt;Observational learning&gt; through the feelings or actions of another person.</t>
+          <t>&lt;Self-regulation of behaviour&gt; undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
       <c r="E576" s="2" t="inlineStr"/>
@@ -34965,22 +34971,22 @@
     <row r="577">
       <c r="A577" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050795</t>
+          <t>BCIO:050794</t>
         </is>
       </c>
       <c r="B577" s="2" t="inlineStr">
         <is>
-          <t>vicarious learning capability</t>
+          <t>vicarious learning</t>
         </is>
       </c>
       <c r="C577" s="2" t="inlineStr">
         <is>
-          <t>observational learning capability</t>
+          <t>observational learning</t>
         </is>
       </c>
       <c r="D577" s="2" t="inlineStr">
         <is>
-          <t>An &lt;observational learning capability&gt; through the feelings or actions of another person.</t>
+          <t>&lt;Observational learning&gt; through the feelings or actions of another person.</t>
         </is>
       </c>
       <c r="E577" s="2" t="inlineStr"/>
@@ -35021,271 +35027,267 @@
       <c r="X577" s="2" t="inlineStr"/>
     </row>
     <row r="578">
-      <c r="A578" t="inlineStr">
+      <c r="A578" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050795</t>
+        </is>
+      </c>
+      <c r="B578" s="2" t="inlineStr">
+        <is>
+          <t>vicarious learning capability</t>
+        </is>
+      </c>
+      <c r="C578" s="2" t="inlineStr">
+        <is>
+          <t>observational learning capability</t>
+        </is>
+      </c>
+      <c r="D578" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;observational learning capability&gt; through the feelings or actions of another person.</t>
+        </is>
+      </c>
+      <c r="E578" s="2" t="inlineStr"/>
+      <c r="F578" s="2" t="inlineStr"/>
+      <c r="G578" s="2" t="inlineStr"/>
+      <c r="H578" s="2" t="inlineStr"/>
+      <c r="I578" s="2" t="inlineStr"/>
+      <c r="J578" s="2" t="inlineStr"/>
+      <c r="K578" s="2" t="inlineStr"/>
+      <c r="L578" s="2" t="inlineStr"/>
+      <c r="M578" s="2" t="inlineStr"/>
+      <c r="N578" s="2" t="inlineStr"/>
+      <c r="O578" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P578" s="2" t="inlineStr"/>
+      <c r="Q578" s="2" t="inlineStr"/>
+      <c r="R578" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S578" s="2" t="inlineStr"/>
+      <c r="T578" s="2" t="inlineStr"/>
+      <c r="U578" s="2" t="inlineStr"/>
+      <c r="V578" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W578" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X578" s="2" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
         <is>
           <t>MF:0000045</t>
         </is>
       </c>
-      <c r="B578" t="inlineStr">
+      <c r="B579" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="C578" t="inlineStr">
+      <c r="C579" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D578" t="inlineStr">
+      <c r="D579" t="inlineStr">
         <is>
           <t>A &lt;mental process&gt; that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr"/>
-      <c r="H578" t="inlineStr"/>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
-      <c r="M578" t="inlineStr"/>
-      <c r="N578" t="inlineStr"/>
-      <c r="O578" t="inlineStr">
+      <c r="E579" t="inlineStr"/>
+      <c r="F579" t="inlineStr"/>
+      <c r="G579" t="inlineStr"/>
+      <c r="H579" t="inlineStr"/>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="inlineStr"/>
+      <c r="M579" t="inlineStr"/>
+      <c r="N579" t="inlineStr"/>
+      <c r="O579" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P578" t="inlineStr"/>
-      <c r="Q578" t="inlineStr"/>
-      <c r="R578" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S578" t="inlineStr"/>
-      <c r="T578" t="inlineStr"/>
-      <c r="U578" t="inlineStr"/>
-      <c r="V578" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W578" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="2" t="inlineStr">
+      <c r="P579" t="inlineStr"/>
+      <c r="Q579" t="inlineStr"/>
+      <c r="R579" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S579" t="inlineStr"/>
+      <c r="T579" t="inlineStr"/>
+      <c r="U579" t="inlineStr"/>
+      <c r="V579" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W579" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="inlineStr">
         <is>
           <t>BCIO:050796</t>
         </is>
       </c>
-      <c r="B579" s="2" t="inlineStr">
+      <c r="B580" s="2" t="inlineStr">
         <is>
           <t>well-specified goal</t>
         </is>
       </c>
-      <c r="C579" s="2" t="inlineStr">
+      <c r="C580" s="2" t="inlineStr">
         <is>
           <t>goal</t>
         </is>
       </c>
-      <c r="D579" s="2" t="inlineStr">
+      <c r="D580" s="2" t="inlineStr">
         <is>
           <t>A &lt;goal&gt; that is specified in sufficient detail for it to be clear when the goal has been achieved.</t>
         </is>
       </c>
-      <c r="E579" s="2" t="inlineStr"/>
-      <c r="F579" s="2" t="inlineStr"/>
-      <c r="G579" s="2" t="inlineStr"/>
-      <c r="H579" s="2" t="inlineStr"/>
-      <c r="I579" s="2" t="inlineStr"/>
-      <c r="J579" s="2" t="inlineStr"/>
-      <c r="K579" s="2" t="inlineStr"/>
-      <c r="L579" s="2" t="inlineStr"/>
-      <c r="M579" s="2" t="inlineStr"/>
-      <c r="N579" s="2" t="inlineStr"/>
-      <c r="O579" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P579" s="2" t="inlineStr"/>
-      <c r="Q579" s="2" t="inlineStr"/>
-      <c r="R579" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S579" s="2" t="inlineStr"/>
-      <c r="T579" s="2" t="inlineStr"/>
-      <c r="U579" s="2" t="inlineStr"/>
-      <c r="V579" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W579" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X579" s="2" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="3" t="inlineStr">
+      <c r="E580" s="2" t="inlineStr"/>
+      <c r="F580" s="2" t="inlineStr"/>
+      <c r="G580" s="2" t="inlineStr"/>
+      <c r="H580" s="2" t="inlineStr"/>
+      <c r="I580" s="2" t="inlineStr"/>
+      <c r="J580" s="2" t="inlineStr"/>
+      <c r="K580" s="2" t="inlineStr"/>
+      <c r="L580" s="2" t="inlineStr"/>
+      <c r="M580" s="2" t="inlineStr"/>
+      <c r="N580" s="2" t="inlineStr"/>
+      <c r="O580" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P580" s="2" t="inlineStr"/>
+      <c r="Q580" s="2" t="inlineStr"/>
+      <c r="R580" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S580" s="2" t="inlineStr"/>
+      <c r="T580" s="2" t="inlineStr"/>
+      <c r="U580" s="2" t="inlineStr"/>
+      <c r="V580" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W580" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X580" s="2" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="3" t="inlineStr">
         <is>
           <t>BCIO:050797</t>
         </is>
       </c>
-      <c r="B580" s="3" t="inlineStr">
+      <c r="B581" s="3" t="inlineStr">
         <is>
           <t>wider community behavioural consequence</t>
         </is>
       </c>
-      <c r="C580" s="3" t="inlineStr">
+      <c r="C581" s="3" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="D580" s="3" t="inlineStr">
+      <c r="D581" s="3" t="inlineStr">
         <is>
           <t>A &lt;social behavioural consequence&gt; that is beyond the person’s family.</t>
         </is>
       </c>
-      <c r="E580" s="3" t="inlineStr"/>
-      <c r="F580" s="3" t="inlineStr"/>
-      <c r="G580" s="3" t="inlineStr"/>
-      <c r="H580" s="3" t="inlineStr"/>
-      <c r="I580" s="3" t="inlineStr"/>
-      <c r="J580" s="3" t="inlineStr"/>
-      <c r="K580" s="3" t="inlineStr"/>
-      <c r="L580" s="3" t="inlineStr"/>
-      <c r="M580" s="3" t="inlineStr"/>
-      <c r="N580" s="3" t="inlineStr"/>
-      <c r="O580" s="3" t="inlineStr">
+      <c r="E581" s="3" t="inlineStr"/>
+      <c r="F581" s="3" t="inlineStr"/>
+      <c r="G581" s="3" t="inlineStr"/>
+      <c r="H581" s="3" t="inlineStr"/>
+      <c r="I581" s="3" t="inlineStr"/>
+      <c r="J581" s="3" t="inlineStr"/>
+      <c r="K581" s="3" t="inlineStr"/>
+      <c r="L581" s="3" t="inlineStr"/>
+      <c r="M581" s="3" t="inlineStr"/>
+      <c r="N581" s="3" t="inlineStr"/>
+      <c r="O581" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P580" s="3" t="inlineStr"/>
-      <c r="Q580" s="3" t="inlineStr"/>
-      <c r="R580" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S580" s="3" t="inlineStr"/>
-      <c r="T580" s="3" t="inlineStr"/>
-      <c r="U580" s="3" t="inlineStr"/>
-      <c r="V580" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W580" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X580" s="3" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050798</t>
-        </is>
-      </c>
-      <c r="B581" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">willingness to adopt new behaviours </t>
-        </is>
-      </c>
-      <c r="C581" s="2" t="inlineStr">
-        <is>
-          <t>personal disposition</t>
-        </is>
-      </c>
-      <c r="D581" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;personal disposition&gt; to adopt new behaviours.</t>
-        </is>
-      </c>
-      <c r="E581" s="2" t="inlineStr"/>
-      <c r="F581" s="2" t="inlineStr"/>
-      <c r="G581" s="2" t="inlineStr"/>
-      <c r="H581" s="2" t="inlineStr"/>
-      <c r="I581" s="2" t="inlineStr">
-        <is>
-          <t>This is a dimension that can be subdivided into very high, high, medium, low and very low.</t>
-        </is>
-      </c>
-      <c r="J581" s="2" t="inlineStr"/>
-      <c r="K581" s="2" t="inlineStr"/>
-      <c r="L581" s="2" t="inlineStr"/>
-      <c r="M581" s="2" t="inlineStr"/>
-      <c r="N581" s="2" t="inlineStr"/>
-      <c r="O581" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P581" s="2" t="inlineStr"/>
-      <c r="Q581" s="2" t="inlineStr"/>
-      <c r="R581" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S581" s="2" t="inlineStr"/>
-      <c r="T581" s="2" t="inlineStr"/>
-      <c r="U581" s="2" t="inlineStr"/>
-      <c r="V581" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W581" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X581" s="2" t="inlineStr"/>
+      <c r="P581" s="3" t="inlineStr"/>
+      <c r="Q581" s="3" t="inlineStr"/>
+      <c r="R581" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S581" s="3" t="inlineStr"/>
+      <c r="T581" s="3" t="inlineStr"/>
+      <c r="U581" s="3" t="inlineStr"/>
+      <c r="V581" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W581" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X581" s="3" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006059</t>
+          <t>BCIO:050798</t>
         </is>
       </c>
       <c r="B582" s="2" t="inlineStr">
         <is>
-          <t>willingness to comply</t>
+          <t xml:space="preserve">willingness to adopt new behaviours </t>
         </is>
       </c>
       <c r="C582" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>personal disposition</t>
         </is>
       </c>
       <c r="D582" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to act in accordance with the likely approval of others.</t>
+          <t>A &lt;personal disposition&gt; to adopt new behaviours.</t>
         </is>
       </c>
       <c r="E582" s="2" t="inlineStr"/>
       <c r="F582" s="2" t="inlineStr"/>
-      <c r="G582" s="2" t="inlineStr">
-        <is>
-          <t>motivation to comply</t>
-        </is>
-      </c>
+      <c r="G582" s="2" t="inlineStr"/>
       <c r="H582" s="2" t="inlineStr"/>
-      <c r="I582" s="2" t="inlineStr"/>
+      <c r="I582" s="2" t="inlineStr">
+        <is>
+          <t>This is a dimension that can be subdivided into very high, high, medium, low and very low.</t>
+        </is>
+      </c>
       <c r="J582" s="2" t="inlineStr"/>
       <c r="K582" s="2" t="inlineStr"/>
       <c r="L582" s="2" t="inlineStr"/>
@@ -35318,6 +35320,68 @@
       </c>
       <c r="X582" s="2" t="inlineStr"/>
     </row>
+    <row r="583">
+      <c r="A583" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006059</t>
+        </is>
+      </c>
+      <c r="B583" s="2" t="inlineStr">
+        <is>
+          <t>willingness to comply</t>
+        </is>
+      </c>
+      <c r="C583" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D583" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;mental disposition&gt; to act in accordance with the likely approval of others.</t>
+        </is>
+      </c>
+      <c r="E583" s="2" t="inlineStr"/>
+      <c r="F583" s="2" t="inlineStr"/>
+      <c r="G583" s="2" t="inlineStr">
+        <is>
+          <t>motivation to comply</t>
+        </is>
+      </c>
+      <c r="H583" s="2" t="inlineStr"/>
+      <c r="I583" s="2" t="inlineStr"/>
+      <c r="J583" s="2" t="inlineStr"/>
+      <c r="K583" s="2" t="inlineStr"/>
+      <c r="L583" s="2" t="inlineStr"/>
+      <c r="M583" s="2" t="inlineStr"/>
+      <c r="N583" s="2" t="inlineStr"/>
+      <c r="O583" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P583" s="2" t="inlineStr"/>
+      <c r="Q583" s="2" t="inlineStr"/>
+      <c r="R583" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S583" s="2" t="inlineStr"/>
+      <c r="T583" s="2" t="inlineStr"/>
+      <c r="U583" s="2" t="inlineStr"/>
+      <c r="V583" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W583" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X583" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -26078,7 +26078,7 @@
       <c r="N427" s="4" t="inlineStr"/>
       <c r="O427" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P427" s="4" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -26042,62 +26036,64 @@
       <c r="X426" s="2" t="inlineStr"/>
     </row>
     <row r="427">
-      <c r="A427" s="4" t="inlineStr">
+      <c r="A427" s="2" t="inlineStr">
         <is>
           <t>BCIO:050300</t>
         </is>
       </c>
-      <c r="B427" s="4" t="inlineStr">
+      <c r="B427" s="2" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="C427" s="4" t="inlineStr">
+      <c r="C427" s="2" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D427" s="4" t="inlineStr">
+      <c r="D427" s="2" t="inlineStr">
         <is>
           <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
-      <c r="E427" s="4" t="inlineStr"/>
-      <c r="F427" s="4" t="inlineStr">
+      <c r="E427" s="2" t="inlineStr"/>
+      <c r="F427" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
         </is>
       </c>
-      <c r="G427" s="4" t="inlineStr"/>
-      <c r="H427" s="4" t="inlineStr"/>
-      <c r="I427" s="4" t="inlineStr"/>
-      <c r="J427" s="4" t="inlineStr"/>
-      <c r="K427" s="4" t="inlineStr"/>
-      <c r="L427" s="4" t="inlineStr"/>
-      <c r="M427" s="4" t="inlineStr"/>
-      <c r="N427" s="4" t="inlineStr"/>
-      <c r="O427" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P427" s="4" t="inlineStr"/>
-      <c r="Q427" s="4" t="inlineStr"/>
-      <c r="R427" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S427" s="4" t="inlineStr"/>
-      <c r="T427" s="4" t="inlineStr"/>
-      <c r="U427" s="4" t="inlineStr"/>
-      <c r="V427" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W427" s="4" t="inlineStr"/>
-      <c r="X427" s="4" t="inlineStr"/>
+      <c r="G427" s="2" t="inlineStr"/>
+      <c r="H427" s="2" t="inlineStr"/>
+      <c r="I427" s="2" t="inlineStr"/>
+      <c r="J427" s="2" t="inlineStr"/>
+      <c r="K427" s="2" t="inlineStr"/>
+      <c r="L427" s="2" t="inlineStr"/>
+      <c r="M427" s="2" t="inlineStr"/>
+      <c r="N427" s="2" t="inlineStr"/>
+      <c r="O427" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P427" s="2" t="inlineStr"/>
+      <c r="Q427" s="2" t="inlineStr"/>
+      <c r="R427" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S427" s="2" t="inlineStr"/>
+      <c r="T427" s="2" t="inlineStr"/>
+      <c r="U427" s="2" t="inlineStr"/>
+      <c r="V427" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W427" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X427" s="2" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -17873,7 +17873,11 @@
       <c r="J291" s="2" t="inlineStr"/>
       <c r="K291" s="2" t="inlineStr"/>
       <c r="L291" s="2" t="inlineStr"/>
-      <c r="M291" s="2" t="inlineStr"/>
+      <c r="M291" s="2" t="inlineStr">
+        <is>
+          <t>behavioural capability</t>
+        </is>
+      </c>
       <c r="N291" s="2" t="inlineStr"/>
       <c r="O291" s="2" t="inlineStr">
         <is>
@@ -17933,7 +17937,11 @@
       <c r="J292" s="2" t="inlineStr"/>
       <c r="K292" s="2" t="inlineStr"/>
       <c r="L292" s="2" t="inlineStr"/>
-      <c r="M292" s="2" t="inlineStr"/>
+      <c r="M292" s="2" t="inlineStr">
+        <is>
+          <t>motivational disposition to change behaviour</t>
+        </is>
+      </c>
       <c r="N292" s="2" t="inlineStr"/>
       <c r="O292" s="2" t="inlineStr">
         <is>
@@ -17993,7 +18001,11 @@
       <c r="J293" s="2" t="inlineStr"/>
       <c r="K293" s="2" t="inlineStr"/>
       <c r="L293" s="2" t="inlineStr"/>
-      <c r="M293" s="2" t="inlineStr"/>
+      <c r="M293" s="2" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
       <c r="N293" s="2" t="inlineStr"/>
       <c r="O293" s="2" t="inlineStr">
         <is>
@@ -20813,7 +20825,11 @@
       <c r="J340" s="2" t="inlineStr"/>
       <c r="K340" s="2" t="inlineStr"/>
       <c r="L340" s="2" t="inlineStr"/>
-      <c r="M340" s="2" t="inlineStr"/>
+      <c r="M340" s="2" t="inlineStr">
+        <is>
+          <t>behavioural capability</t>
+        </is>
+      </c>
       <c r="N340" s="2" t="inlineStr"/>
       <c r="O340" s="2" t="inlineStr">
         <is>
@@ -20989,7 +21005,11 @@
       <c r="J343" s="2" t="inlineStr"/>
       <c r="K343" s="2" t="inlineStr"/>
       <c r="L343" s="2" t="inlineStr"/>
-      <c r="M343" s="2" t="inlineStr"/>
+      <c r="M343" s="2" t="inlineStr">
+        <is>
+          <t>motivational disposition to change behaviour</t>
+        </is>
+      </c>
       <c r="N343" s="2" t="inlineStr"/>
       <c r="O343" s="2" t="inlineStr">
         <is>
@@ -21049,7 +21069,11 @@
       <c r="J344" s="2" t="inlineStr"/>
       <c r="K344" s="2" t="inlineStr"/>
       <c r="L344" s="2" t="inlineStr"/>
-      <c r="M344" s="2" t="inlineStr"/>
+      <c r="M344" s="2" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
       <c r="N344" s="2" t="inlineStr"/>
       <c r="O344" s="2" t="inlineStr">
         <is>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -18819,12 +18819,12 @@
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>behaviour intention</t>
+          <t>behavioural intention</t>
         </is>
       </c>
       <c r="D307" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behaviour intention&gt; not to enact a behaviour.</t>
+          <t>A &lt;behavioural intention&gt; not to enact a behaviour.</t>
         </is>
       </c>
       <c r="E307" s="2" t="inlineStr"/>
@@ -18885,12 +18885,12 @@
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>behaviour intention</t>
+          <t>behavioural intention</t>
         </is>
       </c>
       <c r="D308" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behaviour intention&gt; to enact a behaviour.</t>
+          <t>A &lt;behavioural intention&gt; to enact a behaviour.</t>
         </is>
       </c>
       <c r="E308" s="2" t="inlineStr"/>
@@ -26114,8 +26114,10 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W427" s="2" t="n">
-        <v>0</v>
+      <c r="W427" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X427" s="2" t="inlineStr"/>
     </row>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -19771,7 +19771,7 @@
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>Judging</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D323" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -20869,7 +20869,7 @@
       </c>
       <c r="C341" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low capability to enact a behaviour </t>
+          <t>low capability to enact a behaviour</t>
         </is>
       </c>
       <c r="D341" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -20915,62 +20915,62 @@
       <c r="X341" s="2" t="inlineStr"/>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="inlineStr">
+      <c r="A342" s="3" t="inlineStr">
         <is>
           <t>BCIO:050696</t>
         </is>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B342" s="3" t="inlineStr">
         <is>
           <t>low motivation to change behaviour</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="C342" s="3" t="inlineStr">
         <is>
           <t>attribute</t>
         </is>
       </c>
-      <c r="D342" s="2" t="inlineStr">
+      <c r="D342" s="3" t="inlineStr">
         <is>
           <t>An &lt;attribute&gt; of motivation to change behaviour that is low.</t>
         </is>
       </c>
-      <c r="E342" s="2" t="inlineStr"/>
-      <c r="F342" s="2" t="inlineStr"/>
-      <c r="G342" s="2" t="inlineStr"/>
-      <c r="H342" s="2" t="inlineStr"/>
-      <c r="I342" s="2" t="inlineStr"/>
-      <c r="J342" s="2" t="inlineStr"/>
-      <c r="K342" s="2" t="inlineStr"/>
-      <c r="L342" s="2" t="inlineStr"/>
-      <c r="M342" s="2" t="inlineStr"/>
-      <c r="N342" s="2" t="inlineStr"/>
-      <c r="O342" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P342" s="2" t="inlineStr"/>
-      <c r="Q342" s="2" t="inlineStr"/>
-      <c r="R342" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S342" s="2" t="inlineStr"/>
-      <c r="T342" s="2" t="inlineStr"/>
-      <c r="U342" s="2" t="inlineStr"/>
-      <c r="V342" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W342" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X342" s="2" t="inlineStr"/>
+      <c r="E342" s="3" t="inlineStr"/>
+      <c r="F342" s="3" t="inlineStr"/>
+      <c r="G342" s="3" t="inlineStr"/>
+      <c r="H342" s="3" t="inlineStr"/>
+      <c r="I342" s="3" t="inlineStr"/>
+      <c r="J342" s="3" t="inlineStr"/>
+      <c r="K342" s="3" t="inlineStr"/>
+      <c r="L342" s="3" t="inlineStr"/>
+      <c r="M342" s="3" t="inlineStr"/>
+      <c r="N342" s="3" t="inlineStr"/>
+      <c r="O342" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="P342" s="3" t="inlineStr"/>
+      <c r="Q342" s="3" t="inlineStr"/>
+      <c r="R342" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S342" s="3" t="inlineStr"/>
+      <c r="T342" s="3" t="inlineStr"/>
+      <c r="U342" s="3" t="inlineStr"/>
+      <c r="V342" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W342" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X342" s="3" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -21253,7 +21253,7 @@
       <c r="L347" s="2" t="inlineStr"/>
       <c r="M347" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief</t>
+          <t xml:space="preserve">self-efficacy belief </t>
         </is>
       </c>
       <c r="N347" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -21253,7 +21253,7 @@
       <c r="L347" s="2" t="inlineStr"/>
       <c r="M347" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">self-efficacy belief </t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="N347" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -25575,12 +25575,12 @@
       </c>
       <c r="C419" s="2" t="inlineStr">
         <is>
-          <t>perceived descriptive norm</t>
+          <t>perceived descriptive behavioural norm</t>
         </is>
       </c>
       <c r="D419" s="2" t="inlineStr">
         <is>
-          <t>A &lt;perceived descriptive norm&gt; in which the prevalence of a behaviour is overestimated.</t>
+          <t>A &lt;perceived descriptive behavioural norm&gt; in which the prevalence of a behaviour is overestimated.</t>
         </is>
       </c>
       <c r="E419" s="2" t="inlineStr"/>
@@ -34825,12 +34825,12 @@
       </c>
       <c r="C574" s="2" t="inlineStr">
         <is>
-          <t>perceived descriptive norm</t>
+          <t>perceived descriptive behavioural norm</t>
         </is>
       </c>
       <c r="D574" s="2" t="inlineStr">
         <is>
-          <t>A &lt;perceived descriptive norm&gt; in which the prevalence of a behaviour is underestimated.</t>
+          <t>A &lt;perceived descriptive behavioural norm&gt; in which the prevalence of a behaviour is underestimated.</t>
         </is>
       </c>
       <c r="E574" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -13890,12 +13890,16 @@
       <c r="N224" s="4" t="inlineStr"/>
       <c r="O224" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P224" s="4" t="inlineStr"/>
       <c r="Q224" s="4" t="inlineStr"/>
-      <c r="R224" s="4" t="inlineStr"/>
+      <c r="R224" s="4" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
       <c r="S224" s="4" t="inlineStr"/>
       <c r="T224" s="4" t="inlineStr"/>
       <c r="U224" s="4" t="inlineStr"/>
@@ -13904,7 +13908,9 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W224" s="4" t="inlineStr"/>
+      <c r="W224" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="X224" s="4" t="inlineStr"/>
     </row>
     <row r="225">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -13858,60 +13852,62 @@
       <c r="X223" s="2" t="inlineStr"/>
     </row>
     <row r="224">
-      <c r="A224" s="4" t="inlineStr">
+      <c r="A224" s="2" t="inlineStr">
         <is>
           <t>BCIO:050897</t>
         </is>
       </c>
-      <c r="B224" s="4" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">evaluative belief about achieving a goal </t>
         </is>
       </c>
-      <c r="C224" s="4" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
         <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="D224" s="4" t="inlineStr">
+      <c r="D224" s="2" t="inlineStr">
         <is>
           <t>An &lt;evaluative belief&gt; about acting in a way that achieves a goal.</t>
         </is>
       </c>
-      <c r="E224" s="4" t="inlineStr"/>
-      <c r="F224" s="4" t="inlineStr"/>
-      <c r="G224" s="4" t="inlineStr"/>
-      <c r="H224" s="4" t="inlineStr"/>
-      <c r="I224" s="4" t="inlineStr"/>
-      <c r="J224" s="4" t="inlineStr"/>
-      <c r="K224" s="4" t="inlineStr"/>
-      <c r="L224" s="4" t="inlineStr"/>
-      <c r="M224" s="4" t="inlineStr"/>
-      <c r="N224" s="4" t="inlineStr"/>
-      <c r="O224" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P224" s="4" t="inlineStr"/>
-      <c r="Q224" s="4" t="inlineStr"/>
-      <c r="R224" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S224" s="4" t="inlineStr"/>
-      <c r="T224" s="4" t="inlineStr"/>
-      <c r="U224" s="4" t="inlineStr"/>
-      <c r="V224" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W224" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X224" s="4" t="inlineStr"/>
+      <c r="E224" s="2" t="inlineStr"/>
+      <c r="F224" s="2" t="inlineStr"/>
+      <c r="G224" s="2" t="inlineStr"/>
+      <c r="H224" s="2" t="inlineStr"/>
+      <c r="I224" s="2" t="inlineStr"/>
+      <c r="J224" s="2" t="inlineStr"/>
+      <c r="K224" s="2" t="inlineStr"/>
+      <c r="L224" s="2" t="inlineStr"/>
+      <c r="M224" s="2" t="inlineStr"/>
+      <c r="N224" s="2" t="inlineStr"/>
+      <c r="O224" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P224" s="2" t="inlineStr"/>
+      <c r="Q224" s="2" t="inlineStr"/>
+      <c r="R224" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S224" s="2" t="inlineStr"/>
+      <c r="T224" s="2" t="inlineStr"/>
+      <c r="U224" s="2" t="inlineStr"/>
+      <c r="V224" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W224" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X224" s="2" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30059,13 +30059,21 @@
       <c r="X493" s="2" t="inlineStr"/>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="inlineStr"/>
+      <c r="A494" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050898</t>
+        </is>
+      </c>
       <c r="B494" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">self-efficacy belief </t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr"/>
+      <c r="C494" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
       <c r="D494" s="2" t="inlineStr">
         <is>
           <t>A &lt;belief&gt; about one's capabilities to organise and execute a process or achieve an outcome.</t>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -21311,7 +21311,7 @@
       <c r="L348" s="2" t="inlineStr"/>
       <c r="M348" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t xml:space="preserve">self-efficacy belief </t>
         </is>
       </c>
       <c r="N348" s="2" t="inlineStr"/>
@@ -30066,7 +30066,7 @@
       </c>
       <c r="B494" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">self-efficacy belief </t>
+          <t>self-efficacy belief</t>
         </is>
       </c>
       <c r="C494" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X584"/>
+  <dimension ref="A1:X585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34941,82 +34947,78 @@
       <c r="X575" s="2" t="inlineStr"/>
     </row>
     <row r="576">
-      <c r="A576" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050793</t>
-        </is>
-      </c>
-      <c r="B576" s="2" t="inlineStr">
-        <is>
-          <t>utility maximisation disposition</t>
-        </is>
-      </c>
-      <c r="C576" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D576" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;mental disposition&gt; to behave in a way that seeks to maximise the net positive consequences of behaviour.</t>
-        </is>
-      </c>
-      <c r="E576" s="2" t="inlineStr"/>
-      <c r="F576" s="2" t="inlineStr"/>
-      <c r="G576" s="2" t="inlineStr"/>
-      <c r="H576" s="2" t="inlineStr"/>
-      <c r="I576" s="2" t="inlineStr"/>
-      <c r="J576" s="2" t="inlineStr"/>
-      <c r="K576" s="2" t="inlineStr"/>
-      <c r="L576" s="2" t="inlineStr"/>
-      <c r="M576" s="2" t="inlineStr"/>
-      <c r="N576" s="2" t="inlineStr"/>
-      <c r="O576" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P576" s="2" t="inlineStr"/>
-      <c r="Q576" s="2" t="inlineStr"/>
-      <c r="R576" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S576" s="2" t="inlineStr"/>
-      <c r="T576" s="2" t="inlineStr"/>
-      <c r="U576" s="2" t="inlineStr"/>
-      <c r="V576" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W576" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X576" s="2" t="inlineStr"/>
+      <c r="A576" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B576" s="4" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="C576" s="4" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="D576" s="4" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="E576" s="4" t="inlineStr"/>
+      <c r="F576" s="4" t="inlineStr"/>
+      <c r="G576" s="4" t="inlineStr"/>
+      <c r="H576" s="4" t="inlineStr"/>
+      <c r="I576" s="4" t="inlineStr"/>
+      <c r="J576" s="4" t="inlineStr"/>
+      <c r="K576" s="4" t="inlineStr"/>
+      <c r="L576" s="4" t="inlineStr"/>
+      <c r="M576" s="4" t="inlineStr"/>
+      <c r="N576" s="4" t="inlineStr"/>
+      <c r="O576" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="P576" s="4" t="inlineStr"/>
+      <c r="Q576" s="4" t="inlineStr"/>
+      <c r="R576" s="4" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S576" s="4" t="inlineStr"/>
+      <c r="T576" s="4" t="inlineStr"/>
+      <c r="U576" s="4" t="inlineStr"/>
+      <c r="V576" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W576" s="4" t="inlineStr"/>
+      <c r="X576" s="4" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006107</t>
+          <t>BCIO:050793</t>
         </is>
       </c>
       <c r="B577" s="2" t="inlineStr">
         <is>
-          <t>value-congruent self-regulation</t>
+          <t>utility maximisation disposition</t>
         </is>
       </c>
       <c r="C577" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D577" s="2" t="inlineStr">
         <is>
-          <t>&lt;Self-regulation of behaviour&gt; undertaken to achieve consistency between one's values and the behaviour performed.</t>
+          <t>A &lt;mental disposition&gt; to behave in a way that seeks to maximise the net positive consequences of behaviour.</t>
         </is>
       </c>
       <c r="E577" s="2" t="inlineStr"/>
@@ -35059,22 +35061,22 @@
     <row r="578">
       <c r="A578" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050794</t>
+          <t>BCIO:006107</t>
         </is>
       </c>
       <c r="B578" s="2" t="inlineStr">
         <is>
-          <t>vicarious learning</t>
+          <t>value-congruent self-regulation</t>
         </is>
       </c>
       <c r="C578" s="2" t="inlineStr">
         <is>
-          <t>observational learning</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D578" s="2" t="inlineStr">
         <is>
-          <t>&lt;Observational learning&gt; through the feelings or actions of another person.</t>
+          <t>&lt;Self-regulation of behaviour&gt; undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
       <c r="E578" s="2" t="inlineStr"/>
@@ -35117,22 +35119,22 @@
     <row r="579">
       <c r="A579" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050795</t>
+          <t>BCIO:050794</t>
         </is>
       </c>
       <c r="B579" s="2" t="inlineStr">
         <is>
-          <t>vicarious learning capability</t>
+          <t>vicarious learning</t>
         </is>
       </c>
       <c r="C579" s="2" t="inlineStr">
         <is>
-          <t>observational learning capability</t>
+          <t>observational learning</t>
         </is>
       </c>
       <c r="D579" s="2" t="inlineStr">
         <is>
-          <t>An &lt;observational learning capability&gt; through the feelings or actions of another person.</t>
+          <t>&lt;Observational learning&gt; through the feelings or actions of another person.</t>
         </is>
       </c>
       <c r="E579" s="2" t="inlineStr"/>
@@ -35173,271 +35175,267 @@
       <c r="X579" s="2" t="inlineStr"/>
     </row>
     <row r="580">
-      <c r="A580" t="inlineStr">
+      <c r="A580" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050795</t>
+        </is>
+      </c>
+      <c r="B580" s="2" t="inlineStr">
+        <is>
+          <t>vicarious learning capability</t>
+        </is>
+      </c>
+      <c r="C580" s="2" t="inlineStr">
+        <is>
+          <t>observational learning capability</t>
+        </is>
+      </c>
+      <c r="D580" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;observational learning capability&gt; through the feelings or actions of another person.</t>
+        </is>
+      </c>
+      <c r="E580" s="2" t="inlineStr"/>
+      <c r="F580" s="2" t="inlineStr"/>
+      <c r="G580" s="2" t="inlineStr"/>
+      <c r="H580" s="2" t="inlineStr"/>
+      <c r="I580" s="2" t="inlineStr"/>
+      <c r="J580" s="2" t="inlineStr"/>
+      <c r="K580" s="2" t="inlineStr"/>
+      <c r="L580" s="2" t="inlineStr"/>
+      <c r="M580" s="2" t="inlineStr"/>
+      <c r="N580" s="2" t="inlineStr"/>
+      <c r="O580" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P580" s="2" t="inlineStr"/>
+      <c r="Q580" s="2" t="inlineStr"/>
+      <c r="R580" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S580" s="2" t="inlineStr"/>
+      <c r="T580" s="2" t="inlineStr"/>
+      <c r="U580" s="2" t="inlineStr"/>
+      <c r="V580" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W580" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X580" s="2" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
         <is>
           <t>MF:0000045</t>
         </is>
       </c>
-      <c r="B580" t="inlineStr">
+      <c r="B581" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="C580" t="inlineStr">
+      <c r="C581" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D580" t="inlineStr">
+      <c r="D581" t="inlineStr">
         <is>
           <t>A &lt;mental process&gt; that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr"/>
-      <c r="H580" t="inlineStr"/>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
-      <c r="M580" t="inlineStr"/>
-      <c r="N580" t="inlineStr"/>
-      <c r="O580" t="inlineStr">
+      <c r="E581" t="inlineStr"/>
+      <c r="F581" t="inlineStr"/>
+      <c r="G581" t="inlineStr"/>
+      <c r="H581" t="inlineStr"/>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
+      <c r="M581" t="inlineStr"/>
+      <c r="N581" t="inlineStr"/>
+      <c r="O581" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P580" t="inlineStr"/>
-      <c r="Q580" t="inlineStr"/>
-      <c r="R580" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S580" t="inlineStr"/>
-      <c r="T580" t="inlineStr"/>
-      <c r="U580" t="inlineStr"/>
-      <c r="V580" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W580" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="2" t="inlineStr">
+      <c r="P581" t="inlineStr"/>
+      <c r="Q581" t="inlineStr"/>
+      <c r="R581" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S581" t="inlineStr"/>
+      <c r="T581" t="inlineStr"/>
+      <c r="U581" t="inlineStr"/>
+      <c r="V581" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W581" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="inlineStr">
         <is>
           <t>BCIO:050796</t>
         </is>
       </c>
-      <c r="B581" s="2" t="inlineStr">
+      <c r="B582" s="2" t="inlineStr">
         <is>
           <t>well-specified goal</t>
         </is>
       </c>
-      <c r="C581" s="2" t="inlineStr">
+      <c r="C582" s="2" t="inlineStr">
         <is>
           <t>goal</t>
         </is>
       </c>
-      <c r="D581" s="2" t="inlineStr">
+      <c r="D582" s="2" t="inlineStr">
         <is>
           <t>A &lt;goal&gt; that is specified in sufficient detail for it to be clear when the goal has been achieved.</t>
         </is>
       </c>
-      <c r="E581" s="2" t="inlineStr"/>
-      <c r="F581" s="2" t="inlineStr"/>
-      <c r="G581" s="2" t="inlineStr"/>
-      <c r="H581" s="2" t="inlineStr"/>
-      <c r="I581" s="2" t="inlineStr"/>
-      <c r="J581" s="2" t="inlineStr"/>
-      <c r="K581" s="2" t="inlineStr"/>
-      <c r="L581" s="2" t="inlineStr"/>
-      <c r="M581" s="2" t="inlineStr"/>
-      <c r="N581" s="2" t="inlineStr"/>
-      <c r="O581" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P581" s="2" t="inlineStr"/>
-      <c r="Q581" s="2" t="inlineStr"/>
-      <c r="R581" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S581" s="2" t="inlineStr"/>
-      <c r="T581" s="2" t="inlineStr"/>
-      <c r="U581" s="2" t="inlineStr"/>
-      <c r="V581" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W581" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X581" s="2" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="3" t="inlineStr">
+      <c r="E582" s="2" t="inlineStr"/>
+      <c r="F582" s="2" t="inlineStr"/>
+      <c r="G582" s="2" t="inlineStr"/>
+      <c r="H582" s="2" t="inlineStr"/>
+      <c r="I582" s="2" t="inlineStr"/>
+      <c r="J582" s="2" t="inlineStr"/>
+      <c r="K582" s="2" t="inlineStr"/>
+      <c r="L582" s="2" t="inlineStr"/>
+      <c r="M582" s="2" t="inlineStr"/>
+      <c r="N582" s="2" t="inlineStr"/>
+      <c r="O582" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P582" s="2" t="inlineStr"/>
+      <c r="Q582" s="2" t="inlineStr"/>
+      <c r="R582" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S582" s="2" t="inlineStr"/>
+      <c r="T582" s="2" t="inlineStr"/>
+      <c r="U582" s="2" t="inlineStr"/>
+      <c r="V582" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W582" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X582" s="2" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="3" t="inlineStr">
         <is>
           <t>BCIO:050797</t>
         </is>
       </c>
-      <c r="B582" s="3" t="inlineStr">
+      <c r="B583" s="3" t="inlineStr">
         <is>
           <t>wider community behavioural consequence</t>
         </is>
       </c>
-      <c r="C582" s="3" t="inlineStr">
+      <c r="C583" s="3" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="D582" s="3" t="inlineStr">
+      <c r="D583" s="3" t="inlineStr">
         <is>
           <t>A &lt;social behavioural consequence&gt; that is beyond the person’s family.</t>
         </is>
       </c>
-      <c r="E582" s="3" t="inlineStr"/>
-      <c r="F582" s="3" t="inlineStr"/>
-      <c r="G582" s="3" t="inlineStr"/>
-      <c r="H582" s="3" t="inlineStr"/>
-      <c r="I582" s="3" t="inlineStr"/>
-      <c r="J582" s="3" t="inlineStr"/>
-      <c r="K582" s="3" t="inlineStr"/>
-      <c r="L582" s="3" t="inlineStr"/>
-      <c r="M582" s="3" t="inlineStr"/>
-      <c r="N582" s="3" t="inlineStr"/>
-      <c r="O582" s="3" t="inlineStr">
+      <c r="E583" s="3" t="inlineStr"/>
+      <c r="F583" s="3" t="inlineStr"/>
+      <c r="G583" s="3" t="inlineStr"/>
+      <c r="H583" s="3" t="inlineStr"/>
+      <c r="I583" s="3" t="inlineStr"/>
+      <c r="J583" s="3" t="inlineStr"/>
+      <c r="K583" s="3" t="inlineStr"/>
+      <c r="L583" s="3" t="inlineStr"/>
+      <c r="M583" s="3" t="inlineStr"/>
+      <c r="N583" s="3" t="inlineStr"/>
+      <c r="O583" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P582" s="3" t="inlineStr"/>
-      <c r="Q582" s="3" t="inlineStr"/>
-      <c r="R582" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S582" s="3" t="inlineStr"/>
-      <c r="T582" s="3" t="inlineStr"/>
-      <c r="U582" s="3" t="inlineStr"/>
-      <c r="V582" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W582" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X582" s="3" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050798</t>
-        </is>
-      </c>
-      <c r="B583" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">willingness to adopt new behaviours </t>
-        </is>
-      </c>
-      <c r="C583" s="2" t="inlineStr">
-        <is>
-          <t>personal disposition</t>
-        </is>
-      </c>
-      <c r="D583" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;personal disposition&gt; to adopt new behaviours.</t>
-        </is>
-      </c>
-      <c r="E583" s="2" t="inlineStr"/>
-      <c r="F583" s="2" t="inlineStr"/>
-      <c r="G583" s="2" t="inlineStr"/>
-      <c r="H583" s="2" t="inlineStr"/>
-      <c r="I583" s="2" t="inlineStr">
-        <is>
-          <t>This is a dimension that can be subdivided into very high, high, medium, low and very low.</t>
-        </is>
-      </c>
-      <c r="J583" s="2" t="inlineStr"/>
-      <c r="K583" s="2" t="inlineStr"/>
-      <c r="L583" s="2" t="inlineStr"/>
-      <c r="M583" s="2" t="inlineStr"/>
-      <c r="N583" s="2" t="inlineStr"/>
-      <c r="O583" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P583" s="2" t="inlineStr"/>
-      <c r="Q583" s="2" t="inlineStr"/>
-      <c r="R583" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S583" s="2" t="inlineStr"/>
-      <c r="T583" s="2" t="inlineStr"/>
-      <c r="U583" s="2" t="inlineStr"/>
-      <c r="V583" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W583" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X583" s="2" t="inlineStr"/>
+      <c r="P583" s="3" t="inlineStr"/>
+      <c r="Q583" s="3" t="inlineStr"/>
+      <c r="R583" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S583" s="3" t="inlineStr"/>
+      <c r="T583" s="3" t="inlineStr"/>
+      <c r="U583" s="3" t="inlineStr"/>
+      <c r="V583" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W583" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X583" s="3" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006059</t>
+          <t>BCIO:050798</t>
         </is>
       </c>
       <c r="B584" s="2" t="inlineStr">
         <is>
-          <t>willingness to comply</t>
+          <t xml:space="preserve">willingness to adopt new behaviours </t>
         </is>
       </c>
       <c r="C584" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>personal disposition</t>
         </is>
       </c>
       <c r="D584" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to act in accordance with the likely approval of others.</t>
+          <t>A &lt;personal disposition&gt; to adopt new behaviours.</t>
         </is>
       </c>
       <c r="E584" s="2" t="inlineStr"/>
       <c r="F584" s="2" t="inlineStr"/>
-      <c r="G584" s="2" t="inlineStr">
-        <is>
-          <t>motivation to comply</t>
-        </is>
-      </c>
+      <c r="G584" s="2" t="inlineStr"/>
       <c r="H584" s="2" t="inlineStr"/>
-      <c r="I584" s="2" t="inlineStr"/>
+      <c r="I584" s="2" t="inlineStr">
+        <is>
+          <t>This is a dimension that can be subdivided into very high, high, medium, low and very low.</t>
+        </is>
+      </c>
       <c r="J584" s="2" t="inlineStr"/>
       <c r="K584" s="2" t="inlineStr"/>
       <c r="L584" s="2" t="inlineStr"/>
@@ -35470,6 +35468,68 @@
       </c>
       <c r="X584" s="2" t="inlineStr"/>
     </row>
+    <row r="585">
+      <c r="A585" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006059</t>
+        </is>
+      </c>
+      <c r="B585" s="2" t="inlineStr">
+        <is>
+          <t>willingness to comply</t>
+        </is>
+      </c>
+      <c r="C585" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D585" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;mental disposition&gt; to act in accordance with the likely approval of others.</t>
+        </is>
+      </c>
+      <c r="E585" s="2" t="inlineStr"/>
+      <c r="F585" s="2" t="inlineStr"/>
+      <c r="G585" s="2" t="inlineStr">
+        <is>
+          <t>motivation to comply</t>
+        </is>
+      </c>
+      <c r="H585" s="2" t="inlineStr"/>
+      <c r="I585" s="2" t="inlineStr"/>
+      <c r="J585" s="2" t="inlineStr"/>
+      <c r="K585" s="2" t="inlineStr"/>
+      <c r="L585" s="2" t="inlineStr"/>
+      <c r="M585" s="2" t="inlineStr"/>
+      <c r="N585" s="2" t="inlineStr"/>
+      <c r="O585" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P585" s="2" t="inlineStr"/>
+      <c r="Q585" s="2" t="inlineStr"/>
+      <c r="R585" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S585" s="2" t="inlineStr"/>
+      <c r="T585" s="2" t="inlineStr"/>
+      <c r="U585" s="2" t="inlineStr"/>
+      <c r="V585" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W585" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X585" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -34997,7 +34997,9 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W576" s="4" t="inlineStr"/>
+      <c r="W576" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="X576" s="4" t="inlineStr"/>
     </row>
     <row r="577">
@@ -35419,12 +35421,12 @@
       </c>
       <c r="C584" s="2" t="inlineStr">
         <is>
-          <t>personal disposition</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D584" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal disposition&gt; to adopt new behaviours.</t>
+          <t>A &lt;bodily disposition&gt; to adopt new behaviours.</t>
         </is>
       </c>
       <c r="E584" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -32313,7 +32313,7 @@
       </c>
       <c r="C532" s="2" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D532" s="2" t="inlineStr">
@@ -34997,8 +34997,10 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W576" s="4" t="n">
-        <v>0</v>
+      <c r="W576" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X576" s="4" t="inlineStr"/>
     </row>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -34947,62 +34941,62 @@
       <c r="X575" s="2" t="inlineStr"/>
     </row>
     <row r="576">
-      <c r="A576" s="4" t="inlineStr">
+      <c r="A576" s="3" t="inlineStr">
         <is>
           <t>BCIO:050267</t>
         </is>
       </c>
-      <c r="B576" s="4" t="inlineStr">
+      <c r="B576" s="3" t="inlineStr">
         <is>
           <t>uniform process aggregate</t>
         </is>
       </c>
-      <c r="C576" s="4" t="inlineStr">
+      <c r="C576" s="3" t="inlineStr">
         <is>
           <t>process aggregate</t>
         </is>
       </c>
-      <c r="D576" s="4" t="inlineStr">
+      <c r="D576" s="3" t="inlineStr">
         <is>
           <t>A process aggregate whose member parts are of the same type.</t>
         </is>
       </c>
-      <c r="E576" s="4" t="inlineStr"/>
-      <c r="F576" s="4" t="inlineStr"/>
-      <c r="G576" s="4" t="inlineStr"/>
-      <c r="H576" s="4" t="inlineStr"/>
-      <c r="I576" s="4" t="inlineStr"/>
-      <c r="J576" s="4" t="inlineStr"/>
-      <c r="K576" s="4" t="inlineStr"/>
-      <c r="L576" s="4" t="inlineStr"/>
-      <c r="M576" s="4" t="inlineStr"/>
-      <c r="N576" s="4" t="inlineStr"/>
-      <c r="O576" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="P576" s="4" t="inlineStr"/>
-      <c r="Q576" s="4" t="inlineStr"/>
-      <c r="R576" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S576" s="4" t="inlineStr"/>
-      <c r="T576" s="4" t="inlineStr"/>
-      <c r="U576" s="4" t="inlineStr"/>
-      <c r="V576" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W576" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X576" s="4" t="inlineStr"/>
+      <c r="E576" s="3" t="inlineStr"/>
+      <c r="F576" s="3" t="inlineStr"/>
+      <c r="G576" s="3" t="inlineStr"/>
+      <c r="H576" s="3" t="inlineStr"/>
+      <c r="I576" s="3" t="inlineStr"/>
+      <c r="J576" s="3" t="inlineStr"/>
+      <c r="K576" s="3" t="inlineStr"/>
+      <c r="L576" s="3" t="inlineStr"/>
+      <c r="M576" s="3" t="inlineStr"/>
+      <c r="N576" s="3" t="inlineStr"/>
+      <c r="O576" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="P576" s="3" t="inlineStr"/>
+      <c r="Q576" s="3" t="inlineStr"/>
+      <c r="R576" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S576" s="3" t="inlineStr"/>
+      <c r="T576" s="3" t="inlineStr"/>
+      <c r="U576" s="3" t="inlineStr"/>
+      <c r="V576" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W576" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X576" s="3" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X585"/>
+  <dimension ref="A1:X586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15286,7 +15292,7 @@
       </c>
       <c r="D248" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process &gt;that reduces the person’s fear.</t>
+          <t>A &lt;mental process&gt; that reduces the person’s fear.</t>
         </is>
       </c>
       <c r="E248" s="2" t="inlineStr"/>
@@ -15320,7 +15326,7 @@
       <c r="U248" s="2" t="inlineStr"/>
       <c r="V248" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; LZ</t>
         </is>
       </c>
       <c r="W248" s="2" t="inlineStr">
@@ -23367,12 +23373,12 @@
     <row r="382">
       <c r="A382" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050709</t>
+          <t>BCIO:050710</t>
         </is>
       </c>
       <c r="B382" s="2" t="inlineStr">
         <is>
-          <t>motivation disposition for behavioural maintenance</t>
+          <t>motivation orientation</t>
         </is>
       </c>
       <c r="C382" s="2" t="inlineStr">
@@ -23382,7 +23388,7 @@
       </c>
       <c r="D382" s="2" t="inlineStr">
         <is>
-          <t>A &lt;motivational disposition&gt; in which the person is motivated to maintain an established behavioural pattern.</t>
+          <t>A &lt;motivational disposition&gt; to be guided by a type of outcome.</t>
         </is>
       </c>
       <c r="E382" s="2" t="inlineStr"/>
@@ -23425,22 +23431,22 @@
     <row r="383">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050710</t>
+          <t>BCIO:050711</t>
         </is>
       </c>
       <c r="B383" s="2" t="inlineStr">
         <is>
-          <t>motivation orientation</t>
+          <t>motivation to avert harm</t>
         </is>
       </c>
       <c r="C383" s="2" t="inlineStr">
         <is>
-          <t>motivational disposition</t>
+          <t>motivation to reduce harm</t>
         </is>
       </c>
       <c r="D383" s="2" t="inlineStr">
         <is>
-          <t>A &lt;motivational disposition&gt; to be guided by a type of outcome.</t>
+          <t>&lt;Motivation to reduce harm&gt; that may occur in the future.</t>
         </is>
       </c>
       <c r="E383" s="2" t="inlineStr"/>
@@ -23483,22 +23489,22 @@
     <row r="384">
       <c r="A384" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050711</t>
+          <t>BCIO:050712</t>
         </is>
       </c>
       <c r="B384" s="2" t="inlineStr">
         <is>
+          <t>motivation to reduce current harm</t>
+        </is>
+      </c>
+      <c r="C384" s="2" t="inlineStr">
+        <is>
           <t>motivation to avert harm</t>
         </is>
       </c>
-      <c r="C384" s="2" t="inlineStr">
-        <is>
-          <t>motivation to reduce harm</t>
-        </is>
-      </c>
       <c r="D384" s="2" t="inlineStr">
         <is>
-          <t>&lt;Motivation to reduce harm&gt; that may occur in the future.</t>
+          <t>&lt;Motivation to reduce harm&gt; that is ongoing.</t>
         </is>
       </c>
       <c r="E384" s="2" t="inlineStr"/>
@@ -23541,29 +23547,33 @@
     <row r="385">
       <c r="A385" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050712</t>
+          <t>BCIO:050713</t>
         </is>
       </c>
       <c r="B385" s="2" t="inlineStr">
         <is>
-          <t>motivation to reduce current harm</t>
+          <t>motivation to reduce harm</t>
         </is>
       </c>
       <c r="C385" s="2" t="inlineStr">
         <is>
-          <t>motivation to avert harm</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="D385" s="2" t="inlineStr">
         <is>
-          <t>&lt;Motivation to reduce harm&gt; that is ongoing.</t>
+          <t>&lt;Behavioural motivation&gt; to reduce harm.</t>
         </is>
       </c>
       <c r="E385" s="2" t="inlineStr"/>
       <c r="F385" s="2" t="inlineStr"/>
       <c r="G385" s="2" t="inlineStr"/>
       <c r="H385" s="2" t="inlineStr"/>
-      <c r="I385" s="2" t="inlineStr"/>
+      <c r="I385" s="2" t="inlineStr">
+        <is>
+          <t>Reducing harm involves both avoiding or reducing possible harm in the future and ending or reducing harm that is ongoing.</t>
+        </is>
+      </c>
       <c r="J385" s="2" t="inlineStr"/>
       <c r="K385" s="2" t="inlineStr"/>
       <c r="L385" s="2" t="inlineStr"/>
@@ -23599,33 +23609,29 @@
     <row r="386">
       <c r="A386" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050713</t>
+          <t>BCIO:050714</t>
         </is>
       </c>
       <c r="B386" s="2" t="inlineStr">
         <is>
-          <t>motivation to reduce harm</t>
+          <t>motivational disposition</t>
         </is>
       </c>
       <c r="C386" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D386" s="2" t="inlineStr">
         <is>
-          <t>&lt;Behavioural motivation&gt; to reduce harm.</t>
+          <t>A &lt;mental disposition&gt; to experience behavioural motivation.</t>
         </is>
       </c>
       <c r="E386" s="2" t="inlineStr"/>
       <c r="F386" s="2" t="inlineStr"/>
       <c r="G386" s="2" t="inlineStr"/>
       <c r="H386" s="2" t="inlineStr"/>
-      <c r="I386" s="2" t="inlineStr">
-        <is>
-          <t>Reducing harm involves both avoiding or reducing possible harm in the future and ending or reducing harm that is ongoing.</t>
-        </is>
-      </c>
+      <c r="I386" s="2" t="inlineStr"/>
       <c r="J386" s="2" t="inlineStr"/>
       <c r="K386" s="2" t="inlineStr"/>
       <c r="L386" s="2" t="inlineStr"/>
@@ -23661,22 +23667,22 @@
     <row r="387">
       <c r="A387" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050714</t>
+          <t>BCIO:050709</t>
         </is>
       </c>
       <c r="B387" s="2" t="inlineStr">
         <is>
+          <t>motivational disposition for behavioural maintenance</t>
+        </is>
+      </c>
+      <c r="C387" s="2" t="inlineStr">
+        <is>
           <t>motivational disposition</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
       <c r="D387" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to experience behavioural motivation.</t>
+          <t>A &lt;motivational disposition&gt; in which the person is motivated to maintain an established behavioural pattern.</t>
         </is>
       </c>
       <c r="E387" s="2" t="inlineStr"/>
@@ -23706,7 +23712,7 @@
       <c r="U387" s="2" t="inlineStr"/>
       <c r="V387" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; LZ</t>
         </is>
       </c>
       <c r="W387" s="2" t="inlineStr">
@@ -27876,7 +27882,7 @@
       </c>
       <c r="B457" s="2" t="inlineStr">
         <is>
-          <t>primary  reinforcer</t>
+          <t>primary reinforcer</t>
         </is>
       </c>
       <c r="C457" s="2" t="inlineStr">
@@ -27916,7 +27922,7 @@
       <c r="U457" s="2" t="inlineStr"/>
       <c r="V457" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; LZ</t>
         </is>
       </c>
       <c r="W457" s="2" t="inlineStr">
@@ -29765,147 +29771,143 @@
       <c r="X488" t="inlineStr"/>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr">
+      <c r="A489" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050913</t>
+        </is>
+      </c>
+      <c r="B489" s="4" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="C489" s="4" t="inlineStr">
+        <is>
+          <t>social environmental disposition</t>
+        </is>
+      </c>
+      <c r="D489" s="4" t="inlineStr">
+        <is>
+          <t>A &lt;social environmental disposition&gt; that is realised as being safe from harm.</t>
+        </is>
+      </c>
+      <c r="E489" s="4" t="inlineStr"/>
+      <c r="F489" s="4" t="inlineStr"/>
+      <c r="G489" s="4" t="inlineStr"/>
+      <c r="H489" s="4" t="inlineStr"/>
+      <c r="I489" s="4" t="inlineStr"/>
+      <c r="J489" s="4" t="inlineStr"/>
+      <c r="K489" s="4" t="inlineStr"/>
+      <c r="L489" s="4" t="inlineStr"/>
+      <c r="M489" s="4" t="inlineStr"/>
+      <c r="N489" s="4" t="inlineStr"/>
+      <c r="O489" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="P489" s="4" t="inlineStr"/>
+      <c r="Q489" s="4" t="inlineStr"/>
+      <c r="R489" s="4" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S489" s="4" t="inlineStr"/>
+      <c r="T489" s="4" t="inlineStr"/>
+      <c r="U489" s="4" t="inlineStr"/>
+      <c r="V489" s="4" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
+      <c r="W489" s="4" t="inlineStr"/>
+      <c r="X489" s="4" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
         <is>
           <t>MFOEM:000169</t>
         </is>
       </c>
-      <c r="B489" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>satisfaction</t>
         </is>
       </c>
-      <c r="C489" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D489" t="inlineStr">
+      <c r="D490" t="inlineStr">
         <is>
           <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
         </is>
       </c>
-      <c r="E489" t="inlineStr"/>
-      <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
-      <c r="H489" t="inlineStr"/>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
-      <c r="M489" t="inlineStr"/>
-      <c r="N489" t="inlineStr"/>
-      <c r="O489" t="inlineStr">
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
+      <c r="M490" t="inlineStr"/>
+      <c r="N490" t="inlineStr"/>
+      <c r="O490" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P489" t="inlineStr"/>
-      <c r="Q489" t="inlineStr"/>
-      <c r="R489" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S489" t="inlineStr"/>
-      <c r="T489" t="inlineStr"/>
-      <c r="U489" t="inlineStr"/>
-      <c r="V489" t="inlineStr"/>
-      <c r="W489" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X489" t="inlineStr"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050760</t>
-        </is>
-      </c>
-      <c r="B490" s="2" t="inlineStr">
-        <is>
-          <t>schedule of reinforcement</t>
-        </is>
-      </c>
-      <c r="C490" s="2" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="D490" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;uniform process aggregate&gt; whose members are reinforcement processes involving an individual over a period of time.</t>
-        </is>
-      </c>
-      <c r="E490" s="2" t="inlineStr"/>
-      <c r="F490" s="2" t="inlineStr"/>
-      <c r="G490" s="2" t="inlineStr"/>
-      <c r="H490" s="2" t="inlineStr"/>
-      <c r="I490" s="2" t="inlineStr">
-        <is>
-          <t>If interested in capturing timing, see the Schedule Ontology</t>
-        </is>
-      </c>
-      <c r="J490" s="2" t="inlineStr"/>
-      <c r="K490" s="2" t="inlineStr"/>
-      <c r="L490" s="2" t="inlineStr"/>
-      <c r="M490" s="2" t="inlineStr"/>
-      <c r="N490" s="2" t="inlineStr"/>
-      <c r="O490" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P490" s="2" t="inlineStr"/>
-      <c r="Q490" s="2" t="inlineStr"/>
-      <c r="R490" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S490" s="2" t="inlineStr"/>
-      <c r="T490" s="2" t="inlineStr"/>
-      <c r="U490" s="2" t="inlineStr"/>
-      <c r="V490" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W490" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X490" s="2" t="inlineStr"/>
+      <c r="P490" t="inlineStr"/>
+      <c r="Q490" t="inlineStr"/>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S490" t="inlineStr"/>
+      <c r="T490" t="inlineStr"/>
+      <c r="U490" t="inlineStr"/>
+      <c r="V490" t="inlineStr"/>
+      <c r="W490" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050761</t>
+          <t>BCIO:050760</t>
         </is>
       </c>
       <c r="B491" s="2" t="inlineStr">
         <is>
-          <t>school influence behaviour</t>
+          <t>schedule of reinforcement</t>
         </is>
       </c>
       <c r="C491" s="2" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="D491" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social influence behaviour&gt; where part of the school’s social environment exerts an influence on the behaviour of another.</t>
+          <t>A &lt;uniform process aggregate&gt; whose members are reinforcement processes involving an individual over a period of time.</t>
         </is>
       </c>
       <c r="E491" s="2" t="inlineStr"/>
       <c r="F491" s="2" t="inlineStr"/>
       <c r="G491" s="2" t="inlineStr"/>
       <c r="H491" s="2" t="inlineStr"/>
-      <c r="I491" s="2" t="inlineStr"/>
+      <c r="I491" s="2" t="inlineStr">
+        <is>
+          <t>If interested in capturing timing, see the Schedule Ontology</t>
+        </is>
+      </c>
       <c r="J491" s="2" t="inlineStr"/>
       <c r="K491" s="2" t="inlineStr"/>
       <c r="L491" s="2" t="inlineStr"/>
@@ -29941,22 +29943,22 @@
     <row r="492">
       <c r="A492" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050874</t>
+          <t>BCIO:050761</t>
         </is>
       </c>
       <c r="B492" s="2" t="inlineStr">
         <is>
-          <t>self-awareness process in relation to a problem</t>
+          <t>school influence behaviour</t>
         </is>
       </c>
       <c r="C492" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="D492" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that increases the accuracy of one’s cognitive representation of oneself through engaging with a problem.</t>
+          <t>A &lt;social influence behaviour&gt; where part of the school’s social environment exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E492" s="2" t="inlineStr"/>
@@ -29999,12 +30001,12 @@
     <row r="493">
       <c r="A493" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050236</t>
+          <t>BCIO:050874</t>
         </is>
       </c>
       <c r="B493" s="2" t="inlineStr">
         <is>
-          <t>self-binding</t>
+          <t>self-awareness process in relation to a problem</t>
         </is>
       </c>
       <c r="C493" s="2" t="inlineStr">
@@ -30014,16 +30016,12 @@
       </c>
       <c r="D493" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
+          <t>A &lt;mental process&gt; that increases the accuracy of one’s cognitive representation of oneself through engaging with a problem.</t>
         </is>
       </c>
       <c r="E493" s="2" t="inlineStr"/>
       <c r="F493" s="2" t="inlineStr"/>
-      <c r="G493" s="2" t="inlineStr">
-        <is>
-          <t>Pre-commitment</t>
-        </is>
-      </c>
+      <c r="G493" s="2" t="inlineStr"/>
       <c r="H493" s="2" t="inlineStr"/>
       <c r="I493" s="2" t="inlineStr"/>
       <c r="J493" s="2" t="inlineStr"/>
@@ -30061,27 +30059,31 @@
     <row r="494">
       <c r="A494" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050898</t>
+          <t>BCIO:050236</t>
         </is>
       </c>
       <c r="B494" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief</t>
+          <t>self-binding</t>
         </is>
       </c>
       <c r="C494" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D494" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one's capabilities to organise and execute a process or achieve an outcome.</t>
+          <t>A &lt;mental process&gt; that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
         </is>
       </c>
       <c r="E494" s="2" t="inlineStr"/>
       <c r="F494" s="2" t="inlineStr"/>
-      <c r="G494" s="2" t="inlineStr"/>
+      <c r="G494" s="2" t="inlineStr">
+        <is>
+          <t>Pre-commitment</t>
+        </is>
+      </c>
       <c r="H494" s="2" t="inlineStr"/>
       <c r="I494" s="2" t="inlineStr"/>
       <c r="J494" s="2" t="inlineStr"/>
@@ -30119,12 +30121,12 @@
     <row r="495">
       <c r="A495" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006154</t>
+          <t>BCIO:050898</t>
         </is>
       </c>
       <c r="B495" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>self-efficacy belief</t>
         </is>
       </c>
       <c r="C495" s="2" t="inlineStr">
@@ -30134,19 +30136,14 @@
       </c>
       <c r="D495" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one's capabilities to organise and execute a behaviour.</t>
+          <t>A &lt;belief&gt; about one's capabilities to organise and execute a process or achieve an outcome.</t>
         </is>
       </c>
       <c r="E495" s="2" t="inlineStr"/>
       <c r="F495" s="2" t="inlineStr"/>
       <c r="G495" s="2" t="inlineStr"/>
       <c r="H495" s="2" t="inlineStr"/>
-      <c r="I495" s="2" t="inlineStr">
-        <is>
-          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
+      <c r="I495" s="2" t="inlineStr"/>
       <c r="J495" s="2" t="inlineStr"/>
       <c r="K495" s="2" t="inlineStr"/>
       <c r="L495" s="2" t="inlineStr"/>
@@ -30182,12 +30179,12 @@
     <row r="496">
       <c r="A496" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006043</t>
+          <t>BCIO:006154</t>
         </is>
       </c>
       <c r="B496" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C496" s="2" t="inlineStr">
@@ -30197,16 +30194,12 @@
       </c>
       <c r="D496" s="2" t="inlineStr">
         <is>
-          <t>A &lt;efficacy belief for a behaviour and its associated outcomes&gt; about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>A &lt;belief&gt; about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E496" s="2" t="inlineStr"/>
       <c r="F496" s="2" t="inlineStr"/>
-      <c r="G496" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy</t>
-        </is>
-      </c>
+      <c r="G496" s="2" t="inlineStr"/>
       <c r="H496" s="2" t="inlineStr"/>
       <c r="I496" s="2" t="inlineStr">
         <is>
@@ -30215,11 +30208,7 @@
         </is>
       </c>
       <c r="J496" s="2" t="inlineStr"/>
-      <c r="K496" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
+      <c r="K496" s="2" t="inlineStr"/>
       <c r="L496" s="2" t="inlineStr"/>
       <c r="M496" s="2" t="inlineStr"/>
       <c r="N496" s="2" t="inlineStr"/>
@@ -30240,7 +30229,7 @@
       <c r="U496" s="2" t="inlineStr"/>
       <c r="V496" s="2" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W496" s="2" t="inlineStr">
@@ -30253,31 +30242,44 @@
     <row r="497">
       <c r="A497" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050762</t>
+          <t>BCIO:006043</t>
         </is>
       </c>
       <c r="B497" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">self-efficacy belief for a behaviour during routine activities </t>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C497" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D497" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief for a behaviour&gt; that is enacted as part of activities that are routine.</t>
+          <t>A &lt;efficacy belief for a behaviour and its associated outcomes&gt; about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E497" s="2" t="inlineStr"/>
       <c r="F497" s="2" t="inlineStr"/>
-      <c r="G497" s="2" t="inlineStr"/>
+      <c r="G497" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy</t>
+        </is>
+      </c>
       <c r="H497" s="2" t="inlineStr"/>
-      <c r="I497" s="2" t="inlineStr"/>
+      <c r="I497" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
       <c r="J497" s="2" t="inlineStr"/>
-      <c r="K497" s="2" t="inlineStr"/>
+      <c r="K497" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
       <c r="L497" s="2" t="inlineStr"/>
       <c r="M497" s="2" t="inlineStr"/>
       <c r="N497" s="2" t="inlineStr"/>
@@ -30298,7 +30300,7 @@
       <c r="U497" s="2" t="inlineStr"/>
       <c r="V497" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="W497" s="2" t="inlineStr">
@@ -30311,22 +30313,22 @@
     <row r="498">
       <c r="A498" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050763</t>
+          <t>BCIO:050762</t>
         </is>
       </c>
       <c r="B498" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">self-efficacy belief for a behaviour in the face of social pressure </t>
+          <t xml:space="preserve">self-efficacy belief for a behaviour during routine activities </t>
         </is>
       </c>
       <c r="C498" s="2" t="inlineStr">
         <is>
-          <t>situational self-efficacy belief for a behaviour</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D498" s="2" t="inlineStr">
         <is>
-          <t>A &lt;situational self-efficacy belief for a behaviour&gt; that is enacted against social pressire.</t>
+          <t>A &lt;self-efficacy belief for a behaviour&gt; that is enacted as part of activities that are routine.</t>
         </is>
       </c>
       <c r="E498" s="2" t="inlineStr"/>
@@ -30369,12 +30371,12 @@
     <row r="499">
       <c r="A499" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050764</t>
+          <t>BCIO:050763</t>
         </is>
       </c>
       <c r="B499" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">self-efficacy belief for a behaviour under conditions of stress </t>
+          <t xml:space="preserve">self-efficacy belief for a behaviour in the face of social pressure </t>
         </is>
       </c>
       <c r="C499" s="2" t="inlineStr">
@@ -30384,7 +30386,7 @@
       </c>
       <c r="D499" s="2" t="inlineStr">
         <is>
-          <t>A &lt;situational self-efficacy belief for a behaviour&gt; that is enacted when under stress.</t>
+          <t>A &lt;situational self-efficacy belief for a behaviour&gt; that is enacted against social pressire.</t>
         </is>
       </c>
       <c r="E499" s="2" t="inlineStr"/>
@@ -30427,22 +30429,22 @@
     <row r="500">
       <c r="A500" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050765</t>
+          <t>BCIO:050764</t>
         </is>
       </c>
       <c r="B500" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">self-efficacy belief for avoiding a threat </t>
+          <t xml:space="preserve">self-efficacy belief for a behaviour under conditions of stress </t>
         </is>
       </c>
       <c r="C500" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D500" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief&gt; that one can take actions to avoid, reduce, or remove a threat or its effects.</t>
+          <t>A &lt;situational self-efficacy belief for a behaviour&gt; that is enacted when under stress.</t>
         </is>
       </c>
       <c r="E500" s="2" t="inlineStr"/>
@@ -30483,140 +30485,140 @@
       <c r="X500" s="2" t="inlineStr"/>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr">
+      <c r="A501" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050765</t>
+        </is>
+      </c>
+      <c r="B501" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">self-efficacy belief for avoiding a threat </t>
+        </is>
+      </c>
+      <c r="C501" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief</t>
+        </is>
+      </c>
+      <c r="D501" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;self-efficacy belief&gt; that one can take actions to avoid, reduce, or remove a threat or its effects.</t>
+        </is>
+      </c>
+      <c r="E501" s="2" t="inlineStr"/>
+      <c r="F501" s="2" t="inlineStr"/>
+      <c r="G501" s="2" t="inlineStr"/>
+      <c r="H501" s="2" t="inlineStr"/>
+      <c r="I501" s="2" t="inlineStr"/>
+      <c r="J501" s="2" t="inlineStr"/>
+      <c r="K501" s="2" t="inlineStr"/>
+      <c r="L501" s="2" t="inlineStr"/>
+      <c r="M501" s="2" t="inlineStr"/>
+      <c r="N501" s="2" t="inlineStr"/>
+      <c r="O501" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P501" s="2" t="inlineStr"/>
+      <c r="Q501" s="2" t="inlineStr"/>
+      <c r="R501" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S501" s="2" t="inlineStr"/>
+      <c r="T501" s="2" t="inlineStr"/>
+      <c r="U501" s="2" t="inlineStr"/>
+      <c r="V501" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W501" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X501" s="2" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
         <is>
           <t>ADDICTO:0000399</t>
         </is>
       </c>
-      <c r="B501" t="inlineStr">
+      <c r="B502" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="C501" t="inlineStr">
+      <c r="C502" t="inlineStr">
         <is>
           <t>identity</t>
         </is>
       </c>
-      <c r="D501" t="inlineStr">
+      <c r="D502" t="inlineStr">
         <is>
           <t>An &lt;identity&gt; that a person has about themselves.</t>
         </is>
       </c>
-      <c r="E501" t="inlineStr"/>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr"/>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
-      <c r="M501" t="inlineStr"/>
-      <c r="N501" t="inlineStr"/>
-      <c r="O501" t="inlineStr">
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr"/>
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
+      <c r="M502" t="inlineStr"/>
+      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P501" t="inlineStr"/>
-      <c r="Q501" t="inlineStr"/>
-      <c r="R501" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S501" t="inlineStr"/>
-      <c r="T501" t="inlineStr"/>
-      <c r="U501" t="inlineStr"/>
-      <c r="V501" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W501" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X501" t="inlineStr"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050875</t>
-        </is>
-      </c>
-      <c r="B502" s="2" t="inlineStr">
-        <is>
-          <t>self-identity appraisal informed by one’s behaviour</t>
-        </is>
-      </c>
-      <c r="C502" s="2" t="inlineStr">
-        <is>
-          <t>self-identity appraisal process</t>
-        </is>
-      </c>
-      <c r="D502" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;self-identity appraisal process&gt; that is informed by the person’s behaviour.</t>
-        </is>
-      </c>
-      <c r="E502" s="2" t="inlineStr"/>
-      <c r="F502" s="2" t="inlineStr"/>
-      <c r="G502" s="2" t="inlineStr"/>
-      <c r="H502" s="2" t="inlineStr"/>
-      <c r="I502" s="2" t="inlineStr"/>
-      <c r="J502" s="2" t="inlineStr"/>
-      <c r="K502" s="2" t="inlineStr"/>
-      <c r="L502" s="2" t="inlineStr"/>
-      <c r="M502" s="2" t="inlineStr"/>
-      <c r="N502" s="2" t="inlineStr"/>
-      <c r="O502" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P502" s="2" t="inlineStr"/>
-      <c r="Q502" s="2" t="inlineStr"/>
-      <c r="R502" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S502" s="2" t="inlineStr"/>
-      <c r="T502" s="2" t="inlineStr"/>
-      <c r="U502" s="2" t="inlineStr"/>
-      <c r="V502" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W502" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X502" s="2" t="inlineStr"/>
+      <c r="P502" t="inlineStr"/>
+      <c r="Q502" t="inlineStr"/>
+      <c r="R502" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S502" t="inlineStr"/>
+      <c r="T502" t="inlineStr"/>
+      <c r="U502" t="inlineStr"/>
+      <c r="V502" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W502" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050876</t>
+          <t>BCIO:050875</t>
         </is>
       </c>
       <c r="B503" s="2" t="inlineStr">
         <is>
+          <t>self-identity appraisal informed by one’s behaviour</t>
+        </is>
+      </c>
+      <c r="C503" s="2" t="inlineStr">
+        <is>
           <t>self-identity appraisal process</t>
         </is>
       </c>
-      <c r="C503" s="2" t="inlineStr">
-        <is>
-          <t>emotional-relevance appraisal</t>
-        </is>
-      </c>
       <c r="D503" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal process&gt; that results in some appraisal of oneself.</t>
+          <t>A &lt;self-identity appraisal process&gt; that is informed by the person’s behaviour.</t>
         </is>
       </c>
       <c r="E503" s="2" t="inlineStr"/>
@@ -30659,22 +30661,22 @@
     <row r="504">
       <c r="A504" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050766</t>
+          <t>BCIO:050876</t>
         </is>
       </c>
       <c r="B504" s="2" t="inlineStr">
         <is>
-          <t>self-initiated goal</t>
+          <t>self-identity appraisal process</t>
         </is>
       </c>
       <c r="C504" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D504" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal&gt; that a person has set for themselves.</t>
+          <t>An &lt;emotional-relevance appraisal process&gt; that results in some appraisal of oneself.</t>
         </is>
       </c>
       <c r="E504" s="2" t="inlineStr"/>
@@ -30717,35 +30719,29 @@
     <row r="505">
       <c r="A505" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006137</t>
+          <t>BCIO:050766</t>
         </is>
       </c>
       <c r="B505" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring</t>
+          <t>self-initiated goal</t>
         </is>
       </c>
       <c r="C505" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="D505" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; in which one observes one's own behaviour or mental processes.</t>
+          <t>A &lt;goal&gt; that a person has set for themselves.</t>
         </is>
       </c>
       <c r="E505" s="2" t="inlineStr"/>
       <c r="F505" s="2" t="inlineStr"/>
       <c r="G505" s="2" t="inlineStr"/>
       <c r="H505" s="2" t="inlineStr"/>
-      <c r="I505" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
-'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
-'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
-        </is>
-      </c>
+      <c r="I505" s="2" t="inlineStr"/>
       <c r="J505" s="2" t="inlineStr"/>
       <c r="K505" s="2" t="inlineStr"/>
       <c r="L505" s="2" t="inlineStr"/>
@@ -30781,29 +30777,35 @@
     <row r="506">
       <c r="A506" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050767</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B506" s="2" t="inlineStr">
         <is>
-          <t>self-motive</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C506" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D506" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural motivation&gt; that arises from a person’s self-identity.</t>
+          <t>A &lt;mental process&gt; in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E506" s="2" t="inlineStr"/>
       <c r="F506" s="2" t="inlineStr"/>
       <c r="G506" s="2" t="inlineStr"/>
       <c r="H506" s="2" t="inlineStr"/>
-      <c r="I506" s="2" t="inlineStr"/>
+      <c r="I506" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
+        </is>
+      </c>
       <c r="J506" s="2" t="inlineStr"/>
       <c r="K506" s="2" t="inlineStr"/>
       <c r="L506" s="2" t="inlineStr"/>
@@ -30839,33 +30841,29 @@
     <row r="507">
       <c r="A507" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006005</t>
+          <t>BCIO:050767</t>
         </is>
       </c>
       <c r="B507" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-motive</t>
         </is>
       </c>
       <c r="C507" s="2" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="D507" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental capability&gt; that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A &lt;behavioural motivation&gt; that arises from a person’s self-identity.</t>
         </is>
       </c>
       <c r="E507" s="2" t="inlineStr"/>
       <c r="F507" s="2" t="inlineStr"/>
       <c r="G507" s="2" t="inlineStr"/>
       <c r="H507" s="2" t="inlineStr"/>
-      <c r="I507" s="2" t="inlineStr">
-        <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
-        </is>
-      </c>
+      <c r="I507" s="2" t="inlineStr"/>
       <c r="J507" s="2" t="inlineStr"/>
       <c r="K507" s="2" t="inlineStr"/>
       <c r="L507" s="2" t="inlineStr"/>
@@ -30901,29 +30899,33 @@
     <row r="508">
       <c r="A508" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006005</t>
         </is>
       </c>
       <c r="B508" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="C508" s="2" t="inlineStr">
         <is>
-          <t>self-regulation process</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D508" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation process&gt; that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+          <t>A &lt;mental capability&gt; that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
         </is>
       </c>
       <c r="E508" s="2" t="inlineStr"/>
       <c r="F508" s="2" t="inlineStr"/>
       <c r="G508" s="2" t="inlineStr"/>
       <c r="H508" s="2" t="inlineStr"/>
-      <c r="I508" s="2" t="inlineStr"/>
+      <c r="I508" s="2" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
       <c r="J508" s="2" t="inlineStr"/>
       <c r="K508" s="2" t="inlineStr"/>
       <c r="L508" s="2" t="inlineStr"/>
@@ -30959,22 +30961,22 @@
     <row r="509">
       <c r="A509" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050268</t>
+          <t>BCIO:006103</t>
         </is>
       </c>
       <c r="B509" s="2" t="inlineStr">
         <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C509" s="2" t="inlineStr">
+        <is>
           <t>self-regulation process</t>
         </is>
       </c>
-      <c r="C509" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
       <c r="D509" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
+          <t>A &lt;self-regulation process&gt; that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
         </is>
       </c>
       <c r="E509" s="2" t="inlineStr"/>
@@ -31017,22 +31019,22 @@
     <row r="510">
       <c r="A510" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050768</t>
+          <t>BCIO:050268</t>
         </is>
       </c>
       <c r="B510" s="2" t="inlineStr">
         <is>
-          <t>self-regulation through behavioural feedback</t>
+          <t>self-regulation process</t>
         </is>
       </c>
       <c r="C510" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D510" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation of behaviour&gt; that is informed by feedback.</t>
+          <t>A &lt;bodily process&gt; that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
         </is>
       </c>
       <c r="E510" s="2" t="inlineStr"/>
@@ -31075,22 +31077,22 @@
     <row r="511">
       <c r="A511" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050222</t>
+          <t>BCIO:050768</t>
         </is>
       </c>
       <c r="B511" s="2" t="inlineStr">
         <is>
-          <t>self-regulatory skill</t>
+          <t>self-regulation through behavioural feedback</t>
         </is>
       </c>
       <c r="C511" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D511" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation capability&gt; that is acquired through training or practice.</t>
+          <t>A &lt;self-regulation of behaviour&gt; that is informed by feedback.</t>
         </is>
       </c>
       <c r="E511" s="2" t="inlineStr"/>
@@ -31133,30 +31135,26 @@
     <row r="512">
       <c r="A512" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006106</t>
+          <t>BCIO:050222</t>
         </is>
       </c>
       <c r="B512" s="2" t="inlineStr">
         <is>
-          <t>self-reinforcing self-regulation</t>
+          <t>self-regulatory skill</t>
         </is>
       </c>
       <c r="C512" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D512" s="2" t="inlineStr">
         <is>
-          <t>&lt;Self-regulation of behaviour&gt; through self-administering a reward for performing an intended behaviour.</t>
+          <t>A &lt;self-regulation capability&gt; that is acquired through training or practice.</t>
         </is>
       </c>
       <c r="E512" s="2" t="inlineStr"/>
-      <c r="F512" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
+      <c r="F512" s="2" t="inlineStr"/>
       <c r="G512" s="2" t="inlineStr"/>
       <c r="H512" s="2" t="inlineStr"/>
       <c r="I512" s="2" t="inlineStr"/>
@@ -31195,26 +31193,30 @@
     <row r="513">
       <c r="A513" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006128</t>
+          <t>BCIO:006106</t>
         </is>
       </c>
       <c r="B513" s="2" t="inlineStr">
         <is>
-          <t>semantic memory</t>
+          <t>self-reinforcing self-regulation</t>
         </is>
       </c>
       <c r="C513" s="2" t="inlineStr">
         <is>
-          <t>memory process</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D513" s="2" t="inlineStr">
         <is>
-          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+          <t>&lt;Self-regulation of behaviour&gt; through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
       <c r="E513" s="2" t="inlineStr"/>
-      <c r="F513" s="2" t="inlineStr"/>
+      <c r="F513" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
+        </is>
+      </c>
       <c r="G513" s="2" t="inlineStr"/>
       <c r="H513" s="2" t="inlineStr"/>
       <c r="I513" s="2" t="inlineStr"/>
@@ -31251,78 +31253,82 @@
       <c r="X513" s="2" t="inlineStr"/>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr"/>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr"/>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
-      <c r="M514" t="inlineStr"/>
-      <c r="N514" t="inlineStr"/>
-      <c r="O514" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P514" t="inlineStr"/>
-      <c r="Q514" t="inlineStr"/>
-      <c r="R514" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S514" t="inlineStr"/>
-      <c r="T514" t="inlineStr"/>
-      <c r="U514" t="inlineStr"/>
-      <c r="V514" t="inlineStr"/>
-      <c r="W514" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X514" t="inlineStr"/>
+      <c r="A514" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006128</t>
+        </is>
+      </c>
+      <c r="B514" s="2" t="inlineStr">
+        <is>
+          <t>semantic memory</t>
+        </is>
+      </c>
+      <c r="C514" s="2" t="inlineStr">
+        <is>
+          <t>memory process</t>
+        </is>
+      </c>
+      <c r="D514" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+        </is>
+      </c>
+      <c r="E514" s="2" t="inlineStr"/>
+      <c r="F514" s="2" t="inlineStr"/>
+      <c r="G514" s="2" t="inlineStr"/>
+      <c r="H514" s="2" t="inlineStr"/>
+      <c r="I514" s="2" t="inlineStr"/>
+      <c r="J514" s="2" t="inlineStr"/>
+      <c r="K514" s="2" t="inlineStr"/>
+      <c r="L514" s="2" t="inlineStr"/>
+      <c r="M514" s="2" t="inlineStr"/>
+      <c r="N514" s="2" t="inlineStr"/>
+      <c r="O514" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P514" s="2" t="inlineStr"/>
+      <c r="Q514" s="2" t="inlineStr"/>
+      <c r="R514" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S514" s="2" t="inlineStr"/>
+      <c r="T514" s="2" t="inlineStr"/>
+      <c r="U514" s="2" t="inlineStr"/>
+      <c r="V514" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W514" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X514" s="2" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>MFOEM:000040</t>
+          <t>GO:0046960</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>sexual pleasure</t>
+          <t>sensitization</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>&lt;Pleasure&gt; that is experienced as a result of sexual activities.</t>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E515" t="inlineStr"/>
@@ -31350,11 +31356,7 @@
       <c r="S515" t="inlineStr"/>
       <c r="T515" t="inlineStr"/>
       <c r="U515" t="inlineStr"/>
-      <c r="V515" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V515" t="inlineStr"/>
       <c r="W515" t="inlineStr">
         <is>
           <t>0</t>
@@ -31365,22 +31367,22 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>MFOEM:000055</t>
+          <t>MFOEM:000040</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>shame</t>
+          <t>sexual pleasure</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+          <t>&lt;Pleasure&gt; that is experienced as a result of sexual activities.</t>
         </is>
       </c>
       <c r="E516" t="inlineStr"/>
@@ -31408,7 +31410,11 @@
       <c r="S516" t="inlineStr"/>
       <c r="T516" t="inlineStr"/>
       <c r="U516" t="inlineStr"/>
-      <c r="V516" t="inlineStr"/>
+      <c r="V516" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
       <c r="W516" t="inlineStr">
         <is>
           <t>0</t>
@@ -31417,93 +31423,85 @@
       <c r="X516" t="inlineStr"/>
     </row>
     <row r="517">
-      <c r="A517" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050769</t>
-        </is>
-      </c>
-      <c r="B517" s="2" t="inlineStr">
-        <is>
-          <t>similarity to other people</t>
-        </is>
-      </c>
-      <c r="C517" s="2" t="inlineStr">
-        <is>
-          <t>social identity</t>
-        </is>
-      </c>
-      <c r="D517" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;social identity&gt; in which the representation is similarity between oneself and another person or group.</t>
-        </is>
-      </c>
-      <c r="E517" s="2" t="inlineStr"/>
-      <c r="F517" s="2" t="inlineStr"/>
-      <c r="G517" s="2" t="inlineStr"/>
-      <c r="H517" s="2" t="inlineStr"/>
-      <c r="I517" s="2" t="inlineStr"/>
-      <c r="J517" s="2" t="inlineStr"/>
-      <c r="K517" s="2" t="inlineStr"/>
-      <c r="L517" s="2" t="inlineStr"/>
-      <c r="M517" s="2" t="inlineStr"/>
-      <c r="N517" s="2" t="inlineStr"/>
-      <c r="O517" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P517" s="2" t="inlineStr"/>
-      <c r="Q517" s="2" t="inlineStr"/>
-      <c r="R517" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S517" s="2" t="inlineStr"/>
-      <c r="T517" s="2" t="inlineStr"/>
-      <c r="U517" s="2" t="inlineStr"/>
-      <c r="V517" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W517" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X517" s="2" t="inlineStr"/>
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr"/>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
+      <c r="M517" t="inlineStr"/>
+      <c r="N517" t="inlineStr"/>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P517" t="inlineStr"/>
+      <c r="Q517" t="inlineStr"/>
+      <c r="R517" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S517" t="inlineStr"/>
+      <c r="T517" t="inlineStr"/>
+      <c r="U517" t="inlineStr"/>
+      <c r="V517" t="inlineStr"/>
+      <c r="W517" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006044</t>
+          <t>BCIO:050769</t>
         </is>
       </c>
       <c r="B518" s="2" t="inlineStr">
         <is>
-          <t>situational self-efficacy belief for a behaviour</t>
+          <t>similarity to other people</t>
         </is>
       </c>
       <c r="C518" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="D518" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief for a behaviour&gt; when a barrier or facilitator of the behaviour is encountered.</t>
+          <t>A &lt;social identity&gt; in which the representation is similarity between oneself and another person or group.</t>
         </is>
       </c>
       <c r="E518" s="2" t="inlineStr"/>
       <c r="F518" s="2" t="inlineStr"/>
       <c r="G518" s="2" t="inlineStr"/>
       <c r="H518" s="2" t="inlineStr"/>
-      <c r="I518" s="2" t="inlineStr">
-        <is>
-          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
-        </is>
-      </c>
+      <c r="I518" s="2" t="inlineStr"/>
       <c r="J518" s="2" t="inlineStr"/>
       <c r="K518" s="2" t="inlineStr"/>
       <c r="L518" s="2" t="inlineStr"/>
@@ -31539,29 +31537,33 @@
     <row r="519">
       <c r="A519" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006014</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B519" s="2" t="inlineStr">
         <is>
-          <t>social alienation</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C519" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D519" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
+          <t>A &lt;self-efficacy belief for a behaviour&gt; when a barrier or facilitator of the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E519" s="2" t="inlineStr"/>
       <c r="F519" s="2" t="inlineStr"/>
       <c r="G519" s="2" t="inlineStr"/>
       <c r="H519" s="2" t="inlineStr"/>
-      <c r="I519" s="2" t="inlineStr"/>
+      <c r="I519" s="2" t="inlineStr">
+        <is>
+          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
+        </is>
+      </c>
       <c r="J519" s="2" t="inlineStr"/>
       <c r="K519" s="2" t="inlineStr"/>
       <c r="L519" s="2" t="inlineStr"/>
@@ -31597,22 +31599,22 @@
     <row r="520">
       <c r="A520" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050877</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B520" s="2" t="inlineStr">
         <is>
-          <t>social approval pleasure</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C520" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D520" s="2" t="inlineStr">
         <is>
-          <t>&lt;Pleasure&gt; derived from receiving social approval</t>
+          <t>A &lt;mental disposition&gt; to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E520" s="2" t="inlineStr"/>
@@ -31655,22 +31657,22 @@
     <row r="521">
       <c r="A521" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:050877</t>
         </is>
       </c>
       <c r="B521" s="2" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>social approval pleasure</t>
         </is>
       </c>
       <c r="C521" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D521" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal capability&gt; includes interpersonal behaviour in its realisation.</t>
+          <t>&lt;Pleasure&gt; derived from receiving social approval</t>
         </is>
       </c>
       <c r="E521" s="2" t="inlineStr"/>
@@ -31711,148 +31713,148 @@
       <c r="X521" s="2" t="inlineStr"/>
     </row>
     <row r="522">
-      <c r="A522" s="3" t="inlineStr">
+      <c r="A522" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006011</t>
+        </is>
+      </c>
+      <c r="B522" s="2" t="inlineStr">
+        <is>
+          <t>social behavioural capability</t>
+        </is>
+      </c>
+      <c r="C522" s="2" t="inlineStr">
+        <is>
+          <t>behavioural capability</t>
+        </is>
+      </c>
+      <c r="D522" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;personal capability&gt; includes interpersonal behaviour in its realisation.</t>
+        </is>
+      </c>
+      <c r="E522" s="2" t="inlineStr"/>
+      <c r="F522" s="2" t="inlineStr"/>
+      <c r="G522" s="2" t="inlineStr"/>
+      <c r="H522" s="2" t="inlineStr"/>
+      <c r="I522" s="2" t="inlineStr"/>
+      <c r="J522" s="2" t="inlineStr"/>
+      <c r="K522" s="2" t="inlineStr"/>
+      <c r="L522" s="2" t="inlineStr"/>
+      <c r="M522" s="2" t="inlineStr"/>
+      <c r="N522" s="2" t="inlineStr"/>
+      <c r="O522" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P522" s="2" t="inlineStr"/>
+      <c r="Q522" s="2" t="inlineStr"/>
+      <c r="R522" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S522" s="2" t="inlineStr"/>
+      <c r="T522" s="2" t="inlineStr"/>
+      <c r="U522" s="2" t="inlineStr"/>
+      <c r="V522" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W522" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X522" s="2" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="3" t="inlineStr">
         <is>
           <t>BCIO:050770</t>
         </is>
       </c>
-      <c r="B522" s="3" t="inlineStr">
+      <c r="B523" s="3" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="C522" s="3" t="inlineStr">
+      <c r="C523" s="3" t="inlineStr">
         <is>
           <t>behavioural consequence</t>
         </is>
       </c>
-      <c r="D522" s="3" t="inlineStr">
+      <c r="D523" s="3" t="inlineStr">
         <is>
           <t>A &lt;behavioural consequence&gt; of a member of the person’s social environmental system.</t>
         </is>
       </c>
-      <c r="E522" s="3" t="inlineStr"/>
-      <c r="F522" s="3" t="inlineStr"/>
-      <c r="G522" s="3" t="inlineStr"/>
-      <c r="H522" s="3" t="inlineStr"/>
-      <c r="I522" s="3" t="inlineStr"/>
-      <c r="J522" s="3" t="inlineStr"/>
-      <c r="K522" s="3" t="inlineStr"/>
-      <c r="L522" s="3" t="inlineStr"/>
-      <c r="M522" s="3" t="inlineStr"/>
-      <c r="N522" s="3" t="inlineStr"/>
-      <c r="O522" s="3" t="inlineStr">
+      <c r="E523" s="3" t="inlineStr"/>
+      <c r="F523" s="3" t="inlineStr"/>
+      <c r="G523" s="3" t="inlineStr"/>
+      <c r="H523" s="3" t="inlineStr"/>
+      <c r="I523" s="3" t="inlineStr"/>
+      <c r="J523" s="3" t="inlineStr"/>
+      <c r="K523" s="3" t="inlineStr"/>
+      <c r="L523" s="3" t="inlineStr"/>
+      <c r="M523" s="3" t="inlineStr"/>
+      <c r="N523" s="3" t="inlineStr"/>
+      <c r="O523" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P522" s="3" t="inlineStr"/>
-      <c r="Q522" s="3" t="inlineStr"/>
-      <c r="R522" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S522" s="3" t="inlineStr"/>
-      <c r="T522" s="3" t="inlineStr"/>
-      <c r="U522" s="3" t="inlineStr"/>
-      <c r="V522" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W522" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X522" s="3" t="inlineStr"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006090</t>
-        </is>
-      </c>
-      <c r="B523" s="2" t="inlineStr">
-        <is>
-          <t>social behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="C523" s="2" t="inlineStr">
-        <is>
-          <t>behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="D523" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;behavioural opportunity&gt; that involves the social environmental system.</t>
-        </is>
-      </c>
-      <c r="E523" s="2" t="inlineStr"/>
-      <c r="F523" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Characteristics of a person's social environment that are needed for a behaviour or to facilitate it. </t>
-        </is>
-      </c>
-      <c r="G523" s="2" t="inlineStr"/>
-      <c r="H523" s="2" t="inlineStr"/>
-      <c r="I523" s="2" t="inlineStr"/>
-      <c r="J523" s="2" t="inlineStr"/>
-      <c r="K523" s="2" t="inlineStr"/>
-      <c r="L523" s="2" t="inlineStr"/>
-      <c r="M523" s="2" t="inlineStr"/>
-      <c r="N523" s="2" t="inlineStr"/>
-      <c r="O523" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P523" s="2" t="inlineStr"/>
-      <c r="Q523" s="2" t="inlineStr"/>
-      <c r="R523" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S523" s="2" t="inlineStr"/>
-      <c r="T523" s="2" t="inlineStr"/>
-      <c r="U523" s="2" t="inlineStr"/>
-      <c r="V523" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W523" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X523" s="2" t="inlineStr"/>
+      <c r="P523" s="3" t="inlineStr"/>
+      <c r="Q523" s="3" t="inlineStr"/>
+      <c r="R523" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S523" s="3" t="inlineStr"/>
+      <c r="T523" s="3" t="inlineStr"/>
+      <c r="U523" s="3" t="inlineStr"/>
+      <c r="V523" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W523" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X523" s="3" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050878</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B524" s="2" t="inlineStr">
         <is>
-          <t>social categorising</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C524" s="2" t="inlineStr">
         <is>
-          <t>mental categorising</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D524" s="2" t="inlineStr">
         <is>
-          <t>&lt;Mental categorising&gt; where what is being categorised are parts of the social environmental system.</t>
+          <t>A &lt;behavioural opportunity&gt; that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E524" s="2" t="inlineStr"/>
-      <c r="F524" s="2" t="inlineStr"/>
+      <c r="F524" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Characteristics of a person's social environment that are needed for a behaviour or to facilitate it. </t>
+        </is>
+      </c>
       <c r="G524" s="2" t="inlineStr"/>
       <c r="H524" s="2" t="inlineStr"/>
       <c r="I524" s="2" t="inlineStr"/>
@@ -31891,22 +31893,22 @@
     <row r="525">
       <c r="A525" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:050878</t>
         </is>
       </c>
       <c r="B525" s="2" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social categorising</t>
         </is>
       </c>
       <c r="C525" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>mental categorising</t>
         </is>
       </c>
       <c r="D525" s="2" t="inlineStr">
         <is>
-          <t>&lt;Judging&gt; oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>&lt;Mental categorising&gt; where what is being categorised are parts of the social environmental system.</t>
         </is>
       </c>
       <c r="E525" s="2" t="inlineStr"/>
@@ -31949,22 +31951,22 @@
     <row r="526">
       <c r="A526" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050879</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B526" s="2" t="inlineStr">
         <is>
-          <t>social connectedness pleasure</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C526" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D526" s="2" t="inlineStr">
         <is>
-          <t>&lt;Pleasure&gt; derived from feeling emotionally connected to others.</t>
+          <t>&lt;Judging&gt; oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E526" s="2" t="inlineStr"/>
@@ -32007,22 +32009,22 @@
     <row r="527">
       <c r="A527" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050880</t>
+          <t>BCIO:050879</t>
         </is>
       </c>
       <c r="B527" s="2" t="inlineStr">
         <is>
-          <t>social consequence of behaviour appraisal process</t>
+          <t>social connectedness pleasure</t>
         </is>
       </c>
       <c r="C527" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence appraisal process</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D527" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural consequences appraisal process&gt; in which the consequence concerns the social environmental system.</t>
+          <t>&lt;Pleasure&gt; derived from feeling emotionally connected to others.</t>
         </is>
       </c>
       <c r="E527" s="2" t="inlineStr"/>
@@ -32065,22 +32067,22 @@
     <row r="528">
       <c r="A528" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:050880</t>
         </is>
       </c>
       <c r="B528" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social consequence of behaviour appraisal process</t>
         </is>
       </c>
       <c r="C528" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural consequence appraisal process</t>
         </is>
       </c>
       <c r="D528" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to experience a feeling of being connected by social attachments.</t>
+          <t>A &lt;behavioural consequences appraisal process&gt; in which the consequence concerns the social environmental system.</t>
         </is>
       </c>
       <c r="E528" s="2" t="inlineStr"/>
@@ -32123,22 +32125,22 @@
     <row r="529">
       <c r="A529" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050771</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B529" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness in a social group</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C529" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D529" s="2" t="inlineStr">
         <is>
-          <t>&lt;Social embeddedness&gt; that involves attachment to a social group.</t>
+          <t>A &lt;mental disposition&gt; to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E529" s="2" t="inlineStr"/>
@@ -32181,22 +32183,22 @@
     <row r="530">
       <c r="A530" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050772</t>
+          <t>BCIO:050771</t>
         </is>
       </c>
       <c r="B530" s="2" t="inlineStr">
         <is>
-          <t>social environmental disposition</t>
+          <t>social embeddedness in a social group</t>
         </is>
       </c>
       <c r="C530" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="D530" s="2" t="inlineStr">
         <is>
-          <t>An &lt;environmental disposition&gt; of the social environmental system.</t>
+          <t>&lt;Social embeddedness&gt; that involves attachment to a social group.</t>
         </is>
       </c>
       <c r="E530" s="2" t="inlineStr"/>
@@ -32239,22 +32241,22 @@
     <row r="531">
       <c r="A531" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:050772</t>
         </is>
       </c>
       <c r="B531" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social environmental disposition</t>
         </is>
       </c>
       <c r="C531" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D531" s="2" t="inlineStr">
         <is>
-          <t>An &lt;environmental system&gt; that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>An &lt;environmental disposition&gt; of the social environmental system.</t>
         </is>
       </c>
       <c r="E531" s="2" t="inlineStr"/>
@@ -32297,22 +32299,22 @@
     <row r="532">
       <c r="A532" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050773</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B532" s="2" t="inlineStr">
         <is>
-          <t>social environmental system attribute</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C532" s="2" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D532" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attribute&gt; of a social environmental system.</t>
+          <t>An &lt;environmental system&gt; that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E532" s="2" t="inlineStr"/>
@@ -32355,12 +32357,12 @@
     <row r="533">
       <c r="A533" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050774</t>
+          <t>BCIO:050773</t>
         </is>
       </c>
       <c r="B533" s="2" t="inlineStr">
         <is>
-          <t>social group attribute</t>
+          <t>social environmental system attribute</t>
         </is>
       </c>
       <c r="C533" s="2" t="inlineStr">
@@ -32370,7 +32372,7 @@
       </c>
       <c r="D533" s="2" t="inlineStr">
         <is>
-          <t>A &lt;specifically dependent continuant&gt; whose bearer is a social group.</t>
+          <t>An &lt;attribute&gt; of a social environmental system.</t>
         </is>
       </c>
       <c r="E533" s="2" t="inlineStr"/>
@@ -32413,29 +32415,25 @@
     <row r="534">
       <c r="A534" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050881</t>
+          <t>BCIO:050774</t>
         </is>
       </c>
       <c r="B534" s="2" t="inlineStr">
         <is>
-          <t>social group process</t>
+          <t>social group attribute</t>
         </is>
       </c>
       <c r="C534" s="2" t="inlineStr">
         <is>
-          <t>interpersonal process</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D534" s="2" t="inlineStr">
         <is>
-          <t>A &lt;interpersonal process&gt; that has some social group as a participant.</t>
-        </is>
-      </c>
-      <c r="E534" s="2" t="inlineStr">
-        <is>
-          <t>Any process involving one or more social group.</t>
-        </is>
-      </c>
+          <t>A &lt;specifically dependent continuant&gt; whose bearer is a social group.</t>
+        </is>
+      </c>
+      <c r="E534" s="2" t="inlineStr"/>
       <c r="F534" s="2" t="inlineStr"/>
       <c r="G534" s="2" t="inlineStr"/>
       <c r="H534" s="2" t="inlineStr"/>
@@ -32473,148 +32471,148 @@
       <c r="X534" s="2" t="inlineStr"/>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr">
+      <c r="A535" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050881</t>
+        </is>
+      </c>
+      <c r="B535" s="2" t="inlineStr">
+        <is>
+          <t>social group process</t>
+        </is>
+      </c>
+      <c r="C535" s="2" t="inlineStr">
+        <is>
+          <t>interpersonal process</t>
+        </is>
+      </c>
+      <c r="D535" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;interpersonal process&gt; that has some social group as a participant.</t>
+        </is>
+      </c>
+      <c r="E535" s="2" t="inlineStr">
+        <is>
+          <t>Any process involving one or more social group.</t>
+        </is>
+      </c>
+      <c r="F535" s="2" t="inlineStr"/>
+      <c r="G535" s="2" t="inlineStr"/>
+      <c r="H535" s="2" t="inlineStr"/>
+      <c r="I535" s="2" t="inlineStr"/>
+      <c r="J535" s="2" t="inlineStr"/>
+      <c r="K535" s="2" t="inlineStr"/>
+      <c r="L535" s="2" t="inlineStr"/>
+      <c r="M535" s="2" t="inlineStr"/>
+      <c r="N535" s="2" t="inlineStr"/>
+      <c r="O535" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P535" s="2" t="inlineStr"/>
+      <c r="Q535" s="2" t="inlineStr"/>
+      <c r="R535" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S535" s="2" t="inlineStr"/>
+      <c r="T535" s="2" t="inlineStr"/>
+      <c r="U535" s="2" t="inlineStr"/>
+      <c r="V535" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W535" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X535" s="2" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001087 </t>
         </is>
       </c>
-      <c r="B535" t="inlineStr">
+      <c r="B536" t="inlineStr">
         <is>
           <t>social identity</t>
         </is>
       </c>
-      <c r="C535" t="inlineStr">
+      <c r="C536" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="D535" t="inlineStr">
+      <c r="D536" t="inlineStr">
         <is>
           <t>A &lt;self-identity&gt; in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr"/>
-      <c r="I535" t="inlineStr">
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr"/>
+      <c r="H536" t="inlineStr"/>
+      <c r="I536" t="inlineStr">
         <is>
           <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
         </is>
       </c>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
-      <c r="M535" t="inlineStr"/>
-      <c r="N535" t="inlineStr"/>
-      <c r="O535" t="inlineStr">
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
+      <c r="M536" t="inlineStr"/>
+      <c r="N536" t="inlineStr"/>
+      <c r="O536" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P535" t="inlineStr"/>
-      <c r="Q535" t="inlineStr"/>
-      <c r="R535" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S535" t="inlineStr"/>
-      <c r="T535" t="inlineStr"/>
-      <c r="U535" t="inlineStr"/>
-      <c r="V535" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W535" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050775</t>
-        </is>
-      </c>
-      <c r="B536" s="2" t="inlineStr">
-        <is>
-          <t>social identity process</t>
-        </is>
-      </c>
-      <c r="C536" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D536" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that results from the person’s social identity.</t>
-        </is>
-      </c>
-      <c r="E536" s="2" t="inlineStr"/>
-      <c r="F536" s="2" t="inlineStr"/>
-      <c r="G536" s="2" t="inlineStr"/>
-      <c r="H536" s="2" t="inlineStr">
-        <is>
-          <t>attachment to a group, conflict</t>
-        </is>
-      </c>
-      <c r="I536" s="2" t="inlineStr"/>
-      <c r="J536" s="2" t="inlineStr"/>
-      <c r="K536" s="2" t="inlineStr"/>
-      <c r="L536" s="2" t="inlineStr"/>
-      <c r="M536" s="2" t="inlineStr"/>
-      <c r="N536" s="2" t="inlineStr"/>
-      <c r="O536" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P536" s="2" t="inlineStr"/>
-      <c r="Q536" s="2" t="inlineStr"/>
-      <c r="R536" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S536" s="2" t="inlineStr"/>
-      <c r="T536" s="2" t="inlineStr"/>
-      <c r="U536" s="2" t="inlineStr"/>
-      <c r="V536" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W536" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X536" s="2" t="inlineStr"/>
+      <c r="P536" t="inlineStr"/>
+      <c r="Q536" t="inlineStr"/>
+      <c r="R536" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S536" t="inlineStr"/>
+      <c r="T536" t="inlineStr"/>
+      <c r="U536" t="inlineStr"/>
+      <c r="V536" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W536" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:050775</t>
         </is>
       </c>
       <c r="B537" s="2" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>social identity process</t>
         </is>
       </c>
       <c r="C537" s="2" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D537" s="2" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
+          <t>A &lt;mental process&gt; that results from the person’s social identity.</t>
         </is>
       </c>
       <c r="E537" s="2" t="inlineStr"/>
@@ -32622,7 +32620,7 @@
       <c r="G537" s="2" t="inlineStr"/>
       <c r="H537" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Social support from social network. </t>
+          <t>attachment to a group, conflict</t>
         </is>
       </c>
       <c r="I537" s="2" t="inlineStr"/>
@@ -32661,33 +32659,33 @@
     <row r="538">
       <c r="A538" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050776</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B538" s="2" t="inlineStr">
         <is>
-          <t>social influence process</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C538" s="2" t="inlineStr">
         <is>
-          <t>interpersonal process</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D538" s="2" t="inlineStr">
         <is>
-          <t>An &lt;interpersonal process&gt; in which people’s thoughts, feelings or behaviours are influenced by other people.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E538" s="2" t="inlineStr"/>
       <c r="F538" s="2" t="inlineStr"/>
       <c r="G538" s="2" t="inlineStr"/>
-      <c r="H538" s="2" t="inlineStr"/>
-      <c r="I538" s="2" t="inlineStr">
-        <is>
-          <t>If social influence processes are specific to behaviour, the entity “social influence behaviour” should be referred to.</t>
-        </is>
-      </c>
+      <c r="H538" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
+      <c r="I538" s="2" t="inlineStr"/>
       <c r="J538" s="2" t="inlineStr"/>
       <c r="K538" s="2" t="inlineStr"/>
       <c r="L538" s="2" t="inlineStr"/>
@@ -32723,29 +32721,33 @@
     <row r="539">
       <c r="A539" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050777</t>
+          <t>BCIO:050776</t>
         </is>
       </c>
       <c r="B539" s="2" t="inlineStr">
         <is>
-          <t>social justice</t>
+          <t>social influence process</t>
         </is>
       </c>
       <c r="C539" s="2" t="inlineStr">
         <is>
-          <t>social environmental disposition</t>
+          <t>interpersonal process</t>
         </is>
       </c>
       <c r="D539" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social environmental disposition&gt; that is how far members of a society experience fair and equitable resources, opportunities and privileges.</t>
+          <t>An &lt;interpersonal process&gt; in which people’s thoughts, feelings or behaviours are influenced by other people.</t>
         </is>
       </c>
       <c r="E539" s="2" t="inlineStr"/>
       <c r="F539" s="2" t="inlineStr"/>
       <c r="G539" s="2" t="inlineStr"/>
       <c r="H539" s="2" t="inlineStr"/>
-      <c r="I539" s="2" t="inlineStr"/>
+      <c r="I539" s="2" t="inlineStr">
+        <is>
+          <t>If social influence processes are specific to behaviour, the entity “social influence behaviour” should be referred to.</t>
+        </is>
+      </c>
       <c r="J539" s="2" t="inlineStr"/>
       <c r="K539" s="2" t="inlineStr"/>
       <c r="L539" s="2" t="inlineStr"/>
@@ -32781,22 +32783,22 @@
     <row r="540">
       <c r="A540" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050882</t>
+          <t>BCIO:050777</t>
         </is>
       </c>
       <c r="B540" s="2" t="inlineStr">
         <is>
-          <t>social pleasure</t>
+          <t>social justice</t>
         </is>
       </c>
       <c r="C540" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>social environmental disposition</t>
         </is>
       </c>
       <c r="D540" s="2" t="inlineStr">
         <is>
-          <t>&lt;Pleasure&gt; derived from social interaction.</t>
+          <t>A &lt;social environmental disposition&gt; that is how far members of a society experience fair and equitable resources, opportunities and privileges.</t>
         </is>
       </c>
       <c r="E540" s="2" t="inlineStr"/>
@@ -32839,22 +32841,22 @@
     <row r="541">
       <c r="A541" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050778</t>
+          <t>BCIO:050882</t>
         </is>
       </c>
       <c r="B541" s="2" t="inlineStr">
         <is>
-          <t>social reinforcement process for a behaviour</t>
+          <t>social pleasure</t>
         </is>
       </c>
       <c r="C541" s="2" t="inlineStr">
         <is>
-          <t>reinforcement process</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D541" s="2" t="inlineStr">
         <is>
-          <t>A &lt;reinforcement process&gt; in which a behaviour is followed by a social event that alters the likelihood of the behaviour.</t>
+          <t>&lt;Pleasure&gt; derived from social interaction.</t>
         </is>
       </c>
       <c r="E541" s="2" t="inlineStr"/>
@@ -32897,33 +32899,29 @@
     <row r="542">
       <c r="A542" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050779</t>
+          <t>BCIO:050778</t>
         </is>
       </c>
       <c r="B542" s="2" t="inlineStr">
         <is>
-          <t>social representation of a behaviour</t>
+          <t>social reinforcement process for a behaviour</t>
         </is>
       </c>
       <c r="C542" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>reinforcement process</t>
         </is>
       </c>
       <c r="D542" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; about a behaviour that is shared by members of a social group.</t>
+          <t>A &lt;reinforcement process&gt; in which a behaviour is followed by a social event that alters the likelihood of the behaviour.</t>
         </is>
       </c>
       <c r="E542" s="2" t="inlineStr"/>
       <c r="F542" s="2" t="inlineStr"/>
       <c r="G542" s="2" t="inlineStr"/>
       <c r="H542" s="2" t="inlineStr"/>
-      <c r="I542" s="2" t="inlineStr">
-        <is>
-          <t>This class includes the physical representation of the behaviour and also the meanings that members of a social group assign to it.</t>
-        </is>
-      </c>
+      <c r="I542" s="2" t="inlineStr"/>
       <c r="J542" s="2" t="inlineStr"/>
       <c r="K542" s="2" t="inlineStr"/>
       <c r="L542" s="2" t="inlineStr"/>
@@ -32959,22 +32957,22 @@
     <row r="543">
       <c r="A543" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:050779</t>
         </is>
       </c>
       <c r="B543" s="2" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>social representation of a behaviour</t>
         </is>
       </c>
       <c r="C543" s="2" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D543" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal role&gt; that is realised in human social processes.</t>
+          <t>A &lt;cognitive representation&gt; about a behaviour that is shared by members of a social group.</t>
         </is>
       </c>
       <c r="E543" s="2" t="inlineStr"/>
@@ -32983,7 +32981,7 @@
       <c r="H543" s="2" t="inlineStr"/>
       <c r="I543" s="2" t="inlineStr">
         <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+          <t>This class includes the physical representation of the behaviour and also the meanings that members of a social group assign to it.</t>
         </is>
       </c>
       <c r="J543" s="2" t="inlineStr"/>
@@ -33021,29 +33019,33 @@
     <row r="544">
       <c r="A544" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050780</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B544" s="2" t="inlineStr">
         <is>
-          <t>social role learning</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C544" s="2" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D544" s="2" t="inlineStr">
         <is>
-          <t>&lt;Learning&gt; about one’s social role.</t>
+          <t>A &lt;personal role&gt; that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E544" s="2" t="inlineStr"/>
       <c r="F544" s="2" t="inlineStr"/>
       <c r="G544" s="2" t="inlineStr"/>
       <c r="H544" s="2" t="inlineStr"/>
-      <c r="I544" s="2" t="inlineStr"/>
+      <c r="I544" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J544" s="2" t="inlineStr"/>
       <c r="K544" s="2" t="inlineStr"/>
       <c r="L544" s="2" t="inlineStr"/>
@@ -33079,22 +33081,22 @@
     <row r="545">
       <c r="A545" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:050780</t>
         </is>
       </c>
       <c r="B545" s="2" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social role learning</t>
         </is>
       </c>
       <c r="C545" s="2" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="D545" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social behavioural capability&gt; acquired through training or practice.</t>
+          <t>&lt;Learning&gt; about one’s social role.</t>
         </is>
       </c>
       <c r="E545" s="2" t="inlineStr"/>
@@ -33137,22 +33139,22 @@
     <row r="546">
       <c r="A546" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:006012</t>
         </is>
       </c>
       <c r="B546" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="C546" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="D546" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that relates to the social environment.</t>
+          <t>A &lt;social behavioural capability&gt; acquired through training or practice.</t>
         </is>
       </c>
       <c r="E546" s="2" t="inlineStr"/>
@@ -33174,7 +33176,7 @@
       <c r="Q546" s="2" t="inlineStr"/>
       <c r="R546" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Mechanisms of action</t>
         </is>
       </c>
       <c r="S546" s="2" t="inlineStr"/>
@@ -33195,22 +33197,22 @@
     <row r="547">
       <c r="A547" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050781</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B547" s="2" t="inlineStr">
         <is>
-          <t>societal personal value</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="C547" s="2" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D547" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal value&gt; that involves regarding societal wellbeing as fundamentally important in life.</t>
+          <t>An &lt;individual human behaviour&gt; that relates to the social environment.</t>
         </is>
       </c>
       <c r="E547" s="2" t="inlineStr"/>
@@ -33232,7 +33234,7 @@
       <c r="Q547" s="2" t="inlineStr"/>
       <c r="R547" s="2" t="inlineStr">
         <is>
-          <t>Mechanisms of action</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="S547" s="2" t="inlineStr"/>
@@ -33253,22 +33255,22 @@
     <row r="548">
       <c r="A548" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050782</t>
+          <t>BCIO:050781</t>
         </is>
       </c>
       <c r="B548" s="2" t="inlineStr">
         <is>
-          <t>stability of living conditions</t>
+          <t>societal personal value</t>
         </is>
       </c>
       <c r="C548" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="D548" s="2" t="inlineStr">
         <is>
-          <t>An &lt;environmental disposition&gt; to have a stable and secure physical and social home environment.</t>
+          <t>A &lt;personal value&gt; that involves regarding societal wellbeing as fundamentally important in life.</t>
         </is>
       </c>
       <c r="E548" s="2" t="inlineStr"/>
@@ -33311,33 +33313,29 @@
     <row r="549">
       <c r="A549" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:050782</t>
         </is>
       </c>
       <c r="B549" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>stability of living conditions</t>
         </is>
       </c>
       <c r="C549" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D549" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive schema&gt; that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>An &lt;environmental disposition&gt; to have a stable and secure physical and social home environment.</t>
         </is>
       </c>
       <c r="E549" s="2" t="inlineStr"/>
       <c r="F549" s="2" t="inlineStr"/>
       <c r="G549" s="2" t="inlineStr"/>
       <c r="H549" s="2" t="inlineStr"/>
-      <c r="I549" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
-        </is>
-      </c>
+      <c r="I549" s="2" t="inlineStr"/>
       <c r="J549" s="2" t="inlineStr"/>
       <c r="K549" s="2" t="inlineStr"/>
       <c r="L549" s="2" t="inlineStr"/>
@@ -33373,35 +33371,31 @@
     <row r="550">
       <c r="A550" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050783</t>
+          <t>BCIO:006072</t>
         </is>
       </c>
       <c r="B550" s="2" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="C550" s="2" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>cognitive schema</t>
         </is>
       </c>
       <c r="D550" s="2" t="inlineStr">
         <is>
-          <t>An &lt;entity&gt; that acts as an input to a perceptual process leading to a thought, feeling or action.</t>
+          <t>A &lt;cognitive schema&gt; that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
         </is>
       </c>
       <c r="E550" s="2" t="inlineStr"/>
       <c r="F550" s="2" t="inlineStr"/>
       <c r="G550" s="2" t="inlineStr"/>
-      <c r="H550" s="2" t="inlineStr">
-        <is>
-          <t>a loud noise, the sight of a treadmill, the picture of specific foods</t>
-        </is>
-      </c>
+      <c r="H550" s="2" t="inlineStr"/>
       <c r="I550" s="2" t="inlineStr">
         <is>
-          <t>A stimulus can be naturally occurring or used as component of Behaviour Change Techniques (BCTs). These are part of learning processes and operationalized as part of BCTs.</t>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
         </is>
       </c>
       <c r="J550" s="2" t="inlineStr"/>
@@ -33439,31 +33433,35 @@
     <row r="551">
       <c r="A551" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050784</t>
+          <t>BCIO:050783</t>
         </is>
       </c>
       <c r="B551" s="2" t="inlineStr">
         <is>
-          <t>stimulus-impulse association</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="C551" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="D551" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; in which a stimulus strengthens a tendency for an impulse.</t>
+          <t>An &lt;entity&gt; that acts as an input to a perceptual process leading to a thought, feeling or action.</t>
         </is>
       </c>
       <c r="E551" s="2" t="inlineStr"/>
       <c r="F551" s="2" t="inlineStr"/>
       <c r="G551" s="2" t="inlineStr"/>
-      <c r="H551" s="2" t="inlineStr"/>
+      <c r="H551" s="2" t="inlineStr">
+        <is>
+          <t>a loud noise, the sight of a treadmill, the picture of specific foods</t>
+        </is>
+      </c>
       <c r="I551" s="2" t="inlineStr">
         <is>
-          <t>Stimulus-impulse association is part of operant learning processes.</t>
+          <t>A stimulus can be naturally occurring or used as component of Behaviour Change Techniques (BCTs). These are part of learning processes and operationalized as part of BCTs.</t>
         </is>
       </c>
       <c r="J551" s="2" t="inlineStr"/>
@@ -33501,22 +33499,22 @@
     <row r="552">
       <c r="A552" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050785</t>
+          <t>BCIO:050784</t>
         </is>
       </c>
       <c r="B552" s="2" t="inlineStr">
         <is>
-          <t>strength of attention</t>
+          <t>stimulus-impulse association</t>
         </is>
       </c>
       <c r="C552" s="2" t="inlineStr">
         <is>
-          <t>mental process attribute</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D552" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process attribute&gt; that is the extent to which attentional resources are focused on a target.</t>
+          <t>A &lt;mental process&gt; in which a stimulus strengthens a tendency for an impulse.</t>
         </is>
       </c>
       <c r="E552" s="2" t="inlineStr"/>
@@ -33525,7 +33523,7 @@
       <c r="H552" s="2" t="inlineStr"/>
       <c r="I552" s="2" t="inlineStr">
         <is>
-          <t>Target refers to anything that can be attended to, whether it be an object, an attribute of an object, information or a process.</t>
+          <t>Stimulus-impulse association is part of operant learning processes.</t>
         </is>
       </c>
       <c r="J552" s="2" t="inlineStr"/>
@@ -33563,29 +33561,33 @@
     <row r="553">
       <c r="A553" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050883</t>
+          <t>BCIO:050785</t>
         </is>
       </c>
       <c r="B553" s="2" t="inlineStr">
         <is>
-          <t>strength of group support for an intervention</t>
+          <t>strength of attention</t>
         </is>
       </c>
       <c r="C553" s="2" t="inlineStr">
         <is>
-          <t>social group attribute</t>
+          <t>mental process attribute</t>
         </is>
       </c>
       <c r="D553" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social group attribute&gt; that is the extent to which its members positively evaluate an intervention.</t>
+          <t>A &lt;mental process attribute&gt; that is the extent to which attentional resources are focused on a target.</t>
         </is>
       </c>
       <c r="E553" s="2" t="inlineStr"/>
       <c r="F553" s="2" t="inlineStr"/>
       <c r="G553" s="2" t="inlineStr"/>
       <c r="H553" s="2" t="inlineStr"/>
-      <c r="I553" s="2" t="inlineStr"/>
+      <c r="I553" s="2" t="inlineStr">
+        <is>
+          <t>Target refers to anything that can be attended to, whether it be an object, an attribute of an object, information or a process.</t>
+        </is>
+      </c>
       <c r="J553" s="2" t="inlineStr"/>
       <c r="K553" s="2" t="inlineStr"/>
       <c r="L553" s="2" t="inlineStr"/>
@@ -33619,173 +33621,169 @@
       <c r="X553" s="2" t="inlineStr"/>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr">
+      <c r="A554" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050883</t>
+        </is>
+      </c>
+      <c r="B554" s="2" t="inlineStr">
+        <is>
+          <t>strength of group support for an intervention</t>
+        </is>
+      </c>
+      <c r="C554" s="2" t="inlineStr">
+        <is>
+          <t>social group attribute</t>
+        </is>
+      </c>
+      <c r="D554" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;social group attribute&gt; that is the extent to which its members positively evaluate an intervention.</t>
+        </is>
+      </c>
+      <c r="E554" s="2" t="inlineStr"/>
+      <c r="F554" s="2" t="inlineStr"/>
+      <c r="G554" s="2" t="inlineStr"/>
+      <c r="H554" s="2" t="inlineStr"/>
+      <c r="I554" s="2" t="inlineStr"/>
+      <c r="J554" s="2" t="inlineStr"/>
+      <c r="K554" s="2" t="inlineStr"/>
+      <c r="L554" s="2" t="inlineStr"/>
+      <c r="M554" s="2" t="inlineStr"/>
+      <c r="N554" s="2" t="inlineStr"/>
+      <c r="O554" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P554" s="2" t="inlineStr"/>
+      <c r="Q554" s="2" t="inlineStr"/>
+      <c r="R554" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S554" s="2" t="inlineStr"/>
+      <c r="T554" s="2" t="inlineStr"/>
+      <c r="U554" s="2" t="inlineStr"/>
+      <c r="V554" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W554" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X554" s="2" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
-      <c r="B554" t="inlineStr">
+      <c r="B555" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="C554" t="inlineStr">
+      <c r="C555" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D554" t="inlineStr">
+      <c r="D555" t="inlineStr">
         <is>
           <t>An &lt;affective process&gt; that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
-      <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr">
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr">
         <is>
           <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
         </is>
       </c>
-      <c r="G554" t="inlineStr">
+      <c r="G555" t="inlineStr">
         <is>
           <t>Feeling calm; hunger; pain</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr"/>
-      <c r="I554" t="inlineStr">
+      <c r="H555" t="inlineStr"/>
+      <c r="I555" t="inlineStr">
         <is>
           <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
 Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
 As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
-      <c r="M554" t="inlineStr"/>
-      <c r="N554" t="inlineStr"/>
-      <c r="O554" t="inlineStr">
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
+      <c r="M555" t="inlineStr"/>
+      <c r="N555" t="inlineStr"/>
+      <c r="O555" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P554" t="inlineStr"/>
-      <c r="Q554" t="inlineStr"/>
-      <c r="R554" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S554" t="inlineStr"/>
-      <c r="T554" t="inlineStr"/>
-      <c r="U554" t="inlineStr"/>
-      <c r="V554" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W554" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050323</t>
-        </is>
-      </c>
-      <c r="B555" s="2" t="inlineStr">
-        <is>
-          <t>subjective feeling</t>
-        </is>
-      </c>
-      <c r="C555" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D555" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that involves the experience of internal or external sensory stimuli.</t>
-        </is>
-      </c>
-      <c r="E555" s="2" t="inlineStr"/>
-      <c r="F555" s="2" t="inlineStr"/>
-      <c r="G555" s="2" t="inlineStr"/>
-      <c r="H555" s="2" t="inlineStr">
-        <is>
-          <t>Feeling ticklish, feeling tingling</t>
-        </is>
-      </c>
-      <c r="I555" s="2" t="inlineStr">
-        <is>
-          <t>If a subjective feeling is valenced (i.e., an affective process), the more granular class “subjective affective feeling” can be used to capture this feeling.</t>
-        </is>
-      </c>
-      <c r="J555" s="2" t="inlineStr"/>
-      <c r="K555" s="2" t="inlineStr"/>
-      <c r="L555" s="2" t="inlineStr"/>
-      <c r="M555" s="2" t="inlineStr"/>
-      <c r="N555" s="2" t="inlineStr"/>
-      <c r="O555" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P555" s="2" t="inlineStr"/>
-      <c r="Q555" s="2" t="inlineStr"/>
-      <c r="R555" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S555" s="2" t="inlineStr"/>
-      <c r="T555" s="2" t="inlineStr"/>
-      <c r="U555" s="2" t="inlineStr"/>
-      <c r="V555" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W555" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X555" s="2" t="inlineStr"/>
+      <c r="P555" t="inlineStr"/>
+      <c r="Q555" t="inlineStr"/>
+      <c r="R555" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S555" t="inlineStr"/>
+      <c r="T555" t="inlineStr"/>
+      <c r="U555" t="inlineStr"/>
+      <c r="V555" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W555" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050316</t>
+          <t>BCIO:050323</t>
         </is>
       </c>
       <c r="B556" s="2" t="inlineStr">
         <is>
-          <t>subjective need</t>
+          <t>subjective feeling</t>
         </is>
       </c>
       <c r="C556" s="2" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D556" s="2" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; that is an attraction to an imagined scenario involving anticipated relief from or avoidance of mental or physical discomfort.</t>
+          <t>A &lt;mental process&gt; that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
       <c r="E556" s="2" t="inlineStr"/>
-      <c r="F556" s="2" t="inlineStr">
-        <is>
-          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
-        </is>
-      </c>
+      <c r="F556" s="2" t="inlineStr"/>
       <c r="G556" s="2" t="inlineStr"/>
-      <c r="H556" s="2" t="inlineStr"/>
-      <c r="I556" s="2" t="inlineStr"/>
+      <c r="H556" s="2" t="inlineStr">
+        <is>
+          <t>Feeling ticklish, feeling tingling</t>
+        </is>
+      </c>
+      <c r="I556" s="2" t="inlineStr">
+        <is>
+          <t>If a subjective feeling is valenced (i.e., an affective process), the more granular class “subjective affective feeling” can be used to capture this feeling.</t>
+        </is>
+      </c>
       <c r="J556" s="2" t="inlineStr"/>
       <c r="K556" s="2" t="inlineStr"/>
       <c r="L556" s="2" t="inlineStr"/>
@@ -33821,12 +33819,12 @@
     <row r="557">
       <c r="A557" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050317</t>
+          <t>BCIO:050316</t>
         </is>
       </c>
       <c r="B557" s="2" t="inlineStr">
         <is>
-          <t>subjective want</t>
+          <t>subjective need</t>
         </is>
       </c>
       <c r="C557" s="2" t="inlineStr">
@@ -33836,11 +33834,15 @@
       </c>
       <c r="D557" s="2" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; that is an attraction to an imagined scenario involving anticipated pleasure or satisfaction.</t>
+          <t>A &lt;subjective affective feeling&gt; that is an attraction to an imagined scenario involving anticipated relief from or avoidance of mental or physical discomfort.</t>
         </is>
       </c>
       <c r="E557" s="2" t="inlineStr"/>
-      <c r="F557" s="2" t="inlineStr"/>
+      <c r="F557" s="2" t="inlineStr">
+        <is>
+          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
+        </is>
+      </c>
       <c r="G557" s="2" t="inlineStr"/>
       <c r="H557" s="2" t="inlineStr"/>
       <c r="I557" s="2" t="inlineStr"/>
@@ -33877,93 +33879,89 @@
       <c r="X557" s="2" t="inlineStr"/>
     </row>
     <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr"/>
-      <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr"/>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
-      <c r="M558" t="inlineStr"/>
-      <c r="N558" t="inlineStr"/>
-      <c r="O558" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P558" t="inlineStr"/>
-      <c r="Q558" t="inlineStr"/>
-      <c r="R558" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S558" t="inlineStr"/>
-      <c r="T558" t="inlineStr"/>
-      <c r="U558" t="inlineStr"/>
-      <c r="V558" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W558" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X558" t="inlineStr"/>
+      <c r="A558" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050317</t>
+        </is>
+      </c>
+      <c r="B558" s="2" t="inlineStr">
+        <is>
+          <t>subjective want</t>
+        </is>
+      </c>
+      <c r="C558" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D558" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;subjective affective feeling&gt; that is an attraction to an imagined scenario involving anticipated pleasure or satisfaction.</t>
+        </is>
+      </c>
+      <c r="E558" s="2" t="inlineStr"/>
+      <c r="F558" s="2" t="inlineStr"/>
+      <c r="G558" s="2" t="inlineStr"/>
+      <c r="H558" s="2" t="inlineStr"/>
+      <c r="I558" s="2" t="inlineStr"/>
+      <c r="J558" s="2" t="inlineStr"/>
+      <c r="K558" s="2" t="inlineStr"/>
+      <c r="L558" s="2" t="inlineStr"/>
+      <c r="M558" s="2" t="inlineStr"/>
+      <c r="N558" s="2" t="inlineStr"/>
+      <c r="O558" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P558" s="2" t="inlineStr"/>
+      <c r="Q558" s="2" t="inlineStr"/>
+      <c r="R558" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S558" s="2" t="inlineStr"/>
+      <c r="T558" s="2" t="inlineStr"/>
+      <c r="U558" s="2" t="inlineStr"/>
+      <c r="V558" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W558" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X558" s="2" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ADDICTO:0001140</t>
+          <t xml:space="preserve">MF:0000088 </t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>substance dependence</t>
+          <t>subliminal process</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+          <t>A &lt;mental process&gt; that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr"/>
       <c r="H559" t="inlineStr"/>
-      <c r="I559" t="inlineStr">
-        <is>
-          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
-        </is>
-      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr"/>
@@ -33997,86 +33995,86 @@
       <c r="X559" t="inlineStr"/>
     </row>
     <row r="560">
-      <c r="A560" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050786</t>
-        </is>
-      </c>
-      <c r="B560" s="2" t="inlineStr">
-        <is>
-          <t>supportive social environmental disposition</t>
-        </is>
-      </c>
-      <c r="C560" s="2" t="inlineStr">
-        <is>
-          <t>social environmental disposition</t>
-        </is>
-      </c>
-      <c r="D560" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;social environmental disposition&gt; that is the extend to which the social environemental system benefits the person’s thoughts, emotions or behaviours.</t>
-        </is>
-      </c>
-      <c r="E560" s="2" t="inlineStr"/>
-      <c r="F560" s="2" t="inlineStr"/>
-      <c r="G560" s="2" t="inlineStr"/>
-      <c r="H560" s="2" t="inlineStr"/>
-      <c r="I560" s="2" t="inlineStr">
-        <is>
-          <t>If you are interested in capturing a social environmental system that is supportive rather than to what extend a system is supportive, then please refer to "supportive social environmental system".</t>
-        </is>
-      </c>
-      <c r="J560" s="2" t="inlineStr"/>
-      <c r="K560" s="2" t="inlineStr"/>
-      <c r="L560" s="2" t="inlineStr"/>
-      <c r="M560" s="2" t="inlineStr"/>
-      <c r="N560" s="2" t="inlineStr"/>
-      <c r="O560" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P560" s="2" t="inlineStr"/>
-      <c r="Q560" s="2" t="inlineStr"/>
-      <c r="R560" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S560" s="2" t="inlineStr"/>
-      <c r="T560" s="2" t="inlineStr"/>
-      <c r="U560" s="2" t="inlineStr"/>
-      <c r="V560" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W560" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X560" s="2" t="inlineStr"/>
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001140</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>substance dependence</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>A &lt;bodily disposition&gt; which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" t="inlineStr"/>
+      <c r="G560" t="inlineStr"/>
+      <c r="H560" t="inlineStr"/>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
+      <c r="M560" t="inlineStr"/>
+      <c r="N560" t="inlineStr"/>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P560" t="inlineStr"/>
+      <c r="Q560" t="inlineStr"/>
+      <c r="R560" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S560" t="inlineStr"/>
+      <c r="T560" t="inlineStr"/>
+      <c r="U560" t="inlineStr"/>
+      <c r="V560" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W560" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050787</t>
+          <t>BCIO:050786</t>
         </is>
       </c>
       <c r="B561" s="2" t="inlineStr">
         <is>
-          <t>supportive social environmental system</t>
+          <t>supportive social environmental disposition</t>
         </is>
       </c>
       <c r="C561" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social environmental disposition</t>
         </is>
       </c>
       <c r="D561" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social environmental system&gt; that benefits the person’s thoughts, emotions or behaviours.</t>
+          <t>A &lt;social environmental disposition&gt; that is the extend to which the social environemental system benefits the person’s thoughts, emotions or behaviours.</t>
         </is>
       </c>
       <c r="E561" s="2" t="inlineStr"/>
@@ -34085,7 +34083,7 @@
       <c r="H561" s="2" t="inlineStr"/>
       <c r="I561" s="2" t="inlineStr">
         <is>
-          <t>If you are interested in capturing to what extend a system is supportive rather than the system itself, then please refer to "supportive social environmental disposition".</t>
+          <t>If you are interested in capturing a social environmental system that is supportive rather than to what extend a system is supportive, then please refer to "supportive social environmental system".</t>
         </is>
       </c>
       <c r="J561" s="2" t="inlineStr"/>
@@ -34121,261 +34119,265 @@
       <c r="X561" s="2" t="inlineStr"/>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr">
+      <c r="A562" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050787</t>
+        </is>
+      </c>
+      <c r="B562" s="2" t="inlineStr">
+        <is>
+          <t>supportive social environmental system</t>
+        </is>
+      </c>
+      <c r="C562" s="2" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="D562" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;social environmental system&gt; that benefits the person’s thoughts, emotions or behaviours.</t>
+        </is>
+      </c>
+      <c r="E562" s="2" t="inlineStr"/>
+      <c r="F562" s="2" t="inlineStr"/>
+      <c r="G562" s="2" t="inlineStr"/>
+      <c r="H562" s="2" t="inlineStr"/>
+      <c r="I562" s="2" t="inlineStr">
+        <is>
+          <t>If you are interested in capturing to what extend a system is supportive rather than the system itself, then please refer to "supportive social environmental disposition".</t>
+        </is>
+      </c>
+      <c r="J562" s="2" t="inlineStr"/>
+      <c r="K562" s="2" t="inlineStr"/>
+      <c r="L562" s="2" t="inlineStr"/>
+      <c r="M562" s="2" t="inlineStr"/>
+      <c r="N562" s="2" t="inlineStr"/>
+      <c r="O562" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P562" s="2" t="inlineStr"/>
+      <c r="Q562" s="2" t="inlineStr"/>
+      <c r="R562" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S562" s="2" t="inlineStr"/>
+      <c r="T562" s="2" t="inlineStr"/>
+      <c r="U562" s="2" t="inlineStr"/>
+      <c r="V562" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W562" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X562" s="2" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
         <is>
           <t>MFOEM:000032</t>
         </is>
       </c>
-      <c r="B562" t="inlineStr">
+      <c r="B563" t="inlineStr">
         <is>
           <t>surprise</t>
         </is>
       </c>
-      <c r="C562" t="inlineStr">
+      <c r="C563" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D562" t="inlineStr">
+      <c r="D563" t="inlineStr">
         <is>
           <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
         </is>
       </c>
-      <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr"/>
-      <c r="H562" t="inlineStr"/>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
-      <c r="M562" t="inlineStr"/>
-      <c r="N562" t="inlineStr"/>
-      <c r="O562" t="inlineStr">
+      <c r="E563" t="inlineStr"/>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
+      <c r="H563" t="inlineStr"/>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
+      <c r="M563" t="inlineStr"/>
+      <c r="N563" t="inlineStr"/>
+      <c r="O563" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P562" t="inlineStr"/>
-      <c r="Q562" t="inlineStr"/>
-      <c r="R562" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S562" t="inlineStr"/>
-      <c r="T562" t="inlineStr"/>
-      <c r="U562" t="inlineStr"/>
-      <c r="V562" t="inlineStr"/>
-      <c r="W562" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="2" t="inlineStr">
+      <c r="P563" t="inlineStr"/>
+      <c r="Q563" t="inlineStr"/>
+      <c r="R563" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S563" t="inlineStr"/>
+      <c r="T563" t="inlineStr"/>
+      <c r="U563" t="inlineStr"/>
+      <c r="V563" t="inlineStr"/>
+      <c r="W563" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="inlineStr">
         <is>
           <t>BCIO:050788</t>
         </is>
       </c>
-      <c r="B563" s="2" t="inlineStr">
+      <c r="B564" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">symbol processing skill </t>
         </is>
       </c>
-      <c r="C563" s="2" t="inlineStr">
+      <c r="C564" s="2" t="inlineStr">
         <is>
           <t>mental skill</t>
         </is>
       </c>
-      <c r="D563" s="2" t="inlineStr">
+      <c r="D564" s="2" t="inlineStr">
         <is>
           <t>A &lt;mental skill&gt; to be able to process information in the form of symbols.</t>
         </is>
       </c>
-      <c r="E563" s="2" t="inlineStr"/>
-      <c r="F563" s="2" t="inlineStr"/>
-      <c r="G563" s="2" t="inlineStr"/>
-      <c r="H563" s="2" t="inlineStr"/>
-      <c r="I563" s="2" t="inlineStr"/>
-      <c r="J563" s="2" t="inlineStr"/>
-      <c r="K563" s="2" t="inlineStr"/>
-      <c r="L563" s="2" t="inlineStr"/>
-      <c r="M563" s="2" t="inlineStr"/>
-      <c r="N563" s="2" t="inlineStr"/>
-      <c r="O563" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P563" s="2" t="inlineStr"/>
-      <c r="Q563" s="2" t="inlineStr"/>
-      <c r="R563" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S563" s="2" t="inlineStr"/>
-      <c r="T563" s="2" t="inlineStr"/>
-      <c r="U563" s="2" t="inlineStr"/>
-      <c r="V563" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W563" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X563" s="2" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
+      <c r="E564" s="2" t="inlineStr"/>
+      <c r="F564" s="2" t="inlineStr"/>
+      <c r="G564" s="2" t="inlineStr"/>
+      <c r="H564" s="2" t="inlineStr"/>
+      <c r="I564" s="2" t="inlineStr"/>
+      <c r="J564" s="2" t="inlineStr"/>
+      <c r="K564" s="2" t="inlineStr"/>
+      <c r="L564" s="2" t="inlineStr"/>
+      <c r="M564" s="2" t="inlineStr"/>
+      <c r="N564" s="2" t="inlineStr"/>
+      <c r="O564" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P564" s="2" t="inlineStr"/>
+      <c r="Q564" s="2" t="inlineStr"/>
+      <c r="R564" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S564" s="2" t="inlineStr"/>
+      <c r="T564" s="2" t="inlineStr"/>
+      <c r="U564" s="2" t="inlineStr"/>
+      <c r="V564" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W564" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X564" s="2" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
         <is>
           <t>RO:0002577</t>
         </is>
       </c>
-      <c r="B564" t="inlineStr">
+      <c r="B565" t="inlineStr">
         <is>
           <t>system</t>
         </is>
       </c>
-      <c r="C564" t="inlineStr">
+      <c r="C565" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="D564" t="inlineStr">
+      <c r="D565" t="inlineStr">
         <is>
           <t>A &lt;material entity&gt; consisting of multiple components that are causally integrated.</t>
         </is>
       </c>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr"/>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
-      <c r="M564" t="inlineStr"/>
-      <c r="N564" t="inlineStr"/>
-      <c r="O564" t="inlineStr">
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
+      <c r="G565" t="inlineStr"/>
+      <c r="H565" t="inlineStr"/>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
+      <c r="M565" t="inlineStr"/>
+      <c r="N565" t="inlineStr"/>
+      <c r="O565" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P564" t="inlineStr"/>
-      <c r="Q564" t="inlineStr"/>
-      <c r="R564" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S564" t="inlineStr"/>
-      <c r="T564" t="inlineStr"/>
-      <c r="U564" t="inlineStr"/>
-      <c r="V564" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W564" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006163</t>
-        </is>
-      </c>
-      <c r="B565" s="2" t="inlineStr">
-        <is>
-          <t>targeted mental distancing</t>
-        </is>
-      </c>
-      <c r="C565" s="2" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="D565" s="2" t="inlineStr">
-        <is>
-          <t>&lt;Mental distancing&gt; that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
-        </is>
-      </c>
-      <c r="E565" s="2" t="inlineStr"/>
-      <c r="F565" s="2" t="inlineStr"/>
-      <c r="G565" s="2" t="inlineStr">
-        <is>
-          <t>targeted decentring</t>
-        </is>
-      </c>
-      <c r="H565" s="2" t="inlineStr"/>
-      <c r="I565" s="2" t="inlineStr"/>
-      <c r="J565" s="2" t="inlineStr"/>
-      <c r="K565" s="2" t="inlineStr"/>
-      <c r="L565" s="2" t="inlineStr"/>
-      <c r="M565" s="2" t="inlineStr"/>
-      <c r="N565" s="2" t="inlineStr"/>
-      <c r="O565" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P565" s="2" t="inlineStr"/>
-      <c r="Q565" s="2" t="inlineStr"/>
-      <c r="R565" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S565" s="2" t="inlineStr"/>
-      <c r="T565" s="2" t="inlineStr"/>
-      <c r="U565" s="2" t="inlineStr"/>
-      <c r="V565" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W565" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X565" s="2" t="inlineStr"/>
+      <c r="P565" t="inlineStr"/>
+      <c r="Q565" t="inlineStr"/>
+      <c r="R565" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S565" t="inlineStr"/>
+      <c r="T565" t="inlineStr"/>
+      <c r="U565" t="inlineStr"/>
+      <c r="V565" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W565" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050789</t>
+          <t>BCIO:006163</t>
         </is>
       </c>
       <c r="B566" s="2" t="inlineStr">
         <is>
-          <t>technology availability</t>
+          <t>targeted mental distancing</t>
         </is>
       </c>
       <c r="C566" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="D566" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural opportunity&gt; that involves the extend to which technology is available in the environmental system.</t>
+          <t>&lt;Mental distancing&gt; that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
       <c r="E566" s="2" t="inlineStr"/>
       <c r="F566" s="2" t="inlineStr"/>
-      <c r="G566" s="2" t="inlineStr"/>
+      <c r="G566" s="2" t="inlineStr">
+        <is>
+          <t>targeted decentring</t>
+        </is>
+      </c>
       <c r="H566" s="2" t="inlineStr"/>
       <c r="I566" s="2" t="inlineStr"/>
       <c r="J566" s="2" t="inlineStr"/>
@@ -34413,30 +34415,26 @@
     <row r="567">
       <c r="A567" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006091</t>
+          <t>BCIO:050789</t>
         </is>
       </c>
       <c r="B567" s="2" t="inlineStr">
         <is>
-          <t>temporal behavioural opportunity</t>
+          <t>technology availability</t>
         </is>
       </c>
       <c r="C567" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D567" s="2" t="inlineStr">
         <is>
-          <t>A &lt;physical behavioural opportunity&gt; that involves the person having sufficient time or a suitable period.</t>
+          <t>A &lt;behavioural opportunity&gt; that involves the extend to which technology is available in the environmental system.</t>
         </is>
       </c>
       <c r="E567" s="2" t="inlineStr"/>
-      <c r="F567" s="2" t="inlineStr">
-        <is>
-          <t>Characteristics of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
+      <c r="F567" s="2" t="inlineStr"/>
       <c r="G567" s="2" t="inlineStr"/>
       <c r="H567" s="2" t="inlineStr"/>
       <c r="I567" s="2" t="inlineStr"/>
@@ -34475,26 +34473,30 @@
     <row r="568">
       <c r="A568" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050790</t>
+          <t>BCIO:006091</t>
         </is>
       </c>
       <c r="B568" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation</t>
+          <t>temporal behavioural opportunity</t>
         </is>
       </c>
       <c r="C568" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="D568" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to appraise imagined future occurrences differently according to how far in the future they are judged to occur.</t>
+          <t>A &lt;physical behavioural opportunity&gt; that involves the person having sufficient time or a suitable period.</t>
         </is>
       </c>
       <c r="E568" s="2" t="inlineStr"/>
-      <c r="F568" s="2" t="inlineStr"/>
+      <c r="F568" s="2" t="inlineStr">
+        <is>
+          <t>Characteristics of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
       <c r="G568" s="2" t="inlineStr"/>
       <c r="H568" s="2" t="inlineStr"/>
       <c r="I568" s="2" t="inlineStr"/>
@@ -34533,22 +34535,22 @@
     <row r="569">
       <c r="A569" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050230</t>
+          <t>BCIO:050790</t>
         </is>
       </c>
       <c r="B569" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the future</t>
+          <t>temporal orientation</t>
         </is>
       </c>
       <c r="C569" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D569" s="2" t="inlineStr">
         <is>
-          <t>A &lt;temporal orientation&gt; to focus more on future than present outcomes.</t>
+          <t>A &lt;mental disposition&gt; to appraise imagined future occurrences differently according to how far in the future they are judged to occur.</t>
         </is>
       </c>
       <c r="E569" s="2" t="inlineStr"/>
@@ -34591,12 +34593,12 @@
     <row r="570">
       <c r="A570" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050231</t>
+          <t>BCIO:050230</t>
         </is>
       </c>
       <c r="B570" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the present</t>
+          <t>temporal orientation to the future</t>
         </is>
       </c>
       <c r="C570" s="2" t="inlineStr">
@@ -34606,7 +34608,7 @@
       </c>
       <c r="D570" s="2" t="inlineStr">
         <is>
-          <t>A &lt;temporal orientation&gt; to focus more on present than future outcomes.</t>
+          <t>A &lt;temporal orientation&gt; to focus more on future than present outcomes.</t>
         </is>
       </c>
       <c r="E570" s="2" t="inlineStr"/>
@@ -34647,140 +34649,140 @@
       <c r="X570" s="2" t="inlineStr"/>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
+      <c r="A571" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050231</t>
+        </is>
+      </c>
+      <c r="B571" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation to the present</t>
+        </is>
+      </c>
+      <c r="C571" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation</t>
+        </is>
+      </c>
+      <c r="D571" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;temporal orientation&gt; to focus more on present than future outcomes.</t>
+        </is>
+      </c>
+      <c r="E571" s="2" t="inlineStr"/>
+      <c r="F571" s="2" t="inlineStr"/>
+      <c r="G571" s="2" t="inlineStr"/>
+      <c r="H571" s="2" t="inlineStr"/>
+      <c r="I571" s="2" t="inlineStr"/>
+      <c r="J571" s="2" t="inlineStr"/>
+      <c r="K571" s="2" t="inlineStr"/>
+      <c r="L571" s="2" t="inlineStr"/>
+      <c r="M571" s="2" t="inlineStr"/>
+      <c r="N571" s="2" t="inlineStr"/>
+      <c r="O571" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P571" s="2" t="inlineStr"/>
+      <c r="Q571" s="2" t="inlineStr"/>
+      <c r="R571" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S571" s="2" t="inlineStr"/>
+      <c r="T571" s="2" t="inlineStr"/>
+      <c r="U571" s="2" t="inlineStr"/>
+      <c r="V571" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W571" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X571" s="2" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B571" t="inlineStr">
+      <c r="B572" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C571" t="inlineStr">
+      <c r="C572" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D571" t="inlineStr">
+      <c r="D572" t="inlineStr">
         <is>
           <t>A &lt;cognitive process&gt; that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr"/>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
-      <c r="M571" t="inlineStr"/>
-      <c r="N571" t="inlineStr"/>
-      <c r="O571" t="inlineStr">
+      <c r="E572" t="inlineStr"/>
+      <c r="F572" t="inlineStr"/>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="inlineStr"/>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
+      <c r="M572" t="inlineStr"/>
+      <c r="N572" t="inlineStr"/>
+      <c r="O572" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P571" t="inlineStr"/>
-      <c r="Q571" t="inlineStr"/>
-      <c r="R571" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S571" t="inlineStr"/>
-      <c r="T571" t="inlineStr"/>
-      <c r="U571" t="inlineStr"/>
-      <c r="V571" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W571" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050791</t>
-        </is>
-      </c>
-      <c r="B572" s="2" t="inlineStr">
-        <is>
-          <t>threat appraisal</t>
-        </is>
-      </c>
-      <c r="C572" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="D572" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;data item&gt; that is about belief about threat expressed as the likelihood of a potentially harmful occurrence weighted by the severity of the harm.</t>
-        </is>
-      </c>
-      <c r="E572" s="2" t="inlineStr"/>
-      <c r="F572" s="2" t="inlineStr"/>
-      <c r="G572" s="2" t="inlineStr"/>
-      <c r="H572" s="2" t="inlineStr"/>
-      <c r="I572" s="2" t="inlineStr"/>
-      <c r="J572" s="2" t="inlineStr"/>
-      <c r="K572" s="2" t="inlineStr"/>
-      <c r="L572" s="2" t="inlineStr"/>
-      <c r="M572" s="2" t="inlineStr"/>
-      <c r="N572" s="2" t="inlineStr"/>
-      <c r="O572" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P572" s="2" t="inlineStr"/>
-      <c r="Q572" s="2" t="inlineStr"/>
-      <c r="R572" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S572" s="2" t="inlineStr"/>
-      <c r="T572" s="2" t="inlineStr"/>
-      <c r="U572" s="2" t="inlineStr"/>
-      <c r="V572" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W572" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X572" s="2" t="inlineStr"/>
+      <c r="P572" t="inlineStr"/>
+      <c r="Q572" t="inlineStr"/>
+      <c r="R572" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S572" t="inlineStr"/>
+      <c r="T572" t="inlineStr"/>
+      <c r="U572" t="inlineStr"/>
+      <c r="V572" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W572" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050884</t>
+          <t>BCIO:050791</t>
         </is>
       </c>
       <c r="B573" s="2" t="inlineStr">
         <is>
-          <t>total internal influence on behaviour</t>
+          <t>threat appraisal</t>
         </is>
       </c>
       <c r="C573" s="2" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D573" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; that is the aggregate of internal influences on behaviour.</t>
+          <t>A &lt;data item&gt; that is about belief about threat expressed as the likelihood of a potentially harmful occurrence weighted by the severity of the harm.</t>
         </is>
       </c>
       <c r="E573" s="2" t="inlineStr"/>
@@ -34823,22 +34825,22 @@
     <row r="574">
       <c r="A574" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050792</t>
+          <t>BCIO:050884</t>
         </is>
       </c>
       <c r="B574" s="2" t="inlineStr">
         <is>
-          <t>traditional personal value</t>
+          <t>total internal influence on behaviour</t>
         </is>
       </c>
       <c r="C574" s="2" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D574" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal value&gt; that involves regarding long-standing social customs as fundamentally important in life.</t>
+          <t>A &lt;bodily disposition&gt; that is the aggregate of internal influences on behaviour.</t>
         </is>
       </c>
       <c r="E574" s="2" t="inlineStr"/>
@@ -34881,33 +34883,29 @@
     <row r="575">
       <c r="A575" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050885</t>
+          <t>BCIO:050792</t>
         </is>
       </c>
       <c r="B575" s="2" t="inlineStr">
         <is>
-          <t>underestimated perceived descriptive norm</t>
+          <t>traditional personal value</t>
         </is>
       </c>
       <c r="C575" s="2" t="inlineStr">
         <is>
-          <t>perceived descriptive behavioural norm</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="D575" s="2" t="inlineStr">
         <is>
-          <t>A &lt;perceived descriptive behavioural norm&gt; in which the prevalence of a behaviour is underestimated.</t>
+          <t>A &lt;personal value&gt; that involves regarding long-standing social customs as fundamentally important in life.</t>
         </is>
       </c>
       <c r="E575" s="2" t="inlineStr"/>
       <c r="F575" s="2" t="inlineStr"/>
       <c r="G575" s="2" t="inlineStr"/>
       <c r="H575" s="2" t="inlineStr"/>
-      <c r="I575" s="2" t="inlineStr">
-        <is>
-          <t>This is the belief of an individual.</t>
-        </is>
-      </c>
+      <c r="I575" s="2" t="inlineStr"/>
       <c r="J575" s="2" t="inlineStr"/>
       <c r="K575" s="2" t="inlineStr"/>
       <c r="L575" s="2" t="inlineStr"/>
@@ -34941,140 +34939,144 @@
       <c r="X575" s="2" t="inlineStr"/>
     </row>
     <row r="576">
-      <c r="A576" s="3" t="inlineStr">
+      <c r="A576" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050885</t>
+        </is>
+      </c>
+      <c r="B576" s="2" t="inlineStr">
+        <is>
+          <t>underestimated perceived descriptive norm</t>
+        </is>
+      </c>
+      <c r="C576" s="2" t="inlineStr">
+        <is>
+          <t>perceived descriptive behavioural norm</t>
+        </is>
+      </c>
+      <c r="D576" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;perceived descriptive behavioural norm&gt; in which the prevalence of a behaviour is underestimated.</t>
+        </is>
+      </c>
+      <c r="E576" s="2" t="inlineStr"/>
+      <c r="F576" s="2" t="inlineStr"/>
+      <c r="G576" s="2" t="inlineStr"/>
+      <c r="H576" s="2" t="inlineStr"/>
+      <c r="I576" s="2" t="inlineStr">
+        <is>
+          <t>This is the belief of an individual.</t>
+        </is>
+      </c>
+      <c r="J576" s="2" t="inlineStr"/>
+      <c r="K576" s="2" t="inlineStr"/>
+      <c r="L576" s="2" t="inlineStr"/>
+      <c r="M576" s="2" t="inlineStr"/>
+      <c r="N576" s="2" t="inlineStr"/>
+      <c r="O576" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P576" s="2" t="inlineStr"/>
+      <c r="Q576" s="2" t="inlineStr"/>
+      <c r="R576" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S576" s="2" t="inlineStr"/>
+      <c r="T576" s="2" t="inlineStr"/>
+      <c r="U576" s="2" t="inlineStr"/>
+      <c r="V576" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W576" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X576" s="2" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="3" t="inlineStr">
         <is>
           <t>BCIO:050267</t>
         </is>
       </c>
-      <c r="B576" s="3" t="inlineStr">
+      <c r="B577" s="3" t="inlineStr">
         <is>
           <t>uniform process aggregate</t>
         </is>
       </c>
-      <c r="C576" s="3" t="inlineStr">
+      <c r="C577" s="3" t="inlineStr">
         <is>
           <t>process aggregate</t>
         </is>
       </c>
-      <c r="D576" s="3" t="inlineStr">
+      <c r="D577" s="3" t="inlineStr">
         <is>
           <t>A process aggregate whose member parts are of the same type.</t>
         </is>
       </c>
-      <c r="E576" s="3" t="inlineStr"/>
-      <c r="F576" s="3" t="inlineStr"/>
-      <c r="G576" s="3" t="inlineStr"/>
-      <c r="H576" s="3" t="inlineStr"/>
-      <c r="I576" s="3" t="inlineStr"/>
-      <c r="J576" s="3" t="inlineStr"/>
-      <c r="K576" s="3" t="inlineStr"/>
-      <c r="L576" s="3" t="inlineStr"/>
-      <c r="M576" s="3" t="inlineStr"/>
-      <c r="N576" s="3" t="inlineStr"/>
-      <c r="O576" s="3" t="inlineStr">
+      <c r="E577" s="3" t="inlineStr"/>
+      <c r="F577" s="3" t="inlineStr"/>
+      <c r="G577" s="3" t="inlineStr"/>
+      <c r="H577" s="3" t="inlineStr"/>
+      <c r="I577" s="3" t="inlineStr"/>
+      <c r="J577" s="3" t="inlineStr"/>
+      <c r="K577" s="3" t="inlineStr"/>
+      <c r="L577" s="3" t="inlineStr"/>
+      <c r="M577" s="3" t="inlineStr"/>
+      <c r="N577" s="3" t="inlineStr"/>
+      <c r="O577" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P576" s="3" t="inlineStr"/>
-      <c r="Q576" s="3" t="inlineStr"/>
-      <c r="R576" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S576" s="3" t="inlineStr"/>
-      <c r="T576" s="3" t="inlineStr"/>
-      <c r="U576" s="3" t="inlineStr"/>
-      <c r="V576" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W576" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X576" s="3" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050793</t>
-        </is>
-      </c>
-      <c r="B577" s="2" t="inlineStr">
-        <is>
-          <t>utility maximisation disposition</t>
-        </is>
-      </c>
-      <c r="C577" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D577" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;mental disposition&gt; to behave in a way that seeks to maximise the net positive consequences of behaviour.</t>
-        </is>
-      </c>
-      <c r="E577" s="2" t="inlineStr"/>
-      <c r="F577" s="2" t="inlineStr"/>
-      <c r="G577" s="2" t="inlineStr"/>
-      <c r="H577" s="2" t="inlineStr"/>
-      <c r="I577" s="2" t="inlineStr"/>
-      <c r="J577" s="2" t="inlineStr"/>
-      <c r="K577" s="2" t="inlineStr"/>
-      <c r="L577" s="2" t="inlineStr"/>
-      <c r="M577" s="2" t="inlineStr"/>
-      <c r="N577" s="2" t="inlineStr"/>
-      <c r="O577" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P577" s="2" t="inlineStr"/>
-      <c r="Q577" s="2" t="inlineStr"/>
-      <c r="R577" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S577" s="2" t="inlineStr"/>
-      <c r="T577" s="2" t="inlineStr"/>
-      <c r="U577" s="2" t="inlineStr"/>
-      <c r="V577" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W577" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X577" s="2" t="inlineStr"/>
+      <c r="P577" s="3" t="inlineStr"/>
+      <c r="Q577" s="3" t="inlineStr"/>
+      <c r="R577" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S577" s="3" t="inlineStr"/>
+      <c r="T577" s="3" t="inlineStr"/>
+      <c r="U577" s="3" t="inlineStr"/>
+      <c r="V577" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W577" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X577" s="3" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006107</t>
+          <t>BCIO:050793</t>
         </is>
       </c>
       <c r="B578" s="2" t="inlineStr">
         <is>
-          <t>value-congruent self-regulation</t>
+          <t>utility maximisation disposition</t>
         </is>
       </c>
       <c r="C578" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D578" s="2" t="inlineStr">
         <is>
-          <t>&lt;Self-regulation of behaviour&gt; undertaken to achieve consistency between one's values and the behaviour performed.</t>
+          <t>A &lt;mental disposition&gt; to behave in a way that seeks to maximise the net positive consequences of behaviour.</t>
         </is>
       </c>
       <c r="E578" s="2" t="inlineStr"/>
@@ -35117,22 +35119,22 @@
     <row r="579">
       <c r="A579" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050794</t>
+          <t>BCIO:006107</t>
         </is>
       </c>
       <c r="B579" s="2" t="inlineStr">
         <is>
-          <t>vicarious learning</t>
+          <t>value-congruent self-regulation</t>
         </is>
       </c>
       <c r="C579" s="2" t="inlineStr">
         <is>
-          <t>observational learning</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D579" s="2" t="inlineStr">
         <is>
-          <t>&lt;Observational learning&gt; through the feelings or actions of another person.</t>
+          <t>&lt;Self-regulation of behaviour&gt; undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
       <c r="E579" s="2" t="inlineStr"/>
@@ -35175,22 +35177,22 @@
     <row r="580">
       <c r="A580" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050795</t>
+          <t>BCIO:050794</t>
         </is>
       </c>
       <c r="B580" s="2" t="inlineStr">
         <is>
-          <t>vicarious learning capability</t>
+          <t>vicarious learning</t>
         </is>
       </c>
       <c r="C580" s="2" t="inlineStr">
         <is>
-          <t>observational learning capability</t>
+          <t>observational learning</t>
         </is>
       </c>
       <c r="D580" s="2" t="inlineStr">
         <is>
-          <t>An &lt;observational learning capability&gt; through the feelings or actions of another person.</t>
+          <t>&lt;Observational learning&gt; through the feelings or actions of another person.</t>
         </is>
       </c>
       <c r="E580" s="2" t="inlineStr"/>
@@ -35231,271 +35233,267 @@
       <c r="X580" s="2" t="inlineStr"/>
     </row>
     <row r="581">
-      <c r="A581" t="inlineStr">
+      <c r="A581" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050795</t>
+        </is>
+      </c>
+      <c r="B581" s="2" t="inlineStr">
+        <is>
+          <t>vicarious learning capability</t>
+        </is>
+      </c>
+      <c r="C581" s="2" t="inlineStr">
+        <is>
+          <t>observational learning capability</t>
+        </is>
+      </c>
+      <c r="D581" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;observational learning capability&gt; through the feelings or actions of another person.</t>
+        </is>
+      </c>
+      <c r="E581" s="2" t="inlineStr"/>
+      <c r="F581" s="2" t="inlineStr"/>
+      <c r="G581" s="2" t="inlineStr"/>
+      <c r="H581" s="2" t="inlineStr"/>
+      <c r="I581" s="2" t="inlineStr"/>
+      <c r="J581" s="2" t="inlineStr"/>
+      <c r="K581" s="2" t="inlineStr"/>
+      <c r="L581" s="2" t="inlineStr"/>
+      <c r="M581" s="2" t="inlineStr"/>
+      <c r="N581" s="2" t="inlineStr"/>
+      <c r="O581" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P581" s="2" t="inlineStr"/>
+      <c r="Q581" s="2" t="inlineStr"/>
+      <c r="R581" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S581" s="2" t="inlineStr"/>
+      <c r="T581" s="2" t="inlineStr"/>
+      <c r="U581" s="2" t="inlineStr"/>
+      <c r="V581" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W581" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X581" s="2" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
         <is>
           <t>MF:0000045</t>
         </is>
       </c>
-      <c r="B581" t="inlineStr">
+      <c r="B582" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="C581" t="inlineStr">
+      <c r="C582" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D581" t="inlineStr">
+      <c r="D582" t="inlineStr">
         <is>
           <t>A &lt;mental process&gt; that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr"/>
-      <c r="H581" t="inlineStr"/>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
-      <c r="M581" t="inlineStr"/>
-      <c r="N581" t="inlineStr"/>
-      <c r="O581" t="inlineStr">
+      <c r="E582" t="inlineStr"/>
+      <c r="F582" t="inlineStr"/>
+      <c r="G582" t="inlineStr"/>
+      <c r="H582" t="inlineStr"/>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
+      <c r="M582" t="inlineStr"/>
+      <c r="N582" t="inlineStr"/>
+      <c r="O582" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P581" t="inlineStr"/>
-      <c r="Q581" t="inlineStr"/>
-      <c r="R581" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S581" t="inlineStr"/>
-      <c r="T581" t="inlineStr"/>
-      <c r="U581" t="inlineStr"/>
-      <c r="V581" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W581" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="2" t="inlineStr">
+      <c r="P582" t="inlineStr"/>
+      <c r="Q582" t="inlineStr"/>
+      <c r="R582" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S582" t="inlineStr"/>
+      <c r="T582" t="inlineStr"/>
+      <c r="U582" t="inlineStr"/>
+      <c r="V582" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W582" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="inlineStr">
         <is>
           <t>BCIO:050796</t>
         </is>
       </c>
-      <c r="B582" s="2" t="inlineStr">
+      <c r="B583" s="2" t="inlineStr">
         <is>
           <t>well-specified goal</t>
         </is>
       </c>
-      <c r="C582" s="2" t="inlineStr">
+      <c r="C583" s="2" t="inlineStr">
         <is>
           <t>goal</t>
         </is>
       </c>
-      <c r="D582" s="2" t="inlineStr">
+      <c r="D583" s="2" t="inlineStr">
         <is>
           <t>A &lt;goal&gt; that is specified in sufficient detail for it to be clear when the goal has been achieved.</t>
         </is>
       </c>
-      <c r="E582" s="2" t="inlineStr"/>
-      <c r="F582" s="2" t="inlineStr"/>
-      <c r="G582" s="2" t="inlineStr"/>
-      <c r="H582" s="2" t="inlineStr"/>
-      <c r="I582" s="2" t="inlineStr"/>
-      <c r="J582" s="2" t="inlineStr"/>
-      <c r="K582" s="2" t="inlineStr"/>
-      <c r="L582" s="2" t="inlineStr"/>
-      <c r="M582" s="2" t="inlineStr"/>
-      <c r="N582" s="2" t="inlineStr"/>
-      <c r="O582" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P582" s="2" t="inlineStr"/>
-      <c r="Q582" s="2" t="inlineStr"/>
-      <c r="R582" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S582" s="2" t="inlineStr"/>
-      <c r="T582" s="2" t="inlineStr"/>
-      <c r="U582" s="2" t="inlineStr"/>
-      <c r="V582" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W582" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X582" s="2" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="3" t="inlineStr">
+      <c r="E583" s="2" t="inlineStr"/>
+      <c r="F583" s="2" t="inlineStr"/>
+      <c r="G583" s="2" t="inlineStr"/>
+      <c r="H583" s="2" t="inlineStr"/>
+      <c r="I583" s="2" t="inlineStr"/>
+      <c r="J583" s="2" t="inlineStr"/>
+      <c r="K583" s="2" t="inlineStr"/>
+      <c r="L583" s="2" t="inlineStr"/>
+      <c r="M583" s="2" t="inlineStr"/>
+      <c r="N583" s="2" t="inlineStr"/>
+      <c r="O583" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P583" s="2" t="inlineStr"/>
+      <c r="Q583" s="2" t="inlineStr"/>
+      <c r="R583" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S583" s="2" t="inlineStr"/>
+      <c r="T583" s="2" t="inlineStr"/>
+      <c r="U583" s="2" t="inlineStr"/>
+      <c r="V583" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W583" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X583" s="2" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="3" t="inlineStr">
         <is>
           <t>BCIO:050797</t>
         </is>
       </c>
-      <c r="B583" s="3" t="inlineStr">
+      <c r="B584" s="3" t="inlineStr">
         <is>
           <t>wider community behavioural consequence</t>
         </is>
       </c>
-      <c r="C583" s="3" t="inlineStr">
+      <c r="C584" s="3" t="inlineStr">
         <is>
           <t>social behavioural consequence</t>
         </is>
       </c>
-      <c r="D583" s="3" t="inlineStr">
+      <c r="D584" s="3" t="inlineStr">
         <is>
           <t>A &lt;social behavioural consequence&gt; that is beyond the person’s family.</t>
         </is>
       </c>
-      <c r="E583" s="3" t="inlineStr"/>
-      <c r="F583" s="3" t="inlineStr"/>
-      <c r="G583" s="3" t="inlineStr"/>
-      <c r="H583" s="3" t="inlineStr"/>
-      <c r="I583" s="3" t="inlineStr"/>
-      <c r="J583" s="3" t="inlineStr"/>
-      <c r="K583" s="3" t="inlineStr"/>
-      <c r="L583" s="3" t="inlineStr"/>
-      <c r="M583" s="3" t="inlineStr"/>
-      <c r="N583" s="3" t="inlineStr"/>
-      <c r="O583" s="3" t="inlineStr">
+      <c r="E584" s="3" t="inlineStr"/>
+      <c r="F584" s="3" t="inlineStr"/>
+      <c r="G584" s="3" t="inlineStr"/>
+      <c r="H584" s="3" t="inlineStr"/>
+      <c r="I584" s="3" t="inlineStr"/>
+      <c r="J584" s="3" t="inlineStr"/>
+      <c r="K584" s="3" t="inlineStr"/>
+      <c r="L584" s="3" t="inlineStr"/>
+      <c r="M584" s="3" t="inlineStr"/>
+      <c r="N584" s="3" t="inlineStr"/>
+      <c r="O584" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P583" s="3" t="inlineStr"/>
-      <c r="Q583" s="3" t="inlineStr"/>
-      <c r="R583" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S583" s="3" t="inlineStr"/>
-      <c r="T583" s="3" t="inlineStr"/>
-      <c r="U583" s="3" t="inlineStr"/>
-      <c r="V583" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W583" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X583" s="3" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050798</t>
-        </is>
-      </c>
-      <c r="B584" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">willingness to adopt new behaviours </t>
-        </is>
-      </c>
-      <c r="C584" s="2" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D584" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;bodily disposition&gt; to adopt new behaviours.</t>
-        </is>
-      </c>
-      <c r="E584" s="2" t="inlineStr"/>
-      <c r="F584" s="2" t="inlineStr"/>
-      <c r="G584" s="2" t="inlineStr"/>
-      <c r="H584" s="2" t="inlineStr"/>
-      <c r="I584" s="2" t="inlineStr">
-        <is>
-          <t>This is a dimension that can be subdivided into very high, high, medium, low and very low.</t>
-        </is>
-      </c>
-      <c r="J584" s="2" t="inlineStr"/>
-      <c r="K584" s="2" t="inlineStr"/>
-      <c r="L584" s="2" t="inlineStr"/>
-      <c r="M584" s="2" t="inlineStr"/>
-      <c r="N584" s="2" t="inlineStr"/>
-      <c r="O584" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P584" s="2" t="inlineStr"/>
-      <c r="Q584" s="2" t="inlineStr"/>
-      <c r="R584" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S584" s="2" t="inlineStr"/>
-      <c r="T584" s="2" t="inlineStr"/>
-      <c r="U584" s="2" t="inlineStr"/>
-      <c r="V584" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W584" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X584" s="2" t="inlineStr"/>
+      <c r="P584" s="3" t="inlineStr"/>
+      <c r="Q584" s="3" t="inlineStr"/>
+      <c r="R584" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S584" s="3" t="inlineStr"/>
+      <c r="T584" s="3" t="inlineStr"/>
+      <c r="U584" s="3" t="inlineStr"/>
+      <c r="V584" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W584" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X584" s="3" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006059</t>
+          <t>BCIO:050798</t>
         </is>
       </c>
       <c r="B585" s="2" t="inlineStr">
         <is>
-          <t>willingness to comply</t>
+          <t xml:space="preserve">willingness to adopt new behaviours </t>
         </is>
       </c>
       <c r="C585" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D585" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to act in accordance with the likely approval of others.</t>
+          <t>A &lt;bodily disposition&gt; to adopt new behaviours.</t>
         </is>
       </c>
       <c r="E585" s="2" t="inlineStr"/>
       <c r="F585" s="2" t="inlineStr"/>
-      <c r="G585" s="2" t="inlineStr">
-        <is>
-          <t>motivation to comply</t>
-        </is>
-      </c>
+      <c r="G585" s="2" t="inlineStr"/>
       <c r="H585" s="2" t="inlineStr"/>
-      <c r="I585" s="2" t="inlineStr"/>
+      <c r="I585" s="2" t="inlineStr">
+        <is>
+          <t>This is a dimension that can be subdivided into very high, high, medium, low and very low.</t>
+        </is>
+      </c>
       <c r="J585" s="2" t="inlineStr"/>
       <c r="K585" s="2" t="inlineStr"/>
       <c r="L585" s="2" t="inlineStr"/>
@@ -35528,6 +35526,68 @@
       </c>
       <c r="X585" s="2" t="inlineStr"/>
     </row>
+    <row r="586">
+      <c r="A586" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006059</t>
+        </is>
+      </c>
+      <c r="B586" s="2" t="inlineStr">
+        <is>
+          <t>willingness to comply</t>
+        </is>
+      </c>
+      <c r="C586" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D586" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;mental disposition&gt; to act in accordance with the likely approval of others.</t>
+        </is>
+      </c>
+      <c r="E586" s="2" t="inlineStr"/>
+      <c r="F586" s="2" t="inlineStr"/>
+      <c r="G586" s="2" t="inlineStr">
+        <is>
+          <t>motivation to comply</t>
+        </is>
+      </c>
+      <c r="H586" s="2" t="inlineStr"/>
+      <c r="I586" s="2" t="inlineStr"/>
+      <c r="J586" s="2" t="inlineStr"/>
+      <c r="K586" s="2" t="inlineStr"/>
+      <c r="L586" s="2" t="inlineStr"/>
+      <c r="M586" s="2" t="inlineStr"/>
+      <c r="N586" s="2" t="inlineStr"/>
+      <c r="O586" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P586" s="2" t="inlineStr"/>
+      <c r="Q586" s="2" t="inlineStr"/>
+      <c r="R586" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S586" s="2" t="inlineStr"/>
+      <c r="T586" s="2" t="inlineStr"/>
+      <c r="U586" s="2" t="inlineStr"/>
+      <c r="V586" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W586" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X586" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -29771,58 +29765,60 @@
       <c r="X488" t="inlineStr"/>
     </row>
     <row r="489">
-      <c r="A489" s="4" t="inlineStr">
+      <c r="A489" s="2" t="inlineStr">
         <is>
           <t>BCIO:050913</t>
         </is>
       </c>
-      <c r="B489" s="4" t="inlineStr">
+      <c r="B489" s="2" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="C489" s="4" t="inlineStr">
+      <c r="C489" s="2" t="inlineStr">
         <is>
           <t>social environmental disposition</t>
         </is>
       </c>
-      <c r="D489" s="4" t="inlineStr">
+      <c r="D489" s="2" t="inlineStr">
         <is>
           <t>A &lt;social environmental disposition&gt; that is realised as being safe from harm.</t>
         </is>
       </c>
-      <c r="E489" s="4" t="inlineStr"/>
-      <c r="F489" s="4" t="inlineStr"/>
-      <c r="G489" s="4" t="inlineStr"/>
-      <c r="H489" s="4" t="inlineStr"/>
-      <c r="I489" s="4" t="inlineStr"/>
-      <c r="J489" s="4" t="inlineStr"/>
-      <c r="K489" s="4" t="inlineStr"/>
-      <c r="L489" s="4" t="inlineStr"/>
-      <c r="M489" s="4" t="inlineStr"/>
-      <c r="N489" s="4" t="inlineStr"/>
-      <c r="O489" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P489" s="4" t="inlineStr"/>
-      <c r="Q489" s="4" t="inlineStr"/>
-      <c r="R489" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S489" s="4" t="inlineStr"/>
-      <c r="T489" s="4" t="inlineStr"/>
-      <c r="U489" s="4" t="inlineStr"/>
-      <c r="V489" s="4" t="inlineStr">
+      <c r="E489" s="2" t="inlineStr"/>
+      <c r="F489" s="2" t="inlineStr"/>
+      <c r="G489" s="2" t="inlineStr"/>
+      <c r="H489" s="2" t="inlineStr"/>
+      <c r="I489" s="2" t="inlineStr"/>
+      <c r="J489" s="2" t="inlineStr"/>
+      <c r="K489" s="2" t="inlineStr"/>
+      <c r="L489" s="2" t="inlineStr"/>
+      <c r="M489" s="2" t="inlineStr"/>
+      <c r="N489" s="2" t="inlineStr"/>
+      <c r="O489" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P489" s="2" t="inlineStr"/>
+      <c r="Q489" s="2" t="inlineStr"/>
+      <c r="R489" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S489" s="2" t="inlineStr"/>
+      <c r="T489" s="2" t="inlineStr"/>
+      <c r="U489" s="2" t="inlineStr"/>
+      <c r="V489" s="2" t="inlineStr">
         <is>
           <t>LZ</t>
         </is>
       </c>
-      <c r="W489" s="4" t="inlineStr"/>
-      <c r="X489" s="4" t="inlineStr"/>
+      <c r="W489" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X489" s="2" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -8982,7 +8982,11 @@
           <t>An attribute of a body that influences the way that it functions.</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>personal disposition</t>
+        </is>
+      </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
@@ -9012,7 +9016,7 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; LZ</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
@@ -29815,8 +29819,10 @@
           <t>LZ</t>
         </is>
       </c>
-      <c r="W489" s="2" t="n">
-        <v>0</v>
+      <c r="W489" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X489" s="2" t="inlineStr"/>
     </row>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -25331,62 +25337,62 @@
       <c r="X414" s="2" t="inlineStr"/>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
+      <c r="A415" s="4" t="inlineStr">
         <is>
           <t>BCIO:050800</t>
         </is>
       </c>
-      <c r="B415" t="inlineStr">
+      <c r="B415" s="4" t="inlineStr">
         <is>
           <t>observational learning</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr">
+      <c r="C415" s="4" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="D415" t="inlineStr">
+      <c r="D415" s="4" t="inlineStr">
         <is>
           <t>&lt;Learning&gt; that occurs through observing the behaviour of others.</t>
         </is>
       </c>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr"/>
-      <c r="H415" t="inlineStr"/>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
-      <c r="M415" t="inlineStr"/>
-      <c r="N415" t="inlineStr"/>
-      <c r="O415" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P415" t="inlineStr"/>
-      <c r="Q415" t="inlineStr"/>
-      <c r="R415" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S415" t="inlineStr"/>
-      <c r="T415" t="inlineStr"/>
-      <c r="U415" t="inlineStr"/>
-      <c r="V415" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W415" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X415" t="inlineStr"/>
+      <c r="E415" s="4" t="inlineStr"/>
+      <c r="F415" s="4" t="inlineStr"/>
+      <c r="G415" s="4" t="inlineStr"/>
+      <c r="H415" s="4" t="inlineStr"/>
+      <c r="I415" s="4" t="inlineStr"/>
+      <c r="J415" s="4" t="inlineStr"/>
+      <c r="K415" s="4" t="inlineStr"/>
+      <c r="L415" s="4" t="inlineStr"/>
+      <c r="M415" s="4" t="inlineStr"/>
+      <c r="N415" s="4" t="inlineStr"/>
+      <c r="O415" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="P415" s="4" t="inlineStr"/>
+      <c r="Q415" s="4" t="inlineStr"/>
+      <c r="R415" s="4" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S415" s="4" t="inlineStr"/>
+      <c r="T415" s="4" t="inlineStr"/>
+      <c r="U415" s="4" t="inlineStr"/>
+      <c r="V415" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W415" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X415" s="4" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -25369,7 +25369,7 @@
       <c r="N415" s="4" t="inlineStr"/>
       <c r="O415" s="4" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="P415" s="4" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -25337,62 +25331,62 @@
       <c r="X414" s="2" t="inlineStr"/>
     </row>
     <row r="415">
-      <c r="A415" s="4" t="inlineStr">
+      <c r="A415" s="2" t="inlineStr">
         <is>
           <t>BCIO:050800</t>
         </is>
       </c>
-      <c r="B415" s="4" t="inlineStr">
+      <c r="B415" s="2" t="inlineStr">
         <is>
           <t>observational learning</t>
         </is>
       </c>
-      <c r="C415" s="4" t="inlineStr">
+      <c r="C415" s="2" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="D415" s="4" t="inlineStr">
+      <c r="D415" s="2" t="inlineStr">
         <is>
           <t>&lt;Learning&gt; that occurs through observing the behaviour of others.</t>
         </is>
       </c>
-      <c r="E415" s="4" t="inlineStr"/>
-      <c r="F415" s="4" t="inlineStr"/>
-      <c r="G415" s="4" t="inlineStr"/>
-      <c r="H415" s="4" t="inlineStr"/>
-      <c r="I415" s="4" t="inlineStr"/>
-      <c r="J415" s="4" t="inlineStr"/>
-      <c r="K415" s="4" t="inlineStr"/>
-      <c r="L415" s="4" t="inlineStr"/>
-      <c r="M415" s="4" t="inlineStr"/>
-      <c r="N415" s="4" t="inlineStr"/>
-      <c r="O415" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="P415" s="4" t="inlineStr"/>
-      <c r="Q415" s="4" t="inlineStr"/>
-      <c r="R415" s="4" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S415" s="4" t="inlineStr"/>
-      <c r="T415" s="4" t="inlineStr"/>
-      <c r="U415" s="4" t="inlineStr"/>
-      <c r="V415" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W415" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X415" s="4" t="inlineStr"/>
+      <c r="E415" s="2" t="inlineStr"/>
+      <c r="F415" s="2" t="inlineStr"/>
+      <c r="G415" s="2" t="inlineStr"/>
+      <c r="H415" s="2" t="inlineStr"/>
+      <c r="I415" s="2" t="inlineStr"/>
+      <c r="J415" s="2" t="inlineStr"/>
+      <c r="K415" s="2" t="inlineStr"/>
+      <c r="L415" s="2" t="inlineStr"/>
+      <c r="M415" s="2" t="inlineStr"/>
+      <c r="N415" s="2" t="inlineStr"/>
+      <c r="O415" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P415" s="2" t="inlineStr"/>
+      <c r="Q415" s="2" t="inlineStr"/>
+      <c r="R415" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S415" s="2" t="inlineStr"/>
+      <c r="T415" s="2" t="inlineStr"/>
+      <c r="U415" s="2" t="inlineStr"/>
+      <c r="V415" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W415" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X415" s="2" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -12896,11 +12896,7 @@
           <t>An &lt;environmental disposition&gt; that is realised as some emotion process.</t>
         </is>
       </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>A feature of a person’s environment that tends to lead to their experiencing an emotion.</t>
-        </is>
-      </c>
+      <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr"/>
       <c r="H208" s="2" t="inlineStr"/>
@@ -28361,11 +28357,7 @@
           <t>A &lt;cognitive representation&gt; in the form of symbols connected together with a syntactic structure.</t>
         </is>
       </c>
-      <c r="E465" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive representation that includes language-like structures</t>
-        </is>
-      </c>
+      <c r="E465" s="2" t="inlineStr"/>
       <c r="F465" s="2" t="inlineStr"/>
       <c r="G465" s="2" t="inlineStr"/>
       <c r="H465" s="2" t="inlineStr"/>
@@ -32493,11 +32485,7 @@
           <t>A &lt;interpersonal process&gt; that has some social group as a participant.</t>
         </is>
       </c>
-      <c r="E535" s="2" t="inlineStr">
-        <is>
-          <t>Any process involving one or more social group.</t>
-        </is>
-      </c>
+      <c r="E535" s="2" t="inlineStr"/>
       <c r="F535" s="2" t="inlineStr"/>
       <c r="G535" s="2" t="inlineStr"/>
       <c r="H535" s="2" t="inlineStr"/>
@@ -32524,7 +32512,7 @@
       <c r="U535" s="2" t="inlineStr"/>
       <c r="V535" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W535" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -19189,7 +19189,7 @@
       </c>
       <c r="E313" s="2" t="inlineStr">
         <is>
-          <t>‘behavioural capability’ OR ‘behavioural motivation’</t>
+          <t>'behavioural capability' OR 'behavioural motivation'</t>
         </is>
       </c>
       <c r="F313" s="2" t="inlineStr"/>
@@ -19218,7 +19218,7 @@
       <c r="U313" s="2" t="inlineStr"/>
       <c r="V313" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W313" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -12896,7 +12896,11 @@
           <t>An &lt;environmental disposition&gt; that is realised as some emotion process.</t>
         </is>
       </c>
-      <c r="E208" s="2" t="inlineStr"/>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>A feature of a person’s environment that tends to lead to their experiencing an emotion.</t>
+        </is>
+      </c>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr"/>
       <c r="H208" s="2" t="inlineStr"/>
@@ -12923,7 +12927,7 @@
       <c r="U208" s="2" t="inlineStr"/>
       <c r="V208" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W208" s="2" t="inlineStr">
@@ -28357,7 +28361,11 @@
           <t>A &lt;cognitive representation&gt; in the form of symbols connected together with a syntactic structure.</t>
         </is>
       </c>
-      <c r="E465" s="2" t="inlineStr"/>
+      <c r="E465" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive representation that includes language-like structures</t>
+        </is>
+      </c>
       <c r="F465" s="2" t="inlineStr"/>
       <c r="G465" s="2" t="inlineStr"/>
       <c r="H465" s="2" t="inlineStr"/>
@@ -28388,7 +28396,7 @@
       <c r="U465" s="2" t="inlineStr"/>
       <c r="V465" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W465" s="2" t="inlineStr">
@@ -32485,7 +32493,11 @@
           <t>A &lt;interpersonal process&gt; that has some social group as a participant.</t>
         </is>
       </c>
-      <c r="E535" s="2" t="inlineStr"/>
+      <c r="E535" s="2" t="inlineStr">
+        <is>
+          <t>Any process involving one or more social group.</t>
+        </is>
+      </c>
       <c r="F535" s="2" t="inlineStr"/>
       <c r="G535" s="2" t="inlineStr"/>
       <c r="H535" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -12927,7 +12927,7 @@
       <c r="U208" s="2" t="inlineStr"/>
       <c r="V208" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W208" s="2" t="inlineStr">
@@ -19193,7 +19193,7 @@
       </c>
       <c r="E313" s="2" t="inlineStr">
         <is>
-          <t>‘behavioural capability’ OR ‘behavioural motivation’</t>
+          <t>'behavioural capability' OR 'behavioural motivation'</t>
         </is>
       </c>
       <c r="F313" s="2" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
       <c r="U313" s="2" t="inlineStr"/>
       <c r="V313" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W313" s="2" t="inlineStr">
@@ -28396,7 +28396,7 @@
       <c r="U465" s="2" t="inlineStr"/>
       <c r="V465" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W465" s="2" t="inlineStr">
@@ -32524,7 +32524,7 @@
       <c r="U535" s="2" t="inlineStr"/>
       <c r="V535" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W535" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -3205,7 +3205,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>automatic motivation</t>
+          <t>automatic behavioural motivation</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>&lt;Behaviour motivation&gt; that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
+          <t>&lt;Behavioural motivation&gt; that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
@@ -3245,7 +3245,7 @@
       <c r="U46" s="2" t="inlineStr"/>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; LZ</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -12896,12 +12896,12 @@
           <t>An &lt;environmental disposition&gt; that is realised as some emotion process.</t>
         </is>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" s="2" t="inlineStr"/>
+      <c r="F208" s="2" t="inlineStr">
         <is>
           <t>A feature of a person’s environment that tends to lead to their experiencing an emotion.</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr"/>
       <c r="H208" s="2" t="inlineStr"/>
       <c r="I208" s="2" t="inlineStr"/>
@@ -28361,12 +28361,12 @@
           <t>A &lt;cognitive representation&gt; in the form of symbols connected together with a syntactic structure.</t>
         </is>
       </c>
-      <c r="E465" s="2" t="inlineStr">
+      <c r="E465" s="2" t="inlineStr"/>
+      <c r="F465" s="2" t="inlineStr">
         <is>
           <t>A cognitive representation that includes language-like structures</t>
         </is>
       </c>
-      <c r="F465" s="2" t="inlineStr"/>
       <c r="G465" s="2" t="inlineStr"/>
       <c r="H465" s="2" t="inlineStr"/>
       <c r="I465" s="2" t="inlineStr">
@@ -32493,12 +32493,12 @@
           <t>A &lt;interpersonal process&gt; that has some social group as a participant.</t>
         </is>
       </c>
-      <c r="E535" s="2" t="inlineStr">
+      <c r="E535" s="2" t="inlineStr"/>
+      <c r="F535" s="2" t="inlineStr">
         <is>
           <t>Any process involving one or more social group.</t>
         </is>
       </c>
-      <c r="F535" s="2" t="inlineStr"/>
       <c r="G535" s="2" t="inlineStr"/>
       <c r="H535" s="2" t="inlineStr"/>
       <c r="I535" s="2" t="inlineStr"/>

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -1651,29 +1651,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MFOEM:000078</t>
+          <t>MFOEM:000005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>appraisal as caused by an other</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>appraisal of causal agency</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by another person.</t>
+          <t>A &lt;cognitive representation&gt; of the emotional relevance of an object or event to the organism.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>An evaluation of a phenomenon or event's relevance and significance to oneself.</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Appraisals are a part of emotion processes, representing how a triggering stimulus is relevant to oneself. Appraisal captures the ‘aboutness’ of an emotion process.
+For instance, a stimulus (the image of a tiger) can produce different emotion processes depending on how the relevance of this stimulus is evaluated. The image of a tiger on TV would not be evaluated as dangerous. However, the image of a tiger two meters away from a person would be relevant to a person in terms of its dangerousness. Therefore, the appraisal of the dangerousness of the tiger would be part of the emotion process 'fear'.
+There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal does not necessarily precede a physiological process part of the emotion process).</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1696,7 +1706,7 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -1707,140 +1717,140 @@
       <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MFOEM:000078</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>appraisal as caused by an other</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>appraisal of causal agency</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by another person.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>BCIO:050223</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>appraisal as caused by external non-human factors</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>appraisal of causal agency</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by natural events and not by humans.</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="inlineStr"/>
-      <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MFOEM:000076</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>appraisal as caused by self</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>appraisal of causal agency</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by oneself.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr"/>
+      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr"/>
+      <c r="T22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="inlineStr"/>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MFOEM:000091</t>
+          <t>MFOEM:000076</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>appraisal of avoidability of consequences</t>
+          <t>appraisal as caused by self</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal of causal agency</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal&gt; which represents a judgement about how avoidable the expected consequences of an event will be.</t>
+          <t>An &lt;appraisal of causal agency&gt; that represents an evaluation that an event was caused by oneself.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1883,12 +1893,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MFOEM:000075</t>
+          <t>MFOEM:000091</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>appraisal of causal agency</t>
+          <t>appraisal of avoidability of consequences</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1898,7 +1908,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of who or what caused an event.</t>
+          <t>An &lt;emotional-relevance appraisal&gt; which represents a judgement about how avoidable the expected consequences of an event will be.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1941,33 +1951,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MFOEM:000103</t>
+          <t>MFOEM:000075</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>appraisal of dangerousness</t>
+          <t>appraisal of causal agency</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal&gt; which represents an evaluation of how threatening an object or situation is.</t>
+          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of who or what caused an event.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Dangerousness or level of threat may refer to physical, emotional or social dangers or threats.</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -2001,140 +2007,144 @@
       <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MFOEM:000103</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>appraisal of dangerousness</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>appraisal</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>An &lt;emotional-relevance appraisal&gt; which represents an evaluation of how threatening an object or situation is.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Dangerousness or level of threat may refer to physical, emotional or social dangers or threats.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>BCIO:050799</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>appraisal of desirability</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>emotional-relevance appraisal</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>An &lt;emotional-relevance appraisal&gt; of the extent to which something is good or beneficial.</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr"/>
-      <c r="Q26" s="2" t="inlineStr"/>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr"/>
-      <c r="T26" s="2" t="inlineStr"/>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X26" s="2" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MFOEM:000085</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>appraisal of desirability of consequences</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>appraisal of desirability</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>An &lt;appraisal of desirability&gt; that represents an evaluation of the desirability of the expected consequences of an event.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr"/>
+      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr"/>
+      <c r="T27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MFOEM:000060</t>
+          <t>MFOEM:000085</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>appraisal of expectedness</t>
+          <t>appraisal of desirability of consequences</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>appraisal of desirability</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of whether an event was expected to occur.</t>
+          <t>An &lt;appraisal of desirability&gt; that represents an evaluation of the desirability of the expected consequences of an event.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2177,12 +2187,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MFOEM:000072</t>
+          <t>MFOEM:000060</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>appraisal of goal importance</t>
+          <t>appraisal of expectedness</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2192,7 +2202,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of whether an event or object is important to the person's goals or needs.</t>
+          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of whether an event was expected to occur.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2233,207 +2243,203 @@
       <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MFOEM:000072</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>appraisal of goal importance</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>emotional-relevance appraisal</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of whether an event or object is important to the person's goals or needs.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>BCIO:006078</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>appraisal of obligation to act</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>emotional-relevance appraisal</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of how much one is personally obliged to respond to an event or person in need.</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr"/>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr"/>
-      <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X30" s="2" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr"/>
+      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr"/>
+      <c r="T31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X31" s="2" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>MFOEM:000061</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>appraisal of pleasantness</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>emotional-relevance appraisal</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>An &lt;emotional-relevance appraisal&gt; that represents an evaluation of the pleasantness of an object or event.</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050567</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>appreciation by others</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;environmental disposition&gt; for a person to be valued by others.</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S32" s="2" t="inlineStr"/>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X32" s="2" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006300</t>
+          <t>BCIO:050567</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>approval-based motivation</t>
+          <t>appreciation by others</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>need-based motivation</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;need-based motivation&gt; related to gaining or maintaining social approval or a positive self-evaluation. </t>
+          <t>An &lt;environmental disposition&gt; for a person to be valued by others.</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>introjected motivation; introjected regulation</t>
-        </is>
-      </c>
+      <c r="G33" s="2" t="inlineStr"/>
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
@@ -2469,151 +2475,151 @@
       <c r="X33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006300</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>approval-based motivation</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>need-based motivation</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A &lt;need-based motivation&gt; related to gaining or maintaining social approval or a positive self-evaluation. </t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>introjected motivation; introjected regulation</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr"/>
+      <c r="T34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>MF:0000012</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>arousal</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>A &lt;mental process&gt; that involves heightened responding to an internal or external stimulus.</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050568</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">assertiveness skill </t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>communication skill</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;communication skill&gt; that is realised as the person expressing their views, needs or feelings whilst respecting those of others with whom they are communicating.</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
-      <c r="R35" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S35" s="2" t="inlineStr"/>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X35" s="2" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050569</t>
+          <t>BCIO:050568</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>assigned goal</t>
+          <t xml:space="preserve">assertiveness skill </t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>communication skill</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal&gt; that has been set by another person.</t>
+          <t>A &lt;communication skill&gt; that is realised as the person expressing their views, needs or feelings whilst respecting those of others with whom they are communicating.</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>This class refers to goals that a person may or may not accept for themselves.</t>
-        </is>
-      </c>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr"/>
@@ -2649,22 +2655,22 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006119</t>
+          <t>BCIO:050569</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>assigned goal</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>&lt;Learning&gt; that involves changing the strength of association between two or more mental processes.</t>
+          <t>A &lt;goal&gt; that has been set by another person.</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
@@ -2673,8 +2679,7 @@
       <c r="H37" s="2" t="inlineStr"/>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>While associative learning is often defined as learning an association between a stimulus and response, the stimulus has to be perceived. Therefore, associative learning is between perceiving or processing information about a stimulus (a mental process) and one or more other mental processes.
-The label 'associative learning' is also used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Present a neutral stimulus jointly with a stimulus that already elicits the behavior repeatedly until the neutral stimulus elicits that behavior.' As indicated by the definition, the BCT is the deliberate presentation of a stimulus, whereas the MoA is a learning process that occurs in the brain.</t>
+          <t>This class refers to goals that a person may or may not accept for themselves.</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
@@ -2712,29 +2717,34 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006126</t>
+          <t>BCIO:006119</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>associative memory</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>memory process</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding a set of entities associated with a particular object or event.</t>
+          <t>&lt;Learning&gt; that involves changing the strength of association between two or more mental processes.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>While associative learning is often defined as learning an association between a stimulus and response, the stimulus has to be perceived. Therefore, associative learning is between perceiving or processing information about a stimulus (a mental process) and one or more other mental processes.
+The label 'associative learning' is also used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Present a neutral stimulus jointly with a stimulus that already elicits the behavior repeatedly until the neutral stimulus elicits that behavior.' As indicated by the definition, the BCT is the deliberate presentation of a stimulus, whereas the MoA is a learning process that occurs in the brain.</t>
+        </is>
+      </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr"/>
@@ -2768,134 +2778,134 @@
       <c r="X38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006126</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>associative memory</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>memory process</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding a set of entities associated with a particular object or event.</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="inlineStr"/>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>MF:0000018</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>attending</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t xml:space="preserve">A &lt;mental process&gt; whereby relevant aspects of one's mental experience are focused on specific targets. </t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>attention</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050570</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>attending to a goal</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>&lt;Attending&gt; where the target of attention is a goal.</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr"/>
-      <c r="R40" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S40" s="2" t="inlineStr"/>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X40" s="2" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050571</t>
+          <t>BCIO:050570</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>attending to a social norm</t>
+          <t>attending to a goal</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2905,18 +2915,14 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>&lt;Attending&gt; in which the target of the attention is a social norm.</t>
+          <t>&lt;Attending&gt; where the target of attention is a goal.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>This class may be used to refer to any type of norm.</t>
-        </is>
-      </c>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr"/>
@@ -2952,29 +2958,33 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050572</t>
+          <t>BCIO:050571</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>attentional disposition</t>
+          <t>attending to a social norm</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is realised by focusing one's attention on events, objects, sensory patterns or cognitive representations.</t>
+          <t>&lt;Attending&gt; in which the target of the attention is a social norm.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>This class may be used to refer to any type of norm.</t>
+        </is>
+      </c>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr"/>
@@ -3010,22 +3020,22 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050214</t>
+          <t>BCIO:050572</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>attentional self-regulation capability</t>
+          <t>attentional disposition</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation capability&gt; to modulate one’s attention toward internal or external stimuli.</t>
+          <t>A &lt;mental disposition&gt; that is realised by focusing one's attention on events, objects, sensory patterns or cognitive representations.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
@@ -3068,37 +3078,29 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050328</t>
+          <t>BCIO:050214</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>attentional self-regulation capability</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is an affective attitude or an evaluative belief about something.</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>"affective attitude" OR "evaluative belief"</t>
-        </is>
-      </c>
+          <t>A &lt;self-regulation capability&gt; to modulate one’s attention toward internal or external stimuli.</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr"/>
       <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>The class “attitude” is logically defined as an “effective attitude” or “evaluative belief”, as the term “attitude” can be used to refer to either class.</t>
-        </is>
-      </c>
+      <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr"/>
@@ -3134,42 +3136,42 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050329</t>
+          <t>BCIO:050328</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>attitude towards a behaviour</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attitude&gt; in which the entity that is the attitude object is a behaviour.</t>
+          <t>A &lt;mental disposition&gt; that is an affective attitude or an evaluative belief about something.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>"affective attitude towards a behaviour" OR "evaluative belief about a behaviour"</t>
+          <t>"affective attitude" OR "evaluative belief"</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr"/>
       <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>The class “attitude” is logically defined as an “effective attitude” or “evaluative belief”, as the term “attitude” can be used to refer to either class.</t>
+        </is>
+      </c>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr"/>
       <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr">
-        <is>
-          <t>The class “attitude towards a behaviour” is logically defined as an “affective attitude towards a behaviour” or “evaluative belief about a behaviour”, as the term “attitude towards a behaviour” can be used to refer to either class.</t>
-        </is>
-      </c>
+      <c r="N45" s="2" t="inlineStr"/>
       <c r="O45" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -3200,25 +3202,29 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006134</t>
+          <t>BCIO:050329</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>automatic behavioural motivation</t>
+          <t>attitude towards a behaviour</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>&lt;Behavioural motivation&gt; that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr"/>
+          <t>An &lt;attitude&gt; in which the entity that is the attitude object is a behaviour.</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>"affective attitude towards a behaviour" OR "evaluative belief about a behaviour"</t>
+        </is>
+      </c>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr"/>
@@ -3227,7 +3233,11 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr"/>
       <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>The class “attitude towards a behaviour” is logically defined as an “affective attitude towards a behaviour” or “evaluative belief about a behaviour”, as the term “attitude towards a behaviour” can be used to refer to either class.</t>
+        </is>
+      </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -3245,7 +3255,7 @@
       <c r="U46" s="2" t="inlineStr"/>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>PS; LZ</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
@@ -3258,12 +3268,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006302</t>
+          <t>BCIO:006134</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>automatic behavioural motivation</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -3273,7 +3283,7 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>&lt;Behavioural motivation&gt; that is internally generated and based on a behaviour being interesting or valuable to an individual.</t>
+          <t>&lt;Behavioural motivation&gt; that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
@@ -3303,7 +3313,7 @@
       <c r="U47" s="2" t="inlineStr"/>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; LZ</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
@@ -3316,22 +3326,22 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006161</t>
+          <t>BCIO:006302</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>avoidance mental process</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;mental process&gt; that reduces the frequency by which an aversive cognitive representation is evoked. </t>
+          <t>&lt;Behavioural motivation&gt; that is internally generated and based on a behaviour being interesting or valuable to an individual.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
@@ -3374,33 +3384,29 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006015</t>
+          <t>BCIO:006161</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>avoidance mental process</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is realized by experiencing events, objects, sensory patterns or cognitive representations.</t>
+          <t xml:space="preserve">A &lt;mental process&gt; that reduces the frequency by which an aversive cognitive representation is evoked. </t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>The events attended to can include internal and external events.</t>
-        </is>
-      </c>
+      <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr"/>
@@ -3436,29 +3442,33 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050573</t>
+          <t>BCIO:006015</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>awareness of others’ need</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>An &lt;awareness&gt; of a lack of resource available to another person or people relative to what they need or want.</t>
+          <t>A &lt;mental disposition&gt; that is realized by experiencing events, objects, sensory patterns or cognitive representations.</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr"/>
       <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>The events attended to can include internal and external events.</t>
+        </is>
+      </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr"/>
@@ -3494,22 +3504,22 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050574</t>
+          <t>BCIO:050573</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>background goal</t>
+          <t>awareness of others’ need</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal&gt; that is not currently being pursued.</t>
+          <t>An &lt;awareness&gt; of a lack of resource available to another person or people relative to what they need or want.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
@@ -3552,33 +3562,29 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050576</t>
+          <t>BCIO:050574</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>behaviour maintenance self-efficacy</t>
+          <t>background goal</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief for a behaviour&gt; that continues a behaviour pattern.</t>
+          <t>A &lt;goal&gt; that is not currently being pursued.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
-        </is>
-      </c>
+      <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr"/>
@@ -3614,35 +3620,31 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050577</t>
+          <t>BCIO:050576</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>behavioural barrier</t>
+          <t>behaviour maintenance self-efficacy</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>A &lt;disposition&gt; that includes low capability, opportunity and motivation to enact a behaviour.</t>
+          <t>A &lt;self-efficacy belief for a behaviour&gt; that continues a behaviour pattern.</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>‘low capability to enact a behaviour’ OR ‘low opportunity to enact a behaviour’ OR ‘motivational disposition not to enact a behaviour’</t>
-        </is>
-      </c>
+      <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr"/>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>The entity "behavioural barrier" should only be applied when a behavioural barrier is underspecified or includes a combination of capability, opportunity and/or motivational disposition. If a specific capability, opportunity or motivational disposition acts as a barrier to a behaviour, then the more specific entities should be refered to.</t>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr"/>
@@ -3680,33 +3682,37 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050215</t>
+          <t>BCIO:050577</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behavioural barrier</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal capability&gt; that includes behaviours in its realisation.</t>
+          <t>A &lt;disposition&gt; that includes low capability, opportunity and motivation to enact a behaviour.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A person’s characteristics that are needed for a behaviour or to facilitate it. </t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>‘low capability to enact a behaviour’ OR ‘low opportunity to enact a behaviour’ OR ‘motivational disposition not to enact a behaviour’</t>
+        </is>
+      </c>
       <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>The entity "behavioural barrier" should only be applied when a behavioural barrier is underspecified or includes a combination of capability, opportunity and/or motivational disposition. If a specific capability, opportunity or motivational disposition acts as a barrier to a behaviour, then the more specific entities should be refered to.</t>
+        </is>
+      </c>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr"/>
@@ -3742,26 +3748,30 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050845</t>
+          <t>BCIO:050215</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence appraisal process</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal process&gt; that results in an appraisal of the consequence of some behaviour.</t>
+          <t>A &lt;personal capability&gt; that includes behaviours in its realisation.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A person’s characteristics that are needed for a behaviour or to facilitate it. </t>
+        </is>
+      </c>
       <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr"/>
       <c r="I55" s="2" t="inlineStr"/>
@@ -3800,33 +3810,29 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050578</t>
+          <t>BCIO:050845</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>behavioural cue</t>
+          <t>behavioural consequence appraisal process</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>A &lt;stimulus&gt; that prompts a behaviour or a behaviour pattern.</t>
+          <t>An &lt;emotional-relevance appraisal process&gt; that results in an appraisal of the consequence of some behaviour.</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>Find more specific internal stimulus classes under 'bodily behavioural cue'.</t>
-        </is>
-      </c>
+      <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr"/>
@@ -3862,29 +3868,33 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006048</t>
+          <t>BCIO:050578</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>behavioural decision</t>
+          <t>behavioural cue</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>A &lt;decision&gt; that one behaviour is preferred from at least two behavioural options.</t>
+          <t>A &lt;stimulus&gt; that prompts a behaviour or a behaviour pattern.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>Find more specific internal stimulus classes under 'bodily behavioural cue'.</t>
+        </is>
+      </c>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr"/>
@@ -3920,30 +3930,26 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
+          <t>BCIO:006048</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>behavioural disposition</t>
+          <t>behavioural decision</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>decision</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; that is realised as some behaviour.</t>
+          <t>A &lt;decision&gt; that one behaviour is preferred from at least two behavioural options.</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>A tendency to behave in a particular way.</t>
-        </is>
-      </c>
+      <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr"/>
       <c r="I58" s="2" t="inlineStr"/>
@@ -3982,26 +3988,30 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050579</t>
+          <t>BCIO:050416</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>behavioural dissonance reduction through behaviour</t>
+          <t>behavioural disposition</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through behavior</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction through behaviour&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
+          <t>A &lt;bodily disposition&gt; that is realised as some behaviour.</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
+        </is>
+      </c>
       <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
@@ -4040,22 +4050,22 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050580</t>
+          <t>BCIO:050579</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>behavioural dissonance reduction through mental process</t>
+          <t>behavioural dissonance reduction through behaviour</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through mental process</t>
+          <t>dissonance reduction through behavior</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction through mental process&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
+          <t>&lt;Dissonance reduction through behaviour&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
@@ -4098,31 +4108,27 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050581</t>
+          <t>BCIO:050580</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>behavioural enabler</t>
+          <t>behavioural dissonance reduction through mental process</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>dissonance reduction through mental process</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>A &lt;disposition&gt; to have opportunity, motivation and capability or enact a behaviour.</t>
+          <t>&lt;Dissonance reduction through mental process&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>‘behavioural capability’ OR ‘behavioural opportunity’ OR ‘behavioural motivation disposition’</t>
-        </is>
-      </c>
+      <c r="G61" s="2" t="inlineStr"/>
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
@@ -4160,29 +4166,29 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006304</t>
+          <t>BCIO:050581</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">behavioural importance-based motivation </t>
+          <t>behavioural enabler</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>&lt;Autonomous motivation&gt; due to the perceived value or importance of the behaviour to oneself.</t>
+          <t>A &lt;disposition&gt; to have opportunity, motivation and capability or enact a behaviour.</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>identified motivation; identified regulation</t>
+          <t>‘behavioural capability’ OR ‘behavioural opportunity’ OR ‘behavioural motivation disposition’</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -4222,27 +4228,31 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050582</t>
+          <t>BCIO:006304</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>behavioural inhibition</t>
+          <t xml:space="preserve">behavioural importance-based motivation </t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that counters a behavioural impulse.</t>
+          <t>&lt;Autonomous motivation&gt; due to the perceived value or importance of the behaviour to oneself.</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>identified motivation; identified regulation</t>
+        </is>
+      </c>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
@@ -4280,33 +4290,29 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006016</t>
+          <t>BCIO:050582</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>behavioural intention</t>
+          <t>behavioural inhibition</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to commit to enact or not enact a behaviour.</t>
+          <t>A &lt;mental process&gt; that counters a behavioural impulse.</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans. </t>
-        </is>
-      </c>
+      <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr"/>
@@ -4342,33 +4348,33 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:006016</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>behavioural intention</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that energises and directs a behaviour.</t>
+          <t>A &lt;mental disposition&gt; to commit to enact or not enact a behaviour.</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>Thoughts, feelings, impulses and inhibitory processes that energise and direct a behaviour.</t>
-        </is>
-      </c>
+      <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans. </t>
+        </is>
+      </c>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr"/>
@@ -4404,39 +4410,33 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006086</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>An &lt;environmental disposition&gt; that is required for or facilitates a behaviour.</t>
+          <t>A &lt;mental process&gt; that energises and directs a behaviour.</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>Characteristics of a person's environment that are needed for a behaviour or to facilitate it.</t>
+          <t>Thoughts, feelings, impulses and inhibitory processes that energise and direct a behaviour.</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr">
-        <is>
-          <t>The phrase ‘required for’ is used in the definition to specify that 'behavioural opportunity' is a necessary condition for behaviour to occur. Although other MoAs will help bring behaviour about, there has to be a 'behavioural opportunity' for behaviour to occur.
-The term 'facilitates' is used to specify that 'behavioural opportunity' will make the behaviour easier. Higher behavioural opportunity will increase the likelihood of behaviour across situations and people.
-The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'behavioural opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).</t>
-        </is>
-      </c>
+      <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr"/>
@@ -4472,29 +4472,39 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050583</t>
+          <t>BCIO:006086</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity through information</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural opportunity&gt; that is realised by the provision of accurate information.</t>
+          <t>An &lt;environmental disposition&gt; that is required for or facilitates a behaviour.</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Characteristics of a person's environment that are needed for a behaviour or to facilitate it.</t>
+        </is>
+      </c>
       <c r="G67" s="2" t="inlineStr"/>
       <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>The phrase ‘required for’ is used in the definition to specify that 'behavioural opportunity' is a necessary condition for behaviour to occur. Although other MoAs will help bring behaviour about, there has to be a 'behavioural opportunity' for behaviour to occur.
+The term 'facilitates' is used to specify that 'behavioural opportunity' will make the behaviour easier. Higher behavioural opportunity will increase the likelihood of behaviour across situations and people.
+The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'behavioural opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).</t>
+        </is>
+      </c>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr"/>
@@ -4530,22 +4540,22 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050584</t>
+          <t>BCIO:050583</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>behavioural recovery self-efficacy</t>
+          <t>behavioural opportunity through information</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief for a behaviour&gt; following a lapse in that behaviour</t>
+          <t>A &lt;behavioural opportunity&gt; that is realised by the provision of accurate information.</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
@@ -4588,31 +4598,27 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006006</t>
+          <t>BCIO:050584</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>behavioural self-regulation capability</t>
+          <t>behavioural recovery self-efficacy</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's behaviour. </t>
+          <t>A &lt;self-efficacy belief for a behaviour&gt; following a lapse in that behaviour</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>behavioural regulation capability</t>
-        </is>
-      </c>
+      <c r="G69" s="2" t="inlineStr"/>
       <c r="H69" s="2" t="inlineStr"/>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
@@ -4650,37 +4656,33 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006104</t>
+          <t>BCIO:006006</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>behavioural self-regulation of behaviour</t>
+          <t>behavioural self-regulation capability</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>&lt;Self-regulation of behaviour&gt; through the performance of a different behaviour.</t>
+          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's behaviour. </t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour undertaken to modulate the frequency, rate or extent of a different behaviour, the specific actions or reactions of a person in response to external or internal stimuli, and that is instigated by the person.</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>behavioural regulation capability</t>
+        </is>
+      </c>
       <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural self-regulation of behaviour can be an MoA or outcome depending on how 'behavioural self-regulation of behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets behavioural self-regulation of behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
-        </is>
-      </c>
+      <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr"/>
@@ -4716,29 +4718,37 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050846</t>
+          <t>BCIO:006104</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>behavioural substitution</t>
+          <t>behavioural self-regulation of behaviour</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+          <t>&lt;Self-regulation of behaviour&gt; through the performance of a different behaviour.</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour undertaken to modulate the frequency, rate or extent of a different behaviour, the specific actions or reactions of a person in response to external or internal stimuli, and that is instigated by the person.</t>
+        </is>
+      </c>
       <c r="G71" s="2" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>Behavioural self-regulation of behaviour can be an MoA or outcome depending on how 'behavioural self-regulation of behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets behavioural self-regulation of behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr"/>
@@ -4772,155 +4782,151 @@
       <c r="X71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050846</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>behavioural substitution</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+      <c r="L72" s="2" t="inlineStr"/>
+      <c r="M72" s="2" t="inlineStr"/>
+      <c r="N72" s="2" t="inlineStr"/>
+      <c r="O72" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P72" s="2" t="inlineStr"/>
+      <c r="Q72" s="2" t="inlineStr"/>
+      <c r="R72" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S72" s="2" t="inlineStr"/>
+      <c r="T72" s="2" t="inlineStr"/>
+      <c r="U72" s="2" t="inlineStr"/>
+      <c r="V72" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W72" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>MF:0000041</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>A &lt;mental disposition&gt; to represent a proposition to be true.</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
         <is>
           <t>Conviction about something being true.</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr">
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050585</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>belief about a behaviour meeting a need</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief about the consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;evaluative belief about the consequences of behaviour&gt; reducing a need in some person.</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr"/>
-      <c r="G73" s="2" t="inlineStr"/>
-      <c r="H73" s="2" t="inlineStr"/>
-      <c r="I73" s="2" t="inlineStr"/>
-      <c r="J73" s="2" t="inlineStr"/>
-      <c r="K73" s="2" t="inlineStr"/>
-      <c r="L73" s="2" t="inlineStr"/>
-      <c r="M73" s="2" t="inlineStr"/>
-      <c r="N73" s="2" t="inlineStr"/>
-      <c r="O73" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P73" s="2" t="inlineStr"/>
-      <c r="Q73" s="2" t="inlineStr"/>
-      <c r="R73" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S73" s="2" t="inlineStr"/>
-      <c r="T73" s="2" t="inlineStr"/>
-      <c r="U73" s="2" t="inlineStr"/>
-      <c r="V73" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W73" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X73" s="2" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050586</t>
+          <t>BCIO:050585</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>belief about a behavioural rule</t>
+          <t>belief about a behaviour meeting a need</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>evaluative belief about the consequences of behaviour</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about whether there is a social rule that a behaviour must or must not occur in a given situation.</t>
+          <t>An &lt;evaluative belief about the consequences of behaviour&gt; reducing a need in some person.</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr"/>
       <c r="H74" s="2" t="inlineStr"/>
-      <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>The 'social rules' referred to in the definition include laws.</t>
-        </is>
-      </c>
+      <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr"/>
@@ -4956,22 +4962,22 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006140</t>
+          <t>BCIO:050586</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>belief about anticipated emotion</t>
+          <t>belief about a behavioural rule</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the potential emotions experienced as result of an event.</t>
+          <t>A &lt;belief&gt; about whether there is a social rule that a behaviour must or must not occur in a given situation.</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
@@ -4980,7 +4986,7 @@
       <c r="H75" s="2" t="inlineStr"/>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>'Belief about anticipated emotions' is about the consequences of anything, not just behaviour. In contrast, the class 'belief about emotional consequences of behaviour' is about the emotions resulting from behaviours.</t>
+          <t>The 'social rules' referred to in the definition include laws.</t>
         </is>
       </c>
       <c r="J75" s="2" t="inlineStr"/>
@@ -5018,29 +5024,33 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050216</t>
+          <t>BCIO:006140</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>belief about anticipated regret</t>
+          <t>belief about anticipated emotion</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>belief about anticipated emotion</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about anticipated emotion&gt; in terms of the potential regret experienced as a result of an event.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the potential emotions experienced as result of an event.</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr"/>
       <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>'Belief about anticipated emotions' is about the consequences of anything, not just behaviour. In contrast, the class 'belief about emotional consequences of behaviour' is about the emotions resulting from behaviours.</t>
+        </is>
+      </c>
       <c r="J76" s="2" t="inlineStr"/>
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr"/>
@@ -5076,22 +5086,22 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006017</t>
+          <t>BCIO:050216</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>belief about barriers to a behaviour</t>
+          <t>belief about anticipated regret</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about anticipated emotion</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about a factor that could restrict or impede a person from engaging in a behaviour.</t>
+          <t>A &lt;belief about anticipated emotion&gt; in terms of the potential regret experienced as a result of an event.</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
@@ -5134,12 +5144,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006034</t>
+          <t>BCIO:006017</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>belief about choice over a behaviour</t>
+          <t>belief about barriers to a behaviour</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -5149,22 +5159,14 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which one is free to choose whether to perform the behaviour.</t>
+          <t>A &lt;belief&gt; about a factor that could restrict or impede a person from engaging in a behaviour.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
-      <c r="G78" s="2" t="inlineStr">
-        <is>
-          <t>belief about voluntariness of behaviour; belief about autonomy in performing behaviours</t>
-        </is>
-      </c>
+      <c r="G78" s="2" t="inlineStr"/>
       <c r="H78" s="2" t="inlineStr"/>
-      <c r="I78" s="2" t="inlineStr">
-        <is>
-          <t>'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. In constrast, 'belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur, and 'belief that a behaviour is forbidden' is about whether there are rules about not performing a behaviour.</t>
-        </is>
-      </c>
+      <c r="I78" s="2" t="inlineStr"/>
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr"/>
@@ -5200,12 +5202,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050587</t>
+          <t>BCIO:006034</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>belief about conformity of behaviour to personal values</t>
+          <t>belief about choice over a behaviour</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -5215,14 +5217,22 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about how far a behaviour is congruent with one’s personal values.</t>
+          <t>A &lt;belief&gt; about the extent to which one is free to choose whether to perform the behaviour.</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
-      <c r="G79" s="2" t="inlineStr"/>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>belief about voluntariness of behaviour; belief about autonomy in performing behaviours</t>
+        </is>
+      </c>
       <c r="H79" s="2" t="inlineStr"/>
-      <c r="I79" s="2" t="inlineStr"/>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. In constrast, 'belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur, and 'belief that a behaviour is forbidden' is about whether there are rules about not performing a behaviour.</t>
+        </is>
+      </c>
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr"/>
@@ -5258,12 +5268,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006018</t>
+          <t>BCIO:050587</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>belief about conformity to behavioural norms</t>
+          <t>belief about conformity of behaviour to personal values</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -5273,7 +5283,7 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which one's own behaviour is similar to that of referent others.</t>
+          <t>A &lt;belief&gt; about how far a behaviour is congruent with one’s personal values.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
@@ -5316,12 +5326,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050217</t>
+          <t>BCIO:006018</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief about conformity to behavioural norms</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -5331,18 +5341,14 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the outcomes resulting from an occurrence.</t>
+          <t>A &lt;belief&gt; about the extent to which one's own behaviour is similar to that of referent others.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr"/>
       <c r="H81" s="2" t="inlineStr"/>
-      <c r="I81" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr"/>
@@ -5378,31 +5384,27 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006019</t>
+          <t>BCIO:050217</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms of what results from or follows the performance of a behaviour.</t>
+          <t>A &lt;belief&gt; about the outcomes resulting from an occurrence.</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>response efficacy</t>
-        </is>
-      </c>
+      <c r="G82" s="2" t="inlineStr"/>
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr">
         <is>
@@ -5444,12 +5446,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006021</t>
+          <t>BCIO:006019</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of goal attainment</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -5459,17 +5461,20 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the outcomes resulting from achieving a goal.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of what results from or follows the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>response efficacy</t>
+        </is>
+      </c>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>Consequences can be either positive or negative.
-Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
+          <t>Consequences can be either positive or negative.</t>
         </is>
       </c>
       <c r="J83" s="2" t="inlineStr"/>
@@ -5507,35 +5512,36 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006152</t>
+          <t>BCIO:006021</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>belief about control over behaviour</t>
+          <t>belief about consequences of goal attainment</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;belief&gt; about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the outcomes resulting from achieving a goal.</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr"/>
       <c r="H84" s="2" t="inlineStr"/>
-      <c r="I84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.
+Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
+        </is>
+      </c>
       <c r="J84" s="2" t="inlineStr"/>
-      <c r="K84" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
+      <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr"/>
       <c r="M84" s="2" t="inlineStr"/>
       <c r="N84" s="2" t="inlineStr"/>
@@ -5569,12 +5575,12 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006022</t>
+          <t>BCIO:006152</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>belief about control over one's future</t>
+          <t>belief about control over behaviour</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -5584,7 +5590,7 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which one can direct what happens in one's future.</t>
+          <t xml:space="preserve">A &lt;belief&gt; about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
@@ -5593,7 +5599,11 @@
       <c r="H85" s="2" t="inlineStr"/>
       <c r="I85" s="2" t="inlineStr"/>
       <c r="J85" s="2" t="inlineStr"/>
-      <c r="K85" s="2" t="inlineStr"/>
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
       <c r="L85" s="2" t="inlineStr"/>
       <c r="M85" s="2" t="inlineStr"/>
       <c r="N85" s="2" t="inlineStr"/>
@@ -5627,12 +5637,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050588</t>
+          <t>BCIO:006022</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>belief about control over valued outcomes</t>
+          <t>belief about control over one's future</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -5642,15 +5652,11 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which the person has control over outcomes that are important to them.</t>
+          <t>A &lt;belief&gt; about the extent to which one can direct what happens in one's future.</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>locus of control</t>
-        </is>
-      </c>
+      <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr"/>
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
@@ -5689,26 +5695,30 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050589</t>
+          <t>BCIO:050588</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>belief about effort required for a behaviour</t>
+          <t>belief about control over valued outcomes</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>belief about barriers to a behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about barriers to a behaviour&gt; in terms of level of effort required.</t>
+          <t>A &lt;belief&gt; about the extent to which the person has control over outcomes that are important to them.</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr"/>
-      <c r="F87" s="2" t="inlineStr"/>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>locus of control</t>
+        </is>
+      </c>
       <c r="G87" s="2" t="inlineStr"/>
       <c r="H87" s="2" t="inlineStr"/>
       <c r="I87" s="2" t="inlineStr"/>
@@ -5747,22 +5757,22 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050218</t>
+          <t>BCIO:050589</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>belief about emotional consequences of behaviour</t>
+          <t>belief about effort required for a behaviour</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about barriers to a behaviour</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of resulting emotions.</t>
+          <t>A &lt;belief about barriers to a behaviour&gt; in terms of level of effort required.</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr"/>
@@ -5805,22 +5815,22 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050590</t>
+          <t>BCIO:050218</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>belief about emotional consequences of goal attainment</t>
+          <t>belief about emotional consequences of behaviour</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of goal attainment</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of goal attainment&gt; that focuses on the emotional response following that attainment.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of resulting emotions.</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
@@ -5863,22 +5873,22 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050591</t>
+          <t>BCIO:050590</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>belief about enablers of a behaviour</t>
+          <t>belief about emotional consequences of goal attainment</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of goal attainment</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about factors that could facilitate or enable a behaviour.</t>
+          <t>A &lt;belief about consequences of goal attainment&gt; that focuses on the emotional response following that attainment.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
@@ -5921,12 +5931,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006023</t>
+          <t>BCIO:050591</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>belief about gain</t>
+          <t>belief about enablers of a behaviour</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -5936,23 +5946,14 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the existence of an increase from an initial reference point.</t>
+          <t>A &lt;belief&gt; about factors that could facilitate or enable a behaviour.</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
       <c r="F91" s="2" t="inlineStr"/>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>Perceived gain</t>
-        </is>
-      </c>
+      <c r="G91" s="2" t="inlineStr"/>
       <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The perceived gain could be in anything internal or external, such as health or wealth.
-The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future, However, 'belief about gain' might be about an existing gain.  For instance, in situation where the following trade is offered: "I've given you $2, are you willing to trade it for a 50% chance of winning $6?" it'd be "I have $2 more than I started with", there is an existing gain that is compared to a future one. </t>
-        </is>
-      </c>
+      <c r="I91" s="2" t="inlineStr"/>
       <c r="J91" s="2" t="inlineStr"/>
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr"/>
@@ -5988,12 +5989,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050592</t>
+          <t>BCIO:006023</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>belief about goal attainment</t>
+          <t>belief about gain</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -6003,14 +6004,23 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;belief&gt; about the extend to which goals are achievable. </t>
+          <t>A &lt;belief&gt; about the existence of an increase from an initial reference point.</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
-      <c r="G92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>Perceived gain</t>
+        </is>
+      </c>
       <c r="H92" s="2" t="inlineStr"/>
-      <c r="I92" s="2" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The perceived gain could be in anything internal or external, such as health or wealth.
+The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future, However, 'belief about gain' might be about an existing gain.  For instance, in situation where the following trade is offered: "I've given you $2, are you willing to trade it for a 50% chance of winning $6?" it'd be "I have $2 more than I started with", there is an existing gain that is compared to a future one. </t>
+        </is>
+      </c>
       <c r="J92" s="2" t="inlineStr"/>
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr"/>
@@ -6046,22 +6056,22 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050219</t>
+          <t>BCIO:050592</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>belief about health consequences of behaviour</t>
+          <t>belief about goal attainment</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of health and wellbeing.</t>
+          <t xml:space="preserve">A &lt;belief&gt; about the extend to which goals are achievable. </t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
@@ -6104,34 +6114,29 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050593</t>
+          <t>BCIO:050219</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>belief about health status</t>
+          <t>belief about health consequences of behaviour</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one’s health status.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of health and wellbeing.</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr"/>
       <c r="H94" s="2" t="inlineStr"/>
-      <c r="I94" s="2" t="inlineStr">
-        <is>
-          <t>This class covers belief about current health status. A person may have more than one such belief.
-"health status" is defined as "A personal attribute that is the state of an individual’s mental or physical condition."</t>
-        </is>
-      </c>
+      <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr"/>
@@ -6167,29 +6172,34 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050224</t>
+          <t>BCIO:050593</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>belief about healthcare accessibility</t>
+          <t>belief about health status</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>belief about ones environment</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's environment&gt; in terms of how easy it is for a person to approach and use a healthcare service.</t>
+          <t>A &lt;belief&gt; about one’s health status.</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr"/>
       <c r="H95" s="2" t="inlineStr"/>
-      <c r="I95" s="2" t="inlineStr"/>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>This class covers belief about current health status. A person may have more than one such belief.
+"health status" is defined as "A personal attribute that is the state of an individual’s mental or physical condition."</t>
+        </is>
+      </c>
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr"/>
@@ -6225,33 +6235,29 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006026</t>
+          <t>BCIO:050224</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of an occurrence</t>
+          <t>belief about healthcare accessibility</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief about ones environment</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms the probability that a given event or state will occur or not occur in the future.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr"/>
       <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="I96" s="2" t="inlineStr"/>
       <c r="J96" s="2" t="inlineStr"/>
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr"/>
@@ -6287,29 +6293,33 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006024</t>
+          <t>BCIO:006026</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t>belief about likelihood of consequences of an occurrence</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of an occurrence</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of an occurrence&gt; in terms of the probability that a behaviour will result or not result in particular outcomes.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms the probability that a given event or state will occur or not occur in the future.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr"/>
       <c r="H97" s="2" t="inlineStr"/>
-      <c r="I97" s="2" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
       <c r="J97" s="2" t="inlineStr"/>
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr"/>
@@ -6345,22 +6355,22 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050220</t>
+          <t>BCIO:006024</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of emotional consequences of behaviour</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t>belief about likelihood of consequences of an occurrence</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to emotions.</t>
+          <t>A &lt;belief about likelihood of consequences of an occurrence&gt; in terms of the probability that a behaviour will result or not result in particular outcomes.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
@@ -6403,12 +6413,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050594</t>
+          <t>BCIO:050220</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">belief about likelihood of financial consequences of a behaviour </t>
+          <t>belief about likelihood of emotional consequences of behaviour</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -6418,7 +6428,7 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to financial outcomes.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to emotions.</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
@@ -6461,12 +6471,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006025</t>
+          <t>BCIO:050594</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of health consequences of behaviour</t>
+          <t xml:space="preserve">belief about likelihood of financial consequences of a behaviour </t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -6476,7 +6486,7 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to financial outcomes.</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
@@ -6519,12 +6529,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050221</t>
+          <t>BCIO:006025</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of social consequences of behaviour</t>
+          <t>belief about likelihood of health consequences of behaviour</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -6534,7 +6544,7 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
@@ -6577,22 +6587,22 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006141</t>
+          <t>BCIO:050221</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief about likelihood of social consequences of behaviour</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;belief&gt; regarding aspects of a verbal, graphic, written or recorded communication. </t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
@@ -6635,22 +6645,22 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006028</t>
+          <t>BCIO:006141</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>belief about message relevance</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about message&gt; in terms of whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
+          <t xml:space="preserve">A &lt;belief&gt; regarding aspects of a verbal, graphic, written or recorded communication. </t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
@@ -6693,12 +6703,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006143</t>
+          <t>BCIO:006028</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>belief about message trustworthiness</t>
+          <t>belief about message relevance</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -6708,7 +6718,7 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
+          <t>A &lt;belief about message&gt; in terms of whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
@@ -6751,22 +6761,22 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006144</t>
+          <t>BCIO:006143</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>belief about need satisfaction</t>
+          <t>belief about message trustworthiness</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; regarding whether one or more of the person's needs have been met.</t>
+          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
@@ -6809,12 +6819,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006029</t>
+          <t>BCIO:006144</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>belief about ones environment</t>
+          <t>belief about need satisfaction</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -6824,7 +6834,7 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
+          <t>A &lt;belief&gt; regarding whether one or more of the person's needs have been met.</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
@@ -6867,22 +6877,22 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050225</t>
+          <t>BCIO:006029</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>belief about ones physical environment</t>
+          <t>belief about ones environment</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>belief about ones environment</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's environment&gt; in terms of the parts of one's environment that do not involve people or organisations.</t>
+          <t>A &lt;belief&gt; about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
@@ -6925,12 +6935,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006145</t>
+          <t>BCIO:050225</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>belief about ones social environment</t>
+          <t>belief about ones physical environment</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -6940,7 +6950,7 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's environment&gt; in terms of the aspects of one’s immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of the parts of one's environment that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
@@ -6983,22 +6993,22 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006301</t>
+          <t>BCIO:006145</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>belief about others' susceptibility</t>
+          <t>belief about ones social environment</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a threat</t>
+          <t>belief about ones environment</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about susceptibility to a threat&gt; in terms of how vulnerable others are to a threat.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of the aspects of one’s immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
@@ -7041,22 +7051,22 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050595</t>
+          <t>BCIO:006301</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>belief about own health</t>
+          <t>belief about others' susceptibility</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about susceptibility to a threat</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one’s own health</t>
+          <t>A &lt;belief about susceptibility to a threat&gt; in terms of how vulnerable others are to a threat.</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
@@ -7099,22 +7109,22 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006031</t>
+          <t>BCIO:050595</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>belief about personal susceptibility</t>
+          <t>belief about own health</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a threat</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about susceptibility to a threat&gt; in terms of one's personal vulnerability to a threat.</t>
+          <t>A &lt;belief&gt; about one’s own health</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
@@ -7157,22 +7167,22 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050324</t>
+          <t>BCIO:006031</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>belief about quality of life</t>
+          <t>belief about personal susceptibility</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about susceptibility to a threat</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one's position in life in relation to one's goals, expectations, standards and concerns.</t>
+          <t>A &lt;belief about susceptibility to a threat&gt; in terms of one's personal vulnerability to a threat.</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
@@ -7215,12 +7225,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006027</t>
+          <t>BCIO:050324</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>belief about reduction</t>
+          <t>belief about quality of life</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -7230,23 +7240,14 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the existence of a decrease from an initial reference point.</t>
+          <t>A &lt;belief&gt; about one's position in life in relation to one's goals, expectations, standards and concerns.</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr">
-        <is>
-          <t>perceived loss; belief about loss</t>
-        </is>
-      </c>
+      <c r="G113" s="2" t="inlineStr"/>
       <c r="H113" s="2" t="inlineStr"/>
-      <c r="I113" s="2" t="inlineStr">
-        <is>
-          <t>The perceived loss could be in anything internal or external, such as wealth or health.
-The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future. However, 'belief about reduction' might be about an existing loss.</t>
-        </is>
-      </c>
+      <c r="I113" s="2" t="inlineStr"/>
       <c r="J113" s="2" t="inlineStr"/>
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr"/>
@@ -7282,12 +7283,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006303</t>
+          <t>BCIO:006027</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>belief about responsibility to act</t>
+          <t>belief about reduction</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -7297,14 +7298,23 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about whether oneself or another person is obligated to take a certain course of action.</t>
+          <t>A &lt;belief&gt; about the existence of a decrease from an initial reference point.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="2" t="inlineStr"/>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>perceived loss; belief about loss</t>
+        </is>
+      </c>
       <c r="H114" s="2" t="inlineStr"/>
-      <c r="I114" s="2" t="inlineStr"/>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>The perceived loss could be in anything internal or external, such as wealth or health.
+The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future. However, 'belief about reduction' might be about an existing loss.</t>
+        </is>
+      </c>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr"/>
@@ -7340,22 +7350,22 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050596</t>
+          <t>BCIO:006303</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of AIDS</t>
+          <t>belief about responsibility to act</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of health condition</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about severity of health condition&gt; in terms of the outcomes of AIDS.</t>
+          <t>A &lt;belief&gt; about whether oneself or another person is obligated to take a certain course of action.</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
@@ -7398,38 +7408,30 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006030</t>
+          <t>BCIO:050596</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of an outcome</t>
+          <t>belief about severity of AIDS</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about severity of health condition</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about how serious the harm associated with an outcome could be.</t>
+          <t>A &lt;belief about severity of health condition&gt; in terms of the outcomes of AIDS.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
-      <c r="G116" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat severity</t>
-        </is>
-      </c>
+      <c r="G116" s="2" t="inlineStr"/>
       <c r="H116" s="2" t="inlineStr"/>
       <c r="I116" s="2" t="inlineStr"/>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat</t>
-        </is>
-      </c>
+      <c r="J116" s="2" t="inlineStr"/>
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr"/>
       <c r="M116" s="2" t="inlineStr"/>
@@ -7464,30 +7466,38 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050597</t>
+          <t>BCIO:006030</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of health condition</t>
+          <t>belief about severity of an outcome</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of an outcome</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about severity of an outcome&gt; relating to a health condition.</t>
+          <t>A &lt;belief&gt; about how serious the harm associated with an outcome could be.</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat severity</t>
+        </is>
+      </c>
       <c r="H117" s="2" t="inlineStr"/>
       <c r="I117" s="2" t="inlineStr"/>
-      <c r="J117" s="2" t="inlineStr"/>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat</t>
+        </is>
+      </c>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr"/>
       <c r="M117" s="2" t="inlineStr"/>
@@ -7522,33 +7532,29 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006020</t>
+          <t>BCIO:050597</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>belief about social consequences of behaviour</t>
+          <t>belief about severity of health condition</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about severity of an outcome</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of their impact on the social environmental system.</t>
+          <t>A &lt;belief about severity of an outcome&gt; relating to a health condition.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr"/>
       <c r="H118" s="2" t="inlineStr"/>
-      <c r="I118" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="I118" s="2" t="inlineStr"/>
       <c r="J118" s="2" t="inlineStr"/>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr"/>
@@ -7584,29 +7590,33 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050598</t>
+          <t>BCIO:006020</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>belief about social influence</t>
+          <t>belief about social consequences of behaviour</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>belief about ones social environment</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one’s social environment&gt; that focuses on people’s influences on each other.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of their impact on the social environmental system.</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr"/>
       <c r="H119" s="2" t="inlineStr"/>
-      <c r="I119" s="2" t="inlineStr"/>
+      <c r="I119" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
       <c r="J119" s="2" t="inlineStr"/>
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr"/>
@@ -7642,22 +7652,22 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050599</t>
+          <t>BCIO:050598</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>belief about social influence on oneself</t>
+          <t>belief about social influence</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>belief about social influence</t>
+          <t>belief about ones social environment</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about social influence&gt; in terms of the extent to which other people influence one’s behaviour.</t>
+          <t>A &lt;belief about one’s social environment&gt; that focuses on people’s influences on each other.</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
@@ -7700,22 +7710,22 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006146</t>
+          <t>BCIO:050599</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>belief about social support</t>
+          <t>belief about social influence on oneself</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>belief about ones social environment</t>
+          <t>belief about social influence</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's social environment&gt; in terms of whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
+          <t>A &lt;belief about social influence&gt; in terms of the extent to which other people influence one’s behaviour.</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
@@ -7758,22 +7768,22 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050600</t>
+          <t>BCIO:006146</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>belief about social support for a behaviour</t>
+          <t>belief about social support</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>belief about social support</t>
+          <t>belief about ones social environment</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about social support&gt; for the person to enact a behaviour.</t>
+          <t>A &lt;belief about one's social environment&gt; in terms of whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
@@ -7816,22 +7826,22 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050226</t>
+          <t>BCIO:050600</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>belief about sufficient time for a behaviour</t>
+          <t>belief about social support for a behaviour</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about social support</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about having enough time or a suitable period of time to enact a behaviour.</t>
+          <t>A &lt;belief about social support&gt; for the person to enact a behaviour.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
@@ -7874,12 +7884,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006305</t>
+          <t>BCIO:050226</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a threat</t>
+          <t>belief about sufficient time for a behaviour</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -7889,23 +7899,15 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about vulnerability to a threat.</t>
+          <t>A &lt;belief&gt; about having enough time or a suitable period of time to enact a behaviour.</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
-      <c r="G124" s="2" t="inlineStr">
-        <is>
-          <t>belief about susceptibility to a risk</t>
-        </is>
-      </c>
+      <c r="G124" s="2" t="inlineStr"/>
       <c r="H124" s="2" t="inlineStr"/>
       <c r="I124" s="2" t="inlineStr"/>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat</t>
-        </is>
-      </c>
+      <c r="J124" s="2" t="inlineStr"/>
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr"/>
       <c r="M124" s="2" t="inlineStr"/>
@@ -7940,12 +7942,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050601</t>
+          <t>BCIO:006305</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>belief about task complexity</t>
+          <t>belief about susceptibility to a threat</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -7955,15 +7957,23 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the degree to which a task is complex and therefore difficult to perform.</t>
+          <t>A &lt;belief&gt; about vulnerability to a threat.</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
-      <c r="G125" s="2" t="inlineStr"/>
+      <c r="G125" s="2" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a risk</t>
+        </is>
+      </c>
       <c r="H125" s="2" t="inlineStr"/>
       <c r="I125" s="2" t="inlineStr"/>
-      <c r="J125" s="2" t="inlineStr"/>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat</t>
+        </is>
+      </c>
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr"/>
       <c r="M125" s="2" t="inlineStr"/>
@@ -7998,12 +8008,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050602</t>
+          <t>BCIO:050601</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>belief about the cause of a behaviour</t>
+          <t>belief about task complexity</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -8013,18 +8023,14 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about what causes or influences a behaviour.</t>
+          <t>A &lt;belief&gt; about the degree to which a task is complex and therefore difficult to perform.</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr"/>
       <c r="H126" s="2" t="inlineStr"/>
-      <c r="I126" s="2" t="inlineStr">
-        <is>
-          <t>The class 'belief about the cause of a behaviour' captures what a person believes in terms of the causes of events. A related class is 'emotional-relevance appraisal of causal agency', but this class involves an appraisal that gives raise to emotions, such as blaming yourself for an accident, giving raise to feelings of guilt.</t>
-        </is>
-      </c>
+      <c r="I126" s="2" t="inlineStr"/>
       <c r="J126" s="2" t="inlineStr"/>
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr"/>
@@ -8060,29 +8066,33 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006142</t>
+          <t>BCIO:050602</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>belief about the credibility of a message's source</t>
+          <t>belief about the cause of a behaviour</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
+          <t>A &lt;belief&gt; about what causes or influences a behaviour.</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr"/>
       <c r="H127" s="2" t="inlineStr"/>
-      <c r="I127" s="2" t="inlineStr"/>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>The class 'belief about the cause of a behaviour' captures what a person believes in terms of the causes of events. A related class is 'emotional-relevance appraisal of causal agency', but this class involves an appraisal that gives raise to emotions, such as blaming yourself for an accident, giving raise to feelings of guilt.</t>
+        </is>
+      </c>
       <c r="J127" s="2" t="inlineStr"/>
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr"/>
@@ -8118,22 +8128,22 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050603</t>
+          <t>BCIO:006142</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>belief about the discrepancy between one’s current and target state</t>
+          <t>belief about the credibility of a message's source</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the discrepancy between one’s current and target state.</t>
+          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
@@ -8176,22 +8186,22 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050604</t>
+          <t>BCIO:050603</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>belief about the financial consequences of a behaviour</t>
+          <t>belief about the discrepancy between one’s current and target state</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of finance.</t>
+          <t>A &lt;belief&gt; about the discrepancy between one’s current and target state.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
@@ -8234,31 +8244,27 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050605</t>
+          <t>BCIO:050604</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>belief about the negative health consequences of a behaviour</t>
+          <t>belief about the financial consequences of a behaviour</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>belief about health consequences of behaviour</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about health consequences of a behaviour&gt; in which the consequences are evaluated as negative.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of finance.</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr">
-        <is>
-          <t>An evaluative belief about the negative consequences of a behaviour AND belief about the health consequences of a behaviour</t>
-        </is>
-      </c>
+      <c r="G130" s="2" t="inlineStr"/>
       <c r="H130" s="2" t="inlineStr"/>
       <c r="I130" s="2" t="inlineStr"/>
       <c r="J130" s="2" t="inlineStr"/>
@@ -8296,33 +8302,33 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006149</t>
+          <t>BCIO:050605</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>belief about the personal desirability of consequences of a behaviour</t>
+          <t>belief about the negative health consequences of a behaviour</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about the consequences of behaviour</t>
+          <t>belief about health consequences of behaviour</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>An &lt;evaluative belief about the consequences of behaviour&gt; in terms of the value of the consequences of behaviour to oneself.</t>
+          <t>A &lt;belief about health consequences of a behaviour&gt; in which the consequences are evaluated as negative.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
-      <c r="G131" s="2" t="inlineStr"/>
+      <c r="G131" s="2" t="inlineStr">
+        <is>
+          <t>An evaluative belief about the negative consequences of a behaviour AND belief about the health consequences of a behaviour</t>
+        </is>
+      </c>
       <c r="H131" s="2" t="inlineStr"/>
-      <c r="I131" s="2" t="inlineStr">
-        <is>
-          <t>'Desirability' can range from highly desirable to highly undesirable.</t>
-        </is>
-      </c>
+      <c r="I131" s="2" t="inlineStr"/>
       <c r="J131" s="2" t="inlineStr"/>
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr"/>
@@ -8358,22 +8364,22 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050606</t>
+          <t>BCIO:006149</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>belief about the positive emotional consequences of a behaviour</t>
+          <t>belief about the personal desirability of consequences of a behaviour</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>belief about emotional consequences of behaviour</t>
+          <t>evaluative belief about the consequences of behaviour</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about emotional consequences of behaviour&gt; where the emotions are positive.</t>
+          <t>An &lt;evaluative belief about the consequences of behaviour&gt; in terms of the value of the consequences of behaviour to oneself.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
@@ -8382,7 +8388,7 @@
       <c r="H132" s="2" t="inlineStr"/>
       <c r="I132" s="2" t="inlineStr">
         <is>
-          <t>Positive emotions are enjoyment, pleasure and satisfaction. The emotions are those of the person enacting the behaviour.</t>
+          <t>'Desirability' can range from highly desirable to highly undesirable.</t>
         </is>
       </c>
       <c r="J132" s="2" t="inlineStr"/>
@@ -8420,33 +8426,33 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050607</t>
+          <t>BCIO:050606</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>belief about the positive health consequences of a behaviour</t>
+          <t>belief about the positive emotional consequences of a behaviour</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>belief about health consequences of behaviour</t>
+          <t>belief about emotional consequences of behaviour</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about health consequences of behaviour&gt; in which the consequences are evaluated as positive.</t>
+          <t>A &lt;belief about emotional consequences of behaviour&gt; where the emotions are positive.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
-      <c r="G133" s="2" t="inlineStr">
-        <is>
-          <t>An evaluative belief about the positive consequences of a behaviour AND belief about the health consequences of a behaviour</t>
-        </is>
-      </c>
+      <c r="G133" s="2" t="inlineStr"/>
       <c r="H133" s="2" t="inlineStr"/>
-      <c r="I133" s="2" t="inlineStr"/>
+      <c r="I133" s="2" t="inlineStr">
+        <is>
+          <t>Positive emotions are enjoyment, pleasure and satisfaction. The emotions are those of the person enacting the behaviour.</t>
+        </is>
+      </c>
       <c r="J133" s="2" t="inlineStr"/>
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr"/>
@@ -8482,27 +8488,31 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050608</t>
+          <t>BCIO:050607</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>belief about the positive social consequences of a behaviour</t>
+          <t>belief about the positive health consequences of a behaviour</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>belief about social consequences of behaviour</t>
+          <t>belief about health consequences of behaviour</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about social consequences of behaviour&gt; where those consequences are evaluated positively.</t>
+          <t>A &lt;belief about health consequences of behaviour&gt; in which the consequences are evaluated as positive.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
-      <c r="G134" s="2" t="inlineStr"/>
+      <c r="G134" s="2" t="inlineStr">
+        <is>
+          <t>An evaluative belief about the positive consequences of a behaviour AND belief about the health consequences of a behaviour</t>
+        </is>
+      </c>
       <c r="H134" s="2" t="inlineStr"/>
       <c r="I134" s="2" t="inlineStr"/>
       <c r="J134" s="2" t="inlineStr"/>
@@ -8540,22 +8550,22 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006033</t>
+          <t>BCIO:050608</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>belief about the timing of the consequences of behaviour</t>
+          <t>belief about the positive social consequences of a behaviour</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about social consequences of behaviour</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of how long after the performance of the behaviour they will occur.</t>
+          <t>A &lt;belief about social consequences of behaviour&gt; where those consequences are evaluated positively.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
@@ -8598,22 +8608,22 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006306</t>
+          <t>BCIO:006033</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>belief about threat</t>
+          <t>belief about the timing of the consequences of behaviour</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about a potential harm.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of how long after the performance of the behaviour they will occur.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -8656,22 +8666,22 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050847</t>
+          <t>BCIO:006306</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>belief in false minority</t>
+          <t>belief about threat</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>group belief</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>A &lt;group belief&gt; in which members of a group falsely believe that their own beliefs and behaviours are unusual.</t>
+          <t>A &lt;belief&gt; about a potential harm.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -8714,33 +8724,29 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050609</t>
+          <t>BCIO:050847</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>belief that a behaviour is compulsory</t>
+          <t>belief in false minority</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>belief about a behavioural rule</t>
+          <t>group belief</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must occur.</t>
+          <t>A &lt;group belief&gt; in which members of a group falsely believe that their own beliefs and behaviours are unusual.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr"/>
       <c r="H138" s="2" t="inlineStr"/>
-      <c r="I138" s="2" t="inlineStr">
-        <is>
-          <t>The two entities 'belief that a behaviour is compulsary' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur.</t>
-        </is>
-      </c>
+      <c r="I138" s="2" t="inlineStr"/>
       <c r="J138" s="2" t="inlineStr"/>
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr"/>
@@ -8776,12 +8782,12 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050610</t>
+          <t>BCIO:050609</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>belief that a behaviour is forbidden</t>
+          <t>belief that a behaviour is compulsory</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -8791,7 +8797,7 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must not occur.</t>
+          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must occur.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
@@ -8800,7 +8806,7 @@
       <c r="H139" s="2" t="inlineStr"/>
       <c r="I139" s="2" t="inlineStr">
         <is>
-          <t>The two entities 'belief that a behaviour is forbidden' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is forbidden' is specifically about whether there are rules about not performing a behaviour.</t>
+          <t>The two entities 'belief that a behaviour is compulsary' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur.</t>
         </is>
       </c>
       <c r="J139" s="2" t="inlineStr"/>
@@ -8838,22 +8844,22 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050611</t>
+          <t>BCIO:050610</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>beneficial fear reduction mental process</t>
+          <t>belief that a behaviour is forbidden</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>fear reduction mental process</t>
+          <t>belief about a behavioural rule</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A &lt;fear reduction mental process&gt; that has a positive  outcome.</t>
+          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must not occur.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -8862,7 +8868,7 @@
       <c r="H140" s="2" t="inlineStr"/>
       <c r="I140" s="2" t="inlineStr">
         <is>
-          <t>‘Positive’ is inherently subjective. It could mean a good outcome for the person, the people or those around them, or society more generally.</t>
+          <t>The two entities 'belief that a behaviour is forbidden' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is forbidden' is specifically about whether there are rules about not performing a behaviour.</t>
         </is>
       </c>
       <c r="J140" s="2" t="inlineStr"/>
@@ -8898,72 +8904,76 @@
       <c r="X140" s="2" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001303 </t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>beneficialness</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>A &lt;disposition&gt; that is realised as a benefit process.</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X141" t="inlineStr"/>
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050611</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>beneficial fear reduction mental process</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>fear reduction mental process</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;fear reduction mental process&gt; that has a positive  outcome.</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr"/>
+      <c r="F141" s="2" t="inlineStr"/>
+      <c r="G141" s="2" t="inlineStr"/>
+      <c r="H141" s="2" t="inlineStr"/>
+      <c r="I141" s="2" t="inlineStr">
+        <is>
+          <t>‘Positive’ is inherently subjective. It could mean a good outcome for the person, the people or those around them, or society more generally.</t>
+        </is>
+      </c>
+      <c r="J141" s="2" t="inlineStr"/>
+      <c r="K141" s="2" t="inlineStr"/>
+      <c r="L141" s="2" t="inlineStr"/>
+      <c r="M141" s="2" t="inlineStr"/>
+      <c r="N141" s="2" t="inlineStr"/>
+      <c r="O141" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P141" s="2" t="inlineStr"/>
+      <c r="Q141" s="2" t="inlineStr"/>
+      <c r="R141" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S141" s="2" t="inlineStr"/>
+      <c r="T141" s="2" t="inlineStr"/>
+      <c r="U141" s="2" t="inlineStr"/>
+      <c r="V141" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W141" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X141" s="2" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MF:0000032</t>
+          <t xml:space="preserve">ADDICTO:0001303 </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>beneficialness</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8973,27 +8983,14 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
+          <t>A &lt;disposition&gt; that is realised as a benefit process.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>An attribute of a body that influences the way that it functions.</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>personal disposition</t>
-        </is>
-      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>Extended organism refers to an organism and its microbiome (e.g., the bacteria that live in one's digestive system)
-Bodily disposition would include features, such as a person's strength (which can be used in a specific context), but not weight. A person would have a certain weight independent of most circumstances they are in.</t>
-        </is>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
@@ -9016,336 +9013,345 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>MF:0000032</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>An attribute of a body that influences the way that it functions.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>personal disposition</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Extended organism refers to an organism and its microbiome (e.g., the bacteria that live in one's digestive system)
+Bodily disposition would include features, such as a person's strength (which can be used in a specific context), but not weight. A person would have a certain weight independent of most circumstances they are in.</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr">
+        <is>
           <t>PS; LZ</t>
         </is>
       </c>
-      <c r="W142" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="inlineStr">
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
         <is>
           <t>BCIO:050612</t>
         </is>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>bodily disposition that increases likelihood of harmful behaviour</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D143" s="2" t="inlineStr">
+      <c r="D144" s="2" t="inlineStr">
         <is>
           <t>A &lt;bodily disposition&gt; that increases the probability that a person will engage in a harmful behaviour.</t>
         </is>
       </c>
-      <c r="E143" s="2" t="inlineStr"/>
-      <c r="F143" s="2" t="inlineStr"/>
-      <c r="G143" s="2" t="inlineStr"/>
-      <c r="H143" s="2" t="inlineStr"/>
-      <c r="I143" s="2" t="inlineStr"/>
-      <c r="J143" s="2" t="inlineStr"/>
-      <c r="K143" s="2" t="inlineStr"/>
-      <c r="L143" s="2" t="inlineStr"/>
-      <c r="M143" s="2" t="inlineStr"/>
-      <c r="N143" s="2" t="inlineStr"/>
-      <c r="O143" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P143" s="2" t="inlineStr"/>
-      <c r="Q143" s="2" t="inlineStr"/>
-      <c r="R143" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S143" s="2" t="inlineStr"/>
-      <c r="T143" s="2" t="inlineStr"/>
-      <c r="U143" s="2" t="inlineStr"/>
-      <c r="V143" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W143" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X143" s="2" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="3" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr"/>
+      <c r="F144" s="2" t="inlineStr"/>
+      <c r="G144" s="2" t="inlineStr"/>
+      <c r="H144" s="2" t="inlineStr"/>
+      <c r="I144" s="2" t="inlineStr"/>
+      <c r="J144" s="2" t="inlineStr"/>
+      <c r="K144" s="2" t="inlineStr"/>
+      <c r="L144" s="2" t="inlineStr"/>
+      <c r="M144" s="2" t="inlineStr"/>
+      <c r="N144" s="2" t="inlineStr"/>
+      <c r="O144" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P144" s="2" t="inlineStr"/>
+      <c r="Q144" s="2" t="inlineStr"/>
+      <c r="R144" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S144" s="2" t="inlineStr"/>
+      <c r="T144" s="2" t="inlineStr"/>
+      <c r="U144" s="2" t="inlineStr"/>
+      <c r="V144" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W144" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X144" s="2" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
         <is>
           <t>BCIO:050304</t>
         </is>
       </c>
-      <c r="B144" s="3" t="inlineStr">
+      <c r="B145" s="3" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C144" s="3" t="inlineStr">
+      <c r="C145" s="3" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D144" s="3" t="inlineStr">
+      <c r="D145" s="3" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E144" s="3" t="inlineStr"/>
-      <c r="F144" s="3" t="inlineStr"/>
-      <c r="G144" s="3" t="inlineStr"/>
-      <c r="H144" s="3" t="inlineStr"/>
-      <c r="I144" s="3" t="inlineStr"/>
-      <c r="J144" s="3" t="inlineStr"/>
-      <c r="K144" s="3" t="inlineStr"/>
-      <c r="L144" s="3" t="inlineStr"/>
-      <c r="M144" s="3" t="inlineStr"/>
-      <c r="N144" s="3" t="inlineStr"/>
-      <c r="O144" s="3" t="inlineStr">
+      <c r="E145" s="3" t="inlineStr"/>
+      <c r="F145" s="3" t="inlineStr"/>
+      <c r="G145" s="3" t="inlineStr"/>
+      <c r="H145" s="3" t="inlineStr"/>
+      <c r="I145" s="3" t="inlineStr"/>
+      <c r="J145" s="3" t="inlineStr"/>
+      <c r="K145" s="3" t="inlineStr"/>
+      <c r="L145" s="3" t="inlineStr"/>
+      <c r="M145" s="3" t="inlineStr"/>
+      <c r="N145" s="3" t="inlineStr"/>
+      <c r="O145" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P144" s="3" t="inlineStr"/>
-      <c r="Q144" s="3" t="inlineStr"/>
-      <c r="R144" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S144" s="3" t="inlineStr"/>
-      <c r="T144" s="3" t="inlineStr"/>
-      <c r="U144" s="3" t="inlineStr"/>
-      <c r="V144" s="3" t="inlineStr"/>
-      <c r="W144" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X144" s="3" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="P145" s="3" t="inlineStr"/>
+      <c r="Q145" s="3" t="inlineStr"/>
+      <c r="R145" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S145" s="3" t="inlineStr"/>
+      <c r="T145" s="3" t="inlineStr"/>
+      <c r="U145" s="3" t="inlineStr"/>
+      <c r="V145" s="3" t="inlineStr"/>
+      <c r="W145" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X145" s="3" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>OGMS:0000060</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
         <is>
           <t>Any process going on in the body.</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr">
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
         <is>
           <t xml:space="preserve">The phrase 'bodily component of an organism’ in the definition refers to ‘a part of the body’. </t>
         </is>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W145" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="3" t="inlineStr">
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
         <is>
           <t>BCIO:050305</t>
         </is>
       </c>
-      <c r="B146" s="3" t="inlineStr">
+      <c r="B147" s="3" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C146" s="3" t="inlineStr">
+      <c r="C147" s="3" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D146" s="3" t="inlineStr">
+      <c r="D147" s="3" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E146" s="3" t="inlineStr"/>
-      <c r="F146" s="3" t="inlineStr"/>
-      <c r="G146" s="3" t="inlineStr"/>
-      <c r="H146" s="3" t="inlineStr"/>
-      <c r="I146" s="3" t="inlineStr"/>
-      <c r="J146" s="3" t="inlineStr"/>
-      <c r="K146" s="3" t="inlineStr"/>
-      <c r="L146" s="3" t="inlineStr"/>
-      <c r="M146" s="3" t="inlineStr"/>
-      <c r="N146" s="3" t="inlineStr"/>
-      <c r="O146" s="3" t="inlineStr">
+      <c r="E147" s="3" t="inlineStr"/>
+      <c r="F147" s="3" t="inlineStr"/>
+      <c r="G147" s="3" t="inlineStr"/>
+      <c r="H147" s="3" t="inlineStr"/>
+      <c r="I147" s="3" t="inlineStr"/>
+      <c r="J147" s="3" t="inlineStr"/>
+      <c r="K147" s="3" t="inlineStr"/>
+      <c r="L147" s="3" t="inlineStr"/>
+      <c r="M147" s="3" t="inlineStr"/>
+      <c r="N147" s="3" t="inlineStr"/>
+      <c r="O147" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P146" s="3" t="inlineStr"/>
-      <c r="Q146" s="3" t="inlineStr"/>
-      <c r="R146" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S146" s="3" t="inlineStr"/>
-      <c r="T146" s="3" t="inlineStr"/>
-      <c r="U146" s="3" t="inlineStr"/>
-      <c r="V146" s="3" t="inlineStr"/>
-      <c r="W146" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X146" s="3" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050613</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>bodily system</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;system&gt; that consists of the parts of an organism and their interactions.</t>
-        </is>
-      </c>
-      <c r="E147" s="2" t="inlineStr"/>
-      <c r="F147" s="2" t="inlineStr"/>
-      <c r="G147" s="2" t="inlineStr"/>
-      <c r="H147" s="2" t="inlineStr"/>
-      <c r="I147" s="2" t="inlineStr"/>
-      <c r="J147" s="2" t="inlineStr"/>
-      <c r="K147" s="2" t="inlineStr"/>
-      <c r="L147" s="2" t="inlineStr"/>
-      <c r="M147" s="2" t="inlineStr"/>
-      <c r="N147" s="2" t="inlineStr"/>
-      <c r="O147" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P147" s="2" t="inlineStr"/>
-      <c r="Q147" s="2" t="inlineStr"/>
-      <c r="R147" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S147" s="2" t="inlineStr"/>
-      <c r="T147" s="2" t="inlineStr"/>
-      <c r="U147" s="2" t="inlineStr"/>
-      <c r="V147" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W147" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X147" s="2" t="inlineStr"/>
+      <c r="P147" s="3" t="inlineStr"/>
+      <c r="Q147" s="3" t="inlineStr"/>
+      <c r="R147" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S147" s="3" t="inlineStr"/>
+      <c r="T147" s="3" t="inlineStr"/>
+      <c r="U147" s="3" t="inlineStr"/>
+      <c r="V147" s="3" t="inlineStr"/>
+      <c r="W147" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X147" s="3" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050848</t>
+          <t>BCIO:050613</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>capability to imagine future scenarios</t>
+          <t>bodily system</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">imagination capability </t>
+          <t>system</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>An &lt;imagination capability&gt; in which what is imagined are scenarios that could happen in the future.</t>
+          <t>A &lt;system&gt; that consists of the parts of an organism and their interactions.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr"/>
       <c r="H148" s="2" t="inlineStr"/>
-      <c r="I148" s="2" t="inlineStr">
-        <is>
-          <t>Scenarios include possible, outcomes of behaviours, goals and actions to achieve them.</t>
-        </is>
-      </c>
+      <c r="I148" s="2" t="inlineStr"/>
       <c r="J148" s="2" t="inlineStr"/>
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr"/>
@@ -9381,29 +9387,33 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050849</t>
+          <t>BCIO:050848</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>certainty bias</t>
+          <t>capability to imagine future scenarios</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cognitive bias process </t>
+          <t xml:space="preserve">imagination capability </t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive bias process&gt; that overweights an outcome that is judged to be certain compared with ones that are judged to be less than certain.</t>
+          <t>An &lt;imagination capability&gt; in which what is imagined are scenarios that could happen in the future.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr"/>
       <c r="H149" s="2" t="inlineStr"/>
-      <c r="I149" s="2" t="inlineStr"/>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>Scenarios include possible, outcomes of behaviours, goals and actions to achieve them.</t>
+        </is>
+      </c>
       <c r="J149" s="2" t="inlineStr"/>
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr"/>
@@ -9439,22 +9449,22 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006120</t>
+          <t>BCIO:050849</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>classical conditioning</t>
+          <t>certainty bias</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t xml:space="preserve">cognitive bias process </t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>&lt;Associative learning&gt; that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
+          <t>A &lt;cognitive bias process&gt; that overweights an outcome that is judged to be certain compared with ones that are judged to be less than certain.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
@@ -9497,22 +9507,22 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050850</t>
+          <t>BCIO:006120</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>cognitive bias disposition</t>
+          <t>classical conditioning</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is realised as a cognitive bias process.</t>
+          <t>&lt;Associative learning&gt; that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
@@ -9555,22 +9565,22 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050851</t>
+          <t>BCIO:050850</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>cognitive bias process</t>
+          <t>cognitive bias disposition</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive process&gt; that leads to systematic error in judgement or belief.</t>
+          <t>A &lt;mental disposition&gt; that is realised as a cognitive bias process.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
@@ -9613,22 +9623,22 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006108</t>
+          <t>BCIO:050851</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>cognitive dissonance</t>
+          <t>cognitive bias process</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; that is unpleasant and experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
+          <t>A &lt;cognitive process&gt; that leads to systematic error in judgement or belief.</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
@@ -9669,98 +9679,89 @@
       <c r="X153" s="2" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>MF:0000008</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that creates, modifies or has as participant some cognitive representation.</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S154" t="inlineStr"/>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W154" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X154" t="inlineStr"/>
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006108</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>cognitive dissonance</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;subjective affective feeling&gt; that is unpleasant and experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr"/>
+      <c r="F154" s="2" t="inlineStr"/>
+      <c r="G154" s="2" t="inlineStr"/>
+      <c r="H154" s="2" t="inlineStr"/>
+      <c r="I154" s="2" t="inlineStr"/>
+      <c r="J154" s="2" t="inlineStr"/>
+      <c r="K154" s="2" t="inlineStr"/>
+      <c r="L154" s="2" t="inlineStr"/>
+      <c r="M154" s="2" t="inlineStr"/>
+      <c r="N154" s="2" t="inlineStr"/>
+      <c r="O154" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P154" s="2" t="inlineStr"/>
+      <c r="Q154" s="2" t="inlineStr"/>
+      <c r="R154" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S154" s="2" t="inlineStr"/>
+      <c r="T154" s="2" t="inlineStr"/>
+      <c r="U154" s="2" t="inlineStr"/>
+      <c r="V154" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W154" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X154" s="2" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MF:0000031</t>
+          <t>MF:0000008</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;representation&gt; which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
+          <t>A &lt;mental process&gt; that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>A mental representation of something that is experienced or imagined about one's inner or outer world.</t>
-        </is>
-      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>The use of the phrase ‘an anatomical structure in the cognitive system’ in the formal definition means that a specific cognitive representation will depend on parts of the brain, rather than involving the whole brain.
-When a belief is activated, the content of that belief is a cognitive representation.</t>
-        </is>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
@@ -9794,82 +9795,91 @@
       <c r="X155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050614</t>
-        </is>
-      </c>
-      <c r="B156" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation of an alternative behaviour</t>
-        </is>
-      </c>
-      <c r="C156" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation of one’s behaviour</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;cognitive representation of one’s behaviour&gt; that the person could enact instead of one that they have enacted or are enacting.</t>
-        </is>
-      </c>
-      <c r="E156" s="2" t="inlineStr"/>
-      <c r="F156" s="2" t="inlineStr"/>
-      <c r="G156" s="2" t="inlineStr"/>
-      <c r="H156" s="2" t="inlineStr"/>
-      <c r="I156" s="2" t="inlineStr"/>
-      <c r="J156" s="2" t="inlineStr"/>
-      <c r="K156" s="2" t="inlineStr"/>
-      <c r="L156" s="2" t="inlineStr"/>
-      <c r="M156" s="2" t="inlineStr"/>
-      <c r="N156" s="2" t="inlineStr"/>
-      <c r="O156" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P156" s="2" t="inlineStr"/>
-      <c r="Q156" s="2" t="inlineStr"/>
-      <c r="R156" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S156" s="2" t="inlineStr"/>
-      <c r="T156" s="2" t="inlineStr"/>
-      <c r="U156" s="2" t="inlineStr"/>
-      <c r="V156" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W156" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X156" s="2" t="inlineStr"/>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>MF:0000031</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A &lt;representation&gt; which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>A mental representation of something that is experienced or imagined about one's inner or outer world.</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>The use of the phrase ‘an anatomical structure in the cognitive system’ in the formal definition means that a specific cognitive representation will depend on parts of the brain, rather than involving the whole brain.
+When a belief is activated, the content of that belief is a cognitive representation.</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050615</t>
+          <t>BCIO:050614</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
+          <t>cognitive representation of an alternative behaviour</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
           <t>cognitive representation of one’s behaviour</t>
         </is>
       </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; of a behaviour that the person is enacting or has enacted.</t>
+          <t>A &lt;cognitive representation of one’s behaviour&gt; that the person could enact instead of one that they have enacted or are enacting.</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
@@ -9912,30 +9922,26 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006045</t>
+          <t>BCIO:050615</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>cognitive representation of one’s behaviour</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that when activated, guides an interconnected network of perception, thought, emotion or behaviour.</t>
+          <t>A &lt;cognitive representation&gt; of a behaviour that the person is enacting or has enacted.</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>A collection of interconnected perceptions, thoughts, emotions and behaviours.</t>
-        </is>
-      </c>
+      <c r="F158" s="2" t="inlineStr"/>
       <c r="G158" s="2" t="inlineStr"/>
       <c r="H158" s="2" t="inlineStr"/>
       <c r="I158" s="2" t="inlineStr"/>
@@ -9974,26 +9980,30 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006007</t>
+          <t>BCIO:006045</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>cognitive self-regulation capability</t>
+          <t>cognitive schema</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's cognitive processes. </t>
+          <t>A &lt;mental disposition&gt; that when activated, guides an interconnected network of perception, thought, emotion or behaviour.</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
-      <c r="F159" s="2" t="inlineStr"/>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>A collection of interconnected perceptions, thoughts, emotions and behaviours.</t>
+        </is>
+      </c>
       <c r="G159" s="2" t="inlineStr"/>
       <c r="H159" s="2" t="inlineStr"/>
       <c r="I159" s="2" t="inlineStr"/>
@@ -10032,22 +10042,22 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050852</t>
+          <t>BCIO:006007</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>cognitive substitution</t>
+          <t>cognitive self-regulation capability</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive process&gt; in which a person substitutes a more desired thought process for a less desired thought process.</t>
+          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's cognitive processes. </t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
@@ -10090,33 +10100,29 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050616</t>
+          <t>BCIO:050852</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>communication skill</t>
+          <t>cognitive substitution</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social skill&gt; that is realised as effective communication behaviour</t>
+          <t>A &lt;cognitive process&gt; in which a person substitutes a more desired thought process for a less desired thought process.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr"/>
       <c r="H161" s="2" t="inlineStr"/>
-      <c r="I161" s="2" t="inlineStr">
-        <is>
-          <t>Capability is broader than skill (includes, for example,mental stamina, resilience)</t>
-        </is>
-      </c>
+      <c r="I161" s="2" t="inlineStr"/>
       <c r="J161" s="2" t="inlineStr"/>
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr"/>
@@ -10152,29 +10158,33 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050617</t>
+          <t>BCIO:050616</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>comparative desirability appraisal</t>
+          <t>communication skill</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal&gt; that involves a relative desirability of two or more entities.</t>
+          <t>A &lt;social skill&gt; that is realised as effective communication behaviour</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr"/>
       <c r="H162" s="2" t="inlineStr"/>
-      <c r="I162" s="2" t="inlineStr"/>
+      <c r="I162" s="2" t="inlineStr">
+        <is>
+          <t>Capability is broader than skill (includes, for example,mental stamina, resilience)</t>
+        </is>
+      </c>
       <c r="J162" s="2" t="inlineStr"/>
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr"/>
@@ -10210,22 +10220,22 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050618</t>
+          <t>BCIO:050617</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>comparative evaluation process</t>
+          <t>comparative desirability appraisal</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>&lt;Judging&gt; that involves comparing aspects of entities.</t>
+          <t>An &lt;emotional-relevance appraisal&gt; that involves a relative desirability of two or more entities.</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
@@ -10268,22 +10278,22 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050853</t>
+          <t>BCIO:050618</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>comparison of current behaviour with a standard</t>
+          <t>comparative evaluation process</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>comparison of current situation with a standard</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>&lt;Comparison of current situation with a standard&gt; where the focus is on current behaviour.</t>
+          <t>&lt;Judging&gt; that involves comparing aspects of entities.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -10326,22 +10336,22 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050619</t>
+          <t>BCIO:050853</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
+          <t>comparison of current behaviour with a standard</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
           <t>comparison of current situation with a standard</t>
         </is>
       </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>comparative evaluation process</t>
-        </is>
-      </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>A &lt;comparative evaluation process&gt; that compares the current situation with a standard or benchmark.</t>
+          <t>&lt;Comparison of current situation with a standard&gt; where the focus is on current behaviour.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
@@ -10384,22 +10394,22 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006110</t>
+          <t>BCIO:050619</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>comprehension</t>
+          <t>comparison of current situation with a standard</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>comparative evaluation process</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive process&gt; that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+          <t>A &lt;comparative evaluation process&gt; that compares the current situation with a standard or benchmark.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -10442,22 +10452,22 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050620</t>
+          <t>BCIO:006110</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>conditioned positive reinforcer</t>
+          <t>comprehension</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>conditioned reinforcer</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>A &lt;conditioned reinforcer&gt; that has acquired its reinforcing property by having been associated with a positive reinforcer.</t>
+          <t>A &lt;cognitive process&gt; that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -10500,22 +10510,22 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050621</t>
+          <t>BCIO:050620</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
+          <t>conditioned positive reinforcer</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
           <t>conditioned reinforcer</t>
         </is>
       </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>reinforcer</t>
-        </is>
-      </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A &lt;reinforcer&gt; whose effect on behaviour results from being paired with another reinforcer</t>
+          <t>A &lt;conditioned reinforcer&gt; that has acquired its reinforcing property by having been associated with a positive reinforcer.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
@@ -10556,148 +10566,148 @@
       <c r="X168" s="2" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050621</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>conditioned reinforcer</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>reinforcer</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;reinforcer&gt; whose effect on behaviour results from being paired with another reinforcer</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr"/>
+      <c r="F169" s="2" t="inlineStr"/>
+      <c r="G169" s="2" t="inlineStr"/>
+      <c r="H169" s="2" t="inlineStr"/>
+      <c r="I169" s="2" t="inlineStr"/>
+      <c r="J169" s="2" t="inlineStr"/>
+      <c r="K169" s="2" t="inlineStr"/>
+      <c r="L169" s="2" t="inlineStr"/>
+      <c r="M169" s="2" t="inlineStr"/>
+      <c r="N169" s="2" t="inlineStr"/>
+      <c r="O169" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P169" s="2" t="inlineStr"/>
+      <c r="Q169" s="2" t="inlineStr"/>
+      <c r="R169" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S169" s="2" t="inlineStr"/>
+      <c r="T169" s="2" t="inlineStr"/>
+      <c r="U169" s="2" t="inlineStr"/>
+      <c r="V169" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W169" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X169" s="2" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>MF:0000017</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>consciousness</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and intends the object or event that the mental process is about, should such exist; it confers intentionality on the mental process.</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr">
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
         <is>
           <t>A subjective experience of one’s inner or outer world, which can include experience of one's own mental processes.</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>conscious awareness</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr">
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S169" t="inlineStr"/>
-      <c r="T169" t="inlineStr"/>
-      <c r="U169" t="inlineStr"/>
-      <c r="V169" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W169" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050622</t>
-        </is>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>control over one’s life</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="D170" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;environmental disposition&gt; that is the extent to which the person can control what happens to them.</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="inlineStr"/>
-      <c r="F170" s="2" t="inlineStr"/>
-      <c r="G170" s="2" t="inlineStr"/>
-      <c r="H170" s="2" t="inlineStr"/>
-      <c r="I170" s="2" t="inlineStr"/>
-      <c r="J170" s="2" t="inlineStr"/>
-      <c r="K170" s="2" t="inlineStr"/>
-      <c r="L170" s="2" t="inlineStr"/>
-      <c r="M170" s="2" t="inlineStr"/>
-      <c r="N170" s="2" t="inlineStr"/>
-      <c r="O170" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P170" s="2" t="inlineStr"/>
-      <c r="Q170" s="2" t="inlineStr"/>
-      <c r="R170" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S170" s="2" t="inlineStr"/>
-      <c r="T170" s="2" t="inlineStr"/>
-      <c r="U170" s="2" t="inlineStr"/>
-      <c r="V170" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W170" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X170" s="2" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050623</t>
+          <t>BCIO:050622</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>coping efficacy belief</t>
+          <t>control over one’s life</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of a behaviour&gt; in terms of coping.</t>
+          <t>An &lt;environmental disposition&gt; that is the extent to which the person can control what happens to them.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
@@ -10740,22 +10750,22 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050624</t>
+          <t>BCIO:050623</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>coping planning</t>
+          <t>coping efficacy belief</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>&lt;Planning&gt; that involves identifying and attempting to overcome barriers to enacting a behaviour.</t>
+          <t>A &lt;belief about likelihood of consequences of a behaviour&gt; in terms of coping.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
@@ -10796,82 +10806,82 @@
       <c r="X172" s="2" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>MFOEM:000020</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>core disgust</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>&lt;Disgust&gt; elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S173" t="inlineStr"/>
-      <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr"/>
-      <c r="V173" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W173" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X173" t="inlineStr"/>
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050624</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>coping planning</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>&lt;Planning&gt; that involves identifying and attempting to overcome barriers to enacting a behaviour.</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr"/>
+      <c r="F173" s="2" t="inlineStr"/>
+      <c r="G173" s="2" t="inlineStr"/>
+      <c r="H173" s="2" t="inlineStr"/>
+      <c r="I173" s="2" t="inlineStr"/>
+      <c r="J173" s="2" t="inlineStr"/>
+      <c r="K173" s="2" t="inlineStr"/>
+      <c r="L173" s="2" t="inlineStr"/>
+      <c r="M173" s="2" t="inlineStr"/>
+      <c r="N173" s="2" t="inlineStr"/>
+      <c r="O173" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P173" s="2" t="inlineStr"/>
+      <c r="Q173" s="2" t="inlineStr"/>
+      <c r="R173" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S173" s="2" t="inlineStr"/>
+      <c r="T173" s="2" t="inlineStr"/>
+      <c r="U173" s="2" t="inlineStr"/>
+      <c r="V173" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W173" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X173" s="2" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ADDICTO:0000511</t>
+          <t>MFOEM:000020</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>craving</t>
+          <t>core disgust</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; involving a strong desire or urge.</t>
+          <t>&lt;Disgust&gt; elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
@@ -10890,11 +10900,7 @@
         </is>
       </c>
       <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr">
-        <is>
-          <t>RW: I've made the edits I suggest pending agreement from the rest of the team 23 Feb 22</t>
-        </is>
-      </c>
+      <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
@@ -10916,97 +10922,101 @@
       <c r="X174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006047</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>decision</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A &lt;mental disposition&gt; to represent one proposition as preferred from at least two. </t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="inlineStr"/>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>A conclusion or resolution reached after consideration of options.</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="inlineStr"/>
-      <c r="H175" s="2" t="inlineStr"/>
-      <c r="I175" s="2" t="inlineStr">
-        <is>
-          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
-        </is>
-      </c>
-      <c r="J175" s="2" t="inlineStr"/>
-      <c r="K175" s="2" t="inlineStr"/>
-      <c r="L175" s="2" t="inlineStr"/>
-      <c r="M175" s="2" t="inlineStr"/>
-      <c r="N175" s="2" t="inlineStr"/>
-      <c r="O175" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P175" s="2" t="inlineStr"/>
-      <c r="Q175" s="2" t="inlineStr"/>
-      <c r="R175" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S175" s="2" t="inlineStr"/>
-      <c r="T175" s="2" t="inlineStr"/>
-      <c r="U175" s="2" t="inlineStr"/>
-      <c r="V175" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W175" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X175" s="2" t="inlineStr"/>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000511</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>craving</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>A &lt;subjective affective feeling&gt; involving a strong desire or urge.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>RW: I've made the edits I suggest pending agreement from the rest of the team 23 Feb 22</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006111</t>
+          <t>BCIO:006047</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">decision simplification </t>
+          <t>decision</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive process&gt; used prior to decision-making that reduces the perceived scope or complexity of available options.</t>
+          <t xml:space="preserve">A &lt;mental disposition&gt; to represent one proposition as preferred from at least two. </t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
-      <c r="F176" s="2" t="inlineStr"/>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>A conclusion or resolution reached after consideration of options.</t>
+        </is>
+      </c>
       <c r="G176" s="2" t="inlineStr"/>
       <c r="H176" s="2" t="inlineStr"/>
-      <c r="I176" s="2" t="inlineStr"/>
+      <c r="I176" s="2" t="inlineStr">
+        <is>
+          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
+        </is>
+      </c>
       <c r="J176" s="2" t="inlineStr"/>
       <c r="K176" s="2" t="inlineStr"/>
       <c r="L176" s="2" t="inlineStr"/>
@@ -11042,33 +11052,29 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006116</t>
+          <t>BCIO:006111</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t xml:space="preserve">decision simplification </t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>&lt;Judging&gt; in which one or more propositions or behaviours are identified as preferred from a larger number.</t>
+          <t>A &lt;cognitive process&gt; used prior to decision-making that reduces the perceived scope or complexity of available options.</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr"/>
       <c r="H177" s="2" t="inlineStr"/>
-      <c r="I177" s="2" t="inlineStr">
-        <is>
-          <t>The output of decision-making is a decision.</t>
-        </is>
-      </c>
+      <c r="I177" s="2" t="inlineStr"/>
       <c r="J177" s="2" t="inlineStr"/>
       <c r="K177" s="2" t="inlineStr"/>
       <c r="L177" s="2" t="inlineStr"/>
@@ -11104,29 +11110,33 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050854</t>
+          <t>BCIO:006116</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>decisional balance process about changing behaviour</t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>&lt;Decision-making&gt; in which the person compares the pros and cons of changing a behaviour pattern.</t>
+          <t>&lt;Judging&gt; in which one or more propositions or behaviours are identified as preferred from a larger number.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr"/>
       <c r="H178" s="2" t="inlineStr"/>
-      <c r="I178" s="2" t="inlineStr"/>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>The output of decision-making is a decision.</t>
+        </is>
+      </c>
       <c r="J178" s="2" t="inlineStr"/>
       <c r="K178" s="2" t="inlineStr"/>
       <c r="L178" s="2" t="inlineStr"/>
@@ -11162,22 +11172,22 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050625</t>
+          <t>BCIO:050854</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>deductive reasoning</t>
+          <t>decisional balance process about changing behaviour</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>reflective reasoning</t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>&lt;Reflective reasoning&gt; in which general propositions are used to draw more specific conclusions.</t>
+          <t>&lt;Decision-making&gt; in which the person compares the pros and cons of changing a behaviour pattern.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
@@ -11220,22 +11230,22 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050855</t>
+          <t>BCIO:050625</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>denial belief</t>
+          <t>deductive reasoning</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>reflective reasoning</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; that a proposition is not true, not important or not relevant.</t>
+          <t>&lt;Reflective reasoning&gt; in which general propositions are used to draw more specific conclusions.</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
@@ -11278,33 +11288,29 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050856</t>
+          <t>BCIO:050855</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>denial belief about a need</t>
+          <t>denial belief</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">denial belief </t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>A &lt;denial belief&gt; that holds that the person does not have a specific bodily or psychological need in a given scenario.</t>
+          <t>A &lt;belief&gt; that a proposition is not true, not important or not relevant.</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
       <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr"/>
       <c r="H181" s="2" t="inlineStr"/>
-      <c r="I181" s="2" t="inlineStr">
-        <is>
-          <t>This can include any type of need.</t>
-        </is>
-      </c>
+      <c r="I181" s="2" t="inlineStr"/>
       <c r="J181" s="2" t="inlineStr"/>
       <c r="K181" s="2" t="inlineStr"/>
       <c r="L181" s="2" t="inlineStr"/>
@@ -11340,12 +11346,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050857</t>
+          <t>BCIO:050856</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>denial belief about a responsibility to act</t>
+          <t>denial belief about a need</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -11355,14 +11361,18 @@
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>A &lt;denial belief&gt; that holds that the person has no responsibility to act to address a problem.</t>
+          <t>A &lt;denial belief&gt; that holds that the person does not have a specific bodily or psychological need in a given scenario.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
       <c r="F182" s="2" t="inlineStr"/>
       <c r="G182" s="2" t="inlineStr"/>
       <c r="H182" s="2" t="inlineStr"/>
-      <c r="I182" s="2" t="inlineStr"/>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>This can include any type of need.</t>
+        </is>
+      </c>
       <c r="J182" s="2" t="inlineStr"/>
       <c r="K182" s="2" t="inlineStr"/>
       <c r="L182" s="2" t="inlineStr"/>
@@ -11398,12 +11408,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050858</t>
+          <t>BCIO:050857</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>denial belief about norm relevance</t>
+          <t>denial belief about a responsibility to act</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -11413,7 +11423,7 @@
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>A &lt;denial belief&gt; that holds that a norm is not relevant in a given scenario.</t>
+          <t>A &lt;denial belief&gt; that holds that the person has no responsibility to act to address a problem.</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
@@ -11456,22 +11466,22 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050626</t>
+          <t>BCIO:050858</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>depressed mood</t>
+          <t>denial belief about norm relevance</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>mood process</t>
+          <t xml:space="preserve">denial belief </t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mood process&gt; that involves generally feeling sad or blunted and experiencing low motivation to engage with activities.</t>
+          <t>A &lt;denial belief&gt; that holds that a norm is not relevant in a given scenario.</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -11514,22 +11524,22 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050627</t>
+          <t>BCIO:050626</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>depressive disposition</t>
+          <t>depressed mood</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mood process</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to experience depressed mood.</t>
+          <t>A &lt;mood process&gt; that involves generally feeling sad or blunted and experiencing low motivation to engage with activities.</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
@@ -11572,22 +11582,22 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050859</t>
+          <t>BCIO:050627</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>desired self-regulatory standard</t>
+          <t>depressive disposition</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>desired standard</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>A &lt;desired standard&gt; for a self-regulatory process that the person wishes to enact.</t>
+          <t>A &lt;mental disposition&gt; to experience depressed mood.</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
@@ -11630,33 +11640,29 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006079</t>
+          <t>BCIO:050859</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
+          <t>desired self-regulatory standard</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
           <t>desired standard</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; of a reference level that an individual wishes to obtain.</t>
+          <t>A &lt;desired standard&gt; for a self-regulatory process that the person wishes to enact.</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr"/>
       <c r="H187" s="2" t="inlineStr"/>
-      <c r="I187" s="2" t="inlineStr">
-        <is>
-          <t>Examples of 'reference level' are the level of a behaviour and the blood glucose level.</t>
-        </is>
-      </c>
+      <c r="I187" s="2" t="inlineStr"/>
       <c r="J187" s="2" t="inlineStr"/>
       <c r="K187" s="2" t="inlineStr"/>
       <c r="L187" s="2" t="inlineStr"/>
@@ -11692,29 +11698,33 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050860</t>
+          <t>BCIO:006079</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>desired standard for self-identity</t>
+          <t>desired standard</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>desired standard</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>A &lt;desired standard&gt; for a self-identity that the person wishes to attain.</t>
+          <t>A &lt;cognitive representation&gt; of a reference level that an individual wishes to obtain.</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr"/>
       <c r="H188" s="2" t="inlineStr"/>
-      <c r="I188" s="2" t="inlineStr"/>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>Examples of 'reference level' are the level of a behaviour and the blood glucose level.</t>
+        </is>
+      </c>
       <c r="J188" s="2" t="inlineStr"/>
       <c r="K188" s="2" t="inlineStr"/>
       <c r="L188" s="2" t="inlineStr"/>
@@ -11750,33 +11760,29 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050628</t>
+          <t>BCIO:050860</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>differential reinforcement</t>
+          <t>desired standard for self-identity</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>reinforcement process</t>
+          <t>desired standard</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>A &lt;reinforcement process&gt; in which the event following the behaviour only occurs in particular situations.</t>
+          <t>A &lt;desired standard&gt; for a self-identity that the person wishes to attain.</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
       <c r="G189" s="2" t="inlineStr"/>
       <c r="H189" s="2" t="inlineStr"/>
-      <c r="I189" s="2" t="inlineStr">
-        <is>
-          <t>The situations could involve the presence of a stimulus (discriminative stimulus) that signals the contingency. A discriminative stimulus signals that a behaviour will be followed by a particular reinforcer.</t>
-        </is>
-      </c>
+      <c r="I189" s="2" t="inlineStr"/>
       <c r="J189" s="2" t="inlineStr"/>
       <c r="K189" s="2" t="inlineStr"/>
       <c r="L189" s="2" t="inlineStr"/>
@@ -11812,29 +11818,33 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006121</t>
+          <t>BCIO:050628</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>discrimination learning</t>
+          <t>differential reinforcement</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>reinforcement process</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>&lt;Associative learning&gt; in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
+          <t>A &lt;reinforcement process&gt; in which the event following the behaviour only occurs in particular situations.</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
       <c r="G190" s="2" t="inlineStr"/>
       <c r="H190" s="2" t="inlineStr"/>
-      <c r="I190" s="2" t="inlineStr"/>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>The situations could involve the presence of a stimulus (discriminative stimulus) that signals the contingency. A discriminative stimulus signals that a behaviour will be followed by a particular reinforcer.</t>
+        </is>
+      </c>
       <c r="J190" s="2" t="inlineStr"/>
       <c r="K190" s="2" t="inlineStr"/>
       <c r="L190" s="2" t="inlineStr"/>
@@ -11870,33 +11880,29 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050629</t>
+          <t>BCIO:006121</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>discriminative stimulus</t>
+          <t>discrimination learning</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A &lt;stimulus&gt; that signals that a behaviour will be followed by a particular reinforcer.</t>
+          <t>&lt;Associative learning&gt; in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
       <c r="G191" s="2" t="inlineStr"/>
       <c r="H191" s="2" t="inlineStr"/>
-      <c r="I191" s="2" t="inlineStr">
-        <is>
-          <t>Specific refers to an instance or subclass of something rather than anything in the general class. Particular refers to an instance or subclass of something rather than another instance or subclass of it.</t>
-        </is>
-      </c>
+      <c r="I191" s="2" t="inlineStr"/>
       <c r="J191" s="2" t="inlineStr"/>
       <c r="K191" s="2" t="inlineStr"/>
       <c r="L191" s="2" t="inlineStr"/>
@@ -11932,29 +11938,33 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050227</t>
+          <t>BCIO:050629</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>disengagement due to workload</t>
+          <t>discriminative stimulus</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to be detached from other people due to exhaustion experienced in one's working environment.</t>
+          <t>A &lt;stimulus&gt; that signals that a behaviour will be followed by a particular reinforcer.</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
       <c r="G192" s="2" t="inlineStr"/>
       <c r="H192" s="2" t="inlineStr"/>
-      <c r="I192" s="2" t="inlineStr"/>
+      <c r="I192" s="2" t="inlineStr">
+        <is>
+          <t>Specific refers to an instance or subclass of something rather than anything in the general class. Particular refers to an instance or subclass of something rather than another instance or subclass of it.</t>
+        </is>
+      </c>
       <c r="J192" s="2" t="inlineStr"/>
       <c r="K192" s="2" t="inlineStr"/>
       <c r="L192" s="2" t="inlineStr"/>
@@ -11988,136 +11998,136 @@
       <c r="X192" s="2" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050227</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>disengagement due to workload</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;mental disposition&gt; to be detached from other people due to exhaustion experienced in one's working environment.</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr"/>
+      <c r="F193" s="2" t="inlineStr"/>
+      <c r="G193" s="2" t="inlineStr"/>
+      <c r="H193" s="2" t="inlineStr"/>
+      <c r="I193" s="2" t="inlineStr"/>
+      <c r="J193" s="2" t="inlineStr"/>
+      <c r="K193" s="2" t="inlineStr"/>
+      <c r="L193" s="2" t="inlineStr"/>
+      <c r="M193" s="2" t="inlineStr"/>
+      <c r="N193" s="2" t="inlineStr"/>
+      <c r="O193" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P193" s="2" t="inlineStr"/>
+      <c r="Q193" s="2" t="inlineStr"/>
+      <c r="R193" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S193" s="2" t="inlineStr"/>
+      <c r="T193" s="2" t="inlineStr"/>
+      <c r="U193" s="2" t="inlineStr"/>
+      <c r="V193" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W193" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X193" s="2" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000019 </t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>disgust</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr">
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S193" t="inlineStr"/>
-      <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
-      <c r="W193" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050630</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>disposition to attend to one’s goals</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>attentional disposition</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;attentional disposition&gt; to attend to one's goals.</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr"/>
-      <c r="F194" s="2" t="inlineStr"/>
-      <c r="G194" s="2" t="inlineStr"/>
-      <c r="H194" s="2" t="inlineStr"/>
-      <c r="I194" s="2" t="inlineStr"/>
-      <c r="J194" s="2" t="inlineStr"/>
-      <c r="K194" s="2" t="inlineStr"/>
-      <c r="L194" s="2" t="inlineStr"/>
-      <c r="M194" s="2" t="inlineStr"/>
-      <c r="N194" s="2" t="inlineStr"/>
-      <c r="O194" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P194" s="2" t="inlineStr"/>
-      <c r="Q194" s="2" t="inlineStr"/>
-      <c r="R194" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S194" s="2" t="inlineStr"/>
-      <c r="T194" s="2" t="inlineStr"/>
-      <c r="U194" s="2" t="inlineStr"/>
-      <c r="V194" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W194" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X194" s="2" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006113</t>
+          <t>BCIO:050630</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction process</t>
+          <t>disposition to attend to one’s goals</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>attentional disposition</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
+          <t>An &lt;attentional disposition&gt; to attend to one's goals.</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -12160,22 +12170,22 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050631</t>
+          <t>BCIO:006113</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction process for a behaviour</t>
+          <t>dissonance reduction process</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>A &lt;dissonance reduction process&gt; in which the perceived discrepancy is between the person’s perceived behaviour and a target behaviour</t>
+          <t>A &lt;bodily process&gt; through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -12218,12 +12228,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050632</t>
+          <t>BCIO:050631</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through behavior</t>
+          <t>dissonance reduction process for a behaviour</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -12233,7 +12243,7 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction process&gt; that involves behaviour to reduce the inconsistency of two concurrently held conditions.</t>
+          <t>A &lt;dissonance reduction process&gt; in which the perceived discrepancy is between the person’s perceived behaviour and a target behaviour</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -12276,12 +12286,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050633</t>
+          <t>BCIO:050632</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through mental process</t>
+          <t>dissonance reduction through behavior</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -12291,7 +12301,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction process&gt; that involves mental processes to reduce the inconsistency of two concurrently held conditions.</t>
+          <t>&lt;Dissonance reduction process&gt; that involves behaviour to reduce the inconsistency of two concurrently held conditions.</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -12334,22 +12344,22 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050634</t>
+          <t>BCIO:050633</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>drive process</t>
+          <t>dissonance reduction through mental process</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>dissonance reduction process</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural motivation&gt; that results from a physiological need.</t>
+          <t>&lt;Dissonance reduction process&gt; that involves mental processes to reduce the inconsistency of two concurrently held conditions.</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -12392,22 +12402,22 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050635</t>
+          <t>BCIO:050634</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic environmental system </t>
+          <t>drive process</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social environmental system&gt; of production, resource allocation and distribution of goods and services within a society or a given geographic area.</t>
+          <t>A &lt;behavioural motivation&gt; that results from a physiological need.</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr"/>
@@ -12433,11 +12443,7 @@
         </is>
       </c>
       <c r="S200" s="2" t="inlineStr"/>
-      <c r="T200" s="2" t="inlineStr">
-        <is>
-          <t>economic system (GSSO:003812)</t>
-        </is>
-      </c>
+      <c r="T200" s="2" t="inlineStr"/>
       <c r="U200" s="2" t="inlineStr"/>
       <c r="V200" s="2" t="inlineStr">
         <is>
@@ -12452,140 +12458,144 @@
       <c r="X200" s="2" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050635</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">economic environmental system </t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;social environmental system&gt; of production, resource allocation and distribution of goods and services within a society or a given geographic area.</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr"/>
+      <c r="F201" s="2" t="inlineStr"/>
+      <c r="G201" s="2" t="inlineStr"/>
+      <c r="H201" s="2" t="inlineStr"/>
+      <c r="I201" s="2" t="inlineStr"/>
+      <c r="J201" s="2" t="inlineStr"/>
+      <c r="K201" s="2" t="inlineStr"/>
+      <c r="L201" s="2" t="inlineStr"/>
+      <c r="M201" s="2" t="inlineStr"/>
+      <c r="N201" s="2" t="inlineStr"/>
+      <c r="O201" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P201" s="2" t="inlineStr"/>
+      <c r="Q201" s="2" t="inlineStr"/>
+      <c r="R201" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S201" s="2" t="inlineStr"/>
+      <c r="T201" s="2" t="inlineStr">
+        <is>
+          <t>economic system (GSSO:003812)</t>
+        </is>
+      </c>
+      <c r="U201" s="2" t="inlineStr"/>
+      <c r="V201" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W201" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X201" s="2" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>ENVO:01001110</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>ecosystem</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>An &lt;environmental system&gt; which includes both living and non-living components.</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
-      <c r="O201" t="inlineStr">
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S201" t="inlineStr"/>
-      <c r="T201" t="inlineStr"/>
-      <c r="U201" t="inlineStr"/>
-      <c r="V201" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W201" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050861</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>efficacy belief for a behaviour and its associated outcomes</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A &lt;belief&gt; about some person’s capability to organise and execute a behaviour and achieve the outcomes associated with this behaviour. </t>
-        </is>
-      </c>
-      <c r="E202" s="2" t="inlineStr"/>
-      <c r="F202" s="2" t="inlineStr"/>
-      <c r="G202" s="2" t="inlineStr"/>
-      <c r="H202" s="2" t="inlineStr"/>
-      <c r="I202" s="2" t="inlineStr"/>
-      <c r="J202" s="2" t="inlineStr"/>
-      <c r="K202" s="2" t="inlineStr"/>
-      <c r="L202" s="2" t="inlineStr"/>
-      <c r="M202" s="2" t="inlineStr"/>
-      <c r="N202" s="2" t="inlineStr"/>
-      <c r="O202" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P202" s="2" t="inlineStr"/>
-      <c r="Q202" s="2" t="inlineStr"/>
-      <c r="R202" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S202" s="2" t="inlineStr"/>
-      <c r="T202" s="2" t="inlineStr"/>
-      <c r="U202" s="2" t="inlineStr"/>
-      <c r="V202" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W202" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X202" s="2" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050636</t>
+          <t>BCIO:050861</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>egoistic personal health value</t>
+          <t>efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>egoistic personal value</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>An &lt;egoistic personal value&gt; that involves regarding health as fundamentally important in life.</t>
+          <t xml:space="preserve">A &lt;belief&gt; about some person’s capability to organise and execute a behaviour and achieve the outcomes associated with this behaviour. </t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
@@ -12628,22 +12638,22 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050637</t>
+          <t>BCIO:050636</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
+          <t>egoistic personal health value</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
           <t>egoistic personal value</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>personal value</t>
-        </is>
-      </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal value&gt; that involves regarding self-interest as fundamentally important in life.</t>
+          <t>An &lt;egoistic personal value&gt; that involves regarding health as fundamentally important in life.</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
@@ -12686,22 +12696,22 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050638</t>
+          <t>BCIO:050637</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>emotion about self</t>
+          <t>egoistic personal value</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotion process&gt; that is about oneself.</t>
+          <t>A &lt;personal value&gt; that involves regarding self-interest as fundamentally important in life.</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
@@ -12742,105 +12752,93 @@
       <c r="X205" s="2" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050638</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>emotion about self</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;emotion process&gt; that is about oneself.</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="inlineStr"/>
+      <c r="F206" s="2" t="inlineStr"/>
+      <c r="G206" s="2" t="inlineStr"/>
+      <c r="H206" s="2" t="inlineStr"/>
+      <c r="I206" s="2" t="inlineStr"/>
+      <c r="J206" s="2" t="inlineStr"/>
+      <c r="K206" s="2" t="inlineStr"/>
+      <c r="L206" s="2" t="inlineStr"/>
+      <c r="M206" s="2" t="inlineStr"/>
+      <c r="N206" s="2" t="inlineStr"/>
+      <c r="O206" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P206" s="2" t="inlineStr"/>
+      <c r="Q206" s="2" t="inlineStr"/>
+      <c r="R206" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S206" s="2" t="inlineStr"/>
+      <c r="T206" s="2" t="inlineStr"/>
+      <c r="U206" s="2" t="inlineStr"/>
+      <c r="V206" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W206" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X206" s="2" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000001 </t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>An &lt;affective process&gt; that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr">
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
         <is>
           <t>There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal process does not necessarily precede a physiological process part of the emotion process). 
 Emotion processes are distinguished from other affective processes (e.g., mood) by having an object. Even if an emotion is experienced due to physiological reasons, they would be felt as being about something or someone. For instance, a person might be angry at a situation that they would normally not be angry at, because they are hungry. However, that person would still be angry at a specific situation. 
 Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S206" t="inlineStr"/>
-      <c r="T206" t="inlineStr"/>
-      <c r="U206" t="inlineStr"/>
-      <c r="V206" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W206" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>MFOEM:000007</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>emotional action tendency</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>A &lt;bodily disposition&gt; to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>A tendency to enact a behaviour that is experienced during or after an emotion.</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Flight and fight action tendencies</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
         </is>
       </c>
       <c r="J207" t="inlineStr"/>
@@ -12865,106 +12863,114 @@
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>MFOEM:000007</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>emotional action tendency</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>A &lt;bodily disposition&gt; to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>A tendency to enact a behaviour that is experienced during or after an emotion.</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Flight and fight action tendencies</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr">
+        <is>
           <t>PS; BG</t>
         </is>
       </c>
-      <c r="W207" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050639</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>emotional opportunity</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;environmental disposition&gt; that is realised as some emotion process.</t>
-        </is>
-      </c>
-      <c r="E208" s="2" t="inlineStr"/>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>A feature of a person’s environment that tends to lead to their experiencing an emotion.</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="inlineStr"/>
-      <c r="H208" s="2" t="inlineStr"/>
-      <c r="I208" s="2" t="inlineStr"/>
-      <c r="J208" s="2" t="inlineStr"/>
-      <c r="K208" s="2" t="inlineStr"/>
-      <c r="L208" s="2" t="inlineStr"/>
-      <c r="M208" s="2" t="inlineStr"/>
-      <c r="N208" s="2" t="inlineStr"/>
-      <c r="O208" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P208" s="2" t="inlineStr"/>
-      <c r="Q208" s="2" t="inlineStr"/>
-      <c r="R208" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S208" s="2" t="inlineStr"/>
-      <c r="T208" s="2" t="inlineStr"/>
-      <c r="U208" s="2" t="inlineStr"/>
-      <c r="V208" s="2" t="inlineStr">
-        <is>
-          <t>PS; BG</t>
-        </is>
-      </c>
-      <c r="W208" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X208" s="2" t="inlineStr"/>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006008</t>
+          <t>BCIO:050639</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>emotional self-regulation capability</t>
+          <t>emotional opportunity</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation capability&gt; to modulate one's emotional responses to a stimulus.</t>
+          <t>An &lt;environmental disposition&gt; that is realised as some emotion process.</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
-      <c r="F209" s="2" t="inlineStr"/>
-      <c r="G209" s="2" t="inlineStr">
-        <is>
-          <t>emotional regulation capability</t>
-        </is>
-      </c>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>A feature of a person’s environment that tends to lead to their experiencing an emotion.</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="inlineStr"/>
       <c r="H209" s="2" t="inlineStr"/>
       <c r="I209" s="2" t="inlineStr"/>
       <c r="J209" s="2" t="inlineStr"/>
@@ -12989,7 +12995,7 @@
       <c r="U209" s="2" t="inlineStr"/>
       <c r="V209" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W209" s="2" t="inlineStr">
@@ -13000,72 +13006,66 @@
       <c r="X209" s="2" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>MFOEM:000005</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>emotional-relevance appraisal</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>A &lt;cognitive representation&gt; of the emotional relevance of an object or event to the organism.</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>An evaluation of a phenomenon or event's relevance and significance to oneself.</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>Appraisals are a part of emotion processes, representing how a triggering stimulus is relevant to oneself. Appraisal captures the ‘aboutness’ of an emotion process.
-For instance, a stimulus (the image of a tiger) can produce different emotion processes depending on how the relevance of this stimulus is evaluated. The image of a tiger on TV would not be evaluated as dangerous. However, the image of a tiger two meters away from a person would be relevant to a person in terms of its dangerousness. Therefore, the appraisal of the dangerousness of the tiger would be part of the emotion process 'fear'.
-There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal does not necessarily precede a physiological process part of the emotion process).</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S210" t="inlineStr"/>
-      <c r="T210" t="inlineStr"/>
-      <c r="U210" t="inlineStr"/>
-      <c r="V210" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W210" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X210" t="inlineStr"/>
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006008</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>emotional self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;self-regulation capability&gt; to modulate one's emotional responses to a stimulus.</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr"/>
+      <c r="F210" s="2" t="inlineStr"/>
+      <c r="G210" s="2" t="inlineStr">
+        <is>
+          <t>emotional regulation capability</t>
+        </is>
+      </c>
+      <c r="H210" s="2" t="inlineStr"/>
+      <c r="I210" s="2" t="inlineStr"/>
+      <c r="J210" s="2" t="inlineStr"/>
+      <c r="K210" s="2" t="inlineStr"/>
+      <c r="L210" s="2" t="inlineStr"/>
+      <c r="M210" s="2" t="inlineStr"/>
+      <c r="N210" s="2" t="inlineStr"/>
+      <c r="O210" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P210" s="2" t="inlineStr"/>
+      <c r="Q210" s="2" t="inlineStr"/>
+      <c r="R210" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S210" s="2" t="inlineStr"/>
+      <c r="T210" s="2" t="inlineStr"/>
+      <c r="U210" s="2" t="inlineStr"/>
+      <c r="V210" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W210" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X210" s="2" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -2417,91 +2417,91 @@
       <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050567</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>appreciation by others</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;environmental disposition&gt; for a person to be valued by others.</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr"/>
-      <c r="R33" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S33" s="2" t="inlineStr"/>
-      <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X33" s="2" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MFOEM:000002</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>appraisal process</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>A &lt;mental process&gt; that gives rise to an appraisal.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Evaluating something's relevance to oneself.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006300</t>
+          <t>BCIO:050567</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>approval-based motivation</t>
+          <t>appreciation by others</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>need-based motivation</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;need-based motivation&gt; related to gaining or maintaining social approval or a positive self-evaluation. </t>
+          <t>An &lt;environmental disposition&gt; for a person to be valued by others.</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>introjected motivation; introjected regulation</t>
-        </is>
-      </c>
+      <c r="G34" s="2" t="inlineStr"/>
       <c r="H34" s="2" t="inlineStr"/>
       <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr"/>
@@ -2537,151 +2537,151 @@
       <c r="X34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006300</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>approval-based motivation</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>need-based motivation</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A &lt;need-based motivation&gt; related to gaining or maintaining social approval or a positive self-evaluation. </t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>introjected motivation; introjected regulation</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr"/>
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>MF:0000012</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>arousal</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>A &lt;mental process&gt; that involves heightened responding to an internal or external stimulus.</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050568</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">assertiveness skill </t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>communication skill</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;communication skill&gt; that is realised as the person expressing their views, needs or feelings whilst respecting those of others with whom they are communicating.</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="inlineStr"/>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X36" s="2" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050569</t>
+          <t>BCIO:050568</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>assigned goal</t>
+          <t xml:space="preserve">assertiveness skill </t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>communication skill</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal&gt; that has been set by another person.</t>
+          <t>A &lt;communication skill&gt; that is realised as the person expressing their views, needs or feelings whilst respecting those of others with whom they are communicating.</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>This class refers to goals that a person may or may not accept for themselves.</t>
-        </is>
-      </c>
+      <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr"/>
@@ -2717,22 +2717,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006119</t>
+          <t>BCIO:050569</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>assigned goal</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>&lt;Learning&gt; that involves changing the strength of association between two or more mental processes.</t>
+          <t>A &lt;goal&gt; that has been set by another person.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
@@ -2741,8 +2741,7 @@
       <c r="H38" s="2" t="inlineStr"/>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>While associative learning is often defined as learning an association between a stimulus and response, the stimulus has to be perceived. Therefore, associative learning is between perceiving or processing information about a stimulus (a mental process) and one or more other mental processes.
-The label 'associative learning' is also used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Present a neutral stimulus jointly with a stimulus that already elicits the behavior repeatedly until the neutral stimulus elicits that behavior.' As indicated by the definition, the BCT is the deliberate presentation of a stimulus, whereas the MoA is a learning process that occurs in the brain.</t>
+          <t>This class refers to goals that a person may or may not accept for themselves.</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
@@ -2780,29 +2779,34 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006126</t>
+          <t>BCIO:006119</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>associative memory</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>memory process</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding a set of entities associated with a particular object or event.</t>
+          <t>&lt;Learning&gt; that involves changing the strength of association between two or more mental processes.</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr"/>
       <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>While associative learning is often defined as learning an association between a stimulus and response, the stimulus has to be perceived. Therefore, associative learning is between perceiving or processing information about a stimulus (a mental process) and one or more other mental processes.
+The label 'associative learning' is also used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Present a neutral stimulus jointly with a stimulus that already elicits the behavior repeatedly until the neutral stimulus elicits that behavior.' As indicated by the definition, the BCT is the deliberate presentation of a stimulus, whereas the MoA is a learning process that occurs in the brain.</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr"/>
@@ -2836,134 +2840,134 @@
       <c r="X39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006126</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>associative memory</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>memory process</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding a set of entities associated with a particular object or event.</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr"/>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr"/>
+      <c r="T40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>MF:0000018</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>attending</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t xml:space="preserve">A &lt;mental process&gt; whereby relevant aspects of one's mental experience are focused on specific targets. </t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>attention</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050570</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>attending to a goal</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>&lt;Attending&gt; where the target of attention is a goal.</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr"/>
-      <c r="R41" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S41" s="2" t="inlineStr"/>
-      <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X41" s="2" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050571</t>
+          <t>BCIO:050570</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>attending to a social norm</t>
+          <t>attending to a goal</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2973,18 +2977,14 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>&lt;Attending&gt; in which the target of the attention is a social norm.</t>
+          <t>&lt;Attending&gt; where the target of attention is a goal.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>This class may be used to refer to any type of norm.</t>
-        </is>
-      </c>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr"/>
@@ -3020,29 +3020,33 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050572</t>
+          <t>BCIO:050571</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>attentional disposition</t>
+          <t>attending to a social norm</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is realised by focusing one's attention on events, objects, sensory patterns or cognitive representations.</t>
+          <t>&lt;Attending&gt; in which the target of the attention is a social norm.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>This class may be used to refer to any type of norm.</t>
+        </is>
+      </c>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr"/>
@@ -3078,22 +3082,22 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050214</t>
+          <t>BCIO:050572</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>attentional self-regulation capability</t>
+          <t>attentional disposition</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation capability&gt; to modulate one’s attention toward internal or external stimuli.</t>
+          <t>A &lt;mental disposition&gt; that is realised by focusing one's attention on events, objects, sensory patterns or cognitive representations.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
@@ -3136,37 +3140,29 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050328</t>
+          <t>BCIO:050214</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>attentional self-regulation capability</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is an affective attitude or an evaluative belief about something.</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>"affective attitude" OR "evaluative belief"</t>
-        </is>
-      </c>
+          <t>A &lt;self-regulation capability&gt; to modulate one’s attention toward internal or external stimuli.</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr"/>
       <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>The class “attitude” is logically defined as an “effective attitude” or “evaluative belief”, as the term “attitude” can be used to refer to either class.</t>
-        </is>
-      </c>
+      <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr"/>
@@ -3202,42 +3198,42 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050329</t>
+          <t>BCIO:050328</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>attitude towards a behaviour</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>An &lt;attitude&gt; in which the entity that is the attitude object is a behaviour.</t>
+          <t>A &lt;mental disposition&gt; that is an affective attitude or an evaluative belief about something.</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>"affective attitude towards a behaviour" OR "evaluative belief about a behaviour"</t>
+          <t>"affective attitude" OR "evaluative belief"</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>The class “attitude” is logically defined as an “effective attitude” or “evaluative belief”, as the term “attitude” can be used to refer to either class.</t>
+        </is>
+      </c>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr"/>
       <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr">
-        <is>
-          <t>The class “attitude towards a behaviour” is logically defined as an “affective attitude towards a behaviour” or “evaluative belief about a behaviour”, as the term “attitude towards a behaviour” can be used to refer to either class.</t>
-        </is>
-      </c>
+      <c r="N46" s="2" t="inlineStr"/>
       <c r="O46" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -3268,25 +3264,29 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006134</t>
+          <t>BCIO:050329</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>automatic behavioural motivation</t>
+          <t>attitude towards a behaviour</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>&lt;Behavioural motivation&gt; that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr"/>
+          <t>An &lt;attitude&gt; in which the entity that is the attitude object is a behaviour.</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>"affective attitude towards a behaviour" OR "evaluative belief about a behaviour"</t>
+        </is>
+      </c>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="inlineStr"/>
@@ -3295,7 +3295,11 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr"/>
       <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>The class “attitude towards a behaviour” is logically defined as an “affective attitude towards a behaviour” or “evaluative belief about a behaviour”, as the term “attitude towards a behaviour” can be used to refer to either class.</t>
+        </is>
+      </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -3313,7 +3317,7 @@
       <c r="U47" s="2" t="inlineStr"/>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>PS; LZ</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
@@ -3326,12 +3330,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006302</t>
+          <t>BCIO:006134</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>automatic behavioural motivation</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -3341,7 +3345,7 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>&lt;Behavioural motivation&gt; that is internally generated and based on a behaviour being interesting or valuable to an individual.</t>
+          <t>&lt;Behavioural motivation&gt; that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
@@ -3371,7 +3375,7 @@
       <c r="U48" s="2" t="inlineStr"/>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; LZ</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
@@ -3384,22 +3388,22 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006161</t>
+          <t>BCIO:006302</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>avoidance mental process</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;mental process&gt; that reduces the frequency by which an aversive cognitive representation is evoked. </t>
+          <t>&lt;Behavioural motivation&gt; that is internally generated and based on a behaviour being interesting or valuable to an individual.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
@@ -3442,33 +3446,29 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006015</t>
+          <t>BCIO:006161</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>avoidance mental process</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is realized by experiencing events, objects, sensory patterns or cognitive representations.</t>
+          <t xml:space="preserve">A &lt;mental process&gt; that reduces the frequency by which an aversive cognitive representation is evoked. </t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr"/>
       <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>The events attended to can include internal and external events.</t>
-        </is>
-      </c>
+      <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr"/>
@@ -3504,29 +3504,33 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050573</t>
+          <t>BCIO:006015</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>awareness of others’ need</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>An &lt;awareness&gt; of a lack of resource available to another person or people relative to what they need or want.</t>
+          <t>A &lt;mental disposition&gt; that is realized by experiencing events, objects, sensory patterns or cognitive representations.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>The events attended to can include internal and external events.</t>
+        </is>
+      </c>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr"/>
@@ -3562,22 +3566,22 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050574</t>
+          <t>BCIO:050573</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>background goal</t>
+          <t>awareness of others’ need</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal&gt; that is not currently being pursued.</t>
+          <t>An &lt;awareness&gt; of a lack of resource available to another person or people relative to what they need or want.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
@@ -3620,33 +3624,29 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050576</t>
+          <t>BCIO:050574</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>behaviour maintenance self-efficacy</t>
+          <t>background goal</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief for a behaviour&gt; that continues a behaviour pattern.</t>
+          <t>A &lt;goal&gt; that is not currently being pursued.</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr">
-        <is>
-          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
-        </is>
-      </c>
+      <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr"/>
@@ -3682,35 +3682,31 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050577</t>
+          <t>BCIO:050576</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>behavioural barrier</t>
+          <t>behaviour maintenance self-efficacy</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>A &lt;disposition&gt; that includes low capability, opportunity and motivation to enact a behaviour.</t>
+          <t>A &lt;self-efficacy belief for a behaviour&gt; that continues a behaviour pattern.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>‘low capability to enact a behaviour’ OR ‘low opportunity to enact a behaviour’ OR ‘motivational disposition not to enact a behaviour’</t>
-        </is>
-      </c>
+      <c r="G54" s="2" t="inlineStr"/>
       <c r="H54" s="2" t="inlineStr"/>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>The entity "behavioural barrier" should only be applied when a behavioural barrier is underspecified or includes a combination of capability, opportunity and/or motivational disposition. If a specific capability, opportunity or motivational disposition acts as a barrier to a behaviour, then the more specific entities should be refered to.</t>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr"/>
@@ -3748,33 +3744,37 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050215</t>
+          <t>BCIO:050577</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behavioural barrier</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal capability&gt; that includes behaviours in its realisation.</t>
+          <t>A &lt;disposition&gt; that includes low capability, opportunity and motivation to enact a behaviour.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A person’s characteristics that are needed for a behaviour or to facilitate it. </t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>‘low capability to enact a behaviour’ OR ‘low opportunity to enact a behaviour’ OR ‘motivational disposition not to enact a behaviour’</t>
+        </is>
+      </c>
       <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>The entity "behavioural barrier" should only be applied when a behavioural barrier is underspecified or includes a combination of capability, opportunity and/or motivational disposition. If a specific capability, opportunity or motivational disposition acts as a barrier to a behaviour, then the more specific entities should be refered to.</t>
+        </is>
+      </c>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr"/>
@@ -3810,26 +3810,30 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050845</t>
+          <t>BCIO:050215</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence appraisal process</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal process&gt; that results in an appraisal of the consequence of some behaviour.</t>
+          <t>A &lt;personal capability&gt; that includes behaviours in its realisation.</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A person’s characteristics that are needed for a behaviour or to facilitate it. </t>
+        </is>
+      </c>
       <c r="G56" s="2" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
@@ -3868,33 +3872,29 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050578</t>
+          <t>BCIO:050845</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>behavioural cue</t>
+          <t>behavioural consequence appraisal process</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>A &lt;stimulus&gt; that prompts a behaviour or a behaviour pattern.</t>
+          <t>An &lt;emotional-relevance appraisal process&gt; that results in an appraisal of the consequence of some behaviour.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t>Find more specific internal stimulus classes under 'bodily behavioural cue'.</t>
-        </is>
-      </c>
+      <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr"/>
@@ -3930,29 +3930,33 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006048</t>
+          <t>BCIO:050578</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>behavioural decision</t>
+          <t>behavioural cue</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>A &lt;decision&gt; that one behaviour is preferred from at least two behavioural options.</t>
+          <t>A &lt;stimulus&gt; that prompts a behaviour or a behaviour pattern.</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>Find more specific internal stimulus classes under 'bodily behavioural cue'.</t>
+        </is>
+      </c>
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr"/>
@@ -3988,30 +3992,26 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
+          <t>BCIO:006048</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>behavioural disposition</t>
+          <t>behavioural decision</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>decision</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; that is realised as some behaviour.</t>
+          <t>A &lt;decision&gt; that one behaviour is preferred from at least two behavioural options.</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>A tendency to behave in a particular way.</t>
-        </is>
-      </c>
+      <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
@@ -4050,26 +4050,30 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050579</t>
+          <t>BCIO:050416</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>behavioural dissonance reduction through behaviour</t>
+          <t>behavioural disposition</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through behavior</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction through behaviour&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
+          <t>A &lt;bodily disposition&gt; that is realised as some behaviour.</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
+        </is>
+      </c>
       <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
@@ -4108,22 +4112,22 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050580</t>
+          <t>BCIO:050579</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>behavioural dissonance reduction through mental process</t>
+          <t>behavioural dissonance reduction through behaviour</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through mental process</t>
+          <t>dissonance reduction through behavior</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction through mental process&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
+          <t>&lt;Dissonance reduction through behaviour&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
@@ -4166,31 +4170,27 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050581</t>
+          <t>BCIO:050580</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>behavioural enabler</t>
+          <t>behavioural dissonance reduction through mental process</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>dissonance reduction through mental process</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>A &lt;disposition&gt; to have opportunity, motivation and capability or enact a behaviour.</t>
+          <t>&lt;Dissonance reduction through mental process&gt; where the cause of the dissonance involves cognitions about behaviour.</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>‘behavioural capability’ OR ‘behavioural opportunity’ OR ‘behavioural motivation disposition’</t>
-        </is>
-      </c>
+      <c r="G62" s="2" t="inlineStr"/>
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
@@ -4228,29 +4228,29 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006304</t>
+          <t>BCIO:050581</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">behavioural importance-based motivation </t>
+          <t>behavioural enabler</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>&lt;Autonomous motivation&gt; due to the perceived value or importance of the behaviour to oneself.</t>
+          <t>A &lt;disposition&gt; to have opportunity, motivation and capability or enact a behaviour.</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>identified motivation; identified regulation</t>
+          <t>‘behavioural capability’ OR ‘behavioural opportunity’ OR ‘behavioural motivation disposition’</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -4290,27 +4290,31 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050582</t>
+          <t>BCIO:006304</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>behavioural inhibition</t>
+          <t xml:space="preserve">behavioural importance-based motivation </t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that counters a behavioural impulse.</t>
+          <t>&lt;Autonomous motivation&gt; due to the perceived value or importance of the behaviour to oneself.</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>identified motivation; identified regulation</t>
+        </is>
+      </c>
       <c r="H64" s="2" t="inlineStr"/>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
@@ -4348,33 +4352,29 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006016</t>
+          <t>BCIO:050582</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>behavioural intention</t>
+          <t>behavioural inhibition</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to commit to enact or not enact a behaviour.</t>
+          <t>A &lt;mental process&gt; that counters a behavioural impulse.</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans. </t>
-        </is>
-      </c>
+      <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr"/>
@@ -4410,33 +4410,33 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:006016</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>behavioural intention</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that energises and directs a behaviour.</t>
+          <t>A &lt;mental disposition&gt; to commit to enact or not enact a behaviour.</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>Thoughts, feelings, impulses and inhibitory processes that energise and direct a behaviour.</t>
-        </is>
-      </c>
+      <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans. </t>
+        </is>
+      </c>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr"/>
@@ -4472,39 +4472,33 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006086</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>An &lt;environmental disposition&gt; that is required for or facilitates a behaviour.</t>
+          <t>A &lt;mental process&gt; that energises and directs a behaviour.</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>Characteristics of a person's environment that are needed for a behaviour or to facilitate it.</t>
+          <t>Thoughts, feelings, impulses and inhibitory processes that energise and direct a behaviour.</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr"/>
       <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr">
-        <is>
-          <t>The phrase ‘required for’ is used in the definition to specify that 'behavioural opportunity' is a necessary condition for behaviour to occur. Although other MoAs will help bring behaviour about, there has to be a 'behavioural opportunity' for behaviour to occur.
-The term 'facilitates' is used to specify that 'behavioural opportunity' will make the behaviour easier. Higher behavioural opportunity will increase the likelihood of behaviour across situations and people.
-The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'behavioural opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).</t>
-        </is>
-      </c>
+      <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr"/>
@@ -4540,29 +4534,39 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050583</t>
+          <t>BCIO:006086</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity through information</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural opportunity&gt; that is realised by the provision of accurate information.</t>
+          <t>An &lt;environmental disposition&gt; that is required for or facilitates a behaviour.</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>Characteristics of a person's environment that are needed for a behaviour or to facilitate it.</t>
+        </is>
+      </c>
       <c r="G68" s="2" t="inlineStr"/>
       <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>The phrase ‘required for’ is used in the definition to specify that 'behavioural opportunity' is a necessary condition for behaviour to occur. Although other MoAs will help bring behaviour about, there has to be a 'behavioural opportunity' for behaviour to occur.
+The term 'facilitates' is used to specify that 'behavioural opportunity' will make the behaviour easier. Higher behavioural opportunity will increase the likelihood of behaviour across situations and people.
+The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'behavioural opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).</t>
+        </is>
+      </c>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr"/>
@@ -4598,22 +4602,22 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050584</t>
+          <t>BCIO:050583</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>behavioural recovery self-efficacy</t>
+          <t>behavioural opportunity through information</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-efficacy belief for a behaviour&gt; following a lapse in that behaviour</t>
+          <t>A &lt;behavioural opportunity&gt; that is realised by the provision of accurate information.</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
@@ -4656,31 +4660,27 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006006</t>
+          <t>BCIO:050584</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>behavioural self-regulation capability</t>
+          <t>behavioural recovery self-efficacy</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's behaviour. </t>
+          <t>A &lt;self-efficacy belief for a behaviour&gt; following a lapse in that behaviour</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>behavioural regulation capability</t>
-        </is>
-      </c>
+      <c r="G70" s="2" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
@@ -4718,37 +4718,33 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006104</t>
+          <t>BCIO:006006</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>behavioural self-regulation of behaviour</t>
+          <t>behavioural self-regulation capability</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>&lt;Self-regulation of behaviour&gt; through the performance of a different behaviour.</t>
+          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's behaviour. </t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour undertaken to modulate the frequency, rate or extent of a different behaviour, the specific actions or reactions of a person in response to external or internal stimuli, and that is instigated by the person.</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>behavioural regulation capability</t>
+        </is>
+      </c>
       <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>Behavioural self-regulation of behaviour can be an MoA or outcome depending on how 'behavioural self-regulation of behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets behavioural self-regulation of behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
-        </is>
-      </c>
+      <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr"/>
@@ -4784,29 +4780,37 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050846</t>
+          <t>BCIO:006104</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>behavioural substitution</t>
+          <t>behavioural self-regulation of behaviour</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+          <t>&lt;Self-regulation of behaviour&gt; through the performance of a different behaviour.</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour undertaken to modulate the frequency, rate or extent of a different behaviour, the specific actions or reactions of a person in response to external or internal stimuli, and that is instigated by the person.</t>
+        </is>
+      </c>
       <c r="G72" s="2" t="inlineStr"/>
       <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>Behavioural self-regulation of behaviour can be an MoA or outcome depending on how 'behavioural self-regulation of behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets behavioural self-regulation of behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr"/>
@@ -4840,155 +4844,151 @@
       <c r="X72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050846</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>behavioural substitution</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr"/>
+      <c r="H73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr"/>
+      <c r="J73" s="2" t="inlineStr"/>
+      <c r="K73" s="2" t="inlineStr"/>
+      <c r="L73" s="2" t="inlineStr"/>
+      <c r="M73" s="2" t="inlineStr"/>
+      <c r="N73" s="2" t="inlineStr"/>
+      <c r="O73" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P73" s="2" t="inlineStr"/>
+      <c r="Q73" s="2" t="inlineStr"/>
+      <c r="R73" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S73" s="2" t="inlineStr"/>
+      <c r="T73" s="2" t="inlineStr"/>
+      <c r="U73" s="2" t="inlineStr"/>
+      <c r="V73" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W73" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X73" s="2" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>MF:0000041</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>A &lt;mental disposition&gt; to represent a proposition to be true.</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
         <is>
           <t>Conviction about something being true.</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr">
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050585</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>belief about a behaviour meeting a need</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief about the consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;evaluative belief about the consequences of behaviour&gt; reducing a need in some person.</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr"/>
-      <c r="G74" s="2" t="inlineStr"/>
-      <c r="H74" s="2" t="inlineStr"/>
-      <c r="I74" s="2" t="inlineStr"/>
-      <c r="J74" s="2" t="inlineStr"/>
-      <c r="K74" s="2" t="inlineStr"/>
-      <c r="L74" s="2" t="inlineStr"/>
-      <c r="M74" s="2" t="inlineStr"/>
-      <c r="N74" s="2" t="inlineStr"/>
-      <c r="O74" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P74" s="2" t="inlineStr"/>
-      <c r="Q74" s="2" t="inlineStr"/>
-      <c r="R74" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S74" s="2" t="inlineStr"/>
-      <c r="T74" s="2" t="inlineStr"/>
-      <c r="U74" s="2" t="inlineStr"/>
-      <c r="V74" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W74" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X74" s="2" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050586</t>
+          <t>BCIO:050585</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>belief about a behavioural rule</t>
+          <t>belief about a behaviour meeting a need</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>evaluative belief about the consequences of behaviour</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about whether there is a social rule that a behaviour must or must not occur in a given situation.</t>
+          <t>An &lt;evaluative belief about the consequences of behaviour&gt; reducing a need in some person.</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr"/>
       <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr">
-        <is>
-          <t>The 'social rules' referred to in the definition include laws.</t>
-        </is>
-      </c>
+      <c r="I75" s="2" t="inlineStr"/>
       <c r="J75" s="2" t="inlineStr"/>
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr"/>
@@ -5024,22 +5024,22 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006140</t>
+          <t>BCIO:050586</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>belief about anticipated emotion</t>
+          <t>belief about a behavioural rule</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the potential emotions experienced as result of an event.</t>
+          <t>A &lt;belief&gt; about whether there is a social rule that a behaviour must or must not occur in a given situation.</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
@@ -5048,7 +5048,7 @@
       <c r="H76" s="2" t="inlineStr"/>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>'Belief about anticipated emotions' is about the consequences of anything, not just behaviour. In contrast, the class 'belief about emotional consequences of behaviour' is about the emotions resulting from behaviours.</t>
+          <t>The 'social rules' referred to in the definition include laws.</t>
         </is>
       </c>
       <c r="J76" s="2" t="inlineStr"/>
@@ -5086,29 +5086,33 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050216</t>
+          <t>BCIO:006140</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>belief about anticipated regret</t>
+          <t>belief about anticipated emotion</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>belief about anticipated emotion</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about anticipated emotion&gt; in terms of the potential regret experienced as a result of an event.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the potential emotions experienced as result of an event.</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr"/>
       <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>'Belief about anticipated emotions' is about the consequences of anything, not just behaviour. In contrast, the class 'belief about emotional consequences of behaviour' is about the emotions resulting from behaviours.</t>
+        </is>
+      </c>
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr"/>
@@ -5144,22 +5148,22 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006017</t>
+          <t>BCIO:050216</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>belief about barriers to a behaviour</t>
+          <t>belief about anticipated regret</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about anticipated emotion</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about a factor that could restrict or impede a person from engaging in a behaviour.</t>
+          <t>A &lt;belief about anticipated emotion&gt; in terms of the potential regret experienced as a result of an event.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
@@ -5202,12 +5206,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006034</t>
+          <t>BCIO:006017</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>belief about choice over a behaviour</t>
+          <t>belief about barriers to a behaviour</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -5217,22 +5221,14 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which one is free to choose whether to perform the behaviour.</t>
+          <t>A &lt;belief&gt; about a factor that could restrict or impede a person from engaging in a behaviour.</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
       <c r="F79" s="2" t="inlineStr"/>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>belief about voluntariness of behaviour; belief about autonomy in performing behaviours</t>
-        </is>
-      </c>
+      <c r="G79" s="2" t="inlineStr"/>
       <c r="H79" s="2" t="inlineStr"/>
-      <c r="I79" s="2" t="inlineStr">
-        <is>
-          <t>'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. In constrast, 'belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur, and 'belief that a behaviour is forbidden' is about whether there are rules about not performing a behaviour.</t>
-        </is>
-      </c>
+      <c r="I79" s="2" t="inlineStr"/>
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr"/>
@@ -5268,12 +5264,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050587</t>
+          <t>BCIO:006034</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>belief about conformity of behaviour to personal values</t>
+          <t>belief about choice over a behaviour</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -5283,14 +5279,22 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about how far a behaviour is congruent with one’s personal values.</t>
+          <t>A &lt;belief&gt; about the extent to which one is free to choose whether to perform the behaviour.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>belief about voluntariness of behaviour; belief about autonomy in performing behaviours</t>
+        </is>
+      </c>
       <c r="H80" s="2" t="inlineStr"/>
-      <c r="I80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. In constrast, 'belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur, and 'belief that a behaviour is forbidden' is about whether there are rules about not performing a behaviour.</t>
+        </is>
+      </c>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr"/>
@@ -5326,12 +5330,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006018</t>
+          <t>BCIO:050587</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>belief about conformity to behavioural norms</t>
+          <t>belief about conformity of behaviour to personal values</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -5341,7 +5345,7 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which one's own behaviour is similar to that of referent others.</t>
+          <t>A &lt;belief&gt; about how far a behaviour is congruent with one’s personal values.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
@@ -5384,12 +5388,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050217</t>
+          <t>BCIO:006018</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief about conformity to behavioural norms</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -5399,18 +5403,14 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the outcomes resulting from an occurrence.</t>
+          <t>A &lt;belief&gt; about the extent to which one's own behaviour is similar to that of referent others.</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr"/>
       <c r="H82" s="2" t="inlineStr"/>
-      <c r="I82" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr"/>
@@ -5446,31 +5446,27 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006019</t>
+          <t>BCIO:050217</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms of what results from or follows the performance of a behaviour.</t>
+          <t>A &lt;belief&gt; about the outcomes resulting from an occurrence.</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>response efficacy</t>
-        </is>
-      </c>
+      <c r="G83" s="2" t="inlineStr"/>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr">
         <is>
@@ -5512,12 +5508,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006021</t>
+          <t>BCIO:006019</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of goal attainment</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -5527,17 +5523,20 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the outcomes resulting from achieving a goal.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of what results from or follows the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
-      <c r="G84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>response efficacy</t>
+        </is>
+      </c>
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>Consequences can be either positive or negative.
-Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
+          <t>Consequences can be either positive or negative.</t>
         </is>
       </c>
       <c r="J84" s="2" t="inlineStr"/>
@@ -5575,35 +5574,36 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006152</t>
+          <t>BCIO:006021</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>belief about control over behaviour</t>
+          <t>belief about consequences of goal attainment</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;belief&gt; about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms of the outcomes resulting from achieving a goal.</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr"/>
       <c r="H85" s="2" t="inlineStr"/>
-      <c r="I85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.
+Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
+        </is>
+      </c>
       <c r="J85" s="2" t="inlineStr"/>
-      <c r="K85" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
+      <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr"/>
       <c r="M85" s="2" t="inlineStr"/>
       <c r="N85" s="2" t="inlineStr"/>
@@ -5637,12 +5637,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006022</t>
+          <t>BCIO:006152</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>belief about control over one's future</t>
+          <t>belief about control over behaviour</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which one can direct what happens in one's future.</t>
+          <t xml:space="preserve">A &lt;belief&gt; about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
@@ -5661,7 +5661,11 @@
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
-      <c r="K86" s="2" t="inlineStr"/>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
       <c r="L86" s="2" t="inlineStr"/>
       <c r="M86" s="2" t="inlineStr"/>
       <c r="N86" s="2" t="inlineStr"/>
@@ -5695,12 +5699,12 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050588</t>
+          <t>BCIO:006022</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>belief about control over valued outcomes</t>
+          <t>belief about control over one's future</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -5710,15 +5714,11 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the extent to which the person has control over outcomes that are important to them.</t>
+          <t>A &lt;belief&gt; about the extent to which one can direct what happens in one's future.</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr"/>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>locus of control</t>
-        </is>
-      </c>
+      <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr"/>
       <c r="H87" s="2" t="inlineStr"/>
       <c r="I87" s="2" t="inlineStr"/>
@@ -5757,26 +5757,30 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050589</t>
+          <t>BCIO:050588</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>belief about effort required for a behaviour</t>
+          <t>belief about control over valued outcomes</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>belief about barriers to a behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about barriers to a behaviour&gt; in terms of level of effort required.</t>
+          <t>A &lt;belief&gt; about the extent to which the person has control over outcomes that are important to them.</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr"/>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>locus of control</t>
+        </is>
+      </c>
       <c r="G88" s="2" t="inlineStr"/>
       <c r="H88" s="2" t="inlineStr"/>
       <c r="I88" s="2" t="inlineStr"/>
@@ -5815,22 +5819,22 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050218</t>
+          <t>BCIO:050589</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>belief about emotional consequences of behaviour</t>
+          <t>belief about effort required for a behaviour</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about barriers to a behaviour</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of resulting emotions.</t>
+          <t>A &lt;belief about barriers to a behaviour&gt; in terms of level of effort required.</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
@@ -5873,22 +5877,22 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050590</t>
+          <t>BCIO:050218</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>belief about emotional consequences of goal attainment</t>
+          <t>belief about emotional consequences of behaviour</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of goal attainment</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of goal attainment&gt; that focuses on the emotional response following that attainment.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of resulting emotions.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
@@ -5931,22 +5935,22 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050591</t>
+          <t>BCIO:050590</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>belief about enablers of a behaviour</t>
+          <t>belief about emotional consequences of goal attainment</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of goal attainment</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about factors that could facilitate or enable a behaviour.</t>
+          <t>A &lt;belief about consequences of goal attainment&gt; that focuses on the emotional response following that attainment.</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr"/>
@@ -5989,12 +5993,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006023</t>
+          <t>BCIO:050591</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>belief about gain</t>
+          <t>belief about enablers of a behaviour</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -6004,23 +6008,14 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the existence of an increase from an initial reference point.</t>
+          <t>A &lt;belief&gt; about factors that could facilitate or enable a behaviour.</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>Perceived gain</t>
-        </is>
-      </c>
+      <c r="G92" s="2" t="inlineStr"/>
       <c r="H92" s="2" t="inlineStr"/>
-      <c r="I92" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The perceived gain could be in anything internal or external, such as health or wealth.
-The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future, However, 'belief about gain' might be about an existing gain.  For instance, in situation where the following trade is offered: "I've given you $2, are you willing to trade it for a 50% chance of winning $6?" it'd be "I have $2 more than I started with", there is an existing gain that is compared to a future one. </t>
-        </is>
-      </c>
+      <c r="I92" s="2" t="inlineStr"/>
       <c r="J92" s="2" t="inlineStr"/>
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr"/>
@@ -6056,12 +6051,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050592</t>
+          <t>BCIO:006023</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>belief about goal attainment</t>
+          <t>belief about gain</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -6071,14 +6066,23 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;belief&gt; about the extend to which goals are achievable. </t>
+          <t>A &lt;belief&gt; about the existence of an increase from an initial reference point.</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
-      <c r="G93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>Perceived gain</t>
+        </is>
+      </c>
       <c r="H93" s="2" t="inlineStr"/>
-      <c r="I93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The perceived gain could be in anything internal or external, such as health or wealth.
+The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future, However, 'belief about gain' might be about an existing gain.  For instance, in situation where the following trade is offered: "I've given you $2, are you willing to trade it for a 50% chance of winning $6?" it'd be "I have $2 more than I started with", there is an existing gain that is compared to a future one. </t>
+        </is>
+      </c>
       <c r="J93" s="2" t="inlineStr"/>
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr"/>
@@ -6114,22 +6118,22 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050219</t>
+          <t>BCIO:050592</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>belief about health consequences of behaviour</t>
+          <t>belief about goal attainment</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of health and wellbeing.</t>
+          <t xml:space="preserve">A &lt;belief&gt; about the extend to which goals are achievable. </t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
@@ -6172,34 +6176,29 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050593</t>
+          <t>BCIO:050219</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>belief about health status</t>
+          <t>belief about health consequences of behaviour</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one’s health status.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of health and wellbeing.</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr"/>
       <c r="H95" s="2" t="inlineStr"/>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>This class covers belief about current health status. A person may have more than one such belief.
-"health status" is defined as "A personal attribute that is the state of an individual’s mental or physical condition."</t>
-        </is>
-      </c>
+      <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr"/>
@@ -6235,29 +6234,34 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050224</t>
+          <t>BCIO:050593</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>belief about healthcare accessibility</t>
+          <t>belief about health status</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>belief about ones environment</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's environment&gt; in terms of how easy it is for a person to approach and use a healthcare service.</t>
+          <t>A &lt;belief&gt; about one’s health status.</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr"/>
       <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>This class covers belief about current health status. A person may have more than one such belief.
+"health status" is defined as "A personal attribute that is the state of an individual’s mental or physical condition."</t>
+        </is>
+      </c>
       <c r="J96" s="2" t="inlineStr"/>
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr"/>
@@ -6293,33 +6297,29 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006026</t>
+          <t>BCIO:050224</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of an occurrence</t>
+          <t>belief about healthcare accessibility</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief about ones environment</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of an occurrence&gt; in terms the probability that a given event or state will occur or not occur in the future.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr"/>
       <c r="H97" s="2" t="inlineStr"/>
-      <c r="I97" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="I97" s="2" t="inlineStr"/>
       <c r="J97" s="2" t="inlineStr"/>
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr"/>
@@ -6355,29 +6355,33 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006024</t>
+          <t>BCIO:006026</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t>belief about likelihood of consequences of an occurrence</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of an occurrence</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of an occurrence&gt; in terms of the probability that a behaviour will result or not result in particular outcomes.</t>
+          <t>A &lt;belief about consequences of an occurrence&gt; in terms the probability that a given event or state will occur or not occur in the future.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr"/>
       <c r="H98" s="2" t="inlineStr"/>
-      <c r="I98" s="2" t="inlineStr"/>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr"/>
@@ -6413,22 +6417,22 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050220</t>
+          <t>BCIO:006024</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of emotional consequences of behaviour</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t>belief about likelihood of consequences of an occurrence</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to emotions.</t>
+          <t>A &lt;belief about likelihood of consequences of an occurrence&gt; in terms of the probability that a behaviour will result or not result in particular outcomes.</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
@@ -6471,12 +6475,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050594</t>
+          <t>BCIO:050220</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">belief about likelihood of financial consequences of a behaviour </t>
+          <t>belief about likelihood of emotional consequences of behaviour</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -6486,7 +6490,7 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to financial outcomes.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to emotions.</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
@@ -6529,12 +6533,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006025</t>
+          <t>BCIO:050594</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of health consequences of behaviour</t>
+          <t xml:space="preserve">belief about likelihood of financial consequences of a behaviour </t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -6544,7 +6548,7 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to financial outcomes.</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
@@ -6587,12 +6591,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050221</t>
+          <t>BCIO:006025</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of social consequences of behaviour</t>
+          <t>belief about likelihood of health consequences of behaviour</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -6602,7 +6606,7 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
@@ -6645,22 +6649,22 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006141</t>
+          <t>BCIO:050221</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief about likelihood of social consequences of behaviour</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;belief&gt; regarding aspects of a verbal, graphic, written or recorded communication. </t>
+          <t>A &lt;belief about likelihood of consequences of behaviour&gt; in terms of the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
@@ -6703,22 +6707,22 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006028</t>
+          <t>BCIO:006141</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>belief about message relevance</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about message&gt; in terms of whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
+          <t xml:space="preserve">A &lt;belief&gt; regarding aspects of a verbal, graphic, written or recorded communication. </t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
@@ -6761,12 +6765,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006143</t>
+          <t>BCIO:006028</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>belief about message trustworthiness</t>
+          <t>belief about message relevance</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -6776,7 +6780,7 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
+          <t>A &lt;belief about message&gt; in terms of whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
@@ -6819,22 +6823,22 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006144</t>
+          <t>BCIO:006143</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>belief about need satisfaction</t>
+          <t>belief about message trustworthiness</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; regarding whether one or more of the person's needs have been met.</t>
+          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
@@ -6877,12 +6881,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006029</t>
+          <t>BCIO:006144</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>belief about ones environment</t>
+          <t>belief about need satisfaction</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -6892,7 +6896,7 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
+          <t>A &lt;belief&gt; regarding whether one or more of the person's needs have been met.</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
@@ -6935,22 +6939,22 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050225</t>
+          <t>BCIO:006029</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>belief about ones physical environment</t>
+          <t>belief about ones environment</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>belief about ones environment</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's environment&gt; in terms of the parts of one's environment that do not involve people or organisations.</t>
+          <t>A &lt;belief&gt; about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
@@ -6993,12 +6997,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006145</t>
+          <t>BCIO:050225</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>belief about ones social environment</t>
+          <t>belief about ones physical environment</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -7008,7 +7012,7 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's environment&gt; in terms of the aspects of one’s immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of the parts of one's environment that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
@@ -7051,22 +7055,22 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006301</t>
+          <t>BCIO:006145</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>belief about others' susceptibility</t>
+          <t>belief about ones social environment</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a threat</t>
+          <t>belief about ones environment</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about susceptibility to a threat&gt; in terms of how vulnerable others are to a threat.</t>
+          <t>A &lt;belief about one's environment&gt; in terms of the aspects of one’s immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
@@ -7109,22 +7113,22 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050595</t>
+          <t>BCIO:006301</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>belief about own health</t>
+          <t>belief about others' susceptibility</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about susceptibility to a threat</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one’s own health</t>
+          <t>A &lt;belief about susceptibility to a threat&gt; in terms of how vulnerable others are to a threat.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
@@ -7167,22 +7171,22 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006031</t>
+          <t>BCIO:050595</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>belief about personal susceptibility</t>
+          <t>belief about own health</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a threat</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about susceptibility to a threat&gt; in terms of one's personal vulnerability to a threat.</t>
+          <t>A &lt;belief&gt; about one’s own health</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
@@ -7225,22 +7229,22 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050324</t>
+          <t>BCIO:006031</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>belief about quality of life</t>
+          <t>belief about personal susceptibility</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about susceptibility to a threat</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about one's position in life in relation to one's goals, expectations, standards and concerns.</t>
+          <t>A &lt;belief about susceptibility to a threat&gt; in terms of one's personal vulnerability to a threat.</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
@@ -7283,12 +7287,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006027</t>
+          <t>BCIO:050324</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>belief about reduction</t>
+          <t>belief about quality of life</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -7298,23 +7302,14 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the existence of a decrease from an initial reference point.</t>
+          <t>A &lt;belief&gt; about one's position in life in relation to one's goals, expectations, standards and concerns.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="2" t="inlineStr">
-        <is>
-          <t>perceived loss; belief about loss</t>
-        </is>
-      </c>
+      <c r="G114" s="2" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr"/>
-      <c r="I114" s="2" t="inlineStr">
-        <is>
-          <t>The perceived loss could be in anything internal or external, such as wealth or health.
-The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future. However, 'belief about reduction' might be about an existing loss.</t>
-        </is>
-      </c>
+      <c r="I114" s="2" t="inlineStr"/>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr"/>
@@ -7350,12 +7345,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006303</t>
+          <t>BCIO:006027</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>belief about responsibility to act</t>
+          <t>belief about reduction</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -7365,14 +7360,23 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about whether oneself or another person is obligated to take a certain course of action.</t>
+          <t>A &lt;belief&gt; about the existence of a decrease from an initial reference point.</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>perceived loss; belief about loss</t>
+        </is>
+      </c>
       <c r="H115" s="2" t="inlineStr"/>
-      <c r="I115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>The perceived loss could be in anything internal or external, such as wealth or health.
+The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future. However, 'belief about reduction' might be about an existing loss.</t>
+        </is>
+      </c>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr"/>
@@ -7408,22 +7412,22 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050596</t>
+          <t>BCIO:006303</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of AIDS</t>
+          <t>belief about responsibility to act</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of health condition</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about severity of health condition&gt; in terms of the outcomes of AIDS.</t>
+          <t>A &lt;belief&gt; about whether oneself or another person is obligated to take a certain course of action.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
@@ -7466,38 +7470,30 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006030</t>
+          <t>BCIO:050596</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of an outcome</t>
+          <t>belief about severity of AIDS</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about severity of health condition</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about how serious the harm associated with an outcome could be.</t>
+          <t>A &lt;belief about severity of health condition&gt; in terms of the outcomes of AIDS.</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat severity</t>
-        </is>
-      </c>
+      <c r="G117" s="2" t="inlineStr"/>
       <c r="H117" s="2" t="inlineStr"/>
       <c r="I117" s="2" t="inlineStr"/>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat</t>
-        </is>
-      </c>
+      <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr"/>
       <c r="M117" s="2" t="inlineStr"/>
@@ -7532,30 +7528,38 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050597</t>
+          <t>BCIO:006030</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of health condition</t>
+          <t>belief about severity of an outcome</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of an outcome</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about severity of an outcome&gt; relating to a health condition.</t>
+          <t>A &lt;belief&gt; about how serious the harm associated with an outcome could be.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr"/>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat severity</t>
+        </is>
+      </c>
       <c r="H118" s="2" t="inlineStr"/>
       <c r="I118" s="2" t="inlineStr"/>
-      <c r="J118" s="2" t="inlineStr"/>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat</t>
+        </is>
+      </c>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr"/>
       <c r="M118" s="2" t="inlineStr"/>
@@ -7590,33 +7594,29 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006020</t>
+          <t>BCIO:050597</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>belief about social consequences of behaviour</t>
+          <t>belief about severity of health condition</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about severity of an outcome</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of their impact on the social environmental system.</t>
+          <t>A &lt;belief about severity of an outcome&gt; relating to a health condition.</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr"/>
       <c r="H119" s="2" t="inlineStr"/>
-      <c r="I119" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="I119" s="2" t="inlineStr"/>
       <c r="J119" s="2" t="inlineStr"/>
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr"/>
@@ -7652,29 +7652,33 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050598</t>
+          <t>BCIO:006020</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>belief about social influence</t>
+          <t>belief about social consequences of behaviour</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>belief about ones social environment</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one’s social environment&gt; that focuses on people’s influences on each other.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of their impact on the social environmental system.</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr"/>
       <c r="H120" s="2" t="inlineStr"/>
-      <c r="I120" s="2" t="inlineStr"/>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
       <c r="J120" s="2" t="inlineStr"/>
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr"/>
@@ -7710,22 +7714,22 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050599</t>
+          <t>BCIO:050598</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>belief about social influence on oneself</t>
+          <t>belief about social influence</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>belief about social influence</t>
+          <t>belief about ones social environment</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about social influence&gt; in terms of the extent to which other people influence one’s behaviour.</t>
+          <t>A &lt;belief about one’s social environment&gt; that focuses on people’s influences on each other.</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
@@ -7768,22 +7772,22 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006146</t>
+          <t>BCIO:050599</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>belief about social support</t>
+          <t>belief about social influence on oneself</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>belief about ones social environment</t>
+          <t>belief about social influence</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about one's social environment&gt; in terms of whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
+          <t>A &lt;belief about social influence&gt; in terms of the extent to which other people influence one’s behaviour.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
@@ -7826,22 +7830,22 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050600</t>
+          <t>BCIO:006146</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>belief about social support for a behaviour</t>
+          <t>belief about social support</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>belief about social support</t>
+          <t>belief about ones social environment</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about social support&gt; for the person to enact a behaviour.</t>
+          <t>A &lt;belief about one's social environment&gt; in terms of whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
@@ -7884,22 +7888,22 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050226</t>
+          <t>BCIO:050600</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>belief about sufficient time for a behaviour</t>
+          <t>belief about social support for a behaviour</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about social support</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about having enough time or a suitable period of time to enact a behaviour.</t>
+          <t>A &lt;belief about social support&gt; for the person to enact a behaviour.</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
@@ -7942,12 +7946,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006305</t>
+          <t>BCIO:050226</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a threat</t>
+          <t>belief about sufficient time for a behaviour</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -7957,23 +7961,15 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about vulnerability to a threat.</t>
+          <t>A &lt;belief&gt; about having enough time or a suitable period of time to enact a behaviour.</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
       <c r="F125" s="2" t="inlineStr"/>
-      <c r="G125" s="2" t="inlineStr">
-        <is>
-          <t>belief about susceptibility to a risk</t>
-        </is>
-      </c>
+      <c r="G125" s="2" t="inlineStr"/>
       <c r="H125" s="2" t="inlineStr"/>
       <c r="I125" s="2" t="inlineStr"/>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat</t>
-        </is>
-      </c>
+      <c r="J125" s="2" t="inlineStr"/>
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr"/>
       <c r="M125" s="2" t="inlineStr"/>
@@ -8008,12 +8004,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050601</t>
+          <t>BCIO:006305</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>belief about task complexity</t>
+          <t>belief about susceptibility to a threat</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -8023,15 +8019,23 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the degree to which a task is complex and therefore difficult to perform.</t>
+          <t>A &lt;belief&gt; about vulnerability to a threat.</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
       <c r="F126" s="2" t="inlineStr"/>
-      <c r="G126" s="2" t="inlineStr"/>
+      <c r="G126" s="2" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a risk</t>
+        </is>
+      </c>
       <c r="H126" s="2" t="inlineStr"/>
       <c r="I126" s="2" t="inlineStr"/>
-      <c r="J126" s="2" t="inlineStr"/>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat</t>
+        </is>
+      </c>
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr"/>
       <c r="M126" s="2" t="inlineStr"/>
@@ -8066,12 +8070,12 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050602</t>
+          <t>BCIO:050601</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>belief about the cause of a behaviour</t>
+          <t>belief about task complexity</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -8081,18 +8085,14 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about what causes or influences a behaviour.</t>
+          <t>A &lt;belief&gt; about the degree to which a task is complex and therefore difficult to perform.</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr"/>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr"/>
       <c r="H127" s="2" t="inlineStr"/>
-      <c r="I127" s="2" t="inlineStr">
-        <is>
-          <t>The class 'belief about the cause of a behaviour' captures what a person believes in terms of the causes of events. A related class is 'emotional-relevance appraisal of causal agency', but this class involves an appraisal that gives raise to emotions, such as blaming yourself for an accident, giving raise to feelings of guilt.</t>
-        </is>
-      </c>
+      <c r="I127" s="2" t="inlineStr"/>
       <c r="J127" s="2" t="inlineStr"/>
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr"/>
@@ -8128,29 +8128,33 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006142</t>
+          <t>BCIO:050602</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>belief about the credibility of a message's source</t>
+          <t>belief about the cause of a behaviour</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
+          <t>A &lt;belief&gt; about what causes or influences a behaviour.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr"/>
       <c r="H128" s="2" t="inlineStr"/>
-      <c r="I128" s="2" t="inlineStr"/>
+      <c r="I128" s="2" t="inlineStr">
+        <is>
+          <t>The class 'belief about the cause of a behaviour' captures what a person believes in terms of the causes of events. A related class is 'emotional-relevance appraisal of causal agency', but this class involves an appraisal that gives raise to emotions, such as blaming yourself for an accident, giving raise to feelings of guilt.</t>
+        </is>
+      </c>
       <c r="J128" s="2" t="inlineStr"/>
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr"/>
@@ -8186,22 +8190,22 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050603</t>
+          <t>BCIO:006142</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>belief about the discrepancy between one’s current and target state</t>
+          <t>belief about the credibility of a message's source</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about the discrepancy between one’s current and target state.</t>
+          <t>A &lt;belief about message&gt; in terms of whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
@@ -8244,22 +8248,22 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050604</t>
+          <t>BCIO:050603</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>belief about the financial consequences of a behaviour</t>
+          <t>belief about the discrepancy between one’s current and target state</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of finance.</t>
+          <t>A &lt;belief&gt; about the discrepancy between one’s current and target state.</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
@@ -8302,31 +8306,27 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050605</t>
+          <t>BCIO:050604</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>belief about the negative health consequences of a behaviour</t>
+          <t>belief about the financial consequences of a behaviour</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>belief about health consequences of behaviour</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about health consequences of a behaviour&gt; in which the consequences are evaluated as negative.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of finance.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
-      <c r="G131" s="2" t="inlineStr">
-        <is>
-          <t>An evaluative belief about the negative consequences of a behaviour AND belief about the health consequences of a behaviour</t>
-        </is>
-      </c>
+      <c r="G131" s="2" t="inlineStr"/>
       <c r="H131" s="2" t="inlineStr"/>
       <c r="I131" s="2" t="inlineStr"/>
       <c r="J131" s="2" t="inlineStr"/>
@@ -8364,33 +8364,33 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006149</t>
+          <t>BCIO:050605</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>belief about the personal desirability of consequences of a behaviour</t>
+          <t>belief about the negative health consequences of a behaviour</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about the consequences of behaviour</t>
+          <t>belief about health consequences of behaviour</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>An &lt;evaluative belief about the consequences of behaviour&gt; in terms of the value of the consequences of behaviour to oneself.</t>
+          <t>A &lt;belief about health consequences of a behaviour&gt; in which the consequences are evaluated as negative.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
-      <c r="G132" s="2" t="inlineStr"/>
+      <c r="G132" s="2" t="inlineStr">
+        <is>
+          <t>An evaluative belief about the negative consequences of a behaviour AND belief about the health consequences of a behaviour</t>
+        </is>
+      </c>
       <c r="H132" s="2" t="inlineStr"/>
-      <c r="I132" s="2" t="inlineStr">
-        <is>
-          <t>'Desirability' can range from highly desirable to highly undesirable.</t>
-        </is>
-      </c>
+      <c r="I132" s="2" t="inlineStr"/>
       <c r="J132" s="2" t="inlineStr"/>
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr"/>
@@ -8426,22 +8426,22 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050606</t>
+          <t>BCIO:006149</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>belief about the positive emotional consequences of a behaviour</t>
+          <t>belief about the personal desirability of consequences of a behaviour</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>belief about emotional consequences of behaviour</t>
+          <t>evaluative belief about the consequences of behaviour</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about emotional consequences of behaviour&gt; where the emotions are positive.</t>
+          <t>An &lt;evaluative belief about the consequences of behaviour&gt; in terms of the value of the consequences of behaviour to oneself.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
@@ -8450,7 +8450,7 @@
       <c r="H133" s="2" t="inlineStr"/>
       <c r="I133" s="2" t="inlineStr">
         <is>
-          <t>Positive emotions are enjoyment, pleasure and satisfaction. The emotions are those of the person enacting the behaviour.</t>
+          <t>'Desirability' can range from highly desirable to highly undesirable.</t>
         </is>
       </c>
       <c r="J133" s="2" t="inlineStr"/>
@@ -8488,33 +8488,33 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050607</t>
+          <t>BCIO:050606</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>belief about the positive health consequences of a behaviour</t>
+          <t>belief about the positive emotional consequences of a behaviour</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>belief about health consequences of behaviour</t>
+          <t>belief about emotional consequences of behaviour</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about health consequences of behaviour&gt; in which the consequences are evaluated as positive.</t>
+          <t>A &lt;belief about emotional consequences of behaviour&gt; where the emotions are positive.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
-      <c r="G134" s="2" t="inlineStr">
-        <is>
-          <t>An evaluative belief about the positive consequences of a behaviour AND belief about the health consequences of a behaviour</t>
-        </is>
-      </c>
+      <c r="G134" s="2" t="inlineStr"/>
       <c r="H134" s="2" t="inlineStr"/>
-      <c r="I134" s="2" t="inlineStr"/>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>Positive emotions are enjoyment, pleasure and satisfaction. The emotions are those of the person enacting the behaviour.</t>
+        </is>
+      </c>
       <c r="J134" s="2" t="inlineStr"/>
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr"/>
@@ -8550,27 +8550,31 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050608</t>
+          <t>BCIO:050607</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>belief about the positive social consequences of a behaviour</t>
+          <t>belief about the positive health consequences of a behaviour</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>belief about social consequences of behaviour</t>
+          <t>belief about health consequences of behaviour</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about social consequences of behaviour&gt; where those consequences are evaluated positively.</t>
+          <t>A &lt;belief about health consequences of behaviour&gt; in which the consequences are evaluated as positive.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr"/>
+      <c r="G135" s="2" t="inlineStr">
+        <is>
+          <t>An evaluative belief about the positive consequences of a behaviour AND belief about the health consequences of a behaviour</t>
+        </is>
+      </c>
       <c r="H135" s="2" t="inlineStr"/>
       <c r="I135" s="2" t="inlineStr"/>
       <c r="J135" s="2" t="inlineStr"/>
@@ -8608,22 +8612,22 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006033</t>
+          <t>BCIO:050608</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>belief about the timing of the consequences of behaviour</t>
+          <t>belief about the positive social consequences of a behaviour</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about social consequences of behaviour</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about consequences of behaviour&gt; in terms of how long after the performance of the behaviour they will occur.</t>
+          <t>A &lt;belief about social consequences of behaviour&gt; where those consequences are evaluated positively.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -8666,22 +8670,22 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006306</t>
+          <t>BCIO:006033</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>belief about threat</t>
+          <t>belief about the timing of the consequences of behaviour</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; about a potential harm.</t>
+          <t>A &lt;belief about consequences of behaviour&gt; in terms of how long after the performance of the behaviour they will occur.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -8724,22 +8728,22 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050847</t>
+          <t>BCIO:006306</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>belief in false minority</t>
+          <t>belief about threat</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>group belief</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A &lt;group belief&gt; in which members of a group falsely believe that their own beliefs and behaviours are unusual.</t>
+          <t>A &lt;belief&gt; about a potential harm.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
@@ -8782,33 +8786,29 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050609</t>
+          <t>BCIO:050847</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>belief that a behaviour is compulsory</t>
+          <t>belief in false minority</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>belief about a behavioural rule</t>
+          <t>group belief</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must occur.</t>
+          <t>A &lt;group belief&gt; in which members of a group falsely believe that their own beliefs and behaviours are unusual.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr"/>
       <c r="H139" s="2" t="inlineStr"/>
-      <c r="I139" s="2" t="inlineStr">
-        <is>
-          <t>The two entities 'belief that a behaviour is compulsary' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur.</t>
-        </is>
-      </c>
+      <c r="I139" s="2" t="inlineStr"/>
       <c r="J139" s="2" t="inlineStr"/>
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr"/>
@@ -8844,12 +8844,12 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050610</t>
+          <t>BCIO:050609</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>belief that a behaviour is forbidden</t>
+          <t>belief that a behaviour is compulsory</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must not occur.</t>
+          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must occur.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -8868,7 +8868,7 @@
       <c r="H140" s="2" t="inlineStr"/>
       <c r="I140" s="2" t="inlineStr">
         <is>
-          <t>The two entities 'belief that a behaviour is forbidden' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is forbidden' is specifically about whether there are rules about not performing a behaviour.</t>
+          <t>The two entities 'belief that a behaviour is compulsary' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is compulsary' is specifically about whether there are rules about the behaviour having to occur.</t>
         </is>
       </c>
       <c r="J140" s="2" t="inlineStr"/>
@@ -8906,22 +8906,22 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050611</t>
+          <t>BCIO:050610</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>beneficial fear reduction mental process</t>
+          <t>belief that a behaviour is forbidden</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>fear reduction mental process</t>
+          <t>belief about a behavioural rule</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A &lt;fear reduction mental process&gt; that has a positive  outcome.</t>
+          <t>A &lt;belief about a behavioural rule&gt; that a behaviour must not occur.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -8930,7 +8930,7 @@
       <c r="H141" s="2" t="inlineStr"/>
       <c r="I141" s="2" t="inlineStr">
         <is>
-          <t>‘Positive’ is inherently subjective. It could mean a good outcome for the person, the people or those around them, or society more generally.</t>
+          <t>The two entities 'belief that a behaviour is forbidden' and 'belief about choice over a behaviour' are different. 'Belief about choice over a behaviour' refers to whether a person believes that they are free to choose to perform or not perform a behaviour. This freedom might arise from a lack of opportunity or rules. 'Belief that a behaviour is forbidden' is specifically about whether there are rules about not performing a behaviour.</t>
         </is>
       </c>
       <c r="J141" s="2" t="inlineStr"/>
@@ -8966,72 +8966,76 @@
       <c r="X141" s="2" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADDICTO:0001303 </t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>beneficialness</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>A &lt;disposition&gt; that is realised as a benefit process.</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W142" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X142" t="inlineStr"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050611</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>beneficial fear reduction mental process</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>fear reduction mental process</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;fear reduction mental process&gt; that has a positive  outcome.</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr"/>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
+      <c r="H142" s="2" t="inlineStr"/>
+      <c r="I142" s="2" t="inlineStr">
+        <is>
+          <t>‘Positive’ is inherently subjective. It could mean a good outcome for the person, the people or those around them, or society more generally.</t>
+        </is>
+      </c>
+      <c r="J142" s="2" t="inlineStr"/>
+      <c r="K142" s="2" t="inlineStr"/>
+      <c r="L142" s="2" t="inlineStr"/>
+      <c r="M142" s="2" t="inlineStr"/>
+      <c r="N142" s="2" t="inlineStr"/>
+      <c r="O142" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P142" s="2" t="inlineStr"/>
+      <c r="Q142" s="2" t="inlineStr"/>
+      <c r="R142" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S142" s="2" t="inlineStr"/>
+      <c r="T142" s="2" t="inlineStr"/>
+      <c r="U142" s="2" t="inlineStr"/>
+      <c r="V142" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W142" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X142" s="2" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MF:0000032</t>
+          <t xml:space="preserve">ADDICTO:0001303 </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>beneficialness</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -9041,27 +9045,14 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
+          <t>A &lt;disposition&gt; that is realised as a benefit process.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>An attribute of a body that influences the way that it functions.</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>personal disposition</t>
-        </is>
-      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>Extended organism refers to an organism and its microbiome (e.g., the bacteria that live in one's digestive system)
-Bodily disposition would include features, such as a person's strength (which can be used in a specific context), but not weight. A person would have a certain weight independent of most circumstances they are in.</t>
-        </is>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
@@ -9084,336 +9075,345 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>MF:0000032</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>An attribute of a body that influences the way that it functions.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>personal disposition</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Extended organism refers to an organism and its microbiome (e.g., the bacteria that live in one's digestive system)
+Bodily disposition would include features, such as a person's strength (which can be used in a specific context), but not weight. A person would have a certain weight independent of most circumstances they are in.</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr">
+        <is>
           <t>PS; LZ</t>
         </is>
       </c>
-      <c r="W143" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="inlineStr">
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
         <is>
           <t>BCIO:050612</t>
         </is>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>bodily disposition that increases likelihood of harmful behaviour</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D144" s="2" t="inlineStr">
+      <c r="D145" s="2" t="inlineStr">
         <is>
           <t>A &lt;bodily disposition&gt; that increases the probability that a person will engage in a harmful behaviour.</t>
         </is>
       </c>
-      <c r="E144" s="2" t="inlineStr"/>
-      <c r="F144" s="2" t="inlineStr"/>
-      <c r="G144" s="2" t="inlineStr"/>
-      <c r="H144" s="2" t="inlineStr"/>
-      <c r="I144" s="2" t="inlineStr"/>
-      <c r="J144" s="2" t="inlineStr"/>
-      <c r="K144" s="2" t="inlineStr"/>
-      <c r="L144" s="2" t="inlineStr"/>
-      <c r="M144" s="2" t="inlineStr"/>
-      <c r="N144" s="2" t="inlineStr"/>
-      <c r="O144" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P144" s="2" t="inlineStr"/>
-      <c r="Q144" s="2" t="inlineStr"/>
-      <c r="R144" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S144" s="2" t="inlineStr"/>
-      <c r="T144" s="2" t="inlineStr"/>
-      <c r="U144" s="2" t="inlineStr"/>
-      <c r="V144" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W144" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X144" s="2" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="3" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr"/>
+      <c r="F145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="inlineStr"/>
+      <c r="H145" s="2" t="inlineStr"/>
+      <c r="I145" s="2" t="inlineStr"/>
+      <c r="J145" s="2" t="inlineStr"/>
+      <c r="K145" s="2" t="inlineStr"/>
+      <c r="L145" s="2" t="inlineStr"/>
+      <c r="M145" s="2" t="inlineStr"/>
+      <c r="N145" s="2" t="inlineStr"/>
+      <c r="O145" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P145" s="2" t="inlineStr"/>
+      <c r="Q145" s="2" t="inlineStr"/>
+      <c r="R145" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S145" s="2" t="inlineStr"/>
+      <c r="T145" s="2" t="inlineStr"/>
+      <c r="U145" s="2" t="inlineStr"/>
+      <c r="V145" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W145" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="inlineStr">
         <is>
           <t>BCIO:050304</t>
         </is>
       </c>
-      <c r="B145" s="3" t="inlineStr">
+      <c r="B146" s="3" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C145" s="3" t="inlineStr">
+      <c r="C146" s="3" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D145" s="3" t="inlineStr">
+      <c r="D146" s="3" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E145" s="3" t="inlineStr"/>
-      <c r="F145" s="3" t="inlineStr"/>
-      <c r="G145" s="3" t="inlineStr"/>
-      <c r="H145" s="3" t="inlineStr"/>
-      <c r="I145" s="3" t="inlineStr"/>
-      <c r="J145" s="3" t="inlineStr"/>
-      <c r="K145" s="3" t="inlineStr"/>
-      <c r="L145" s="3" t="inlineStr"/>
-      <c r="M145" s="3" t="inlineStr"/>
-      <c r="N145" s="3" t="inlineStr"/>
-      <c r="O145" s="3" t="inlineStr">
+      <c r="E146" s="3" t="inlineStr"/>
+      <c r="F146" s="3" t="inlineStr"/>
+      <c r="G146" s="3" t="inlineStr"/>
+      <c r="H146" s="3" t="inlineStr"/>
+      <c r="I146" s="3" t="inlineStr"/>
+      <c r="J146" s="3" t="inlineStr"/>
+      <c r="K146" s="3" t="inlineStr"/>
+      <c r="L146" s="3" t="inlineStr"/>
+      <c r="M146" s="3" t="inlineStr"/>
+      <c r="N146" s="3" t="inlineStr"/>
+      <c r="O146" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P145" s="3" t="inlineStr"/>
-      <c r="Q145" s="3" t="inlineStr"/>
-      <c r="R145" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S145" s="3" t="inlineStr"/>
-      <c r="T145" s="3" t="inlineStr"/>
-      <c r="U145" s="3" t="inlineStr"/>
-      <c r="V145" s="3" t="inlineStr"/>
-      <c r="W145" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X145" s="3" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="P146" s="3" t="inlineStr"/>
+      <c r="Q146" s="3" t="inlineStr"/>
+      <c r="R146" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S146" s="3" t="inlineStr"/>
+      <c r="T146" s="3" t="inlineStr"/>
+      <c r="U146" s="3" t="inlineStr"/>
+      <c r="V146" s="3" t="inlineStr"/>
+      <c r="W146" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X146" s="3" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>OGMS:0000060</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
         <is>
           <t>Any process going on in the body.</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr">
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
         <is>
           <t xml:space="preserve">The phrase 'bodily component of an organism’ in the definition refers to ‘a part of the body’. </t>
         </is>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W146" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="3" t="inlineStr">
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="inlineStr">
         <is>
           <t>BCIO:050305</t>
         </is>
       </c>
-      <c r="B147" s="3" t="inlineStr">
+      <c r="B148" s="3" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C147" s="3" t="inlineStr">
+      <c r="C148" s="3" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D147" s="3" t="inlineStr">
+      <c r="D148" s="3" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E147" s="3" t="inlineStr"/>
-      <c r="F147" s="3" t="inlineStr"/>
-      <c r="G147" s="3" t="inlineStr"/>
-      <c r="H147" s="3" t="inlineStr"/>
-      <c r="I147" s="3" t="inlineStr"/>
-      <c r="J147" s="3" t="inlineStr"/>
-      <c r="K147" s="3" t="inlineStr"/>
-      <c r="L147" s="3" t="inlineStr"/>
-      <c r="M147" s="3" t="inlineStr"/>
-      <c r="N147" s="3" t="inlineStr"/>
-      <c r="O147" s="3" t="inlineStr">
+      <c r="E148" s="3" t="inlineStr"/>
+      <c r="F148" s="3" t="inlineStr"/>
+      <c r="G148" s="3" t="inlineStr"/>
+      <c r="H148" s="3" t="inlineStr"/>
+      <c r="I148" s="3" t="inlineStr"/>
+      <c r="J148" s="3" t="inlineStr"/>
+      <c r="K148" s="3" t="inlineStr"/>
+      <c r="L148" s="3" t="inlineStr"/>
+      <c r="M148" s="3" t="inlineStr"/>
+      <c r="N148" s="3" t="inlineStr"/>
+      <c r="O148" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P147" s="3" t="inlineStr"/>
-      <c r="Q147" s="3" t="inlineStr"/>
-      <c r="R147" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S147" s="3" t="inlineStr"/>
-      <c r="T147" s="3" t="inlineStr"/>
-      <c r="U147" s="3" t="inlineStr"/>
-      <c r="V147" s="3" t="inlineStr"/>
-      <c r="W147" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X147" s="3" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050613</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>bodily system</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="D148" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;system&gt; that consists of the parts of an organism and their interactions.</t>
-        </is>
-      </c>
-      <c r="E148" s="2" t="inlineStr"/>
-      <c r="F148" s="2" t="inlineStr"/>
-      <c r="G148" s="2" t="inlineStr"/>
-      <c r="H148" s="2" t="inlineStr"/>
-      <c r="I148" s="2" t="inlineStr"/>
-      <c r="J148" s="2" t="inlineStr"/>
-      <c r="K148" s="2" t="inlineStr"/>
-      <c r="L148" s="2" t="inlineStr"/>
-      <c r="M148" s="2" t="inlineStr"/>
-      <c r="N148" s="2" t="inlineStr"/>
-      <c r="O148" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P148" s="2" t="inlineStr"/>
-      <c r="Q148" s="2" t="inlineStr"/>
-      <c r="R148" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S148" s="2" t="inlineStr"/>
-      <c r="T148" s="2" t="inlineStr"/>
-      <c r="U148" s="2" t="inlineStr"/>
-      <c r="V148" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W148" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X148" s="2" t="inlineStr"/>
+      <c r="P148" s="3" t="inlineStr"/>
+      <c r="Q148" s="3" t="inlineStr"/>
+      <c r="R148" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S148" s="3" t="inlineStr"/>
+      <c r="T148" s="3" t="inlineStr"/>
+      <c r="U148" s="3" t="inlineStr"/>
+      <c r="V148" s="3" t="inlineStr"/>
+      <c r="W148" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X148" s="3" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050848</t>
+          <t>BCIO:050613</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>capability to imagine future scenarios</t>
+          <t>bodily system</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">imagination capability </t>
+          <t>system</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>An &lt;imagination capability&gt; in which what is imagined are scenarios that could happen in the future.</t>
+          <t>A &lt;system&gt; that consists of the parts of an organism and their interactions.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr"/>
       <c r="H149" s="2" t="inlineStr"/>
-      <c r="I149" s="2" t="inlineStr">
-        <is>
-          <t>Scenarios include possible, outcomes of behaviours, goals and actions to achieve them.</t>
-        </is>
-      </c>
+      <c r="I149" s="2" t="inlineStr"/>
       <c r="J149" s="2" t="inlineStr"/>
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr"/>
@@ -9449,29 +9449,33 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050849</t>
+          <t>BCIO:050848</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>certainty bias</t>
+          <t>capability to imagine future scenarios</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cognitive bias process </t>
+          <t xml:space="preserve">imagination capability </t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive bias process&gt; that overweights an outcome that is judged to be certain compared with ones that are judged to be less than certain.</t>
+          <t>An &lt;imagination capability&gt; in which what is imagined are scenarios that could happen in the future.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr"/>
       <c r="H150" s="2" t="inlineStr"/>
-      <c r="I150" s="2" t="inlineStr"/>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>Scenarios include possible, outcomes of behaviours, goals and actions to achieve them.</t>
+        </is>
+      </c>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr"/>
@@ -9507,22 +9511,22 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006120</t>
+          <t>BCIO:050849</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>classical conditioning</t>
+          <t>certainty bias</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t xml:space="preserve">cognitive bias process </t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>&lt;Associative learning&gt; that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
+          <t>A &lt;cognitive bias process&gt; that overweights an outcome that is judged to be certain compared with ones that are judged to be less than certain.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
@@ -9565,22 +9569,22 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050850</t>
+          <t>BCIO:006120</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>cognitive bias disposition</t>
+          <t>classical conditioning</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that is realised as a cognitive bias process.</t>
+          <t>&lt;Associative learning&gt; that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
@@ -9623,22 +9627,22 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050851</t>
+          <t>BCIO:050850</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>cognitive bias process</t>
+          <t>cognitive bias disposition</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive process&gt; that leads to systematic error in judgement or belief.</t>
+          <t>A &lt;mental disposition&gt; that is realised as a cognitive bias process.</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
@@ -9681,22 +9685,22 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006108</t>
+          <t>BCIO:050851</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>cognitive dissonance</t>
+          <t>cognitive bias process</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; that is unpleasant and experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
+          <t>A &lt;cognitive process&gt; that leads to systematic error in judgement or belief.</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
@@ -9737,98 +9741,89 @@
       <c r="X154" s="2" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>MF:0000008</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that creates, modifies or has as participant some cognitive representation.</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S155" t="inlineStr"/>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W155" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X155" t="inlineStr"/>
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006108</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>cognitive dissonance</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;subjective affective feeling&gt; that is unpleasant and experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="inlineStr"/>
+      <c r="F155" s="2" t="inlineStr"/>
+      <c r="G155" s="2" t="inlineStr"/>
+      <c r="H155" s="2" t="inlineStr"/>
+      <c r="I155" s="2" t="inlineStr"/>
+      <c r="J155" s="2" t="inlineStr"/>
+      <c r="K155" s="2" t="inlineStr"/>
+      <c r="L155" s="2" t="inlineStr"/>
+      <c r="M155" s="2" t="inlineStr"/>
+      <c r="N155" s="2" t="inlineStr"/>
+      <c r="O155" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P155" s="2" t="inlineStr"/>
+      <c r="Q155" s="2" t="inlineStr"/>
+      <c r="R155" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S155" s="2" t="inlineStr"/>
+      <c r="T155" s="2" t="inlineStr"/>
+      <c r="U155" s="2" t="inlineStr"/>
+      <c r="V155" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W155" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X155" s="2" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MF:0000031</t>
+          <t>MF:0000008</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;representation&gt; which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
+          <t>A &lt;mental process&gt; that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>A mental representation of something that is experienced or imagined about one's inner or outer world.</t>
-        </is>
-      </c>
+      <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>The use of the phrase ‘an anatomical structure in the cognitive system’ in the formal definition means that a specific cognitive representation will depend on parts of the brain, rather than involving the whole brain.
-When a belief is activated, the content of that belief is a cognitive representation.</t>
-        </is>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
@@ -9862,82 +9857,91 @@
       <c r="X156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050614</t>
-        </is>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation of an alternative behaviour</t>
-        </is>
-      </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation of one’s behaviour</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;cognitive representation of one’s behaviour&gt; that the person could enact instead of one that they have enacted or are enacting.</t>
-        </is>
-      </c>
-      <c r="E157" s="2" t="inlineStr"/>
-      <c r="F157" s="2" t="inlineStr"/>
-      <c r="G157" s="2" t="inlineStr"/>
-      <c r="H157" s="2" t="inlineStr"/>
-      <c r="I157" s="2" t="inlineStr"/>
-      <c r="J157" s="2" t="inlineStr"/>
-      <c r="K157" s="2" t="inlineStr"/>
-      <c r="L157" s="2" t="inlineStr"/>
-      <c r="M157" s="2" t="inlineStr"/>
-      <c r="N157" s="2" t="inlineStr"/>
-      <c r="O157" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P157" s="2" t="inlineStr"/>
-      <c r="Q157" s="2" t="inlineStr"/>
-      <c r="R157" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S157" s="2" t="inlineStr"/>
-      <c r="T157" s="2" t="inlineStr"/>
-      <c r="U157" s="2" t="inlineStr"/>
-      <c r="V157" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W157" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X157" s="2" t="inlineStr"/>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>MF:0000031</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A &lt;representation&gt; which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>A mental representation of something that is experienced or imagined about one's inner or outer world.</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>The use of the phrase ‘an anatomical structure in the cognitive system’ in the formal definition means that a specific cognitive representation will depend on parts of the brain, rather than involving the whole brain.
+When a belief is activated, the content of that belief is a cognitive representation.</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050615</t>
+          <t>BCIO:050614</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
+          <t>cognitive representation of an alternative behaviour</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
           <t>cognitive representation of one’s behaviour</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; of a behaviour that the person is enacting or has enacted.</t>
+          <t>A &lt;cognitive representation of one’s behaviour&gt; that the person could enact instead of one that they have enacted or are enacting.</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr"/>
@@ -9980,30 +9984,26 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006045</t>
+          <t>BCIO:050615</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>cognitive representation of one’s behaviour</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; that when activated, guides an interconnected network of perception, thought, emotion or behaviour.</t>
+          <t>A &lt;cognitive representation&gt; of a behaviour that the person is enacting or has enacted.</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>A collection of interconnected perceptions, thoughts, emotions and behaviours.</t>
-        </is>
-      </c>
+      <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr"/>
       <c r="H159" s="2" t="inlineStr"/>
       <c r="I159" s="2" t="inlineStr"/>
@@ -10042,26 +10042,30 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006007</t>
+          <t>BCIO:006045</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>cognitive self-regulation capability</t>
+          <t>cognitive schema</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's cognitive processes. </t>
+          <t>A &lt;mental disposition&gt; that when activated, guides an interconnected network of perception, thought, emotion or behaviour.</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
-      <c r="F160" s="2" t="inlineStr"/>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>A collection of interconnected perceptions, thoughts, emotions and behaviours.</t>
+        </is>
+      </c>
       <c r="G160" s="2" t="inlineStr"/>
       <c r="H160" s="2" t="inlineStr"/>
       <c r="I160" s="2" t="inlineStr"/>
@@ -10100,22 +10104,22 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050852</t>
+          <t>BCIO:006007</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>cognitive substitution</t>
+          <t>cognitive self-regulation capability</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive process&gt; in which a person substitutes a more desired thought process for a less desired thought process.</t>
+          <t xml:space="preserve">A &lt;self-regulation capability&gt; to modulate one's cognitive processes. </t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
@@ -10158,33 +10162,29 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050616</t>
+          <t>BCIO:050852</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>communication skill</t>
+          <t>cognitive substitution</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social skill&gt; that is realised as effective communication behaviour</t>
+          <t>A &lt;cognitive process&gt; in which a person substitutes a more desired thought process for a less desired thought process.</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr"/>
       <c r="H162" s="2" t="inlineStr"/>
-      <c r="I162" s="2" t="inlineStr">
-        <is>
-          <t>Capability is broader than skill (includes, for example,mental stamina, resilience)</t>
-        </is>
-      </c>
+      <c r="I162" s="2" t="inlineStr"/>
       <c r="J162" s="2" t="inlineStr"/>
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr"/>
@@ -10220,29 +10220,33 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050617</t>
+          <t>BCIO:050616</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>comparative desirability appraisal</t>
+          <t>communication skill</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal&gt; that involves a relative desirability of two or more entities.</t>
+          <t>A &lt;social skill&gt; that is realised as effective communication behaviour</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr"/>
       <c r="H163" s="2" t="inlineStr"/>
-      <c r="I163" s="2" t="inlineStr"/>
+      <c r="I163" s="2" t="inlineStr">
+        <is>
+          <t>Capability is broader than skill (includes, for example,mental stamina, resilience)</t>
+        </is>
+      </c>
       <c r="J163" s="2" t="inlineStr"/>
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr"/>
@@ -10278,22 +10282,22 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050618</t>
+          <t>BCIO:050617</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>comparative evaluation process</t>
+          <t>comparative desirability appraisal</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>emotional-relevance appraisal</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>&lt;Judging&gt; that involves comparing aspects of entities.</t>
+          <t>An &lt;emotional-relevance appraisal&gt; that involves a relative desirability of two or more entities.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -10336,22 +10340,22 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050853</t>
+          <t>BCIO:050618</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>comparison of current behaviour with a standard</t>
+          <t>comparative evaluation process</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>comparison of current situation with a standard</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>&lt;Comparison of current situation with a standard&gt; where the focus is on current behaviour.</t>
+          <t>&lt;Judging&gt; that involves comparing aspects of entities.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
@@ -10394,22 +10398,22 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050619</t>
+          <t>BCIO:050853</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
+          <t>comparison of current behaviour with a standard</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
           <t>comparison of current situation with a standard</t>
         </is>
       </c>
-      <c r="C166" s="2" t="inlineStr">
-        <is>
-          <t>comparative evaluation process</t>
-        </is>
-      </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>A &lt;comparative evaluation process&gt; that compares the current situation with a standard or benchmark.</t>
+          <t>&lt;Comparison of current situation with a standard&gt; where the focus is on current behaviour.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -10452,22 +10456,22 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006110</t>
+          <t>BCIO:050619</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>comprehension</t>
+          <t>comparison of current situation with a standard</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>comparative evaluation process</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive process&gt; that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+          <t>A &lt;comparative evaluation process&gt; that compares the current situation with a standard or benchmark.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -10510,22 +10514,22 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050620</t>
+          <t>BCIO:006110</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>conditioned positive reinforcer</t>
+          <t>comprehension</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>conditioned reinforcer</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A &lt;conditioned reinforcer&gt; that has acquired its reinforcing property by having been associated with a positive reinforcer.</t>
+          <t>A &lt;cognitive process&gt; that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
@@ -10568,22 +10572,22 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050621</t>
+          <t>BCIO:050620</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
+          <t>conditioned positive reinforcer</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
           <t>conditioned reinforcer</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>reinforcer</t>
-        </is>
-      </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>A &lt;reinforcer&gt; whose effect on behaviour results from being paired with another reinforcer</t>
+          <t>A &lt;conditioned reinforcer&gt; that has acquired its reinforcing property by having been associated with a positive reinforcer.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
@@ -10624,148 +10628,148 @@
       <c r="X169" s="2" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050621</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>conditioned reinforcer</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>reinforcer</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;reinforcer&gt; whose effect on behaviour results from being paired with another reinforcer</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr"/>
+      <c r="F170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr"/>
+      <c r="H170" s="2" t="inlineStr"/>
+      <c r="I170" s="2" t="inlineStr"/>
+      <c r="J170" s="2" t="inlineStr"/>
+      <c r="K170" s="2" t="inlineStr"/>
+      <c r="L170" s="2" t="inlineStr"/>
+      <c r="M170" s="2" t="inlineStr"/>
+      <c r="N170" s="2" t="inlineStr"/>
+      <c r="O170" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P170" s="2" t="inlineStr"/>
+      <c r="Q170" s="2" t="inlineStr"/>
+      <c r="R170" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S170" s="2" t="inlineStr"/>
+      <c r="T170" s="2" t="inlineStr"/>
+      <c r="U170" s="2" t="inlineStr"/>
+      <c r="V170" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W170" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X170" s="2" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>MF:0000017</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>consciousness</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and intends the object or event that the mental process is about, should such exist; it confers intentionality on the mental process.</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
         <is>
           <t>A subjective experience of one’s inner or outer world, which can include experience of one's own mental processes.</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>conscious awareness</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr">
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W170" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050622</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>control over one’s life</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;environmental disposition&gt; that is the extent to which the person can control what happens to them.</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr"/>
-      <c r="F171" s="2" t="inlineStr"/>
-      <c r="G171" s="2" t="inlineStr"/>
-      <c r="H171" s="2" t="inlineStr"/>
-      <c r="I171" s="2" t="inlineStr"/>
-      <c r="J171" s="2" t="inlineStr"/>
-      <c r="K171" s="2" t="inlineStr"/>
-      <c r="L171" s="2" t="inlineStr"/>
-      <c r="M171" s="2" t="inlineStr"/>
-      <c r="N171" s="2" t="inlineStr"/>
-      <c r="O171" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P171" s="2" t="inlineStr"/>
-      <c r="Q171" s="2" t="inlineStr"/>
-      <c r="R171" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S171" s="2" t="inlineStr"/>
-      <c r="T171" s="2" t="inlineStr"/>
-      <c r="U171" s="2" t="inlineStr"/>
-      <c r="V171" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W171" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X171" s="2" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050623</t>
+          <t>BCIO:050622</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>coping efficacy belief</t>
+          <t>control over one’s life</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about likelihood of consequences of a behaviour&gt; in terms of coping.</t>
+          <t>An &lt;environmental disposition&gt; that is the extent to which the person can control what happens to them.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
@@ -10808,22 +10812,22 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050624</t>
+          <t>BCIO:050623</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>coping planning</t>
+          <t>coping efficacy belief</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>&lt;Planning&gt; that involves identifying and attempting to overcome barriers to enacting a behaviour.</t>
+          <t>A &lt;belief about likelihood of consequences of a behaviour&gt; in terms of coping.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
@@ -10864,82 +10868,82 @@
       <c r="X173" s="2" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>MFOEM:000020</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>core disgust</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>&lt;Disgust&gt; elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W174" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X174" t="inlineStr"/>
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050624</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>coping planning</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>&lt;Planning&gt; that involves identifying and attempting to overcome barriers to enacting a behaviour.</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr"/>
+      <c r="F174" s="2" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr"/>
+      <c r="H174" s="2" t="inlineStr"/>
+      <c r="I174" s="2" t="inlineStr"/>
+      <c r="J174" s="2" t="inlineStr"/>
+      <c r="K174" s="2" t="inlineStr"/>
+      <c r="L174" s="2" t="inlineStr"/>
+      <c r="M174" s="2" t="inlineStr"/>
+      <c r="N174" s="2" t="inlineStr"/>
+      <c r="O174" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P174" s="2" t="inlineStr"/>
+      <c r="Q174" s="2" t="inlineStr"/>
+      <c r="R174" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S174" s="2" t="inlineStr"/>
+      <c r="T174" s="2" t="inlineStr"/>
+      <c r="U174" s="2" t="inlineStr"/>
+      <c r="V174" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W174" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X174" s="2" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ADDICTO:0000511</t>
+          <t>MFOEM:000020</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>craving</t>
+          <t>core disgust</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; involving a strong desire or urge.</t>
+          <t>&lt;Disgust&gt; elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -10958,11 +10962,7 @@
         </is>
       </c>
       <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr">
-        <is>
-          <t>RW: I've made the edits I suggest pending agreement from the rest of the team 23 Feb 22</t>
-        </is>
-      </c>
+      <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
@@ -10984,97 +10984,101 @@
       <c r="X175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006047</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>decision</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D176" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A &lt;mental disposition&gt; to represent one proposition as preferred from at least two. </t>
-        </is>
-      </c>
-      <c r="E176" s="2" t="inlineStr"/>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>A conclusion or resolution reached after consideration of options.</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="inlineStr"/>
-      <c r="H176" s="2" t="inlineStr"/>
-      <c r="I176" s="2" t="inlineStr">
-        <is>
-          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
-        </is>
-      </c>
-      <c r="J176" s="2" t="inlineStr"/>
-      <c r="K176" s="2" t="inlineStr"/>
-      <c r="L176" s="2" t="inlineStr"/>
-      <c r="M176" s="2" t="inlineStr"/>
-      <c r="N176" s="2" t="inlineStr"/>
-      <c r="O176" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P176" s="2" t="inlineStr"/>
-      <c r="Q176" s="2" t="inlineStr"/>
-      <c r="R176" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S176" s="2" t="inlineStr"/>
-      <c r="T176" s="2" t="inlineStr"/>
-      <c r="U176" s="2" t="inlineStr"/>
-      <c r="V176" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W176" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X176" s="2" t="inlineStr"/>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000511</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>craving</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>A &lt;subjective affective feeling&gt; involving a strong desire or urge.</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>RW: I've made the edits I suggest pending agreement from the rest of the team 23 Feb 22</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006111</t>
+          <t>BCIO:006047</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">decision simplification </t>
+          <t>decision</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive process&gt; used prior to decision-making that reduces the perceived scope or complexity of available options.</t>
+          <t xml:space="preserve">A &lt;mental disposition&gt; to represent one proposition as preferred from at least two. </t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
-      <c r="F177" s="2" t="inlineStr"/>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>A conclusion or resolution reached after consideration of options.</t>
+        </is>
+      </c>
       <c r="G177" s="2" t="inlineStr"/>
       <c r="H177" s="2" t="inlineStr"/>
-      <c r="I177" s="2" t="inlineStr"/>
+      <c r="I177" s="2" t="inlineStr">
+        <is>
+          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
+        </is>
+      </c>
       <c r="J177" s="2" t="inlineStr"/>
       <c r="K177" s="2" t="inlineStr"/>
       <c r="L177" s="2" t="inlineStr"/>
@@ -11110,33 +11114,29 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006116</t>
+          <t>BCIO:006111</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t xml:space="preserve">decision simplification </t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>&lt;Judging&gt; in which one or more propositions or behaviours are identified as preferred from a larger number.</t>
+          <t>A &lt;cognitive process&gt; used prior to decision-making that reduces the perceived scope or complexity of available options.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr"/>
       <c r="H178" s="2" t="inlineStr"/>
-      <c r="I178" s="2" t="inlineStr">
-        <is>
-          <t>The output of decision-making is a decision.</t>
-        </is>
-      </c>
+      <c r="I178" s="2" t="inlineStr"/>
       <c r="J178" s="2" t="inlineStr"/>
       <c r="K178" s="2" t="inlineStr"/>
       <c r="L178" s="2" t="inlineStr"/>
@@ -11172,29 +11172,33 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050854</t>
+          <t>BCIO:006116</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>decisional balance process about changing behaviour</t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>&lt;Decision-making&gt; in which the person compares the pros and cons of changing a behaviour pattern.</t>
+          <t>&lt;Judging&gt; in which one or more propositions or behaviours are identified as preferred from a larger number.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr"/>
       <c r="H179" s="2" t="inlineStr"/>
-      <c r="I179" s="2" t="inlineStr"/>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>The output of decision-making is a decision.</t>
+        </is>
+      </c>
       <c r="J179" s="2" t="inlineStr"/>
       <c r="K179" s="2" t="inlineStr"/>
       <c r="L179" s="2" t="inlineStr"/>
@@ -11230,22 +11234,22 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050625</t>
+          <t>BCIO:050854</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>deductive reasoning</t>
+          <t>decisional balance process about changing behaviour</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>reflective reasoning</t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>&lt;Reflective reasoning&gt; in which general propositions are used to draw more specific conclusions.</t>
+          <t>&lt;Decision-making&gt; in which the person compares the pros and cons of changing a behaviour pattern.</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
@@ -11288,22 +11292,22 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050855</t>
+          <t>BCIO:050625</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>denial belief</t>
+          <t>deductive reasoning</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>reflective reasoning</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief&gt; that a proposition is not true, not important or not relevant.</t>
+          <t>&lt;Reflective reasoning&gt; in which general propositions are used to draw more specific conclusions.</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
@@ -11346,33 +11350,29 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050856</t>
+          <t>BCIO:050855</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>denial belief about a need</t>
+          <t>denial belief</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">denial belief </t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>A &lt;denial belief&gt; that holds that the person does not have a specific bodily or psychological need in a given scenario.</t>
+          <t>A &lt;belief&gt; that a proposition is not true, not important or not relevant.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
       <c r="F182" s="2" t="inlineStr"/>
       <c r="G182" s="2" t="inlineStr"/>
       <c r="H182" s="2" t="inlineStr"/>
-      <c r="I182" s="2" t="inlineStr">
-        <is>
-          <t>This can include any type of need.</t>
-        </is>
-      </c>
+      <c r="I182" s="2" t="inlineStr"/>
       <c r="J182" s="2" t="inlineStr"/>
       <c r="K182" s="2" t="inlineStr"/>
       <c r="L182" s="2" t="inlineStr"/>
@@ -11408,12 +11408,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050857</t>
+          <t>BCIO:050856</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>denial belief about a responsibility to act</t>
+          <t>denial belief about a need</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -11423,14 +11423,18 @@
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>A &lt;denial belief&gt; that holds that the person has no responsibility to act to address a problem.</t>
+          <t>A &lt;denial belief&gt; that holds that the person does not have a specific bodily or psychological need in a given scenario.</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
       <c r="F183" s="2" t="inlineStr"/>
       <c r="G183" s="2" t="inlineStr"/>
       <c r="H183" s="2" t="inlineStr"/>
-      <c r="I183" s="2" t="inlineStr"/>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>This can include any type of need.</t>
+        </is>
+      </c>
       <c r="J183" s="2" t="inlineStr"/>
       <c r="K183" s="2" t="inlineStr"/>
       <c r="L183" s="2" t="inlineStr"/>
@@ -11466,12 +11470,12 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050858</t>
+          <t>BCIO:050857</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>denial belief about norm relevance</t>
+          <t>denial belief about a responsibility to act</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
@@ -11481,7 +11485,7 @@
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>A &lt;denial belief&gt; that holds that a norm is not relevant in a given scenario.</t>
+          <t>A &lt;denial belief&gt; that holds that the person has no responsibility to act to address a problem.</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -11524,22 +11528,22 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050626</t>
+          <t>BCIO:050858</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>depressed mood</t>
+          <t>denial belief about norm relevance</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>mood process</t>
+          <t xml:space="preserve">denial belief </t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mood process&gt; that involves generally feeling sad or blunted and experiencing low motivation to engage with activities.</t>
+          <t>A &lt;denial belief&gt; that holds that a norm is not relevant in a given scenario.</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
@@ -11582,22 +11586,22 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050627</t>
+          <t>BCIO:050626</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>depressive disposition</t>
+          <t>depressed mood</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mood process</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to experience depressed mood.</t>
+          <t>A &lt;mood process&gt; that involves generally feeling sad or blunted and experiencing low motivation to engage with activities.</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
@@ -11640,22 +11644,22 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050859</t>
+          <t>BCIO:050627</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>desired self-regulatory standard</t>
+          <t>depressive disposition</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>desired standard</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>A &lt;desired standard&gt; for a self-regulatory process that the person wishes to enact.</t>
+          <t>A &lt;mental disposition&gt; to experience depressed mood.</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
@@ -11698,33 +11702,29 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006079</t>
+          <t>BCIO:050859</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
+          <t>desired self-regulatory standard</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
           <t>desired standard</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; of a reference level that an individual wishes to obtain.</t>
+          <t>A &lt;desired standard&gt; for a self-regulatory process that the person wishes to enact.</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr"/>
       <c r="H188" s="2" t="inlineStr"/>
-      <c r="I188" s="2" t="inlineStr">
-        <is>
-          <t>Examples of 'reference level' are the level of a behaviour and the blood glucose level.</t>
-        </is>
-      </c>
+      <c r="I188" s="2" t="inlineStr"/>
       <c r="J188" s="2" t="inlineStr"/>
       <c r="K188" s="2" t="inlineStr"/>
       <c r="L188" s="2" t="inlineStr"/>
@@ -11760,29 +11760,33 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050860</t>
+          <t>BCIO:006079</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>desired standard for self-identity</t>
+          <t>desired standard</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>desired standard</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>A &lt;desired standard&gt; for a self-identity that the person wishes to attain.</t>
+          <t>A &lt;cognitive representation&gt; of a reference level that an individual wishes to obtain.</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
       <c r="G189" s="2" t="inlineStr"/>
       <c r="H189" s="2" t="inlineStr"/>
-      <c r="I189" s="2" t="inlineStr"/>
+      <c r="I189" s="2" t="inlineStr">
+        <is>
+          <t>Examples of 'reference level' are the level of a behaviour and the blood glucose level.</t>
+        </is>
+      </c>
       <c r="J189" s="2" t="inlineStr"/>
       <c r="K189" s="2" t="inlineStr"/>
       <c r="L189" s="2" t="inlineStr"/>
@@ -11818,33 +11822,29 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050628</t>
+          <t>BCIO:050860</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>differential reinforcement</t>
+          <t>desired standard for self-identity</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>reinforcement process</t>
+          <t>desired standard</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>A &lt;reinforcement process&gt; in which the event following the behaviour only occurs in particular situations.</t>
+          <t>A &lt;desired standard&gt; for a self-identity that the person wishes to attain.</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
       <c r="G190" s="2" t="inlineStr"/>
       <c r="H190" s="2" t="inlineStr"/>
-      <c r="I190" s="2" t="inlineStr">
-        <is>
-          <t>The situations could involve the presence of a stimulus (discriminative stimulus) that signals the contingency. A discriminative stimulus signals that a behaviour will be followed by a particular reinforcer.</t>
-        </is>
-      </c>
+      <c r="I190" s="2" t="inlineStr"/>
       <c r="J190" s="2" t="inlineStr"/>
       <c r="K190" s="2" t="inlineStr"/>
       <c r="L190" s="2" t="inlineStr"/>
@@ -11880,29 +11880,33 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006121</t>
+          <t>BCIO:050628</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>discrimination learning</t>
+          <t>differential reinforcement</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>reinforcement process</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>&lt;Associative learning&gt; in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
+          <t>A &lt;reinforcement process&gt; in which the event following the behaviour only occurs in particular situations.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
       <c r="G191" s="2" t="inlineStr"/>
       <c r="H191" s="2" t="inlineStr"/>
-      <c r="I191" s="2" t="inlineStr"/>
+      <c r="I191" s="2" t="inlineStr">
+        <is>
+          <t>The situations could involve the presence of a stimulus (discriminative stimulus) that signals the contingency. A discriminative stimulus signals that a behaviour will be followed by a particular reinforcer.</t>
+        </is>
+      </c>
       <c r="J191" s="2" t="inlineStr"/>
       <c r="K191" s="2" t="inlineStr"/>
       <c r="L191" s="2" t="inlineStr"/>
@@ -11938,33 +11942,29 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050629</t>
+          <t>BCIO:006121</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>discriminative stimulus</t>
+          <t>discrimination learning</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>A &lt;stimulus&gt; that signals that a behaviour will be followed by a particular reinforcer.</t>
+          <t>&lt;Associative learning&gt; in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
       <c r="G192" s="2" t="inlineStr"/>
       <c r="H192" s="2" t="inlineStr"/>
-      <c r="I192" s="2" t="inlineStr">
-        <is>
-          <t>Specific refers to an instance or subclass of something rather than anything in the general class. Particular refers to an instance or subclass of something rather than another instance or subclass of it.</t>
-        </is>
-      </c>
+      <c r="I192" s="2" t="inlineStr"/>
       <c r="J192" s="2" t="inlineStr"/>
       <c r="K192" s="2" t="inlineStr"/>
       <c r="L192" s="2" t="inlineStr"/>
@@ -12000,29 +12000,33 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050227</t>
+          <t>BCIO:050629</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>disengagement due to workload</t>
+          <t>discriminative stimulus</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to be detached from other people due to exhaustion experienced in one's working environment.</t>
+          <t>A &lt;stimulus&gt; that signals that a behaviour will be followed by a particular reinforcer.</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
       <c r="F193" s="2" t="inlineStr"/>
       <c r="G193" s="2" t="inlineStr"/>
       <c r="H193" s="2" t="inlineStr"/>
-      <c r="I193" s="2" t="inlineStr"/>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>Specific refers to an instance or subclass of something rather than anything in the general class. Particular refers to an instance or subclass of something rather than another instance or subclass of it.</t>
+        </is>
+      </c>
       <c r="J193" s="2" t="inlineStr"/>
       <c r="K193" s="2" t="inlineStr"/>
       <c r="L193" s="2" t="inlineStr"/>
@@ -12056,136 +12060,136 @@
       <c r="X193" s="2" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050227</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>disengagement due to workload</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;mental disposition&gt; to be detached from other people due to exhaustion experienced in one's working environment.</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr"/>
+      <c r="F194" s="2" t="inlineStr"/>
+      <c r="G194" s="2" t="inlineStr"/>
+      <c r="H194" s="2" t="inlineStr"/>
+      <c r="I194" s="2" t="inlineStr"/>
+      <c r="J194" s="2" t="inlineStr"/>
+      <c r="K194" s="2" t="inlineStr"/>
+      <c r="L194" s="2" t="inlineStr"/>
+      <c r="M194" s="2" t="inlineStr"/>
+      <c r="N194" s="2" t="inlineStr"/>
+      <c r="O194" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P194" s="2" t="inlineStr"/>
+      <c r="Q194" s="2" t="inlineStr"/>
+      <c r="R194" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S194" s="2" t="inlineStr"/>
+      <c r="T194" s="2" t="inlineStr"/>
+      <c r="U194" s="2" t="inlineStr"/>
+      <c r="V194" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W194" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X194" s="2" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000019 </t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>disgust</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr">
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S194" t="inlineStr"/>
-      <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
-      <c r="W194" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050630</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>disposition to attend to one’s goals</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>attentional disposition</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;attentional disposition&gt; to attend to one's goals.</t>
-        </is>
-      </c>
-      <c r="E195" s="2" t="inlineStr"/>
-      <c r="F195" s="2" t="inlineStr"/>
-      <c r="G195" s="2" t="inlineStr"/>
-      <c r="H195" s="2" t="inlineStr"/>
-      <c r="I195" s="2" t="inlineStr"/>
-      <c r="J195" s="2" t="inlineStr"/>
-      <c r="K195" s="2" t="inlineStr"/>
-      <c r="L195" s="2" t="inlineStr"/>
-      <c r="M195" s="2" t="inlineStr"/>
-      <c r="N195" s="2" t="inlineStr"/>
-      <c r="O195" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P195" s="2" t="inlineStr"/>
-      <c r="Q195" s="2" t="inlineStr"/>
-      <c r="R195" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S195" s="2" t="inlineStr"/>
-      <c r="T195" s="2" t="inlineStr"/>
-      <c r="U195" s="2" t="inlineStr"/>
-      <c r="V195" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W195" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X195" s="2" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006113</t>
+          <t>BCIO:050630</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction process</t>
+          <t>disposition to attend to one’s goals</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>attentional disposition</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
+          <t>An &lt;attentional disposition&gt; to attend to one's goals.</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -12228,22 +12232,22 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050631</t>
+          <t>BCIO:006113</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction process for a behaviour</t>
+          <t>dissonance reduction process</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>A &lt;dissonance reduction process&gt; in which the perceived discrepancy is between the person’s perceived behaviour and a target behaviour</t>
+          <t>A &lt;bodily process&gt; through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -12286,12 +12290,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050632</t>
+          <t>BCIO:050631</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through behavior</t>
+          <t>dissonance reduction process for a behaviour</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -12301,7 +12305,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction process&gt; that involves behaviour to reduce the inconsistency of two concurrently held conditions.</t>
+          <t>A &lt;dissonance reduction process&gt; in which the perceived discrepancy is between the person’s perceived behaviour and a target behaviour</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -12344,12 +12348,12 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050633</t>
+          <t>BCIO:050632</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction through mental process</t>
+          <t>dissonance reduction through behavior</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -12359,7 +12363,7 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>&lt;Dissonance reduction process&gt; that involves mental processes to reduce the inconsistency of two concurrently held conditions.</t>
+          <t>&lt;Dissonance reduction process&gt; that involves behaviour to reduce the inconsistency of two concurrently held conditions.</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -12402,22 +12406,22 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050634</t>
+          <t>BCIO:050633</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>drive process</t>
+          <t>dissonance reduction through mental process</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>behavioural motivation</t>
+          <t>dissonance reduction process</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural motivation&gt; that results from a physiological need.</t>
+          <t>&lt;Dissonance reduction process&gt; that involves mental processes to reduce the inconsistency of two concurrently held conditions.</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr"/>
@@ -12460,22 +12464,22 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050635</t>
+          <t>BCIO:050634</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">economic environmental system </t>
+          <t>drive process</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>behavioural motivation</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social environmental system&gt; of production, resource allocation and distribution of goods and services within a society or a given geographic area.</t>
+          <t>A &lt;behavioural motivation&gt; that results from a physiological need.</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr"/>
@@ -12501,11 +12505,7 @@
         </is>
       </c>
       <c r="S201" s="2" t="inlineStr"/>
-      <c r="T201" s="2" t="inlineStr">
-        <is>
-          <t>economic system (GSSO:003812)</t>
-        </is>
-      </c>
+      <c r="T201" s="2" t="inlineStr"/>
       <c r="U201" s="2" t="inlineStr"/>
       <c r="V201" s="2" t="inlineStr">
         <is>
@@ -12520,140 +12520,144 @@
       <c r="X201" s="2" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050635</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">economic environmental system </t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;social environmental system&gt; of production, resource allocation and distribution of goods and services within a society or a given geographic area.</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr"/>
+      <c r="F202" s="2" t="inlineStr"/>
+      <c r="G202" s="2" t="inlineStr"/>
+      <c r="H202" s="2" t="inlineStr"/>
+      <c r="I202" s="2" t="inlineStr"/>
+      <c r="J202" s="2" t="inlineStr"/>
+      <c r="K202" s="2" t="inlineStr"/>
+      <c r="L202" s="2" t="inlineStr"/>
+      <c r="M202" s="2" t="inlineStr"/>
+      <c r="N202" s="2" t="inlineStr"/>
+      <c r="O202" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P202" s="2" t="inlineStr"/>
+      <c r="Q202" s="2" t="inlineStr"/>
+      <c r="R202" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S202" s="2" t="inlineStr"/>
+      <c r="T202" s="2" t="inlineStr">
+        <is>
+          <t>economic system (GSSO:003812)</t>
+        </is>
+      </c>
+      <c r="U202" s="2" t="inlineStr"/>
+      <c r="V202" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W202" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X202" s="2" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>ENVO:01001110</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>ecosystem</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>An &lt;environmental system&gt; which includes both living and non-living components.</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr">
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S202" t="inlineStr"/>
-      <c r="T202" t="inlineStr"/>
-      <c r="U202" t="inlineStr"/>
-      <c r="V202" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W202" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050861</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>efficacy belief for a behaviour and its associated outcomes</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A &lt;belief&gt; about some person’s capability to organise and execute a behaviour and achieve the outcomes associated with this behaviour. </t>
-        </is>
-      </c>
-      <c r="E203" s="2" t="inlineStr"/>
-      <c r="F203" s="2" t="inlineStr"/>
-      <c r="G203" s="2" t="inlineStr"/>
-      <c r="H203" s="2" t="inlineStr"/>
-      <c r="I203" s="2" t="inlineStr"/>
-      <c r="J203" s="2" t="inlineStr"/>
-      <c r="K203" s="2" t="inlineStr"/>
-      <c r="L203" s="2" t="inlineStr"/>
-      <c r="M203" s="2" t="inlineStr"/>
-      <c r="N203" s="2" t="inlineStr"/>
-      <c r="O203" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P203" s="2" t="inlineStr"/>
-      <c r="Q203" s="2" t="inlineStr"/>
-      <c r="R203" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S203" s="2" t="inlineStr"/>
-      <c r="T203" s="2" t="inlineStr"/>
-      <c r="U203" s="2" t="inlineStr"/>
-      <c r="V203" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W203" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X203" s="2" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050636</t>
+          <t>BCIO:050861</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>egoistic personal health value</t>
+          <t>efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>egoistic personal value</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>An &lt;egoistic personal value&gt; that involves regarding health as fundamentally important in life.</t>
+          <t xml:space="preserve">A &lt;belief&gt; about some person’s capability to organise and execute a behaviour and achieve the outcomes associated with this behaviour. </t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
@@ -12696,22 +12700,22 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050637</t>
+          <t>BCIO:050636</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
+          <t>egoistic personal health value</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
           <t>egoistic personal value</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>personal value</t>
-        </is>
-      </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal value&gt; that involves regarding self-interest as fundamentally important in life.</t>
+          <t>An &lt;egoistic personal value&gt; that involves regarding health as fundamentally important in life.</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
@@ -12754,22 +12758,22 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050638</t>
+          <t>BCIO:050637</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>emotion about self</t>
+          <t>egoistic personal value</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotion process&gt; that is about oneself.</t>
+          <t>A &lt;personal value&gt; that involves regarding self-interest as fundamentally important in life.</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -12810,105 +12814,93 @@
       <c r="X206" s="2" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050638</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>emotion about self</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;emotion process&gt; that is about oneself.</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="inlineStr"/>
+      <c r="F207" s="2" t="inlineStr"/>
+      <c r="G207" s="2" t="inlineStr"/>
+      <c r="H207" s="2" t="inlineStr"/>
+      <c r="I207" s="2" t="inlineStr"/>
+      <c r="J207" s="2" t="inlineStr"/>
+      <c r="K207" s="2" t="inlineStr"/>
+      <c r="L207" s="2" t="inlineStr"/>
+      <c r="M207" s="2" t="inlineStr"/>
+      <c r="N207" s="2" t="inlineStr"/>
+      <c r="O207" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P207" s="2" t="inlineStr"/>
+      <c r="Q207" s="2" t="inlineStr"/>
+      <c r="R207" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S207" s="2" t="inlineStr"/>
+      <c r="T207" s="2" t="inlineStr"/>
+      <c r="U207" s="2" t="inlineStr"/>
+      <c r="V207" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W207" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X207" s="2" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000001 </t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>An &lt;affective process&gt; that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr">
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
         <is>
           <t>There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal process does not necessarily precede a physiological process part of the emotion process). 
 Emotion processes are distinguished from other affective processes (e.g., mood) by having an object. Even if an emotion is experienced due to physiological reasons, they would be felt as being about something or someone. For instance, a person might be angry at a situation that they would normally not be angry at, because they are hungry. However, that person would still be angry at a specific situation. 
 Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S207" t="inlineStr"/>
-      <c r="T207" t="inlineStr"/>
-      <c r="U207" t="inlineStr"/>
-      <c r="V207" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W207" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>MFOEM:000007</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>emotional action tendency</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>A &lt;bodily disposition&gt; to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>A tendency to enact a behaviour that is experienced during or after an emotion.</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Flight and fight action tendencies</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
         </is>
       </c>
       <c r="J208" t="inlineStr"/>
@@ -12933,106 +12925,114 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>MFOEM:000007</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>emotional action tendency</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>A &lt;bodily disposition&gt; to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>A tendency to enact a behaviour that is experienced during or after an emotion.</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Flight and fight action tendencies</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr">
+        <is>
           <t>PS; BG</t>
         </is>
       </c>
-      <c r="W208" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050639</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>emotional opportunity</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr">
-        <is>
-          <t>An &lt;environmental disposition&gt; that is realised as some emotion process.</t>
-        </is>
-      </c>
-      <c r="E209" s="2" t="inlineStr"/>
-      <c r="F209" s="2" t="inlineStr">
-        <is>
-          <t>A feature of a person’s environment that tends to lead to their experiencing an emotion.</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="inlineStr"/>
-      <c r="H209" s="2" t="inlineStr"/>
-      <c r="I209" s="2" t="inlineStr"/>
-      <c r="J209" s="2" t="inlineStr"/>
-      <c r="K209" s="2" t="inlineStr"/>
-      <c r="L209" s="2" t="inlineStr"/>
-      <c r="M209" s="2" t="inlineStr"/>
-      <c r="N209" s="2" t="inlineStr"/>
-      <c r="O209" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P209" s="2" t="inlineStr"/>
-      <c r="Q209" s="2" t="inlineStr"/>
-      <c r="R209" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S209" s="2" t="inlineStr"/>
-      <c r="T209" s="2" t="inlineStr"/>
-      <c r="U209" s="2" t="inlineStr"/>
-      <c r="V209" s="2" t="inlineStr">
-        <is>
-          <t>PS; BG</t>
-        </is>
-      </c>
-      <c r="W209" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X209" s="2" t="inlineStr"/>
+      <c r="W209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006008</t>
+          <t>BCIO:050639</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>emotional self-regulation capability</t>
+          <t>emotional opportunity</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>A &lt;self-regulation capability&gt; to modulate one's emotional responses to a stimulus.</t>
+          <t>An &lt;environmental disposition&gt; that is realised as some emotion process.</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
-      <c r="F210" s="2" t="inlineStr"/>
-      <c r="G210" s="2" t="inlineStr">
-        <is>
-          <t>emotional regulation capability</t>
-        </is>
-      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>A feature of a person’s environment that tends to lead to their experiencing an emotion.</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="inlineStr"/>
       <c r="H210" s="2" t="inlineStr"/>
       <c r="I210" s="2" t="inlineStr"/>
       <c r="J210" s="2" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
       <c r="U210" s="2" t="inlineStr"/>
       <c r="V210" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W210" s="2" t="inlineStr">
@@ -13070,27 +13070,31 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050640</t>
+          <t>BCIO:006008</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal of possible consequences</t>
+          <t>emotional self-regulation capability</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>emotional-relevance appraisal</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>An &lt;emotional-relevance appraisal&gt; of all the imagined consequences of an occurrence or state of affairs.</t>
+          <t>A &lt;self-regulation capability&gt; to modulate one's emotional responses to a stimulus.</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
       <c r="F211" s="2" t="inlineStr"/>
-      <c r="G211" s="2" t="inlineStr"/>
+      <c r="G211" s="2" t="inlineStr">
+        <is>
+          <t>emotional regulation capability</t>
+        </is>
+      </c>
       <c r="H211" s="2" t="inlineStr"/>
       <c r="I211" s="2" t="inlineStr"/>
       <c r="J211" s="2" t="inlineStr"/>
@@ -13126,66 +13130,62 @@
       <c r="X211" s="2" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>MFOEM:000002</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>emotional-relevance appraisal process</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that gives rise to an appraisal.</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Evaluating something's relevance to oneself.</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="inlineStr"/>
-      <c r="N212" t="inlineStr"/>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S212" t="inlineStr"/>
-      <c r="T212" t="inlineStr"/>
-      <c r="U212" t="inlineStr"/>
-      <c r="V212" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W212" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X212" t="inlineStr"/>
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050640</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>emotional-relevance appraisal of possible consequences</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>emotional-relevance appraisal</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;emotional-relevance appraisal&gt; of all the imagined consequences of an occurrence or state of affairs.</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="inlineStr"/>
+      <c r="F212" s="2" t="inlineStr"/>
+      <c r="G212" s="2" t="inlineStr"/>
+      <c r="H212" s="2" t="inlineStr"/>
+      <c r="I212" s="2" t="inlineStr"/>
+      <c r="J212" s="2" t="inlineStr"/>
+      <c r="K212" s="2" t="inlineStr"/>
+      <c r="L212" s="2" t="inlineStr"/>
+      <c r="M212" s="2" t="inlineStr"/>
+      <c r="N212" s="2" t="inlineStr"/>
+      <c r="O212" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P212" s="2" t="inlineStr"/>
+      <c r="Q212" s="2" t="inlineStr"/>
+      <c r="R212" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S212" s="2" t="inlineStr"/>
+      <c r="T212" s="2" t="inlineStr"/>
+      <c r="U212" s="2" t="inlineStr"/>
+      <c r="V212" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W212" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X212" s="2" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -15809,12 +15809,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ADDICTO:0000377</t>
+          <t>MFOEM:000205</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>feeling of need satisfaction</t>
+          <t>feeling of hunger</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -15824,20 +15824,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>A feeling involving positive affect associated with reduction in a feeling of need.</t>
+          <t>A &lt;subjective affective feeling&gt; that involves discomfort and is associated with a need to consume food.</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>subjective need</t>
-        </is>
-      </c>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -15862,7 +15854,7 @@
       <c r="U257" t="inlineStr"/>
       <c r="V257" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; RW</t>
         </is>
       </c>
       <c r="W257" t="inlineStr">
@@ -15873,82 +15865,90 @@
       <c r="X257" t="inlineStr"/>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050863</t>
-        </is>
-      </c>
-      <c r="B258" s="2" t="inlineStr">
-        <is>
-          <t>feeling of uncertainty</t>
-        </is>
-      </c>
-      <c r="C258" s="2" t="inlineStr">
-        <is>
-          <t>subjective feeling</t>
-        </is>
-      </c>
-      <c r="D258" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;subjective feeling&gt; of not knowing something.</t>
-        </is>
-      </c>
-      <c r="E258" s="2" t="inlineStr"/>
-      <c r="F258" s="2" t="inlineStr"/>
-      <c r="G258" s="2" t="inlineStr"/>
-      <c r="H258" s="2" t="inlineStr"/>
-      <c r="I258" s="2" t="inlineStr"/>
-      <c r="J258" s="2" t="inlineStr"/>
-      <c r="K258" s="2" t="inlineStr"/>
-      <c r="L258" s="2" t="inlineStr"/>
-      <c r="M258" s="2" t="inlineStr"/>
-      <c r="N258" s="2" t="inlineStr"/>
-      <c r="O258" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P258" s="2" t="inlineStr"/>
-      <c r="Q258" s="2" t="inlineStr"/>
-      <c r="R258" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S258" s="2" t="inlineStr"/>
-      <c r="T258" s="2" t="inlineStr"/>
-      <c r="U258" s="2" t="inlineStr"/>
-      <c r="V258" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W258" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X258" s="2" t="inlineStr"/>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000377</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>feeling of need satisfaction</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>A feeling involving positive affect associated with reduction in a feeling of need.</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>subjective need</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr"/>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050864</t>
+          <t>BCIO:050863</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>feeling of uncertainty about one’s behaviour</t>
+          <t>feeling of uncertainty</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>feeling of uncertainty</t>
+          <t>subjective feeling</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>A &lt;feeling of uncertainty&gt; about the best course of action.</t>
+          <t>A &lt;subjective feeling&gt; of not knowing something.</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr"/>
@@ -15991,22 +15991,22 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050233</t>
+          <t>BCIO:050864</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>feeling sadness</t>
+          <t>feeling of uncertainty about one’s behaviour</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>feeling of uncertainty</t>
         </is>
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;subjective affective feeling&gt; of sadness. </t>
+          <t>A &lt;feeling of uncertainty&gt; about the best course of action.</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr"/>
@@ -16049,12 +16049,12 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050664</t>
+          <t>BCIO:050233</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>feeling safe</t>
+          <t>feeling sadness</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; that one is not exposed to harm or risk of harm.</t>
+          <t xml:space="preserve">A &lt;subjective affective feeling&gt; of sadness. </t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr"/>
@@ -16107,12 +16107,12 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050665</t>
+          <t>BCIO:050664</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>feeling social pressure</t>
+          <t>feeling safe</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
@@ -16122,7 +16122,7 @@
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; of pressure from other people to act, think or feel in a particular way.</t>
+          <t>A &lt;subjective affective feeling&gt; that one is not exposed to harm or risk of harm.</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr"/>
@@ -16163,160 +16163,160 @@
       <c r="X262" s="2" t="inlineStr"/>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
+      <c r="A263" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050665</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>feeling social pressure</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;subjective affective feeling&gt; of pressure from other people to act, think or feel in a particular way.</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="inlineStr"/>
+      <c r="F263" s="2" t="inlineStr"/>
+      <c r="G263" s="2" t="inlineStr"/>
+      <c r="H263" s="2" t="inlineStr"/>
+      <c r="I263" s="2" t="inlineStr"/>
+      <c r="J263" s="2" t="inlineStr"/>
+      <c r="K263" s="2" t="inlineStr"/>
+      <c r="L263" s="2" t="inlineStr"/>
+      <c r="M263" s="2" t="inlineStr"/>
+      <c r="N263" s="2" t="inlineStr"/>
+      <c r="O263" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P263" s="2" t="inlineStr"/>
+      <c r="Q263" s="2" t="inlineStr"/>
+      <c r="R263" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S263" s="2" t="inlineStr"/>
+      <c r="T263" s="2" t="inlineStr"/>
+      <c r="U263" s="2" t="inlineStr"/>
+      <c r="V263" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W263" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X263" s="2" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
         <is>
           <t>MFOEM:000080</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>feeling tired</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
+      <c r="D264" t="inlineStr">
         <is>
           <t>A &lt;subjective affective feeling&gt; of tiredness, needing sleep.</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
-      <c r="N263" t="inlineStr"/>
-      <c r="O263" t="inlineStr">
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="inlineStr"/>
+      <c r="O264" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P263" t="inlineStr"/>
-      <c r="Q263" t="inlineStr"/>
-      <c r="R263" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S263" t="inlineStr"/>
-      <c r="T263" t="inlineStr"/>
-      <c r="U263" t="inlineStr"/>
-      <c r="V263" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W263" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="inlineStr">
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr"/>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr"/>
+      <c r="T264" t="inlineStr"/>
+      <c r="U264" t="inlineStr"/>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="inlineStr">
         <is>
           <t>BCIO:006087</t>
         </is>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>financial behavioural opportunity</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>physical behavioural opportunity</t>
         </is>
       </c>
-      <c r="D264" s="2" t="inlineStr">
+      <c r="D265" s="2" t="inlineStr">
         <is>
           <t>A &lt;physical behavioural opportunity&gt; that involves the person having sufficient financial resources.</t>
         </is>
       </c>
-      <c r="E264" s="2" t="inlineStr"/>
-      <c r="F264" s="2" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr"/>
+      <c r="F265" s="2" t="inlineStr">
         <is>
           <t>Characteristics of a person's environment that involve the material resources available to them and influence the person's ability to enact a behaviour.</t>
         </is>
       </c>
-      <c r="G264" s="2" t="inlineStr">
+      <c r="G265" s="2" t="inlineStr">
         <is>
           <t>economic behavioural opportunity; economic environmental system</t>
         </is>
       </c>
-      <c r="H264" s="2" t="inlineStr"/>
-      <c r="I264" s="2" t="inlineStr">
+      <c r="H265" s="2" t="inlineStr"/>
+      <c r="I265" s="2" t="inlineStr">
         <is>
           <t>Opportunity is an enabling environment.
 As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr"/>
-      <c r="K264" s="2" t="inlineStr"/>
-      <c r="L264" s="2" t="inlineStr"/>
-      <c r="M264" s="2" t="inlineStr"/>
-      <c r="N264" s="2" t="inlineStr"/>
-      <c r="O264" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P264" s="2" t="inlineStr"/>
-      <c r="Q264" s="2" t="inlineStr"/>
-      <c r="R264" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S264" s="2" t="inlineStr"/>
-      <c r="T264" s="2" t="inlineStr"/>
-      <c r="U264" s="2" t="inlineStr"/>
-      <c r="V264" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W264" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X264" s="2" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006003</t>
-        </is>
-      </c>
-      <c r="B265" s="2" t="inlineStr">
-        <is>
-          <t>friendship network</t>
-        </is>
-      </c>
-      <c r="C265" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system</t>
-        </is>
-      </c>
-      <c r="D265" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;social environmental system&gt; that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E265" s="2" t="inlineStr"/>
-      <c r="F265" s="2" t="inlineStr"/>
-      <c r="G265" s="2" t="inlineStr"/>
-      <c r="H265" s="2" t="inlineStr"/>
-      <c r="I265" s="2" t="inlineStr"/>
       <c r="J265" s="2" t="inlineStr"/>
       <c r="K265" s="2" t="inlineStr"/>
       <c r="L265" s="2" t="inlineStr"/>
@@ -16352,33 +16352,29 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006124</t>
+          <t>BCIO:006003</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>generalisation in learning</t>
+          <t>friendship network</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D266" s="2" t="inlineStr">
         <is>
-          <t>&lt;Associative learning&gt; in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
+          <t>A &lt;social environmental system&gt; that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
         </is>
       </c>
       <c r="E266" s="2" t="inlineStr"/>
       <c r="F266" s="2" t="inlineStr"/>
       <c r="G266" s="2" t="inlineStr"/>
       <c r="H266" s="2" t="inlineStr"/>
-      <c r="I266" s="2" t="inlineStr">
-        <is>
-          <t>The label 'Generalisation of target  behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
-        </is>
-      </c>
+      <c r="I266" s="2" t="inlineStr"/>
       <c r="J266" s="2" t="inlineStr"/>
       <c r="K266" s="2" t="inlineStr"/>
       <c r="L266" s="2" t="inlineStr"/>
@@ -16414,29 +16410,33 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050666</t>
+          <t>BCIO:006124</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>generalised reinforcer</t>
+          <t>generalisation in learning</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>conditioned reinforcer</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>A &lt;conditioned reinforcer&gt; whose effect has been caused by pairing with multiple primary reinforcers.</t>
+          <t>&lt;Associative learning&gt; in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr"/>
       <c r="F267" s="2" t="inlineStr"/>
       <c r="G267" s="2" t="inlineStr"/>
       <c r="H267" s="2" t="inlineStr"/>
-      <c r="I267" s="2" t="inlineStr"/>
+      <c r="I267" s="2" t="inlineStr">
+        <is>
+          <t>The label 'Generalisation of target  behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
+        </is>
+      </c>
       <c r="J267" s="2" t="inlineStr"/>
       <c r="K267" s="2" t="inlineStr"/>
       <c r="L267" s="2" t="inlineStr"/>
@@ -16472,22 +16472,22 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050667</t>
+          <t>BCIO:050666</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>generality of self-efficacy</t>
+          <t>generalised reinforcer</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>conditioned reinforcer</t>
         </is>
       </c>
       <c r="D268" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to be self-efficacious across a wide range of situations and behaviours.</t>
+          <t>A &lt;conditioned reinforcer&gt; whose effect has been caused by pairing with multiple primary reinforcers.</t>
         </is>
       </c>
       <c r="E268" s="2" t="inlineStr"/>
@@ -16530,22 +16530,22 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:050667</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>generality of self-efficacy</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; of an end state towards which one is striving.</t>
+          <t>A &lt;mental disposition&gt; to be self-efficacious across a wide range of situations and behaviours.</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr"/>
@@ -16588,33 +16588,29 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050668</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>goal about one’s resources</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal&gt; that concerns protecting or increasing the person’s resources.</t>
+          <t>A &lt;cognitive representation&gt; of an end state towards which one is striving.</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr"/>
       <c r="F270" s="2" t="inlineStr"/>
       <c r="G270" s="2" t="inlineStr"/>
       <c r="H270" s="2" t="inlineStr"/>
-      <c r="I270" s="2" t="inlineStr">
-        <is>
-          <t>This class is used for goals relating to personal resources that may be social, financial, material or psychological.</t>
-        </is>
-      </c>
+      <c r="I270" s="2" t="inlineStr"/>
       <c r="J270" s="2" t="inlineStr"/>
       <c r="K270" s="2" t="inlineStr"/>
       <c r="L270" s="2" t="inlineStr"/>
@@ -16650,29 +16646,33 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050320</t>
+          <t>BCIO:050668</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>goal conflict</t>
+          <t>goal about one’s resources</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>goal interaction</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal interaction&gt; in which the goals are incompatible.</t>
+          <t>A &lt;goal&gt; that concerns protecting or increasing the person’s resources.</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr"/>
       <c r="F271" s="2" t="inlineStr"/>
       <c r="G271" s="2" t="inlineStr"/>
       <c r="H271" s="2" t="inlineStr"/>
-      <c r="I271" s="2" t="inlineStr"/>
+      <c r="I271" s="2" t="inlineStr">
+        <is>
+          <t>This class is used for goals relating to personal resources that may be social, financial, material or psychological.</t>
+        </is>
+      </c>
       <c r="J271" s="2" t="inlineStr"/>
       <c r="K271" s="2" t="inlineStr"/>
       <c r="L271" s="2" t="inlineStr"/>
@@ -16708,33 +16708,29 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050865</t>
+          <t>BCIO:050320</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>goal conflict reduction process</t>
+          <t>goal conflict</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>goal interaction</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; that reduces negative affect resulting from goal conflict.</t>
+          <t>A &lt;goal interaction&gt; in which the goals are incompatible.</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
       <c r="F272" s="2" t="inlineStr"/>
       <c r="G272" s="2" t="inlineStr"/>
       <c r="H272" s="2" t="inlineStr"/>
-      <c r="I272" s="2" t="inlineStr">
-        <is>
-          <t>This class refers to any behaviour, cognitive or emotional process that has the function of reducing goal conflict, including changing goals, and cognitive restructuring to make goals seem compatible.</t>
-        </is>
-      </c>
+      <c r="I272" s="2" t="inlineStr"/>
       <c r="J272" s="2" t="inlineStr"/>
       <c r="K272" s="2" t="inlineStr"/>
       <c r="L272" s="2" t="inlineStr"/>
@@ -16770,29 +16766,33 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050321</t>
+          <t>BCIO:050865</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>goal facilitation</t>
+          <t>goal conflict reduction process</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>goal interaction</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal interaction&gt; in which the goals facilitate each other.</t>
+          <t>A &lt;bodily process&gt; that reduces negative affect resulting from goal conflict.</t>
         </is>
       </c>
       <c r="E273" s="2" t="inlineStr"/>
       <c r="F273" s="2" t="inlineStr"/>
       <c r="G273" s="2" t="inlineStr"/>
       <c r="H273" s="2" t="inlineStr"/>
-      <c r="I273" s="2" t="inlineStr"/>
+      <c r="I273" s="2" t="inlineStr">
+        <is>
+          <t>This class refers to any behaviour, cognitive or emotional process that has the function of reducing goal conflict, including changing goals, and cognitive restructuring to make goals seem compatible.</t>
+        </is>
+      </c>
       <c r="J273" s="2" t="inlineStr"/>
       <c r="K273" s="2" t="inlineStr"/>
       <c r="L273" s="2" t="inlineStr"/>
@@ -16815,7 +16815,7 @@
       <c r="U273" s="2" t="inlineStr"/>
       <c r="V273" s="2" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W273" s="2" t="inlineStr">
@@ -16828,22 +16828,22 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050322</t>
+          <t>BCIO:050321</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
+          <t>goal facilitation</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="inlineStr">
+        <is>
           <t>goal interaction</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; that is about the extent to which goals are compatible with each other.</t>
+          <t>A &lt;goal interaction&gt; in which the goals facilitate each other.</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr"/>
@@ -16854,11 +16854,7 @@
       <c r="J274" s="2" t="inlineStr"/>
       <c r="K274" s="2" t="inlineStr"/>
       <c r="L274" s="2" t="inlineStr"/>
-      <c r="M274" s="2" t="inlineStr">
-        <is>
-          <t>goal</t>
-        </is>
-      </c>
+      <c r="M274" s="2" t="inlineStr"/>
       <c r="N274" s="2" t="inlineStr"/>
       <c r="O274" s="2" t="inlineStr">
         <is>
@@ -16877,7 +16873,7 @@
       <c r="U274" s="2" t="inlineStr"/>
       <c r="V274" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="W274" s="2" t="inlineStr">
@@ -16890,37 +16886,37 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:050322</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>goal interaction</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; in which attempts are made to achieve a desired end state.</t>
+          <t>An &lt;information content entity&gt; that is about the extent to which goals are compatible with each other.</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr"/>
       <c r="F275" s="2" t="inlineStr"/>
       <c r="G275" s="2" t="inlineStr"/>
       <c r="H275" s="2" t="inlineStr"/>
-      <c r="I275" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
-        </is>
-      </c>
+      <c r="I275" s="2" t="inlineStr"/>
       <c r="J275" s="2" t="inlineStr"/>
       <c r="K275" s="2" t="inlineStr"/>
       <c r="L275" s="2" t="inlineStr"/>
-      <c r="M275" s="2" t="inlineStr"/>
+      <c r="M275" s="2" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
       <c r="N275" s="2" t="inlineStr"/>
       <c r="O275" s="2" t="inlineStr">
         <is>
@@ -16952,29 +16948,33 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006114</t>
+          <t>BCIO:006096</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>goal setting process</t>
+          <t>goal pursuit process</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that establishes a cognitive representation of the desired end state.</t>
+          <t>A &lt;bodily process&gt; in which attempts are made to achieve a desired end state.</t>
         </is>
       </c>
       <c r="E276" s="2" t="inlineStr"/>
       <c r="F276" s="2" t="inlineStr"/>
       <c r="G276" s="2" t="inlineStr"/>
       <c r="H276" s="2" t="inlineStr"/>
-      <c r="I276" s="2" t="inlineStr"/>
+      <c r="I276" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
+        </is>
+      </c>
       <c r="J276" s="2" t="inlineStr"/>
       <c r="K276" s="2" t="inlineStr"/>
       <c r="L276" s="2" t="inlineStr"/>
@@ -17010,33 +17010,29 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050669</t>
+          <t>BCIO:006114</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>group belief</t>
+          <t>goal setting process</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>social group attribute</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social group attribute&gt; in which a majority of members of a group have the belief.</t>
+          <t>A &lt;mental process&gt; that establishes a cognitive representation of the desired end state.</t>
         </is>
       </c>
       <c r="E277" s="2" t="inlineStr"/>
       <c r="F277" s="2" t="inlineStr"/>
       <c r="G277" s="2" t="inlineStr"/>
       <c r="H277" s="2" t="inlineStr"/>
-      <c r="I277" s="2" t="inlineStr">
-        <is>
-          <t>This is a fuzzy set and can only be used if operationalised.</t>
-        </is>
-      </c>
+      <c r="I277" s="2" t="inlineStr"/>
       <c r="J277" s="2" t="inlineStr"/>
       <c r="K277" s="2" t="inlineStr"/>
       <c r="L277" s="2" t="inlineStr"/>
@@ -17072,12 +17068,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050670</t>
+          <t>BCIO:050669</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>group descriptive behavioural norm</t>
+          <t>group belief</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
@@ -17087,20 +17083,16 @@
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social group attribute&gt; a behaviour is common within a social group.</t>
+          <t>A &lt;social group attribute&gt; in which a majority of members of a group have the belief.</t>
         </is>
       </c>
       <c r="E278" s="2" t="inlineStr"/>
       <c r="F278" s="2" t="inlineStr"/>
-      <c r="G278" s="2" t="inlineStr">
-        <is>
-          <t>social norm</t>
-        </is>
-      </c>
+      <c r="G278" s="2" t="inlineStr"/>
       <c r="H278" s="2" t="inlineStr"/>
       <c r="I278" s="2" t="inlineStr">
         <is>
-          <t>A group could be a population.</t>
+          <t>This is a fuzzy set and can only be used if operationalised.</t>
         </is>
       </c>
       <c r="J278" s="2" t="inlineStr"/>
@@ -17138,12 +17130,12 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050671</t>
+          <t>BCIO:050670</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>group evaluative behavioural norm</t>
+          <t>group descriptive behavioural norm</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
@@ -17153,12 +17145,16 @@
       </c>
       <c r="D279" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social group attribute&gt; in which members of the group share an evaluative belief of a behaviour.</t>
+          <t>A &lt;social group attribute&gt; a behaviour is common within a social group.</t>
         </is>
       </c>
       <c r="E279" s="2" t="inlineStr"/>
       <c r="F279" s="2" t="inlineStr"/>
-      <c r="G279" s="2" t="inlineStr"/>
+      <c r="G279" s="2" t="inlineStr">
+        <is>
+          <t>social norm</t>
+        </is>
+      </c>
       <c r="H279" s="2" t="inlineStr"/>
       <c r="I279" s="2" t="inlineStr">
         <is>
@@ -17200,29 +17196,33 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050672</t>
+          <t>BCIO:050671</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>group facilitation behaviour</t>
+          <t>group evaluative behavioural norm</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>behavioural disposition</t>
+          <t>social group attribute</t>
         </is>
       </c>
       <c r="D280" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural disposition&gt; of members of a social group to enable each others’ engagement in group actions.</t>
+          <t>A &lt;social group attribute&gt; in which members of the group share an evaluative belief of a behaviour.</t>
         </is>
       </c>
       <c r="E280" s="2" t="inlineStr"/>
       <c r="F280" s="2" t="inlineStr"/>
       <c r="G280" s="2" t="inlineStr"/>
       <c r="H280" s="2" t="inlineStr"/>
-      <c r="I280" s="2" t="inlineStr"/>
+      <c r="I280" s="2" t="inlineStr">
+        <is>
+          <t>A group could be a population.</t>
+        </is>
+      </c>
       <c r="J280" s="2" t="inlineStr"/>
       <c r="K280" s="2" t="inlineStr"/>
       <c r="L280" s="2" t="inlineStr"/>
@@ -17256,268 +17256,263 @@
       <c r="X280" s="2" t="inlineStr"/>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
+      <c r="A281" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050672</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="inlineStr">
+        <is>
+          <t>group facilitation behaviour</t>
+        </is>
+      </c>
+      <c r="C281" s="2" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;behavioural disposition&gt; of members of a social group to enable each others’ engagement in group actions.</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="inlineStr"/>
+      <c r="F281" s="2" t="inlineStr"/>
+      <c r="G281" s="2" t="inlineStr"/>
+      <c r="H281" s="2" t="inlineStr"/>
+      <c r="I281" s="2" t="inlineStr"/>
+      <c r="J281" s="2" t="inlineStr"/>
+      <c r="K281" s="2" t="inlineStr"/>
+      <c r="L281" s="2" t="inlineStr"/>
+      <c r="M281" s="2" t="inlineStr"/>
+      <c r="N281" s="2" t="inlineStr"/>
+      <c r="O281" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P281" s="2" t="inlineStr"/>
+      <c r="Q281" s="2" t="inlineStr"/>
+      <c r="R281" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S281" s="2" t="inlineStr"/>
+      <c r="T281" s="2" t="inlineStr"/>
+      <c r="U281" s="2" t="inlineStr"/>
+      <c r="V281" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W281" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X281" s="2" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
         <is>
           <t>ADDICTO:0000715</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B282" t="inlineStr">
         <is>
           <t>group identity</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C282" t="inlineStr">
         <is>
           <t>identity</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr">
+      <c r="D282" t="inlineStr">
         <is>
           <t>An &lt;identity&gt; that a group holds about itself.</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr">
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr">
         <is>
           <t>An ongoing consideration regarding this class is whether a socially shared representation can be said to be purely cognitive.</t>
         </is>
       </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="inlineStr"/>
-      <c r="N281" t="inlineStr"/>
-      <c r="O281" t="inlineStr">
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="inlineStr"/>
+      <c r="O282" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P281" t="inlineStr"/>
-      <c r="Q281" t="inlineStr"/>
-      <c r="R281" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S281" t="inlineStr"/>
-      <c r="T281" t="inlineStr"/>
-      <c r="U281" t="inlineStr"/>
-      <c r="V281" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W281" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="inlineStr">
+      <c r="P282" t="inlineStr"/>
+      <c r="Q282" t="inlineStr"/>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr"/>
+      <c r="T282" t="inlineStr"/>
+      <c r="U282" t="inlineStr"/>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="inlineStr">
         <is>
           <t>BCIO:050866</t>
         </is>
       </c>
-      <c r="B282" s="2" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>group identity development</t>
         </is>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C283" s="2" t="inlineStr">
         <is>
           <t>social group process</t>
         </is>
       </c>
-      <c r="D282" s="2" t="inlineStr">
+      <c r="D283" s="2" t="inlineStr">
         <is>
           <t>A &lt;social group process&gt; that results in development of some group identity.</t>
         </is>
       </c>
-      <c r="E282" s="2" t="inlineStr"/>
-      <c r="F282" s="2" t="inlineStr"/>
-      <c r="G282" s="2" t="inlineStr"/>
-      <c r="H282" s="2" t="inlineStr"/>
-      <c r="I282" s="2" t="inlineStr"/>
-      <c r="J282" s="2" t="inlineStr"/>
-      <c r="K282" s="2" t="inlineStr"/>
-      <c r="L282" s="2" t="inlineStr"/>
-      <c r="M282" s="2" t="inlineStr"/>
-      <c r="N282" s="2" t="inlineStr"/>
-      <c r="O282" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P282" s="2" t="inlineStr"/>
-      <c r="Q282" s="2" t="inlineStr"/>
-      <c r="R282" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S282" s="2" t="inlineStr"/>
-      <c r="T282" s="2" t="inlineStr"/>
-      <c r="U282" s="2" t="inlineStr"/>
-      <c r="V282" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W282" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X282" s="2" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
+      <c r="E283" s="2" t="inlineStr"/>
+      <c r="F283" s="2" t="inlineStr"/>
+      <c r="G283" s="2" t="inlineStr"/>
+      <c r="H283" s="2" t="inlineStr"/>
+      <c r="I283" s="2" t="inlineStr"/>
+      <c r="J283" s="2" t="inlineStr"/>
+      <c r="K283" s="2" t="inlineStr"/>
+      <c r="L283" s="2" t="inlineStr"/>
+      <c r="M283" s="2" t="inlineStr"/>
+      <c r="N283" s="2" t="inlineStr"/>
+      <c r="O283" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P283" s="2" t="inlineStr"/>
+      <c r="Q283" s="2" t="inlineStr"/>
+      <c r="R283" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S283" s="2" t="inlineStr"/>
+      <c r="T283" s="2" t="inlineStr"/>
+      <c r="U283" s="2" t="inlineStr"/>
+      <c r="V283" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W283" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X283" s="2" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
         <is>
           <t>MFOEM:000053</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B284" t="inlineStr">
         <is>
           <t>guilt</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C284" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr">
+      <c r="D284" t="inlineStr">
         <is>
           <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="inlineStr"/>
-      <c r="N283" t="inlineStr"/>
-      <c r="O283" t="inlineStr">
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="inlineStr"/>
+      <c r="O284" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P283" t="inlineStr"/>
-      <c r="Q283" t="inlineStr"/>
-      <c r="R283" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S283" t="inlineStr"/>
-      <c r="T283" t="inlineStr"/>
-      <c r="U283" t="inlineStr"/>
-      <c r="V283" t="inlineStr"/>
-      <c r="W283" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006309</t>
-        </is>
-      </c>
-      <c r="B284" s="2" t="inlineStr">
-        <is>
-          <t>habit learning</t>
-        </is>
-      </c>
-      <c r="C284" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D284" s="2" t="inlineStr">
-        <is>
-          <t>&lt;Associative learning&gt; that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
-        </is>
-      </c>
-      <c r="E284" s="2" t="inlineStr"/>
-      <c r="F284" s="2" t="inlineStr"/>
-      <c r="G284" s="2" t="inlineStr"/>
-      <c r="H284" s="2" t="inlineStr"/>
-      <c r="I284" s="2" t="inlineStr"/>
-      <c r="J284" s="2" t="inlineStr"/>
-      <c r="K284" s="2" t="inlineStr"/>
-      <c r="L284" s="2" t="inlineStr"/>
-      <c r="M284" s="2" t="inlineStr"/>
-      <c r="N284" s="2" t="inlineStr"/>
-      <c r="O284" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P284" s="2" t="inlineStr"/>
-      <c r="Q284" s="2" t="inlineStr"/>
-      <c r="R284" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S284" s="2" t="inlineStr"/>
-      <c r="T284" s="2" t="inlineStr"/>
-      <c r="U284" s="2" t="inlineStr"/>
-      <c r="V284" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W284" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X284" s="2" t="inlineStr"/>
+      <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr"/>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr"/>
+      <c r="T284" t="inlineStr"/>
+      <c r="U284" t="inlineStr"/>
+      <c r="V284" t="inlineStr"/>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006158</t>
+          <t>BCIO:006309</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>habitual behaviour</t>
+          <t>habit learning</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D285" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+          <t>&lt;Associative learning&gt; that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
         </is>
       </c>
       <c r="E285" s="2" t="inlineStr"/>
       <c r="F285" s="2" t="inlineStr"/>
       <c r="G285" s="2" t="inlineStr"/>
       <c r="H285" s="2" t="inlineStr"/>
-      <c r="I285" s="2" t="inlineStr">
-        <is>
-          <t>A learnt stimulus-behaviour co-occurrence can lead to activation or execution of a habitual behaviour.
-Habitual behaviour can be an MoA or outcome depending on how 'habitual behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a habitual behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
-        </is>
-      </c>
+      <c r="I285" s="2" t="inlineStr"/>
       <c r="J285" s="2" t="inlineStr"/>
       <c r="K285" s="2" t="inlineStr"/>
       <c r="L285" s="2" t="inlineStr"/>
@@ -17551,78 +17546,87 @@
       <c r="X285" s="2" t="inlineStr"/>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>GO:0046959</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>habituation</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-      <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="inlineStr"/>
-      <c r="N286" t="inlineStr"/>
-      <c r="O286" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P286" t="inlineStr"/>
-      <c r="Q286" t="inlineStr"/>
-      <c r="R286" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S286" t="inlineStr"/>
-      <c r="T286" t="inlineStr"/>
-      <c r="U286" t="inlineStr"/>
-      <c r="V286" t="inlineStr"/>
-      <c r="W286" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X286" t="inlineStr"/>
+      <c r="A286" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006158</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
+      <c r="C286" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="inlineStr"/>
+      <c r="F286" s="2" t="inlineStr"/>
+      <c r="G286" s="2" t="inlineStr"/>
+      <c r="H286" s="2" t="inlineStr"/>
+      <c r="I286" s="2" t="inlineStr">
+        <is>
+          <t>A learnt stimulus-behaviour co-occurrence can lead to activation or execution of a habitual behaviour.
+Habitual behaviour can be an MoA or outcome depending on how 'habitual behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a habitual behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
+      <c r="J286" s="2" t="inlineStr"/>
+      <c r="K286" s="2" t="inlineStr"/>
+      <c r="L286" s="2" t="inlineStr"/>
+      <c r="M286" s="2" t="inlineStr"/>
+      <c r="N286" s="2" t="inlineStr"/>
+      <c r="O286" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P286" s="2" t="inlineStr"/>
+      <c r="Q286" s="2" t="inlineStr"/>
+      <c r="R286" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S286" s="2" t="inlineStr"/>
+      <c r="T286" s="2" t="inlineStr"/>
+      <c r="U286" s="2" t="inlineStr"/>
+      <c r="V286" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W286" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X286" s="2" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>MFOEM:000042</t>
+          <t>GO:0046959</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>habituation</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
@@ -17659,217 +17663,213 @@
       <c r="X287" t="inlineStr"/>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="inlineStr">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>MFOEM:000042</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>happiness</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="inlineStr"/>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr"/>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr"/>
+      <c r="T288" t="inlineStr"/>
+      <c r="U288" t="inlineStr"/>
+      <c r="V288" t="inlineStr"/>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="inlineStr">
         <is>
           <t>BCIO:050673</t>
         </is>
       </c>
-      <c r="B288" s="2" t="inlineStr">
+      <c r="B289" s="2" t="inlineStr">
         <is>
           <t>harmful fear reduction mental process</t>
         </is>
       </c>
-      <c r="C288" s="2" t="inlineStr">
+      <c r="C289" s="2" t="inlineStr">
         <is>
           <t>fear reduction mental process</t>
         </is>
       </c>
-      <c r="D288" s="2" t="inlineStr">
+      <c r="D289" s="2" t="inlineStr">
         <is>
           <t>A &lt;fear reduction mental process&gt; that has a negative outcome.</t>
         </is>
       </c>
-      <c r="E288" s="2" t="inlineStr"/>
-      <c r="F288" s="2" t="inlineStr"/>
-      <c r="G288" s="2" t="inlineStr"/>
-      <c r="H288" s="2" t="inlineStr"/>
-      <c r="I288" s="2" t="inlineStr">
+      <c r="E289" s="2" t="inlineStr"/>
+      <c r="F289" s="2" t="inlineStr"/>
+      <c r="G289" s="2" t="inlineStr"/>
+      <c r="H289" s="2" t="inlineStr"/>
+      <c r="I289" s="2" t="inlineStr">
         <is>
           <t>‘Negative’ is inherently subjective. It could mean a bad outcome for the person, the people or those around them, or society more generally.</t>
         </is>
       </c>
-      <c r="J288" s="2" t="inlineStr"/>
-      <c r="K288" s="2" t="inlineStr"/>
-      <c r="L288" s="2" t="inlineStr"/>
-      <c r="M288" s="2" t="inlineStr"/>
-      <c r="N288" s="2" t="inlineStr"/>
-      <c r="O288" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P288" s="2" t="inlineStr"/>
-      <c r="Q288" s="2" t="inlineStr"/>
-      <c r="R288" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S288" s="2" t="inlineStr"/>
-      <c r="T288" s="2" t="inlineStr"/>
-      <c r="U288" s="2" t="inlineStr"/>
-      <c r="V288" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W288" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X288" s="2" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
+      <c r="J289" s="2" t="inlineStr"/>
+      <c r="K289" s="2" t="inlineStr"/>
+      <c r="L289" s="2" t="inlineStr"/>
+      <c r="M289" s="2" t="inlineStr"/>
+      <c r="N289" s="2" t="inlineStr"/>
+      <c r="O289" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P289" s="2" t="inlineStr"/>
+      <c r="Q289" s="2" t="inlineStr"/>
+      <c r="R289" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S289" s="2" t="inlineStr"/>
+      <c r="T289" s="2" t="inlineStr"/>
+      <c r="U289" s="2" t="inlineStr"/>
+      <c r="V289" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W289" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X289" s="2" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0000241 </t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="B290" t="inlineStr">
         <is>
           <t>harmfulness</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
+      <c r="C290" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr">
+      <c r="D290" t="inlineStr">
         <is>
           <t>A &lt;disposition&gt; that is realised as a harm process.</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-      <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="inlineStr"/>
-      <c r="N289" t="inlineStr"/>
-      <c r="O289" t="inlineStr">
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="inlineStr"/>
+      <c r="O290" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P289" t="inlineStr"/>
-      <c r="Q289" t="inlineStr"/>
-      <c r="R289" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S289" t="inlineStr"/>
-      <c r="T289" t="inlineStr"/>
-      <c r="U289" t="inlineStr"/>
-      <c r="V289" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W289" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006088</t>
-        </is>
-      </c>
-      <c r="B290" s="2" t="inlineStr">
-        <is>
-          <t>healthcare access</t>
-        </is>
-      </c>
-      <c r="C290" s="2" t="inlineStr">
-        <is>
-          <t>behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="D290" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;behavioural opportunity&gt; regarding how easy it is for a person to approach and use a healthcare service.</t>
-        </is>
-      </c>
-      <c r="E290" s="2" t="inlineStr"/>
-      <c r="F290" s="2" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that enable or facilitate accessing healthcare services.</t>
-        </is>
-      </c>
-      <c r="G290" s="2" t="inlineStr"/>
-      <c r="H290" s="2" t="inlineStr"/>
-      <c r="I290" s="2" t="inlineStr">
-        <is>
-          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
-        </is>
-      </c>
-      <c r="J290" s="2" t="inlineStr"/>
-      <c r="K290" s="2" t="inlineStr"/>
-      <c r="L290" s="2" t="inlineStr"/>
-      <c r="M290" s="2" t="inlineStr"/>
-      <c r="N290" s="2" t="inlineStr"/>
-      <c r="O290" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P290" s="2" t="inlineStr"/>
-      <c r="Q290" s="2" t="inlineStr"/>
-      <c r="R290" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S290" s="2" t="inlineStr"/>
-      <c r="T290" s="2" t="inlineStr"/>
-      <c r="U290" s="2" t="inlineStr"/>
-      <c r="V290" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W290" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X290" s="2" t="inlineStr"/>
+      <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr"/>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr"/>
+      <c r="T290" t="inlineStr"/>
+      <c r="U290" t="inlineStr"/>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006115</t>
+          <t>BCIO:006088</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>heuristic process</t>
+          <t>healthcare access</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D291" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that uses simple rules and associations learnt from experience to make judgements.</t>
+          <t>A &lt;behavioural opportunity&gt; regarding how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E291" s="2" t="inlineStr"/>
-      <c r="F291" s="2" t="inlineStr"/>
+      <c r="F291" s="2" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that enable or facilitate accessing healthcare services.</t>
+        </is>
+      </c>
       <c r="G291" s="2" t="inlineStr"/>
       <c r="H291" s="2" t="inlineStr"/>
-      <c r="I291" s="2" t="inlineStr"/>
+      <c r="I291" s="2" t="inlineStr">
+        <is>
+          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
+        </is>
+      </c>
       <c r="J291" s="2" t="inlineStr"/>
       <c r="K291" s="2" t="inlineStr"/>
       <c r="L291" s="2" t="inlineStr"/>
@@ -17905,41 +17905,33 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050674</t>
+          <t>BCIO:006115</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>high capability to enact a behaviour</t>
+          <t>heuristic process</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D292" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal attribute&gt;in terms of behavioural capability being high.</t>
+          <t>A &lt;mental process&gt; that uses simple rules and associations learnt from experience to make judgements.</t>
         </is>
       </c>
       <c r="E292" s="2" t="inlineStr"/>
       <c r="F292" s="2" t="inlineStr"/>
       <c r="G292" s="2" t="inlineStr"/>
       <c r="H292" s="2" t="inlineStr"/>
-      <c r="I292" s="2" t="inlineStr">
-        <is>
-          <t>This is a fuzzy set and can only be used if operationalised.</t>
-        </is>
-      </c>
+      <c r="I292" s="2" t="inlineStr"/>
       <c r="J292" s="2" t="inlineStr"/>
       <c r="K292" s="2" t="inlineStr"/>
       <c r="L292" s="2" t="inlineStr"/>
-      <c r="M292" s="2" t="inlineStr">
-        <is>
-          <t>behavioural capability</t>
-        </is>
-      </c>
+      <c r="M292" s="2" t="inlineStr"/>
       <c r="N292" s="2" t="inlineStr"/>
       <c r="O292" s="2" t="inlineStr">
         <is>
@@ -17961,20 +17953,22 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W292" s="2" t="n">
-        <v>1</v>
+      <c r="W292" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X292" s="2" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050675</t>
+          <t>BCIO:050674</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>high motivational disposition to change behaviour</t>
+          <t>high capability to enact a behaviour</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
@@ -17984,7 +17978,7 @@
       </c>
       <c r="D293" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal attribute&gt; in terms of motivational disposition to change behaviour being high.</t>
+          <t>A &lt;personal attribute&gt;in terms of behavioural capability being high.</t>
         </is>
       </c>
       <c r="E293" s="2" t="inlineStr"/>
@@ -18001,7 +17995,7 @@
       <c r="L293" s="2" t="inlineStr"/>
       <c r="M293" s="2" t="inlineStr">
         <is>
-          <t>motivational disposition to change behaviour</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="N293" s="2" t="inlineStr"/>
@@ -18033,12 +18027,12 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050676</t>
+          <t>BCIO:050675</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>high opportunity to enact a behaviour</t>
+          <t>high motivational disposition to change behaviour</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
@@ -18048,7 +18042,7 @@
       </c>
       <c r="D294" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal attribute&gt; in terms of  behavioural opportunity being high.</t>
+          <t>A &lt;personal attribute&gt; in terms of motivational disposition to change behaviour being high.</t>
         </is>
       </c>
       <c r="E294" s="2" t="inlineStr"/>
@@ -18065,7 +18059,7 @@
       <c r="L294" s="2" t="inlineStr"/>
       <c r="M294" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>motivational disposition to change behaviour</t>
         </is>
       </c>
       <c r="N294" s="2" t="inlineStr"/>
@@ -18097,37 +18091,41 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050676</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>high opportunity to enact a behaviour</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D295" s="2" t="inlineStr">
         <is>
-          <t>An &lt;expressive behaviour&gt; that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="E295" s="2" t="inlineStr">
-        <is>
-          <t>"expressive behaviour" AND "inter-personal behaviour"</t>
-        </is>
-      </c>
+          <t>A &lt;personal attribute&gt; in terms of  behavioural opportunity being high.</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="inlineStr"/>
       <c r="F295" s="2" t="inlineStr"/>
       <c r="G295" s="2" t="inlineStr"/>
       <c r="H295" s="2" t="inlineStr"/>
-      <c r="I295" s="2" t="inlineStr"/>
+      <c r="I295" s="2" t="inlineStr">
+        <is>
+          <t>This is a fuzzy set and can only be used if operationalised.</t>
+        </is>
+      </c>
       <c r="J295" s="2" t="inlineStr"/>
       <c r="K295" s="2" t="inlineStr"/>
       <c r="L295" s="2" t="inlineStr"/>
-      <c r="M295" s="2" t="inlineStr"/>
+      <c r="M295" s="2" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
       <c r="N295" s="2" t="inlineStr"/>
       <c r="O295" s="2" t="inlineStr">
         <is>
@@ -18149,70 +18147,72 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W295" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W295" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X295" s="2" t="inlineStr"/>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>MFOEM:000205</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>hunger</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>A &lt;subjective affective feeling&gt; that involves discomfort and is associated with a need to consume food.</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="inlineStr"/>
-      <c r="N296" t="inlineStr"/>
-      <c r="O296" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P296" t="inlineStr"/>
-      <c r="Q296" t="inlineStr"/>
-      <c r="R296" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S296" t="inlineStr"/>
-      <c r="T296" t="inlineStr"/>
-      <c r="U296" t="inlineStr"/>
-      <c r="V296" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W296" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X296" t="inlineStr"/>
+      <c r="A296" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036034</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="C296" s="2" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;expressive behaviour&gt; that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="inlineStr">
+        <is>
+          <t>"expressive behaviour" AND "inter-personal behaviour"</t>
+        </is>
+      </c>
+      <c r="F296" s="2" t="inlineStr"/>
+      <c r="G296" s="2" t="inlineStr"/>
+      <c r="H296" s="2" t="inlineStr"/>
+      <c r="I296" s="2" t="inlineStr"/>
+      <c r="J296" s="2" t="inlineStr"/>
+      <c r="K296" s="2" t="inlineStr"/>
+      <c r="L296" s="2" t="inlineStr"/>
+      <c r="M296" s="2" t="inlineStr"/>
+      <c r="N296" s="2" t="inlineStr"/>
+      <c r="O296" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P296" s="2" t="inlineStr"/>
+      <c r="Q296" s="2" t="inlineStr"/>
+      <c r="R296" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S296" s="2" t="inlineStr"/>
+      <c r="T296" s="2" t="inlineStr"/>
+      <c r="U296" s="2" t="inlineStr"/>
+      <c r="V296" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W296" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X296" s="2" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -24839,68 +24839,80 @@
       <c r="X406" s="2" t="inlineStr"/>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>GO:0046958</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
-        </is>
-      </c>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr"/>
-      <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr"/>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
-      <c r="M407" t="inlineStr"/>
-      <c r="N407" t="inlineStr"/>
-      <c r="O407" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P407" t="inlineStr"/>
-      <c r="Q407" t="inlineStr"/>
-      <c r="R407" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S407" t="inlineStr"/>
-      <c r="T407" t="inlineStr"/>
-      <c r="U407" t="inlineStr"/>
-      <c r="V407" t="inlineStr"/>
-      <c r="W407" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X407" t="inlineStr"/>
+      <c r="A407" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050725</t>
+        </is>
+      </c>
+      <c r="B407" s="2" t="inlineStr">
+        <is>
+          <t>non-conscious mental process</t>
+        </is>
+      </c>
+      <c r="C407" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D407" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;mental process&gt; that does not involve conscious awareness.</t>
+        </is>
+      </c>
+      <c r="E407" s="2" t="inlineStr"/>
+      <c r="F407" s="2" t="inlineStr">
+        <is>
+          <t>automatic mental process</t>
+        </is>
+      </c>
+      <c r="G407" s="2" t="inlineStr">
+        <is>
+          <t>"mental process" not has process attribute "consciousness"</t>
+        </is>
+      </c>
+      <c r="H407" s="2" t="inlineStr"/>
+      <c r="I407" s="2" t="inlineStr"/>
+      <c r="J407" s="2" t="inlineStr"/>
+      <c r="K407" s="2" t="inlineStr"/>
+      <c r="L407" s="2" t="inlineStr"/>
+      <c r="M407" s="2" t="inlineStr"/>
+      <c r="N407" s="2" t="inlineStr"/>
+      <c r="O407" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P407" s="2" t="inlineStr"/>
+      <c r="Q407" s="2" t="inlineStr"/>
+      <c r="R407" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S407" s="2" t="inlineStr"/>
+      <c r="T407" s="2" t="inlineStr"/>
+      <c r="U407" s="2" t="inlineStr"/>
+      <c r="V407" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W407" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X407" s="2" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050725</t>
+          <t>BCIO:050235</t>
         </is>
       </c>
       <c r="B408" s="2" t="inlineStr">
         <is>
-          <t>non-conscious mental process</t>
+          <t>non-judgmental acknowledgement</t>
         </is>
       </c>
       <c r="C408" s="2" t="inlineStr">
@@ -24910,18 +24922,14 @@
       </c>
       <c r="D408" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that does not involve conscious awareness.</t>
+          <t>A &lt;mental process&gt; that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
         </is>
       </c>
       <c r="E408" s="2" t="inlineStr"/>
-      <c r="F408" s="2" t="inlineStr">
-        <is>
-          <t>automatic mental process</t>
-        </is>
-      </c>
+      <c r="F408" s="2" t="inlineStr"/>
       <c r="G408" s="2" t="inlineStr">
         <is>
-          <t>"mental process" not has process attribute "consciousness"</t>
+          <t>Acceptance</t>
         </is>
       </c>
       <c r="H408" s="2" t="inlineStr"/>
@@ -24961,32 +24969,32 @@
     <row r="409">
       <c r="A409" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050235</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B409" s="2" t="inlineStr">
         <is>
-          <t>non-judgmental acknowledgement</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C409" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="D409" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
+          <t>A &lt;human communication behaviour&gt; in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E409" s="2" t="inlineStr"/>
       <c r="F409" s="2" t="inlineStr"/>
-      <c r="G409" s="2" t="inlineStr">
-        <is>
-          <t>Acceptance</t>
-        </is>
-      </c>
-      <c r="H409" s="2" t="inlineStr"/>
+      <c r="G409" s="2" t="inlineStr"/>
+      <c r="H409" s="2" t="inlineStr">
+        <is>
+          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
+        </is>
+      </c>
       <c r="I409" s="2" t="inlineStr"/>
       <c r="J409" s="2" t="inlineStr"/>
       <c r="K409" s="2" t="inlineStr"/>
@@ -25021,66 +25029,62 @@
       <c r="X409" s="2" t="inlineStr"/>
     </row>
     <row r="410">
-      <c r="A410" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050238</t>
-        </is>
-      </c>
-      <c r="B410" s="2" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="C410" s="2" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
-      <c r="D410" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;human communication behaviour&gt; in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="E410" s="2" t="inlineStr"/>
-      <c r="F410" s="2" t="inlineStr"/>
-      <c r="G410" s="2" t="inlineStr"/>
-      <c r="H410" s="2" t="inlineStr">
-        <is>
-          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
-        </is>
-      </c>
-      <c r="I410" s="2" t="inlineStr"/>
-      <c r="J410" s="2" t="inlineStr"/>
-      <c r="K410" s="2" t="inlineStr"/>
-      <c r="L410" s="2" t="inlineStr"/>
-      <c r="M410" s="2" t="inlineStr"/>
-      <c r="N410" s="2" t="inlineStr"/>
-      <c r="O410" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P410" s="2" t="inlineStr"/>
-      <c r="Q410" s="2" t="inlineStr"/>
-      <c r="R410" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S410" s="2" t="inlineStr"/>
-      <c r="T410" s="2" t="inlineStr"/>
-      <c r="U410" s="2" t="inlineStr"/>
-      <c r="V410" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W410" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X410" s="2" t="inlineStr"/>
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>GO:0046958</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>nonassociative learning</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
+      <c r="M410" t="inlineStr"/>
+      <c r="N410" t="inlineStr"/>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P410" t="inlineStr"/>
+      <c r="Q410" t="inlineStr"/>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S410" t="inlineStr"/>
+      <c r="T410" t="inlineStr"/>
+      <c r="U410" t="inlineStr"/>
+      <c r="V410" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="W410" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="2" t="inlineStr">

--- a/MechanismOfAction/bcio_moa.xlsx
+++ b/MechanismOfAction/bcio_moa.xlsx
@@ -15931,82 +15931,86 @@
       <c r="X258" t="inlineStr"/>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050863</t>
-        </is>
-      </c>
-      <c r="B259" s="2" t="inlineStr">
-        <is>
-          <t>feeling of uncertainty</t>
-        </is>
-      </c>
-      <c r="C259" s="2" t="inlineStr">
-        <is>
-          <t>subjective feeling</t>
-        </is>
-      </c>
-      <c r="D259" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;subjective feeling&gt; of not knowing something.</t>
-        </is>
-      </c>
-      <c r="E259" s="2" t="inlineStr"/>
-      <c r="F259" s="2" t="inlineStr"/>
-      <c r="G259" s="2" t="inlineStr"/>
-      <c r="H259" s="2" t="inlineStr"/>
-      <c r="I259" s="2" t="inlineStr"/>
-      <c r="J259" s="2" t="inlineStr"/>
-      <c r="K259" s="2" t="inlineStr"/>
-      <c r="L259" s="2" t="inlineStr"/>
-      <c r="M259" s="2" t="inlineStr"/>
-      <c r="N259" s="2" t="inlineStr"/>
-      <c r="O259" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P259" s="2" t="inlineStr"/>
-      <c r="Q259" s="2" t="inlineStr"/>
-      <c r="R259" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S259" s="2" t="inlineStr"/>
-      <c r="T259" s="2" t="inlineStr"/>
-      <c r="U259" s="2" t="inlineStr"/>
-      <c r="V259" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W259" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X259" s="2" t="inlineStr"/>
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>MFOEM:000203</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>feeling of pain</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>A &lt;subjective affective feeling&gt; in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>An unpleasant experience typically associated with tissue damage.</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr"/>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr"/>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>PS; RW</t>
+        </is>
+      </c>
+      <c r="W259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050864</t>
+          <t>BCIO:050863</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>feeling of uncertainty about one’s behaviour</t>
+          <t>feeling of uncertainty</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>feeling of uncertainty</t>
+          <t>subjective feeling</t>
         </is>
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>A &lt;feeling of uncertainty&gt; about the best course of action.</t>
+          <t>A &lt;subjective feeling&gt; of not knowing something.</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr"/>
@@ -16049,22 +16053,22 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050233</t>
+          <t>BCIO:050864</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>feeling sadness</t>
+          <t>feeling of uncertainty about one’s behaviour</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>feeling of uncertainty</t>
         </is>
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A &lt;subjective affective feeling&gt; of sadness. </t>
+          <t>A &lt;feeling of uncertainty&gt; about the best course of action.</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr"/>
@@ -16107,12 +16111,12 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050664</t>
+          <t>BCIO:050233</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>feeling safe</t>
+          <t>feeling sadness</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
@@ -16122,7 +16126,7 @@
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; that one is not exposed to harm or risk of harm.</t>
+          <t xml:space="preserve">A &lt;subjective affective feeling&gt; of sadness. </t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr"/>
@@ -16165,12 +16169,12 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050665</t>
+          <t>BCIO:050664</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>feeling social pressure</t>
+          <t>feeling safe</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
@@ -16180,7 +16184,7 @@
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>A &lt;subjective affective feeling&gt; of pressure from other people to act, think or feel in a particular way.</t>
+          <t>A &lt;subjective affective feeling&gt; that one is not exposed to harm or risk of harm.</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr"/>
@@ -16221,160 +16225,160 @@
       <c r="X263" s="2" t="inlineStr"/>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050665</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>feeling social pressure</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;subjective affective feeling&gt; of pressure from other people to act, think or feel in a particular way.</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="inlineStr"/>
+      <c r="F264" s="2" t="inlineStr"/>
+      <c r="G264" s="2" t="inlineStr"/>
+      <c r="H264" s="2" t="inlineStr"/>
+      <c r="I264" s="2" t="inlineStr"/>
+      <c r="J264" s="2" t="inlineStr"/>
+      <c r="K264" s="2" t="inlineStr"/>
+      <c r="L264" s="2" t="inlineStr"/>
+      <c r="M264" s="2" t="inlineStr"/>
+      <c r="N264" s="2" t="inlineStr"/>
+      <c r="O264" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P264" s="2" t="inlineStr"/>
+      <c r="Q264" s="2" t="inlineStr"/>
+      <c r="R264" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S264" s="2" t="inlineStr"/>
+      <c r="T264" s="2" t="inlineStr"/>
+      <c r="U264" s="2" t="inlineStr"/>
+      <c r="V264" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W264" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X264" s="2" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
         <is>
           <t>MFOEM:000080</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>feeling tired</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
+      <c r="D265" t="inlineStr">
         <is>
           <t>A &lt;subjective affective feeling&gt; of tiredness, needing sleep.</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="inlineStr"/>
-      <c r="N264" t="inlineStr"/>
-      <c r="O264" t="inlineStr">
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="inlineStr"/>
+      <c r="O265" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P264" t="inlineStr"/>
-      <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S264" t="inlineStr"/>
-      <c r="T264" t="inlineStr"/>
-      <c r="U264" t="inlineStr"/>
-      <c r="V264" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W264" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="inlineStr">
+      <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr"/>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr"/>
+      <c r="T265" t="inlineStr"/>
+      <c r="U265" t="inlineStr"/>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
         <is>
           <t>BCIO:006087</t>
         </is>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>financial behavioural opportunity</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>physical behavioural opportunity</t>
         </is>
       </c>
-      <c r="D265" s="2" t="inlineStr">
+      <c r="D266" s="2" t="inlineStr">
         <is>
           <t>A &lt;physical behavioural opportunity&gt; that involves the person having sufficient financial resources.</t>
         </is>
       </c>
-      <c r="E265" s="2" t="inlineStr"/>
-      <c r="F265" s="2" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr"/>
+      <c r="F266" s="2" t="inlineStr">
         <is>
           <t>Characteristics of a person's environment that involve the material resources available to them and influence the person's ability to enact a behaviour.</t>
         </is>
       </c>
-      <c r="G265" s="2" t="inlineStr">
+      <c r="G266" s="2" t="inlineStr">
         <is>
           <t>economic behavioural opportunity; economic environmental system</t>
         </is>
       </c>
-      <c r="H265" s="2" t="inlineStr"/>
-      <c r="I265" s="2" t="inlineStr">
+      <c r="H266" s="2" t="inlineStr"/>
+      <c r="I266" s="2" t="inlineStr">
         <is>
           <t>Opportunity is an enabling environment.
 As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
         </is>
       </c>
-      <c r="J265" s="2" t="inlineStr"/>
-      <c r="K265" s="2" t="inlineStr"/>
-      <c r="L265" s="2" t="inlineStr"/>
-      <c r="M265" s="2" t="inlineStr"/>
-      <c r="N265" s="2" t="inlineStr"/>
-      <c r="O265" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P265" s="2" t="inlineStr"/>
-      <c r="Q265" s="2" t="inlineStr"/>
-      <c r="R265" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S265" s="2" t="inlineStr"/>
-      <c r="T265" s="2" t="inlineStr"/>
-      <c r="U265" s="2" t="inlineStr"/>
-      <c r="V265" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W265" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X265" s="2" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006003</t>
-        </is>
-      </c>
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t>friendship network</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system</t>
-        </is>
-      </c>
-      <c r="D266" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;social environmental system&gt; that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E266" s="2" t="inlineStr"/>
-      <c r="F266" s="2" t="inlineStr"/>
-      <c r="G266" s="2" t="inlineStr"/>
-      <c r="H266" s="2" t="inlineStr"/>
-      <c r="I266" s="2" t="inlineStr"/>
       <c r="J266" s="2" t="inlineStr"/>
       <c r="K266" s="2" t="inlineStr"/>
       <c r="L266" s="2" t="inlineStr"/>
@@ -16410,33 +16414,29 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006124</t>
+          <t>BCIO:006003</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>generalisation in learning</t>
+          <t>friendship network</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>&lt;Associative learning&gt; in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
+          <t>A &lt;social environmental system&gt; that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr"/>
       <c r="F267" s="2" t="inlineStr"/>
       <c r="G267" s="2" t="inlineStr"/>
       <c r="H267" s="2" t="inlineStr"/>
-      <c r="I267" s="2" t="inlineStr">
-        <is>
-          <t>The label 'Generalisation of target  behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
-        </is>
-      </c>
+      <c r="I267" s="2" t="inlineStr"/>
       <c r="J267" s="2" t="inlineStr"/>
       <c r="K267" s="2" t="inlineStr"/>
       <c r="L267" s="2" t="inlineStr"/>
@@ -16472,29 +16472,33 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050666</t>
+          <t>BCIO:006124</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>generalised reinforcer</t>
+          <t>generalisation in learning</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>conditioned reinforcer</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D268" s="2" t="inlineStr">
         <is>
-          <t>A &lt;conditioned reinforcer&gt; whose effect has been caused by pairing with multiple primary reinforcers.</t>
+          <t>&lt;Associative learning&gt; in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
         </is>
       </c>
       <c r="E268" s="2" t="inlineStr"/>
       <c r="F268" s="2" t="inlineStr"/>
       <c r="G268" s="2" t="inlineStr"/>
       <c r="H268" s="2" t="inlineStr"/>
-      <c r="I268" s="2" t="inlineStr"/>
+      <c r="I268" s="2" t="inlineStr">
+        <is>
+          <t>The label 'Generalisation of target  behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
+        </is>
+      </c>
       <c r="J268" s="2" t="inlineStr"/>
       <c r="K268" s="2" t="inlineStr"/>
       <c r="L268" s="2" t="inlineStr"/>
@@ -16530,22 +16534,22 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050667</t>
+          <t>BCIO:050666</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>generality of self-efficacy</t>
+          <t>generalised reinforcer</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>conditioned reinforcer</t>
         </is>
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to be self-efficacious across a wide range of situations and behaviours.</t>
+          <t>A &lt;conditioned reinforcer&gt; whose effect has been caused by pairing with multiple primary reinforcers.</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr"/>
@@ -16588,22 +16592,22 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:050667</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>generality of self-efficacy</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>A &lt;cognitive representation&gt; of an end state towards which one is striving.</t>
+          <t>A &lt;mental disposition&gt; to be self-efficacious across a wide range of situations and behaviours.</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr"/>
@@ -16646,33 +16650,29 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050668</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>goal about one’s resources</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal&gt; that concerns protecting or increasing the person’s resources.</t>
+          <t>A &lt;cognitive representation&gt; of an end state towards which one is striving.</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr"/>
       <c r="F271" s="2" t="inlineStr"/>
       <c r="G271" s="2" t="inlineStr"/>
       <c r="H271" s="2" t="inlineStr"/>
-      <c r="I271" s="2" t="inlineStr">
-        <is>
-          <t>This class is used for goals relating to personal resources that may be social, financial, material or psychological.</t>
-        </is>
-      </c>
+      <c r="I271" s="2" t="inlineStr"/>
       <c r="J271" s="2" t="inlineStr"/>
       <c r="K271" s="2" t="inlineStr"/>
       <c r="L271" s="2" t="inlineStr"/>
@@ -16708,29 +16708,33 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050320</t>
+          <t>BCIO:050668</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>goal conflict</t>
+          <t>goal about one’s resources</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>goal interaction</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal interaction&gt; in which the goals are incompatible.</t>
+          <t>A &lt;goal&gt; that concerns protecting or increasing the person’s resources.</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
       <c r="F272" s="2" t="inlineStr"/>
       <c r="G272" s="2" t="inlineStr"/>
       <c r="H272" s="2" t="inlineStr"/>
-      <c r="I272" s="2" t="inlineStr"/>
+      <c r="I272" s="2" t="inlineStr">
+        <is>
+          <t>This class is used for goals relating to personal resources that may be social, financial, material or psychological.</t>
+        </is>
+      </c>
       <c r="J272" s="2" t="inlineStr"/>
       <c r="K272" s="2" t="inlineStr"/>
       <c r="L272" s="2" t="inlineStr"/>
@@ -16766,33 +16770,29 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050865</t>
+          <t>BCIO:050320</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>goal conflict reduction process</t>
+          <t>goal conflict</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>goal interaction</t>
         </is>
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; that reduces negative affect resulting from goal conflict.</t>
+          <t>A &lt;goal interaction&gt; in which the goals are incompatible.</t>
         </is>
       </c>
       <c r="E273" s="2" t="inlineStr"/>
       <c r="F273" s="2" t="inlineStr"/>
       <c r="G273" s="2" t="inlineStr"/>
       <c r="H273" s="2" t="inlineStr"/>
-      <c r="I273" s="2" t="inlineStr">
-        <is>
-          <t>This class refers to any behaviour, cognitive or emotional process that has the function of reducing goal conflict, including changing goals, and cognitive restructuring to make goals seem compatible.</t>
-        </is>
-      </c>
+      <c r="I273" s="2" t="inlineStr"/>
       <c r="J273" s="2" t="inlineStr"/>
       <c r="K273" s="2" t="inlineStr"/>
       <c r="L273" s="2" t="inlineStr"/>
@@ -16828,29 +16828,33 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050321</t>
+          <t>BCIO:050865</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>goal facilitation</t>
+          <t>goal conflict reduction process</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>goal interaction</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal interaction&gt; in which the goals facilitate each other.</t>
+          <t>A &lt;bodily process&gt; that reduces negative affect resulting from goal conflict.</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr"/>
       <c r="F274" s="2" t="inlineStr"/>
       <c r="G274" s="2" t="inlineStr"/>
       <c r="H274" s="2" t="inlineStr"/>
-      <c r="I274" s="2" t="inlineStr"/>
+      <c r="I274" s="2" t="inlineStr">
+        <is>
+          <t>This class refers to any behaviour, cognitive or emotional process that has the function of reducing goal conflict, including changing goals, and cognitive restructuring to make goals seem compatible.</t>
+        </is>
+      </c>
       <c r="J274" s="2" t="inlineStr"/>
       <c r="K274" s="2" t="inlineStr"/>
       <c r="L274" s="2" t="inlineStr"/>
@@ -16873,7 +16877,7 @@
       <c r="U274" s="2" t="inlineStr"/>
       <c r="V274" s="2" t="inlineStr">
         <is>
-          <t>RW; PS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W274" s="2" t="inlineStr">
@@ -16886,22 +16890,22 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050322</t>
+          <t>BCIO:050321</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
+          <t>goal facilitation</t>
+        </is>
+      </c>
+      <c r="C275" s="2" t="inlineStr">
+        <is>
           <t>goal interaction</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; that is about the extent to which goals are compatible with each other.</t>
+          <t>A &lt;goal interaction&gt; in which the goals facilitate each other.</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr"/>
@@ -16912,11 +16916,7 @@
       <c r="J275" s="2" t="inlineStr"/>
       <c r="K275" s="2" t="inlineStr"/>
       <c r="L275" s="2" t="inlineStr"/>
-      <c r="M275" s="2" t="inlineStr">
-        <is>
-          <t>goal</t>
-        </is>
-      </c>
+      <c r="M275" s="2" t="inlineStr"/>
       <c r="N275" s="2" t="inlineStr"/>
       <c r="O275" s="2" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
       <c r="U275" s="2" t="inlineStr"/>
       <c r="V275" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>RW; PS</t>
         </is>
       </c>
       <c r="W275" s="2" t="inlineStr">
@@ -16948,37 +16948,37 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:050322</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>goal interaction</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; in which attempts are made to achieve a desired end state.</t>
+          <t>An &lt;information content entity&gt; that is about the extent to which goals are compatible with each other.</t>
         </is>
       </c>
       <c r="E276" s="2" t="inlineStr"/>
       <c r="F276" s="2" t="inlineStr"/>
       <c r="G276" s="2" t="inlineStr"/>
       <c r="H276" s="2" t="inlineStr"/>
-      <c r="I276" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
-        </is>
-      </c>
+      <c r="I276" s="2" t="inlineStr"/>
       <c r="J276" s="2" t="inlineStr"/>
       <c r="K276" s="2" t="inlineStr"/>
       <c r="L276" s="2" t="inlineStr"/>
-      <c r="M276" s="2" t="inlineStr"/>
+      <c r="M276" s="2" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
       <c r="N276" s="2" t="inlineStr"/>
       <c r="O276" s="2" t="inlineStr">
         <is>
@@ -17010,29 +17010,33 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006114</t>
+          <t>BCIO:006096</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>goal setting process</t>
+          <t>goal pursuit process</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that establishes a cognitive representation of the desired end state.</t>
+          <t>A &lt;bodily process&gt; in which attempts are made to achieve a desired end state.</t>
         </is>
       </c>
       <c r="E277" s="2" t="inlineStr"/>
       <c r="F277" s="2" t="inlineStr"/>
       <c r="G277" s="2" t="inlineStr"/>
       <c r="H277" s="2" t="inlineStr"/>
-      <c r="I277" s="2" t="inlineStr"/>
+      <c r="I277" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
+        </is>
+      </c>
       <c r="J277" s="2" t="inlineStr"/>
       <c r="K277" s="2" t="inlineStr"/>
       <c r="L277" s="2" t="inlineStr"/>
@@ -17068,33 +17072,29 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050669</t>
+          <t>BCIO:006114</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>group belief</t>
+          <t>goal setting process</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>social group attribute</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social group attribute&gt; in which a majority of members of a group have the belief.</t>
+          <t>A &lt;mental process&gt; that establishes a cognitive representation of the desired end state.</t>
         </is>
       </c>
       <c r="E278" s="2" t="inlineStr"/>
       <c r="F278" s="2" t="inlineStr"/>
       <c r="G278" s="2" t="inlineStr"/>
       <c r="H278" s="2" t="inlineStr"/>
-      <c r="I278" s="2" t="inlineStr">
-        <is>
-          <t>This is a fuzzy set and can only be used if operationalised.</t>
-        </is>
-      </c>
+      <c r="I278" s="2" t="inlineStr"/>
       <c r="J278" s="2" t="inlineStr"/>
       <c r="K278" s="2" t="inlineStr"/>
       <c r="L278" s="2" t="inlineStr"/>
@@ -17130,12 +17130,12 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050670</t>
+          <t>BCIO:050669</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>group descriptive behavioural norm</t>
+          <t>group belief</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
@@ -17145,20 +17145,16 @@
       </c>
       <c r="D279" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social group attribute&gt; a behaviour is common within a social group.</t>
+          <t>A &lt;social group attribute&gt; in which a majority of members of a group have the belief.</t>
         </is>
       </c>
       <c r="E279" s="2" t="inlineStr"/>
       <c r="F279" s="2" t="inlineStr"/>
-      <c r="G279" s="2" t="inlineStr">
-        <is>
-          <t>social norm</t>
-        </is>
-      </c>
+      <c r="G279" s="2" t="inlineStr"/>
       <c r="H279" s="2" t="inlineStr"/>
       <c r="I279" s="2" t="inlineStr">
         <is>
-          <t>A group could be a population.</t>
+          <t>This is a fuzzy set and can only be used if operationalised.</t>
         </is>
       </c>
       <c r="J279" s="2" t="inlineStr"/>
@@ -17196,12 +17192,12 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050671</t>
+          <t>BCIO:050670</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>group evaluative behavioural norm</t>
+          <t>group descriptive behavioural norm</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
@@ -17211,12 +17207,16 @@
       </c>
       <c r="D280" s="2" t="inlineStr">
         <is>
-          <t>A &lt;social group attribute&gt; in which members of the group share an evaluative belief of a behaviour.</t>
+          <t>A &lt;social group attribute&gt; a behaviour is common within a social group.</t>
         </is>
       </c>
       <c r="E280" s="2" t="inlineStr"/>
       <c r="F280" s="2" t="inlineStr"/>
-      <c r="G280" s="2" t="inlineStr"/>
+      <c r="G280" s="2" t="inlineStr">
+        <is>
+          <t>social norm</t>
+        </is>
+      </c>
       <c r="H280" s="2" t="inlineStr"/>
       <c r="I280" s="2" t="inlineStr">
         <is>
@@ -17258,29 +17258,33 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050672</t>
+          <t>BCIO:050671</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>group facilitation behaviour</t>
+          <t>group evaluative behavioural norm</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>behavioural disposition</t>
+          <t>social group attribute</t>
         </is>
       </c>
       <c r="D281" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural disposition&gt; of members of a social group to enable each others’ engagement in group actions.</t>
+          <t>A &lt;social group attribute&gt; in which members of the group share an evaluative belief of a behaviour.</t>
         </is>
       </c>
       <c r="E281" s="2" t="inlineStr"/>
       <c r="F281" s="2" t="inlineStr"/>
       <c r="G281" s="2" t="inlineStr"/>
       <c r="H281" s="2" t="inlineStr"/>
-      <c r="I281" s="2" t="inlineStr"/>
+      <c r="I281" s="2" t="inlineStr">
+        <is>
+          <t>A group could be a population.</t>
+        </is>
+      </c>
       <c r="J281" s="2" t="inlineStr"/>
       <c r="K281" s="2" t="inlineStr"/>
       <c r="L281" s="2" t="inlineStr"/>
@@ -17314,268 +17318,263 @@
       <c r="X281" s="2" t="inlineStr"/>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
+      <c r="A282" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050672</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="inlineStr">
+        <is>
+          <t>group facilitation behaviour</t>
+        </is>
+      </c>
+      <c r="C282" s="2" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;behavioural disposition&gt; of members of a social group to enable each others’ engagement in group actions.</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="inlineStr"/>
+      <c r="F282" s="2" t="inlineStr"/>
+      <c r="G282" s="2" t="inlineStr"/>
+      <c r="H282" s="2" t="inlineStr"/>
+      <c r="I282" s="2" t="inlineStr"/>
+      <c r="J282" s="2" t="inlineStr"/>
+      <c r="K282" s="2" t="inlineStr"/>
+      <c r="L282" s="2" t="inlineStr"/>
+      <c r="M282" s="2" t="inlineStr"/>
+      <c r="N282" s="2" t="inlineStr"/>
+      <c r="O282" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P282" s="2" t="inlineStr"/>
+      <c r="Q282" s="2" t="inlineStr"/>
+      <c r="R282" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S282" s="2" t="inlineStr"/>
+      <c r="T282" s="2" t="inlineStr"/>
+      <c r="U282" s="2" t="inlineStr"/>
+      <c r="V282" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W282" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X282" s="2" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
         <is>
           <t>ADDICTO:0000715</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>group identity</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>identity</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr">
+      <c r="D283" t="inlineStr">
         <is>
           <t>An &lt;identity&gt; that a group holds about itself.</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr">
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr">
         <is>
           <t>An ongoing consideration regarding this class is whether a socially shared representation can be said to be purely cognitive.</t>
         </is>
       </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="inlineStr"/>
-      <c r="N282" t="inlineStr"/>
-      <c r="O282" t="inlineStr">
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P282" t="inlineStr"/>
-      <c r="Q282" t="inlineStr"/>
-      <c r="R282" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S282" t="inlineStr"/>
-      <c r="T282" t="inlineStr"/>
-      <c r="U282" t="inlineStr"/>
-      <c r="V282" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W282" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="2" t="inlineStr">
+      <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr"/>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr"/>
+      <c r="T283" t="inlineStr"/>
+      <c r="U283" t="inlineStr"/>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="inlineStr">
         <is>
           <t>BCIO:050866</t>
         </is>
       </c>
-      <c r="B283" s="2" t="inlineStr">
+      <c r="B284" s="2" t="inlineStr">
         <is>
           <t>group identity development</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C284" s="2" t="inlineStr">
         <is>
           <t>social group process</t>
         </is>
       </c>
-      <c r="D283" s="2" t="inlineStr">
+      <c r="D284" s="2" t="inlineStr">
         <is>
           <t>A &lt;social group process&gt; that results in development of some group identity.</t>
         </is>
       </c>
-      <c r="E283" s="2" t="inlineStr"/>
-      <c r="F283" s="2" t="inlineStr"/>
-      <c r="G283" s="2" t="inlineStr"/>
-      <c r="H283" s="2" t="inlineStr"/>
-      <c r="I283" s="2" t="inlineStr"/>
-      <c r="J283" s="2" t="inlineStr"/>
-      <c r="K283" s="2" t="inlineStr"/>
-      <c r="L283" s="2" t="inlineStr"/>
-      <c r="M283" s="2" t="inlineStr"/>
-      <c r="N283" s="2" t="inlineStr"/>
-      <c r="O283" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P283" s="2" t="inlineStr"/>
-      <c r="Q283" s="2" t="inlineStr"/>
-      <c r="R283" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S283" s="2" t="inlineStr"/>
-      <c r="T283" s="2" t="inlineStr"/>
-      <c r="U283" s="2" t="inlineStr"/>
-      <c r="V283" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W283" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X283" s="2" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
+      <c r="E284" s="2" t="inlineStr"/>
+      <c r="F284" s="2" t="inlineStr"/>
+      <c r="G284" s="2" t="inlineStr"/>
+      <c r="H284" s="2" t="inlineStr"/>
+      <c r="I284" s="2" t="inlineStr"/>
+      <c r="J284" s="2" t="inlineStr"/>
+      <c r="K284" s="2" t="inlineStr"/>
+      <c r="L284" s="2" t="inlineStr"/>
+      <c r="M284" s="2" t="inlineStr"/>
+      <c r="N284" s="2" t="inlineStr"/>
+      <c r="O284" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P284" s="2" t="inlineStr"/>
+      <c r="Q284" s="2" t="inlineStr"/>
+      <c r="R284" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S284" s="2" t="inlineStr"/>
+      <c r="T284" s="2" t="inlineStr"/>
+      <c r="U284" s="2" t="inlineStr"/>
+      <c r="V284" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W284" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X284" s="2" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
         <is>
           <t>MFOEM:000053</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t>guilt</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C285" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr">
+      <c r="D285" t="inlineStr">
         <is>
           <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr"/>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="inlineStr"/>
-      <c r="N284" t="inlineStr"/>
-      <c r="O284" t="inlineStr">
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P284" t="inlineStr"/>
-      <c r="Q284" t="inlineStr"/>
-      <c r="R284" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S284" t="inlineStr"/>
-      <c r="T284" t="inlineStr"/>
-      <c r="U284" t="inlineStr"/>
-      <c r="V284" t="inlineStr"/>
-      <c r="W284" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006309</t>
-        </is>
-      </c>
-      <c r="B285" s="2" t="inlineStr">
-        <is>
-          <t>habit learning</t>
-        </is>
-      </c>
-      <c r="C285" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D285" s="2" t="inlineStr">
-        <is>
-          <t>&lt;Associative learning&gt; that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
-        </is>
-      </c>
-      <c r="E285" s="2" t="inlineStr"/>
-      <c r="F285" s="2" t="inlineStr"/>
-      <c r="G285" s="2" t="inlineStr"/>
-      <c r="H285" s="2" t="inlineStr"/>
-      <c r="I285" s="2" t="inlineStr"/>
-      <c r="J285" s="2" t="inlineStr"/>
-      <c r="K285" s="2" t="inlineStr"/>
-      <c r="L285" s="2" t="inlineStr"/>
-      <c r="M285" s="2" t="inlineStr"/>
-      <c r="N285" s="2" t="inlineStr"/>
-      <c r="O285" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P285" s="2" t="inlineStr"/>
-      <c r="Q285" s="2" t="inlineStr"/>
-      <c r="R285" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S285" s="2" t="inlineStr"/>
-      <c r="T285" s="2" t="inlineStr"/>
-      <c r="U285" s="2" t="inlineStr"/>
-      <c r="V285" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W285" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X285" s="2" t="inlineStr"/>
+      <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr"/>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr"/>
+      <c r="T285" t="inlineStr"/>
+      <c r="U285" t="inlineStr"/>
+      <c r="V285" t="inlineStr"/>
+      <c r="W285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006158</t>
+          <t>BCIO:006309</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>habitual behaviour</t>
+          <t>habit learning</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D286" s="2" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+          <t>&lt;Associative learning&gt; that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
         </is>
       </c>
       <c r="E286" s="2" t="inlineStr"/>
       <c r="F286" s="2" t="inlineStr"/>
       <c r="G286" s="2" t="inlineStr"/>
       <c r="H286" s="2" t="inlineStr"/>
-      <c r="I286" s="2" t="inlineStr">
-        <is>
-          <t>A learnt stimulus-behaviour co-occurrence can lead to activation or execution of a habitual behaviour.
-Habitual behaviour can be an MoA or outcome depending on how 'habitual behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a habitual behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
-        </is>
-      </c>
+      <c r="I286" s="2" t="inlineStr"/>
       <c r="J286" s="2" t="inlineStr"/>
       <c r="K286" s="2" t="inlineStr"/>
       <c r="L286" s="2" t="inlineStr"/>
@@ -17609,78 +17608,87 @@
       <c r="X286" s="2" t="inlineStr"/>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>GO:0046959</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>habituation</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="inlineStr"/>
-      <c r="N287" t="inlineStr"/>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P287" t="inlineStr"/>
-      <c r="Q287" t="inlineStr"/>
-      <c r="R287" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S287" t="inlineStr"/>
-      <c r="T287" t="inlineStr"/>
-      <c r="U287" t="inlineStr"/>
-      <c r="V287" t="inlineStr"/>
-      <c r="W287" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X287" t="inlineStr"/>
+      <c r="A287" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006158</t>
+        </is>
+      </c>
+      <c r="B287" s="2" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="inlineStr"/>
+      <c r="F287" s="2" t="inlineStr"/>
+      <c r="G287" s="2" t="inlineStr"/>
+      <c r="H287" s="2" t="inlineStr"/>
+      <c r="I287" s="2" t="inlineStr">
+        <is>
+          <t>A learnt stimulus-behaviour co-occurrence can lead to activation or execution of a habitual behaviour.
+Habitual behaviour can be an MoA or outcome depending on how 'habitual behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a habitual behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
+      <c r="J287" s="2" t="inlineStr"/>
+      <c r="K287" s="2" t="inlineStr"/>
+      <c r="L287" s="2" t="inlineStr"/>
+      <c r="M287" s="2" t="inlineStr"/>
+      <c r="N287" s="2" t="inlineStr"/>
+      <c r="O287" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P287" s="2" t="inlineStr"/>
+      <c r="Q287" s="2" t="inlineStr"/>
+      <c r="R287" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S287" s="2" t="inlineStr"/>
+      <c r="T287" s="2" t="inlineStr"/>
+      <c r="U287" s="2" t="inlineStr"/>
+      <c r="V287" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W287" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X287" s="2" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>MFOEM:000042</t>
+          <t>GO:0046959</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>habituation</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -17717,217 +17725,213 @@
       <c r="X288" t="inlineStr"/>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="inlineStr">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>MFOEM:000042</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>happiness</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="inlineStr"/>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr"/>
+      <c r="Q289" t="inlineStr"/>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr"/>
+      <c r="T289" t="inlineStr"/>
+      <c r="U289" t="inlineStr"/>
+      <c r="V289" t="inlineStr"/>
+      <c r="W289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="inlineStr">
         <is>
           <t>BCIO:050673</t>
         </is>
       </c>
-      <c r="B289" s="2" t="inlineStr">
+      <c r="B290" s="2" t="inlineStr">
         <is>
           <t>harmful fear reduction mental process</t>
         </is>
       </c>
-      <c r="C289" s="2" t="inlineStr">
+      <c r="C290" s="2" t="inlineStr">
         <is>
           <t>fear reduction mental process</t>
         </is>
       </c>
-      <c r="D289" s="2" t="inlineStr">
+      <c r="D290" s="2" t="inlineStr">
         <is>
           <t>A &lt;fear reduction mental process&gt; that has a negative outcome.</t>
         </is>
       </c>
-      <c r="E289" s="2" t="inlineStr"/>
-      <c r="F289" s="2" t="inlineStr"/>
-      <c r="G289" s="2" t="inlineStr"/>
-      <c r="H289" s="2" t="inlineStr"/>
-      <c r="I289" s="2" t="inlineStr">
+      <c r="E290" s="2" t="inlineStr"/>
+      <c r="F290" s="2" t="inlineStr"/>
+      <c r="G290" s="2" t="inlineStr"/>
+      <c r="H290" s="2" t="inlineStr"/>
+      <c r="I290" s="2" t="inlineStr">
         <is>
           <t>‘Negative’ is inherently subjective. It could mean a bad outcome for the person, the people or those around them, or society more generally.</t>
         </is>
       </c>
-      <c r="J289" s="2" t="inlineStr"/>
-      <c r="K289" s="2" t="inlineStr"/>
-      <c r="L289" s="2" t="inlineStr"/>
-      <c r="M289" s="2" t="inlineStr"/>
-      <c r="N289" s="2" t="inlineStr"/>
-      <c r="O289" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P289" s="2" t="inlineStr"/>
-      <c r="Q289" s="2" t="inlineStr"/>
-      <c r="R289" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S289" s="2" t="inlineStr"/>
-      <c r="T289" s="2" t="inlineStr"/>
-      <c r="U289" s="2" t="inlineStr"/>
-      <c r="V289" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W289" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X289" s="2" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
+      <c r="J290" s="2" t="inlineStr"/>
+      <c r="K290" s="2" t="inlineStr"/>
+      <c r="L290" s="2" t="inlineStr"/>
+      <c r="M290" s="2" t="inlineStr"/>
+      <c r="N290" s="2" t="inlineStr"/>
+      <c r="O290" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P290" s="2" t="inlineStr"/>
+      <c r="Q290" s="2" t="inlineStr"/>
+      <c r="R290" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S290" s="2" t="inlineStr"/>
+      <c r="T290" s="2" t="inlineStr"/>
+      <c r="U290" s="2" t="inlineStr"/>
+      <c r="V290" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W290" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X290" s="2" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0000241 </t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>harmfulness</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
+      <c r="C291" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr">
+      <c r="D291" t="inlineStr">
         <is>
           <t>A &lt;disposition&gt; that is realised as a harm process.</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="inlineStr"/>
-      <c r="N290" t="inlineStr"/>
-      <c r="O290" t="inlineStr">
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="inlineStr"/>
+      <c r="O291" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P290" t="inlineStr"/>
-      <c r="Q290" t="inlineStr"/>
-      <c r="R290" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S290" t="inlineStr"/>
-      <c r="T290" t="inlineStr"/>
-      <c r="U290" t="inlineStr"/>
-      <c r="V290" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W290" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006088</t>
-        </is>
-      </c>
-      <c r="B291" s="2" t="inlineStr">
-        <is>
-          <t>healthcare access</t>
-        </is>
-      </c>
-      <c r="C291" s="2" t="inlineStr">
-        <is>
-          <t>behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="D291" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;behavioural opportunity&gt; regarding how easy it is for a person to approach and use a healthcare service.</t>
-        </is>
-      </c>
-      <c r="E291" s="2" t="inlineStr"/>
-      <c r="F291" s="2" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that enable or facilitate accessing healthcare services.</t>
-        </is>
-      </c>
-      <c r="G291" s="2" t="inlineStr"/>
-      <c r="H291" s="2" t="inlineStr"/>
-      <c r="I291" s="2" t="inlineStr">
-        <is>
-          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
-        </is>
-      </c>
-      <c r="J291" s="2" t="inlineStr"/>
-      <c r="K291" s="2" t="inlineStr"/>
-      <c r="L291" s="2" t="inlineStr"/>
-      <c r="M291" s="2" t="inlineStr"/>
-      <c r="N291" s="2" t="inlineStr"/>
-      <c r="O291" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P291" s="2" t="inlineStr"/>
-      <c r="Q291" s="2" t="inlineStr"/>
-      <c r="R291" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S291" s="2" t="inlineStr"/>
-      <c r="T291" s="2" t="inlineStr"/>
-      <c r="U291" s="2" t="inlineStr"/>
-      <c r="V291" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W291" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X291" s="2" t="inlineStr"/>
+      <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr"/>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr"/>
+      <c r="T291" t="inlineStr"/>
+      <c r="U291" t="inlineStr"/>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006115</t>
+          <t>BCIO:006088</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>heuristic process</t>
+          <t>healthcare access</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D292" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; that uses simple rules and associations learnt from experience to make judgements.</t>
+          <t>A &lt;behavioural opportunity&gt; regarding how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E292" s="2" t="inlineStr"/>
-      <c r="F292" s="2" t="inlineStr"/>
+      <c r="F292" s="2" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that enable or facilitate accessing healthcare services.</t>
+        </is>
+      </c>
       <c r="G292" s="2" t="inlineStr"/>
       <c r="H292" s="2" t="inlineStr"/>
-      <c r="I292" s="2" t="inlineStr"/>
+      <c r="I292" s="2" t="inlineStr">
+        <is>
+          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
+        </is>
+      </c>
       <c r="J292" s="2" t="inlineStr"/>
       <c r="K292" s="2" t="inlineStr"/>
       <c r="L292" s="2" t="inlineStr"/>
@@ -17963,41 +17967,33 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050674</t>
+          <t>BCIO:006115</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>high capability to enact a behaviour</t>
+          <t>heuristic process</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D293" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal attribute&gt;in terms of behavioural capability being high.</t>
+          <t>A &lt;mental process&gt; that uses simple rules and associations learnt from experience to make judgements.</t>
         </is>
       </c>
       <c r="E293" s="2" t="inlineStr"/>
       <c r="F293" s="2" t="inlineStr"/>
       <c r="G293" s="2" t="inlineStr"/>
       <c r="H293" s="2" t="inlineStr"/>
-      <c r="I293" s="2" t="inlineStr">
-        <is>
-          <t>This is a fuzzy set and can only be used if operationalised.</t>
-        </is>
-      </c>
+      <c r="I293" s="2" t="inlineStr"/>
       <c r="J293" s="2" t="inlineStr"/>
       <c r="K293" s="2" t="inlineStr"/>
       <c r="L293" s="2" t="inlineStr"/>
-      <c r="M293" s="2" t="inlineStr">
-        <is>
-          <t>behavioural capability</t>
-        </is>
-      </c>
+      <c r="M293" s="2" t="inlineStr"/>
       <c r="N293" s="2" t="inlineStr"/>
       <c r="O293" s="2" t="inlineStr">
         <is>
@@ -18019,20 +18015,22 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W293" s="2" t="n">
-        <v>1</v>
+      <c r="W293" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X293" s="2" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050675</t>
+          <t>BCIO:050674</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>high motivational disposition to change behaviour</t>
+          <t>high capability to enact a behaviour</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
@@ -18042,7 +18040,7 @@
       </c>
       <c r="D294" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal attribute&gt; in terms of motivational disposition to change behaviour being high.</t>
+          <t>A &lt;personal attribute&gt;in terms of behavioural capability being high.</t>
         </is>
       </c>
       <c r="E294" s="2" t="inlineStr"/>
@@ -18059,7 +18057,7 @@
       <c r="L294" s="2" t="inlineStr"/>
       <c r="M294" s="2" t="inlineStr">
         <is>
-          <t>motivational disposition to change behaviour</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="N294" s="2" t="inlineStr"/>
@@ -18091,12 +18089,12 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050676</t>
+          <t>BCIO:050675</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>high opportunity to enact a behaviour</t>
+          <t>high motivational disposition to change behaviour</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
@@ -18106,7 +18104,7 @@
       </c>
       <c r="D295" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal attribute&gt; in terms of  behavioural opportunity being high.</t>
+          <t>A &lt;personal attribute&gt; in terms of motivational disposition to change behaviour being high.</t>
         </is>
       </c>
       <c r="E295" s="2" t="inlineStr"/>
@@ -18123,7 +18121,7 @@
       <c r="L295" s="2" t="inlineStr"/>
       <c r="M295" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>motivational disposition to change behaviour</t>
         </is>
       </c>
       <c r="N295" s="2" t="inlineStr"/>
@@ -18155,37 +18153,41 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050676</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>high opportunity to enact a behaviour</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D296" s="2" t="inlineStr">
         <is>
-          <t>An &lt;expressive behaviour&gt; that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="E296" s="2" t="inlineStr">
-        <is>
-          <t>"expressive behaviour" AND "inter-personal behaviour"</t>
-        </is>
-      </c>
+          <t>A &lt;personal attribute&gt; in terms of  behavioural opportunity being high.</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="inlineStr"/>
       <c r="F296" s="2" t="inlineStr"/>
       <c r="G296" s="2" t="inlineStr"/>
       <c r="H296" s="2" t="inlineStr"/>
-      <c r="I296" s="2" t="inlineStr"/>
+      <c r="I296" s="2" t="inlineStr">
+        <is>
+          <t>This is a fuzzy set and can only be used if operationalised.</t>
+        </is>
+      </c>
       <c r="J296" s="2" t="inlineStr"/>
       <c r="K296" s="2" t="inlineStr"/>
       <c r="L296" s="2" t="inlineStr"/>
-      <c r="M296" s="2" t="inlineStr"/>
+      <c r="M296" s="2" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
       <c r="N296" s="2" t="inlineStr"/>
       <c r="O296" s="2" t="inlineStr">
         <is>
@@ -18207,35 +18209,37 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W296" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W296" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X296" s="2" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006130</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>iconic memory</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>memory process</t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="D297" s="2" t="inlineStr">
         <is>
-          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus.</t>
-        </is>
-      </c>
-      <c r="E297" s="2" t="inlineStr"/>
+          <t>An &lt;expressive behaviour&gt; that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="inlineStr">
+        <is>
+          <t>"expressive behaviour" AND "inter-personal behaviour"</t>
+        </is>
+      </c>
       <c r="F297" s="2" t="inlineStr"/>
       <c r="G297" s="2" t="inlineStr"/>
       <c r="H297" s="2" t="inlineStr"/>
@@ -18273,260 +18277,256 @@
       <c r="X297" s="2" t="inlineStr"/>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
+      <c r="A298" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006130</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="inlineStr">
+        <is>
+          <t>iconic memory</t>
+        </is>
+      </c>
+      <c r="C298" s="2" t="inlineStr">
+        <is>
+          <t>memory process</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="inlineStr">
+        <is>
+          <t>A &lt;memory process&gt; that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus.</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="inlineStr"/>
+      <c r="F298" s="2" t="inlineStr"/>
+      <c r="G298" s="2" t="inlineStr"/>
+      <c r="H298" s="2" t="inlineStr"/>
+      <c r="I298" s="2" t="inlineStr"/>
+      <c r="J298" s="2" t="inlineStr"/>
+      <c r="K298" s="2" t="inlineStr"/>
+      <c r="L298" s="2" t="inlineStr"/>
+      <c r="M298" s="2" t="inlineStr"/>
+      <c r="N298" s="2" t="inlineStr"/>
+      <c r="O298" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P298" s="2" t="inlineStr"/>
+      <c r="Q298" s="2" t="inlineStr"/>
+      <c r="R298" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S298" s="2" t="inlineStr"/>
+      <c r="T298" s="2" t="inlineStr"/>
+      <c r="U298" s="2" t="inlineStr"/>
+      <c r="V298" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W298" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X298" s="2" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
         <is>
           <t>ADDICTO:0000381</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr">
+      <c r="B299" t="inlineStr">
         <is>
           <t>identity</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
+      <c r="C299" t="inlineStr">
         <is>
           <t>cognitive representation</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr">
+      <c r="D299" t="inlineStr">
         <is>
           <t>A &lt;cognitive representation&gt; of themselves by a person or group.</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="inlineStr"/>
-      <c r="N298" t="inlineStr"/>
-      <c r="O298" t="inlineStr">
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="inlineStr"/>
+      <c r="O299" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P298" t="inlineStr"/>
-      <c r="Q298" t="inlineStr"/>
-      <c r="R298" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S298" t="inlineStr"/>
-      <c r="T298" t="inlineStr"/>
-      <c r="U298" t="inlineStr"/>
-      <c r="V298" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W298" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="2" t="inlineStr">
+      <c r="P299" t="inlineStr"/>
+      <c r="Q299" t="inlineStr"/>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr"/>
+      <c r="T299" t="inlineStr"/>
+      <c r="U299" t="inlineStr"/>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="inlineStr">
         <is>
           <t>BCIO:050867</t>
         </is>
       </c>
-      <c r="B299" s="2" t="inlineStr">
+      <c r="B300" s="2" t="inlineStr">
         <is>
           <t>imagination capability</t>
         </is>
       </c>
-      <c r="C299" s="2" t="inlineStr">
+      <c r="C300" s="2" t="inlineStr">
         <is>
           <t>mental capability</t>
         </is>
       </c>
-      <c r="D299" s="2" t="inlineStr">
+      <c r="D300" s="2" t="inlineStr">
         <is>
           <t>A &lt;mental capability&gt; to form a cognitive representation of something that has not been directly experienced.</t>
         </is>
       </c>
-      <c r="E299" s="2" t="inlineStr"/>
-      <c r="F299" s="2" t="inlineStr"/>
-      <c r="G299" s="2" t="inlineStr"/>
-      <c r="H299" s="2" t="inlineStr"/>
-      <c r="I299" s="2" t="inlineStr"/>
-      <c r="J299" s="2" t="inlineStr"/>
-      <c r="K299" s="2" t="inlineStr"/>
-      <c r="L299" s="2" t="inlineStr"/>
-      <c r="M299" s="2" t="inlineStr"/>
-      <c r="N299" s="2" t="inlineStr"/>
-      <c r="O299" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P299" s="2" t="inlineStr"/>
-      <c r="Q299" s="2" t="inlineStr"/>
-      <c r="R299" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S299" s="2" t="inlineStr"/>
-      <c r="T299" s="2" t="inlineStr"/>
-      <c r="U299" s="2" t="inlineStr"/>
-      <c r="V299" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W299" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X299" s="2" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
+      <c r="E300" s="2" t="inlineStr"/>
+      <c r="F300" s="2" t="inlineStr"/>
+      <c r="G300" s="2" t="inlineStr"/>
+      <c r="H300" s="2" t="inlineStr"/>
+      <c r="I300" s="2" t="inlineStr"/>
+      <c r="J300" s="2" t="inlineStr"/>
+      <c r="K300" s="2" t="inlineStr"/>
+      <c r="L300" s="2" t="inlineStr"/>
+      <c r="M300" s="2" t="inlineStr"/>
+      <c r="N300" s="2" t="inlineStr"/>
+      <c r="O300" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P300" s="2" t="inlineStr"/>
+      <c r="Q300" s="2" t="inlineStr"/>
+      <c r="R300" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S300" s="2" t="inlineStr"/>
+      <c r="T300" s="2" t="inlineStr"/>
+      <c r="U300" s="2" t="inlineStr"/>
+      <c r="V300" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W300" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X300" s="2" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
         <is>
           <t>GO:0098596</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
+      <c r="B301" t="inlineStr">
         <is>
           <t>imitative learning</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
+      <c r="C301" t="inlineStr">
         <is>
           <t>observational learning</t>
         </is>
       </c>
-      <c r="D300" t="inlineStr">
+      <c r="D301" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;Observational learning&gt; in which new behaviours are acquired through imitation. </t>
         </is>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="inlineStr"/>
-      <c r="N300" t="inlineStr"/>
-      <c r="O300" t="inlineStr">
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="inlineStr"/>
+      <c r="O301" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P300" t="inlineStr"/>
-      <c r="Q300" t="inlineStr"/>
-      <c r="R300" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S300" t="inlineStr"/>
-      <c r="T300" t="inlineStr"/>
-      <c r="U300" t="inlineStr"/>
-      <c r="V300" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W300" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050234</t>
-        </is>
-      </c>
-      <c r="B301" s="2" t="inlineStr">
-        <is>
-          <t>impulse</t>
-        </is>
-      </c>
-      <c r="C301" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D301" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;mental process&gt; that is a pattern of neural activity in the brain that activates a behaviour.</t>
-        </is>
-      </c>
-      <c r="E301" s="2" t="inlineStr"/>
-      <c r="F301" s="2" t="inlineStr"/>
-      <c r="G301" s="2" t="inlineStr"/>
-      <c r="H301" s="2" t="inlineStr"/>
-      <c r="I301" s="2" t="inlineStr">
-        <is>
-          <t>More than one impulse can be present at one time. When impulses for competing behaviours exist, the strongest impulse controls the behaviour. Impulses are experienced as subjective urges when they cannot be immediately acted upon either because of competing impulses or inhibitory processes.</t>
-        </is>
-      </c>
-      <c r="J301" s="2" t="inlineStr"/>
-      <c r="K301" s="2" t="inlineStr"/>
-      <c r="L301" s="2" t="inlineStr"/>
-      <c r="M301" s="2" t="inlineStr"/>
-      <c r="N301" s="2" t="inlineStr"/>
-      <c r="O301" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P301" s="2" t="inlineStr"/>
-      <c r="Q301" s="2" t="inlineStr"/>
-      <c r="R301" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S301" s="2" t="inlineStr"/>
-      <c r="T301" s="2" t="inlineStr"/>
-      <c r="U301" s="2" t="inlineStr"/>
-      <c r="V301" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W301" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X301" s="2" t="inlineStr"/>
+      <c r="P301" t="inlineStr"/>
+      <c r="Q301" t="inlineStr"/>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr"/>
+      <c r="T301" t="inlineStr"/>
+      <c r="U301" t="inlineStr"/>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050677</t>
+          <t>BCIO:050234</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>impulsive disposition</t>
+          <t>impulse</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D302" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to engage behaviour that has the attribute of impulsiveness.</t>
+          <t>A &lt;mental process&gt; that is a pattern of neural activity in the brain that activates a behaviour.</t>
         </is>
       </c>
       <c r="E302" s="2" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
       <c r="H302" s="2" t="inlineStr"/>
       <c r="I302" s="2" t="inlineStr">
         <is>
-          <t>This class links to the class ‘impulsiveness’ as a behavioural attribute.</t>
+          <t>More than one impulse can be present at one time. When impulses for competing behaviours exist, the strongest impulse controls the behaviour. Impulses are experienced as subjective urges when they cannot be immediately acted upon either because of competing impulses or inhibitory processes.</t>
         </is>
       </c>
       <c r="J302" s="2" t="inlineStr"/>
@@ -18573,33 +18573,33 @@
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:050677</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>impulsive disposition</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D303" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A &lt;mental disposition&gt; to engage behaviour that has the attribute of impulsiveness.</t>
         </is>
       </c>
       <c r="E303" s="2" t="inlineStr"/>
-      <c r="F303" s="2" t="inlineStr">
-        <is>
-          <t>Physical actions that are controlled by the brain.</t>
-        </is>
-      </c>
+      <c r="F303" s="2" t="inlineStr"/>
       <c r="G303" s="2" t="inlineStr"/>
       <c r="H303" s="2" t="inlineStr"/>
-      <c r="I303" s="2" t="inlineStr"/>
+      <c r="I303" s="2" t="inlineStr">
+        <is>
+          <t>This class links to the class ‘impulsiveness’ as a behavioural attribute.</t>
+        </is>
+      </c>
       <c r="J303" s="2" t="inlineStr"/>
       <c r="K303" s="2" t="inlineStr"/>
       <c r="L303" s="2" t="inlineStr"/>
@@ -18614,7 +18614,7 @@
       <c r="Q303" s="2" t="inlineStr"/>
       <c r="R303" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Mechanisms of action</t>
         </is>
       </c>
       <c r="S303" s="2" t="inlineStr"/>
@@ -18635,26 +18635,30 @@
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050678</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>information devaluing</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D304" s="2" t="inlineStr">
         <is>
-          <t>&lt;Judging&gt; that devalues information or its relevance to a situation.’ Under judging.</t>
+          <t>A &lt;bodily process&gt; of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E304" s="2" t="inlineStr"/>
-      <c r="F304" s="2" t="inlineStr"/>
+      <c r="F304" s="2" t="inlineStr">
+        <is>
+          <t>Physical actions that are controlled by the brain.</t>
+        </is>
+      </c>
       <c r="G304" s="2" t="inlineStr"/>
       <c r="H304" s="2" t="inlineStr"/>
       <c r="I304" s="2" t="inlineStr"/>
@@ -18672,7 +18676,7 @@
       <c r="Q304" s="2" t="inlineStr"/>
       <c r="R304" s="2" t="inlineStr">
         <is>
-          <t>Mechanisms of action</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="S304" s="2" t="inlineStr"/>
@@ -18693,22 +18697,22 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050679</t>
+          <t>BCIO:050678</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>information evaluation process</t>
+          <t>information devaluing</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D305" s="2" t="inlineStr">
         <is>
-          <t>&lt;Reflective thinking&gt; about the truth, accuracy or relevance of information about something</t>
+          <t>&lt;Judging&gt; that devalues information or its relevance to a situation.’ Under judging.</t>
         </is>
       </c>
       <c r="E305" s="2" t="inlineStr"/>
@@ -18751,22 +18755,22 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050680</t>
+          <t>BCIO:050679</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>innate drive</t>
+          <t>information evaluation process</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>drive process</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="D306" s="2" t="inlineStr">
         <is>
-          <t>A &lt;drive process&gt;in which the physiological need is determined prenatally.</t>
+          <t>&lt;Reflective thinking&gt; about the truth, accuracy or relevance of information about something</t>
         </is>
       </c>
       <c r="E306" s="2" t="inlineStr"/>
@@ -18809,31 +18813,27 @@
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050681</t>
+          <t>BCIO:050680</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>intention for collective behaviour</t>
+          <t>innate drive</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>behavioural intention</t>
+          <t>drive process</t>
         </is>
       </c>
       <c r="D307" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural intention&gt; to enact a behaviour with one or more others.</t>
+          <t>A &lt;drive process&gt;in which the physiological need is determined prenatally.</t>
         </is>
       </c>
       <c r="E307" s="2" t="inlineStr"/>
       <c r="F307" s="2" t="inlineStr"/>
-      <c r="G307" s="2" t="inlineStr">
-        <is>
-          <t>behavioural intention' has behaviour target 'collective behaviour'</t>
-        </is>
-      </c>
+      <c r="G307" s="2" t="inlineStr"/>
       <c r="H307" s="2" t="inlineStr"/>
       <c r="I307" s="2" t="inlineStr"/>
       <c r="J307" s="2" t="inlineStr"/>
@@ -18871,12 +18871,12 @@
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050682</t>
+          <t>BCIO:050681</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>intention not to enact a behaviour</t>
+          <t>intention for collective behaviour</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
@@ -18886,22 +18886,18 @@
       </c>
       <c r="D308" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural intention&gt; not to enact a behaviour.</t>
+          <t>A &lt;behavioural intention&gt; to enact a behaviour with one or more others.</t>
         </is>
       </c>
       <c r="E308" s="2" t="inlineStr"/>
       <c r="F308" s="2" t="inlineStr"/>
-      <c r="G308" s="2" t="inlineStr"/>
-      <c r="H308" s="2" t="inlineStr">
-        <is>
-          <t>Intention not to smoke</t>
-        </is>
-      </c>
-      <c r="I308" s="2" t="inlineStr">
-        <is>
-          <t>This means intention to actively not enact a behaviour (negative intention)</t>
-        </is>
-      </c>
+      <c r="G308" s="2" t="inlineStr">
+        <is>
+          <t>behavioural intention' has behaviour target 'collective behaviour'</t>
+        </is>
+      </c>
+      <c r="H308" s="2" t="inlineStr"/>
+      <c r="I308" s="2" t="inlineStr"/>
       <c r="J308" s="2" t="inlineStr"/>
       <c r="K308" s="2" t="inlineStr"/>
       <c r="L308" s="2" t="inlineStr"/>
@@ -18937,12 +18933,12 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050683</t>
+          <t>BCIO:050682</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>intention to enact a behaviour</t>
+          <t>intention not to enact a behaviour</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
@@ -18952,16 +18948,20 @@
       </c>
       <c r="D309" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behavioural intention&gt; to enact a behaviour.</t>
+          <t>A &lt;behavioural intention&gt; not to enact a behaviour.</t>
         </is>
       </c>
       <c r="E309" s="2" t="inlineStr"/>
       <c r="F309" s="2" t="inlineStr"/>
       <c r="G309" s="2" t="inlineStr"/>
-      <c r="H309" s="2" t="inlineStr"/>
+      <c r="H309" s="2" t="inlineStr">
+        <is>
+          <t>Intention not to smoke</t>
+        </is>
+      </c>
       <c r="I309" s="2" t="inlineStr">
         <is>
-          <t>This means intention to actively enact a behaviour (positive intention)</t>
+          <t>This means intention to actively not enact a behaviour (negative intention)</t>
         </is>
       </c>
       <c r="J309" s="2" t="inlineStr"/>
@@ -18999,29 +18999,33 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050683</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>intention to enact a behaviour</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>socially-related behaviour</t>
+          <t>behavioural intention</t>
         </is>
       </c>
       <c r="D310" s="2" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A &lt;behavioural intention&gt; to enact a behaviour.</t>
         </is>
       </c>
       <c r="E310" s="2" t="inlineStr"/>
       <c r="F310" s="2" t="inlineStr"/>
       <c r="G310" s="2" t="inlineStr"/>
       <c r="H310" s="2" t="inlineStr"/>
-      <c r="I310" s="2" t="inlineStr"/>
+      <c r="I310" s="2" t="inlineStr">
+        <is>
+          <t>This means intention to actively enact a behaviour (positive intention)</t>
+        </is>
+      </c>
       <c r="J310" s="2" t="inlineStr"/>
       <c r="K310" s="2" t="inlineStr"/>
       <c r="L310" s="2" t="inlineStr"/>
@@ -19057,22 +19061,22 @@
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050684</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>intermittent schedule of reinforcement</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>schedule of reinforcement</t>
+          <t>socially-related behaviour</t>
         </is>
       </c>
       <c r="D311" s="2" t="inlineStr">
         <is>
-          <t>A &lt;schedule of reinforcement&gt; in which the event following the behaviour occurs on some but not all occasions.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="E311" s="2" t="inlineStr"/>
@@ -19115,22 +19119,22 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050686</t>
+          <t>BCIO:050684</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>internal attribution of a behaviour</t>
+          <t>intermittent schedule of reinforcement</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>belief about the cause of a behaviour</t>
+          <t>schedule of reinforcement</t>
         </is>
       </c>
       <c r="D312" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about the cause of a behaviour&gt; where the cause is a characteristic of the person enacting the behaviour.</t>
+          <t>A &lt;schedule of reinforcement&gt; in which the event following the behaviour occurs on some but not all occasions.</t>
         </is>
       </c>
       <c r="E312" s="2" t="inlineStr"/>
@@ -19173,29 +19177,25 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050868</t>
+          <t>BCIO:050686</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>internal influence on behaviour</t>
+          <t>internal attribution of a behaviour</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>belief about the cause of a behaviour</t>
         </is>
       </c>
       <c r="D313" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; that is either capability or motivation.</t>
-        </is>
-      </c>
-      <c r="E313" s="2" t="inlineStr">
-        <is>
-          <t>'behavioural capability' OR 'behavioural motivation'</t>
-        </is>
-      </c>
+          <t>A &lt;belief about the cause of a behaviour&gt; where the cause is a characteristic of the person enacting the behaviour.</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="inlineStr"/>
       <c r="F313" s="2" t="inlineStr"/>
       <c r="G313" s="2" t="inlineStr"/>
       <c r="H313" s="2" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
       <c r="U313" s="2" t="inlineStr"/>
       <c r="V313" s="2" t="inlineStr">
         <is>
-          <t>PS; BG</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="W313" s="2" t="inlineStr">
@@ -19235,25 +19235,29 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050687</t>
+          <t>BCIO:050868</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>internal locus of control</t>
+          <t>internal influence on behaviour</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>belief about control over valued outcomes</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D314" s="2" t="inlineStr">
         <is>
-          <t>A &lt;belief about control over valued outcomes&gt; that attribute control to oneself.</t>
-        </is>
-      </c>
-      <c r="E314" s="2" t="inlineStr"/>
+          <t>A &lt;bodily disposition&gt; that is either capability or motivation.</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="inlineStr">
+        <is>
+          <t>'behavioural capability' OR 'behavioural motivation'</t>
+        </is>
+      </c>
       <c r="F314" s="2" t="inlineStr"/>
       <c r="G314" s="2" t="inlineStr"/>
       <c r="H314" s="2" t="inlineStr"/>
@@ -19280,7 +19284,7 @@
       <c r="U314" s="2" t="inlineStr"/>
       <c r="V314" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; BG</t>
         </is>
       </c>
       <c r="W314" s="2" t="inlineStr">
@@ -19293,22 +19297,22 @@
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006100</t>
+          <t>BCIO:050687</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>internal reward for a response</t>
+          <t>internal locus of control</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>belief about control over valued outcomes</t>
         </is>
       </c>
       <c r="D315" s="2" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+          <t>A &lt;belief about control over valued outcomes&gt; that attribute control to oneself.</t>
         </is>
       </c>
       <c r="E315" s="2" t="inlineStr"/>
@@ -19351,22 +19355,22 @@
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050685</t>
+          <t>BCIO:006100</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>internal stimulus</t>
+          <t>internal reward for a response</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D316" s="2" t="inlineStr">
         <is>
-          <t>A &lt;stimulus&gt; that is located inside the person.</t>
+          <t>A &lt;bodily process&gt; by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
         </is>
       </c>
       <c r="E316" s="2" t="inlineStr"/>
@@ -19409,22 +19413,22 @@
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006092</t>
+          <t>BCIO:050685</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>internal stimulus for behaviour</t>
+          <t>internal stimulus</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>internal stimulus</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="D317" s="2" t="inlineStr">
         <is>
-          <t>An &lt;internal stimulus&gt; that gives rise to a behaviour.</t>
+          <t>A &lt;stimulus&gt; that is located inside the person.</t>
         </is>
       </c>
       <c r="E317" s="2" t="inlineStr"/>
@@ -19465,91 +19469,87 @@
       <c r="X317" s="2" t="inlineStr"/>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>MFOEM:000022</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>interpersonal disgust</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>&lt;Disgust&gt; elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr"/>
-      <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr"/>
-      <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="inlineStr"/>
-      <c r="N318" t="inlineStr"/>
-      <c r="O318" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P318" t="inlineStr"/>
-      <c r="Q318" t="inlineStr"/>
-      <c r="R318" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S318" t="inlineStr"/>
-      <c r="T318" t="inlineStr"/>
-      <c r="U318" t="inlineStr"/>
-      <c r="V318" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W318" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X318" t="inlineStr"/>
+      <c r="A318" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006092</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="inlineStr">
+        <is>
+          <t>internal stimulus for behaviour</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="inlineStr">
+        <is>
+          <t>internal stimulus</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="inlineStr">
+        <is>
+          <t>An &lt;internal stimulus&gt; that gives rise to a behaviour.</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="inlineStr"/>
+      <c r="F318" s="2" t="inlineStr"/>
+      <c r="G318" s="2" t="inlineStr"/>
+      <c r="H318" s="2" t="inlineStr"/>
+      <c r="I318" s="2" t="inlineStr"/>
+      <c r="J318" s="2" t="inlineStr"/>
+      <c r="K318" s="2" t="inlineStr"/>
+      <c r="L318" s="2" t="inlineStr"/>
+      <c r="M318" s="2" t="inlineStr"/>
+      <c r="N318" s="2" t="inlineStr"/>
+      <c r="O318" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P318" s="2" t="inlineStr"/>
+      <c r="Q318" s="2" t="inlineStr"/>
+      <c r="R318" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S318" s="2" t="inlineStr"/>
+      <c r="T318" s="2" t="inlineStr"/>
+      <c r="U318" s="2" t="inlineStr"/>
+      <c r="V318" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W318" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X318" s="2" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>MF:0000021</t>
+          <t>MFOEM:000022</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>interpersonal process</t>
+          <t>interpersonal disgust</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; in which at least two human beings are agents.</t>
+          <t>&lt;Disgust&gt; elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>social process</t>
-        </is>
-      </c>
+      <c r="G319" t="inlineStr"/>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -19585,93 +19585,97 @@
       <c r="X319" t="inlineStr"/>
     </row>
     <row r="320">
-      <c r="A320" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006136</t>
-        </is>
-      </c>
-      <c r="B320" s="2" t="inlineStr">
-        <is>
-          <t>intrinsic motivation</t>
-        </is>
-      </c>
-      <c r="C320" s="2" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D320" s="2" t="inlineStr">
-        <is>
-          <t>&lt;Autonomous motivation&gt; due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
-        </is>
-      </c>
-      <c r="E320" s="2" t="inlineStr"/>
-      <c r="F320" s="2" t="inlineStr"/>
-      <c r="G320" s="2" t="inlineStr"/>
-      <c r="H320" s="2" t="inlineStr"/>
-      <c r="I320" s="2" t="inlineStr">
-        <is>
-          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
-        </is>
-      </c>
-      <c r="J320" s="2" t="inlineStr"/>
-      <c r="K320" s="2" t="inlineStr"/>
-      <c r="L320" s="2" t="inlineStr"/>
-      <c r="M320" s="2" t="inlineStr"/>
-      <c r="N320" s="2" t="inlineStr"/>
-      <c r="O320" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P320" s="2" t="inlineStr"/>
-      <c r="Q320" s="2" t="inlineStr"/>
-      <c r="R320" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S320" s="2" t="inlineStr"/>
-      <c r="T320" s="2" t="inlineStr"/>
-      <c r="U320" s="2" t="inlineStr"/>
-      <c r="V320" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W320" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X320" s="2" t="inlineStr"/>
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>MF:0000021</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>interpersonal process</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>A &lt;bodily process&gt; in which at least two human beings are agents.</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>social process</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="inlineStr"/>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr"/>
+      <c r="Q320" t="inlineStr"/>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr"/>
+      <c r="T320" t="inlineStr"/>
+      <c r="U320" t="inlineStr"/>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050688</t>
+          <t>BCIO:006136</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>intrinsic reward</t>
+          <t>intrinsic motivation</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="D321" s="2" t="inlineStr">
         <is>
-          <t>A &lt;stimulus&gt; by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+          <t>&lt;Autonomous motivation&gt; due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
         </is>
       </c>
       <c r="E321" s="2" t="inlineStr"/>
       <c r="F321" s="2" t="inlineStr"/>
       <c r="G321" s="2" t="inlineStr"/>
       <c r="H321" s="2" t="inlineStr"/>
-      <c r="I321" s="2" t="inlineStr"/>
+      <c r="I321" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
+        </is>
+      </c>
       <c r="J321" s="2" t="inlineStr"/>
       <c r="K321" s="2" t="inlineStr"/>
       <c r="L321" s="2" t="inlineStr"/>
@@ -19707,22 +19711,22 @@
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006105</t>
+          <t>BCIO:050688</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>introjected self-regulation</t>
+          <t>intrinsic reward</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="D322" s="2" t="inlineStr">
         <is>
-          <t>&lt;Self-regulation of behaviour&gt; undertaken to manage a sense of guilt, anxiety or obligation.</t>
+          <t>A &lt;stimulus&gt; by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
         </is>
       </c>
       <c r="E322" s="2" t="inlineStr"/>
@@ -19763,155 +19767,147 @@
       <c r="X322" s="2" t="inlineStr"/>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
+      <c r="A323" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006105</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="inlineStr">
+        <is>
+          <t>introjected self-regulation</t>
+        </is>
+      </c>
+      <c r="C323" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="inlineStr">
+        <is>
+          <t>&lt;Self-regulation of behaviour&gt; undertaken to manage a sense of guilt, anxiety or obligation.</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="inlineStr"/>
+      <c r="F323" s="2" t="inlineStr"/>
+      <c r="G323" s="2" t="inlineStr"/>
+      <c r="H323" s="2" t="inlineStr"/>
+      <c r="I323" s="2" t="inlineStr"/>
+      <c r="J323" s="2" t="inlineStr"/>
+      <c r="K323" s="2" t="inlineStr"/>
+      <c r="L323" s="2" t="inlineStr"/>
+      <c r="M323" s="2" t="inlineStr"/>
+      <c r="N323" s="2" t="inlineStr"/>
+      <c r="O323" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P323" s="2" t="inlineStr"/>
+      <c r="Q323" s="2" t="inlineStr"/>
+      <c r="R323" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S323" s="2" t="inlineStr"/>
+      <c r="T323" s="2" t="inlineStr"/>
+      <c r="U323" s="2" t="inlineStr"/>
+      <c r="V323" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W323" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X323" s="2" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
         <is>
           <t>MF:0000006</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B324" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr">
+      <c r="D324" t="inlineStr">
         <is>
           <t>A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr"/>
-      <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr"/>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="inlineStr"/>
-      <c r="N323" t="inlineStr"/>
-      <c r="O323" t="inlineStr">
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr"/>
+      <c r="N324" t="inlineStr"/>
+      <c r="O324" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="P323" t="inlineStr"/>
-      <c r="Q323" t="inlineStr"/>
-      <c r="R323" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S323" t="inlineStr"/>
-      <c r="T323" t="inlineStr"/>
-      <c r="U323" t="inlineStr"/>
-      <c r="V323" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W323" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050689</t>
-        </is>
-      </c>
-      <c r="B324" s="2" t="inlineStr">
-        <is>
-          <t>judging about causation</t>
-        </is>
-      </c>
-      <c r="C324" s="2" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D324" s="2" t="inlineStr">
-        <is>
-          <t>&lt;Judging&gt; that results in a belief about a causal relationship between two or more entities</t>
-        </is>
-      </c>
-      <c r="E324" s="2" t="inlineStr"/>
-      <c r="F324" s="2" t="inlineStr"/>
-      <c r="G324" s="2" t="inlineStr"/>
-      <c r="H324" s="2" t="inlineStr"/>
-      <c r="I324" s="2" t="inlineStr"/>
-      <c r="J324" s="2" t="inlineStr"/>
-      <c r="K324" s="2" t="inlineStr"/>
-      <c r="L324" s="2" t="inlineStr"/>
-      <c r="M324" s="2" t="inlineStr"/>
-      <c r="N324" s="2" t="inlineStr"/>
-      <c r="O324" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P324" s="2" t="inlineStr"/>
-      <c r="Q324" s="2" t="inlineStr"/>
-      <c r="R324" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S324" s="2" t="inlineStr"/>
-      <c r="T324" s="2" t="inlineStr"/>
-      <c r="U324" s="2" t="inlineStr"/>
-      <c r="V324" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W324" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X324" s="2" t="inlineStr"/>
+      <c r="P324" t="inlineStr"/>
+      <c r="Q324" t="inlineStr"/>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S324" t="inlineStr"/>
+      <c r="T324" t="inlineStr"/>
+      <c r="U324" t="inlineStr"/>
+      <c r="V324" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006052</t>
+          <t>BCIO:050689</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>judging about causation</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D325" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>&lt;Judging&gt; that results in a belief about a causal relationship between two or more entities</t>
         </is>
       </c>
       <c r="E325" s="2" t="inlineStr"/>
-      <c r="F325" s="2" t="inlineStr">
-        <is>
-          <t>An understanding of something that results from experience or learning.</t>
-        </is>
-      </c>
+      <c r="F325" s="2" t="inlineStr"/>
       <c r="G325" s="2" t="inlineStr"/>
       <c r="H325" s="2" t="inlineStr"/>
-      <c r="I325" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
-        </is>
-      </c>
+      <c r="I325" s="2" t="inlineStr"/>
       <c r="J325" s="2" t="inlineStr"/>
       <c r="K325" s="2" t="inlineStr"/>
       <c r="L325" s="2" t="inlineStr"/>
@@ -19947,33 +19943,37 @@
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050690</t>
+          <t>BCIO:006052</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>knowledge about threat avoidance</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t>&lt;Knowledge regarding a threat&gt; that includes how to avoid it.</t>
+          <t>A &lt;mental disposition&gt; to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
         </is>
       </c>
       <c r="E326" s="2" t="inlineStr"/>
-      <c r="F326" s="2" t="inlineStr"/>
+      <c r="F326" s="2" t="inlineStr">
+        <is>
+          <t>An understanding of something that results from experience or learning.</t>
+        </is>
+      </c>
       <c r="G326" s="2" t="inlineStr"/>
-      <c r="H326" s="2" t="inlineStr">
-        <is>
-          <t>knowledge about how to avoid getting an illness</t>
-        </is>
-      </c>
-      <c r="I326" s="2" t="inlineStr"/>
+      <c r="H326" s="2" t="inlineStr"/>
+      <c r="I326" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
+        </is>
+      </c>
       <c r="J326" s="2" t="inlineStr"/>
       <c r="K326" s="2" t="inlineStr"/>
       <c r="L326" s="2" t="inlineStr"/>
@@ -20009,28 +20009,32 @@
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:050690</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>knowledge about threat avoidance</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="D327" s="2" t="inlineStr">
         <is>
-          <t>&lt;Knowledge&gt; regarding a particular set of actions.</t>
+          <t>&lt;Knowledge regarding a threat&gt; that includes how to avoid it.</t>
         </is>
       </c>
       <c r="E327" s="2" t="inlineStr"/>
       <c r="F327" s="2" t="inlineStr"/>
       <c r="G327" s="2" t="inlineStr"/>
-      <c r="H327" s="2" t="inlineStr"/>
+      <c r="H327" s="2" t="inlineStr">
+        <is>
+          <t>knowledge about how to avoid getting an illness</t>
+        </is>
+      </c>
       <c r="I327" s="2" t="inlineStr"/>
       <c r="J327" s="2" t="inlineStr"/>
       <c r="K327" s="2" t="inlineStr"/>
@@ -20067,12 +20071,12 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge regarding a behaviour</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
@@ -20082,7 +20086,7 @@
       </c>
       <c r="D328" s="2" t="inlineStr">
         <is>
-          <t>&lt;Knowledge&gt; regarding a potential harm.</t>
+          <t>&lt;Knowledge&gt; regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E328" s="2" t="inlineStr"/>
@@ -20125,12 +20129,12 @@
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
@@ -20140,7 +20144,7 @@
       </c>
       <c r="D329" s="2" t="inlineStr">
         <is>
-          <t>&lt;Knowledge&gt; regarding a novel invention or way of doing something.</t>
+          <t>&lt;Knowledge&gt; regarding a potential harm.</t>
         </is>
       </c>
       <c r="E329" s="2" t="inlineStr"/>
@@ -20183,12 +20187,12 @@
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050691</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding goal attainment</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
@@ -20198,7 +20202,7 @@
       </c>
       <c r="D330" s="2" t="inlineStr">
         <is>
-          <t>&lt;Knowledge&gt; about how to achieve a goal.</t>
+          <t>&lt;Knowledge&gt; regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E330" s="2" t="inlineStr"/>
@@ -20241,12 +20245,12 @@
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:050691</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>knowledge regarding goal attainment</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
@@ -20256,7 +20260,7 @@
       </c>
       <c r="D331" s="2" t="inlineStr">
         <is>
-          <t>&lt;Knowledge&gt; regarding a therapy or medication for a health problem.</t>
+          <t>&lt;Knowledge&gt; about how to achieve a goal.</t>
         </is>
       </c>
       <c r="E331" s="2" t="inlineStr"/>
@@ -20299,41 +20303,29 @@
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D332" s="2" t="inlineStr">
         <is>
-          <t>A &lt;learned stimulus-response co-occurrence&gt; that involves a behavioural disposition in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
+          <t>&lt;Knowledge&gt; regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E332" s="2" t="inlineStr"/>
-      <c r="F332" s="2" t="inlineStr">
-        <is>
-          <t>A tendency for something in the environment to prompt a behaviour as a result of learning.</t>
-        </is>
-      </c>
-      <c r="G332" s="2" t="inlineStr">
-        <is>
-          <t>Habit</t>
-        </is>
-      </c>
+      <c r="F332" s="2" t="inlineStr"/>
+      <c r="G332" s="2" t="inlineStr"/>
       <c r="H332" s="2" t="inlineStr"/>
-      <c r="I332" s="2" t="inlineStr">
-        <is>
-          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
-        </is>
-      </c>
+      <c r="I332" s="2" t="inlineStr"/>
       <c r="J332" s="2" t="inlineStr"/>
       <c r="K332" s="2" t="inlineStr"/>
       <c r="L332" s="2" t="inlineStr"/>
@@ -20369,31 +20361,39 @@
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
+          <t>learned stimulus-behaviour co-occurrence</t>
+        </is>
+      </c>
+      <c r="C333" s="2" t="inlineStr">
+        <is>
           <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
       <c r="D333" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental disposition&gt; to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>A &lt;learned stimulus-response co-occurrence&gt; that involves a behavioural disposition in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E333" s="2" t="inlineStr"/>
-      <c r="F333" s="2" t="inlineStr"/>
-      <c r="G333" s="2" t="inlineStr"/>
+      <c r="F333" s="2" t="inlineStr">
+        <is>
+          <t>A tendency for something in the environment to prompt a behaviour as a result of learning.</t>
+        </is>
+      </c>
+      <c r="G333" s="2" t="inlineStr">
+        <is>
+          <t>Habit</t>
+        </is>
+      </c>
       <c r="H333" s="2" t="inlineStr"/>
       <c r="I333" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
         </is>
       </c>
       <c r="J333" s="2" t="inlineStr"/>
@@ -20431,33 +20431,33 @@
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006156</t>
+          <t>BCIO:006057</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-thought co-occurrence</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D334" s="2" t="inlineStr">
         <is>
-          <t>A &lt;learned stimulus-response co-occurrence&gt; that involves a disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>A &lt;mental disposition&gt; to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E334" s="2" t="inlineStr"/>
       <c r="F334" s="2" t="inlineStr"/>
-      <c r="G334" s="2" t="inlineStr">
-        <is>
-          <t>Mental habit</t>
-        </is>
-      </c>
+      <c r="G334" s="2" t="inlineStr"/>
       <c r="H334" s="2" t="inlineStr"/>
-      <c r="I334" s="2" t="inlineStr"/>
+      <c r="I334" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+        </is>
+      </c>
       <c r="J334" s="2" t="inlineStr"/>
       <c r="K334" s="2" t="inlineStr"/>
       <c r="L334" s="2" t="inlineStr"/>
@@ -20493,33 +20493,33 @@
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050239</t>
+          <t>BCIO:006156</t>
         </is>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>learned stimulus-thought co-occurrence</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="D335" s="2" t="inlineStr">
         <is>
-          <t>A &lt;mental process&gt; in which a lasting mental or behavioural change occurs as the result of experience.</t>
+          <t>A &lt;learned stimulus-response co-occurrence&gt; that involves a disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E335" s="2" t="inlineStr"/>
       <c r="F335" s="2" t="inlineStr"/>
-      <c r="G335" s="2" t="inlineStr"/>
+      <c r="G335" s="2" t="inlineStr">
+        <is>
+          <t>Mental habit</t>
+        </is>
+      </c>
       <c r="H335" s="2" t="inlineStr"/>
-      <c r="I335" s="2" t="inlineStr">
-        <is>
-          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
-        </is>
-      </c>
+      <c r="I335" s="2" t="inlineStr"/>
       <c r="J335" s="2" t="inlineStr"/>
       <c r="K335" s="2" t="inlineStr"/>
       <c r="L335" s="2" t="inlineStr"/>
@@ -20555,29 +20555,33 @@
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050692</t>
+          <t>BCIO:050239</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>legal behavioural constraint</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
         <is>
-          <t>low opportunity to enact a behaviour</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D336" s="2" t="inlineStr">
         <is>
-          <t>A &lt;low opportunity to enact a behaviour&gt; resulting from legal restriction.</t>
+          <t>A &lt;mental process&gt; in which a lasting mental or behavioural change occurs as the result of experience.</t>
         </is>
       </c>
       <c r="E336" s="2" t="inlineStr"/>
       <c r="F336" s="2" t="inlineStr"/>
       <c r="G336" s="2" t="inlineStr"/>
       <c r="H336" s="2" t="inlineStr"/>
-      <c r="I336" s="2" t="inlineStr"/>
+      <c r="I336" s="2" t="inlineStr">
+        <is>
+          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
+        </is>
+      </c>
       <c r="J336" s="2" t="inlineStr"/>
       <c r="K336" s="2" t="inlineStr"/>
       <c r="L336" s="2" t="inlineStr"/>
@@ -20613,22 +20617,22 @@
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050693</t>
+          <t>BCIO:050692</t>
         </is>
       </c>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>leisure time</t>
+          <t>legal behavioural constraint</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr">
         <is>
-          <t>temporal behavioural opportunity</t>
+          <t>low opportunity to enact a behaviour</t>
         </is>
       </c>
       <c r="D337" s="2" t="inlineStr">
         <is>
-          <t>A &lt;temporal behavioural opportunity&gt; for recreational activities.</t>
+          <t>A &lt;low opportunity to enact a behaviour&gt; resulting from legal restriction.</t>
         </is>
       </c>
       <c r="E337" s="2" t="inlineStr"/>
@@ -20671,32 +20675,28 @@
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050693</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>leisure time</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>temporal behavioural opportunity</t>
         </is>
       </c>
       <c r="D338" s="2" t="inlineStr">
         <is>
-          <t>A &lt;human communication behaviour&gt; in which the information that is communicated is encoded in language.</t>
+          <t>A &lt;temporal behavioural opportunity&gt; for recreational activities.</t>
         </is>
       </c>
       <c r="E338" s="2" t="inlineStr"/>
       <c r="F338" s="2" t="inlineStr"/>
       <c r="G338" s="2" t="inlineStr"/>
-      <c r="H338" s="2" t="inlineStr">
-        <is>
-          <t>Written language, spoken language and sign-language communication</t>
-        </is>
-      </c>
+      <c r="H338" s="2" t="inlineStr"/>
       <c r="I338" s="2" t="inlineStr"/>
       <c r="J338" s="2" t="inlineStr"/>
       <c r="K338" s="2" t="inlineStr"/>
@@ -20733,37 +20733,33 @@
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006085</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="D339" s="2" t="inlineStr">
         <is>
-          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+          <t>A &lt;human communication behaviour&gt; in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E339" s="2" t="inlineStr"/>
-      <c r="F339" s="2" t="inlineStr">
-        <is>
-          <t>Where a person, animal or object is.</t>
-        </is>
-      </c>
+      <c r="F339" s="2" t="inlineStr"/>
       <c r="G339" s="2" t="inlineStr"/>
-      <c r="H339" s="2" t="inlineStr"/>
-      <c r="I339" s="2" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
-        </is>
-      </c>
+      <c r="H339" s="2" t="inlineStr">
+        <is>
+          <t>Written language, spoken language and sign-language communication</t>
+        </is>
+      </c>
+      <c r="I339" s="2" t="inlineStr"/>
       <c r="J339" s="2" t="inlineStr"/>
       <c r="K339" s="2" t="inlineStr"/>
       <c r="L339" s="2" t="inlineStr"/>
@@ -20799,29 +20795,37 @@
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050694</t>
+          <t>BCIO:006085</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>logical reasoning</t>
+          <t>location</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>reflective reasoning</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D340" s="2" t="inlineStr">
         <is>
-          <t>&lt;Reflective reasoning&gt; in which rules of inference are applied to arrive at conclusions.</t>
+          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
         </is>
       </c>
       <c r="E340" s="2" t="inlineStr"/>
-      <c r="F340" s="2" t="inlineStr"/>
+      <c r="F340" s="2" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
+        </is>
+      </c>
       <c r="G340" s="2" t="inlineStr"/>
       <c r="H340" s="2" t="inlineStr"/>
-      <c r="I340" s="2" t="inlineStr"/>
+      <c r="I340" s="2" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+        </is>
+      </c>
       <c r="J340" s="2" t="inlineStr"/>
       <c r="K340" s="2" t="inlineStr"/>
       <c r="L340" s="2" t="inlineStr"/>
@@ -20857,41 +20861,33 @@
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050695</t>
+          <t>BCIO:050694</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>low capability to enact a behaviour</t>
+          <t>logical reasoning</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>reflective reasoning</t>
         </is>
       </c>
       <c r="D341" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal attribute&gt;in terms of behavioural capability being low.</t>
+          <t>&lt;Reflective reasoning&gt; in which rules of inference are applied to arrive at conclusions.</t>
         </is>
       </c>
       <c r="E341" s="2" t="inlineStr"/>
       <c r="F341" s="2" t="inlineStr"/>
       <c r="G341" s="2" t="inlineStr"/>
       <c r="H341" s="2" t="inlineStr"/>
-      <c r="I341" s="2" t="inlineStr">
-        <is>
-          <t>This is a fuzzy set and can only be used if operationalised.</t>
-        </is>
-      </c>
+      <c r="I341" s="2" t="inlineStr"/>
       <c r="J341" s="2" t="inlineStr"/>
       <c r="K341" s="2" t="inlineStr"/>
       <c r="L341" s="2" t="inlineStr"/>
-      <c r="M341" s="2" t="inlineStr">
-        <is>
-          <t>behavioural capability</t>
-        </is>
-      </c>
+      <c r="M341" s="2" t="inlineStr"/>
       <c r="N341" s="2" t="inlineStr"/>
       <c r="O341" s="2" t="inlineStr">
         <is>
@@ -20913,41 +20909,51 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W341" s="2" t="n">
-        <v>1</v>
+      <c r="W341" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X341" s="2" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050869</t>
+          <t>BCIO:050695</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>low mental capability to enact a behaviour</t>
+          <t>low capability to enact a behaviour</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr">
         <is>
-          <t>low capability to enact a behaviour</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D342" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Low capability to enact a behaviour&gt; that involves mental processes. </t>
+          <t>A &lt;personal attribute&gt;in terms of behavioural capability being low.</t>
         </is>
       </c>
       <c r="E342" s="2" t="inlineStr"/>
       <c r="F342" s="2" t="inlineStr"/>
       <c r="G342" s="2" t="inlineStr"/>
       <c r="H342" s="2" t="inlineStr"/>
-      <c r="I342" s="2" t="inlineStr"/>
+      <c r="I342" s="2" t="inlineStr">
+        <is>
+          <t>This is a fuzzy set and can only be used if operationalised.</t>
+        </is>
+      </c>
       <c r="J342" s="2" t="inlineStr"/>
       <c r="K342" s="2" t="inlineStr"/>
       <c r="L342" s="2" t="inlineStr"/>
-      <c r="M342" s="2" t="inlineStr"/>
+      <c r="M342" s="2" t="inlineStr">
+        <is>
+          <t>behavioural capability</t>
+        </is>
+      </c>
       <c r="N342" s="2" t="inlineStr"/>
       <c r="O342" s="2" t="inlineStr">
         <is>
@@ -20969,144 +20975,136 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W342" s="2" t="inlineStr">
+      <c r="W342" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X342" s="2" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050869</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>low mental capability to enact a behaviour</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>low capability to enact a behaviour</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;Low capability to enact a behaviour&gt; that involves mental processes. </t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="inlineStr"/>
+      <c r="F343" s="2" t="inlineStr"/>
+      <c r="G343" s="2" t="inlineStr"/>
+      <c r="H343" s="2" t="inlineStr"/>
+      <c r="I343" s="2" t="inlineStr"/>
+      <c r="J343" s="2" t="inlineStr"/>
+      <c r="K343" s="2" t="inlineStr"/>
+      <c r="L343" s="2" t="inlineStr"/>
+      <c r="M343" s="2" t="inlineStr"/>
+      <c r="N343" s="2" t="inlineStr"/>
+      <c r="O343" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P343" s="2" t="inlineStr"/>
+      <c r="Q343" s="2" t="inlineStr"/>
+      <c r="R343" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S343" s="2" t="inlineStr"/>
+      <c r="T343" s="2" t="inlineStr"/>
+      <c r="U343" s="2" t="inlineStr"/>
+      <c r="V343" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W343" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="X342" s="2" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="3" t="inlineStr">
+      <c r="X343" s="2" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="3" t="inlineStr">
         <is>
           <t>BCIO:050696</t>
         </is>
       </c>
-      <c r="B343" s="3" t="inlineStr">
+      <c r="B344" s="3" t="inlineStr">
         <is>
           <t>low motivation to change behaviour</t>
         </is>
       </c>
-      <c r="C343" s="3" t="inlineStr">
+      <c r="C344" s="3" t="inlineStr">
         <is>
           <t>attribute</t>
         </is>
       </c>
-      <c r="D343" s="3" t="inlineStr">
+      <c r="D344" s="3" t="inlineStr">
         <is>
           <t>An &lt;attribute&gt; of motivation to change behaviour that is low.</t>
         </is>
       </c>
-      <c r="E343" s="3" t="inlineStr"/>
-      <c r="F343" s="3" t="inlineStr"/>
-      <c r="G343" s="3" t="inlineStr"/>
-      <c r="H343" s="3" t="inlineStr"/>
-      <c r="I343" s="3" t="inlineStr"/>
-      <c r="J343" s="3" t="inlineStr"/>
-      <c r="K343" s="3" t="inlineStr"/>
-      <c r="L343" s="3" t="inlineStr"/>
-      <c r="M343" s="3" t="inlineStr"/>
-      <c r="N343" s="3" t="inlineStr"/>
-      <c r="O343" s="3" t="inlineStr">
+      <c r="E344" s="3" t="inlineStr"/>
+      <c r="F344" s="3" t="inlineStr"/>
+      <c r="G344" s="3" t="inlineStr"/>
+      <c r="H344" s="3" t="inlineStr"/>
+      <c r="I344" s="3" t="inlineStr"/>
+      <c r="J344" s="3" t="inlineStr"/>
+      <c r="K344" s="3" t="inlineStr"/>
+      <c r="L344" s="3" t="inlineStr"/>
+      <c r="M344" s="3" t="inlineStr"/>
+      <c r="N344" s="3" t="inlineStr"/>
+      <c r="O344" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="P343" s="3" t="inlineStr"/>
-      <c r="Q343" s="3" t="inlineStr"/>
-      <c r="R343" s="3" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S343" s="3" t="inlineStr"/>
-      <c r="T343" s="3" t="inlineStr"/>
-      <c r="U343" s="3" t="inlineStr"/>
-      <c r="V343" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W343" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X343" s="3" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050697</t>
-        </is>
-      </c>
-      <c r="B344" s="2" t="inlineStr">
-        <is>
-          <t>low motivational disposition to change behaviour</t>
-        </is>
-      </c>
-      <c r="C344" s="2" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="D344" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;personal attribute&gt; in terms of motivational disposition to change behaviour being low.</t>
-        </is>
-      </c>
-      <c r="E344" s="2" t="inlineStr"/>
-      <c r="F344" s="2" t="inlineStr"/>
-      <c r="G344" s="2" t="inlineStr"/>
-      <c r="H344" s="2" t="inlineStr"/>
-      <c r="I344" s="2" t="inlineStr">
-        <is>
-          <t>This is a fuzzy set and can only be used if operationalised.</t>
-        </is>
-      </c>
-      <c r="J344" s="2" t="inlineStr"/>
-      <c r="K344" s="2" t="inlineStr"/>
-      <c r="L344" s="2" t="inlineStr"/>
-      <c r="M344" s="2" t="inlineStr">
-        <is>
-          <t>motivational disposition to change behaviour</t>
-        </is>
-      </c>
-      <c r="N344" s="2" t="inlineStr"/>
-      <c r="O344" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P344" s="2" t="inlineStr"/>
-      <c r="Q344" s="2" t="inlineStr"/>
-      <c r="R344" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S344" s="2" t="inlineStr"/>
-      <c r="T344" s="2" t="inlineStr"/>
-      <c r="U344" s="2" t="inlineStr"/>
-      <c r="V344" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W344" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X344" s="2" t="inlineStr"/>
+      <c r="P344" s="3" t="inlineStr"/>
+      <c r="Q344" s="3" t="inlineStr"/>
+      <c r="R344" s="3" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S344" s="3" t="inlineStr"/>
+      <c r="T344" s="3" t="inlineStr"/>
+      <c r="U344" s="3" t="inlineStr"/>
+      <c r="V344" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W344" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X344" s="3" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050698</t>
+          <t>BCIO:050697</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>low opportunity to enact a behaviour</t>
+          <t>low motivational disposition to change behaviour</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
@@ -21116,7 +21114,7 @@
       </c>
       <c r="D345" s="2" t="inlineStr">
         <is>
-          <t>A &lt;personal attribute&gt; in terms of having low behavioural opportunity.</t>
+          <t>A &lt;personal attribute&gt; in terms of motivational disposition to change behaviour being low.</t>
         </is>
       </c>
       <c r="E345" s="2" t="inlineStr"/>
@@ -21133,7 +21131,7 @@
       <c r="L345" s="2" t="inlineStr"/>
       <c r="M345" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>motivational disposition to change behaviour</t>
         </is>
       </c>
       <c r="N345" s="2" t="inlineStr"/>
@@ -21165,33 +21163,41 @@
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050699</t>
+          <t>BCIO:050698</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>low opportunity to enact a goal-directed behaviour</t>
+          <t>low opportunity to enact a behaviour</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
-          <t>low opportunity to enact a behaviour</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D346" s="2" t="inlineStr">
         <is>
-          <t>&lt;Low opportunities to enact a behaviour&gt; that is goal-directed.</t>
+          <t>A &lt;personal attribute&gt; in terms of having low behavioural opportunity.</t>
         </is>
       </c>
       <c r="E346" s="2" t="inlineStr"/>
       <c r="F346" s="2" t="inlineStr"/>
       <c r="G346" s="2" t="inlineStr"/>
       <c r="H346" s="2" t="inlineStr"/>
-      <c r="I346" s="2" t="inlineStr"/>
+      <c r="I346" s="2" t="inlineStr">
+        <is>
+          <t>This is a fuzzy set and can only be used if operationalised.</t>
+        </is>
+      </c>
       <c r="J346" s="2" t="inlineStr"/>
       <c r="K346" s="2" t="inlineStr"/>
       <c r="L346" s="2" t="inlineStr"/>
-      <c r="M346" s="2" t="inlineStr"/>
+      <c r="M346" s="2" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
       <c r="N346" s="2" t="inlineStr"/>
       <c r="O346" s="2" t="inlineStr">
         <is>
@@ -21213,22 +21219,20 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W346" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W346" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X346" s="2" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050700</t>
+          <t>BCIO:050699</t>
         </is>
       </c>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">low physical opportunity to enact a behaviour </t>
+          <t>low opportunity to enact a goal-directed behaviour</t>
         </is>
       </c>
       <c r="C347" s="2" t="inlineStr">
@@ -21238,16 +21242,12 @@
       </c>
       <c r="D347" s="2" t="inlineStr">
         <is>
-          <t>&lt;Low opportunity to enact a behaviour&gt; where the opportunity is physical.</t>
+          <t>&lt;Low opportunities to enact a behaviour&gt; that is goal-directed.</t>
         </is>
       </c>
       <c r="E347" s="2" t="inlineStr"/>
       <c r="F347" s="2" t="inlineStr"/>
-      <c r="G347" s="2" t="inlineStr">
-        <is>
-          <t>not ‘physical behavioural opportunity’</t>
-        </is>
-      </c>
+      <c r="G347" s="2" t="inlineStr"/>
       <c r="H347" s="2" t="inlineStr"/>
       <c r="I347" s="2" t="inlineStr"/>
       <c r="J347" s="2" t="inlineStr"/>
@@ -21275,49 +21275,47 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="W347" s="2" t="n">
-        <v>1</v>
+      <c r="W347" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="X347" s="2" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050701</t>
+          <t>BCIO:050700</t>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>low self-efficacy</t>
+          <t xml:space="preserve">low physical opportunity to enact a behaviour </t>
         </is>
       </c>
       <c r="C348" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>low opportunity to enact a behaviour</t>
         </is>
       </c>
       <c r="D348" s="2" t="inlineStr">
         <is>
-          <t>An &lt;personal attribute&gt; of self-efficacy belief that is low.</t>
+          <t>&lt;Low opportunity to enact a behaviour&gt; where the opportunity is physical.</t>
         </is>
       </c>
       <c r="E348" s="2" t="inlineStr"/>
       <c r="F348" s="2" t="inlineStr"/>
-      <c r="G348" s="2" t="inlineStr"/>
+      <c r="G348" s="2" t="inlineStr">
+        <is>
+          <t>not ‘physical behavioural opportunity’</t>
+        </is>
+      </c>
       <c r="H348" s="2" t="inlineStr"/>
-      <c r="I348" s="2" t="inlineStr">
-        <is>
-          <t>This is a fuzzy set and can only be used if operationalised.</t>
-        </is>
-      </c>
+      <c r="I348" s="2" t="inlineStr"/>
       <c r="J348" s="2" t="inlineStr"/>
       <c r="K348" s="2" t="inlineStr"/>
       <c r="L348" s="2" t="inlineStr"/>
-      <c r="M348" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">self-efficacy belief </t>
-        </is>
-      </c>
+      <c r="M348" s="2" t="inlineStr"/>
       <c r="N348" s="2" t="inlineStr"/>
       <c r="O348" s="2" t="inlineStr">
         <is>
@@ -21347,37 +21345,41 @@
     <row r="349">
       <c r="A349" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050702</t>
+          <t>BCIO:050701</t>
         </is>
       </c>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">low social opportunity to enact a behaviour </t>
+          <t>low self-efficacy</t>
         </is>
       </c>
       <c r="C349" s="2" t="inlineStr">
         <is>
-          <t>low opportunity to enact a behaviour</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="D349" s="2" t="inlineStr">
         <is>
-          <t>&lt;Low opportunity to enact a behaviour&gt; where the opportunity is social.</t>
+          <t>An &lt;personal attribute&gt; of self-efficacy belief that is low.</t>
         </is>
       </c>
       <c r="E349" s="2" t="inlineStr"/>
       <c r="F349" s="2" t="inlineStr"/>
-      <c r="G349" s="2" t="inlineStr">
-        <is>
-          <t>not ‘social behavioural opportunity’</t>
-        </is>
-      </c>
+      <c r="G349" s="2" t="inlineStr"/>
       <c r="H349" s="2" t="inlineStr"/>
-      <c r="I349" s="2" t="inlineStr"/>
+      <c r="I349" s="2" t="inlineStr">
+        <is>
+          <t>This is a fuzzy set and can only be used if operationalised.</t>
+        </is>
+      </c>
       <c r="J349" s="2" t="inlineStr"/>
       <c r="K349" s="2" t="inlineStr"/>
       <c r="L349" s="2" t="inlineStr"/>
-      <c r="M349" s="2" t="inlineStr"/>
+      <c r="M349" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">self-efficacy belief </t>
+        </is>
+      </c>
       <c r="N349" s="2" t="inlineStr"/>
       <c r="O349" s="2" t="inlineStr">
         <is>
@@ -21405,78 +21407,84 @@
       <c r="X349" s="2" t="inlineStr"/>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>UBERON:0000465</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>material anatomical entity</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>Anatomical entity that has mass.</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr"/>
-      <c r="F350" t="inlineStr"/>
-      <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr"/>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="inlineStr"/>
-      <c r="N350" t="inlineStr"/>
-      <c r="O350" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="P350" t="inlineStr"/>
-      <c r="Q350" t="inlineStr"/>
-      <c r="R350" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S350" t="inlineStr"/>
-      <c r="T350" t="inlineStr"/>
-      <c r="U350" t="inlineStr"/>
-      <c r="V350" t="inlineStr"/>
-      <c r="W350" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X350" t="inlineStr"/>
+      <c r="A350" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050702</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">low social opportunity to enact a behaviour </t>
+        </is>
+      </c>
+      <c r="C350" s="2" t="inlineStr">
+        <is>
+          <t>low opportunity to enact a behaviour</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="inlineStr">
+        <is>
+          <t>&lt;Low opportunity to enact a behaviour&gt; where the opportunity is social.</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="inlineStr"/>
+      <c r="F350" s="2" t="inlineStr"/>
+      <c r="G350" s="2" t="inlineStr">
+        <is>
+          <t>not ‘social behavioural opportunity’</t>
+        </is>
+      </c>
+      <c r="H350" s="2" t="inlineStr"/>
+      <c r="I350" s="2" t="inlineStr"/>
+      <c r="J350" s="2" t="inlineStr"/>
+      <c r="K350" s="2" t="inlineStr"/>
+      <c r="L350" s="2" t="inlineStr"/>
+      <c r="M350" s="2" t="inlineStr"/>
+      <c r="N350" s="2" t="inlineStr"/>
+      <c r="O350" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="P350" s="2" t="inlineStr"/>
+      <c r="Q350" s="2" t="inlineStr"/>
+      <c r="R350" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S350" s="2" t="inlineStr"/>
+      <c r="T350" s="2" t="inlineStr"/>
+      <c r="U350" s="2" t="inlineStr"/>
+      <c r="V350" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W350" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X350" s="2" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
+          <t>UBERON:0000465</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>Anatomical entity that has mass.</t>
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
@@ -21504,11 +21512,7 @@
       <c r="S351" t="inlineStr"/>
       <c r="T351" t="inlineStr"/>
       <c r="U351" t="inlineStr"/>
-      <c r="V351" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="V351" t="inlineStr"/>
       <c r="W351" t="inlineStr">
         <is>
           <t>0</t>
@@ -21517,82 +21521,72 @@
       <c r="X351" t="inlineStr"/>
     </row>
     <row r="352">
-      <c r="A352" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050293</t>
-        </is>
-      </c>
-      <c r="B352" s="2" t="inlineStr">
-        <is>
-          <t>mechanism of action through bodily disposition</t>
-        </is>
-      </c>
-      <c r="C352" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention mechanism of action</t>
-        </is>
-      </c>
-      <c r="D352" s="2" t="inlineStr">
-        <is>
-          <t>A &lt;behaviour change intervention mechanism of action&gt; in which the causal influence affects a bodily disposition.</t>
-        </is>
-      </c>
-      <c r="E352" s="2" t="inlineStr"/>
-      <c r="F352" s="2" t="inlineStr"/>
-      <c r="G352" s="2" t="inlineStr"/>
-      <c r="H352" s="2" t="inlineStr"/>
-      <c r="I352" s="2" t="inlineStr">
-        <is>
-          <t>The relation between ‘mechanism of action through bodily disposition’ and ‘bodily disposition’ is labelled as ‘through'.
-The ‘through’ relationship is defined as: ‘A relation that holds between an intervention’s mechanism of action and an entity x, in which the entity x (a) participates in or is part of the mechanism of action process and (b) is influenced by a BCI or its context such that there is some change in entity x.’ 
-In this definition, ‘change’ refers to change from what would have been the case rather than change from an existing state of affairs. This is to capture the fact that mechanisms of action can act to sustain a current state of affairs, for example preventing smoking uptake. In the definition, ‘some change’ captures changes in salience, change in valence, or being added, increased, decreased, manifested/realised, created, started, stopped or altered rate.</t>
-        </is>
-      </c>
-      <c r="J352" s="2" t="inlineStr"/>
-      <c r="K352" s="2" t="inlineStr"/>
-      <c r="L352" s="2" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="M352" s="2" t="inlineStr"/>
-      <c r="N352" s="2" t="inlineStr"/>
-      <c r="O352" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="P352" s="2" t="inlineStr"/>
-      <c r="Q352" s="2" t="inlineStr"/>
-      <c r="R352" s="2" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="S352" s="2" t="inlineStr"/>
-      <c r="T352" s="2" t="inlineStr"/>
-      <c r="U352" s="2" t="inlineStr"/>
-      <c r="V352" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="W352" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X352" s="2" t="inlineStr"/>
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
+      <c r="M352" t="inlineStr"/>
+      <c r="N352" t="inlineStr"/>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr"/>
+      <c r="Q352" t="inlineStr"/>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="S352" t="inlineStr"/>
+      <c r="T352" t="inlineStr"/>
+      <c r="U352" t="inlineStr"/>
+      <c r="V352" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050294</t>
+          <t>BCIO:050293</t>
         </is>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>mechanism of action through bodily process</t>
+          <t>mechanism of action through bodily disposition</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
@@ -21602,7 +21596,7 @@
       </c>
       <c r="D353" s="2" t="inlineStr">
         <is>
-          <t>A &lt;behaviour change intervention mechanism of action&gt; in which the causal influence occurs in a bodily process.</t>
+          <t>A &lt;behaviour change intervention mechanism of 